--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263556</v>
+        <v>0.27189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251281</v>
+        <v>0.269249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251772</v>
+        <v>0.252648</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260196</v>
+        <v>0.270263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25039</v>
+        <v>0.272952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251149</v>
+        <v>0.243946</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253606</v>
+        <v>0.263557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24696</v>
+        <v>0.269754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24671</v>
+        <v>0.252245</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244064</v>
+        <v>0.253582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.245539</v>
+        <v>0.264086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249103</v>
+        <v>0.253524</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241399</v>
+        <v>0.246858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247245</v>
+        <v>0.26433</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253926</v>
+        <v>0.244881</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233539</v>
+        <v>0.23721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248612</v>
+        <v>0.261751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248349</v>
+        <v>0.245509</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221942</v>
+        <v>0.224192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241396</v>
+        <v>0.258159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.244623</v>
+        <v>0.243083</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209537</v>
+        <v>0.216757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244042</v>
+        <v>0.279084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258525</v>
+        <v>0.259709</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303979</v>
+        <v>0.31016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.260072</v>
+        <v>0.27567</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255044</v>
+        <v>0.255157</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.291188</v>
+        <v>0.300516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251594</v>
+        <v>0.272747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25412</v>
+        <v>0.259193</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287018</v>
+        <v>0.296292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249553</v>
+        <v>0.268137</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257255</v>
+        <v>0.254149</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283166</v>
+        <v>0.289249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.251643</v>
+        <v>0.269971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249689</v>
+        <v>0.258474</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272826</v>
+        <v>0.284383</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248688</v>
+        <v>0.265465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249746</v>
+        <v>0.247119</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266096</v>
+        <v>0.28267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24699</v>
+        <v>0.26777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254053</v>
+        <v>0.251716</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258931</v>
+        <v>0.275559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24745</v>
+        <v>0.26656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248073</v>
+        <v>0.253484</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253452</v>
+        <v>0.267965</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249737</v>
+        <v>0.265383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250202</v>
+        <v>0.248278</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25098</v>
+        <v>0.260493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244208</v>
+        <v>0.26036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250029</v>
+        <v>0.246104</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244725</v>
+        <v>0.253716</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245634</v>
+        <v>0.264155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2506</v>
+        <v>0.246185</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23612</v>
+        <v>0.250702</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247033</v>
+        <v>0.262352</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246479</v>
+        <v>0.246776</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230134</v>
+        <v>0.241596</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244859</v>
+        <v>0.263227</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248723</v>
+        <v>0.249955</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221402</v>
+        <v>0.232713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243787</v>
+        <v>0.259624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248062</v>
+        <v>0.246075</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.217302</v>
+        <v>0.226302</v>
       </c>
       <c r="C23" t="n">
-        <v>0.239861</v>
+        <v>0.277545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260746</v>
+        <v>0.263031</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298034</v>
+        <v>0.30916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259015</v>
+        <v>0.276002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261996</v>
+        <v>0.261987</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.292451</v>
+        <v>0.305078</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25395</v>
+        <v>0.27449</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259072</v>
+        <v>0.258378</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286098</v>
+        <v>0.300173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.252254</v>
+        <v>0.268533</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256646</v>
+        <v>0.260479</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.281935</v>
+        <v>0.291902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25191</v>
+        <v>0.270991</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255691</v>
+        <v>0.259532</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27239</v>
+        <v>0.287318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253071</v>
+        <v>0.271738</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257457</v>
+        <v>0.257721</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268336</v>
+        <v>0.279657</v>
       </c>
       <c r="C29" t="n">
-        <v>0.252366</v>
+        <v>0.269492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251732</v>
+        <v>0.253833</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263767</v>
+        <v>0.271071</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251005</v>
+        <v>0.26582</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251821</v>
+        <v>0.258004</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257662</v>
+        <v>0.26737</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248452</v>
+        <v>0.262792</v>
       </c>
       <c r="D31" t="n">
-        <v>0.249943</v>
+        <v>0.256146</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252445</v>
+        <v>0.260133</v>
       </c>
       <c r="C32" t="n">
-        <v>0.245565</v>
+        <v>0.263164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252293</v>
+        <v>0.253443</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243236</v>
+        <v>0.256745</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24625</v>
+        <v>0.262805</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247499</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.238562</v>
+        <v>0.247851</v>
       </c>
       <c r="C34" t="n">
-        <v>0.247168</v>
+        <v>0.264517</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247699</v>
+        <v>0.249391</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23144</v>
+        <v>0.242103</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246935</v>
+        <v>0.260171</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246715</v>
+        <v>0.248023</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227221</v>
+        <v>0.234353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245148</v>
+        <v>0.261272</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246861</v>
+        <v>0.247816</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216493</v>
+        <v>0.2245</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247765</v>
+        <v>0.277439</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263522</v>
+        <v>0.267659</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300201</v>
+        <v>0.310427</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260502</v>
+        <v>0.280326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26496</v>
+        <v>0.269559</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296624</v>
+        <v>0.300742</v>
       </c>
       <c r="C39" t="n">
-        <v>0.260452</v>
+        <v>0.274966</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264495</v>
+        <v>0.265323</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.290028</v>
+        <v>0.298712</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25985</v>
+        <v>0.278884</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262516</v>
+        <v>0.263271</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.286803</v>
+        <v>0.295628</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258749</v>
+        <v>0.269698</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259701</v>
+        <v>0.257672</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281814</v>
+        <v>0.28628</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256673</v>
+        <v>0.265056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.256741</v>
+        <v>0.255928</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273225</v>
+        <v>0.279368</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254488</v>
+        <v>0.266163</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25797</v>
+        <v>0.253998</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270505</v>
+        <v>0.273485</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251882</v>
+        <v>0.263559</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255692</v>
+        <v>0.254843</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261439</v>
+        <v>0.268084</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254422</v>
+        <v>0.264119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.252469</v>
+        <v>0.25218</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.254444</v>
+        <v>0.262657</v>
       </c>
       <c r="C46" t="n">
-        <v>0.248651</v>
+        <v>0.260404</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252408</v>
+        <v>0.252128</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249546</v>
+        <v>0.253429</v>
       </c>
       <c r="C47" t="n">
-        <v>0.248514</v>
+        <v>0.260594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252145</v>
+        <v>0.249496</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241047</v>
+        <v>0.246449</v>
       </c>
       <c r="C48" t="n">
-        <v>0.246195</v>
+        <v>0.262097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25214</v>
+        <v>0.250347</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.234475</v>
+        <v>0.240456</v>
       </c>
       <c r="C49" t="n">
-        <v>0.247775</v>
+        <v>0.256709</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248085</v>
+        <v>0.248593</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.228351</v>
+        <v>0.23717</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24922</v>
+        <v>0.263927</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24651</v>
+        <v>0.249456</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.223305</v>
+        <v>0.229002</v>
       </c>
       <c r="C51" t="n">
-        <v>0.246826</v>
+        <v>0.289432</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274384</v>
+        <v>0.274094</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21326</v>
+        <v>0.223704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.247216</v>
+        <v>0.285005</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268771</v>
+        <v>0.268584</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.303282</v>
+        <v>0.313124</v>
       </c>
       <c r="C53" t="n">
-        <v>0.266259</v>
+        <v>0.283182</v>
       </c>
       <c r="D53" t="n">
-        <v>0.265965</v>
+        <v>0.269662</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.300144</v>
+        <v>0.310795</v>
       </c>
       <c r="C54" t="n">
-        <v>0.268035</v>
+        <v>0.281122</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264111</v>
+        <v>0.269166</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293246</v>
+        <v>0.306573</v>
       </c>
       <c r="C55" t="n">
-        <v>0.263447</v>
+        <v>0.28279</v>
       </c>
       <c r="D55" t="n">
-        <v>0.265235</v>
+        <v>0.27194</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.285638</v>
+        <v>0.301404</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26003</v>
+        <v>0.275995</v>
       </c>
       <c r="D56" t="n">
-        <v>0.263384</v>
+        <v>0.265427</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.279514</v>
+        <v>0.294268</v>
       </c>
       <c r="C57" t="n">
-        <v>0.259307</v>
+        <v>0.274809</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260254</v>
+        <v>0.263186</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277288</v>
+        <v>0.284161</v>
       </c>
       <c r="C58" t="n">
-        <v>0.258523</v>
+        <v>0.275885</v>
       </c>
       <c r="D58" t="n">
-        <v>0.26406</v>
+        <v>0.263605</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268504</v>
+        <v>0.281275</v>
       </c>
       <c r="C59" t="n">
-        <v>0.260483</v>
+        <v>0.268258</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260603</v>
+        <v>0.256649</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260515</v>
+        <v>0.270726</v>
       </c>
       <c r="C60" t="n">
-        <v>0.259382</v>
+        <v>0.274321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259892</v>
+        <v>0.257823</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257129</v>
+        <v>0.267771</v>
       </c>
       <c r="C61" t="n">
-        <v>0.254623</v>
+        <v>0.268907</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259538</v>
+        <v>0.25591</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247976</v>
+        <v>0.261273</v>
       </c>
       <c r="C62" t="n">
-        <v>0.252198</v>
+        <v>0.274048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258566</v>
+        <v>0.262249</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.242289</v>
+        <v>0.254203</v>
       </c>
       <c r="C63" t="n">
-        <v>0.251413</v>
+        <v>0.267134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252407</v>
+        <v>0.255882</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236742</v>
+        <v>0.247848</v>
       </c>
       <c r="C64" t="n">
-        <v>0.252487</v>
+        <v>0.267813</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254169</v>
+        <v>0.256366</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230685</v>
+        <v>0.237061</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252685</v>
+        <v>0.265926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252025</v>
+        <v>0.249426</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.219876</v>
+        <v>0.226024</v>
       </c>
       <c r="C66" t="n">
-        <v>0.248377</v>
+        <v>0.292727</v>
       </c>
       <c r="D66" t="n">
-        <v>0.277773</v>
+        <v>0.284554</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313791</v>
+        <v>0.32393</v>
       </c>
       <c r="C67" t="n">
-        <v>0.276468</v>
+        <v>0.290249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.274373</v>
+        <v>0.278183</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305751</v>
+        <v>0.312839</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271607</v>
+        <v>0.289947</v>
       </c>
       <c r="D68" t="n">
-        <v>0.277421</v>
+        <v>0.276941</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.304439</v>
+        <v>0.319965</v>
       </c>
       <c r="C69" t="n">
-        <v>0.274443</v>
+        <v>0.290584</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270193</v>
+        <v>0.279726</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298565</v>
+        <v>0.311185</v>
       </c>
       <c r="C70" t="n">
-        <v>0.273034</v>
+        <v>0.291253</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267755</v>
+        <v>0.275856</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.294228</v>
+        <v>0.299434</v>
       </c>
       <c r="C71" t="n">
-        <v>0.271331</v>
+        <v>0.283009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.274187</v>
+        <v>0.271379</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.285317</v>
+        <v>0.29452</v>
       </c>
       <c r="C72" t="n">
-        <v>0.266038</v>
+        <v>0.282623</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266301</v>
+        <v>0.269431</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.280047</v>
+        <v>0.289235</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267532</v>
+        <v>0.280549</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266966</v>
+        <v>0.268864</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269761</v>
+        <v>0.281318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261156</v>
+        <v>0.274667</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264545</v>
+        <v>0.268291</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26418</v>
+        <v>0.274261</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259256</v>
+        <v>0.27716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262604</v>
+        <v>0.264245</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.255212</v>
+        <v>0.269899</v>
       </c>
       <c r="C76" t="n">
-        <v>0.259077</v>
+        <v>0.277625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260452</v>
+        <v>0.266105</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.247394</v>
+        <v>0.262885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258262</v>
+        <v>0.273394</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260377</v>
+        <v>0.26012</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240084</v>
+        <v>0.253909</v>
       </c>
       <c r="C78" t="n">
-        <v>0.258427</v>
+        <v>0.273783</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258472</v>
+        <v>0.262732</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233741</v>
+        <v>0.24606</v>
       </c>
       <c r="C79" t="n">
-        <v>0.256421</v>
+        <v>0.27221</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256915</v>
+        <v>0.262159</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227459</v>
+        <v>0.236599</v>
       </c>
       <c r="C80" t="n">
-        <v>0.254876</v>
+        <v>0.298559</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284529</v>
+        <v>0.287133</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.324146</v>
+        <v>0.330333</v>
       </c>
       <c r="C81" t="n">
-        <v>0.282459</v>
+        <v>0.298159</v>
       </c>
       <c r="D81" t="n">
-        <v>0.284787</v>
+        <v>0.287024</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.320304</v>
+        <v>0.329444</v>
       </c>
       <c r="C82" t="n">
-        <v>0.282604</v>
+        <v>0.296118</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280072</v>
+        <v>0.28823</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.311075</v>
+        <v>0.323793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.277685</v>
+        <v>0.294875</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276579</v>
+        <v>0.277773</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304744</v>
+        <v>0.313283</v>
       </c>
       <c r="C84" t="n">
-        <v>0.272329</v>
+        <v>0.287639</v>
       </c>
       <c r="D84" t="n">
-        <v>0.274091</v>
+        <v>0.279099</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.295526</v>
+        <v>0.30594</v>
       </c>
       <c r="C85" t="n">
-        <v>0.273856</v>
+        <v>0.285557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.271327</v>
+        <v>0.277323</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288578</v>
+        <v>0.30248</v>
       </c>
       <c r="C86" t="n">
-        <v>0.269898</v>
+        <v>0.283541</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270913</v>
+        <v>0.273372</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.281979</v>
+        <v>0.297667</v>
       </c>
       <c r="C87" t="n">
-        <v>0.270225</v>
+        <v>0.279669</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272819</v>
+        <v>0.27275</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.273726</v>
+        <v>0.285745</v>
       </c>
       <c r="C88" t="n">
-        <v>0.268156</v>
+        <v>0.279094</v>
       </c>
       <c r="D88" t="n">
-        <v>0.265606</v>
+        <v>0.27115</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.269884</v>
+        <v>0.279317</v>
       </c>
       <c r="C89" t="n">
-        <v>0.266568</v>
+        <v>0.278756</v>
       </c>
       <c r="D89" t="n">
-        <v>0.264608</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260753</v>
+        <v>0.271834</v>
       </c>
       <c r="C90" t="n">
-        <v>0.263795</v>
+        <v>0.27878</v>
       </c>
       <c r="D90" t="n">
-        <v>0.266774</v>
+        <v>0.268255</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252523</v>
+        <v>0.266067</v>
       </c>
       <c r="C91" t="n">
-        <v>0.260816</v>
+        <v>0.275688</v>
       </c>
       <c r="D91" t="n">
-        <v>0.259565</v>
+        <v>0.266456</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247343</v>
+        <v>0.25415</v>
       </c>
       <c r="C92" t="n">
-        <v>0.260353</v>
+        <v>0.274095</v>
       </c>
       <c r="D92" t="n">
-        <v>0.262163</v>
+        <v>0.265793</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.239169</v>
+        <v>0.248573</v>
       </c>
       <c r="C93" t="n">
-        <v>0.256628</v>
+        <v>0.272429</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259056</v>
+        <v>0.263594</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227377</v>
+        <v>0.241754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258297</v>
+        <v>0.299113</v>
       </c>
       <c r="D94" t="n">
-        <v>0.28722</v>
+        <v>0.287958</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.322861</v>
+        <v>0.33658</v>
       </c>
       <c r="C95" t="n">
-        <v>0.28301</v>
+        <v>0.304017</v>
       </c>
       <c r="D95" t="n">
-        <v>0.284598</v>
+        <v>0.287205</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.318001</v>
+        <v>0.327238</v>
       </c>
       <c r="C96" t="n">
-        <v>0.282356</v>
+        <v>0.301755</v>
       </c>
       <c r="D96" t="n">
-        <v>0.283609</v>
+        <v>0.284004</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308344</v>
+        <v>0.320436</v>
       </c>
       <c r="C97" t="n">
-        <v>0.277157</v>
+        <v>0.292062</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281059</v>
+        <v>0.287086</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.304031</v>
+        <v>0.323409</v>
       </c>
       <c r="C98" t="n">
-        <v>0.275949</v>
+        <v>0.291954</v>
       </c>
       <c r="D98" t="n">
-        <v>0.281315</v>
+        <v>0.278377</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.301441</v>
+        <v>0.306164</v>
       </c>
       <c r="C99" t="n">
-        <v>0.276428</v>
+        <v>0.287823</v>
       </c>
       <c r="D99" t="n">
-        <v>0.276274</v>
+        <v>0.274641</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.290123</v>
+        <v>0.301738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.271872</v>
+        <v>0.288653</v>
       </c>
       <c r="D100" t="n">
-        <v>0.274556</v>
+        <v>0.272491</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.282994</v>
+        <v>0.296426</v>
       </c>
       <c r="C101" t="n">
-        <v>0.270761</v>
+        <v>0.282658</v>
       </c>
       <c r="D101" t="n">
-        <v>0.268719</v>
+        <v>0.269572</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.276831</v>
+        <v>0.281232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.268111</v>
+        <v>0.286507</v>
       </c>
       <c r="D102" t="n">
-        <v>0.268268</v>
+        <v>0.269985</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.273435</v>
+        <v>0.278793</v>
       </c>
       <c r="C103" t="n">
-        <v>0.266235</v>
+        <v>0.2795</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264275</v>
+        <v>0.270867</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.263134</v>
+        <v>0.272203</v>
       </c>
       <c r="C104" t="n">
-        <v>0.267421</v>
+        <v>0.282806</v>
       </c>
       <c r="D104" t="n">
-        <v>0.269896</v>
+        <v>0.264086</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258804</v>
+        <v>0.273631</v>
       </c>
       <c r="C105" t="n">
-        <v>0.264839</v>
+        <v>0.28047</v>
       </c>
       <c r="D105" t="n">
-        <v>0.265436</v>
+        <v>0.264353</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246375</v>
+        <v>0.257323</v>
       </c>
       <c r="C106" t="n">
-        <v>0.262463</v>
+        <v>0.277538</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259807</v>
+        <v>0.269606</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244431</v>
+        <v>0.252502</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2565</v>
+        <v>0.275943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.26011</v>
+        <v>0.267894</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235028</v>
+        <v>0.243755</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261918</v>
+        <v>0.303667</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287757</v>
+        <v>0.29079</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221439</v>
+        <v>0.230786</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255901</v>
+        <v>0.301529</v>
       </c>
       <c r="D109" t="n">
-        <v>0.287095</v>
+        <v>0.287282</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.315808</v>
+        <v>0.328875</v>
       </c>
       <c r="C110" t="n">
-        <v>0.283552</v>
+        <v>0.300544</v>
       </c>
       <c r="D110" t="n">
-        <v>0.28412</v>
+        <v>0.282971</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.313358</v>
+        <v>0.326342</v>
       </c>
       <c r="C111" t="n">
-        <v>0.278228</v>
+        <v>0.298044</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282328</v>
+        <v>0.280618</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.305719</v>
+        <v>0.314784</v>
       </c>
       <c r="C112" t="n">
-        <v>0.279668</v>
+        <v>0.298855</v>
       </c>
       <c r="D112" t="n">
-        <v>0.277857</v>
+        <v>0.277534</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.303701</v>
+        <v>0.316432</v>
       </c>
       <c r="C113" t="n">
-        <v>0.278644</v>
+        <v>0.290361</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275358</v>
+        <v>0.279472</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293272</v>
+        <v>0.306271</v>
       </c>
       <c r="C114" t="n">
-        <v>0.28013</v>
+        <v>0.293554</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26879</v>
+        <v>0.27482</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289903</v>
+        <v>0.295033</v>
       </c>
       <c r="C115" t="n">
-        <v>0.272713</v>
+        <v>0.283997</v>
       </c>
       <c r="D115" t="n">
-        <v>0.273555</v>
+        <v>0.274784</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.277712</v>
+        <v>0.293937</v>
       </c>
       <c r="C116" t="n">
-        <v>0.269899</v>
+        <v>0.280628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269727</v>
+        <v>0.272762</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273927</v>
+        <v>0.282397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.268726</v>
+        <v>0.280364</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2664</v>
+        <v>0.270219</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.269944</v>
+        <v>0.274745</v>
       </c>
       <c r="C118" t="n">
-        <v>0.258951</v>
+        <v>0.282474</v>
       </c>
       <c r="D118" t="n">
-        <v>0.265421</v>
+        <v>0.269913</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263634</v>
+        <v>0.269782</v>
       </c>
       <c r="C119" t="n">
-        <v>0.262432</v>
+        <v>0.27895</v>
       </c>
       <c r="D119" t="n">
-        <v>0.262451</v>
+        <v>0.270565</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250397</v>
+        <v>0.259353</v>
       </c>
       <c r="C120" t="n">
-        <v>0.261989</v>
+        <v>0.277705</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263328</v>
+        <v>0.268335</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245654</v>
+        <v>0.251148</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258109</v>
+        <v>0.275295</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258972</v>
+        <v>0.266692</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234579</v>
+        <v>0.242154</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257768</v>
+        <v>0.277789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260207</v>
+        <v>0.263999</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226113</v>
+        <v>0.230299</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26344</v>
+        <v>0.300682</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287096</v>
+        <v>0.300397</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318765</v>
+        <v>0.330228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.282393</v>
+        <v>0.301246</v>
       </c>
       <c r="D124" t="n">
-        <v>0.285767</v>
+        <v>0.282943</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321332</v>
+        <v>0.331144</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280317</v>
+        <v>0.292323</v>
       </c>
       <c r="D125" t="n">
-        <v>0.277275</v>
+        <v>0.284315</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315095</v>
+        <v>0.318501</v>
       </c>
       <c r="C126" t="n">
-        <v>0.281813</v>
+        <v>0.292156</v>
       </c>
       <c r="D126" t="n">
-        <v>0.281531</v>
+        <v>0.284053</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.309944</v>
+        <v>0.311237</v>
       </c>
       <c r="C127" t="n">
-        <v>0.276889</v>
+        <v>0.294687</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275275</v>
+        <v>0.277352</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.300066</v>
+        <v>0.304383</v>
       </c>
       <c r="C128" t="n">
-        <v>0.274812</v>
+        <v>0.291887</v>
       </c>
       <c r="D128" t="n">
-        <v>0.272907</v>
+        <v>0.278037</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2844</v>
+        <v>0.298189</v>
       </c>
       <c r="C129" t="n">
-        <v>0.275737</v>
+        <v>0.289412</v>
       </c>
       <c r="D129" t="n">
-        <v>0.275096</v>
+        <v>0.276852</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28025</v>
+        <v>0.285554</v>
       </c>
       <c r="C130" t="n">
-        <v>0.270098</v>
+        <v>0.281609</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268837</v>
+        <v>0.27365</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.268195</v>
+        <v>0.282414</v>
       </c>
       <c r="C131" t="n">
-        <v>0.268213</v>
+        <v>0.27377</v>
       </c>
       <c r="D131" t="n">
-        <v>0.262789</v>
+        <v>0.263369</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.267392</v>
+        <v>0.271754</v>
       </c>
       <c r="C132" t="n">
-        <v>0.267086</v>
+        <v>0.272705</v>
       </c>
       <c r="D132" t="n">
-        <v>0.266194</v>
+        <v>0.262514</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258334</v>
+        <v>0.265477</v>
       </c>
       <c r="C133" t="n">
-        <v>0.261248</v>
+        <v>0.2721</v>
       </c>
       <c r="D133" t="n">
-        <v>0.261373</v>
+        <v>0.260379</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251226</v>
+        <v>0.254524</v>
       </c>
       <c r="C134" t="n">
-        <v>0.259461</v>
+        <v>0.269879</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264583</v>
+        <v>0.257932</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.245027</v>
+        <v>0.246908</v>
       </c>
       <c r="C135" t="n">
-        <v>0.258278</v>
+        <v>0.272501</v>
       </c>
       <c r="D135" t="n">
-        <v>0.258848</v>
+        <v>0.260739</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.237533</v>
+        <v>0.240726</v>
       </c>
       <c r="C136" t="n">
-        <v>0.258977</v>
+        <v>0.269574</v>
       </c>
       <c r="D136" t="n">
-        <v>0.263228</v>
+        <v>0.255969</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226772</v>
+        <v>0.228408</v>
       </c>
       <c r="C137" t="n">
-        <v>0.25779</v>
+        <v>0.299094</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286483</v>
+        <v>0.282166</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.322344</v>
+        <v>0.324963</v>
       </c>
       <c r="C138" t="n">
-        <v>0.28351</v>
+        <v>0.291783</v>
       </c>
       <c r="D138" t="n">
-        <v>0.29459</v>
+        <v>0.279518</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.329637</v>
+        <v>0.320719</v>
       </c>
       <c r="C139" t="n">
-        <v>0.287729</v>
+        <v>0.288356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279781</v>
+        <v>0.27664</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.308133</v>
+        <v>0.314553</v>
       </c>
       <c r="C140" t="n">
-        <v>0.283904</v>
+        <v>0.28612</v>
       </c>
       <c r="D140" t="n">
-        <v>0.277217</v>
+        <v>0.274167</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.303551</v>
+        <v>0.314019</v>
       </c>
       <c r="C141" t="n">
-        <v>0.279825</v>
+        <v>0.296768</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276227</v>
+        <v>0.280304</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.292687</v>
+        <v>0.304346</v>
       </c>
       <c r="C142" t="n">
-        <v>0.270565</v>
+        <v>0.298028</v>
       </c>
       <c r="D142" t="n">
-        <v>0.271722</v>
+        <v>0.277945</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.294524</v>
+        <v>0.296495</v>
       </c>
       <c r="C143" t="n">
-        <v>0.274046</v>
+        <v>0.284623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271725</v>
+        <v>0.278423</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256062</v>
+        <v>0.266299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.268939</v>
+        <v>0.271055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247849</v>
+        <v>0.246361</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259514</v>
+        <v>0.259022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.270918</v>
+        <v>0.270802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246612</v>
+        <v>0.245887</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.249688</v>
+        <v>0.253763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.272839</v>
+        <v>0.272428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.244896</v>
+        <v>0.247007</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24434</v>
+        <v>0.24644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.274228</v>
+        <v>0.265662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2465</v>
+        <v>0.24431</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241482</v>
+        <v>0.234448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.270656</v>
+        <v>0.264119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241782</v>
+        <v>0.236738</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231016</v>
+        <v>0.22765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.267347</v>
+        <v>0.263348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241485</v>
+        <v>0.238531</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221637</v>
+        <v>0.217143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.26455</v>
+        <v>0.261675</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2437</v>
+        <v>0.239946</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.210476</v>
+        <v>0.210041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.280968</v>
+        <v>0.281159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252598</v>
+        <v>0.253496</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.294292</v>
+        <v>0.296348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275095</v>
+        <v>0.278886</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250668</v>
+        <v>0.253651</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.292991</v>
+        <v>0.290414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.274007</v>
+        <v>0.271189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248977</v>
+        <v>0.242882</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.284655</v>
+        <v>0.282282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.272077</v>
+        <v>0.269529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251013</v>
+        <v>0.246579</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277614</v>
+        <v>0.278511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.269296</v>
+        <v>0.26977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247581</v>
+        <v>0.248231</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275534</v>
+        <v>0.275354</v>
       </c>
       <c r="C14" t="n">
-        <v>0.270847</v>
+        <v>0.264871</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250945</v>
+        <v>0.244543</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268184</v>
+        <v>0.265319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.267954</v>
+        <v>0.270131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24661</v>
+        <v>0.247328</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262556</v>
+        <v>0.261295</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267213</v>
+        <v>0.266882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250767</v>
+        <v>0.249182</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253755</v>
+        <v>0.258144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.265384</v>
+        <v>0.265197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24392</v>
+        <v>0.249602</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2481</v>
+        <v>0.249355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.263415</v>
+        <v>0.261719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248748</v>
+        <v>0.241925</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24398</v>
+        <v>0.241641</v>
       </c>
       <c r="C19" t="n">
-        <v>0.262178</v>
+        <v>0.263892</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243717</v>
+        <v>0.247707</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236309</v>
+        <v>0.236399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.263682</v>
+        <v>0.260009</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246416</v>
+        <v>0.246188</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22974</v>
+        <v>0.230709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260313</v>
+        <v>0.262866</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246255</v>
+        <v>0.243357</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224962</v>
+        <v>0.224481</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262392</v>
+        <v>0.262009</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242121</v>
+        <v>0.24701</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.216655</v>
+        <v>0.214566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277955</v>
+        <v>0.278803</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257708</v>
+        <v>0.253225</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.295933</v>
+        <v>0.295839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.275165</v>
+        <v>0.276187</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257959</v>
+        <v>0.254891</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.292333</v>
+        <v>0.293376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273303</v>
+        <v>0.270287</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255791</v>
+        <v>0.254778</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.284847</v>
+        <v>0.284925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272587</v>
+        <v>0.271785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.250674</v>
+        <v>0.253082</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285928</v>
+        <v>0.282352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270689</v>
+        <v>0.270313</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251694</v>
+        <v>0.249206</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276342</v>
+        <v>0.276346</v>
       </c>
       <c r="C28" t="n">
-        <v>0.271301</v>
+        <v>0.268168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251298</v>
+        <v>0.249425</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271141</v>
+        <v>0.268158</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272921</v>
+        <v>0.270506</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249297</v>
+        <v>0.248892</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263645</v>
+        <v>0.269076</v>
       </c>
       <c r="C30" t="n">
-        <v>0.268059</v>
+        <v>0.269317</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246464</v>
+        <v>0.24735</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256606</v>
+        <v>0.25814</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266279</v>
+        <v>0.266925</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250609</v>
+        <v>0.247996</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24877</v>
+        <v>0.251199</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267876</v>
+        <v>0.265161</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245276</v>
+        <v>0.248058</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246282</v>
+        <v>0.245259</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265812</v>
+        <v>0.263705</v>
       </c>
       <c r="D33" t="n">
-        <v>0.24777</v>
+        <v>0.245952</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.23796</v>
+        <v>0.245567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265568</v>
+        <v>0.265566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246348</v>
+        <v>0.244655</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232688</v>
+        <v>0.23125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266625</v>
+        <v>0.263877</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244274</v>
+        <v>0.244224</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225777</v>
+        <v>0.225739</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264406</v>
+        <v>0.261813</v>
       </c>
       <c r="D36" t="n">
-        <v>0.242252</v>
+        <v>0.240317</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.218368</v>
+        <v>0.219026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280968</v>
+        <v>0.281166</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263328</v>
+        <v>0.260869</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.30394</v>
+        <v>0.304878</v>
       </c>
       <c r="C38" t="n">
-        <v>0.283857</v>
+        <v>0.27913</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259718</v>
+        <v>0.26412</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294523</v>
+        <v>0.295657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.278716</v>
+        <v>0.281909</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264236</v>
+        <v>0.261154</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.288366</v>
+        <v>0.29117</v>
       </c>
       <c r="C40" t="n">
-        <v>0.281596</v>
+        <v>0.280226</v>
       </c>
       <c r="D40" t="n">
-        <v>0.259397</v>
+        <v>0.261783</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285406</v>
+        <v>0.288363</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276753</v>
+        <v>0.275295</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255126</v>
+        <v>0.258077</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279893</v>
+        <v>0.282836</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273817</v>
+        <v>0.272602</v>
       </c>
       <c r="D42" t="n">
-        <v>0.259407</v>
+        <v>0.256332</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275674</v>
+        <v>0.275738</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272364</v>
+        <v>0.275676</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252437</v>
+        <v>0.253289</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.271115</v>
+        <v>0.266769</v>
       </c>
       <c r="C44" t="n">
-        <v>0.271983</v>
+        <v>0.272839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252494</v>
+        <v>0.254335</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.264123</v>
+        <v>0.25906</v>
       </c>
       <c r="C45" t="n">
-        <v>0.271532</v>
+        <v>0.27111</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253047</v>
+        <v>0.245163</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258029</v>
+        <v>0.256574</v>
       </c>
       <c r="C46" t="n">
-        <v>0.270892</v>
+        <v>0.271875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248055</v>
+        <v>0.253176</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249545</v>
+        <v>0.252842</v>
       </c>
       <c r="C47" t="n">
-        <v>0.26736</v>
+        <v>0.269334</v>
       </c>
       <c r="D47" t="n">
-        <v>0.249783</v>
+        <v>0.248211</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241987</v>
+        <v>0.246541</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267578</v>
+        <v>0.263802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2495</v>
+        <v>0.251474</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.234654</v>
+        <v>0.237322</v>
       </c>
       <c r="C49" t="n">
-        <v>0.265323</v>
+        <v>0.265945</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24444</v>
+        <v>0.246177</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.230198</v>
+        <v>0.230113</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264967</v>
+        <v>0.267308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246249</v>
+        <v>0.246265</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221154</v>
+        <v>0.221134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288292</v>
+        <v>0.289321</v>
       </c>
       <c r="D51" t="n">
-        <v>0.268</v>
+        <v>0.268226</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.213507</v>
+        <v>0.213049</v>
       </c>
       <c r="C52" t="n">
-        <v>0.287622</v>
+        <v>0.28627</v>
       </c>
       <c r="D52" t="n">
-        <v>0.265265</v>
+        <v>0.267165</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.304207</v>
+        <v>0.30485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.288989</v>
+        <v>0.285903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.265931</v>
+        <v>0.266844</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.299668</v>
+        <v>0.296918</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282498</v>
+        <v>0.279199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26748</v>
+        <v>0.263014</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.292579</v>
+        <v>0.291696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.28149</v>
+        <v>0.284035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262689</v>
+        <v>0.262556</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.28587</v>
+        <v>0.286367</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278793</v>
+        <v>0.278992</v>
       </c>
       <c r="D56" t="n">
-        <v>0.259521</v>
+        <v>0.261713</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.280243</v>
+        <v>0.281125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277438</v>
+        <v>0.279242</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25831</v>
+        <v>0.257117</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.274023</v>
+        <v>0.275535</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278066</v>
+        <v>0.276316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.252857</v>
+        <v>0.25502</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.269648</v>
+        <v>0.271946</v>
       </c>
       <c r="C59" t="n">
-        <v>0.275501</v>
+        <v>0.274223</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253699</v>
+        <v>0.253959</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267045</v>
+        <v>0.260962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274941</v>
+        <v>0.273217</v>
       </c>
       <c r="D60" t="n">
-        <v>0.251974</v>
+        <v>0.253659</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.25715</v>
+        <v>0.255147</v>
       </c>
       <c r="C61" t="n">
-        <v>0.271816</v>
+        <v>0.272279</v>
       </c>
       <c r="D61" t="n">
-        <v>0.254319</v>
+        <v>0.25422</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25054</v>
+        <v>0.247944</v>
       </c>
       <c r="C62" t="n">
-        <v>0.271462</v>
+        <v>0.27462</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25382</v>
+        <v>0.251935</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.239439</v>
+        <v>0.241384</v>
       </c>
       <c r="C63" t="n">
-        <v>0.270451</v>
+        <v>0.274525</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250973</v>
+        <v>0.24798</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237804</v>
+        <v>0.2355</v>
       </c>
       <c r="C64" t="n">
-        <v>0.26808</v>
+        <v>0.267306</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248706</v>
+        <v>0.251385</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.225891</v>
+        <v>0.225233</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267188</v>
+        <v>0.267921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24727</v>
+        <v>0.24744</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21724</v>
+        <v>0.220447</v>
       </c>
       <c r="C66" t="n">
-        <v>0.293302</v>
+        <v>0.300986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.274767</v>
+        <v>0.280337</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.311552</v>
+        <v>0.318539</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293882</v>
+        <v>0.294603</v>
       </c>
       <c r="D67" t="n">
-        <v>0.272459</v>
+        <v>0.27849</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.307718</v>
+        <v>0.311151</v>
       </c>
       <c r="C68" t="n">
-        <v>0.292563</v>
+        <v>0.290359</v>
       </c>
       <c r="D68" t="n">
-        <v>0.270424</v>
+        <v>0.276585</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.303276</v>
+        <v>0.307567</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285441</v>
+        <v>0.292452</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26869</v>
+        <v>0.272438</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.291725</v>
+        <v>0.298394</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285663</v>
+        <v>0.285961</v>
       </c>
       <c r="D70" t="n">
-        <v>0.265127</v>
+        <v>0.271156</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.296413</v>
+        <v>0.296436</v>
       </c>
       <c r="C71" t="n">
-        <v>0.283942</v>
+        <v>0.286744</v>
       </c>
       <c r="D71" t="n">
-        <v>0.26591</v>
+        <v>0.267699</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283978</v>
+        <v>0.28548</v>
       </c>
       <c r="C72" t="n">
-        <v>0.28364</v>
+        <v>0.284521</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261287</v>
+        <v>0.26966</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.27548</v>
+        <v>0.280297</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283347</v>
+        <v>0.282885</v>
       </c>
       <c r="D73" t="n">
-        <v>0.263984</v>
+        <v>0.263259</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.273582</v>
+        <v>0.272101</v>
       </c>
       <c r="C74" t="n">
-        <v>0.281012</v>
+        <v>0.27774</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258233</v>
+        <v>0.260818</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.263478</v>
+        <v>0.264925</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275345</v>
+        <v>0.278685</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257903</v>
+        <v>0.264426</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.257351</v>
+        <v>0.257892</v>
       </c>
       <c r="C76" t="n">
-        <v>0.276829</v>
+        <v>0.274995</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25589</v>
+        <v>0.257732</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.251845</v>
+        <v>0.250258</v>
       </c>
       <c r="C77" t="n">
-        <v>0.277733</v>
+        <v>0.275871</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254205</v>
+        <v>0.256508</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244594</v>
+        <v>0.244324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.277636</v>
+        <v>0.276219</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256154</v>
+        <v>0.256988</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233558</v>
+        <v>0.235779</v>
       </c>
       <c r="C79" t="n">
-        <v>0.272785</v>
+        <v>0.277672</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256088</v>
+        <v>0.255427</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228709</v>
+        <v>0.228048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.29993</v>
+        <v>0.302757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284105</v>
+        <v>0.282178</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318655</v>
+        <v>0.319195</v>
       </c>
       <c r="C81" t="n">
-        <v>0.299752</v>
+        <v>0.29619</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280232</v>
+        <v>0.280781</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.314625</v>
+        <v>0.314619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.29707</v>
+        <v>0.299297</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276689</v>
+        <v>0.274765</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.309358</v>
+        <v>0.310181</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295327</v>
+        <v>0.295995</v>
       </c>
       <c r="D83" t="n">
-        <v>0.273055</v>
+        <v>0.274276</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30411</v>
+        <v>0.299738</v>
       </c>
       <c r="C84" t="n">
-        <v>0.293141</v>
+        <v>0.289991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.272396</v>
+        <v>0.27155</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29813</v>
+        <v>0.29514</v>
       </c>
       <c r="C85" t="n">
-        <v>0.287943</v>
+        <v>0.289865</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270868</v>
+        <v>0.269382</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.290989</v>
+        <v>0.288577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.290528</v>
+        <v>0.286788</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268871</v>
+        <v>0.265252</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277903</v>
+        <v>0.285568</v>
       </c>
       <c r="C87" t="n">
-        <v>0.285961</v>
+        <v>0.28324</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265671</v>
+        <v>0.264979</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.272197</v>
+        <v>0.273841</v>
       </c>
       <c r="C88" t="n">
-        <v>0.285043</v>
+        <v>0.278777</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262401</v>
+        <v>0.261709</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.270187</v>
+        <v>0.271495</v>
       </c>
       <c r="C89" t="n">
-        <v>0.281242</v>
+        <v>0.284567</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261272</v>
+        <v>0.258388</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263808</v>
+        <v>0.260472</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280875</v>
+        <v>0.281175</v>
       </c>
       <c r="D90" t="n">
-        <v>0.260774</v>
+        <v>0.26014</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253434</v>
+        <v>0.254499</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278853</v>
+        <v>0.276072</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255892</v>
+        <v>0.257743</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242951</v>
+        <v>0.246065</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275757</v>
+        <v>0.276759</v>
       </c>
       <c r="D92" t="n">
-        <v>0.256177</v>
+        <v>0.25577</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.242467</v>
+        <v>0.243989</v>
       </c>
       <c r="C93" t="n">
-        <v>0.278333</v>
+        <v>0.273887</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253889</v>
+        <v>0.26088</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227576</v>
+        <v>0.233533</v>
       </c>
       <c r="C94" t="n">
-        <v>0.303986</v>
+        <v>0.306937</v>
       </c>
       <c r="D94" t="n">
-        <v>0.281349</v>
+        <v>0.280111</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.327028</v>
+        <v>0.32004</v>
       </c>
       <c r="C95" t="n">
-        <v>0.298789</v>
+        <v>0.299942</v>
       </c>
       <c r="D95" t="n">
-        <v>0.281603</v>
+        <v>0.283643</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316969</v>
+        <v>0.317915</v>
       </c>
       <c r="C96" t="n">
-        <v>0.299809</v>
+        <v>0.300993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278394</v>
+        <v>0.275125</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.312816</v>
+        <v>0.310381</v>
       </c>
       <c r="C97" t="n">
-        <v>0.294084</v>
+        <v>0.298639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276896</v>
+        <v>0.27415</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.304474</v>
+        <v>0.305037</v>
       </c>
       <c r="C98" t="n">
-        <v>0.292503</v>
+        <v>0.294392</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272623</v>
+        <v>0.274455</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.300091</v>
+        <v>0.299179</v>
       </c>
       <c r="C99" t="n">
-        <v>0.289712</v>
+        <v>0.289236</v>
       </c>
       <c r="D99" t="n">
-        <v>0.272181</v>
+        <v>0.274159</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291504</v>
+        <v>0.292602</v>
       </c>
       <c r="C100" t="n">
-        <v>0.290463</v>
+        <v>0.291165</v>
       </c>
       <c r="D100" t="n">
-        <v>0.269262</v>
+        <v>0.267713</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.285493</v>
+        <v>0.28163</v>
       </c>
       <c r="C101" t="n">
-        <v>0.285944</v>
+        <v>0.283286</v>
       </c>
       <c r="D101" t="n">
-        <v>0.263367</v>
+        <v>0.265053</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.280065</v>
+        <v>0.27697</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284476</v>
+        <v>0.285416</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264697</v>
+        <v>0.263792</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.269425</v>
+        <v>0.276249</v>
       </c>
       <c r="C103" t="n">
-        <v>0.280123</v>
+        <v>0.279541</v>
       </c>
       <c r="D103" t="n">
-        <v>0.263761</v>
+        <v>0.267355</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.267287</v>
+        <v>0.262634</v>
       </c>
       <c r="C104" t="n">
-        <v>0.283976</v>
+        <v>0.282514</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257732</v>
+        <v>0.257788</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256415</v>
+        <v>0.259888</v>
       </c>
       <c r="C105" t="n">
-        <v>0.277255</v>
+        <v>0.280223</v>
       </c>
       <c r="D105" t="n">
-        <v>0.260924</v>
+        <v>0.259497</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253893</v>
+        <v>0.246987</v>
       </c>
       <c r="C106" t="n">
-        <v>0.279745</v>
+        <v>0.275655</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253987</v>
+        <v>0.254684</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242436</v>
+        <v>0.239584</v>
       </c>
       <c r="C107" t="n">
-        <v>0.273672</v>
+        <v>0.274275</v>
       </c>
       <c r="D107" t="n">
-        <v>0.255597</v>
+        <v>0.256439</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231363</v>
+        <v>0.231918</v>
       </c>
       <c r="C108" t="n">
-        <v>0.30712</v>
+        <v>0.307263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.283412</v>
+        <v>0.285992</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222166</v>
+        <v>0.223161</v>
       </c>
       <c r="C109" t="n">
-        <v>0.304628</v>
+        <v>0.302248</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281292</v>
+        <v>0.284919</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.320928</v>
+        <v>0.324146</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302005</v>
+        <v>0.30057</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280334</v>
+        <v>0.278285</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.310314</v>
+        <v>0.314237</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30039</v>
+        <v>0.294178</v>
       </c>
       <c r="D111" t="n">
-        <v>0.273761</v>
+        <v>0.276098</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.311507</v>
+        <v>0.312199</v>
       </c>
       <c r="C112" t="n">
-        <v>0.297321</v>
+        <v>0.294026</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275585</v>
+        <v>0.272239</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301993</v>
+        <v>0.3067</v>
       </c>
       <c r="C113" t="n">
-        <v>0.292631</v>
+        <v>0.297477</v>
       </c>
       <c r="D113" t="n">
-        <v>0.272193</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293149</v>
+        <v>0.2937</v>
       </c>
       <c r="C114" t="n">
-        <v>0.285355</v>
+        <v>0.290993</v>
       </c>
       <c r="D114" t="n">
-        <v>0.271626</v>
+        <v>0.269975</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.282411</v>
+        <v>0.289323</v>
       </c>
       <c r="C115" t="n">
-        <v>0.28514</v>
+        <v>0.284646</v>
       </c>
       <c r="D115" t="n">
-        <v>0.263904</v>
+        <v>0.264051</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.27928</v>
+        <v>0.280657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282822</v>
+        <v>0.284888</v>
       </c>
       <c r="D116" t="n">
-        <v>0.264961</v>
+        <v>0.263058</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275251</v>
+        <v>0.269941</v>
       </c>
       <c r="C117" t="n">
-        <v>0.283199</v>
+        <v>0.281612</v>
       </c>
       <c r="D117" t="n">
-        <v>0.265339</v>
+        <v>0.263061</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.264056</v>
+        <v>0.270439</v>
       </c>
       <c r="C118" t="n">
-        <v>0.280592</v>
+        <v>0.27935</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261554</v>
+        <v>0.263816</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257022</v>
+        <v>0.259118</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282851</v>
+        <v>0.279236</v>
       </c>
       <c r="D119" t="n">
-        <v>0.258575</v>
+        <v>0.261478</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.251698</v>
+        <v>0.253963</v>
       </c>
       <c r="C120" t="n">
-        <v>0.283092</v>
+        <v>0.277822</v>
       </c>
       <c r="D120" t="n">
-        <v>0.259571</v>
+        <v>0.257771</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244497</v>
+        <v>0.245399</v>
       </c>
       <c r="C121" t="n">
-        <v>0.277132</v>
+        <v>0.278806</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258195</v>
+        <v>0.265682</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234929</v>
+        <v>0.234508</v>
       </c>
       <c r="C122" t="n">
-        <v>0.274539</v>
+        <v>0.273979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.256803</v>
+        <v>0.255665</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227286</v>
+        <v>0.225734</v>
       </c>
       <c r="C123" t="n">
-        <v>0.306923</v>
+        <v>0.300463</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283741</v>
+        <v>0.286122</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.32051</v>
+        <v>0.321626</v>
       </c>
       <c r="C124" t="n">
-        <v>0.296817</v>
+        <v>0.29732</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28311</v>
+        <v>0.28278</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317554</v>
+        <v>0.321304</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300016</v>
+        <v>0.296416</v>
       </c>
       <c r="D125" t="n">
-        <v>0.279448</v>
+        <v>0.27383</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305057</v>
+        <v>0.303348</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294028</v>
+        <v>0.298419</v>
       </c>
       <c r="D126" t="n">
-        <v>0.273511</v>
+        <v>0.268987</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297351</v>
+        <v>0.307319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.293867</v>
+        <v>0.292404</v>
       </c>
       <c r="D127" t="n">
-        <v>0.272649</v>
+        <v>0.27118</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292437</v>
+        <v>0.296973</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289565</v>
+        <v>0.287441</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273315</v>
+        <v>0.273229</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.291099</v>
+        <v>0.285995</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290984</v>
+        <v>0.283682</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268797</v>
+        <v>0.265051</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.280499</v>
+        <v>0.282019</v>
       </c>
       <c r="C130" t="n">
-        <v>0.283699</v>
+        <v>0.284801</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272037</v>
+        <v>0.262603</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.281377</v>
+        <v>0.272535</v>
       </c>
       <c r="C131" t="n">
-        <v>0.286526</v>
+        <v>0.277292</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268102</v>
+        <v>0.263463</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.269118</v>
+        <v>0.265215</v>
       </c>
       <c r="C132" t="n">
-        <v>0.28004</v>
+        <v>0.279388</v>
       </c>
       <c r="D132" t="n">
-        <v>0.261688</v>
+        <v>0.267085</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259068</v>
+        <v>0.258653</v>
       </c>
       <c r="C133" t="n">
-        <v>0.280229</v>
+        <v>0.277055</v>
       </c>
       <c r="D133" t="n">
-        <v>0.26613</v>
+        <v>0.257997</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251155</v>
+        <v>0.251474</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279293</v>
+        <v>0.274364</v>
       </c>
       <c r="D134" t="n">
-        <v>0.258277</v>
+        <v>0.262045</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.242537</v>
+        <v>0.246213</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277361</v>
+        <v>0.274088</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253455</v>
+        <v>0.256182</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.233269</v>
+        <v>0.234933</v>
       </c>
       <c r="C136" t="n">
-        <v>0.272067</v>
+        <v>0.2728</v>
       </c>
       <c r="D136" t="n">
-        <v>0.257744</v>
+        <v>0.25703</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228419</v>
+        <v>0.224324</v>
       </c>
       <c r="C137" t="n">
-        <v>0.304508</v>
+        <v>0.303444</v>
       </c>
       <c r="D137" t="n">
-        <v>0.284855</v>
+        <v>0.287027</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320339</v>
+        <v>0.320714</v>
       </c>
       <c r="C138" t="n">
-        <v>0.304651</v>
+        <v>0.301074</v>
       </c>
       <c r="D138" t="n">
-        <v>0.28477</v>
+        <v>0.278881</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312062</v>
+        <v>0.314179</v>
       </c>
       <c r="C139" t="n">
-        <v>0.299027</v>
+        <v>0.296172</v>
       </c>
       <c r="D139" t="n">
-        <v>0.276007</v>
+        <v>0.273551</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.305643</v>
+        <v>0.311605</v>
       </c>
       <c r="C140" t="n">
-        <v>0.295188</v>
+        <v>0.30767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.276454</v>
+        <v>0.273712</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.30158</v>
+        <v>0.30188</v>
       </c>
       <c r="C141" t="n">
-        <v>0.293641</v>
+        <v>0.29128</v>
       </c>
       <c r="D141" t="n">
-        <v>0.273379</v>
+        <v>0.275682</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.300199</v>
+        <v>0.291883</v>
       </c>
       <c r="C142" t="n">
-        <v>0.290003</v>
+        <v>0.292073</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264742</v>
+        <v>0.267586</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.301486</v>
+        <v>0.29039</v>
       </c>
       <c r="C143" t="n">
-        <v>0.285649</v>
+        <v>0.287925</v>
       </c>
       <c r="D143" t="n">
-        <v>0.273136</v>
+        <v>0.265153</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.266299</v>
+        <v>0.275384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271055</v>
+        <v>0.272531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246361</v>
+        <v>0.576116</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259022</v>
+        <v>0.274146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.270802</v>
+        <v>0.271176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245887</v>
+        <v>0.5719610000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253763</v>
+        <v>0.260747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.272428</v>
+        <v>0.268772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247007</v>
+        <v>0.580359</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24644</v>
+        <v>0.256486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265662</v>
+        <v>0.263455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24431</v>
+        <v>0.566688</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234448</v>
+        <v>0.245056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.264119</v>
+        <v>0.265944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236738</v>
+        <v>0.568509</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22765</v>
+        <v>0.234893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.263348</v>
+        <v>0.25999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238531</v>
+        <v>0.564319</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217143</v>
+        <v>0.227236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.261675</v>
+        <v>0.263453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239946</v>
+        <v>0.561577</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.210041</v>
+        <v>0.215621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.281159</v>
+        <v>0.273743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253496</v>
+        <v>0.5640849999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.296348</v>
+        <v>0.31057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278886</v>
+        <v>0.276815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253651</v>
+        <v>0.563099</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.290414</v>
+        <v>0.30824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.271189</v>
+        <v>0.270554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242882</v>
+        <v>0.538314</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.282282</v>
+        <v>0.296501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.269529</v>
+        <v>0.267515</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246579</v>
+        <v>0.548288</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278511</v>
+        <v>0.289338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.26977</v>
+        <v>0.263672</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248231</v>
+        <v>0.542309</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275354</v>
+        <v>0.283396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.264871</v>
+        <v>0.262107</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244543</v>
+        <v>0.537565</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265319</v>
+        <v>0.277903</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270131</v>
+        <v>0.264294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247328</v>
+        <v>0.541905</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261295</v>
+        <v>0.270347</v>
       </c>
       <c r="C16" t="n">
-        <v>0.266882</v>
+        <v>0.260038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249182</v>
+        <v>0.547527</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258144</v>
+        <v>0.263073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.265197</v>
+        <v>0.261976</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249602</v>
+        <v>0.534978</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249355</v>
+        <v>0.256275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261719</v>
+        <v>0.258292</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241925</v>
+        <v>0.540411</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241641</v>
+        <v>0.249192</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263892</v>
+        <v>0.256096</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247707</v>
+        <v>0.531188</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236399</v>
+        <v>0.240161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260009</v>
+        <v>0.262441</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246188</v>
+        <v>0.549036</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230709</v>
+        <v>0.241397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.262866</v>
+        <v>0.262344</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243357</v>
+        <v>0.564764</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224481</v>
+        <v>0.23281</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262009</v>
+        <v>0.266102</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24701</v>
+        <v>0.565914</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.214566</v>
+        <v>0.220846</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278803</v>
+        <v>0.277435</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253225</v>
+        <v>0.574748</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.295839</v>
+        <v>0.309246</v>
       </c>
       <c r="C24" t="n">
-        <v>0.276187</v>
+        <v>0.277186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254891</v>
+        <v>0.566926</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293376</v>
+        <v>0.301806</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270287</v>
+        <v>0.274472</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254778</v>
+        <v>0.5590270000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.284925</v>
+        <v>0.301893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271785</v>
+        <v>0.270294</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253082</v>
+        <v>0.56694</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282352</v>
+        <v>0.293851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270313</v>
+        <v>0.273794</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249206</v>
+        <v>0.557781</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276346</v>
+        <v>0.283427</v>
       </c>
       <c r="C28" t="n">
-        <v>0.268168</v>
+        <v>0.262219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249425</v>
+        <v>0.552095</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268158</v>
+        <v>0.279893</v>
       </c>
       <c r="C29" t="n">
-        <v>0.270506</v>
+        <v>0.266818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248892</v>
+        <v>0.559346</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269076</v>
+        <v>0.282111</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269317</v>
+        <v>0.271037</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24735</v>
+        <v>0.570337</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25814</v>
+        <v>0.269887</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266925</v>
+        <v>0.27027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247996</v>
+        <v>0.55186</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251199</v>
+        <v>0.266917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.265161</v>
+        <v>0.268871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248058</v>
+        <v>0.571233</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245259</v>
+        <v>0.257117</v>
       </c>
       <c r="C33" t="n">
-        <v>0.263705</v>
+        <v>0.266203</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245952</v>
+        <v>0.563561</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.245567</v>
+        <v>0.250934</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265566</v>
+        <v>0.264629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244655</v>
+        <v>0.573604</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23125</v>
+        <v>0.242815</v>
       </c>
       <c r="C35" t="n">
-        <v>0.263877</v>
+        <v>0.262353</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244224</v>
+        <v>0.581155</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225739</v>
+        <v>0.23418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261813</v>
+        <v>0.26554</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240317</v>
+        <v>0.577184</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219026</v>
+        <v>0.224939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281166</v>
+        <v>0.282873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260869</v>
+        <v>0.582819</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304878</v>
+        <v>0.315238</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27913</v>
+        <v>0.282919</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26412</v>
+        <v>0.585557</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295657</v>
+        <v>0.310558</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281909</v>
+        <v>0.281548</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261154</v>
+        <v>0.578146</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.29117</v>
+        <v>0.306352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280226</v>
+        <v>0.277891</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261783</v>
+        <v>0.585867</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288363</v>
+        <v>0.299596</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275295</v>
+        <v>0.272497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258077</v>
+        <v>0.584779</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282836</v>
+        <v>0.294563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.272602</v>
+        <v>0.277848</v>
       </c>
       <c r="D42" t="n">
-        <v>0.256332</v>
+        <v>0.595178</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275738</v>
+        <v>0.289076</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275676</v>
+        <v>0.27245</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253289</v>
+        <v>0.593241</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266769</v>
+        <v>0.281192</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272839</v>
+        <v>0.269039</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254335</v>
+        <v>0.583202</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25906</v>
+        <v>0.274801</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27111</v>
+        <v>0.270484</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245163</v>
+        <v>0.590747</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256574</v>
+        <v>0.268511</v>
       </c>
       <c r="C46" t="n">
-        <v>0.271875</v>
+        <v>0.269214</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253176</v>
+        <v>0.603622</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.252842</v>
+        <v>0.261877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.269334</v>
+        <v>0.271597</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248211</v>
+        <v>0.5886400000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.246541</v>
+        <v>0.251426</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263802</v>
+        <v>0.264428</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251474</v>
+        <v>0.607019</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237322</v>
+        <v>0.247238</v>
       </c>
       <c r="C49" t="n">
-        <v>0.265945</v>
+        <v>0.265582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.246177</v>
+        <v>0.612602</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.230113</v>
+        <v>0.242553</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267308</v>
+        <v>0.266305</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246265</v>
+        <v>0.6656069999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221134</v>
+        <v>0.229804</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289321</v>
+        <v>0.293837</v>
       </c>
       <c r="D51" t="n">
-        <v>0.268226</v>
+        <v>0.656411</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.213049</v>
+        <v>0.218637</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28627</v>
+        <v>0.286428</v>
       </c>
       <c r="D52" t="n">
-        <v>0.267165</v>
+        <v>0.652091</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30485</v>
+        <v>0.316834</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285903</v>
+        <v>0.2861</v>
       </c>
       <c r="D53" t="n">
-        <v>0.266844</v>
+        <v>0.657798</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296918</v>
+        <v>0.315942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.279199</v>
+        <v>0.2831</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263014</v>
+        <v>0.654915</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.291696</v>
+        <v>0.312222</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284035</v>
+        <v>0.281606</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262556</v>
+        <v>0.662957</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.286367</v>
+        <v>0.306319</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278992</v>
+        <v>0.28023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261713</v>
+        <v>0.6579739999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.281125</v>
+        <v>0.294961</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279242</v>
+        <v>0.274974</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257117</v>
+        <v>0.678447</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.275535</v>
+        <v>0.290469</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276316</v>
+        <v>0.274872</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25502</v>
+        <v>0.665068</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271946</v>
+        <v>0.282557</v>
       </c>
       <c r="C59" t="n">
-        <v>0.274223</v>
+        <v>0.27447</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253959</v>
+        <v>0.6541</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260962</v>
+        <v>0.278574</v>
       </c>
       <c r="C60" t="n">
-        <v>0.273217</v>
+        <v>0.27767</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253659</v>
+        <v>0.669041</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255147</v>
+        <v>0.275105</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272279</v>
+        <v>0.274478</v>
       </c>
       <c r="D61" t="n">
-        <v>0.25422</v>
+        <v>0.672811</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247944</v>
+        <v>0.259783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27462</v>
+        <v>0.271029</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251935</v>
+        <v>0.680361</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.241384</v>
+        <v>0.256712</v>
       </c>
       <c r="C63" t="n">
-        <v>0.274525</v>
+        <v>0.272502</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24798</v>
+        <v>0.671978</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2355</v>
+        <v>0.247058</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267306</v>
+        <v>0.269094</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251385</v>
+        <v>0.735464</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.225233</v>
+        <v>0.238033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267921</v>
+        <v>0.270841</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24744</v>
+        <v>0.730531</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220447</v>
+        <v>0.226027</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.296184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.280337</v>
+        <v>0.72746</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318539</v>
+        <v>0.333891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294603</v>
+        <v>0.294405</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27849</v>
+        <v>0.739596</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.311151</v>
+        <v>0.324245</v>
       </c>
       <c r="C68" t="n">
-        <v>0.290359</v>
+        <v>0.2853</v>
       </c>
       <c r="D68" t="n">
-        <v>0.276585</v>
+        <v>0.7157</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307567</v>
+        <v>0.31879</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292452</v>
+        <v>0.288971</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272438</v>
+        <v>0.729812</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298394</v>
+        <v>0.311496</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285961</v>
+        <v>0.284073</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271156</v>
+        <v>0.722238</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.296436</v>
+        <v>0.305155</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286744</v>
+        <v>0.285387</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267699</v>
+        <v>0.721463</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.28548</v>
+        <v>0.294652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.284521</v>
+        <v>0.286451</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26966</v>
+        <v>0.720761</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.280297</v>
+        <v>0.295514</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282885</v>
+        <v>0.284473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.263259</v>
+        <v>0.710627</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272101</v>
+        <v>0.284852</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27774</v>
+        <v>0.279085</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260818</v>
+        <v>0.721077</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.264925</v>
+        <v>0.274575</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278685</v>
+        <v>0.278493</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264426</v>
+        <v>0.707874</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.257892</v>
+        <v>0.265876</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274995</v>
+        <v>0.274541</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257732</v>
+        <v>0.716403</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.250258</v>
+        <v>0.263736</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275871</v>
+        <v>0.277463</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256508</v>
+        <v>0.728357</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244324</v>
+        <v>0.252269</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276219</v>
+        <v>0.278209</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256988</v>
+        <v>0.776437</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235779</v>
+        <v>0.246157</v>
       </c>
       <c r="C79" t="n">
-        <v>0.277672</v>
+        <v>0.274891</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255427</v>
+        <v>0.76453</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228048</v>
+        <v>0.231539</v>
       </c>
       <c r="C80" t="n">
-        <v>0.302757</v>
+        <v>0.299802</v>
       </c>
       <c r="D80" t="n">
-        <v>0.282178</v>
+        <v>0.769655</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.319195</v>
+        <v>0.33559</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29619</v>
+        <v>0.298469</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280781</v>
+        <v>0.749066</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.314619</v>
+        <v>0.331952</v>
       </c>
       <c r="C82" t="n">
-        <v>0.299297</v>
+        <v>0.296548</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274765</v>
+        <v>0.7652099999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.310181</v>
+        <v>0.323897</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295995</v>
+        <v>0.294628</v>
       </c>
       <c r="D83" t="n">
-        <v>0.274276</v>
+        <v>0.761068</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299738</v>
+        <v>0.316236</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289991</v>
+        <v>0.292793</v>
       </c>
       <c r="D84" t="n">
-        <v>0.27155</v>
+        <v>0.788636</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29514</v>
+        <v>0.313281</v>
       </c>
       <c r="C85" t="n">
-        <v>0.289865</v>
+        <v>0.290804</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269382</v>
+        <v>0.784172</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288577</v>
+        <v>0.303963</v>
       </c>
       <c r="C86" t="n">
-        <v>0.286788</v>
+        <v>0.288062</v>
       </c>
       <c r="D86" t="n">
-        <v>0.265252</v>
+        <v>0.772876</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285568</v>
+        <v>0.297138</v>
       </c>
       <c r="C87" t="n">
-        <v>0.28324</v>
+        <v>0.283528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.264979</v>
+        <v>0.780428</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.273841</v>
+        <v>0.287573</v>
       </c>
       <c r="C88" t="n">
-        <v>0.278777</v>
+        <v>0.282615</v>
       </c>
       <c r="D88" t="n">
-        <v>0.261709</v>
+        <v>0.772398</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.271495</v>
+        <v>0.282684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284567</v>
+        <v>0.280619</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258388</v>
+        <v>0.773756</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260472</v>
+        <v>0.273744</v>
       </c>
       <c r="C90" t="n">
-        <v>0.281175</v>
+        <v>0.278982</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26014</v>
+        <v>0.763565</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.254499</v>
+        <v>0.265493</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276072</v>
+        <v>0.273694</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257743</v>
+        <v>0.738568</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246065</v>
+        <v>0.249965</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276759</v>
+        <v>0.270969</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25577</v>
+        <v>0.659758</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.243989</v>
+        <v>0.241135</v>
       </c>
       <c r="C93" t="n">
-        <v>0.273887</v>
+        <v>0.26877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.26088</v>
+        <v>0.657324</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233533</v>
+        <v>0.231457</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306937</v>
+        <v>0.29613</v>
       </c>
       <c r="D94" t="n">
-        <v>0.280111</v>
+        <v>0.6618309999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.32004</v>
+        <v>0.334464</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299942</v>
+        <v>0.292942</v>
       </c>
       <c r="D95" t="n">
-        <v>0.283643</v>
+        <v>0.66296</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.317915</v>
+        <v>0.329542</v>
       </c>
       <c r="C96" t="n">
-        <v>0.300993</v>
+        <v>0.290742</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275125</v>
+        <v>0.652396</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310381</v>
+        <v>0.322302</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298639</v>
+        <v>0.297266</v>
       </c>
       <c r="D97" t="n">
-        <v>0.27415</v>
+        <v>0.680227</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.305037</v>
+        <v>0.315859</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294392</v>
+        <v>0.294954</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274455</v>
+        <v>0.690398</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.299179</v>
+        <v>0.315386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.289236</v>
+        <v>0.291909</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274159</v>
+        <v>0.681725</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.292602</v>
+        <v>0.302951</v>
       </c>
       <c r="C100" t="n">
-        <v>0.291165</v>
+        <v>0.288412</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267713</v>
+        <v>0.6676339999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.28163</v>
+        <v>0.297115</v>
       </c>
       <c r="C101" t="n">
-        <v>0.283286</v>
+        <v>0.286589</v>
       </c>
       <c r="D101" t="n">
-        <v>0.265053</v>
+        <v>0.676272</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27697</v>
+        <v>0.292381</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285416</v>
+        <v>0.28295</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263792</v>
+        <v>0.686647</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.276249</v>
+        <v>0.287685</v>
       </c>
       <c r="C103" t="n">
-        <v>0.279541</v>
+        <v>0.285062</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267355</v>
+        <v>0.687214</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.262634</v>
+        <v>0.277469</v>
       </c>
       <c r="C104" t="n">
-        <v>0.282514</v>
+        <v>0.281043</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257788</v>
+        <v>0.689303</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259888</v>
+        <v>0.267502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280223</v>
+        <v>0.279456</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259497</v>
+        <v>0.682373</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246987</v>
+        <v>0.259047</v>
       </c>
       <c r="C106" t="n">
-        <v>0.275655</v>
+        <v>0.27511</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254684</v>
+        <v>0.697539</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239584</v>
+        <v>0.253295</v>
       </c>
       <c r="C107" t="n">
-        <v>0.274275</v>
+        <v>0.276367</v>
       </c>
       <c r="D107" t="n">
-        <v>0.256439</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231918</v>
+        <v>0.242804</v>
       </c>
       <c r="C108" t="n">
-        <v>0.307263</v>
+        <v>0.305482</v>
       </c>
       <c r="D108" t="n">
-        <v>0.285992</v>
+        <v>0.675651</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223161</v>
+        <v>0.231552</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302248</v>
+        <v>0.301976</v>
       </c>
       <c r="D109" t="n">
-        <v>0.284919</v>
+        <v>0.676563</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.324146</v>
+        <v>0.333211</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30057</v>
+        <v>0.300727</v>
       </c>
       <c r="D110" t="n">
-        <v>0.278285</v>
+        <v>0.67516</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314237</v>
+        <v>0.331292</v>
       </c>
       <c r="C111" t="n">
-        <v>0.294178</v>
+        <v>0.297972</v>
       </c>
       <c r="D111" t="n">
-        <v>0.276098</v>
+        <v>0.668002</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.312199</v>
+        <v>0.323503</v>
       </c>
       <c r="C112" t="n">
-        <v>0.294026</v>
+        <v>0.293416</v>
       </c>
       <c r="D112" t="n">
-        <v>0.272239</v>
+        <v>0.6883359999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3067</v>
+        <v>0.315744</v>
       </c>
       <c r="C113" t="n">
-        <v>0.297477</v>
+        <v>0.289632</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2712</v>
+        <v>0.689992</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2937</v>
+        <v>0.309866</v>
       </c>
       <c r="C114" t="n">
-        <v>0.290993</v>
+        <v>0.290642</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269975</v>
+        <v>0.673332</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289323</v>
+        <v>0.301499</v>
       </c>
       <c r="C115" t="n">
-        <v>0.284646</v>
+        <v>0.286037</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264051</v>
+        <v>0.668415</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280657</v>
+        <v>0.289518</v>
       </c>
       <c r="C116" t="n">
-        <v>0.284888</v>
+        <v>0.282506</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263058</v>
+        <v>0.669183</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.269941</v>
+        <v>0.285247</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281612</v>
+        <v>0.285322</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263061</v>
+        <v>0.674497</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270439</v>
+        <v>0.280411</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27935</v>
+        <v>0.281903</v>
       </c>
       <c r="D118" t="n">
-        <v>0.263816</v>
+        <v>0.697712</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259118</v>
+        <v>0.27363</v>
       </c>
       <c r="C119" t="n">
-        <v>0.279236</v>
+        <v>0.280243</v>
       </c>
       <c r="D119" t="n">
-        <v>0.261478</v>
+        <v>0.695955</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.253963</v>
+        <v>0.266496</v>
       </c>
       <c r="C120" t="n">
-        <v>0.277822</v>
+        <v>0.275421</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257771</v>
+        <v>0.6780310000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245399</v>
+        <v>0.259407</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278806</v>
+        <v>0.280342</v>
       </c>
       <c r="D121" t="n">
-        <v>0.265682</v>
+        <v>0.670617</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234508</v>
+        <v>0.249797</v>
       </c>
       <c r="C122" t="n">
-        <v>0.273979</v>
+        <v>0.278768</v>
       </c>
       <c r="D122" t="n">
-        <v>0.255665</v>
+        <v>0.703385</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225734</v>
+        <v>0.232937</v>
       </c>
       <c r="C123" t="n">
-        <v>0.300463</v>
+        <v>0.307116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286122</v>
+        <v>0.687264</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.321626</v>
+        <v>0.336079</v>
       </c>
       <c r="C124" t="n">
-        <v>0.29732</v>
+        <v>0.30488</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28278</v>
+        <v>0.684414</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321304</v>
+        <v>0.328408</v>
       </c>
       <c r="C125" t="n">
-        <v>0.296416</v>
+        <v>0.304647</v>
       </c>
       <c r="D125" t="n">
-        <v>0.27383</v>
+        <v>0.685833</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.303348</v>
+        <v>0.325827</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298419</v>
+        <v>0.294882</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268987</v>
+        <v>0.674832</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307319</v>
+        <v>0.319026</v>
       </c>
       <c r="C127" t="n">
-        <v>0.292404</v>
+        <v>0.29149</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27118</v>
+        <v>0.683555</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296973</v>
+        <v>0.308077</v>
       </c>
       <c r="C128" t="n">
-        <v>0.287441</v>
+        <v>0.294328</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273229</v>
+        <v>0.678762</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.285995</v>
+        <v>0.30686</v>
       </c>
       <c r="C129" t="n">
-        <v>0.283682</v>
+        <v>0.289648</v>
       </c>
       <c r="D129" t="n">
-        <v>0.265051</v>
+        <v>0.695516</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282019</v>
+        <v>0.292998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.284801</v>
+        <v>0.288818</v>
       </c>
       <c r="D130" t="n">
-        <v>0.262603</v>
+        <v>0.689863</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.272535</v>
+        <v>0.283865</v>
       </c>
       <c r="C131" t="n">
-        <v>0.277292</v>
+        <v>0.284052</v>
       </c>
       <c r="D131" t="n">
-        <v>0.263463</v>
+        <v>0.682764</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265215</v>
+        <v>0.277299</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279388</v>
+        <v>0.285686</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267085</v>
+        <v>0.6847529999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258653</v>
+        <v>0.277289</v>
       </c>
       <c r="C133" t="n">
-        <v>0.277055</v>
+        <v>0.276941</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257997</v>
+        <v>0.7112270000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251474</v>
+        <v>0.261601</v>
       </c>
       <c r="C134" t="n">
-        <v>0.274364</v>
+        <v>0.27763</v>
       </c>
       <c r="D134" t="n">
-        <v>0.262045</v>
+        <v>0.707254</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246213</v>
+        <v>0.252868</v>
       </c>
       <c r="C135" t="n">
-        <v>0.274088</v>
+        <v>0.276032</v>
       </c>
       <c r="D135" t="n">
-        <v>0.256182</v>
+        <v>0.689465</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234933</v>
+        <v>0.247366</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2728</v>
+        <v>0.278342</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25703</v>
+        <v>0.6868840000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224324</v>
+        <v>0.236384</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303444</v>
+        <v>0.303525</v>
       </c>
       <c r="D137" t="n">
-        <v>0.287027</v>
+        <v>0.684353</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320714</v>
+        <v>0.340467</v>
       </c>
       <c r="C138" t="n">
-        <v>0.301074</v>
+        <v>0.299681</v>
       </c>
       <c r="D138" t="n">
-        <v>0.278881</v>
+        <v>0.693343</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.314179</v>
+        <v>0.326045</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296172</v>
+        <v>0.295218</v>
       </c>
       <c r="D139" t="n">
-        <v>0.273551</v>
+        <v>0.694716</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311605</v>
+        <v>0.328694</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30767</v>
+        <v>0.293739</v>
       </c>
       <c r="D140" t="n">
-        <v>0.273712</v>
+        <v>0.6967370000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.30188</v>
+        <v>0.317903</v>
       </c>
       <c r="C141" t="n">
-        <v>0.29128</v>
+        <v>0.291018</v>
       </c>
       <c r="D141" t="n">
-        <v>0.275682</v>
+        <v>0.7116980000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.291883</v>
+        <v>0.317504</v>
       </c>
       <c r="C142" t="n">
-        <v>0.292073</v>
+        <v>0.294641</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267586</v>
+        <v>0.69439</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.29039</v>
+        <v>0.309702</v>
       </c>
       <c r="C143" t="n">
-        <v>0.287925</v>
+        <v>0.2962</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265153</v>
+        <v>0.6954939999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.266299</v>
+        <v>0.279978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271055</v>
+        <v>0.269506</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246361</v>
+        <v>0.252635</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.259022</v>
+        <v>0.271842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.270802</v>
+        <v>0.267175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245887</v>
+        <v>0.247032</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253763</v>
+        <v>0.257769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.272428</v>
+        <v>0.261332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247007</v>
+        <v>0.24388</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24644</v>
+        <v>0.257545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265662</v>
+        <v>0.26435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24431</v>
+        <v>0.247101</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234448</v>
+        <v>0.245668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.264119</v>
+        <v>0.265631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236738</v>
+        <v>0.244656</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22765</v>
+        <v>0.233315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.263348</v>
+        <v>0.260283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238531</v>
+        <v>0.240386</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217143</v>
+        <v>0.227597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.261675</v>
+        <v>0.265121</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239946</v>
+        <v>0.242417</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.210041</v>
+        <v>0.214647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.281159</v>
+        <v>0.277713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253496</v>
+        <v>0.251019</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.296348</v>
+        <v>0.312856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278886</v>
+        <v>0.276315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253651</v>
+        <v>0.254831</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.290414</v>
+        <v>0.308469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.271189</v>
+        <v>0.273786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242882</v>
+        <v>0.253712</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.282282</v>
+        <v>0.304665</v>
       </c>
       <c r="C12" t="n">
-        <v>0.269529</v>
+        <v>0.270995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246579</v>
+        <v>0.25557</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278511</v>
+        <v>0.297366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.26977</v>
+        <v>0.270414</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248231</v>
+        <v>0.254704</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275354</v>
+        <v>0.294998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.264871</v>
+        <v>0.271644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244543</v>
+        <v>0.25134</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265319</v>
+        <v>0.284033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270131</v>
+        <v>0.270922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247328</v>
+        <v>0.248444</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261295</v>
+        <v>0.276807</v>
       </c>
       <c r="C16" t="n">
-        <v>0.266882</v>
+        <v>0.267512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249182</v>
+        <v>0.247749</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258144</v>
+        <v>0.271668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.265197</v>
+        <v>0.265921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249602</v>
+        <v>0.252132</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249355</v>
+        <v>0.266851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261719</v>
+        <v>0.264436</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241925</v>
+        <v>0.249465</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241641</v>
+        <v>0.25855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263892</v>
+        <v>0.263942</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247707</v>
+        <v>0.252007</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236399</v>
+        <v>0.252266</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260009</v>
+        <v>0.261443</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246188</v>
+        <v>0.246001</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230709</v>
+        <v>0.242397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.262866</v>
+        <v>0.264137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243357</v>
+        <v>0.248201</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224481</v>
+        <v>0.236313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262009</v>
+        <v>0.261909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24701</v>
+        <v>0.251388</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.214566</v>
+        <v>0.226891</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278803</v>
+        <v>0.280711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253225</v>
+        <v>0.26788</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.295839</v>
+        <v>0.315676</v>
       </c>
       <c r="C24" t="n">
-        <v>0.276187</v>
+        <v>0.277123</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254891</v>
+        <v>0.261475</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293376</v>
+        <v>0.310757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270287</v>
+        <v>0.279866</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254778</v>
+        <v>0.264492</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.284925</v>
+        <v>0.301678</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271785</v>
+        <v>0.274108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253082</v>
+        <v>0.26056</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282352</v>
+        <v>0.296415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270313</v>
+        <v>0.274282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249206</v>
+        <v>0.261941</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276346</v>
+        <v>0.295881</v>
       </c>
       <c r="C28" t="n">
-        <v>0.268168</v>
+        <v>0.271546</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249425</v>
+        <v>0.260997</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268158</v>
+        <v>0.285952</v>
       </c>
       <c r="C29" t="n">
-        <v>0.270506</v>
+        <v>0.271603</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248892</v>
+        <v>0.257564</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269076</v>
+        <v>0.281953</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269317</v>
+        <v>0.271571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24735</v>
+        <v>0.256883</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25814</v>
+        <v>0.274149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266925</v>
+        <v>0.266743</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247996</v>
+        <v>0.25689</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251199</v>
+        <v>0.267804</v>
       </c>
       <c r="C32" t="n">
-        <v>0.265161</v>
+        <v>0.267664</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248058</v>
+        <v>0.255529</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245259</v>
+        <v>0.258897</v>
       </c>
       <c r="C33" t="n">
-        <v>0.263705</v>
+        <v>0.2654</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245952</v>
+        <v>0.25472</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.245567</v>
+        <v>0.254739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265566</v>
+        <v>0.268559</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244655</v>
+        <v>0.253335</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23125</v>
+        <v>0.246028</v>
       </c>
       <c r="C35" t="n">
-        <v>0.263877</v>
+        <v>0.268047</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244224</v>
+        <v>0.253086</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225739</v>
+        <v>0.238676</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261813</v>
+        <v>0.262444</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240317</v>
+        <v>0.24944</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219026</v>
+        <v>0.22821</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281166</v>
+        <v>0.287001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260869</v>
+        <v>0.273508</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304878</v>
+        <v>0.316822</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27913</v>
+        <v>0.28315</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26412</v>
+        <v>0.272921</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295657</v>
+        <v>0.315613</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281909</v>
+        <v>0.284331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261154</v>
+        <v>0.26811</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.29117</v>
+        <v>0.307147</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280226</v>
+        <v>0.279818</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261783</v>
+        <v>0.266708</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288363</v>
+        <v>0.298304</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275295</v>
+        <v>0.2772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258077</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.282836</v>
+        <v>0.299858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.272602</v>
+        <v>0.274521</v>
       </c>
       <c r="D42" t="n">
-        <v>0.256332</v>
+        <v>0.26331</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275738</v>
+        <v>0.292013</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275676</v>
+        <v>0.277125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253289</v>
+        <v>0.261444</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.266769</v>
+        <v>0.28673</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272839</v>
+        <v>0.272855</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254335</v>
+        <v>0.260605</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25906</v>
+        <v>0.279127</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27111</v>
+        <v>0.270068</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245163</v>
+        <v>0.259566</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256574</v>
+        <v>0.268197</v>
       </c>
       <c r="C46" t="n">
-        <v>0.271875</v>
+        <v>0.269119</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253176</v>
+        <v>0.260693</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.252842</v>
+        <v>0.264658</v>
       </c>
       <c r="C47" t="n">
-        <v>0.269334</v>
+        <v>0.265783</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248211</v>
+        <v>0.258745</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.246541</v>
+        <v>0.255635</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263802</v>
+        <v>0.266008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251474</v>
+        <v>0.261043</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237322</v>
+        <v>0.251239</v>
       </c>
       <c r="C49" t="n">
-        <v>0.265945</v>
+        <v>0.269026</v>
       </c>
       <c r="D49" t="n">
-        <v>0.246177</v>
+        <v>0.258677</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.230113</v>
+        <v>0.241185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267308</v>
+        <v>0.262661</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246265</v>
+        <v>0.253576</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221134</v>
+        <v>0.231269</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289321</v>
+        <v>0.28859</v>
       </c>
       <c r="D51" t="n">
-        <v>0.268226</v>
+        <v>0.276098</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.213049</v>
+        <v>0.222737</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28627</v>
+        <v>0.286582</v>
       </c>
       <c r="D52" t="n">
-        <v>0.267165</v>
+        <v>0.275707</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30485</v>
+        <v>0.316751</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285903</v>
+        <v>0.285098</v>
       </c>
       <c r="D53" t="n">
-        <v>0.266844</v>
+        <v>0.27323</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296918</v>
+        <v>0.314949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.279199</v>
+        <v>0.282355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263014</v>
+        <v>0.270713</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.291696</v>
+        <v>0.308571</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284035</v>
+        <v>0.283552</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262556</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.286367</v>
+        <v>0.303872</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278992</v>
+        <v>0.280663</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261713</v>
+        <v>0.27123</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.281125</v>
+        <v>0.30012</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279242</v>
+        <v>0.277482</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257117</v>
+        <v>0.26706</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.275535</v>
+        <v>0.291475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276316</v>
+        <v>0.276547</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25502</v>
+        <v>0.266806</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271946</v>
+        <v>0.284975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.274223</v>
+        <v>0.276705</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253959</v>
+        <v>0.263055</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260962</v>
+        <v>0.279074</v>
       </c>
       <c r="C60" t="n">
-        <v>0.273217</v>
+        <v>0.274782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253659</v>
+        <v>0.262627</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255147</v>
+        <v>0.268101</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272279</v>
+        <v>0.274625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.25422</v>
+        <v>0.260211</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247944</v>
+        <v>0.265797</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27462</v>
+        <v>0.270811</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251935</v>
+        <v>0.260021</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.241384</v>
+        <v>0.254129</v>
       </c>
       <c r="C63" t="n">
-        <v>0.274525</v>
+        <v>0.272682</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24798</v>
+        <v>0.254783</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2355</v>
+        <v>0.248634</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267306</v>
+        <v>0.274092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251385</v>
+        <v>0.255599</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.225233</v>
+        <v>0.235624</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267921</v>
+        <v>0.267118</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24744</v>
+        <v>0.254116</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220447</v>
+        <v>0.227358</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300986</v>
+        <v>0.298506</v>
       </c>
       <c r="D66" t="n">
-        <v>0.280337</v>
+        <v>0.284043</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318539</v>
+        <v>0.331898</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294603</v>
+        <v>0.297991</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27849</v>
+        <v>0.286095</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.311151</v>
+        <v>0.328368</v>
       </c>
       <c r="C68" t="n">
-        <v>0.290359</v>
+        <v>0.289684</v>
       </c>
       <c r="D68" t="n">
-        <v>0.276585</v>
+        <v>0.281622</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307567</v>
+        <v>0.322803</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292452</v>
+        <v>0.290091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272438</v>
+        <v>0.275521</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298394</v>
+        <v>0.312911</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285961</v>
+        <v>0.289895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271156</v>
+        <v>0.275251</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.296436</v>
+        <v>0.304102</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286744</v>
+        <v>0.285751</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267699</v>
+        <v>0.271885</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.28548</v>
+        <v>0.295664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.284521</v>
+        <v>0.283461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26966</v>
+        <v>0.276071</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.280297</v>
+        <v>0.291547</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282885</v>
+        <v>0.284732</v>
       </c>
       <c r="D73" t="n">
-        <v>0.263259</v>
+        <v>0.27171</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272101</v>
+        <v>0.284043</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27774</v>
+        <v>0.279615</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260818</v>
+        <v>0.269016</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.264925</v>
+        <v>0.277659</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278685</v>
+        <v>0.277931</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264426</v>
+        <v>0.268167</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.257892</v>
+        <v>0.271808</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274995</v>
+        <v>0.279492</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257732</v>
+        <v>0.264225</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.250258</v>
+        <v>0.262482</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275871</v>
+        <v>0.275071</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256508</v>
+        <v>0.264749</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244324</v>
+        <v>0.253269</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276219</v>
+        <v>0.272164</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256988</v>
+        <v>0.259697</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235779</v>
+        <v>0.246133</v>
       </c>
       <c r="C79" t="n">
-        <v>0.277672</v>
+        <v>0.273998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255427</v>
+        <v>0.260468</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228048</v>
+        <v>0.23316</v>
       </c>
       <c r="C80" t="n">
-        <v>0.302757</v>
+        <v>0.300327</v>
       </c>
       <c r="D80" t="n">
-        <v>0.282178</v>
+        <v>0.290122</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.319195</v>
+        <v>0.329491</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29619</v>
+        <v>0.295279</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280781</v>
+        <v>0.287143</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.314619</v>
+        <v>0.327578</v>
       </c>
       <c r="C82" t="n">
-        <v>0.299297</v>
+        <v>0.294412</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274765</v>
+        <v>0.280482</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.310181</v>
+        <v>0.319037</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295995</v>
+        <v>0.291391</v>
       </c>
       <c r="D83" t="n">
-        <v>0.274276</v>
+        <v>0.280365</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299738</v>
+        <v>0.313422</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289991</v>
+        <v>0.286001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.27155</v>
+        <v>0.279847</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29514</v>
+        <v>0.309221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.289865</v>
+        <v>0.28715</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269382</v>
+        <v>0.276896</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288577</v>
+        <v>0.301524</v>
       </c>
       <c r="C86" t="n">
-        <v>0.286788</v>
+        <v>0.285294</v>
       </c>
       <c r="D86" t="n">
-        <v>0.265252</v>
+        <v>0.273984</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285568</v>
+        <v>0.294746</v>
       </c>
       <c r="C87" t="n">
-        <v>0.28324</v>
+        <v>0.282861</v>
       </c>
       <c r="D87" t="n">
-        <v>0.264979</v>
+        <v>0.278722</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.273841</v>
+        <v>0.291839</v>
       </c>
       <c r="C88" t="n">
-        <v>0.278777</v>
+        <v>0.281969</v>
       </c>
       <c r="D88" t="n">
-        <v>0.261709</v>
+        <v>0.273149</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.271495</v>
+        <v>0.280773</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284567</v>
+        <v>0.279844</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258388</v>
+        <v>0.265207</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260472</v>
+        <v>0.275017</v>
       </c>
       <c r="C90" t="n">
-        <v>0.281175</v>
+        <v>0.276497</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26014</v>
+        <v>0.263713</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.254499</v>
+        <v>0.264909</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276072</v>
+        <v>0.276103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257743</v>
+        <v>0.265661</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246065</v>
+        <v>0.256937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276759</v>
+        <v>0.27271</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25577</v>
+        <v>0.264496</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.243989</v>
+        <v>0.248635</v>
       </c>
       <c r="C93" t="n">
-        <v>0.273887</v>
+        <v>0.283735</v>
       </c>
       <c r="D93" t="n">
-        <v>0.26088</v>
+        <v>0.261613</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233533</v>
+        <v>0.237514</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306937</v>
+        <v>0.30353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.280111</v>
+        <v>0.292217</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.32004</v>
+        <v>0.336995</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299942</v>
+        <v>0.299623</v>
       </c>
       <c r="D95" t="n">
-        <v>0.283643</v>
+        <v>0.285638</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.317915</v>
+        <v>0.327304</v>
       </c>
       <c r="C96" t="n">
-        <v>0.300993</v>
+        <v>0.295178</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275125</v>
+        <v>0.283336</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310381</v>
+        <v>0.321999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298639</v>
+        <v>0.294013</v>
       </c>
       <c r="D97" t="n">
-        <v>0.27415</v>
+        <v>0.281025</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.305037</v>
+        <v>0.31537</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294392</v>
+        <v>0.292363</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274455</v>
+        <v>0.278882</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.299179</v>
+        <v>0.309299</v>
       </c>
       <c r="C99" t="n">
-        <v>0.289236</v>
+        <v>0.289194</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274159</v>
+        <v>0.280251</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.292602</v>
+        <v>0.305035</v>
       </c>
       <c r="C100" t="n">
-        <v>0.291165</v>
+        <v>0.287052</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267713</v>
+        <v>0.272854</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.28163</v>
+        <v>0.293131</v>
       </c>
       <c r="C101" t="n">
-        <v>0.283286</v>
+        <v>0.283195</v>
       </c>
       <c r="D101" t="n">
-        <v>0.265053</v>
+        <v>0.275122</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27697</v>
+        <v>0.289721</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285416</v>
+        <v>0.28483</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263792</v>
+        <v>0.273173</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.276249</v>
+        <v>0.28106</v>
       </c>
       <c r="C103" t="n">
-        <v>0.279541</v>
+        <v>0.280753</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267355</v>
+        <v>0.269515</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.262634</v>
+        <v>0.277067</v>
       </c>
       <c r="C104" t="n">
-        <v>0.282514</v>
+        <v>0.278004</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257788</v>
+        <v>0.27019</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259888</v>
+        <v>0.271009</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280223</v>
+        <v>0.276953</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259497</v>
+        <v>0.266167</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246987</v>
+        <v>0.257773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.275655</v>
+        <v>0.277473</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254684</v>
+        <v>0.263094</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239584</v>
+        <v>0.25121</v>
       </c>
       <c r="C107" t="n">
-        <v>0.274275</v>
+        <v>0.27625</v>
       </c>
       <c r="D107" t="n">
-        <v>0.256439</v>
+        <v>0.259251</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231918</v>
+        <v>0.240592</v>
       </c>
       <c r="C108" t="n">
-        <v>0.307263</v>
+        <v>0.30117</v>
       </c>
       <c r="D108" t="n">
-        <v>0.285992</v>
+        <v>0.289931</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223161</v>
+        <v>0.230304</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302248</v>
+        <v>0.298076</v>
       </c>
       <c r="D109" t="n">
-        <v>0.284919</v>
+        <v>0.285938</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.324146</v>
+        <v>0.332459</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30057</v>
+        <v>0.295333</v>
       </c>
       <c r="D110" t="n">
-        <v>0.278285</v>
+        <v>0.281102</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314237</v>
+        <v>0.321917</v>
       </c>
       <c r="C111" t="n">
-        <v>0.294178</v>
+        <v>0.293988</v>
       </c>
       <c r="D111" t="n">
-        <v>0.276098</v>
+        <v>0.287459</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.312199</v>
+        <v>0.313966</v>
       </c>
       <c r="C112" t="n">
-        <v>0.294026</v>
+        <v>0.290028</v>
       </c>
       <c r="D112" t="n">
-        <v>0.272239</v>
+        <v>0.282301</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3067</v>
+        <v>0.31236</v>
       </c>
       <c r="C113" t="n">
-        <v>0.297477</v>
+        <v>0.287426</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2712</v>
+        <v>0.275198</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2937</v>
+        <v>0.306415</v>
       </c>
       <c r="C114" t="n">
-        <v>0.290993</v>
+        <v>0.290144</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269975</v>
+        <v>0.274744</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289323</v>
+        <v>0.29965</v>
       </c>
       <c r="C115" t="n">
-        <v>0.284646</v>
+        <v>0.286473</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264051</v>
+        <v>0.274144</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280657</v>
+        <v>0.290928</v>
       </c>
       <c r="C116" t="n">
-        <v>0.284888</v>
+        <v>0.286973</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263058</v>
+        <v>0.275016</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.269941</v>
+        <v>0.289674</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281612</v>
+        <v>0.287842</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263061</v>
+        <v>0.273355</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270439</v>
+        <v>0.281704</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27935</v>
+        <v>0.280256</v>
       </c>
       <c r="D118" t="n">
-        <v>0.263816</v>
+        <v>0.268022</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259118</v>
+        <v>0.267706</v>
       </c>
       <c r="C119" t="n">
-        <v>0.279236</v>
+        <v>0.278161</v>
       </c>
       <c r="D119" t="n">
-        <v>0.261478</v>
+        <v>0.265921</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.253963</v>
+        <v>0.261741</v>
       </c>
       <c r="C120" t="n">
-        <v>0.277822</v>
+        <v>0.278838</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257771</v>
+        <v>0.268617</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245399</v>
+        <v>0.250737</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278806</v>
+        <v>0.278108</v>
       </c>
       <c r="D121" t="n">
-        <v>0.265682</v>
+        <v>0.265372</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234508</v>
+        <v>0.247855</v>
       </c>
       <c r="C122" t="n">
-        <v>0.273979</v>
+        <v>0.273755</v>
       </c>
       <c r="D122" t="n">
-        <v>0.255665</v>
+        <v>0.261651</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225734</v>
+        <v>0.229326</v>
       </c>
       <c r="C123" t="n">
-        <v>0.300463</v>
+        <v>0.299417</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286122</v>
+        <v>0.293886</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.321626</v>
+        <v>0.331441</v>
       </c>
       <c r="C124" t="n">
-        <v>0.29732</v>
+        <v>0.299385</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28278</v>
+        <v>0.285456</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321304</v>
+        <v>0.331528</v>
       </c>
       <c r="C125" t="n">
-        <v>0.296416</v>
+        <v>0.294582</v>
       </c>
       <c r="D125" t="n">
-        <v>0.27383</v>
+        <v>0.28005</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.303348</v>
+        <v>0.324373</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298419</v>
+        <v>0.292279</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268987</v>
+        <v>0.279908</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307319</v>
+        <v>0.311977</v>
       </c>
       <c r="C127" t="n">
-        <v>0.292404</v>
+        <v>0.289298</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27118</v>
+        <v>0.276557</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.296973</v>
+        <v>0.306445</v>
       </c>
       <c r="C128" t="n">
-        <v>0.287441</v>
+        <v>0.285989</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273229</v>
+        <v>0.276472</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.285995</v>
+        <v>0.30421</v>
       </c>
       <c r="C129" t="n">
-        <v>0.283682</v>
+        <v>0.292772</v>
       </c>
       <c r="D129" t="n">
-        <v>0.265051</v>
+        <v>0.278551</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282019</v>
+        <v>0.290016</v>
       </c>
       <c r="C130" t="n">
-        <v>0.284801</v>
+        <v>0.282763</v>
       </c>
       <c r="D130" t="n">
-        <v>0.262603</v>
+        <v>0.268076</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.272535</v>
+        <v>0.288578</v>
       </c>
       <c r="C131" t="n">
-        <v>0.277292</v>
+        <v>0.280627</v>
       </c>
       <c r="D131" t="n">
-        <v>0.263463</v>
+        <v>0.274609</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265215</v>
+        <v>0.278425</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279388</v>
+        <v>0.284635</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267085</v>
+        <v>0.268992</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258653</v>
+        <v>0.269583</v>
       </c>
       <c r="C133" t="n">
-        <v>0.277055</v>
+        <v>0.278885</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257997</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251474</v>
+        <v>0.267259</v>
       </c>
       <c r="C134" t="n">
-        <v>0.274364</v>
+        <v>0.275899</v>
       </c>
       <c r="D134" t="n">
-        <v>0.262045</v>
+        <v>0.263817</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246213</v>
+        <v>0.256525</v>
       </c>
       <c r="C135" t="n">
-        <v>0.274088</v>
+        <v>0.276221</v>
       </c>
       <c r="D135" t="n">
-        <v>0.256182</v>
+        <v>0.267626</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234933</v>
+        <v>0.248061</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2728</v>
+        <v>0.274745</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25703</v>
+        <v>0.265378</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224324</v>
+        <v>0.233937</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303444</v>
+        <v>0.302175</v>
       </c>
       <c r="D137" t="n">
-        <v>0.287027</v>
+        <v>0.291822</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320714</v>
+        <v>0.33505</v>
       </c>
       <c r="C138" t="n">
-        <v>0.301074</v>
+        <v>0.298029</v>
       </c>
       <c r="D138" t="n">
-        <v>0.278881</v>
+        <v>0.287673</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.314179</v>
+        <v>0.335332</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296172</v>
+        <v>0.296215</v>
       </c>
       <c r="D139" t="n">
-        <v>0.273551</v>
+        <v>0.283224</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311605</v>
+        <v>0.326882</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30767</v>
+        <v>0.295874</v>
       </c>
       <c r="D140" t="n">
-        <v>0.273712</v>
+        <v>0.28387</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.30188</v>
+        <v>0.320738</v>
       </c>
       <c r="C141" t="n">
-        <v>0.29128</v>
+        <v>0.294773</v>
       </c>
       <c r="D141" t="n">
-        <v>0.275682</v>
+        <v>0.285059</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.291883</v>
+        <v>0.309586</v>
       </c>
       <c r="C142" t="n">
-        <v>0.292073</v>
+        <v>0.293052</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267586</v>
+        <v>0.282208</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.29039</v>
+        <v>0.308758</v>
       </c>
       <c r="C143" t="n">
-        <v>0.287925</v>
+        <v>0.291636</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265153</v>
+        <v>0.282561</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279978</v>
+        <v>0.260467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.269506</v>
+        <v>0.27747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252635</v>
+        <v>0.240475</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.271842</v>
+        <v>0.260189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.267175</v>
+        <v>0.271226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247032</v>
+        <v>0.23953</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257769</v>
+        <v>0.253512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261332</v>
+        <v>0.273359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24388</v>
+        <v>0.241593</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.257545</v>
+        <v>0.237666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26435</v>
+        <v>0.269865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247101</v>
+        <v>0.238407</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245668</v>
+        <v>0.23508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.265631</v>
+        <v>0.268181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244656</v>
+        <v>0.237388</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233315</v>
+        <v>0.229646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.260283</v>
+        <v>0.26619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240386</v>
+        <v>0.237131</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227597</v>
+        <v>0.217205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.265121</v>
+        <v>0.268102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.242417</v>
+        <v>0.237558</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.214647</v>
+        <v>0.209512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277713</v>
+        <v>0.284028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251019</v>
+        <v>0.251651</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312856</v>
+        <v>0.300809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276315</v>
+        <v>0.283052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254831</v>
+        <v>0.250132</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.308469</v>
+        <v>0.295384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.273786</v>
+        <v>0.282345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253712</v>
+        <v>0.250682</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.304665</v>
+        <v>0.292602</v>
       </c>
       <c r="C12" t="n">
-        <v>0.270995</v>
+        <v>0.277933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25557</v>
+        <v>0.247981</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.297366</v>
+        <v>0.280438</v>
       </c>
       <c r="C13" t="n">
-        <v>0.270414</v>
+        <v>0.27391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254704</v>
+        <v>0.248427</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.294998</v>
+        <v>0.281775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.271644</v>
+        <v>0.274121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25134</v>
+        <v>0.244301</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284033</v>
+        <v>0.273689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270922</v>
+        <v>0.275379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248444</v>
+        <v>0.246372</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.276807</v>
+        <v>0.267705</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267512</v>
+        <v>0.274801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247749</v>
+        <v>0.241345</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271668</v>
+        <v>0.259413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.265921</v>
+        <v>0.275793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252132</v>
+        <v>0.246172</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.266851</v>
+        <v>0.253402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.264436</v>
+        <v>0.275578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249465</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25855</v>
+        <v>0.250556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263942</v>
+        <v>0.271663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252007</v>
+        <v>0.243767</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252266</v>
+        <v>0.24237</v>
       </c>
       <c r="C20" t="n">
-        <v>0.261443</v>
+        <v>0.269748</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246001</v>
+        <v>0.24406</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242397</v>
+        <v>0.233314</v>
       </c>
       <c r="C21" t="n">
-        <v>0.264137</v>
+        <v>0.275117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248201</v>
+        <v>0.24402</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236313</v>
+        <v>0.229702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261909</v>
+        <v>0.269687</v>
       </c>
       <c r="D22" t="n">
-        <v>0.251388</v>
+        <v>0.242129</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226891</v>
+        <v>0.216516</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280711</v>
+        <v>0.285128</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26788</v>
+        <v>0.257684</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.315676</v>
+        <v>0.301261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277123</v>
+        <v>0.287417</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261475</v>
+        <v>0.262001</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.310757</v>
+        <v>0.302459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.279866</v>
+        <v>0.284221</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264492</v>
+        <v>0.256312</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301678</v>
+        <v>0.290844</v>
       </c>
       <c r="C26" t="n">
-        <v>0.274108</v>
+        <v>0.280866</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26056</v>
+        <v>0.254311</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296415</v>
+        <v>0.289024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.274282</v>
+        <v>0.27872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261941</v>
+        <v>0.255222</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.295881</v>
+        <v>0.283549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.271546</v>
+        <v>0.280511</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260997</v>
+        <v>0.254227</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285952</v>
+        <v>0.277153</v>
       </c>
       <c r="C29" t="n">
-        <v>0.271603</v>
+        <v>0.278743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257564</v>
+        <v>0.253206</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.281953</v>
+        <v>0.267599</v>
       </c>
       <c r="C30" t="n">
-        <v>0.271571</v>
+        <v>0.275335</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256883</v>
+        <v>0.25206</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.274149</v>
+        <v>0.263894</v>
       </c>
       <c r="C31" t="n">
-        <v>0.266743</v>
+        <v>0.275036</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25689</v>
+        <v>0.250441</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267804</v>
+        <v>0.255997</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267664</v>
+        <v>0.274119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.255529</v>
+        <v>0.248348</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258897</v>
+        <v>0.249678</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2654</v>
+        <v>0.272038</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25472</v>
+        <v>0.246873</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254739</v>
+        <v>0.241251</v>
       </c>
       <c r="C34" t="n">
-        <v>0.268559</v>
+        <v>0.270919</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253335</v>
+        <v>0.247969</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246028</v>
+        <v>0.238336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268047</v>
+        <v>0.275397</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253086</v>
+        <v>0.248525</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238676</v>
+        <v>0.229962</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262444</v>
+        <v>0.270785</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24944</v>
+        <v>0.246819</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22821</v>
+        <v>0.223213</v>
       </c>
       <c r="C37" t="n">
-        <v>0.287001</v>
+        <v>0.290866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273508</v>
+        <v>0.265716</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316822</v>
+        <v>0.31041</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28315</v>
+        <v>0.293278</v>
       </c>
       <c r="D38" t="n">
-        <v>0.272921</v>
+        <v>0.265947</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.315613</v>
+        <v>0.302204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284331</v>
+        <v>0.290023</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26811</v>
+        <v>0.265579</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307147</v>
+        <v>0.297621</v>
       </c>
       <c r="C40" t="n">
-        <v>0.279818</v>
+        <v>0.289207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.266708</v>
+        <v>0.264264</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.298304</v>
+        <v>0.294974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2772</v>
+        <v>0.283968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26961</v>
+        <v>0.26042</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299858</v>
+        <v>0.287491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274521</v>
+        <v>0.282175</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26331</v>
+        <v>0.25767</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.292013</v>
+        <v>0.280148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.277125</v>
+        <v>0.278058</v>
       </c>
       <c r="D43" t="n">
-        <v>0.261444</v>
+        <v>0.258748</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28673</v>
+        <v>0.27632</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272855</v>
+        <v>0.277311</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260605</v>
+        <v>0.256304</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.279127</v>
+        <v>0.268266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270068</v>
+        <v>0.279673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259566</v>
+        <v>0.254723</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268197</v>
+        <v>0.261558</v>
       </c>
       <c r="C46" t="n">
-        <v>0.269119</v>
+        <v>0.277193</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260693</v>
+        <v>0.251442</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.264658</v>
+        <v>0.255962</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265783</v>
+        <v>0.276973</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258745</v>
+        <v>0.250712</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.255635</v>
+        <v>0.249495</v>
       </c>
       <c r="C48" t="n">
-        <v>0.266008</v>
+        <v>0.275914</v>
       </c>
       <c r="D48" t="n">
-        <v>0.261043</v>
+        <v>0.24993</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251239</v>
+        <v>0.241281</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269026</v>
+        <v>0.275088</v>
       </c>
       <c r="D49" t="n">
-        <v>0.258677</v>
+        <v>0.249954</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241185</v>
+        <v>0.234474</v>
       </c>
       <c r="C50" t="n">
-        <v>0.262661</v>
+        <v>0.273161</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253576</v>
+        <v>0.253081</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231269</v>
+        <v>0.226326</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28859</v>
+        <v>0.300477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276098</v>
+        <v>0.272736</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222737</v>
+        <v>0.217088</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286582</v>
+        <v>0.29479</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275707</v>
+        <v>0.270892</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.316751</v>
+        <v>0.304322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285098</v>
+        <v>0.290127</v>
       </c>
       <c r="D53" t="n">
-        <v>0.27323</v>
+        <v>0.269012</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.314949</v>
+        <v>0.301599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282355</v>
+        <v>0.293037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.270713</v>
+        <v>0.265605</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308571</v>
+        <v>0.296567</v>
       </c>
       <c r="C55" t="n">
-        <v>0.283552</v>
+        <v>0.290281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.272</v>
+        <v>0.266589</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.303872</v>
+        <v>0.290257</v>
       </c>
       <c r="C56" t="n">
-        <v>0.280663</v>
+        <v>0.285953</v>
       </c>
       <c r="D56" t="n">
-        <v>0.27123</v>
+        <v>0.264973</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.30012</v>
+        <v>0.283769</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277482</v>
+        <v>0.28564</v>
       </c>
       <c r="D57" t="n">
-        <v>0.26706</v>
+        <v>0.258931</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291475</v>
+        <v>0.282274</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276547</v>
+        <v>0.282392</v>
       </c>
       <c r="D58" t="n">
-        <v>0.266806</v>
+        <v>0.259529</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284975</v>
+        <v>0.271857</v>
       </c>
       <c r="C59" t="n">
-        <v>0.276705</v>
+        <v>0.280272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.263055</v>
+        <v>0.258316</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.279074</v>
+        <v>0.266603</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274782</v>
+        <v>0.280629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262627</v>
+        <v>0.256491</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268101</v>
+        <v>0.261269</v>
       </c>
       <c r="C61" t="n">
-        <v>0.274625</v>
+        <v>0.278252</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260211</v>
+        <v>0.254562</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.265797</v>
+        <v>0.253393</v>
       </c>
       <c r="C62" t="n">
-        <v>0.270811</v>
+        <v>0.276342</v>
       </c>
       <c r="D62" t="n">
-        <v>0.260021</v>
+        <v>0.252624</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.254129</v>
+        <v>0.245527</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272682</v>
+        <v>0.277296</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254783</v>
+        <v>0.251568</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248634</v>
+        <v>0.236195</v>
       </c>
       <c r="C64" t="n">
-        <v>0.274092</v>
+        <v>0.275215</v>
       </c>
       <c r="D64" t="n">
-        <v>0.255599</v>
+        <v>0.254609</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.235624</v>
+        <v>0.231268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267118</v>
+        <v>0.274704</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254116</v>
+        <v>0.246199</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.227358</v>
+        <v>0.221775</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298506</v>
+        <v>0.303176</v>
       </c>
       <c r="D66" t="n">
-        <v>0.284043</v>
+        <v>0.272873</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.331898</v>
+        <v>0.313122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297991</v>
+        <v>0.295081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.286095</v>
+        <v>0.27366</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.328368</v>
+        <v>0.313288</v>
       </c>
       <c r="C68" t="n">
-        <v>0.289684</v>
+        <v>0.291777</v>
       </c>
       <c r="D68" t="n">
-        <v>0.281622</v>
+        <v>0.271085</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.322803</v>
+        <v>0.305197</v>
       </c>
       <c r="C69" t="n">
-        <v>0.290091</v>
+        <v>0.295335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.275521</v>
+        <v>0.273124</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312911</v>
+        <v>0.298744</v>
       </c>
       <c r="C70" t="n">
-        <v>0.289895</v>
+        <v>0.291952</v>
       </c>
       <c r="D70" t="n">
-        <v>0.275251</v>
+        <v>0.266312</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.304102</v>
+        <v>0.300007</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285751</v>
+        <v>0.29032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271885</v>
+        <v>0.263693</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.295664</v>
+        <v>0.285537</v>
       </c>
       <c r="C72" t="n">
-        <v>0.283461</v>
+        <v>0.288734</v>
       </c>
       <c r="D72" t="n">
-        <v>0.276071</v>
+        <v>0.261777</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.291547</v>
+        <v>0.283272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284732</v>
+        <v>0.289143</v>
       </c>
       <c r="D73" t="n">
-        <v>0.27171</v>
+        <v>0.258543</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.284043</v>
+        <v>0.272904</v>
       </c>
       <c r="C74" t="n">
-        <v>0.279615</v>
+        <v>0.286487</v>
       </c>
       <c r="D74" t="n">
-        <v>0.269016</v>
+        <v>0.261344</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277659</v>
+        <v>0.268062</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277931</v>
+        <v>0.279214</v>
       </c>
       <c r="D75" t="n">
-        <v>0.268167</v>
+        <v>0.258613</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.271808</v>
+        <v>0.261374</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279492</v>
+        <v>0.279866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264225</v>
+        <v>0.259993</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262482</v>
+        <v>0.250504</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275071</v>
+        <v>0.280472</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264749</v>
+        <v>0.257854</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.253269</v>
+        <v>0.244001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272164</v>
+        <v>0.278236</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259697</v>
+        <v>0.253878</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246133</v>
+        <v>0.235927</v>
       </c>
       <c r="C79" t="n">
-        <v>0.273998</v>
+        <v>0.277047</v>
       </c>
       <c r="D79" t="n">
-        <v>0.260468</v>
+        <v>0.252294</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.23316</v>
+        <v>0.227302</v>
       </c>
       <c r="C80" t="n">
-        <v>0.300327</v>
+        <v>0.300814</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290122</v>
+        <v>0.279724</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.329491</v>
+        <v>0.321817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.295279</v>
+        <v>0.300122</v>
       </c>
       <c r="D81" t="n">
-        <v>0.287143</v>
+        <v>0.276194</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.327578</v>
+        <v>0.316701</v>
       </c>
       <c r="C82" t="n">
-        <v>0.294412</v>
+        <v>0.300261</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280482</v>
+        <v>0.27913</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.319037</v>
+        <v>0.310135</v>
       </c>
       <c r="C83" t="n">
-        <v>0.291391</v>
+        <v>0.297933</v>
       </c>
       <c r="D83" t="n">
-        <v>0.280365</v>
+        <v>0.276153</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.313422</v>
+        <v>0.304165</v>
       </c>
       <c r="C84" t="n">
-        <v>0.286001</v>
+        <v>0.293955</v>
       </c>
       <c r="D84" t="n">
-        <v>0.279847</v>
+        <v>0.27033</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.309221</v>
+        <v>0.295583</v>
       </c>
       <c r="C85" t="n">
-        <v>0.28715</v>
+        <v>0.291372</v>
       </c>
       <c r="D85" t="n">
-        <v>0.276896</v>
+        <v>0.273726</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.301524</v>
+        <v>0.290425</v>
       </c>
       <c r="C86" t="n">
-        <v>0.285294</v>
+        <v>0.291449</v>
       </c>
       <c r="D86" t="n">
-        <v>0.273984</v>
+        <v>0.270345</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.294746</v>
+        <v>0.286771</v>
       </c>
       <c r="C87" t="n">
-        <v>0.282861</v>
+        <v>0.286371</v>
       </c>
       <c r="D87" t="n">
-        <v>0.278722</v>
+        <v>0.262554</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.291839</v>
+        <v>0.281597</v>
       </c>
       <c r="C88" t="n">
-        <v>0.281969</v>
+        <v>0.287928</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273149</v>
+        <v>0.260518</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280773</v>
+        <v>0.272112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.279844</v>
+        <v>0.285686</v>
       </c>
       <c r="D89" t="n">
-        <v>0.265207</v>
+        <v>0.264023</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.275017</v>
+        <v>0.266577</v>
       </c>
       <c r="C90" t="n">
-        <v>0.276497</v>
+        <v>0.287064</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263713</v>
+        <v>0.257004</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.264909</v>
+        <v>0.251693</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276103</v>
+        <v>0.279328</v>
       </c>
       <c r="D91" t="n">
-        <v>0.265661</v>
+        <v>0.259768</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256937</v>
+        <v>0.249566</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27271</v>
+        <v>0.281372</v>
       </c>
       <c r="D92" t="n">
-        <v>0.264496</v>
+        <v>0.253178</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.248635</v>
+        <v>0.238162</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283735</v>
+        <v>0.277402</v>
       </c>
       <c r="D93" t="n">
-        <v>0.261613</v>
+        <v>0.256016</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.237514</v>
+        <v>0.229265</v>
       </c>
       <c r="C94" t="n">
-        <v>0.30353</v>
+        <v>0.305516</v>
       </c>
       <c r="D94" t="n">
-        <v>0.292217</v>
+        <v>0.280834</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.336995</v>
+        <v>0.320633</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299623</v>
+        <v>0.301821</v>
       </c>
       <c r="D95" t="n">
-        <v>0.285638</v>
+        <v>0.280775</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.327304</v>
+        <v>0.318418</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295178</v>
+        <v>0.304247</v>
       </c>
       <c r="D96" t="n">
-        <v>0.283336</v>
+        <v>0.273428</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.321999</v>
+        <v>0.312449</v>
       </c>
       <c r="C97" t="n">
-        <v>0.294013</v>
+        <v>0.301724</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281025</v>
+        <v>0.275711</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31537</v>
+        <v>0.303798</v>
       </c>
       <c r="C98" t="n">
-        <v>0.292363</v>
+        <v>0.296655</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278882</v>
+        <v>0.271557</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.309299</v>
+        <v>0.300514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.289194</v>
+        <v>0.291534</v>
       </c>
       <c r="D99" t="n">
-        <v>0.280251</v>
+        <v>0.268825</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.305035</v>
+        <v>0.294267</v>
       </c>
       <c r="C100" t="n">
-        <v>0.287052</v>
+        <v>0.292546</v>
       </c>
       <c r="D100" t="n">
-        <v>0.272854</v>
+        <v>0.266122</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.293131</v>
+        <v>0.283144</v>
       </c>
       <c r="C101" t="n">
-        <v>0.283195</v>
+        <v>0.289568</v>
       </c>
       <c r="D101" t="n">
-        <v>0.275122</v>
+        <v>0.266053</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.289721</v>
+        <v>0.279412</v>
       </c>
       <c r="C102" t="n">
-        <v>0.28483</v>
+        <v>0.293907</v>
       </c>
       <c r="D102" t="n">
-        <v>0.273173</v>
+        <v>0.263677</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.28106</v>
+        <v>0.272817</v>
       </c>
       <c r="C103" t="n">
-        <v>0.280753</v>
+        <v>0.285941</v>
       </c>
       <c r="D103" t="n">
-        <v>0.269515</v>
+        <v>0.259561</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.277067</v>
+        <v>0.265846</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278004</v>
+        <v>0.280152</v>
       </c>
       <c r="D104" t="n">
-        <v>0.27019</v>
+        <v>0.261364</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271009</v>
+        <v>0.255439</v>
       </c>
       <c r="C105" t="n">
-        <v>0.276953</v>
+        <v>0.280885</v>
       </c>
       <c r="D105" t="n">
-        <v>0.266167</v>
+        <v>0.256352</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257773</v>
+        <v>0.249021</v>
       </c>
       <c r="C106" t="n">
-        <v>0.277473</v>
+        <v>0.286497</v>
       </c>
       <c r="D106" t="n">
-        <v>0.263094</v>
+        <v>0.257944</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25121</v>
+        <v>0.239737</v>
       </c>
       <c r="C107" t="n">
-        <v>0.27625</v>
+        <v>0.278047</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259251</v>
+        <v>0.259563</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.240592</v>
+        <v>0.237815</v>
       </c>
       <c r="C108" t="n">
-        <v>0.30117</v>
+        <v>0.312006</v>
       </c>
       <c r="D108" t="n">
-        <v>0.289931</v>
+        <v>0.290814</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230304</v>
+        <v>0.221467</v>
       </c>
       <c r="C109" t="n">
-        <v>0.298076</v>
+        <v>0.306296</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285938</v>
+        <v>0.281164</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.332459</v>
+        <v>0.320152</v>
       </c>
       <c r="C110" t="n">
-        <v>0.295333</v>
+        <v>0.299124</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281102</v>
+        <v>0.277728</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.321917</v>
+        <v>0.315088</v>
       </c>
       <c r="C111" t="n">
-        <v>0.293988</v>
+        <v>0.300564</v>
       </c>
       <c r="D111" t="n">
-        <v>0.287459</v>
+        <v>0.275947</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313966</v>
+        <v>0.307812</v>
       </c>
       <c r="C112" t="n">
-        <v>0.290028</v>
+        <v>0.300792</v>
       </c>
       <c r="D112" t="n">
-        <v>0.282301</v>
+        <v>0.27319</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.31236</v>
+        <v>0.307767</v>
       </c>
       <c r="C113" t="n">
-        <v>0.287426</v>
+        <v>0.296172</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275198</v>
+        <v>0.274615</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.306415</v>
+        <v>0.292455</v>
       </c>
       <c r="C114" t="n">
-        <v>0.290144</v>
+        <v>0.289626</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274744</v>
+        <v>0.269601</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.29965</v>
+        <v>0.292989</v>
       </c>
       <c r="C115" t="n">
-        <v>0.286473</v>
+        <v>0.287322</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274144</v>
+        <v>0.265643</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290928</v>
+        <v>0.293782</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286973</v>
+        <v>0.285306</v>
       </c>
       <c r="D116" t="n">
-        <v>0.275016</v>
+        <v>0.264806</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.289674</v>
+        <v>0.273026</v>
       </c>
       <c r="C117" t="n">
-        <v>0.287842</v>
+        <v>0.290015</v>
       </c>
       <c r="D117" t="n">
-        <v>0.273355</v>
+        <v>0.264321</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.281704</v>
+        <v>0.265758</v>
       </c>
       <c r="C118" t="n">
-        <v>0.280256</v>
+        <v>0.29032</v>
       </c>
       <c r="D118" t="n">
-        <v>0.268022</v>
+        <v>0.262125</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.267706</v>
+        <v>0.261432</v>
       </c>
       <c r="C119" t="n">
-        <v>0.278161</v>
+        <v>0.285324</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265921</v>
+        <v>0.25769</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261741</v>
+        <v>0.254326</v>
       </c>
       <c r="C120" t="n">
-        <v>0.278838</v>
+        <v>0.28067</v>
       </c>
       <c r="D120" t="n">
-        <v>0.268617</v>
+        <v>0.26575</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250737</v>
+        <v>0.242898</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278108</v>
+        <v>0.280372</v>
       </c>
       <c r="D121" t="n">
-        <v>0.265372</v>
+        <v>0.260306</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.247855</v>
+        <v>0.23299</v>
       </c>
       <c r="C122" t="n">
-        <v>0.273755</v>
+        <v>0.277747</v>
       </c>
       <c r="D122" t="n">
-        <v>0.261651</v>
+        <v>0.257525</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229326</v>
+        <v>0.22671</v>
       </c>
       <c r="C123" t="n">
-        <v>0.299417</v>
+        <v>0.301093</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293886</v>
+        <v>0.282823</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.331441</v>
+        <v>0.318596</v>
       </c>
       <c r="C124" t="n">
-        <v>0.299385</v>
+        <v>0.304233</v>
       </c>
       <c r="D124" t="n">
-        <v>0.285456</v>
+        <v>0.285759</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.331528</v>
+        <v>0.314607</v>
       </c>
       <c r="C125" t="n">
-        <v>0.294582</v>
+        <v>0.303269</v>
       </c>
       <c r="D125" t="n">
-        <v>0.28005</v>
+        <v>0.28545</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.324373</v>
+        <v>0.305721</v>
       </c>
       <c r="C126" t="n">
-        <v>0.292279</v>
+        <v>0.300336</v>
       </c>
       <c r="D126" t="n">
-        <v>0.279908</v>
+        <v>0.276307</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.311977</v>
+        <v>0.304473</v>
       </c>
       <c r="C127" t="n">
-        <v>0.289298</v>
+        <v>0.294626</v>
       </c>
       <c r="D127" t="n">
-        <v>0.276557</v>
+        <v>0.27285</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.306445</v>
+        <v>0.299453</v>
       </c>
       <c r="C128" t="n">
-        <v>0.285989</v>
+        <v>0.295592</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276472</v>
+        <v>0.273154</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30421</v>
+        <v>0.29131</v>
       </c>
       <c r="C129" t="n">
-        <v>0.292772</v>
+        <v>0.293999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.278551</v>
+        <v>0.27077</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.290016</v>
+        <v>0.282598</v>
       </c>
       <c r="C130" t="n">
-        <v>0.282763</v>
+        <v>0.291409</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268076</v>
+        <v>0.273247</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.288578</v>
+        <v>0.272155</v>
       </c>
       <c r="C131" t="n">
-        <v>0.280627</v>
+        <v>0.285538</v>
       </c>
       <c r="D131" t="n">
-        <v>0.274609</v>
+        <v>0.263699</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278425</v>
+        <v>0.264607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.284635</v>
+        <v>0.291685</v>
       </c>
       <c r="D132" t="n">
-        <v>0.268992</v>
+        <v>0.260805</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.269583</v>
+        <v>0.258193</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278885</v>
+        <v>0.284383</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2658</v>
+        <v>0.259043</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267259</v>
+        <v>0.253014</v>
       </c>
       <c r="C134" t="n">
-        <v>0.275899</v>
+        <v>0.281353</v>
       </c>
       <c r="D134" t="n">
-        <v>0.263817</v>
+        <v>0.256755</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.256525</v>
+        <v>0.250161</v>
       </c>
       <c r="C135" t="n">
-        <v>0.276221</v>
+        <v>0.278352</v>
       </c>
       <c r="D135" t="n">
-        <v>0.267626</v>
+        <v>0.257035</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.248061</v>
+        <v>0.238916</v>
       </c>
       <c r="C136" t="n">
-        <v>0.274745</v>
+        <v>0.283683</v>
       </c>
       <c r="D136" t="n">
-        <v>0.265378</v>
+        <v>0.257184</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233937</v>
+        <v>0.228271</v>
       </c>
       <c r="C137" t="n">
-        <v>0.302175</v>
+        <v>0.30956</v>
       </c>
       <c r="D137" t="n">
-        <v>0.291822</v>
+        <v>0.284977</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33505</v>
+        <v>0.328938</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298029</v>
+        <v>0.309815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.287673</v>
+        <v>0.284268</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.335332</v>
+        <v>0.314699</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296215</v>
+        <v>0.306779</v>
       </c>
       <c r="D139" t="n">
-        <v>0.283224</v>
+        <v>0.277647</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326882</v>
+        <v>0.311541</v>
       </c>
       <c r="C140" t="n">
-        <v>0.295874</v>
+        <v>0.301542</v>
       </c>
       <c r="D140" t="n">
-        <v>0.28387</v>
+        <v>0.280398</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.320738</v>
+        <v>0.308891</v>
       </c>
       <c r="C141" t="n">
-        <v>0.294773</v>
+        <v>0.298332</v>
       </c>
       <c r="D141" t="n">
-        <v>0.285059</v>
+        <v>0.274503</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.309586</v>
+        <v>0.30428</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293052</v>
+        <v>0.295868</v>
       </c>
       <c r="D142" t="n">
-        <v>0.282208</v>
+        <v>0.274499</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.308758</v>
+        <v>0.292628</v>
       </c>
       <c r="C143" t="n">
-        <v>0.291636</v>
+        <v>0.296339</v>
       </c>
       <c r="D143" t="n">
-        <v>0.282561</v>
+        <v>0.269945</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260467</v>
+        <v>0.26784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27747</v>
+        <v>0.281681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240475</v>
+        <v>0.248484</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260189</v>
+        <v>0.255118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.271226</v>
+        <v>0.269565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23953</v>
+        <v>0.245712</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253512</v>
+        <v>0.251645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273359</v>
+        <v>0.276772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241593</v>
+        <v>0.241596</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237666</v>
+        <v>0.247619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.269865</v>
+        <v>0.273142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238407</v>
+        <v>0.242438</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23508</v>
+        <v>0.234914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.268181</v>
+        <v>0.269364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.237388</v>
+        <v>0.240709</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229646</v>
+        <v>0.229483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.26619</v>
+        <v>0.266964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237131</v>
+        <v>0.237396</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217205</v>
+        <v>0.216946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.268102</v>
+        <v>0.269046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.237558</v>
+        <v>0.234448</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209512</v>
+        <v>0.206449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284028</v>
+        <v>0.281964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251651</v>
+        <v>0.250337</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.300809</v>
+        <v>0.295501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.283052</v>
+        <v>0.276201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250132</v>
+        <v>0.251047</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295384</v>
+        <v>0.292465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.282345</v>
+        <v>0.278798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250682</v>
+        <v>0.248257</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292602</v>
+        <v>0.289447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.277933</v>
+        <v>0.276973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247981</v>
+        <v>0.246645</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280438</v>
+        <v>0.281029</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27391</v>
+        <v>0.275439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248427</v>
+        <v>0.24542</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281775</v>
+        <v>0.278348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274121</v>
+        <v>0.27718</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244301</v>
+        <v>0.245661</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273689</v>
+        <v>0.272055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.275379</v>
+        <v>0.270638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246372</v>
+        <v>0.241145</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267705</v>
+        <v>0.264741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.274801</v>
+        <v>0.27464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241345</v>
+        <v>0.246039</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259413</v>
+        <v>0.256507</v>
       </c>
       <c r="C17" t="n">
-        <v>0.275793</v>
+        <v>0.270206</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246172</v>
+        <v>0.248373</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253402</v>
+        <v>0.252916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275578</v>
+        <v>0.268219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.244629</v>
+        <v>0.243888</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.250556</v>
+        <v>0.244865</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271663</v>
+        <v>0.270468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243767</v>
+        <v>0.244239</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24237</v>
+        <v>0.239649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269748</v>
+        <v>0.269357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24406</v>
+        <v>0.239191</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.233314</v>
+        <v>0.234854</v>
       </c>
       <c r="C21" t="n">
-        <v>0.275117</v>
+        <v>0.268953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24402</v>
+        <v>0.241333</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229702</v>
+        <v>0.22544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.269687</v>
+        <v>0.266369</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242129</v>
+        <v>0.239801</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.216516</v>
+        <v>0.21764</v>
       </c>
       <c r="C23" t="n">
-        <v>0.285128</v>
+        <v>0.2847</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257684</v>
+        <v>0.257596</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.301261</v>
+        <v>0.30276</v>
       </c>
       <c r="C24" t="n">
-        <v>0.287417</v>
+        <v>0.284051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262001</v>
+        <v>0.258913</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302459</v>
+        <v>0.297718</v>
       </c>
       <c r="C25" t="n">
-        <v>0.284221</v>
+        <v>0.283142</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256312</v>
+        <v>0.254875</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.290844</v>
+        <v>0.289701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.280866</v>
+        <v>0.281205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254311</v>
+        <v>0.252326</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.289024</v>
+        <v>0.282007</v>
       </c>
       <c r="C27" t="n">
-        <v>0.27872</v>
+        <v>0.274893</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255222</v>
+        <v>0.255561</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283549</v>
+        <v>0.280053</v>
       </c>
       <c r="C28" t="n">
-        <v>0.280511</v>
+        <v>0.271952</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254227</v>
+        <v>0.250765</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277153</v>
+        <v>0.272173</v>
       </c>
       <c r="C29" t="n">
-        <v>0.278743</v>
+        <v>0.274657</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253206</v>
+        <v>0.247943</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.267599</v>
+        <v>0.266176</v>
       </c>
       <c r="C30" t="n">
-        <v>0.275335</v>
+        <v>0.279048</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25206</v>
+        <v>0.246012</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.263894</v>
+        <v>0.265604</v>
       </c>
       <c r="C31" t="n">
-        <v>0.275036</v>
+        <v>0.273722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250441</v>
+        <v>0.248755</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.255997</v>
+        <v>0.25523</v>
       </c>
       <c r="C32" t="n">
-        <v>0.274119</v>
+        <v>0.271055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248348</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.249678</v>
+        <v>0.247684</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272038</v>
+        <v>0.270673</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246873</v>
+        <v>0.247878</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.241251</v>
+        <v>0.243541</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270919</v>
+        <v>0.270768</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247969</v>
+        <v>0.24444</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.238336</v>
+        <v>0.237003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.275397</v>
+        <v>0.270536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248525</v>
+        <v>0.245779</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229962</v>
+        <v>0.226579</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270785</v>
+        <v>0.26759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246819</v>
+        <v>0.243319</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.223213</v>
+        <v>0.221003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.290866</v>
+        <v>0.288006</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265716</v>
+        <v>0.263519</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31041</v>
+        <v>0.305824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.293278</v>
+        <v>0.291401</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265947</v>
+        <v>0.261658</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302204</v>
+        <v>0.297841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290023</v>
+        <v>0.288051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265579</v>
+        <v>0.265823</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297621</v>
+        <v>0.294027</v>
       </c>
       <c r="C40" t="n">
-        <v>0.289207</v>
+        <v>0.285471</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264264</v>
+        <v>0.258284</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.294974</v>
+        <v>0.290287</v>
       </c>
       <c r="C41" t="n">
-        <v>0.283968</v>
+        <v>0.281968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26042</v>
+        <v>0.255925</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.287491</v>
+        <v>0.283619</v>
       </c>
       <c r="C42" t="n">
-        <v>0.282175</v>
+        <v>0.279521</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25767</v>
+        <v>0.253254</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280148</v>
+        <v>0.275575</v>
       </c>
       <c r="C43" t="n">
-        <v>0.278058</v>
+        <v>0.275474</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258748</v>
+        <v>0.253592</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.27632</v>
+        <v>0.271216</v>
       </c>
       <c r="C44" t="n">
-        <v>0.277311</v>
+        <v>0.278503</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256304</v>
+        <v>0.253473</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.268266</v>
+        <v>0.268162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.279673</v>
+        <v>0.279894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254723</v>
+        <v>0.254849</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261558</v>
+        <v>0.256123</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277193</v>
+        <v>0.273999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.251442</v>
+        <v>0.253412</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.255962</v>
+        <v>0.253986</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276973</v>
+        <v>0.276961</v>
       </c>
       <c r="D47" t="n">
-        <v>0.250712</v>
+        <v>0.251632</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.249495</v>
+        <v>0.246143</v>
       </c>
       <c r="C48" t="n">
-        <v>0.275914</v>
+        <v>0.273386</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24993</v>
+        <v>0.248954</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.241281</v>
+        <v>0.240113</v>
       </c>
       <c r="C49" t="n">
-        <v>0.275088</v>
+        <v>0.268772</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249954</v>
+        <v>0.246945</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234474</v>
+        <v>0.234612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.273161</v>
+        <v>0.274807</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253081</v>
+        <v>0.246473</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226326</v>
+        <v>0.224173</v>
       </c>
       <c r="C51" t="n">
-        <v>0.300477</v>
+        <v>0.293501</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272736</v>
+        <v>0.272594</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.217088</v>
+        <v>0.215333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.29479</v>
+        <v>0.293036</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270892</v>
+        <v>0.266992</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.304322</v>
+        <v>0.30309</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290127</v>
+        <v>0.290195</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269012</v>
+        <v>0.266037</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.301599</v>
+        <v>0.296104</v>
       </c>
       <c r="C54" t="n">
-        <v>0.293037</v>
+        <v>0.286943</v>
       </c>
       <c r="D54" t="n">
-        <v>0.265605</v>
+        <v>0.266024</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.296567</v>
+        <v>0.293065</v>
       </c>
       <c r="C55" t="n">
-        <v>0.290281</v>
+        <v>0.287116</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266589</v>
+        <v>0.260849</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290257</v>
+        <v>0.286563</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285953</v>
+        <v>0.286523</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264973</v>
+        <v>0.25899</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283769</v>
+        <v>0.28019</v>
       </c>
       <c r="C57" t="n">
-        <v>0.28564</v>
+        <v>0.280757</v>
       </c>
       <c r="D57" t="n">
-        <v>0.258931</v>
+        <v>0.259904</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282274</v>
+        <v>0.274925</v>
       </c>
       <c r="C58" t="n">
-        <v>0.282392</v>
+        <v>0.279286</v>
       </c>
       <c r="D58" t="n">
-        <v>0.259529</v>
+        <v>0.254559</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271857</v>
+        <v>0.2706</v>
       </c>
       <c r="C59" t="n">
-        <v>0.280272</v>
+        <v>0.27907</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258316</v>
+        <v>0.255119</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266603</v>
+        <v>0.264566</v>
       </c>
       <c r="C60" t="n">
-        <v>0.280629</v>
+        <v>0.277273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256491</v>
+        <v>0.251814</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261269</v>
+        <v>0.255685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.278252</v>
+        <v>0.273377</v>
       </c>
       <c r="D61" t="n">
-        <v>0.254562</v>
+        <v>0.251882</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253393</v>
+        <v>0.249242</v>
       </c>
       <c r="C62" t="n">
-        <v>0.276342</v>
+        <v>0.275325</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252624</v>
+        <v>0.249429</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.245527</v>
+        <v>0.24293</v>
       </c>
       <c r="C63" t="n">
-        <v>0.277296</v>
+        <v>0.273741</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251568</v>
+        <v>0.246798</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236195</v>
+        <v>0.236675</v>
       </c>
       <c r="C64" t="n">
-        <v>0.275215</v>
+        <v>0.272833</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254609</v>
+        <v>0.247849</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.231268</v>
+        <v>0.231269</v>
       </c>
       <c r="C65" t="n">
-        <v>0.274704</v>
+        <v>0.27249</v>
       </c>
       <c r="D65" t="n">
-        <v>0.246199</v>
+        <v>0.247499</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.221775</v>
+        <v>0.219283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303176</v>
+        <v>0.300939</v>
       </c>
       <c r="D66" t="n">
-        <v>0.272873</v>
+        <v>0.278779</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313122</v>
+        <v>0.316606</v>
       </c>
       <c r="C67" t="n">
-        <v>0.295081</v>
+        <v>0.299888</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27366</v>
+        <v>0.279387</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.313288</v>
+        <v>0.315023</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291777</v>
+        <v>0.300389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.271085</v>
+        <v>0.274242</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.305197</v>
+        <v>0.305653</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295335</v>
+        <v>0.295182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.273124</v>
+        <v>0.27301</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298744</v>
+        <v>0.302193</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291952</v>
+        <v>0.29046</v>
       </c>
       <c r="D70" t="n">
-        <v>0.266312</v>
+        <v>0.271931</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300007</v>
+        <v>0.290763</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29032</v>
+        <v>0.292911</v>
       </c>
       <c r="D71" t="n">
-        <v>0.263693</v>
+        <v>0.2688</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.285537</v>
+        <v>0.285067</v>
       </c>
       <c r="C72" t="n">
-        <v>0.288734</v>
+        <v>0.290093</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261777</v>
+        <v>0.266157</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283272</v>
+        <v>0.276914</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289143</v>
+        <v>0.282633</v>
       </c>
       <c r="D73" t="n">
-        <v>0.258543</v>
+        <v>0.263481</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272904</v>
+        <v>0.271866</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286487</v>
+        <v>0.284516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261344</v>
+        <v>0.268966</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.268062</v>
+        <v>0.26646</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279214</v>
+        <v>0.283535</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258613</v>
+        <v>0.263534</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.261374</v>
+        <v>0.258382</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279866</v>
+        <v>0.2828</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259993</v>
+        <v>0.259748</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.250504</v>
+        <v>0.254737</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280472</v>
+        <v>0.283176</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257854</v>
+        <v>0.255735</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244001</v>
+        <v>0.248354</v>
       </c>
       <c r="C78" t="n">
-        <v>0.278236</v>
+        <v>0.280815</v>
       </c>
       <c r="D78" t="n">
-        <v>0.253878</v>
+        <v>0.255914</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235927</v>
+        <v>0.235917</v>
       </c>
       <c r="C79" t="n">
-        <v>0.277047</v>
+        <v>0.275821</v>
       </c>
       <c r="D79" t="n">
-        <v>0.252294</v>
+        <v>0.255268</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227302</v>
+        <v>0.228683</v>
       </c>
       <c r="C80" t="n">
-        <v>0.300814</v>
+        <v>0.30402</v>
       </c>
       <c r="D80" t="n">
-        <v>0.279724</v>
+        <v>0.280806</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.321817</v>
+        <v>0.321177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.300122</v>
+        <v>0.302268</v>
       </c>
       <c r="D81" t="n">
-        <v>0.276194</v>
+        <v>0.278111</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316701</v>
+        <v>0.318531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.300261</v>
+        <v>0.300841</v>
       </c>
       <c r="D82" t="n">
-        <v>0.27913</v>
+        <v>0.278572</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.310135</v>
+        <v>0.312624</v>
       </c>
       <c r="C83" t="n">
-        <v>0.297933</v>
+        <v>0.30087</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276153</v>
+        <v>0.272132</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304165</v>
+        <v>0.306542</v>
       </c>
       <c r="C84" t="n">
-        <v>0.293955</v>
+        <v>0.299966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.27033</v>
+        <v>0.274087</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.295583</v>
+        <v>0.298611</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291372</v>
+        <v>0.292316</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273726</v>
+        <v>0.272323</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.290425</v>
+        <v>0.293158</v>
       </c>
       <c r="C86" t="n">
-        <v>0.291449</v>
+        <v>0.295136</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270345</v>
+        <v>0.267751</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286771</v>
+        <v>0.286785</v>
       </c>
       <c r="C87" t="n">
-        <v>0.286371</v>
+        <v>0.289835</v>
       </c>
       <c r="D87" t="n">
-        <v>0.262554</v>
+        <v>0.266794</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.281597</v>
+        <v>0.2791</v>
       </c>
       <c r="C88" t="n">
-        <v>0.287928</v>
+        <v>0.281942</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260518</v>
+        <v>0.263839</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.272112</v>
+        <v>0.271574</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285686</v>
+        <v>0.287509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.264023</v>
+        <v>0.260346</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.266577</v>
+        <v>0.262801</v>
       </c>
       <c r="C90" t="n">
-        <v>0.287064</v>
+        <v>0.284587</v>
       </c>
       <c r="D90" t="n">
-        <v>0.257004</v>
+        <v>0.25933</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.251693</v>
+        <v>0.256435</v>
       </c>
       <c r="C91" t="n">
-        <v>0.279328</v>
+        <v>0.287103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.259768</v>
+        <v>0.258991</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249566</v>
+        <v>0.249488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281372</v>
+        <v>0.282735</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253178</v>
+        <v>0.257475</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238162</v>
+        <v>0.242451</v>
       </c>
       <c r="C93" t="n">
-        <v>0.277402</v>
+        <v>0.281462</v>
       </c>
       <c r="D93" t="n">
-        <v>0.256016</v>
+        <v>0.257359</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229265</v>
+        <v>0.230902</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305516</v>
+        <v>0.309916</v>
       </c>
       <c r="D94" t="n">
-        <v>0.280834</v>
+        <v>0.283197</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.320633</v>
+        <v>0.320074</v>
       </c>
       <c r="C95" t="n">
-        <v>0.301821</v>
+        <v>0.307036</v>
       </c>
       <c r="D95" t="n">
-        <v>0.280775</v>
+        <v>0.278907</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.318418</v>
+        <v>0.316666</v>
       </c>
       <c r="C96" t="n">
-        <v>0.304247</v>
+        <v>0.301247</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273428</v>
+        <v>0.275853</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.312449</v>
+        <v>0.311398</v>
       </c>
       <c r="C97" t="n">
-        <v>0.301724</v>
+        <v>0.301276</v>
       </c>
       <c r="D97" t="n">
-        <v>0.275711</v>
+        <v>0.279433</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.303798</v>
+        <v>0.310205</v>
       </c>
       <c r="C98" t="n">
-        <v>0.296655</v>
+        <v>0.296736</v>
       </c>
       <c r="D98" t="n">
-        <v>0.271557</v>
+        <v>0.272933</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.300514</v>
+        <v>0.301711</v>
       </c>
       <c r="C99" t="n">
-        <v>0.291534</v>
+        <v>0.294076</v>
       </c>
       <c r="D99" t="n">
-        <v>0.268825</v>
+        <v>0.270523</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294267</v>
+        <v>0.290956</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292546</v>
+        <v>0.293688</v>
       </c>
       <c r="D100" t="n">
-        <v>0.266122</v>
+        <v>0.270039</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.283144</v>
+        <v>0.285422</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289568</v>
+        <v>0.290616</v>
       </c>
       <c r="D101" t="n">
-        <v>0.266053</v>
+        <v>0.264921</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279412</v>
+        <v>0.278859</v>
       </c>
       <c r="C102" t="n">
-        <v>0.293907</v>
+        <v>0.290103</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263677</v>
+        <v>0.26475</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272817</v>
+        <v>0.275183</v>
       </c>
       <c r="C103" t="n">
-        <v>0.285941</v>
+        <v>0.285778</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259561</v>
+        <v>0.26441</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.265846</v>
+        <v>0.264497</v>
       </c>
       <c r="C104" t="n">
-        <v>0.280152</v>
+        <v>0.285137</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261364</v>
+        <v>0.261388</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255439</v>
+        <v>0.253412</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280885</v>
+        <v>0.282063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.256352</v>
+        <v>0.261116</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249021</v>
+        <v>0.251237</v>
       </c>
       <c r="C106" t="n">
-        <v>0.286497</v>
+        <v>0.282574</v>
       </c>
       <c r="D106" t="n">
-        <v>0.257944</v>
+        <v>0.254018</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239737</v>
+        <v>0.241272</v>
       </c>
       <c r="C107" t="n">
-        <v>0.278047</v>
+        <v>0.282488</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259563</v>
+        <v>0.254747</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.237815</v>
+        <v>0.235509</v>
       </c>
       <c r="C108" t="n">
-        <v>0.312006</v>
+        <v>0.310567</v>
       </c>
       <c r="D108" t="n">
-        <v>0.290814</v>
+        <v>0.285998</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221467</v>
+        <v>0.22851</v>
       </c>
       <c r="C109" t="n">
-        <v>0.306296</v>
+        <v>0.303658</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281164</v>
+        <v>0.280466</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.320152</v>
+        <v>0.316619</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299124</v>
+        <v>0.306081</v>
       </c>
       <c r="D110" t="n">
-        <v>0.277728</v>
+        <v>0.279922</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315088</v>
+        <v>0.314038</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300564</v>
+        <v>0.299671</v>
       </c>
       <c r="D111" t="n">
-        <v>0.275947</v>
+        <v>0.279315</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.307812</v>
+        <v>0.313305</v>
       </c>
       <c r="C112" t="n">
-        <v>0.300792</v>
+        <v>0.296629</v>
       </c>
       <c r="D112" t="n">
-        <v>0.27319</v>
+        <v>0.276004</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307767</v>
+        <v>0.305519</v>
       </c>
       <c r="C113" t="n">
-        <v>0.296172</v>
+        <v>0.301436</v>
       </c>
       <c r="D113" t="n">
-        <v>0.274615</v>
+        <v>0.270315</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292455</v>
+        <v>0.29139</v>
       </c>
       <c r="C114" t="n">
-        <v>0.289626</v>
+        <v>0.29431</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269601</v>
+        <v>0.26844</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.292989</v>
+        <v>0.291472</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287322</v>
+        <v>0.288767</v>
       </c>
       <c r="D115" t="n">
-        <v>0.265643</v>
+        <v>0.268774</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293782</v>
+        <v>0.278722</v>
       </c>
       <c r="C116" t="n">
-        <v>0.285306</v>
+        <v>0.287963</v>
       </c>
       <c r="D116" t="n">
-        <v>0.264806</v>
+        <v>0.269521</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273026</v>
+        <v>0.273623</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290015</v>
+        <v>0.282592</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264321</v>
+        <v>0.263933</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.265758</v>
+        <v>0.266109</v>
       </c>
       <c r="C118" t="n">
-        <v>0.29032</v>
+        <v>0.285383</v>
       </c>
       <c r="D118" t="n">
-        <v>0.262125</v>
+        <v>0.264232</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.261432</v>
+        <v>0.262585</v>
       </c>
       <c r="C119" t="n">
-        <v>0.285324</v>
+        <v>0.284512</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25769</v>
+        <v>0.260133</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254326</v>
+        <v>0.252666</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28067</v>
+        <v>0.279314</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26575</v>
+        <v>0.264067</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.242898</v>
+        <v>0.244692</v>
       </c>
       <c r="C121" t="n">
-        <v>0.280372</v>
+        <v>0.285737</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260306</v>
+        <v>0.255165</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23299</v>
+        <v>0.23448</v>
       </c>
       <c r="C122" t="n">
-        <v>0.277747</v>
+        <v>0.275583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.257525</v>
+        <v>0.255316</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22671</v>
+        <v>0.228636</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301093</v>
+        <v>0.306742</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282823</v>
+        <v>0.280857</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318596</v>
+        <v>0.318055</v>
       </c>
       <c r="C124" t="n">
-        <v>0.304233</v>
+        <v>0.309137</v>
       </c>
       <c r="D124" t="n">
-        <v>0.285759</v>
+        <v>0.277229</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.314607</v>
+        <v>0.315659</v>
       </c>
       <c r="C125" t="n">
-        <v>0.303269</v>
+        <v>0.30525</v>
       </c>
       <c r="D125" t="n">
-        <v>0.28545</v>
+        <v>0.274018</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305721</v>
+        <v>0.312637</v>
       </c>
       <c r="C126" t="n">
-        <v>0.300336</v>
+        <v>0.298224</v>
       </c>
       <c r="D126" t="n">
-        <v>0.276307</v>
+        <v>0.273879</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.304473</v>
+        <v>0.310294</v>
       </c>
       <c r="C127" t="n">
-        <v>0.294626</v>
+        <v>0.300846</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27285</v>
+        <v>0.271088</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.299453</v>
+        <v>0.297473</v>
       </c>
       <c r="C128" t="n">
-        <v>0.295592</v>
+        <v>0.290673</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273154</v>
+        <v>0.269778</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.29131</v>
+        <v>0.286751</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293999</v>
+        <v>0.288822</v>
       </c>
       <c r="D129" t="n">
-        <v>0.27077</v>
+        <v>0.267305</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282598</v>
+        <v>0.280277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.291409</v>
+        <v>0.290247</v>
       </c>
       <c r="D130" t="n">
-        <v>0.273247</v>
+        <v>0.266848</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.272155</v>
+        <v>0.276151</v>
       </c>
       <c r="C131" t="n">
-        <v>0.285538</v>
+        <v>0.292297</v>
       </c>
       <c r="D131" t="n">
-        <v>0.263699</v>
+        <v>0.265786</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264607</v>
+        <v>0.272567</v>
       </c>
       <c r="C132" t="n">
-        <v>0.291685</v>
+        <v>0.286378</v>
       </c>
       <c r="D132" t="n">
-        <v>0.260805</v>
+        <v>0.260635</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258193</v>
+        <v>0.258771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.284383</v>
+        <v>0.290374</v>
       </c>
       <c r="D133" t="n">
-        <v>0.259043</v>
+        <v>0.258038</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253014</v>
+        <v>0.254499</v>
       </c>
       <c r="C134" t="n">
-        <v>0.281353</v>
+        <v>0.28785</v>
       </c>
       <c r="D134" t="n">
-        <v>0.256755</v>
+        <v>0.257718</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.250161</v>
+        <v>0.2462</v>
       </c>
       <c r="C135" t="n">
-        <v>0.278352</v>
+        <v>0.279911</v>
       </c>
       <c r="D135" t="n">
-        <v>0.257035</v>
+        <v>0.257683</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238916</v>
+        <v>0.239031</v>
       </c>
       <c r="C136" t="n">
-        <v>0.283683</v>
+        <v>0.28074</v>
       </c>
       <c r="D136" t="n">
-        <v>0.257184</v>
+        <v>0.256536</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228271</v>
+        <v>0.226362</v>
       </c>
       <c r="C137" t="n">
-        <v>0.30956</v>
+        <v>0.311404</v>
       </c>
       <c r="D137" t="n">
-        <v>0.284977</v>
+        <v>0.283837</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.328938</v>
+        <v>0.330498</v>
       </c>
       <c r="C138" t="n">
-        <v>0.309815</v>
+        <v>0.304782</v>
       </c>
       <c r="D138" t="n">
-        <v>0.284268</v>
+        <v>0.281732</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.314699</v>
+        <v>0.316169</v>
       </c>
       <c r="C139" t="n">
-        <v>0.306779</v>
+        <v>0.301437</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277647</v>
+        <v>0.284583</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311541</v>
+        <v>0.312427</v>
       </c>
       <c r="C140" t="n">
-        <v>0.301542</v>
+        <v>0.299474</v>
       </c>
       <c r="D140" t="n">
-        <v>0.280398</v>
+        <v>0.274481</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.308891</v>
+        <v>0.305083</v>
       </c>
       <c r="C141" t="n">
-        <v>0.298332</v>
+        <v>0.304008</v>
       </c>
       <c r="D141" t="n">
-        <v>0.274503</v>
+        <v>0.27585</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.30428</v>
+        <v>0.303409</v>
       </c>
       <c r="C142" t="n">
-        <v>0.295868</v>
+        <v>0.296054</v>
       </c>
       <c r="D142" t="n">
-        <v>0.274499</v>
+        <v>0.275742</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.292628</v>
+        <v>0.294185</v>
       </c>
       <c r="C143" t="n">
-        <v>0.296339</v>
+        <v>0.296822</v>
       </c>
       <c r="D143" t="n">
-        <v>0.269945</v>
+        <v>0.273285</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267855</v>
+        <v>0.25965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.273052</v>
+        <v>0.276262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563903</v>
+        <v>0.5551469999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258306</v>
+        <v>0.246604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276058</v>
+        <v>0.265702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558436</v>
+        <v>0.546817</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247158</v>
+        <v>0.252996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273073</v>
+        <v>0.277168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.551207</v>
+        <v>0.562434</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241861</v>
+        <v>0.239518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267112</v>
+        <v>0.274556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.547947</v>
+        <v>0.557341</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235322</v>
+        <v>0.234312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273283</v>
+        <v>0.265616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.559857</v>
+        <v>0.543344</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224739</v>
+        <v>0.228943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2667</v>
+        <v>0.271968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549902</v>
+        <v>0.55609</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214907</v>
+        <v>0.216042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.262005</v>
+        <v>0.266839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546636</v>
+        <v>0.551497</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.207037</v>
+        <v>0.207003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278934</v>
+        <v>0.282119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54838</v>
+        <v>0.559362</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.294526</v>
+        <v>0.300451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27774</v>
+        <v>0.280529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.543527</v>
+        <v>0.553574</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288436</v>
+        <v>0.28927</v>
       </c>
       <c r="C11" t="n">
-        <v>0.273858</v>
+        <v>0.27699</v>
       </c>
       <c r="D11" t="n">
-        <v>0.544452</v>
+        <v>0.554325</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283992</v>
+        <v>0.287933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.276223</v>
+        <v>0.274911</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5466220000000001</v>
+        <v>0.548596</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279152</v>
+        <v>0.278976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.272805</v>
+        <v>0.276049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.539474</v>
+        <v>0.549586</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273239</v>
+        <v>0.275658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2767</v>
+        <v>0.272382</v>
       </c>
       <c r="D14" t="n">
-        <v>0.547644</v>
+        <v>0.548861</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26675</v>
+        <v>0.269146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.276864</v>
+        <v>0.273469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.541787</v>
+        <v>0.546183</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262285</v>
+        <v>0.262915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271179</v>
+        <v>0.271256</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541219</v>
+        <v>0.550612</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25451</v>
+        <v>0.255907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270852</v>
+        <v>0.266173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.546781</v>
+        <v>0.5481239999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.247898</v>
+        <v>0.247537</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27065</v>
+        <v>0.268537</v>
       </c>
       <c r="D18" t="n">
-        <v>0.547878</v>
+        <v>0.542892</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243979</v>
+        <v>0.24185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268089</v>
+        <v>0.268035</v>
       </c>
       <c r="D19" t="n">
-        <v>0.542779</v>
+        <v>0.541683</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236009</v>
+        <v>0.234102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268243</v>
+        <v>0.26358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.542426</v>
+        <v>0.544723</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228788</v>
+        <v>0.231003</v>
       </c>
       <c r="C21" t="n">
-        <v>0.265243</v>
+        <v>0.268047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.562044</v>
+        <v>0.56848</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218566</v>
+        <v>0.220828</v>
       </c>
       <c r="C22" t="n">
-        <v>0.268638</v>
+        <v>0.268176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.557358</v>
+        <v>0.564172</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.215438</v>
+        <v>0.214214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278704</v>
+        <v>0.283242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.549799</v>
+        <v>0.559557</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.292921</v>
+        <v>0.295556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277117</v>
+        <v>0.279161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.557802</v>
+        <v>0.560195</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.291131</v>
+        <v>0.291801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27536</v>
+        <v>0.276947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552629</v>
+        <v>0.551787</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.280516</v>
+        <v>0.291728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275317</v>
+        <v>0.275425</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5485989999999999</v>
+        <v>0.558792</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.278362</v>
+        <v>0.282945</v>
       </c>
       <c r="C27" t="n">
-        <v>0.274434</v>
+        <v>0.274257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.548517</v>
+        <v>0.565677</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.272319</v>
+        <v>0.275898</v>
       </c>
       <c r="C28" t="n">
-        <v>0.270097</v>
+        <v>0.273769</v>
       </c>
       <c r="D28" t="n">
-        <v>0.557731</v>
+        <v>0.5474560000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268362</v>
+        <v>0.270115</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272924</v>
+        <v>0.273016</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5443170000000001</v>
+        <v>0.563411</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.266924</v>
+        <v>0.263461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270374</v>
+        <v>0.268996</v>
       </c>
       <c r="D30" t="n">
-        <v>0.562882</v>
+        <v>0.55293</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257374</v>
+        <v>0.255791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.26896</v>
+        <v>0.272018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.543972</v>
+        <v>0.5469540000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249366</v>
+        <v>0.250209</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268895</v>
+        <v>0.271658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.553043</v>
+        <v>0.555762</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246003</v>
+        <v>0.245939</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266567</v>
+        <v>0.268934</v>
       </c>
       <c r="D33" t="n">
-        <v>0.548829</v>
+        <v>0.555585</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235838</v>
+        <v>0.238864</v>
       </c>
       <c r="C34" t="n">
-        <v>0.266091</v>
+        <v>0.269129</v>
       </c>
       <c r="D34" t="n">
-        <v>0.550526</v>
+        <v>0.555289</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232115</v>
+        <v>0.233167</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269895</v>
+        <v>0.266277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569442</v>
+        <v>0.575079</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224963</v>
+        <v>0.22564</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266765</v>
+        <v>0.267939</v>
       </c>
       <c r="D36" t="n">
-        <v>0.57047</v>
+        <v>0.570024</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217631</v>
+        <v>0.214994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280551</v>
+        <v>0.289773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.571398</v>
+        <v>0.579753</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299686</v>
+        <v>0.300899</v>
       </c>
       <c r="C38" t="n">
-        <v>0.276535</v>
+        <v>0.281185</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568822</v>
+        <v>0.583198</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294196</v>
+        <v>0.297353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286058</v>
+        <v>0.281658</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578055</v>
+        <v>0.571401</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2915</v>
+        <v>0.293954</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280725</v>
+        <v>0.279335</v>
       </c>
       <c r="D40" t="n">
-        <v>0.572839</v>
+        <v>0.579503</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285666</v>
+        <v>0.284703</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276179</v>
+        <v>0.280618</v>
       </c>
       <c r="D41" t="n">
-        <v>0.57145</v>
+        <v>0.580553</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.276352</v>
+        <v>0.284884</v>
       </c>
       <c r="C42" t="n">
-        <v>0.275996</v>
+        <v>0.278531</v>
       </c>
       <c r="D42" t="n">
-        <v>0.575804</v>
+        <v>0.584216</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276251</v>
+        <v>0.27449</v>
       </c>
       <c r="C43" t="n">
-        <v>0.27632</v>
+        <v>0.275621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.576538</v>
+        <v>0.5830689999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270314</v>
+        <v>0.270421</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276192</v>
+        <v>0.275616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573975</v>
+        <v>0.58574</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261799</v>
+        <v>0.260521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275882</v>
+        <v>0.275683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.574057</v>
+        <v>0.581874</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258974</v>
+        <v>0.256684</v>
       </c>
       <c r="C46" t="n">
-        <v>0.272886</v>
+        <v>0.276028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.584572</v>
+        <v>0.592406</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.251923</v>
+        <v>0.25497</v>
       </c>
       <c r="C47" t="n">
-        <v>0.271537</v>
+        <v>0.27425</v>
       </c>
       <c r="D47" t="n">
-        <v>0.586592</v>
+        <v>0.593008</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241492</v>
+        <v>0.242306</v>
       </c>
       <c r="C48" t="n">
-        <v>0.270464</v>
+        <v>0.272171</v>
       </c>
       <c r="D48" t="n">
-        <v>0.586813</v>
+        <v>0.609734</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233663</v>
+        <v>0.234842</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269401</v>
+        <v>0.269497</v>
       </c>
       <c r="D49" t="n">
-        <v>0.603787</v>
+        <v>0.606055</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.229484</v>
+        <v>0.229726</v>
       </c>
       <c r="C50" t="n">
-        <v>0.269037</v>
+        <v>0.269446</v>
       </c>
       <c r="D50" t="n">
-        <v>0.647103</v>
+        <v>0.656614</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221631</v>
+        <v>0.219973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292151</v>
+        <v>0.29086</v>
       </c>
       <c r="D51" t="n">
-        <v>0.649856</v>
+        <v>0.652301</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.214708</v>
+        <v>0.214</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291487</v>
+        <v>0.289583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.661401</v>
+        <v>0.6515339999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301799</v>
+        <v>0.305349</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287465</v>
+        <v>0.289244</v>
       </c>
       <c r="D53" t="n">
-        <v>0.659335</v>
+        <v>0.668774</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.293662</v>
+        <v>0.299853</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285212</v>
+        <v>0.28553</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6553949999999999</v>
+        <v>0.653873</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288817</v>
+        <v>0.295076</v>
       </c>
       <c r="C55" t="n">
-        <v>0.282743</v>
+        <v>0.288212</v>
       </c>
       <c r="D55" t="n">
-        <v>0.662457</v>
+        <v>0.6604910000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29222</v>
+        <v>0.290929</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285388</v>
+        <v>0.284392</v>
       </c>
       <c r="D56" t="n">
-        <v>0.654562</v>
+        <v>0.668191</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2778</v>
+        <v>0.28232</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279399</v>
+        <v>0.279241</v>
       </c>
       <c r="D57" t="n">
-        <v>0.667015</v>
+        <v>0.654934</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.271647</v>
+        <v>0.277315</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278538</v>
+        <v>0.278507</v>
       </c>
       <c r="D58" t="n">
-        <v>0.664958</v>
+        <v>0.662096</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268336</v>
+        <v>0.274253</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277282</v>
+        <v>0.280675</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6664330000000001</v>
+        <v>0.669246</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261484</v>
+        <v>0.267649</v>
       </c>
       <c r="C60" t="n">
-        <v>0.272986</v>
+        <v>0.28006</v>
       </c>
       <c r="D60" t="n">
-        <v>0.668474</v>
+        <v>0.670472</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253448</v>
+        <v>0.262409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.278314</v>
+        <v>0.279939</v>
       </c>
       <c r="D61" t="n">
-        <v>0.667527</v>
+        <v>0.672585</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.248848</v>
+        <v>0.248895</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277425</v>
+        <v>0.274335</v>
       </c>
       <c r="D62" t="n">
-        <v>0.678785</v>
+        <v>0.680567</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.240817</v>
+        <v>0.243419</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273966</v>
+        <v>0.27409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672937</v>
+        <v>0.668057</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234463</v>
+        <v>0.235367</v>
       </c>
       <c r="C64" t="n">
-        <v>0.27342</v>
+        <v>0.272638</v>
       </c>
       <c r="D64" t="n">
-        <v>0.727625</v>
+        <v>0.714209</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226365</v>
+        <v>0.225439</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268851</v>
+        <v>0.271745</v>
       </c>
       <c r="D65" t="n">
-        <v>0.731978</v>
+        <v>0.723081</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220833</v>
+        <v>0.220481</v>
       </c>
       <c r="C66" t="n">
-        <v>0.296335</v>
+        <v>0.305594</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7135359999999999</v>
+        <v>0.707255</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.316622</v>
+        <v>0.317082</v>
       </c>
       <c r="C67" t="n">
-        <v>0.299545</v>
+        <v>0.301718</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7077329999999999</v>
+        <v>0.712127</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305769</v>
+        <v>0.310698</v>
       </c>
       <c r="C68" t="n">
-        <v>0.294247</v>
+        <v>0.298289</v>
       </c>
       <c r="D68" t="n">
-        <v>0.714602</v>
+        <v>0.714871</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302893</v>
+        <v>0.308809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292228</v>
+        <v>0.292621</v>
       </c>
       <c r="D69" t="n">
-        <v>0.719397</v>
+        <v>0.7159450000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297567</v>
+        <v>0.300603</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291719</v>
+        <v>0.291929</v>
       </c>
       <c r="D70" t="n">
-        <v>0.712751</v>
+        <v>0.709287</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289599</v>
+        <v>0.293602</v>
       </c>
       <c r="C71" t="n">
-        <v>0.287206</v>
+        <v>0.293282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.715498</v>
+        <v>0.70096</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279989</v>
+        <v>0.295421</v>
       </c>
       <c r="C72" t="n">
-        <v>0.286362</v>
+        <v>0.288575</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7074240000000001</v>
+        <v>0.7104009999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277018</v>
+        <v>0.279509</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282874</v>
+        <v>0.285364</v>
       </c>
       <c r="D73" t="n">
-        <v>0.71141</v>
+        <v>0.7082540000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270295</v>
+        <v>0.270827</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280434</v>
+        <v>0.286392</v>
       </c>
       <c r="D74" t="n">
-        <v>0.705174</v>
+        <v>0.704981</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.267016</v>
+        <v>0.267563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283463</v>
+        <v>0.280158</v>
       </c>
       <c r="D75" t="n">
-        <v>0.704064</v>
+        <v>0.70721</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25969</v>
+        <v>0.256332</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280632</v>
+        <v>0.281991</v>
       </c>
       <c r="D76" t="n">
-        <v>0.708792</v>
+        <v>0.705623</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25148</v>
+        <v>0.250481</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275625</v>
+        <v>0.28172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.705725</v>
+        <v>0.711927</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.242802</v>
+        <v>0.242047</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276596</v>
+        <v>0.279722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765541</v>
+        <v>0.774159</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233679</v>
+        <v>0.234491</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27732</v>
+        <v>0.277597</v>
       </c>
       <c r="D79" t="n">
-        <v>0.759966</v>
+        <v>0.75851</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224887</v>
+        <v>0.229471</v>
       </c>
       <c r="C80" t="n">
-        <v>0.307534</v>
+        <v>0.306682</v>
       </c>
       <c r="D80" t="n">
-        <v>0.773873</v>
+        <v>0.755809</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318641</v>
+        <v>0.323778</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30116</v>
+        <v>0.301937</v>
       </c>
       <c r="D81" t="n">
-        <v>0.743592</v>
+        <v>0.738971</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316679</v>
+        <v>0.317625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30123</v>
+        <v>0.298785</v>
       </c>
       <c r="D82" t="n">
-        <v>0.751118</v>
+        <v>0.743597</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.308199</v>
+        <v>0.31176</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295407</v>
+        <v>0.299832</v>
       </c>
       <c r="D83" t="n">
-        <v>0.737139</v>
+        <v>0.742452</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30352</v>
+        <v>0.304162</v>
       </c>
       <c r="C84" t="n">
-        <v>0.298141</v>
+        <v>0.29692</v>
       </c>
       <c r="D84" t="n">
-        <v>0.772141</v>
+        <v>0.781892</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297137</v>
+        <v>0.300933</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291606</v>
+        <v>0.289923</v>
       </c>
       <c r="D85" t="n">
-        <v>0.772749</v>
+        <v>0.76342</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291877</v>
+        <v>0.289065</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29325</v>
+        <v>0.291338</v>
       </c>
       <c r="D86" t="n">
-        <v>0.762143</v>
+        <v>0.7673179999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.281279</v>
+        <v>0.282287</v>
       </c>
       <c r="C87" t="n">
-        <v>0.288821</v>
+        <v>0.292625</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768398</v>
+        <v>0.767556</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.271678</v>
+        <v>0.27802</v>
       </c>
       <c r="C88" t="n">
-        <v>0.288801</v>
+        <v>0.289514</v>
       </c>
       <c r="D88" t="n">
-        <v>0.764953</v>
+        <v>0.761077</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.26813</v>
+        <v>0.269913</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282938</v>
+        <v>0.283787</v>
       </c>
       <c r="D89" t="n">
-        <v>0.764335</v>
+        <v>0.749822</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260134</v>
+        <v>0.261745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285953</v>
+        <v>0.285756</v>
       </c>
       <c r="D90" t="n">
-        <v>0.772104</v>
+        <v>0.765108</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252702</v>
+        <v>0.252531</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281624</v>
+        <v>0.283442</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761229</v>
+        <v>0.749468</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245889</v>
+        <v>0.250434</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281403</v>
+        <v>0.27911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.678572</v>
+        <v>0.668068</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.239175</v>
+        <v>0.239548</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281742</v>
+        <v>0.279892</v>
       </c>
       <c r="D93" t="n">
-        <v>0.666168</v>
+        <v>0.666111</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231093</v>
+        <v>0.227958</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307066</v>
+        <v>0.30319</v>
       </c>
       <c r="D94" t="n">
-        <v>0.669678</v>
+        <v>0.673477</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321282</v>
+        <v>0.325274</v>
       </c>
       <c r="C95" t="n">
-        <v>0.303687</v>
+        <v>0.303933</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6618579999999999</v>
+        <v>0.668403</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316026</v>
+        <v>0.319195</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29781</v>
+        <v>0.29949</v>
       </c>
       <c r="D96" t="n">
-        <v>0.665508</v>
+        <v>0.666366</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310103</v>
+        <v>0.312779</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298738</v>
+        <v>0.299087</v>
       </c>
       <c r="D97" t="n">
-        <v>0.669232</v>
+        <v>0.668248</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.303319</v>
+        <v>0.303633</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294588</v>
+        <v>0.298258</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668586</v>
+        <v>0.658425</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.295651</v>
+        <v>0.300663</v>
       </c>
       <c r="C99" t="n">
-        <v>0.292577</v>
+        <v>0.293107</v>
       </c>
       <c r="D99" t="n">
-        <v>0.662876</v>
+        <v>0.675489</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.290234</v>
+        <v>0.291457</v>
       </c>
       <c r="C100" t="n">
-        <v>0.293735</v>
+        <v>0.291316</v>
       </c>
       <c r="D100" t="n">
-        <v>0.674918</v>
+        <v>0.659147</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284814</v>
+        <v>0.285678</v>
       </c>
       <c r="C101" t="n">
-        <v>0.287622</v>
+        <v>0.289063</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669144</v>
+        <v>0.668967</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27605</v>
+        <v>0.275055</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285473</v>
+        <v>0.289042</v>
       </c>
       <c r="D102" t="n">
-        <v>0.665803</v>
+        <v>0.68358</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.268815</v>
+        <v>0.271732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.28793</v>
+        <v>0.287938</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664449</v>
+        <v>0.671668</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.264807</v>
+        <v>0.264685</v>
       </c>
       <c r="C104" t="n">
-        <v>0.283535</v>
+        <v>0.284526</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680941</v>
+        <v>0.663887</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251953</v>
+        <v>0.256105</v>
       </c>
       <c r="C105" t="n">
-        <v>0.284386</v>
+        <v>0.278543</v>
       </c>
       <c r="D105" t="n">
-        <v>0.667476</v>
+        <v>0.666795</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248856</v>
+        <v>0.248416</v>
       </c>
       <c r="C106" t="n">
-        <v>0.28318</v>
+        <v>0.282205</v>
       </c>
       <c r="D106" t="n">
-        <v>0.667198</v>
+        <v>0.683845</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242981</v>
+        <v>0.239844</v>
       </c>
       <c r="C107" t="n">
-        <v>0.279257</v>
+        <v>0.279173</v>
       </c>
       <c r="D107" t="n">
-        <v>0.666387</v>
+        <v>0.658263</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233838</v>
+        <v>0.234505</v>
       </c>
       <c r="C108" t="n">
-        <v>0.30601</v>
+        <v>0.310484</v>
       </c>
       <c r="D108" t="n">
-        <v>0.679926</v>
+        <v>0.6799500000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221331</v>
+        <v>0.225917</v>
       </c>
       <c r="C109" t="n">
-        <v>0.305089</v>
+        <v>0.30577</v>
       </c>
       <c r="D109" t="n">
-        <v>0.658262</v>
+        <v>0.669495</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314353</v>
+        <v>0.322679</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303943</v>
+        <v>0.29958</v>
       </c>
       <c r="D110" t="n">
-        <v>0.680444</v>
+        <v>0.665161</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31935</v>
+        <v>0.313679</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297285</v>
+        <v>0.303798</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6717880000000001</v>
+        <v>0.6530629999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30728</v>
+        <v>0.303499</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299053</v>
+        <v>0.301213</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6522790000000001</v>
+        <v>0.654894</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301856</v>
+        <v>0.303786</v>
       </c>
       <c r="C113" t="n">
-        <v>0.29318</v>
+        <v>0.293806</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654268</v>
+        <v>0.654744</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293348</v>
+        <v>0.300871</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294153</v>
+        <v>0.293321</v>
       </c>
       <c r="D114" t="n">
-        <v>0.655671</v>
+        <v>0.66153</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283201</v>
+        <v>0.283918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.288498</v>
+        <v>0.290168</v>
       </c>
       <c r="D115" t="n">
-        <v>0.664323</v>
+        <v>0.65648</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.284824</v>
+        <v>0.281852</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294499</v>
+        <v>0.287579</v>
       </c>
       <c r="D116" t="n">
-        <v>0.663593</v>
+        <v>0.6690430000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272046</v>
+        <v>0.272783</v>
       </c>
       <c r="C117" t="n">
-        <v>0.287468</v>
+        <v>0.285716</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654612</v>
+        <v>0.667278</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267565</v>
+        <v>0.265294</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282027</v>
+        <v>0.282899</v>
       </c>
       <c r="D118" t="n">
-        <v>0.673278</v>
+        <v>0.674202</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.255539</v>
+        <v>0.260418</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283986</v>
+        <v>0.280533</v>
       </c>
       <c r="D119" t="n">
-        <v>0.713454</v>
+        <v>0.668025</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250094</v>
+        <v>0.248409</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282593</v>
+        <v>0.282981</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6787570000000001</v>
+        <v>0.685972</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244625</v>
+        <v>0.246535</v>
       </c>
       <c r="C121" t="n">
-        <v>0.282367</v>
+        <v>0.279377</v>
       </c>
       <c r="D121" t="n">
-        <v>0.663793</v>
+        <v>0.682422</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.241728</v>
+        <v>0.233657</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2773</v>
+        <v>0.278576</v>
       </c>
       <c r="D122" t="n">
-        <v>0.671472</v>
+        <v>0.6773940000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22557</v>
+        <v>0.225131</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307411</v>
+        <v>0.304634</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663612</v>
+        <v>0.668377</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320393</v>
+        <v>0.320013</v>
       </c>
       <c r="C124" t="n">
-        <v>0.301543</v>
+        <v>0.299869</v>
       </c>
       <c r="D124" t="n">
-        <v>0.663551</v>
+        <v>0.676599</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.316606</v>
+        <v>0.316553</v>
       </c>
       <c r="C125" t="n">
-        <v>0.299544</v>
+        <v>0.29951</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675074</v>
+        <v>0.659942</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30852</v>
+        <v>0.308628</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295521</v>
+        <v>0.299707</v>
       </c>
       <c r="D126" t="n">
-        <v>0.661748</v>
+        <v>0.664985</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.305438</v>
+        <v>0.308898</v>
       </c>
       <c r="C127" t="n">
-        <v>0.291003</v>
+        <v>0.294148</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675758</v>
+        <v>0.663919</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295793</v>
+        <v>0.297212</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2855</v>
+        <v>0.296623</v>
       </c>
       <c r="D128" t="n">
-        <v>0.664735</v>
+        <v>0.670934</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284516</v>
+        <v>0.289844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.28762</v>
+        <v>0.292873</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677647</v>
+        <v>0.666845</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.280637</v>
+        <v>0.280245</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287487</v>
+        <v>0.291179</v>
       </c>
       <c r="D130" t="n">
-        <v>0.655019</v>
+        <v>0.667323</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.27466</v>
+        <v>0.281672</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28511</v>
+        <v>0.285443</v>
       </c>
       <c r="D131" t="n">
-        <v>0.68863</v>
+        <v>0.672854</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.267416</v>
+        <v>0.264761</v>
       </c>
       <c r="C132" t="n">
-        <v>0.28445</v>
+        <v>0.288448</v>
       </c>
       <c r="D132" t="n">
-        <v>0.670167</v>
+        <v>0.67145</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25594</v>
+        <v>0.256699</v>
       </c>
       <c r="C133" t="n">
-        <v>0.279154</v>
+        <v>0.281973</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6865019999999999</v>
+        <v>0.675538</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251244</v>
+        <v>0.255599</v>
       </c>
       <c r="C134" t="n">
-        <v>0.283365</v>
+        <v>0.280037</v>
       </c>
       <c r="D134" t="n">
-        <v>0.672509</v>
+        <v>0.660262</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244679</v>
+        <v>0.245665</v>
       </c>
       <c r="C135" t="n">
-        <v>0.281526</v>
+        <v>0.280905</v>
       </c>
       <c r="D135" t="n">
-        <v>0.659162</v>
+        <v>0.661682</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238465</v>
+        <v>0.236213</v>
       </c>
       <c r="C136" t="n">
-        <v>0.280382</v>
+        <v>0.27863</v>
       </c>
       <c r="D136" t="n">
-        <v>0.670058</v>
+        <v>0.67219</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224598</v>
+        <v>0.227363</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303119</v>
+        <v>0.305822</v>
       </c>
       <c r="D137" t="n">
-        <v>0.680231</v>
+        <v>0.665431</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.324047</v>
+        <v>0.321922</v>
       </c>
       <c r="C138" t="n">
-        <v>0.303078</v>
+        <v>0.305996</v>
       </c>
       <c r="D138" t="n">
-        <v>0.673678</v>
+        <v>0.666579</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319128</v>
+        <v>0.31838</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301472</v>
+        <v>0.297624</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6609969999999999</v>
+        <v>0.663129</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.310404</v>
+        <v>0.312187</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297941</v>
+        <v>0.297583</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6910230000000001</v>
+        <v>0.670133</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306122</v>
+        <v>0.301032</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2935</v>
+        <v>0.29875</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6684059999999999</v>
+        <v>0.674706</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.299361</v>
+        <v>0.307217</v>
       </c>
       <c r="C142" t="n">
-        <v>0.304486</v>
+        <v>0.298825</v>
       </c>
       <c r="D142" t="n">
-        <v>0.68933</v>
+        <v>0.6775060000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.298472</v>
+        <v>0.288968</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297051</v>
+        <v>0.29261</v>
       </c>
       <c r="D143" t="n">
-        <v>0.687558</v>
+        <v>0.672908</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267855</v>
+        <v>0.256975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.273052</v>
+        <v>0.278097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563903</v>
+        <v>0.539932</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258306</v>
+        <v>0.254443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276058</v>
+        <v>0.274483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558436</v>
+        <v>0.542436</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247158</v>
+        <v>0.250906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273073</v>
+        <v>0.279854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.551207</v>
+        <v>0.542814</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241861</v>
+        <v>0.239141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267112</v>
+        <v>0.277049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.547947</v>
+        <v>0.545198</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235322</v>
+        <v>0.233267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273283</v>
+        <v>0.274851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.559857</v>
+        <v>0.549211</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224739</v>
+        <v>0.230894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2667</v>
+        <v>0.271359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549902</v>
+        <v>0.55801</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214907</v>
+        <v>0.217442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.262005</v>
+        <v>0.275535</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546636</v>
+        <v>0.550102</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.207037</v>
+        <v>0.209478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278934</v>
+        <v>0.286993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54838</v>
+        <v>0.550004</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.294526</v>
+        <v>0.290128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27774</v>
+        <v>0.286337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.543527</v>
+        <v>0.554674</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288436</v>
+        <v>0.287215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.273858</v>
+        <v>0.282591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.544452</v>
+        <v>0.548712</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283992</v>
+        <v>0.286234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.276223</v>
+        <v>0.283521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5466220000000001</v>
+        <v>0.543488</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279152</v>
+        <v>0.279478</v>
       </c>
       <c r="C13" t="n">
-        <v>0.272805</v>
+        <v>0.284157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.539474</v>
+        <v>0.558885</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273239</v>
+        <v>0.274361</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2767</v>
+        <v>0.283627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.547644</v>
+        <v>0.544513</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26675</v>
+        <v>0.267121</v>
       </c>
       <c r="C15" t="n">
-        <v>0.276864</v>
+        <v>0.281047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.541787</v>
+        <v>0.554244</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262285</v>
+        <v>0.258326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271179</v>
+        <v>0.277603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541219</v>
+        <v>0.542143</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25451</v>
+        <v>0.256146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270852</v>
+        <v>0.278958</v>
       </c>
       <c r="D17" t="n">
-        <v>0.546781</v>
+        <v>0.545059</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.247898</v>
+        <v>0.250972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27065</v>
+        <v>0.275861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.547878</v>
+        <v>0.55035</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243979</v>
+        <v>0.242395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268089</v>
+        <v>0.275426</v>
       </c>
       <c r="D19" t="n">
-        <v>0.542779</v>
+        <v>0.543889</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236009</v>
+        <v>0.235222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268243</v>
+        <v>0.274911</v>
       </c>
       <c r="D20" t="n">
-        <v>0.542426</v>
+        <v>0.5443519999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228788</v>
+        <v>0.230561</v>
       </c>
       <c r="C21" t="n">
-        <v>0.265243</v>
+        <v>0.275117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.562044</v>
+        <v>0.556354</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218566</v>
+        <v>0.220652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.268638</v>
+        <v>0.272975</v>
       </c>
       <c r="D22" t="n">
-        <v>0.557358</v>
+        <v>0.554659</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.215438</v>
+        <v>0.215119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278704</v>
+        <v>0.290481</v>
       </c>
       <c r="D23" t="n">
-        <v>0.549799</v>
+        <v>0.5603</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.292921</v>
+        <v>0.295296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277117</v>
+        <v>0.290824</v>
       </c>
       <c r="D24" t="n">
-        <v>0.557802</v>
+        <v>0.55707</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.291131</v>
+        <v>0.294526</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27536</v>
+        <v>0.289108</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552629</v>
+        <v>0.56233</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.280516</v>
+        <v>0.284862</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275317</v>
+        <v>0.28124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5485989999999999</v>
+        <v>0.551373</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.278362</v>
+        <v>0.282185</v>
       </c>
       <c r="C27" t="n">
-        <v>0.274434</v>
+        <v>0.282773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.548517</v>
+        <v>0.55784</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.272319</v>
+        <v>0.278016</v>
       </c>
       <c r="C28" t="n">
-        <v>0.270097</v>
+        <v>0.284638</v>
       </c>
       <c r="D28" t="n">
-        <v>0.557731</v>
+        <v>0.551552</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268362</v>
+        <v>0.270874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272924</v>
+        <v>0.283004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5443170000000001</v>
+        <v>0.5507649999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.266924</v>
+        <v>0.265006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270374</v>
+        <v>0.278498</v>
       </c>
       <c r="D30" t="n">
-        <v>0.562882</v>
+        <v>0.546424</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257374</v>
+        <v>0.260431</v>
       </c>
       <c r="C31" t="n">
-        <v>0.26896</v>
+        <v>0.279125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.543972</v>
+        <v>0.556207</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249366</v>
+        <v>0.251205</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268895</v>
+        <v>0.278733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.553043</v>
+        <v>0.5600619999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246003</v>
+        <v>0.242701</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266567</v>
+        <v>0.277295</v>
       </c>
       <c r="D33" t="n">
-        <v>0.548829</v>
+        <v>0.541345</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235838</v>
+        <v>0.239035</v>
       </c>
       <c r="C34" t="n">
-        <v>0.266091</v>
+        <v>0.274721</v>
       </c>
       <c r="D34" t="n">
-        <v>0.550526</v>
+        <v>0.548681</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232115</v>
+        <v>0.231369</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269895</v>
+        <v>0.27128</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569442</v>
+        <v>0.574519</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224963</v>
+        <v>0.224167</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266765</v>
+        <v>0.270771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.57047</v>
+        <v>0.56313</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217631</v>
+        <v>0.215074</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280551</v>
+        <v>0.291293</v>
       </c>
       <c r="D37" t="n">
-        <v>0.571398</v>
+        <v>0.571771</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299686</v>
+        <v>0.296692</v>
       </c>
       <c r="C38" t="n">
-        <v>0.276535</v>
+        <v>0.293268</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568822</v>
+        <v>0.566173</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294196</v>
+        <v>0.29353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286058</v>
+        <v>0.293899</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578055</v>
+        <v>0.567804</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2915</v>
+        <v>0.287155</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280725</v>
+        <v>0.291348</v>
       </c>
       <c r="D40" t="n">
-        <v>0.572839</v>
+        <v>0.5659189999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285666</v>
+        <v>0.282075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276179</v>
+        <v>0.284313</v>
       </c>
       <c r="D41" t="n">
-        <v>0.57145</v>
+        <v>0.568914</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.276352</v>
+        <v>0.281274</v>
       </c>
       <c r="C42" t="n">
-        <v>0.275996</v>
+        <v>0.290417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.575804</v>
+        <v>0.568504</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276251</v>
+        <v>0.276621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.27632</v>
+        <v>0.285144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.576538</v>
+        <v>0.5715249999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270314</v>
+        <v>0.267761</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276192</v>
+        <v>0.281234</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573975</v>
+        <v>0.582846</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261799</v>
+        <v>0.261151</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275882</v>
+        <v>0.283463</v>
       </c>
       <c r="D45" t="n">
-        <v>0.574057</v>
+        <v>0.577134</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258974</v>
+        <v>0.251868</v>
       </c>
       <c r="C46" t="n">
-        <v>0.272886</v>
+        <v>0.27788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.584572</v>
+        <v>0.580929</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.251923</v>
+        <v>0.247753</v>
       </c>
       <c r="C47" t="n">
-        <v>0.271537</v>
+        <v>0.277501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.586592</v>
+        <v>0.595059</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241492</v>
+        <v>0.245411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.270464</v>
+        <v>0.278052</v>
       </c>
       <c r="D48" t="n">
-        <v>0.586813</v>
+        <v>0.588305</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233663</v>
+        <v>0.233506</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269401</v>
+        <v>0.280541</v>
       </c>
       <c r="D49" t="n">
-        <v>0.603787</v>
+        <v>0.597136</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.229484</v>
+        <v>0.227581</v>
       </c>
       <c r="C50" t="n">
-        <v>0.269037</v>
+        <v>0.27707</v>
       </c>
       <c r="D50" t="n">
-        <v>0.647103</v>
+        <v>0.653664</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221631</v>
+        <v>0.219893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292151</v>
+        <v>0.301748</v>
       </c>
       <c r="D51" t="n">
-        <v>0.649856</v>
+        <v>0.657366</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.214708</v>
+        <v>0.212312</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291487</v>
+        <v>0.301525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.661401</v>
+        <v>0.663183</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301799</v>
+        <v>0.302315</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287465</v>
+        <v>0.297267</v>
       </c>
       <c r="D53" t="n">
-        <v>0.659335</v>
+        <v>0.648913</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.293662</v>
+        <v>0.29668</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285212</v>
+        <v>0.297601</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6553949999999999</v>
+        <v>0.659643</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288817</v>
+        <v>0.294619</v>
       </c>
       <c r="C55" t="n">
-        <v>0.282743</v>
+        <v>0.291483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.662457</v>
+        <v>0.649965</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29222</v>
+        <v>0.284058</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285388</v>
+        <v>0.290052</v>
       </c>
       <c r="D56" t="n">
-        <v>0.654562</v>
+        <v>0.652579</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2778</v>
+        <v>0.280604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279399</v>
+        <v>0.290469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.667015</v>
+        <v>0.656012</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.271647</v>
+        <v>0.275381</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278538</v>
+        <v>0.286705</v>
       </c>
       <c r="D58" t="n">
-        <v>0.664958</v>
+        <v>0.664849</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268336</v>
+        <v>0.26834</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277282</v>
+        <v>0.29083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6664330000000001</v>
+        <v>0.659641</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261484</v>
+        <v>0.263165</v>
       </c>
       <c r="C60" t="n">
-        <v>0.272986</v>
+        <v>0.28647</v>
       </c>
       <c r="D60" t="n">
-        <v>0.668474</v>
+        <v>0.663196</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253448</v>
+        <v>0.254465</v>
       </c>
       <c r="C61" t="n">
-        <v>0.278314</v>
+        <v>0.286709</v>
       </c>
       <c r="D61" t="n">
-        <v>0.667527</v>
+        <v>0.670117</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.248848</v>
+        <v>0.248454</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277425</v>
+        <v>0.281651</v>
       </c>
       <c r="D62" t="n">
-        <v>0.678785</v>
+        <v>0.669987</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.240817</v>
+        <v>0.242216</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273966</v>
+        <v>0.287716</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672937</v>
+        <v>0.668745</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234463</v>
+        <v>0.235269</v>
       </c>
       <c r="C64" t="n">
-        <v>0.27342</v>
+        <v>0.281183</v>
       </c>
       <c r="D64" t="n">
-        <v>0.727625</v>
+        <v>0.718824</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226365</v>
+        <v>0.226976</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268851</v>
+        <v>0.283056</v>
       </c>
       <c r="D65" t="n">
-        <v>0.731978</v>
+        <v>0.726003</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220833</v>
+        <v>0.221502</v>
       </c>
       <c r="C66" t="n">
-        <v>0.296335</v>
+        <v>0.30553</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7135359999999999</v>
+        <v>0.726035</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.316622</v>
+        <v>0.313815</v>
       </c>
       <c r="C67" t="n">
-        <v>0.299545</v>
+        <v>0.300493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7077329999999999</v>
+        <v>0.726924</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305769</v>
+        <v>0.307658</v>
       </c>
       <c r="C68" t="n">
-        <v>0.294247</v>
+        <v>0.300294</v>
       </c>
       <c r="D68" t="n">
-        <v>0.714602</v>
+        <v>0.727294</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302893</v>
+        <v>0.304112</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292228</v>
+        <v>0.297276</v>
       </c>
       <c r="D69" t="n">
-        <v>0.719397</v>
+        <v>0.7174469999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297567</v>
+        <v>0.294482</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291719</v>
+        <v>0.296266</v>
       </c>
       <c r="D70" t="n">
-        <v>0.712751</v>
+        <v>0.711861</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289599</v>
+        <v>0.288042</v>
       </c>
       <c r="C71" t="n">
-        <v>0.287206</v>
+        <v>0.293366</v>
       </c>
       <c r="D71" t="n">
-        <v>0.715498</v>
+        <v>0.716417</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279989</v>
+        <v>0.284985</v>
       </c>
       <c r="C72" t="n">
-        <v>0.286362</v>
+        <v>0.297753</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7074240000000001</v>
+        <v>0.719445</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277018</v>
+        <v>0.279063</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282874</v>
+        <v>0.292814</v>
       </c>
       <c r="D73" t="n">
-        <v>0.71141</v>
+        <v>0.707715</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270295</v>
+        <v>0.269548</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280434</v>
+        <v>0.293189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.705174</v>
+        <v>0.707969</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.267016</v>
+        <v>0.267919</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283463</v>
+        <v>0.291596</v>
       </c>
       <c r="D75" t="n">
-        <v>0.704064</v>
+        <v>0.721714</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25969</v>
+        <v>0.255511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280632</v>
+        <v>0.289293</v>
       </c>
       <c r="D76" t="n">
-        <v>0.708792</v>
+        <v>0.709816</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25148</v>
+        <v>0.249153</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275625</v>
+        <v>0.292169</v>
       </c>
       <c r="D77" t="n">
-        <v>0.705725</v>
+        <v>0.72078</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.242802</v>
+        <v>0.245759</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276596</v>
+        <v>0.292385</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765541</v>
+        <v>0.788392</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233679</v>
+        <v>0.231196</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27732</v>
+        <v>0.288185</v>
       </c>
       <c r="D79" t="n">
-        <v>0.759966</v>
+        <v>0.773264</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224887</v>
+        <v>0.224589</v>
       </c>
       <c r="C80" t="n">
-        <v>0.307534</v>
+        <v>0.316035</v>
       </c>
       <c r="D80" t="n">
-        <v>0.773873</v>
+        <v>0.7666500000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318641</v>
+        <v>0.316797</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30116</v>
+        <v>0.312804</v>
       </c>
       <c r="D81" t="n">
-        <v>0.743592</v>
+        <v>0.759378</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316679</v>
+        <v>0.314644</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30123</v>
+        <v>0.308878</v>
       </c>
       <c r="D82" t="n">
-        <v>0.751118</v>
+        <v>0.74336</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.308199</v>
+        <v>0.305385</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295407</v>
+        <v>0.305814</v>
       </c>
       <c r="D83" t="n">
-        <v>0.737139</v>
+        <v>0.740334</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30352</v>
+        <v>0.301976</v>
       </c>
       <c r="C84" t="n">
-        <v>0.298141</v>
+        <v>0.309836</v>
       </c>
       <c r="D84" t="n">
-        <v>0.772141</v>
+        <v>0.7695340000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297137</v>
+        <v>0.293272</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291606</v>
+        <v>0.305334</v>
       </c>
       <c r="D85" t="n">
-        <v>0.772749</v>
+        <v>0.768883</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291877</v>
+        <v>0.292267</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29325</v>
+        <v>0.299533</v>
       </c>
       <c r="D86" t="n">
-        <v>0.762143</v>
+        <v>0.781297</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.281279</v>
+        <v>0.280277</v>
       </c>
       <c r="C87" t="n">
-        <v>0.288821</v>
+        <v>0.302388</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768398</v>
+        <v>0.766496</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.271678</v>
+        <v>0.27242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.288801</v>
+        <v>0.299015</v>
       </c>
       <c r="D88" t="n">
-        <v>0.764953</v>
+        <v>0.768427</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.26813</v>
+        <v>0.269566</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282938</v>
+        <v>0.292026</v>
       </c>
       <c r="D89" t="n">
-        <v>0.764335</v>
+        <v>0.7503339999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260134</v>
+        <v>0.259749</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285953</v>
+        <v>0.29602</v>
       </c>
       <c r="D90" t="n">
-        <v>0.772104</v>
+        <v>0.769155</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252702</v>
+        <v>0.253979</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281624</v>
+        <v>0.292552</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761229</v>
+        <v>0.753172</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245889</v>
+        <v>0.244791</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281403</v>
+        <v>0.292345</v>
       </c>
       <c r="D92" t="n">
-        <v>0.678572</v>
+        <v>0.675481</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.239175</v>
+        <v>0.237952</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281742</v>
+        <v>0.291427</v>
       </c>
       <c r="D93" t="n">
-        <v>0.666168</v>
+        <v>0.680563</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231093</v>
+        <v>0.229909</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307066</v>
+        <v>0.319192</v>
       </c>
       <c r="D94" t="n">
-        <v>0.669678</v>
+        <v>0.667322</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321282</v>
+        <v>0.323812</v>
       </c>
       <c r="C95" t="n">
-        <v>0.303687</v>
+        <v>0.313746</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6618579999999999</v>
+        <v>0.664504</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316026</v>
+        <v>0.317714</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29781</v>
+        <v>0.308789</v>
       </c>
       <c r="D96" t="n">
-        <v>0.665508</v>
+        <v>0.6738229999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310103</v>
+        <v>0.315408</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298738</v>
+        <v>0.304753</v>
       </c>
       <c r="D97" t="n">
-        <v>0.669232</v>
+        <v>0.660446</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.303319</v>
+        <v>0.303303</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294588</v>
+        <v>0.304962</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668586</v>
+        <v>0.669678</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.295651</v>
+        <v>0.294203</v>
       </c>
       <c r="C99" t="n">
-        <v>0.292577</v>
+        <v>0.308351</v>
       </c>
       <c r="D99" t="n">
-        <v>0.662876</v>
+        <v>0.659551</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.290234</v>
+        <v>0.289076</v>
       </c>
       <c r="C100" t="n">
-        <v>0.293735</v>
+        <v>0.299866</v>
       </c>
       <c r="D100" t="n">
-        <v>0.674918</v>
+        <v>0.6734560000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284814</v>
+        <v>0.29039</v>
       </c>
       <c r="C101" t="n">
-        <v>0.287622</v>
+        <v>0.302464</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669144</v>
+        <v>0.678588</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27605</v>
+        <v>0.2778</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285473</v>
+        <v>0.296297</v>
       </c>
       <c r="D102" t="n">
-        <v>0.665803</v>
+        <v>0.681195</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.268815</v>
+        <v>0.271599</v>
       </c>
       <c r="C103" t="n">
-        <v>0.28793</v>
+        <v>0.300305</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664449</v>
+        <v>0.6798110000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.264807</v>
+        <v>0.265479</v>
       </c>
       <c r="C104" t="n">
-        <v>0.283535</v>
+        <v>0.289858</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680941</v>
+        <v>0.660286</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251953</v>
+        <v>0.257995</v>
       </c>
       <c r="C105" t="n">
-        <v>0.284386</v>
+        <v>0.296124</v>
       </c>
       <c r="D105" t="n">
-        <v>0.667476</v>
+        <v>0.663779</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248856</v>
+        <v>0.250796</v>
       </c>
       <c r="C106" t="n">
-        <v>0.28318</v>
+        <v>0.288781</v>
       </c>
       <c r="D106" t="n">
-        <v>0.667198</v>
+        <v>0.6813709999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242981</v>
+        <v>0.239856</v>
       </c>
       <c r="C107" t="n">
-        <v>0.279257</v>
+        <v>0.289965</v>
       </c>
       <c r="D107" t="n">
-        <v>0.666387</v>
+        <v>0.668537</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233838</v>
+        <v>0.233433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.30601</v>
+        <v>0.316388</v>
       </c>
       <c r="D108" t="n">
-        <v>0.679926</v>
+        <v>0.669336</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221331</v>
+        <v>0.223426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.305089</v>
+        <v>0.318383</v>
       </c>
       <c r="D109" t="n">
-        <v>0.658262</v>
+        <v>0.655489</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314353</v>
+        <v>0.325654</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303943</v>
+        <v>0.317623</v>
       </c>
       <c r="D110" t="n">
-        <v>0.680444</v>
+        <v>0.65283</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31935</v>
+        <v>0.316327</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297285</v>
+        <v>0.308833</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6717880000000001</v>
+        <v>0.668377</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30728</v>
+        <v>0.302185</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299053</v>
+        <v>0.309394</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6522790000000001</v>
+        <v>0.655031</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301856</v>
+        <v>0.29544</v>
       </c>
       <c r="C113" t="n">
-        <v>0.29318</v>
+        <v>0.303443</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654268</v>
+        <v>0.678793</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293348</v>
+        <v>0.291929</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294153</v>
+        <v>0.306759</v>
       </c>
       <c r="D114" t="n">
-        <v>0.655671</v>
+        <v>0.6513679999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283201</v>
+        <v>0.284198</v>
       </c>
       <c r="C115" t="n">
-        <v>0.288498</v>
+        <v>0.300114</v>
       </c>
       <c r="D115" t="n">
-        <v>0.664323</v>
+        <v>0.668181</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.284824</v>
+        <v>0.277855</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294499</v>
+        <v>0.29877</v>
       </c>
       <c r="D116" t="n">
-        <v>0.663593</v>
+        <v>0.662227</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272046</v>
+        <v>0.274309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.287468</v>
+        <v>0.294274</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654612</v>
+        <v>0.67108</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267565</v>
+        <v>0.269427</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282027</v>
+        <v>0.299025</v>
       </c>
       <c r="D118" t="n">
-        <v>0.673278</v>
+        <v>0.6748459999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.255539</v>
+        <v>0.258124</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283986</v>
+        <v>0.296674</v>
       </c>
       <c r="D119" t="n">
-        <v>0.713454</v>
+        <v>0.661683</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250094</v>
+        <v>0.248966</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282593</v>
+        <v>0.287329</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6787570000000001</v>
+        <v>0.670916</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244625</v>
+        <v>0.24437</v>
       </c>
       <c r="C121" t="n">
-        <v>0.282367</v>
+        <v>0.289083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.663793</v>
+        <v>0.669307</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.241728</v>
+        <v>0.234216</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2773</v>
+        <v>0.289235</v>
       </c>
       <c r="D122" t="n">
-        <v>0.671472</v>
+        <v>0.676409</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22557</v>
+        <v>0.223483</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307411</v>
+        <v>0.31577</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663612</v>
+        <v>0.668956</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320393</v>
+        <v>0.320662</v>
       </c>
       <c r="C124" t="n">
-        <v>0.301543</v>
+        <v>0.318054</v>
       </c>
       <c r="D124" t="n">
-        <v>0.663551</v>
+        <v>0.6788689999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.316606</v>
+        <v>0.312678</v>
       </c>
       <c r="C125" t="n">
-        <v>0.299544</v>
+        <v>0.313371</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675074</v>
+        <v>0.6603059999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30852</v>
+        <v>0.304045</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295521</v>
+        <v>0.313481</v>
       </c>
       <c r="D126" t="n">
-        <v>0.661748</v>
+        <v>0.663825</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.305438</v>
+        <v>0.30071</v>
       </c>
       <c r="C127" t="n">
-        <v>0.291003</v>
+        <v>0.300816</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675758</v>
+        <v>0.675769</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295793</v>
+        <v>0.299405</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2855</v>
+        <v>0.299029</v>
       </c>
       <c r="D128" t="n">
-        <v>0.664735</v>
+        <v>0.67589</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284516</v>
+        <v>0.284334</v>
       </c>
       <c r="C129" t="n">
-        <v>0.28762</v>
+        <v>0.294608</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677647</v>
+        <v>0.688972</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.280637</v>
+        <v>0.279276</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287487</v>
+        <v>0.301133</v>
       </c>
       <c r="D130" t="n">
-        <v>0.655019</v>
+        <v>0.66376</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.27466</v>
+        <v>0.271449</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28511</v>
+        <v>0.300701</v>
       </c>
       <c r="D131" t="n">
-        <v>0.68863</v>
+        <v>0.690036</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.267416</v>
+        <v>0.273002</v>
       </c>
       <c r="C132" t="n">
-        <v>0.28445</v>
+        <v>0.294293</v>
       </c>
       <c r="D132" t="n">
-        <v>0.670167</v>
+        <v>0.6892470000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25594</v>
+        <v>0.258171</v>
       </c>
       <c r="C133" t="n">
-        <v>0.279154</v>
+        <v>0.290119</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6865019999999999</v>
+        <v>0.679454</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251244</v>
+        <v>0.255378</v>
       </c>
       <c r="C134" t="n">
-        <v>0.283365</v>
+        <v>0.292379</v>
       </c>
       <c r="D134" t="n">
-        <v>0.672509</v>
+        <v>0.671525</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244679</v>
+        <v>0.242415</v>
       </c>
       <c r="C135" t="n">
-        <v>0.281526</v>
+        <v>0.293597</v>
       </c>
       <c r="D135" t="n">
-        <v>0.659162</v>
+        <v>0.673363</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238465</v>
+        <v>0.236011</v>
       </c>
       <c r="C136" t="n">
-        <v>0.280382</v>
+        <v>0.2909</v>
       </c>
       <c r="D136" t="n">
-        <v>0.670058</v>
+        <v>0.67964</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224598</v>
+        <v>0.226385</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303119</v>
+        <v>0.313491</v>
       </c>
       <c r="D137" t="n">
-        <v>0.680231</v>
+        <v>0.657338</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.324047</v>
+        <v>0.320575</v>
       </c>
       <c r="C138" t="n">
-        <v>0.303078</v>
+        <v>0.317968</v>
       </c>
       <c r="D138" t="n">
-        <v>0.673678</v>
+        <v>0.671728</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319128</v>
+        <v>0.31402</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301472</v>
+        <v>0.313316</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6609969999999999</v>
+        <v>0.67011</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.310404</v>
+        <v>0.309557</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297941</v>
+        <v>0.306173</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6910230000000001</v>
+        <v>0.681101</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306122</v>
+        <v>0.305268</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2935</v>
+        <v>0.307799</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6684059999999999</v>
+        <v>0.664281</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.299361</v>
+        <v>0.290662</v>
       </c>
       <c r="C142" t="n">
-        <v>0.304486</v>
+        <v>0.300788</v>
       </c>
       <c r="D142" t="n">
-        <v>0.68933</v>
+        <v>0.678987</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.298472</v>
+        <v>0.287108</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297051</v>
+        <v>0.300919</v>
       </c>
       <c r="D143" t="n">
-        <v>0.687558</v>
+        <v>0.677408</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267855</v>
+        <v>0.263937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.273052</v>
+        <v>0.271662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563903</v>
+        <v>0.537738</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258306</v>
+        <v>0.248389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276058</v>
+        <v>0.259455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558436</v>
+        <v>0.537209</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247158</v>
+        <v>0.24218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273073</v>
+        <v>0.266347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.551207</v>
+        <v>0.53323</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241861</v>
+        <v>0.241784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267112</v>
+        <v>0.268162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.547947</v>
+        <v>0.536703</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235322</v>
+        <v>0.235974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273283</v>
+        <v>0.259487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.559857</v>
+        <v>0.5355569999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224739</v>
+        <v>0.221249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2667</v>
+        <v>0.26084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549902</v>
+        <v>0.547295</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.214907</v>
+        <v>0.217462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.262005</v>
+        <v>0.267357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546636</v>
+        <v>0.545045</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.207037</v>
+        <v>0.209312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278934</v>
+        <v>0.269376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54838</v>
+        <v>0.538362</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.294526</v>
+        <v>0.294515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27774</v>
+        <v>0.273918</v>
       </c>
       <c r="D10" t="n">
-        <v>0.543527</v>
+        <v>0.543367</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288436</v>
+        <v>0.288277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.273858</v>
+        <v>0.272707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.544452</v>
+        <v>0.5387420000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283992</v>
+        <v>0.282687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.276223</v>
+        <v>0.269063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5466220000000001</v>
+        <v>0.543372</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279152</v>
+        <v>0.282351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.272805</v>
+        <v>0.269619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.539474</v>
+        <v>0.545844</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273239</v>
+        <v>0.274723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2767</v>
+        <v>0.274713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.547644</v>
+        <v>0.537371</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26675</v>
+        <v>0.267142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.276864</v>
+        <v>0.267153</v>
       </c>
       <c r="D15" t="n">
-        <v>0.541787</v>
+        <v>0.545643</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262285</v>
+        <v>0.263118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271179</v>
+        <v>0.265666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541219</v>
+        <v>0.543757</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25451</v>
+        <v>0.256781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270852</v>
+        <v>0.2684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.546781</v>
+        <v>0.548836</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.247898</v>
+        <v>0.249768</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27065</v>
+        <v>0.266844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.547878</v>
+        <v>0.53801</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243979</v>
+        <v>0.247321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268089</v>
+        <v>0.267993</v>
       </c>
       <c r="D19" t="n">
-        <v>0.542779</v>
+        <v>0.547468</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236009</v>
+        <v>0.24065</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268243</v>
+        <v>0.268089</v>
       </c>
       <c r="D20" t="n">
-        <v>0.542426</v>
+        <v>0.556853</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228788</v>
+        <v>0.231282</v>
       </c>
       <c r="C21" t="n">
-        <v>0.265243</v>
+        <v>0.262398</v>
       </c>
       <c r="D21" t="n">
-        <v>0.562044</v>
+        <v>0.555097</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218566</v>
+        <v>0.222861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.268638</v>
+        <v>0.264471</v>
       </c>
       <c r="D22" t="n">
-        <v>0.557358</v>
+        <v>0.553996</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.215438</v>
+        <v>0.21656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278704</v>
+        <v>0.279649</v>
       </c>
       <c r="D23" t="n">
-        <v>0.549799</v>
+        <v>0.560285</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.292921</v>
+        <v>0.297087</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277117</v>
+        <v>0.279424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.557802</v>
+        <v>0.550609</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.291131</v>
+        <v>0.292975</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27536</v>
+        <v>0.27912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552629</v>
+        <v>0.5615830000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.280516</v>
+        <v>0.288369</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275317</v>
+        <v>0.2745</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5485989999999999</v>
+        <v>0.5543360000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.278362</v>
+        <v>0.282886</v>
       </c>
       <c r="C27" t="n">
-        <v>0.274434</v>
+        <v>0.273853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.548517</v>
+        <v>0.5556990000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.272319</v>
+        <v>0.278418</v>
       </c>
       <c r="C28" t="n">
-        <v>0.270097</v>
+        <v>0.273655</v>
       </c>
       <c r="D28" t="n">
-        <v>0.557731</v>
+        <v>0.554462</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268362</v>
+        <v>0.272672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272924</v>
+        <v>0.276287</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5443170000000001</v>
+        <v>0.5497880000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.266924</v>
+        <v>0.268078</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270374</v>
+        <v>0.270835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.562882</v>
+        <v>0.555447</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.257374</v>
+        <v>0.260343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.26896</v>
+        <v>0.271577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.543972</v>
+        <v>0.5473209999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249366</v>
+        <v>0.251383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268895</v>
+        <v>0.268725</v>
       </c>
       <c r="D32" t="n">
-        <v>0.553043</v>
+        <v>0.544802</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246003</v>
+        <v>0.249596</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266567</v>
+        <v>0.265681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.548829</v>
+        <v>0.552584</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235838</v>
+        <v>0.236137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.266091</v>
+        <v>0.265309</v>
       </c>
       <c r="D34" t="n">
-        <v>0.550526</v>
+        <v>0.543168</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232115</v>
+        <v>0.231463</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269895</v>
+        <v>0.266202</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569442</v>
+        <v>0.5689070000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224963</v>
+        <v>0.224425</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266765</v>
+        <v>0.263649</v>
       </c>
       <c r="D36" t="n">
-        <v>0.57047</v>
+        <v>0.568721</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217631</v>
+        <v>0.217657</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280551</v>
+        <v>0.287858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.571398</v>
+        <v>0.567351</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299686</v>
+        <v>0.300871</v>
       </c>
       <c r="C38" t="n">
-        <v>0.276535</v>
+        <v>0.282793</v>
       </c>
       <c r="D38" t="n">
-        <v>0.568822</v>
+        <v>0.5656910000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294196</v>
+        <v>0.294422</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286058</v>
+        <v>0.282403</v>
       </c>
       <c r="D39" t="n">
-        <v>0.578055</v>
+        <v>0.55966</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2915</v>
+        <v>0.289223</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280725</v>
+        <v>0.275542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.572839</v>
+        <v>0.574314</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285666</v>
+        <v>0.288676</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276179</v>
+        <v>0.275162</v>
       </c>
       <c r="D41" t="n">
-        <v>0.57145</v>
+        <v>0.569737</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.276352</v>
+        <v>0.280622</v>
       </c>
       <c r="C42" t="n">
-        <v>0.275996</v>
+        <v>0.279521</v>
       </c>
       <c r="D42" t="n">
-        <v>0.575804</v>
+        <v>0.572936</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.276251</v>
+        <v>0.274608</v>
       </c>
       <c r="C43" t="n">
-        <v>0.27632</v>
+        <v>0.272355</v>
       </c>
       <c r="D43" t="n">
-        <v>0.576538</v>
+        <v>0.571587</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270314</v>
+        <v>0.26921</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276192</v>
+        <v>0.276119</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573975</v>
+        <v>0.575206</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261799</v>
+        <v>0.263208</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275882</v>
+        <v>0.272172</v>
       </c>
       <c r="D45" t="n">
-        <v>0.574057</v>
+        <v>0.575863</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258974</v>
+        <v>0.251719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.272886</v>
+        <v>0.268623</v>
       </c>
       <c r="D46" t="n">
-        <v>0.584572</v>
+        <v>0.583127</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.251923</v>
+        <v>0.248078</v>
       </c>
       <c r="C47" t="n">
-        <v>0.271537</v>
+        <v>0.267149</v>
       </c>
       <c r="D47" t="n">
-        <v>0.586592</v>
+        <v>0.577165</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.241492</v>
+        <v>0.240517</v>
       </c>
       <c r="C48" t="n">
-        <v>0.270464</v>
+        <v>0.268295</v>
       </c>
       <c r="D48" t="n">
-        <v>0.586813</v>
+        <v>0.5894509999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233663</v>
+        <v>0.236094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269401</v>
+        <v>0.26687</v>
       </c>
       <c r="D49" t="n">
-        <v>0.603787</v>
+        <v>0.5887520000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.229484</v>
+        <v>0.229076</v>
       </c>
       <c r="C50" t="n">
-        <v>0.269037</v>
+        <v>0.266134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.647103</v>
+        <v>0.645369</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221631</v>
+        <v>0.222777</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292151</v>
+        <v>0.289731</v>
       </c>
       <c r="D51" t="n">
-        <v>0.649856</v>
+        <v>0.663915</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.214708</v>
+        <v>0.211651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291487</v>
+        <v>0.287985</v>
       </c>
       <c r="D52" t="n">
-        <v>0.661401</v>
+        <v>0.6639350000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301799</v>
+        <v>0.304016</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287465</v>
+        <v>0.286171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.659335</v>
+        <v>0.668454</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.293662</v>
+        <v>0.297541</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285212</v>
+        <v>0.285056</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6553949999999999</v>
+        <v>0.65361</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288817</v>
+        <v>0.294687</v>
       </c>
       <c r="C55" t="n">
-        <v>0.282743</v>
+        <v>0.280963</v>
       </c>
       <c r="D55" t="n">
-        <v>0.662457</v>
+        <v>0.649687</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29222</v>
+        <v>0.284135</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285388</v>
+        <v>0.281687</v>
       </c>
       <c r="D56" t="n">
-        <v>0.654562</v>
+        <v>0.65303</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2778</v>
+        <v>0.279618</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279399</v>
+        <v>0.276668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.667015</v>
+        <v>0.661574</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.271647</v>
+        <v>0.277531</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278538</v>
+        <v>0.276407</v>
       </c>
       <c r="D58" t="n">
-        <v>0.664958</v>
+        <v>0.662554</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268336</v>
+        <v>0.268178</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277282</v>
+        <v>0.274225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6664330000000001</v>
+        <v>0.662323</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261484</v>
+        <v>0.262355</v>
       </c>
       <c r="C60" t="n">
-        <v>0.272986</v>
+        <v>0.273893</v>
       </c>
       <c r="D60" t="n">
-        <v>0.668474</v>
+        <v>0.661637</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253448</v>
+        <v>0.255092</v>
       </c>
       <c r="C61" t="n">
-        <v>0.278314</v>
+        <v>0.271347</v>
       </c>
       <c r="D61" t="n">
-        <v>0.667527</v>
+        <v>0.662926</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.248848</v>
+        <v>0.248423</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277425</v>
+        <v>0.271222</v>
       </c>
       <c r="D62" t="n">
-        <v>0.678785</v>
+        <v>0.656267</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.240817</v>
+        <v>0.24324</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273966</v>
+        <v>0.272844</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672937</v>
+        <v>0.667811</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234463</v>
+        <v>0.235559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.27342</v>
+        <v>0.267811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.727625</v>
+        <v>0.726752</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226365</v>
+        <v>0.227988</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268851</v>
+        <v>0.265707</v>
       </c>
       <c r="D65" t="n">
-        <v>0.731978</v>
+        <v>0.723101</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220833</v>
+        <v>0.223431</v>
       </c>
       <c r="C66" t="n">
-        <v>0.296335</v>
+        <v>0.298585</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7135359999999999</v>
+        <v>0.722086</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.316622</v>
+        <v>0.314351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.299545</v>
+        <v>0.300917</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7077329999999999</v>
+        <v>0.712266</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305769</v>
+        <v>0.309923</v>
       </c>
       <c r="C68" t="n">
-        <v>0.294247</v>
+        <v>0.293835</v>
       </c>
       <c r="D68" t="n">
-        <v>0.714602</v>
+        <v>0.714183</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302893</v>
+        <v>0.302254</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292228</v>
+        <v>0.299004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.719397</v>
+        <v>0.714521</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297567</v>
+        <v>0.300499</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291719</v>
+        <v>0.290641</v>
       </c>
       <c r="D70" t="n">
-        <v>0.712751</v>
+        <v>0.712793</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289599</v>
+        <v>0.291125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.287206</v>
+        <v>0.28644</v>
       </c>
       <c r="D71" t="n">
-        <v>0.715498</v>
+        <v>0.699798</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279989</v>
+        <v>0.284223</v>
       </c>
       <c r="C72" t="n">
-        <v>0.286362</v>
+        <v>0.28526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7074240000000001</v>
+        <v>0.7075900000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277018</v>
+        <v>0.279375</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282874</v>
+        <v>0.282827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.71141</v>
+        <v>0.703727</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270295</v>
+        <v>0.271287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280434</v>
+        <v>0.279823</v>
       </c>
       <c r="D74" t="n">
-        <v>0.705174</v>
+        <v>0.698922</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.267016</v>
+        <v>0.266184</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283463</v>
+        <v>0.280577</v>
       </c>
       <c r="D75" t="n">
-        <v>0.704064</v>
+        <v>0.700946</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25969</v>
+        <v>0.259335</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280632</v>
+        <v>0.277776</v>
       </c>
       <c r="D76" t="n">
-        <v>0.708792</v>
+        <v>0.705724</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25148</v>
+        <v>0.253732</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275625</v>
+        <v>0.277145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.705725</v>
+        <v>0.701976</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.242802</v>
+        <v>0.244238</v>
       </c>
       <c r="C78" t="n">
-        <v>0.276596</v>
+        <v>0.274073</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765541</v>
+        <v>0.762281</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233679</v>
+        <v>0.234971</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27732</v>
+        <v>0.277725</v>
       </c>
       <c r="D79" t="n">
-        <v>0.759966</v>
+        <v>0.7565269999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224887</v>
+        <v>0.231022</v>
       </c>
       <c r="C80" t="n">
-        <v>0.307534</v>
+        <v>0.300966</v>
       </c>
       <c r="D80" t="n">
-        <v>0.773873</v>
+        <v>0.757811</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318641</v>
+        <v>0.322564</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30116</v>
+        <v>0.303554</v>
       </c>
       <c r="D81" t="n">
-        <v>0.743592</v>
+        <v>0.753212</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316679</v>
+        <v>0.314045</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30123</v>
+        <v>0.298089</v>
       </c>
       <c r="D82" t="n">
-        <v>0.751118</v>
+        <v>0.745354</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.308199</v>
+        <v>0.307988</v>
       </c>
       <c r="C83" t="n">
-        <v>0.295407</v>
+        <v>0.297733</v>
       </c>
       <c r="D83" t="n">
-        <v>0.737139</v>
+        <v>0.732345</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30352</v>
+        <v>0.301721</v>
       </c>
       <c r="C84" t="n">
-        <v>0.298141</v>
+        <v>0.292002</v>
       </c>
       <c r="D84" t="n">
-        <v>0.772141</v>
+        <v>0.7598009999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297137</v>
+        <v>0.297459</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291606</v>
+        <v>0.289519</v>
       </c>
       <c r="D85" t="n">
-        <v>0.772749</v>
+        <v>0.761058</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291877</v>
+        <v>0.288109</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29325</v>
+        <v>0.289583</v>
       </c>
       <c r="D86" t="n">
-        <v>0.762143</v>
+        <v>0.75375</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.281279</v>
+        <v>0.280106</v>
       </c>
       <c r="C87" t="n">
-        <v>0.288821</v>
+        <v>0.284805</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768398</v>
+        <v>0.754915</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.271678</v>
+        <v>0.275971</v>
       </c>
       <c r="C88" t="n">
-        <v>0.288801</v>
+        <v>0.288078</v>
       </c>
       <c r="D88" t="n">
-        <v>0.764953</v>
+        <v>0.761499</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.26813</v>
+        <v>0.265921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282938</v>
+        <v>0.282584</v>
       </c>
       <c r="D89" t="n">
-        <v>0.764335</v>
+        <v>0.751652</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260134</v>
+        <v>0.263543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285953</v>
+        <v>0.283568</v>
       </c>
       <c r="D90" t="n">
-        <v>0.772104</v>
+        <v>0.756947</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252702</v>
+        <v>0.252797</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281624</v>
+        <v>0.278651</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761229</v>
+        <v>0.769346</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245889</v>
+        <v>0.246987</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281403</v>
+        <v>0.274703</v>
       </c>
       <c r="D92" t="n">
-        <v>0.678572</v>
+        <v>0.656793</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.239175</v>
+        <v>0.237867</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281742</v>
+        <v>0.277166</v>
       </c>
       <c r="D93" t="n">
-        <v>0.666168</v>
+        <v>0.666493</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231093</v>
+        <v>0.229598</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307066</v>
+        <v>0.305568</v>
       </c>
       <c r="D94" t="n">
-        <v>0.669678</v>
+        <v>0.66831</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321282</v>
+        <v>0.323009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.303687</v>
+        <v>0.305057</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6618579999999999</v>
+        <v>0.650273</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316026</v>
+        <v>0.314071</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29781</v>
+        <v>0.304158</v>
       </c>
       <c r="D96" t="n">
-        <v>0.665508</v>
+        <v>0.674758</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310103</v>
+        <v>0.310442</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298738</v>
+        <v>0.299525</v>
       </c>
       <c r="D97" t="n">
-        <v>0.669232</v>
+        <v>0.673651</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.303319</v>
+        <v>0.304322</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294588</v>
+        <v>0.292289</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668586</v>
+        <v>0.659288</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.295651</v>
+        <v>0.29743</v>
       </c>
       <c r="C99" t="n">
-        <v>0.292577</v>
+        <v>0.289505</v>
       </c>
       <c r="D99" t="n">
-        <v>0.662876</v>
+        <v>0.662309</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.290234</v>
+        <v>0.289882</v>
       </c>
       <c r="C100" t="n">
-        <v>0.293735</v>
+        <v>0.287713</v>
       </c>
       <c r="D100" t="n">
-        <v>0.674918</v>
+        <v>0.669912</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284814</v>
+        <v>0.282765</v>
       </c>
       <c r="C101" t="n">
-        <v>0.287622</v>
+        <v>0.290302</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669144</v>
+        <v>0.661632</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27605</v>
+        <v>0.280362</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285473</v>
+        <v>0.283749</v>
       </c>
       <c r="D102" t="n">
-        <v>0.665803</v>
+        <v>0.658683</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.268815</v>
+        <v>0.272825</v>
       </c>
       <c r="C103" t="n">
-        <v>0.28793</v>
+        <v>0.286484</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664449</v>
+        <v>0.672494</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.264807</v>
+        <v>0.26513</v>
       </c>
       <c r="C104" t="n">
-        <v>0.283535</v>
+        <v>0.286968</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680941</v>
+        <v>0.652007</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251953</v>
+        <v>0.25755</v>
       </c>
       <c r="C105" t="n">
-        <v>0.284386</v>
+        <v>0.278863</v>
       </c>
       <c r="D105" t="n">
-        <v>0.667476</v>
+        <v>0.673225</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248856</v>
+        <v>0.248838</v>
       </c>
       <c r="C106" t="n">
-        <v>0.28318</v>
+        <v>0.272919</v>
       </c>
       <c r="D106" t="n">
-        <v>0.667198</v>
+        <v>0.642891</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242981</v>
+        <v>0.238241</v>
       </c>
       <c r="C107" t="n">
-        <v>0.279257</v>
+        <v>0.276972</v>
       </c>
       <c r="D107" t="n">
-        <v>0.666387</v>
+        <v>0.653888</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233838</v>
+        <v>0.23467</v>
       </c>
       <c r="C108" t="n">
-        <v>0.30601</v>
+        <v>0.308809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.679926</v>
+        <v>0.6597190000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221331</v>
+        <v>0.223835</v>
       </c>
       <c r="C109" t="n">
-        <v>0.305089</v>
+        <v>0.303232</v>
       </c>
       <c r="D109" t="n">
-        <v>0.658262</v>
+        <v>0.666312</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314353</v>
+        <v>0.320044</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303943</v>
+        <v>0.305615</v>
       </c>
       <c r="D110" t="n">
-        <v>0.680444</v>
+        <v>0.643779</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31935</v>
+        <v>0.314826</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297285</v>
+        <v>0.30293</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6717880000000001</v>
+        <v>0.65476</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30728</v>
+        <v>0.309691</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299053</v>
+        <v>0.29246</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6522790000000001</v>
+        <v>0.648746</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301856</v>
+        <v>0.301801</v>
       </c>
       <c r="C113" t="n">
-        <v>0.29318</v>
+        <v>0.289586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654268</v>
+        <v>0.649888</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293348</v>
+        <v>0.294321</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294153</v>
+        <v>0.29386</v>
       </c>
       <c r="D114" t="n">
-        <v>0.655671</v>
+        <v>0.660253</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283201</v>
+        <v>0.291209</v>
       </c>
       <c r="C115" t="n">
-        <v>0.288498</v>
+        <v>0.29079</v>
       </c>
       <c r="D115" t="n">
-        <v>0.664323</v>
+        <v>0.645717</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.284824</v>
+        <v>0.274771</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294499</v>
+        <v>0.286077</v>
       </c>
       <c r="D116" t="n">
-        <v>0.663593</v>
+        <v>0.665017</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272046</v>
+        <v>0.278745</v>
       </c>
       <c r="C117" t="n">
-        <v>0.287468</v>
+        <v>0.283833</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654612</v>
+        <v>0.657631</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267565</v>
+        <v>0.266135</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282027</v>
+        <v>0.282055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.673278</v>
+        <v>0.670669</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.255539</v>
+        <v>0.25866</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283986</v>
+        <v>0.278911</v>
       </c>
       <c r="D119" t="n">
-        <v>0.713454</v>
+        <v>0.665781</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250094</v>
+        <v>0.250744</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282593</v>
+        <v>0.277479</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6787570000000001</v>
+        <v>0.657703</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244625</v>
+        <v>0.243213</v>
       </c>
       <c r="C121" t="n">
-        <v>0.282367</v>
+        <v>0.276109</v>
       </c>
       <c r="D121" t="n">
-        <v>0.663793</v>
+        <v>0.667964</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.241728</v>
+        <v>0.238502</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2773</v>
+        <v>0.277834</v>
       </c>
       <c r="D122" t="n">
-        <v>0.671472</v>
+        <v>0.664374</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22557</v>
+        <v>0.225549</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307411</v>
+        <v>0.300912</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663612</v>
+        <v>0.649838</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320393</v>
+        <v>0.320192</v>
       </c>
       <c r="C124" t="n">
-        <v>0.301543</v>
+        <v>0.299964</v>
       </c>
       <c r="D124" t="n">
-        <v>0.663551</v>
+        <v>0.669902</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.316606</v>
+        <v>0.319734</v>
       </c>
       <c r="C125" t="n">
-        <v>0.299544</v>
+        <v>0.297208</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675074</v>
+        <v>0.660942</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30852</v>
+        <v>0.307647</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295521</v>
+        <v>0.299577</v>
       </c>
       <c r="D126" t="n">
-        <v>0.661748</v>
+        <v>0.667157</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.305438</v>
+        <v>0.306823</v>
       </c>
       <c r="C127" t="n">
-        <v>0.291003</v>
+        <v>0.291999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675758</v>
+        <v>0.668744</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295793</v>
+        <v>0.299615</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2855</v>
+        <v>0.291451</v>
       </c>
       <c r="D128" t="n">
-        <v>0.664735</v>
+        <v>0.66153</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284516</v>
+        <v>0.290338</v>
       </c>
       <c r="C129" t="n">
-        <v>0.28762</v>
+        <v>0.292527</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677647</v>
+        <v>0.669089</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.280637</v>
+        <v>0.277105</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287487</v>
+        <v>0.288456</v>
       </c>
       <c r="D130" t="n">
-        <v>0.655019</v>
+        <v>0.6577499999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.27466</v>
+        <v>0.273792</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28511</v>
+        <v>0.2847</v>
       </c>
       <c r="D131" t="n">
-        <v>0.68863</v>
+        <v>0.661112</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.267416</v>
+        <v>0.266933</v>
       </c>
       <c r="C132" t="n">
-        <v>0.28445</v>
+        <v>0.280274</v>
       </c>
       <c r="D132" t="n">
-        <v>0.670167</v>
+        <v>0.6730969999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25594</v>
+        <v>0.255289</v>
       </c>
       <c r="C133" t="n">
-        <v>0.279154</v>
+        <v>0.275831</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6865019999999999</v>
+        <v>0.67231</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251244</v>
+        <v>0.24961</v>
       </c>
       <c r="C134" t="n">
-        <v>0.283365</v>
+        <v>0.28749</v>
       </c>
       <c r="D134" t="n">
-        <v>0.672509</v>
+        <v>0.6712939999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244679</v>
+        <v>0.249003</v>
       </c>
       <c r="C135" t="n">
-        <v>0.281526</v>
+        <v>0.27703</v>
       </c>
       <c r="D135" t="n">
-        <v>0.659162</v>
+        <v>0.665088</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238465</v>
+        <v>0.240361</v>
       </c>
       <c r="C136" t="n">
-        <v>0.280382</v>
+        <v>0.283876</v>
       </c>
       <c r="D136" t="n">
-        <v>0.670058</v>
+        <v>0.667142</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224598</v>
+        <v>0.224309</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303119</v>
+        <v>0.305066</v>
       </c>
       <c r="D137" t="n">
-        <v>0.680231</v>
+        <v>0.657565</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.324047</v>
+        <v>0.320006</v>
       </c>
       <c r="C138" t="n">
-        <v>0.303078</v>
+        <v>0.304329</v>
       </c>
       <c r="D138" t="n">
-        <v>0.673678</v>
+        <v>0.658379</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319128</v>
+        <v>0.320391</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301472</v>
+        <v>0.300691</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6609969999999999</v>
+        <v>0.660193</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.310404</v>
+        <v>0.306954</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297941</v>
+        <v>0.295113</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6910230000000001</v>
+        <v>0.665541</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306122</v>
+        <v>0.304457</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2935</v>
+        <v>0.292084</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6684059999999999</v>
+        <v>0.681495</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.299361</v>
+        <v>0.298936</v>
       </c>
       <c r="C142" t="n">
-        <v>0.304486</v>
+        <v>0.290294</v>
       </c>
       <c r="D142" t="n">
-        <v>0.68933</v>
+        <v>0.663663</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.298472</v>
+        <v>0.294705</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297051</v>
+        <v>0.286883</v>
       </c>
       <c r="D143" t="n">
-        <v>0.687558</v>
+        <v>0.659405</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263937</v>
+        <v>0.25583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271662</v>
+        <v>0.26779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537738</v>
+        <v>0.539759</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248389</v>
+        <v>0.249203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.259455</v>
+        <v>0.263374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.537209</v>
+        <v>0.549337</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24218</v>
+        <v>0.245993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.266347</v>
+        <v>0.268456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53323</v>
+        <v>0.543887</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241784</v>
+        <v>0.235603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268162</v>
+        <v>0.265025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536703</v>
+        <v>0.536983</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235974</v>
+        <v>0.235629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.259487</v>
+        <v>0.260577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5355569999999999</v>
+        <v>0.541389</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221249</v>
+        <v>0.22222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.26084</v>
+        <v>0.259874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.547295</v>
+        <v>0.549571</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.217462</v>
+        <v>0.219473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.267357</v>
+        <v>0.257097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.545045</v>
+        <v>0.54554</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209312</v>
+        <v>0.205219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269376</v>
+        <v>0.276856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.538362</v>
+        <v>0.536774</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.294515</v>
+        <v>0.289689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.273918</v>
+        <v>0.268263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.543367</v>
+        <v>0.525872</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288277</v>
+        <v>0.286917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.272707</v>
+        <v>0.271088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5387420000000001</v>
+        <v>0.5487</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.282687</v>
+        <v>0.28193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.269063</v>
+        <v>0.269994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.543372</v>
+        <v>0.5445179999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.282351</v>
+        <v>0.278224</v>
       </c>
       <c r="C13" t="n">
-        <v>0.269619</v>
+        <v>0.270718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.545844</v>
+        <v>0.556155</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274723</v>
+        <v>0.279786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274713</v>
+        <v>0.274454</v>
       </c>
       <c r="D14" t="n">
-        <v>0.537371</v>
+        <v>0.555718</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267142</v>
+        <v>0.267149</v>
       </c>
       <c r="C15" t="n">
-        <v>0.267153</v>
+        <v>0.267136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.545643</v>
+        <v>0.546808</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263118</v>
+        <v>0.263503</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265666</v>
+        <v>0.270385</v>
       </c>
       <c r="D16" t="n">
-        <v>0.543757</v>
+        <v>0.5410430000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256781</v>
+        <v>0.257518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2684</v>
+        <v>0.264489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.548836</v>
+        <v>0.546349</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249768</v>
+        <v>0.249405</v>
       </c>
       <c r="C18" t="n">
-        <v>0.266844</v>
+        <v>0.268449</v>
       </c>
       <c r="D18" t="n">
-        <v>0.53801</v>
+        <v>0.544751</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247321</v>
+        <v>0.242715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.267993</v>
+        <v>0.268809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.547468</v>
+        <v>0.5462590000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24065</v>
+        <v>0.23634</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268089</v>
+        <v>0.266571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.556853</v>
+        <v>0.537822</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.231282</v>
+        <v>0.232506</v>
       </c>
       <c r="C21" t="n">
-        <v>0.262398</v>
+        <v>0.264655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.555097</v>
+        <v>0.563079</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.222861</v>
+        <v>0.227399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.264471</v>
+        <v>0.270446</v>
       </c>
       <c r="D22" t="n">
-        <v>0.553996</v>
+        <v>0.552281</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21656</v>
+        <v>0.215825</v>
       </c>
       <c r="C23" t="n">
-        <v>0.279649</v>
+        <v>0.27843</v>
       </c>
       <c r="D23" t="n">
-        <v>0.560285</v>
+        <v>0.559882</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.297087</v>
+        <v>0.296674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279424</v>
+        <v>0.277579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.550609</v>
+        <v>0.554812</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.292975</v>
+        <v>0.292708</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27912</v>
+        <v>0.273187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.543323</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.288369</v>
+        <v>0.286368</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2745</v>
+        <v>0.273601</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5543360000000001</v>
+        <v>0.558724</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282886</v>
+        <v>0.279214</v>
       </c>
       <c r="C27" t="n">
-        <v>0.273853</v>
+        <v>0.275765</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5556990000000001</v>
+        <v>0.546199</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278418</v>
+        <v>0.279786</v>
       </c>
       <c r="C28" t="n">
-        <v>0.273655</v>
+        <v>0.27818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.554462</v>
+        <v>0.55055</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272672</v>
+        <v>0.271249</v>
       </c>
       <c r="C29" t="n">
-        <v>0.276287</v>
+        <v>0.269601</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5497880000000001</v>
+        <v>0.546183</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.268078</v>
+        <v>0.264397</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270835</v>
+        <v>0.27479</v>
       </c>
       <c r="D30" t="n">
-        <v>0.555447</v>
+        <v>0.5534289999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.260343</v>
+        <v>0.259883</v>
       </c>
       <c r="C31" t="n">
-        <v>0.271577</v>
+        <v>0.272405</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5473209999999999</v>
+        <v>0.551318</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251383</v>
+        <v>0.247919</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268725</v>
+        <v>0.269442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.544802</v>
+        <v>0.554728</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.249596</v>
+        <v>0.243383</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265681</v>
+        <v>0.263973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.552584</v>
+        <v>0.5431049999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236137</v>
+        <v>0.235436</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265309</v>
+        <v>0.263839</v>
       </c>
       <c r="D34" t="n">
-        <v>0.543168</v>
+        <v>0.5464</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231463</v>
+        <v>0.230617</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266202</v>
+        <v>0.262413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5689070000000001</v>
+        <v>0.569614</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224425</v>
+        <v>0.224046</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263649</v>
+        <v>0.262868</v>
       </c>
       <c r="D36" t="n">
-        <v>0.568721</v>
+        <v>0.568861</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217657</v>
+        <v>0.216969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.287858</v>
+        <v>0.281519</v>
       </c>
       <c r="D37" t="n">
-        <v>0.567351</v>
+        <v>0.573007</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300871</v>
+        <v>0.298637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.282793</v>
+        <v>0.27862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5656910000000001</v>
+        <v>0.57599</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294422</v>
+        <v>0.299866</v>
       </c>
       <c r="C39" t="n">
-        <v>0.282403</v>
+        <v>0.274135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.55966</v>
+        <v>0.572535</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.289223</v>
+        <v>0.287572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275542</v>
+        <v>0.280299</v>
       </c>
       <c r="D40" t="n">
-        <v>0.574314</v>
+        <v>0.57457</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288676</v>
+        <v>0.282813</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275162</v>
+        <v>0.273578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.569737</v>
+        <v>0.570503</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280622</v>
+        <v>0.279448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279521</v>
+        <v>0.289444</v>
       </c>
       <c r="D42" t="n">
-        <v>0.572936</v>
+        <v>0.665069</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.274608</v>
+        <v>0.282406</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272355</v>
+        <v>0.275805</v>
       </c>
       <c r="D43" t="n">
-        <v>0.571587</v>
+        <v>0.586647</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26921</v>
+        <v>0.272451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276119</v>
+        <v>0.271064</v>
       </c>
       <c r="D44" t="n">
-        <v>0.575206</v>
+        <v>0.588139</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.263208</v>
+        <v>0.262414</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272172</v>
+        <v>0.270826</v>
       </c>
       <c r="D45" t="n">
-        <v>0.575863</v>
+        <v>0.584746</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251719</v>
+        <v>0.258731</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268623</v>
+        <v>0.269894</v>
       </c>
       <c r="D46" t="n">
-        <v>0.583127</v>
+        <v>0.598195</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248078</v>
+        <v>0.249788</v>
       </c>
       <c r="C47" t="n">
-        <v>0.267149</v>
+        <v>0.265224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.577165</v>
+        <v>0.595946</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240517</v>
+        <v>0.24327</v>
       </c>
       <c r="C48" t="n">
-        <v>0.268295</v>
+        <v>0.268001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5894509999999999</v>
+        <v>0.595348</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236094</v>
+        <v>0.23575</v>
       </c>
       <c r="C49" t="n">
-        <v>0.26687</v>
+        <v>0.266249</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5887520000000001</v>
+        <v>0.594368</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.229076</v>
+        <v>0.230356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.266134</v>
+        <v>0.268294</v>
       </c>
       <c r="D50" t="n">
-        <v>0.645369</v>
+        <v>0.651425</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222777</v>
+        <v>0.224642</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289731</v>
+        <v>0.292874</v>
       </c>
       <c r="D51" t="n">
-        <v>0.663915</v>
+        <v>0.650594</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.211651</v>
+        <v>0.212896</v>
       </c>
       <c r="C52" t="n">
-        <v>0.287985</v>
+        <v>0.291383</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6639350000000001</v>
+        <v>0.654452</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.304016</v>
+        <v>0.305166</v>
       </c>
       <c r="C53" t="n">
-        <v>0.286171</v>
+        <v>0.28856</v>
       </c>
       <c r="D53" t="n">
-        <v>0.668454</v>
+        <v>0.649863</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.297541</v>
+        <v>0.300848</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285056</v>
+        <v>0.28029</v>
       </c>
       <c r="D54" t="n">
-        <v>0.65361</v>
+        <v>0.667577</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.294687</v>
+        <v>0.2982</v>
       </c>
       <c r="C55" t="n">
-        <v>0.280963</v>
+        <v>0.28104</v>
       </c>
       <c r="D55" t="n">
-        <v>0.649687</v>
+        <v>0.666921</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.284135</v>
+        <v>0.288433</v>
       </c>
       <c r="C56" t="n">
-        <v>0.281687</v>
+        <v>0.276245</v>
       </c>
       <c r="D56" t="n">
-        <v>0.65303</v>
+        <v>0.658506</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.279618</v>
+        <v>0.280121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.276668</v>
+        <v>0.27936</v>
       </c>
       <c r="D57" t="n">
-        <v>0.661574</v>
+        <v>0.668741</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277531</v>
+        <v>0.271609</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276407</v>
+        <v>0.275558</v>
       </c>
       <c r="D58" t="n">
-        <v>0.662554</v>
+        <v>0.663616</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268178</v>
+        <v>0.268408</v>
       </c>
       <c r="C59" t="n">
-        <v>0.274225</v>
+        <v>0.276135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.662323</v>
+        <v>0.667005</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262355</v>
+        <v>0.261176</v>
       </c>
       <c r="C60" t="n">
-        <v>0.273893</v>
+        <v>0.274024</v>
       </c>
       <c r="D60" t="n">
-        <v>0.661637</v>
+        <v>0.673532</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255092</v>
+        <v>0.2551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.271347</v>
+        <v>0.27435</v>
       </c>
       <c r="D61" t="n">
-        <v>0.662926</v>
+        <v>0.661617</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.248423</v>
+        <v>0.247742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.271222</v>
+        <v>0.268982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.656267</v>
+        <v>0.673139</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.24324</v>
+        <v>0.24181</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272844</v>
+        <v>0.272249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.667811</v>
+        <v>0.683249</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235559</v>
+        <v>0.23442</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267811</v>
+        <v>0.269822</v>
       </c>
       <c r="D64" t="n">
-        <v>0.726752</v>
+        <v>0.734137</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.227988</v>
+        <v>0.226496</v>
       </c>
       <c r="C65" t="n">
-        <v>0.265707</v>
+        <v>0.276065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.723101</v>
+        <v>0.715705</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223431</v>
+        <v>0.218213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298585</v>
+        <v>0.299679</v>
       </c>
       <c r="D66" t="n">
-        <v>0.722086</v>
+        <v>0.725419</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.314351</v>
+        <v>0.31631</v>
       </c>
       <c r="C67" t="n">
-        <v>0.300917</v>
+        <v>0.296687</v>
       </c>
       <c r="D67" t="n">
-        <v>0.712266</v>
+        <v>0.733692</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.309923</v>
+        <v>0.31214</v>
       </c>
       <c r="C68" t="n">
-        <v>0.293835</v>
+        <v>0.290492</v>
       </c>
       <c r="D68" t="n">
-        <v>0.714183</v>
+        <v>0.70775</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302254</v>
+        <v>0.304364</v>
       </c>
       <c r="C69" t="n">
-        <v>0.299004</v>
+        <v>0.290377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714521</v>
+        <v>0.708886</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.300499</v>
+        <v>0.302354</v>
       </c>
       <c r="C70" t="n">
-        <v>0.290641</v>
+        <v>0.293789</v>
       </c>
       <c r="D70" t="n">
-        <v>0.712793</v>
+        <v>0.719411</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291125</v>
+        <v>0.295541</v>
       </c>
       <c r="C71" t="n">
-        <v>0.28644</v>
+        <v>0.288805</v>
       </c>
       <c r="D71" t="n">
-        <v>0.699798</v>
+        <v>0.7045670000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284223</v>
+        <v>0.285558</v>
       </c>
       <c r="C72" t="n">
-        <v>0.28526</v>
+        <v>0.28577</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7075900000000001</v>
+        <v>0.700175</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.279375</v>
+        <v>0.276354</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282827</v>
+        <v>0.281161</v>
       </c>
       <c r="D73" t="n">
-        <v>0.703727</v>
+        <v>0.700465</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.271287</v>
+        <v>0.27404</v>
       </c>
       <c r="C74" t="n">
-        <v>0.279823</v>
+        <v>0.290148</v>
       </c>
       <c r="D74" t="n">
-        <v>0.698922</v>
+        <v>0.707995</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.266184</v>
+        <v>0.264438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.280577</v>
+        <v>0.287621</v>
       </c>
       <c r="D75" t="n">
-        <v>0.700946</v>
+        <v>0.708255</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.259335</v>
+        <v>0.25633</v>
       </c>
       <c r="C76" t="n">
-        <v>0.277776</v>
+        <v>0.280531</v>
       </c>
       <c r="D76" t="n">
-        <v>0.705724</v>
+        <v>0.707884</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.253732</v>
+        <v>0.248026</v>
       </c>
       <c r="C77" t="n">
-        <v>0.277145</v>
+        <v>0.274994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.701976</v>
+        <v>0.706948</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244238</v>
+        <v>0.245337</v>
       </c>
       <c r="C78" t="n">
-        <v>0.274073</v>
+        <v>0.279926</v>
       </c>
       <c r="D78" t="n">
-        <v>0.762281</v>
+        <v>0.765571</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234971</v>
+        <v>0.234725</v>
       </c>
       <c r="C79" t="n">
-        <v>0.277725</v>
+        <v>0.274429</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7565269999999999</v>
+        <v>0.746103</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.231022</v>
+        <v>0.22723</v>
       </c>
       <c r="C80" t="n">
-        <v>0.300966</v>
+        <v>0.302909</v>
       </c>
       <c r="D80" t="n">
-        <v>0.757811</v>
+        <v>0.762949</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.322564</v>
+        <v>0.319146</v>
       </c>
       <c r="C81" t="n">
-        <v>0.303554</v>
+        <v>0.302714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.753212</v>
+        <v>0.7556079999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.314045</v>
+        <v>0.316228</v>
       </c>
       <c r="C82" t="n">
-        <v>0.298089</v>
+        <v>0.299631</v>
       </c>
       <c r="D82" t="n">
-        <v>0.745354</v>
+        <v>0.729034</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.307988</v>
+        <v>0.303775</v>
       </c>
       <c r="C83" t="n">
-        <v>0.297733</v>
+        <v>0.290764</v>
       </c>
       <c r="D83" t="n">
-        <v>0.732345</v>
+        <v>0.750759</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301721</v>
+        <v>0.301553</v>
       </c>
       <c r="C84" t="n">
-        <v>0.292002</v>
+        <v>0.290167</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7598009999999999</v>
+        <v>0.774387</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297459</v>
+        <v>0.295407</v>
       </c>
       <c r="C85" t="n">
-        <v>0.289519</v>
+        <v>0.293577</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761058</v>
+        <v>0.761792</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288109</v>
+        <v>0.288129</v>
       </c>
       <c r="C86" t="n">
-        <v>0.289583</v>
+        <v>0.286184</v>
       </c>
       <c r="D86" t="n">
-        <v>0.75375</v>
+        <v>0.764621</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.280106</v>
+        <v>0.284554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.284805</v>
+        <v>0.284825</v>
       </c>
       <c r="D87" t="n">
-        <v>0.754915</v>
+        <v>0.770954</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.275971</v>
+        <v>0.272599</v>
       </c>
       <c r="C88" t="n">
-        <v>0.288078</v>
+        <v>0.282549</v>
       </c>
       <c r="D88" t="n">
-        <v>0.761499</v>
+        <v>0.761243</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.265921</v>
+        <v>0.268458</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282584</v>
+        <v>0.28031</v>
       </c>
       <c r="D89" t="n">
-        <v>0.751652</v>
+        <v>0.7706460000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263543</v>
+        <v>0.261715</v>
       </c>
       <c r="C90" t="n">
-        <v>0.283568</v>
+        <v>0.278802</v>
       </c>
       <c r="D90" t="n">
-        <v>0.756947</v>
+        <v>0.750715</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252797</v>
+        <v>0.255381</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278651</v>
+        <v>0.276052</v>
       </c>
       <c r="D91" t="n">
-        <v>0.769346</v>
+        <v>0.756289</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246987</v>
+        <v>0.245216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274703</v>
+        <v>0.27793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.656793</v>
+        <v>0.668339</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237867</v>
+        <v>0.23541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.277166</v>
+        <v>0.280558</v>
       </c>
       <c r="D93" t="n">
-        <v>0.666493</v>
+        <v>0.658903</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229598</v>
+        <v>0.229962</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305568</v>
+        <v>0.305198</v>
       </c>
       <c r="D94" t="n">
-        <v>0.66831</v>
+        <v>0.668203</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.323009</v>
+        <v>0.320301</v>
       </c>
       <c r="C95" t="n">
-        <v>0.305057</v>
+        <v>0.301958</v>
       </c>
       <c r="D95" t="n">
-        <v>0.650273</v>
+        <v>0.672244</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.314071</v>
+        <v>0.313352</v>
       </c>
       <c r="C96" t="n">
-        <v>0.304158</v>
+        <v>0.295587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.674758</v>
+        <v>0.662682</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.310442</v>
+        <v>0.308873</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299525</v>
+        <v>0.295431</v>
       </c>
       <c r="D97" t="n">
-        <v>0.673651</v>
+        <v>0.665811</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.304322</v>
+        <v>0.306792</v>
       </c>
       <c r="C98" t="n">
-        <v>0.292289</v>
+        <v>0.299077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.659288</v>
+        <v>0.668709</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.29743</v>
+        <v>0.301573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.289505</v>
+        <v>0.291649</v>
       </c>
       <c r="D99" t="n">
-        <v>0.662309</v>
+        <v>0.65277</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.289882</v>
+        <v>0.292452</v>
       </c>
       <c r="C100" t="n">
-        <v>0.287713</v>
+        <v>0.28819</v>
       </c>
       <c r="D100" t="n">
-        <v>0.669912</v>
+        <v>0.65794</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.282765</v>
+        <v>0.283195</v>
       </c>
       <c r="C101" t="n">
-        <v>0.290302</v>
+        <v>0.286063</v>
       </c>
       <c r="D101" t="n">
-        <v>0.661632</v>
+        <v>0.655898</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.280362</v>
+        <v>0.27714</v>
       </c>
       <c r="C102" t="n">
-        <v>0.283749</v>
+        <v>0.285962</v>
       </c>
       <c r="D102" t="n">
-        <v>0.658683</v>
+        <v>0.66952</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272825</v>
+        <v>0.272068</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286484</v>
+        <v>0.282015</v>
       </c>
       <c r="D103" t="n">
-        <v>0.672494</v>
+        <v>0.670423</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26513</v>
+        <v>0.259541</v>
       </c>
       <c r="C104" t="n">
-        <v>0.286968</v>
+        <v>0.276643</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652007</v>
+        <v>0.669494</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25755</v>
+        <v>0.252472</v>
       </c>
       <c r="C105" t="n">
-        <v>0.278863</v>
+        <v>0.281788</v>
       </c>
       <c r="D105" t="n">
-        <v>0.673225</v>
+        <v>0.6638269999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248838</v>
+        <v>0.248417</v>
       </c>
       <c r="C106" t="n">
-        <v>0.272919</v>
+        <v>0.276355</v>
       </c>
       <c r="D106" t="n">
-        <v>0.642891</v>
+        <v>0.661705</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.238241</v>
+        <v>0.241027</v>
       </c>
       <c r="C107" t="n">
-        <v>0.276972</v>
+        <v>0.282608</v>
       </c>
       <c r="D107" t="n">
-        <v>0.653888</v>
+        <v>0.647138</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.23467</v>
+        <v>0.232314</v>
       </c>
       <c r="C108" t="n">
-        <v>0.308809</v>
+        <v>0.303451</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6597190000000001</v>
+        <v>0.649014</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223835</v>
+        <v>0.22039</v>
       </c>
       <c r="C109" t="n">
-        <v>0.303232</v>
+        <v>0.300561</v>
       </c>
       <c r="D109" t="n">
-        <v>0.666312</v>
+        <v>0.665815</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.320044</v>
+        <v>0.319265</v>
       </c>
       <c r="C110" t="n">
-        <v>0.305615</v>
+        <v>0.301581</v>
       </c>
       <c r="D110" t="n">
-        <v>0.643779</v>
+        <v>0.654616</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314826</v>
+        <v>0.314247</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30293</v>
+        <v>0.296328</v>
       </c>
       <c r="D111" t="n">
-        <v>0.65476</v>
+        <v>0.664407</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.309691</v>
+        <v>0.303811</v>
       </c>
       <c r="C112" t="n">
-        <v>0.29246</v>
+        <v>0.294496</v>
       </c>
       <c r="D112" t="n">
-        <v>0.648746</v>
+        <v>0.658347</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301801</v>
+        <v>0.301825</v>
       </c>
       <c r="C113" t="n">
-        <v>0.289586</v>
+        <v>0.292841</v>
       </c>
       <c r="D113" t="n">
-        <v>0.649888</v>
+        <v>0.654718</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.294321</v>
+        <v>0.297206</v>
       </c>
       <c r="C114" t="n">
-        <v>0.29386</v>
+        <v>0.288374</v>
       </c>
       <c r="D114" t="n">
-        <v>0.660253</v>
+        <v>0.656865</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291209</v>
+        <v>0.284985</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29079</v>
+        <v>0.289157</v>
       </c>
       <c r="D115" t="n">
-        <v>0.645717</v>
+        <v>0.655609</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.274771</v>
+        <v>0.274707</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286077</v>
+        <v>0.283968</v>
       </c>
       <c r="D116" t="n">
-        <v>0.665017</v>
+        <v>0.6580279999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278745</v>
+        <v>0.273753</v>
       </c>
       <c r="C117" t="n">
-        <v>0.283833</v>
+        <v>0.282739</v>
       </c>
       <c r="D117" t="n">
-        <v>0.657631</v>
+        <v>0.674993</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.266135</v>
+        <v>0.266118</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282055</v>
+        <v>0.283214</v>
       </c>
       <c r="D118" t="n">
-        <v>0.670669</v>
+        <v>0.65608</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.25866</v>
+        <v>0.258618</v>
       </c>
       <c r="C119" t="n">
-        <v>0.278911</v>
+        <v>0.281222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.665781</v>
+        <v>0.6623830000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250744</v>
+        <v>0.251433</v>
       </c>
       <c r="C120" t="n">
-        <v>0.277479</v>
+        <v>0.277591</v>
       </c>
       <c r="D120" t="n">
-        <v>0.657703</v>
+        <v>0.660169</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243213</v>
+        <v>0.238793</v>
       </c>
       <c r="C121" t="n">
-        <v>0.276109</v>
+        <v>0.278532</v>
       </c>
       <c r="D121" t="n">
-        <v>0.667964</v>
+        <v>0.660092</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238502</v>
+        <v>0.235698</v>
       </c>
       <c r="C122" t="n">
-        <v>0.277834</v>
+        <v>0.277578</v>
       </c>
       <c r="D122" t="n">
-        <v>0.664374</v>
+        <v>0.662592</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225549</v>
+        <v>0.224914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.300912</v>
+        <v>0.306861</v>
       </c>
       <c r="D123" t="n">
-        <v>0.649838</v>
+        <v>0.65694</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320192</v>
+        <v>0.319454</v>
       </c>
       <c r="C124" t="n">
-        <v>0.299964</v>
+        <v>0.301288</v>
       </c>
       <c r="D124" t="n">
-        <v>0.669902</v>
+        <v>0.666587</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.319734</v>
+        <v>0.318131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297208</v>
+        <v>0.297127</v>
       </c>
       <c r="D125" t="n">
-        <v>0.660942</v>
+        <v>0.666848</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307647</v>
+        <v>0.306167</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299577</v>
+        <v>0.293138</v>
       </c>
       <c r="D126" t="n">
-        <v>0.667157</v>
+        <v>0.66111</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.306823</v>
+        <v>0.307599</v>
       </c>
       <c r="C127" t="n">
-        <v>0.291999</v>
+        <v>0.296859</v>
       </c>
       <c r="D127" t="n">
-        <v>0.668744</v>
+        <v>0.675383</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.299615</v>
+        <v>0.298978</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291451</v>
+        <v>0.290718</v>
       </c>
       <c r="D128" t="n">
-        <v>0.66153</v>
+        <v>0.681719</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.290338</v>
+        <v>0.282513</v>
       </c>
       <c r="C129" t="n">
-        <v>0.292527</v>
+        <v>0.293628</v>
       </c>
       <c r="D129" t="n">
-        <v>0.669089</v>
+        <v>0.652486</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.277105</v>
+        <v>0.275142</v>
       </c>
       <c r="C130" t="n">
-        <v>0.288456</v>
+        <v>0.290167</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6577499999999999</v>
+        <v>0.6743400000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.273792</v>
+        <v>0.275255</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2847</v>
+        <v>0.289206</v>
       </c>
       <c r="D131" t="n">
-        <v>0.661112</v>
+        <v>0.658729</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.266933</v>
+        <v>0.264604</v>
       </c>
       <c r="C132" t="n">
-        <v>0.280274</v>
+        <v>0.283128</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6730969999999999</v>
+        <v>0.657908</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.255289</v>
+        <v>0.261102</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275831</v>
+        <v>0.28431</v>
       </c>
       <c r="D133" t="n">
-        <v>0.67231</v>
+        <v>0.663723</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.24961</v>
+        <v>0.25508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.28749</v>
+        <v>0.283229</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6712939999999999</v>
+        <v>0.674959</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.249003</v>
+        <v>0.247252</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27703</v>
+        <v>0.279992</v>
       </c>
       <c r="D135" t="n">
-        <v>0.665088</v>
+        <v>0.683375</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240361</v>
+        <v>0.238443</v>
       </c>
       <c r="C136" t="n">
-        <v>0.283876</v>
+        <v>0.27747</v>
       </c>
       <c r="D136" t="n">
-        <v>0.667142</v>
+        <v>0.656767</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.224309</v>
+        <v>0.226073</v>
       </c>
       <c r="C137" t="n">
-        <v>0.305066</v>
+        <v>0.29917</v>
       </c>
       <c r="D137" t="n">
-        <v>0.657565</v>
+        <v>0.66307</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320006</v>
+        <v>0.323573</v>
       </c>
       <c r="C138" t="n">
-        <v>0.304329</v>
+        <v>0.300052</v>
       </c>
       <c r="D138" t="n">
-        <v>0.658379</v>
+        <v>0.66822</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.320391</v>
+        <v>0.317694</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300691</v>
+        <v>0.29781</v>
       </c>
       <c r="D139" t="n">
-        <v>0.660193</v>
+        <v>0.674701</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.306954</v>
+        <v>0.305953</v>
       </c>
       <c r="C140" t="n">
-        <v>0.295113</v>
+        <v>0.293544</v>
       </c>
       <c r="D140" t="n">
-        <v>0.665541</v>
+        <v>0.673158</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.304457</v>
+        <v>0.306468</v>
       </c>
       <c r="C141" t="n">
-        <v>0.292084</v>
+        <v>0.294373</v>
       </c>
       <c r="D141" t="n">
-        <v>0.681495</v>
+        <v>0.665411</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.298936</v>
+        <v>0.29615</v>
       </c>
       <c r="C142" t="n">
-        <v>0.290294</v>
+        <v>0.297841</v>
       </c>
       <c r="D142" t="n">
-        <v>0.663663</v>
+        <v>0.671634</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.294705</v>
+        <v>0.286757</v>
       </c>
       <c r="C143" t="n">
-        <v>0.286883</v>
+        <v>0.287056</v>
       </c>
       <c r="D143" t="n">
-        <v>0.659405</v>
+        <v>0.670914</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25583</v>
+        <v>0.263191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.26779</v>
+        <v>0.537281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.539759</v>
+        <v>0.265355</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.52824</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.249203</v>
+        <v>0.248206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.263374</v>
+        <v>0.528438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549337</v>
+        <v>0.265338</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.558565</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245993</v>
+        <v>0.242032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.268456</v>
+        <v>0.517103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543887</v>
+        <v>0.256047</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.508576</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235603</v>
+        <v>0.235397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265025</v>
+        <v>0.532058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536983</v>
+        <v>0.258691</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.522243</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235629</v>
+        <v>0.230715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260577</v>
+        <v>0.537785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.541389</v>
+        <v>0.267292</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.517773</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22222</v>
+        <v>0.218103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.259874</v>
+        <v>0.530551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549571</v>
+        <v>0.254955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.504412</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219473</v>
+        <v>0.210051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.257097</v>
+        <v>0.5255570000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.54554</v>
+        <v>0.251148</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.502597</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.205219</v>
+        <v>0.200451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.276856</v>
+        <v>0.520734</v>
       </c>
       <c r="D9" t="n">
-        <v>0.536774</v>
+        <v>0.267766</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5147040000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.289689</v>
+        <v>0.286746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268263</v>
+        <v>0.517942</v>
       </c>
       <c r="D10" t="n">
-        <v>0.525872</v>
+        <v>0.266898</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5114</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.286917</v>
+        <v>0.281591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.271088</v>
+        <v>0.518588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5487</v>
+        <v>0.263846</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5121559999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28193</v>
+        <v>0.277035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.269994</v>
+        <v>0.5228159999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5445179999999999</v>
+        <v>0.262303</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5180129999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278224</v>
+        <v>0.27117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.270718</v>
+        <v>0.517604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.556155</v>
+        <v>0.266299</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.510372</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279786</v>
+        <v>0.265743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274454</v>
+        <v>0.519752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.555718</v>
+        <v>0.26134</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.508829</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267149</v>
+        <v>0.261227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.267136</v>
+        <v>0.514968</v>
       </c>
       <c r="D15" t="n">
-        <v>0.546808</v>
+        <v>0.260775</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.508776</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263503</v>
+        <v>0.256699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.270385</v>
+        <v>0.5158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5410430000000001</v>
+        <v>0.259715</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.505887</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257518</v>
+        <v>0.249214</v>
       </c>
       <c r="C17" t="n">
-        <v>0.264489</v>
+        <v>0.518061</v>
       </c>
       <c r="D17" t="n">
-        <v>0.546349</v>
+        <v>0.260278</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.506756</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249405</v>
+        <v>0.242565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.268449</v>
+        <v>0.515563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.544751</v>
+        <v>0.258557</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5040519999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242715</v>
+        <v>0.241364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268809</v>
+        <v>0.515684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5462590000000001</v>
+        <v>0.256288</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.506335</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23634</v>
+        <v>0.228916</v>
       </c>
       <c r="C20" t="n">
-        <v>0.266571</v>
+        <v>0.524042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.537822</v>
+        <v>0.265476</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5026620000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232506</v>
+        <v>0.222589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.264655</v>
+        <v>0.531146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.563079</v>
+        <v>0.255614</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.500683</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227399</v>
+        <v>0.215387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.270446</v>
+        <v>0.528586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.552281</v>
+        <v>0.261455</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.502304</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.215825</v>
+        <v>0.210169</v>
       </c>
       <c r="C23" t="n">
-        <v>0.27843</v>
+        <v>0.529431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.559882</v>
+        <v>0.269496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.517026</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296674</v>
+        <v>0.287715</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277579</v>
+        <v>0.534101</v>
       </c>
       <c r="D24" t="n">
-        <v>0.554812</v>
+        <v>0.268624</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.51916</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.292708</v>
+        <v>0.286413</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273187</v>
+        <v>0.536178</v>
       </c>
       <c r="D25" t="n">
-        <v>0.543323</v>
+        <v>0.27664</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.514768</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286368</v>
+        <v>0.279535</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273601</v>
+        <v>0.525867</v>
       </c>
       <c r="D26" t="n">
-        <v>0.558724</v>
+        <v>0.267247</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.513208</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.279214</v>
+        <v>0.275125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.275765</v>
+        <v>0.525375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.546199</v>
+        <v>0.26501</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.516548</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279786</v>
+        <v>0.266543</v>
       </c>
       <c r="C28" t="n">
-        <v>0.27818</v>
+        <v>0.52954</v>
       </c>
       <c r="D28" t="n">
-        <v>0.55055</v>
+        <v>0.268315</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.509263</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271249</v>
+        <v>0.26873</v>
       </c>
       <c r="C29" t="n">
-        <v>0.269601</v>
+        <v>0.52588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.546183</v>
+        <v>0.264304</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.511714</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264397</v>
+        <v>0.259623</v>
       </c>
       <c r="C30" t="n">
-        <v>0.27479</v>
+        <v>0.521008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5534289999999999</v>
+        <v>0.262879</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.50827</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.259883</v>
+        <v>0.250586</v>
       </c>
       <c r="C31" t="n">
-        <v>0.272405</v>
+        <v>0.526289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.551318</v>
+        <v>0.262738</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.508419</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247919</v>
+        <v>0.258493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.269442</v>
+        <v>0.576645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.554728</v>
+        <v>0.267413</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.507921</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243383</v>
+        <v>0.238961</v>
       </c>
       <c r="C33" t="n">
-        <v>0.263973</v>
+        <v>0.5243139999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5431049999999999</v>
+        <v>0.262247</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.506842</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235436</v>
+        <v>0.232698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.263839</v>
+        <v>0.523475</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5464</v>
+        <v>0.259056</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.503941</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.230617</v>
+        <v>0.226285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.262413</v>
+        <v>0.5470390000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569614</v>
+        <v>0.259553</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.516744</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.224046</v>
+        <v>0.219958</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262868</v>
+        <v>0.543451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.568861</v>
+        <v>0.259906</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.505078</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216969</v>
+        <v>0.211344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281519</v>
+        <v>0.54225</v>
       </c>
       <c r="D37" t="n">
-        <v>0.573007</v>
+        <v>0.279132</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.517274</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.298637</v>
+        <v>0.292066</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27862</v>
+        <v>0.545478</v>
       </c>
       <c r="D38" t="n">
-        <v>0.57599</v>
+        <v>0.275682</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5184029999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299866</v>
+        <v>0.286526</v>
       </c>
       <c r="C39" t="n">
-        <v>0.274135</v>
+        <v>0.547441</v>
       </c>
       <c r="D39" t="n">
-        <v>0.572535</v>
+        <v>0.271625</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.519784</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.287572</v>
+        <v>0.283963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280299</v>
+        <v>0.546829</v>
       </c>
       <c r="D40" t="n">
-        <v>0.57457</v>
+        <v>0.271003</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.518439</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.282813</v>
+        <v>0.277339</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273578</v>
+        <v>0.548494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.570503</v>
+        <v>0.271347</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.517153</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279448</v>
+        <v>0.272732</v>
       </c>
       <c r="C42" t="n">
-        <v>0.289444</v>
+        <v>0.551337</v>
       </c>
       <c r="D42" t="n">
-        <v>0.665069</v>
+        <v>0.271526</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.516095</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.282406</v>
+        <v>0.273794</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275805</v>
+        <v>0.549506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.586647</v>
+        <v>0.269818</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.516477</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272451</v>
+        <v>0.263376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.271064</v>
+        <v>0.55363</v>
       </c>
       <c r="D44" t="n">
-        <v>0.588139</v>
+        <v>0.269374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.516336</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.262414</v>
+        <v>0.254899</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270826</v>
+        <v>0.555972</v>
       </c>
       <c r="D45" t="n">
-        <v>0.584746</v>
+        <v>0.264981</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5145690000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258731</v>
+        <v>0.253314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.269894</v>
+        <v>0.560724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.598195</v>
+        <v>0.26592</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.514298</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249788</v>
+        <v>0.242718</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265224</v>
+        <v>0.565886</v>
       </c>
       <c r="D47" t="n">
-        <v>0.595946</v>
+        <v>0.262637</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.515192</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.24327</v>
+        <v>0.238629</v>
       </c>
       <c r="C48" t="n">
-        <v>0.268001</v>
+        <v>0.569829</v>
       </c>
       <c r="D48" t="n">
-        <v>0.595348</v>
+        <v>0.264057</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.510538</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23575</v>
+        <v>0.23005</v>
       </c>
       <c r="C49" t="n">
-        <v>0.266249</v>
+        <v>0.559715</v>
       </c>
       <c r="D49" t="n">
-        <v>0.594368</v>
+        <v>0.262756</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.512064</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.230356</v>
+        <v>0.22358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.268294</v>
+        <v>0.621677</v>
       </c>
       <c r="D50" t="n">
-        <v>0.651425</v>
+        <v>0.261327</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5129629999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224642</v>
+        <v>0.216094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292874</v>
+        <v>0.625674</v>
       </c>
       <c r="D51" t="n">
-        <v>0.650594</v>
+        <v>0.284113</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5334719999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.212896</v>
+        <v>0.208082</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291383</v>
+        <v>0.624848</v>
       </c>
       <c r="D52" t="n">
-        <v>0.654452</v>
+        <v>0.281893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.532415</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.305166</v>
+        <v>0.293707</v>
       </c>
       <c r="C53" t="n">
-        <v>0.28856</v>
+        <v>0.621205</v>
       </c>
       <c r="D53" t="n">
-        <v>0.649863</v>
+        <v>0.280036</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.523869</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.300848</v>
+        <v>0.294557</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28029</v>
+        <v>0.630101</v>
       </c>
       <c r="D54" t="n">
-        <v>0.667577</v>
+        <v>0.278348</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.522417</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2982</v>
+        <v>0.284747</v>
       </c>
       <c r="C55" t="n">
-        <v>0.28104</v>
+        <v>0.622198</v>
       </c>
       <c r="D55" t="n">
-        <v>0.666921</v>
+        <v>0.274426</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.537322</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288433</v>
+        <v>0.280702</v>
       </c>
       <c r="C56" t="n">
-        <v>0.276245</v>
+        <v>0.629087</v>
       </c>
       <c r="D56" t="n">
-        <v>0.658506</v>
+        <v>0.273932</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.526664</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.280121</v>
+        <v>0.274289</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27936</v>
+        <v>0.632088</v>
       </c>
       <c r="D57" t="n">
-        <v>0.668741</v>
+        <v>0.272604</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.532563</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.271609</v>
+        <v>0.270958</v>
       </c>
       <c r="C58" t="n">
-        <v>0.275558</v>
+        <v>0.631558</v>
       </c>
       <c r="D58" t="n">
-        <v>0.663616</v>
+        <v>0.271688</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.529319</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268408</v>
+        <v>0.260536</v>
       </c>
       <c r="C59" t="n">
-        <v>0.276135</v>
+        <v>0.631224</v>
       </c>
       <c r="D59" t="n">
-        <v>0.667005</v>
+        <v>0.269696</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.524022</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261176</v>
+        <v>0.257011</v>
       </c>
       <c r="C60" t="n">
-        <v>0.274024</v>
+        <v>0.6401559999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.673532</v>
+        <v>0.268657</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.536534</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2551</v>
+        <v>0.248348</v>
       </c>
       <c r="C61" t="n">
-        <v>0.27435</v>
+        <v>0.643215</v>
       </c>
       <c r="D61" t="n">
-        <v>0.661617</v>
+        <v>0.266327</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.535825</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.247742</v>
+        <v>0.244976</v>
       </c>
       <c r="C62" t="n">
-        <v>0.268982</v>
+        <v>0.630724</v>
       </c>
       <c r="D62" t="n">
-        <v>0.673139</v>
+        <v>0.265855</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.525961</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.24181</v>
+        <v>0.237437</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272249</v>
+        <v>0.650154</v>
       </c>
       <c r="D63" t="n">
-        <v>0.683249</v>
+        <v>0.26536</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.526636</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23442</v>
+        <v>0.229136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.269822</v>
+        <v>0.694016</v>
       </c>
       <c r="D64" t="n">
-        <v>0.734137</v>
+        <v>0.263892</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.538358</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226496</v>
+        <v>0.222467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.276065</v>
+        <v>0.69081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.715705</v>
+        <v>0.26304</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.527431</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.218213</v>
+        <v>0.217309</v>
       </c>
       <c r="C66" t="n">
-        <v>0.299679</v>
+        <v>0.697917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.725419</v>
+        <v>0.288558</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.549307</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.31631</v>
+        <v>0.308297</v>
       </c>
       <c r="C67" t="n">
-        <v>0.296687</v>
+        <v>0.68779</v>
       </c>
       <c r="D67" t="n">
-        <v>0.733692</v>
+        <v>0.285607</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.546849</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.31214</v>
+        <v>0.308658</v>
       </c>
       <c r="C68" t="n">
-        <v>0.290492</v>
+        <v>0.679925</v>
       </c>
       <c r="D68" t="n">
-        <v>0.70775</v>
+        <v>0.288407</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.542775</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.304364</v>
+        <v>0.291243</v>
       </c>
       <c r="C69" t="n">
-        <v>0.290377</v>
+        <v>0.676706</v>
       </c>
       <c r="D69" t="n">
-        <v>0.708886</v>
+        <v>0.285872</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.564534</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.302354</v>
+        <v>0.292099</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293789</v>
+        <v>0.675611</v>
       </c>
       <c r="D70" t="n">
-        <v>0.719411</v>
+        <v>0.283711</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.548071</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.295541</v>
+        <v>0.284747</v>
       </c>
       <c r="C71" t="n">
-        <v>0.288805</v>
+        <v>0.678368</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7045670000000001</v>
+        <v>0.278999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.543788</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.285558</v>
+        <v>0.276856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.28577</v>
+        <v>0.677289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.700175</v>
+        <v>0.28253</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.544934</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.276354</v>
+        <v>0.273529</v>
       </c>
       <c r="C73" t="n">
-        <v>0.281161</v>
+        <v>0.680121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.700465</v>
+        <v>0.275244</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.544115</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.27404</v>
+        <v>0.265763</v>
       </c>
       <c r="C74" t="n">
-        <v>0.290148</v>
+        <v>0.680989</v>
       </c>
       <c r="D74" t="n">
-        <v>0.707995</v>
+        <v>0.281813</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.546277</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.264438</v>
+        <v>0.257626</v>
       </c>
       <c r="C75" t="n">
-        <v>0.287621</v>
+        <v>0.681675</v>
       </c>
       <c r="D75" t="n">
-        <v>0.708255</v>
+        <v>0.271265</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.541343</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25633</v>
+        <v>0.248516</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280531</v>
+        <v>0.684407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.707884</v>
+        <v>0.272679</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.542199</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.248026</v>
+        <v>0.241201</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274994</v>
+        <v>0.679615</v>
       </c>
       <c r="D77" t="n">
-        <v>0.706948</v>
+        <v>0.268322</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.541002</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245337</v>
+        <v>0.234341</v>
       </c>
       <c r="C78" t="n">
-        <v>0.279926</v>
+        <v>0.728105</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765571</v>
+        <v>0.267584</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.539527</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234725</v>
+        <v>0.230582</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274429</v>
+        <v>0.725469</v>
       </c>
       <c r="D79" t="n">
-        <v>0.746103</v>
+        <v>0.272961</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.538363</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.22723</v>
+        <v>0.223471</v>
       </c>
       <c r="C80" t="n">
-        <v>0.302909</v>
+        <v>0.720176</v>
       </c>
       <c r="D80" t="n">
-        <v>0.762949</v>
+        <v>0.295182</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.555094</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.319146</v>
+        <v>0.315106</v>
       </c>
       <c r="C81" t="n">
-        <v>0.302714</v>
+        <v>0.715388</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7556079999999999</v>
+        <v>0.292656</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.555771</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316228</v>
+        <v>0.305504</v>
       </c>
       <c r="C82" t="n">
-        <v>0.299631</v>
+        <v>0.713051</v>
       </c>
       <c r="D82" t="n">
-        <v>0.729034</v>
+        <v>0.290966</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.552474</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.303775</v>
+        <v>0.300024</v>
       </c>
       <c r="C83" t="n">
-        <v>0.290764</v>
+        <v>0.712743</v>
       </c>
       <c r="D83" t="n">
-        <v>0.750759</v>
+        <v>0.286602</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5509039999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301553</v>
+        <v>0.294774</v>
       </c>
       <c r="C84" t="n">
-        <v>0.290167</v>
+        <v>0.735425</v>
       </c>
       <c r="D84" t="n">
-        <v>0.774387</v>
+        <v>0.284324</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.57368</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.295407</v>
+        <v>0.287321</v>
       </c>
       <c r="C85" t="n">
-        <v>0.293577</v>
+        <v>0.739461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761792</v>
+        <v>0.283155</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.57313</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288129</v>
+        <v>0.280232</v>
       </c>
       <c r="C86" t="n">
-        <v>0.286184</v>
+        <v>0.73178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.764621</v>
+        <v>0.281145</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.570669</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.284554</v>
+        <v>0.274167</v>
       </c>
       <c r="C87" t="n">
-        <v>0.284825</v>
+        <v>0.725921</v>
       </c>
       <c r="D87" t="n">
-        <v>0.770954</v>
+        <v>0.278967</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.5744629999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.272599</v>
+        <v>0.266225</v>
       </c>
       <c r="C88" t="n">
-        <v>0.282549</v>
+        <v>0.739121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.761243</v>
+        <v>0.278245</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.570032</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.268458</v>
+        <v>0.260775</v>
       </c>
       <c r="C89" t="n">
-        <v>0.28031</v>
+        <v>0.736213</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7706460000000001</v>
+        <v>0.276508</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.575837</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.261715</v>
+        <v>0.254211</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278802</v>
+        <v>0.733653</v>
       </c>
       <c r="D90" t="n">
-        <v>0.750715</v>
+        <v>0.280322</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.577452</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255381</v>
+        <v>0.247192</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276052</v>
+        <v>0.734465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.756289</v>
+        <v>0.279369</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.566692</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245216</v>
+        <v>0.239089</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27793</v>
+        <v>0.635896</v>
       </c>
       <c r="D92" t="n">
-        <v>0.668339</v>
+        <v>0.270652</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.565735</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23541</v>
+        <v>0.236432</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280558</v>
+        <v>0.645086</v>
       </c>
       <c r="D93" t="n">
-        <v>0.658903</v>
+        <v>0.269735</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.567732</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229962</v>
+        <v>0.224445</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305198</v>
+        <v>0.64361</v>
       </c>
       <c r="D94" t="n">
-        <v>0.668203</v>
+        <v>0.303561</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.587102</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.320301</v>
+        <v>0.313186</v>
       </c>
       <c r="C95" t="n">
-        <v>0.301958</v>
+        <v>0.6338549999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.672244</v>
+        <v>0.294826</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.589431</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313352</v>
+        <v>0.312648</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295587</v>
+        <v>0.634968</v>
       </c>
       <c r="D96" t="n">
-        <v>0.662682</v>
+        <v>0.291115</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.576515</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308873</v>
+        <v>0.301283</v>
       </c>
       <c r="C97" t="n">
-        <v>0.295431</v>
+        <v>0.634406</v>
       </c>
       <c r="D97" t="n">
-        <v>0.665811</v>
+        <v>0.28888</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.576616</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.306792</v>
+        <v>0.295017</v>
       </c>
       <c r="C98" t="n">
-        <v>0.299077</v>
+        <v>0.634088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668709</v>
+        <v>0.292069</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.582197</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.301573</v>
+        <v>0.289936</v>
       </c>
       <c r="C99" t="n">
-        <v>0.291649</v>
+        <v>0.632251</v>
       </c>
       <c r="D99" t="n">
-        <v>0.65277</v>
+        <v>0.28428</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.577766</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.292452</v>
+        <v>0.283351</v>
       </c>
       <c r="C100" t="n">
-        <v>0.28819</v>
+        <v>0.635805</v>
       </c>
       <c r="D100" t="n">
-        <v>0.65794</v>
+        <v>0.282532</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.572562</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.283195</v>
+        <v>0.275318</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286063</v>
+        <v>0.641716</v>
       </c>
       <c r="D101" t="n">
-        <v>0.655898</v>
+        <v>0.28161</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.571825</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27714</v>
+        <v>0.268879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285962</v>
+        <v>0.635919</v>
       </c>
       <c r="D102" t="n">
-        <v>0.66952</v>
+        <v>0.278742</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.57302</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272068</v>
+        <v>0.263475</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282015</v>
+        <v>0.635645</v>
       </c>
       <c r="D103" t="n">
-        <v>0.670423</v>
+        <v>0.27642</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.580144</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.259541</v>
+        <v>0.255974</v>
       </c>
       <c r="C104" t="n">
-        <v>0.276643</v>
+        <v>0.639534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.669494</v>
+        <v>0.27482</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.56693</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252472</v>
+        <v>0.248702</v>
       </c>
       <c r="C105" t="n">
-        <v>0.281788</v>
+        <v>0.642572</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6638269999999999</v>
+        <v>0.273112</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.566576</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248417</v>
+        <v>0.241856</v>
       </c>
       <c r="C106" t="n">
-        <v>0.276355</v>
+        <v>0.64314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.661705</v>
+        <v>0.274433</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.56747</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241027</v>
+        <v>0.234086</v>
       </c>
       <c r="C107" t="n">
-        <v>0.282608</v>
+        <v>0.630903</v>
       </c>
       <c r="D107" t="n">
-        <v>0.647138</v>
+        <v>0.270265</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.565971</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232314</v>
+        <v>0.226741</v>
       </c>
       <c r="C108" t="n">
-        <v>0.303451</v>
+        <v>0.628996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.649014</v>
+        <v>0.299298</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.581348</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22039</v>
+        <v>0.216452</v>
       </c>
       <c r="C109" t="n">
-        <v>0.300561</v>
+        <v>0.632234</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665815</v>
+        <v>0.295097</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.582088</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.319265</v>
+        <v>0.308323</v>
       </c>
       <c r="C110" t="n">
-        <v>0.301581</v>
+        <v>0.630864</v>
       </c>
       <c r="D110" t="n">
-        <v>0.654616</v>
+        <v>0.293971</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.582496</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314247</v>
+        <v>0.303592</v>
       </c>
       <c r="C111" t="n">
-        <v>0.296328</v>
+        <v>0.635189</v>
       </c>
       <c r="D111" t="n">
-        <v>0.664407</v>
+        <v>0.294759</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.586045</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.303811</v>
+        <v>0.300399</v>
       </c>
       <c r="C112" t="n">
-        <v>0.294496</v>
+        <v>0.630884</v>
       </c>
       <c r="D112" t="n">
-        <v>0.658347</v>
+        <v>0.286685</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.576833</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.301825</v>
+        <v>0.290512</v>
       </c>
       <c r="C113" t="n">
-        <v>0.292841</v>
+        <v>0.631953</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654718</v>
+        <v>0.285595</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.581611</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.297206</v>
+        <v>0.286016</v>
       </c>
       <c r="C114" t="n">
-        <v>0.288374</v>
+        <v>0.630872</v>
       </c>
       <c r="D114" t="n">
-        <v>0.656865</v>
+        <v>0.282147</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.574783</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.284985</v>
+        <v>0.282782</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289157</v>
+        <v>0.630887</v>
       </c>
       <c r="D115" t="n">
-        <v>0.655609</v>
+        <v>0.281454</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.572576</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.274707</v>
+        <v>0.271718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.283968</v>
+        <v>0.632973</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6580279999999999</v>
+        <v>0.278855</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.571121</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273753</v>
+        <v>0.26611</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282739</v>
+        <v>0.637191</v>
       </c>
       <c r="D117" t="n">
-        <v>0.674993</v>
+        <v>0.277391</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.569038</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.266118</v>
+        <v>0.256727</v>
       </c>
       <c r="C118" t="n">
-        <v>0.283214</v>
+        <v>0.63719</v>
       </c>
       <c r="D118" t="n">
-        <v>0.65608</v>
+        <v>0.275658</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.571675</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.258618</v>
+        <v>0.25103</v>
       </c>
       <c r="C119" t="n">
-        <v>0.281222</v>
+        <v>0.644012</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6623830000000001</v>
+        <v>0.275328</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.571852</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.251433</v>
+        <v>0.243922</v>
       </c>
       <c r="C120" t="n">
-        <v>0.277591</v>
+        <v>0.650468</v>
       </c>
       <c r="D120" t="n">
-        <v>0.660169</v>
+        <v>0.27335</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.568235</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.238793</v>
+        <v>0.235551</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278532</v>
+        <v>0.641388</v>
       </c>
       <c r="D121" t="n">
-        <v>0.660092</v>
+        <v>0.270689</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.569684</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.235698</v>
+        <v>0.227399</v>
       </c>
       <c r="C122" t="n">
-        <v>0.277578</v>
+        <v>0.641749</v>
       </c>
       <c r="D122" t="n">
-        <v>0.662592</v>
+        <v>0.269301</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.569595</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224914</v>
+        <v>0.223223</v>
       </c>
       <c r="C123" t="n">
-        <v>0.306861</v>
+        <v>0.639469</v>
       </c>
       <c r="D123" t="n">
-        <v>0.65694</v>
+        <v>0.295046</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.584454</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319454</v>
+        <v>0.309608</v>
       </c>
       <c r="C124" t="n">
-        <v>0.301288</v>
+        <v>0.638638</v>
       </c>
       <c r="D124" t="n">
-        <v>0.666587</v>
+        <v>0.293865</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.589064</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.318131</v>
+        <v>0.307039</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297127</v>
+        <v>0.642191</v>
       </c>
       <c r="D125" t="n">
-        <v>0.666848</v>
+        <v>0.28991</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.582484</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306167</v>
+        <v>0.298588</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293138</v>
+        <v>0.638019</v>
       </c>
       <c r="D126" t="n">
-        <v>0.66111</v>
+        <v>0.288194</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.583902</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307599</v>
+        <v>0.291917</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296859</v>
+        <v>0.639456</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675383</v>
+        <v>0.289345</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.577562</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.298978</v>
+        <v>0.285261</v>
       </c>
       <c r="C128" t="n">
-        <v>0.290718</v>
+        <v>0.640292</v>
       </c>
       <c r="D128" t="n">
-        <v>0.681719</v>
+        <v>0.284421</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.57753</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.282513</v>
+        <v>0.279366</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293628</v>
+        <v>0.640423</v>
       </c>
       <c r="D129" t="n">
-        <v>0.652486</v>
+        <v>0.285953</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5786750000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.275142</v>
+        <v>0.272361</v>
       </c>
       <c r="C130" t="n">
-        <v>0.290167</v>
+        <v>0.642256</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6743400000000001</v>
+        <v>0.281317</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.571709</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.275255</v>
+        <v>0.265268</v>
       </c>
       <c r="C131" t="n">
-        <v>0.289206</v>
+        <v>0.64314</v>
       </c>
       <c r="D131" t="n">
-        <v>0.658729</v>
+        <v>0.278092</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.574532</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264604</v>
+        <v>0.26006</v>
       </c>
       <c r="C132" t="n">
-        <v>0.283128</v>
+        <v>0.643621</v>
       </c>
       <c r="D132" t="n">
-        <v>0.657908</v>
+        <v>0.275992</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.575771</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261102</v>
+        <v>0.252265</v>
       </c>
       <c r="C133" t="n">
-        <v>0.28431</v>
+        <v>0.654349</v>
       </c>
       <c r="D133" t="n">
-        <v>0.663723</v>
+        <v>0.274106</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.569493</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.25508</v>
+        <v>0.244391</v>
       </c>
       <c r="C134" t="n">
-        <v>0.283229</v>
+        <v>0.646612</v>
       </c>
       <c r="D134" t="n">
-        <v>0.674959</v>
+        <v>0.273493</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5686020000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247252</v>
+        <v>0.237549</v>
       </c>
       <c r="C135" t="n">
-        <v>0.279992</v>
+        <v>0.644659</v>
       </c>
       <c r="D135" t="n">
-        <v>0.683375</v>
+        <v>0.271208</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.57248</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238443</v>
+        <v>0.23062</v>
       </c>
       <c r="C136" t="n">
-        <v>0.27747</v>
+        <v>0.643439</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656767</v>
+        <v>0.270381</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.567554</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226073</v>
+        <v>0.221903</v>
       </c>
       <c r="C137" t="n">
-        <v>0.29917</v>
+        <v>0.644463</v>
       </c>
       <c r="D137" t="n">
-        <v>0.66307</v>
+        <v>0.297576</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.584724</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.323573</v>
+        <v>0.310916</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300052</v>
+        <v>0.64346</v>
       </c>
       <c r="D138" t="n">
-        <v>0.66822</v>
+        <v>0.292859</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.581499</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317694</v>
+        <v>0.30631</v>
       </c>
       <c r="C139" t="n">
-        <v>0.29781</v>
+        <v>0.644297</v>
       </c>
       <c r="D139" t="n">
-        <v>0.674701</v>
+        <v>0.290644</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.584831</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.305953</v>
+        <v>0.299336</v>
       </c>
       <c r="C140" t="n">
-        <v>0.293544</v>
+        <v>0.643886</v>
       </c>
       <c r="D140" t="n">
-        <v>0.673158</v>
+        <v>0.294692</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.586818</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306468</v>
+        <v>0.293193</v>
       </c>
       <c r="C141" t="n">
-        <v>0.294373</v>
+        <v>0.652231</v>
       </c>
       <c r="D141" t="n">
-        <v>0.665411</v>
+        <v>0.286132</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.578213</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.29615</v>
+        <v>0.287927</v>
       </c>
       <c r="C142" t="n">
-        <v>0.297841</v>
+        <v>0.642299</v>
       </c>
       <c r="D142" t="n">
-        <v>0.671634</v>
+        <v>0.283705</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.578566</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.286757</v>
+        <v>0.280304</v>
       </c>
       <c r="C143" t="n">
-        <v>0.287056</v>
+        <v>0.646354</v>
       </c>
       <c r="D143" t="n">
-        <v>0.670914</v>
+        <v>0.282834</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.577099</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -4140,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4178,16 +4178,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263748</v>
+        <v>0.255101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5417110000000001</v>
+        <v>0.538669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.263303</v>
+        <v>0.5517300000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.528066</v>
+        <v>0.276841</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.53474</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4198,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256783</v>
+        <v>0.254845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.552381</v>
+        <v>0.541587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.270006</v>
+        <v>0.551284</v>
       </c>
       <c r="E3" t="n">
-        <v>0.538546</v>
+        <v>0.266466</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.528267</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4218,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243726</v>
+        <v>0.242535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.548845</v>
+        <v>0.541523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261819</v>
+        <v>0.546217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.53269</v>
+        <v>0.270013</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.526351</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4238,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242111</v>
+        <v>0.240373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543594</v>
+        <v>0.535771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26957</v>
+        <v>0.54192</v>
       </c>
       <c r="E5" t="n">
-        <v>0.521836</v>
+        <v>0.255214</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.521931</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4258,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225737</v>
+        <v>0.230807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.532568</v>
+        <v>0.511865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.265601</v>
+        <v>0.5263060000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.528271</v>
+        <v>0.25377</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.520609</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4278,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224507</v>
+        <v>0.220413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.553453</v>
+        <v>0.49894</v>
       </c>
       <c r="D7" t="n">
-        <v>0.264506</v>
+        <v>0.533048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.520907</v>
+        <v>0.255738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.514743</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4298,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210193</v>
+        <v>0.213355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540502</v>
+        <v>0.504404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256092</v>
+        <v>0.540566</v>
       </c>
       <c r="E8" t="n">
-        <v>0.52047</v>
+        <v>0.258382</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.517891</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4318,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201037</v>
+        <v>0.201969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.536986</v>
+        <v>0.487809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.272999</v>
+        <v>0.54264</v>
       </c>
       <c r="E9" t="n">
-        <v>0.532972</v>
+        <v>0.271525</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.525408</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4338,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291915</v>
+        <v>0.293378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5363520000000001</v>
+        <v>0.564709</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272325</v>
+        <v>0.532095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5210090000000001</v>
+        <v>0.267258</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.527058</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4358,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285656</v>
+        <v>0.288748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.528208</v>
+        <v>0.549225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.267286</v>
+        <v>0.532402</v>
       </c>
       <c r="E11" t="n">
-        <v>0.527415</v>
+        <v>0.26772</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.519437</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4378,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.27897</v>
+        <v>0.285419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.527973</v>
+        <v>0.537483</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274224</v>
+        <v>0.533328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.52698</v>
+        <v>0.266213</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.525566</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4398,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27537</v>
+        <v>0.272824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.529433</v>
+        <v>0.530451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266698</v>
+        <v>0.535423</v>
       </c>
       <c r="E13" t="n">
-        <v>0.520909</v>
+        <v>0.262389</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.52781</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4418,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267104</v>
+        <v>0.267671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530085</v>
+        <v>0.528514</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263689</v>
+        <v>0.538484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.529576</v>
+        <v>0.264656</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.515701</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4438,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26288</v>
+        <v>0.270765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.535102</v>
+        <v>0.535161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.262924</v>
+        <v>0.537265</v>
       </c>
       <c r="E15" t="n">
-        <v>0.517941</v>
+        <v>0.271243</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5208930000000001</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4458,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25364</v>
+        <v>0.258467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.532022</v>
+        <v>0.523892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.261361</v>
+        <v>0.529666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5157040000000001</v>
+        <v>0.263081</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.515927</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4478,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254743</v>
+        <v>0.251023</v>
       </c>
       <c r="C17" t="n">
-        <v>0.537562</v>
+        <v>0.519656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.261231</v>
+        <v>0.526942</v>
       </c>
       <c r="E17" t="n">
-        <v>0.524905</v>
+        <v>0.259841</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.510614</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4498,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.242904</v>
+        <v>0.245178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.529216</v>
+        <v>0.523504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.258913</v>
+        <v>0.53259</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5107390000000001</v>
+        <v>0.263075</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.509088</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4518,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238667</v>
+        <v>0.239643</v>
       </c>
       <c r="C19" t="n">
-        <v>0.527922</v>
+        <v>0.507605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.259611</v>
+        <v>0.538194</v>
       </c>
       <c r="E19" t="n">
-        <v>0.522494</v>
+        <v>0.258523</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.517289</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4538,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23169</v>
+        <v>0.233881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.534501</v>
+        <v>0.508369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258996</v>
+        <v>0.52905</v>
       </c>
       <c r="E20" t="n">
-        <v>0.513624</v>
+        <v>0.257036</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.522165</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4558,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.223253</v>
+        <v>0.228007</v>
       </c>
       <c r="C21" t="n">
-        <v>0.543772</v>
+        <v>0.501539</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263014</v>
+        <v>0.5604479999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.519324</v>
+        <v>0.257333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.517145</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4578,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220462</v>
+        <v>0.218175</v>
       </c>
       <c r="C22" t="n">
-        <v>0.531395</v>
+        <v>0.496756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.259497</v>
+        <v>0.552551</v>
       </c>
       <c r="E22" t="n">
-        <v>0.506598</v>
+        <v>0.256035</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.519813</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4598,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.208008</v>
+        <v>0.209187</v>
       </c>
       <c r="C23" t="n">
-        <v>0.538255</v>
+        <v>0.493593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273819</v>
+        <v>0.5462</v>
       </c>
       <c r="E23" t="n">
-        <v>0.53193</v>
+        <v>0.280564</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.536334</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4618,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.289522</v>
+        <v>0.294917</v>
       </c>
       <c r="C24" t="n">
-        <v>0.541924</v>
+        <v>0.565649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.270429</v>
+        <v>0.561035</v>
       </c>
       <c r="E24" t="n">
-        <v>0.524376</v>
+        <v>0.276616</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.536129</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4638,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283839</v>
+        <v>0.289254</v>
       </c>
       <c r="C25" t="n">
-        <v>0.531829</v>
+        <v>0.549084</v>
       </c>
       <c r="D25" t="n">
-        <v>0.270381</v>
+        <v>0.554308</v>
       </c>
       <c r="E25" t="n">
-        <v>0.523779</v>
+        <v>0.282422</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.534013</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4658,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279274</v>
+        <v>0.285958</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543282</v>
+        <v>0.551076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268215</v>
+        <v>0.541015</v>
       </c>
       <c r="E26" t="n">
-        <v>0.517998</v>
+        <v>0.271227</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.531105</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4678,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276488</v>
+        <v>0.274053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.543119</v>
+        <v>0.5528149999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.277121</v>
+        <v>0.539045</v>
       </c>
       <c r="E27" t="n">
-        <v>0.520995</v>
+        <v>0.267811</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.521</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4698,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270751</v>
+        <v>0.273736</v>
       </c>
       <c r="C28" t="n">
-        <v>0.536821</v>
+        <v>0.5410160000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272504</v>
+        <v>0.5407999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.519383</v>
+        <v>0.272347</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.521567</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4718,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263604</v>
+        <v>0.265942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.537969</v>
+        <v>0.54495</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269032</v>
+        <v>0.543185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.521635</v>
+        <v>0.27239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.519618</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4738,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261671</v>
+        <v>0.260916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.538528</v>
+        <v>0.5329120000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.265031</v>
+        <v>0.546309</v>
       </c>
       <c r="E30" t="n">
-        <v>0.514039</v>
+        <v>0.268635</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.53359</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4758,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.251911</v>
+        <v>0.25323</v>
       </c>
       <c r="C31" t="n">
-        <v>0.528816</v>
+        <v>0.536457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269887</v>
+        <v>0.550406</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5270089999999999</v>
+        <v>0.267228</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.526481</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4778,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24685</v>
+        <v>0.247941</v>
       </c>
       <c r="C32" t="n">
-        <v>0.534548</v>
+        <v>0.521221</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262914</v>
+        <v>0.544195</v>
       </c>
       <c r="E32" t="n">
-        <v>0.516258</v>
+        <v>0.266652</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.519653</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4798,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242304</v>
+        <v>0.242199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.53011</v>
+        <v>0.515145</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264002</v>
+        <v>0.542334</v>
       </c>
       <c r="E33" t="n">
-        <v>0.514999</v>
+        <v>0.260806</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.524836</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4818,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.233062</v>
+        <v>0.241304</v>
       </c>
       <c r="C34" t="n">
-        <v>0.534353</v>
+        <v>0.515099</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270242</v>
+        <v>0.541666</v>
       </c>
       <c r="E34" t="n">
-        <v>0.51672</v>
+        <v>0.266277</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.523105</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4838,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.229322</v>
+        <v>0.228182</v>
       </c>
       <c r="C35" t="n">
-        <v>0.554999</v>
+        <v>0.49956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.263839</v>
+        <v>0.569398</v>
       </c>
       <c r="E35" t="n">
-        <v>0.518746</v>
+        <v>0.261743</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.517454</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4858,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.223</v>
+        <v>0.22291</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554126</v>
+        <v>0.5026</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259841</v>
+        <v>0.560046</v>
       </c>
       <c r="E36" t="n">
-        <v>0.525739</v>
+        <v>0.258519</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.511873</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4878,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214748</v>
+        <v>0.214943</v>
       </c>
       <c r="C37" t="n">
-        <v>0.561791</v>
+        <v>0.48989</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281802</v>
+        <v>0.558691</v>
       </c>
       <c r="E37" t="n">
-        <v>0.531684</v>
+        <v>0.281501</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5260010000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4898,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.297491</v>
+        <v>0.294503</v>
       </c>
       <c r="C38" t="n">
-        <v>0.547986</v>
+        <v>0.55419</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275107</v>
+        <v>0.5586410000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5301670000000001</v>
+        <v>0.278127</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.524264</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4918,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289647</v>
+        <v>0.294041</v>
       </c>
       <c r="C39" t="n">
-        <v>0.545781</v>
+        <v>0.546583</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279379</v>
+        <v>0.55884</v>
       </c>
       <c r="E39" t="n">
-        <v>0.524486</v>
+        <v>0.280389</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.528565</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4938,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.286797</v>
+        <v>0.287726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.555782</v>
+        <v>0.550717</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274849</v>
+        <v>0.562106</v>
       </c>
       <c r="E40" t="n">
-        <v>0.523423</v>
+        <v>0.272792</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.529135</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4958,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.28186</v>
+        <v>0.285282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.561202</v>
+        <v>0.540951</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2763</v>
+        <v>0.565737</v>
       </c>
       <c r="E41" t="n">
-        <v>0.522496</v>
+        <v>0.275566</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.523965</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4978,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.274516</v>
+        <v>0.274006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5560349999999999</v>
+        <v>0.547354</v>
       </c>
       <c r="D42" t="n">
-        <v>0.273223</v>
+        <v>0.566449</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5182</v>
+        <v>0.272874</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.529007</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4998,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.270618</v>
+        <v>0.27696</v>
       </c>
       <c r="C43" t="n">
-        <v>0.550135</v>
+        <v>0.5439850000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.275241</v>
+        <v>0.562242</v>
       </c>
       <c r="E43" t="n">
-        <v>0.520523</v>
+        <v>0.271227</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.51633</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +5018,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264169</v>
+        <v>0.263345</v>
       </c>
       <c r="C44" t="n">
-        <v>0.557434</v>
+        <v>0.524986</v>
       </c>
       <c r="D44" t="n">
-        <v>0.268939</v>
+        <v>0.568851</v>
       </c>
       <c r="E44" t="n">
-        <v>0.520746</v>
+        <v>0.269085</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.52068</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +5038,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25883</v>
+        <v>0.259304</v>
       </c>
       <c r="C45" t="n">
-        <v>0.557025</v>
+        <v>0.531375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26789</v>
+        <v>0.563319</v>
       </c>
       <c r="E45" t="n">
-        <v>0.520853</v>
+        <v>0.270397</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.532498</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +5058,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.257475</v>
+        <v>0.254999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.560985</v>
+        <v>0.522201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.272845</v>
+        <v>0.56758</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5151559999999999</v>
+        <v>0.26719</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5154260000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +5078,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248032</v>
+        <v>0.245547</v>
       </c>
       <c r="C47" t="n">
-        <v>0.564966</v>
+        <v>0.519176</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27104</v>
+        <v>0.576519</v>
       </c>
       <c r="E47" t="n">
-        <v>0.519711</v>
+        <v>0.267681</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.528466</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +5098,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.238609</v>
+        <v>0.238274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5688530000000001</v>
+        <v>0.512151</v>
       </c>
       <c r="D48" t="n">
-        <v>0.265737</v>
+        <v>0.571156</v>
       </c>
       <c r="E48" t="n">
-        <v>0.514673</v>
+        <v>0.265483</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.523675</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +5118,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233827</v>
+        <v>0.233585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.570572</v>
+        <v>0.519438</v>
       </c>
       <c r="D49" t="n">
-        <v>0.263289</v>
+        <v>0.578968</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5206</v>
+        <v>0.263963</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5210630000000001</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +5138,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236395</v>
+        <v>0.22776</v>
       </c>
       <c r="C50" t="n">
-        <v>0.631064</v>
+        <v>0.502026</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259959</v>
+        <v>0.646802</v>
       </c>
       <c r="E50" t="n">
-        <v>0.519411</v>
+        <v>0.265988</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.520605</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5158,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219581</v>
+        <v>0.221818</v>
       </c>
       <c r="C51" t="n">
-        <v>0.638357</v>
+        <v>0.499428</v>
       </c>
       <c r="D51" t="n">
-        <v>0.290393</v>
+        <v>0.6498350000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.535913</v>
+        <v>0.289338</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5444290000000001</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5178,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.212395</v>
+        <v>0.208262</v>
       </c>
       <c r="C52" t="n">
-        <v>0.639583</v>
+        <v>0.490857</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28781</v>
+        <v>0.652135</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5335490000000001</v>
+        <v>0.287918</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.539594</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5198,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.297468</v>
+        <v>0.299855</v>
       </c>
       <c r="C53" t="n">
-        <v>0.636672</v>
+        <v>0.579081</v>
       </c>
       <c r="D53" t="n">
-        <v>0.28362</v>
+        <v>0.651495</v>
       </c>
       <c r="E53" t="n">
-        <v>0.537403</v>
+        <v>0.284028</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.548668</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5218,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295334</v>
+        <v>0.295517</v>
       </c>
       <c r="C54" t="n">
-        <v>0.646034</v>
+        <v>0.57833</v>
       </c>
       <c r="D54" t="n">
-        <v>0.281063</v>
+        <v>0.651522</v>
       </c>
       <c r="E54" t="n">
-        <v>0.54609</v>
+        <v>0.278773</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.542137</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5238,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.292</v>
+        <v>0.293453</v>
       </c>
       <c r="C55" t="n">
-        <v>0.642082</v>
+        <v>0.57601</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283807</v>
+        <v>0.646852</v>
       </c>
       <c r="E55" t="n">
-        <v>0.542112</v>
+        <v>0.280126</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.54918</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5258,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.283929</v>
+        <v>0.281481</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6507810000000001</v>
+        <v>0.56546</v>
       </c>
       <c r="D56" t="n">
-        <v>0.282182</v>
+        <v>0.6496459999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.545825</v>
+        <v>0.279476</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5358270000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5278,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.279448</v>
+        <v>0.276335</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647529</v>
+        <v>0.569774</v>
       </c>
       <c r="D57" t="n">
-        <v>0.276768</v>
+        <v>0.665353</v>
       </c>
       <c r="E57" t="n">
-        <v>0.548215</v>
+        <v>0.27584</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5325260000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5298,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.27326</v>
+        <v>0.272763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6400439999999999</v>
+        <v>0.567878</v>
       </c>
       <c r="D58" t="n">
-        <v>0.276017</v>
+        <v>0.6571979999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.545034</v>
+        <v>0.281567</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.535142</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5318,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.262933</v>
+        <v>0.264278</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6564449999999999</v>
+        <v>0.559653</v>
       </c>
       <c r="D59" t="n">
-        <v>0.27604</v>
+        <v>0.650173</v>
       </c>
       <c r="E59" t="n">
-        <v>0.541669</v>
+        <v>0.275992</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.537561</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5338,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25892</v>
+        <v>0.257758</v>
       </c>
       <c r="C60" t="n">
-        <v>0.654226</v>
+        <v>0.558039</v>
       </c>
       <c r="D60" t="n">
-        <v>0.27145</v>
+        <v>0.655147</v>
       </c>
       <c r="E60" t="n">
-        <v>0.554278</v>
+        <v>0.272281</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.539283</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5358,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.251848</v>
+        <v>0.254155</v>
       </c>
       <c r="C61" t="n">
-        <v>0.653346</v>
+        <v>0.561179</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27265</v>
+        <v>0.649361</v>
       </c>
       <c r="E61" t="n">
-        <v>0.546367</v>
+        <v>0.268232</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.535461</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5378,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.246994</v>
+        <v>0.245941</v>
       </c>
       <c r="C62" t="n">
-        <v>0.657698</v>
+        <v>0.549545</v>
       </c>
       <c r="D62" t="n">
-        <v>0.267519</v>
+        <v>0.6682900000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.533147</v>
+        <v>0.271314</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.537166</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5398,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.236911</v>
+        <v>0.237215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.653999</v>
+        <v>0.550719</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274642</v>
+        <v>0.664104</v>
       </c>
       <c r="E63" t="n">
-        <v>0.535747</v>
+        <v>0.269508</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.540566</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5418,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.232014</v>
+        <v>0.231726</v>
       </c>
       <c r="C64" t="n">
-        <v>0.719231</v>
+        <v>0.541096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.265828</v>
+        <v>0.724651</v>
       </c>
       <c r="E64" t="n">
-        <v>0.537816</v>
+        <v>0.266499</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.535457</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5438,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226293</v>
+        <v>0.222773</v>
       </c>
       <c r="C65" t="n">
-        <v>0.703352</v>
+        <v>0.543602</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271471</v>
+        <v>0.724899</v>
       </c>
       <c r="E65" t="n">
-        <v>0.550617</v>
+        <v>0.264471</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.543459</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5458,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.216801</v>
+        <v>0.215636</v>
       </c>
       <c r="C66" t="n">
-        <v>0.693771</v>
+        <v>0.536326</v>
       </c>
       <c r="D66" t="n">
-        <v>0.291977</v>
+        <v>0.730979</v>
       </c>
       <c r="E66" t="n">
-        <v>0.558526</v>
+        <v>0.295614</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.563966</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5478,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.310723</v>
+        <v>0.310859</v>
       </c>
       <c r="C67" t="n">
-        <v>0.71258</v>
+        <v>0.6261060000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.291443</v>
+        <v>0.715012</v>
       </c>
       <c r="E67" t="n">
-        <v>0.55496</v>
+        <v>0.289336</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.560994</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5498,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.300775</v>
+        <v>0.308786</v>
       </c>
       <c r="C68" t="n">
-        <v>0.696315</v>
+        <v>0.623007</v>
       </c>
       <c r="D68" t="n">
-        <v>0.289743</v>
+        <v>0.719252</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5632509999999999</v>
+        <v>0.284994</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.566543</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5518,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30154</v>
+        <v>0.301361</v>
       </c>
       <c r="C69" t="n">
-        <v>0.697537</v>
+        <v>0.6282720000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2823</v>
+        <v>0.716792</v>
       </c>
       <c r="E69" t="n">
-        <v>0.554565</v>
+        <v>0.284772</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5614209999999999</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5538,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.290699</v>
+        <v>0.291633</v>
       </c>
       <c r="C70" t="n">
-        <v>0.693291</v>
+        <v>0.619444</v>
       </c>
       <c r="D70" t="n">
-        <v>0.282066</v>
+        <v>0.707111</v>
       </c>
       <c r="E70" t="n">
-        <v>0.557551</v>
+        <v>0.283364</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.559608</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5558,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.285588</v>
+        <v>0.28535</v>
       </c>
       <c r="C71" t="n">
-        <v>0.681617</v>
+        <v>0.621055</v>
       </c>
       <c r="D71" t="n">
-        <v>0.280326</v>
+        <v>0.708838</v>
       </c>
       <c r="E71" t="n">
-        <v>0.550929</v>
+        <v>0.285299</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.559702</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5578,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.281968</v>
+        <v>0.276405</v>
       </c>
       <c r="C72" t="n">
-        <v>0.695825</v>
+        <v>0.610567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.281145</v>
+        <v>0.703678</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5584249999999999</v>
+        <v>0.283394</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.561134</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5598,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274421</v>
+        <v>0.276899</v>
       </c>
       <c r="C73" t="n">
-        <v>0.682662</v>
+        <v>0.6054389999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276589</v>
+        <v>0.699994</v>
       </c>
       <c r="E73" t="n">
-        <v>0.55263</v>
+        <v>0.275927</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.562521</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5618,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.263816</v>
+        <v>0.268061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.677686</v>
+        <v>0.598978</v>
       </c>
       <c r="D74" t="n">
-        <v>0.276085</v>
+        <v>0.702053</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5478</v>
+        <v>0.277421</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.569839</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5638,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.255983</v>
+        <v>0.260761</v>
       </c>
       <c r="C75" t="n">
-        <v>0.692725</v>
+        <v>0.602155</v>
       </c>
       <c r="D75" t="n">
-        <v>0.280428</v>
+        <v>0.716363</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5478460000000001</v>
+        <v>0.278161</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.561738</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5658,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252966</v>
+        <v>0.256341</v>
       </c>
       <c r="C76" t="n">
-        <v>0.682979</v>
+        <v>0.595268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26958</v>
+        <v>0.7005169999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5492</v>
+        <v>0.275309</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.565741</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5678,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.246596</v>
+        <v>0.25036</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6825290000000001</v>
+        <v>0.591022</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271893</v>
+        <v>0.711834</v>
       </c>
       <c r="E77" t="n">
-        <v>0.547071</v>
+        <v>0.274208</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.560424</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5698,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240315</v>
+        <v>0.237829</v>
       </c>
       <c r="C78" t="n">
-        <v>0.73714</v>
+        <v>0.585276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269</v>
+        <v>0.785799</v>
       </c>
       <c r="E78" t="n">
-        <v>0.552643</v>
+        <v>0.270554</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.556644</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5718,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228012</v>
+        <v>0.229132</v>
       </c>
       <c r="C79" t="n">
-        <v>0.735125</v>
+        <v>0.581351</v>
       </c>
       <c r="D79" t="n">
-        <v>0.266603</v>
+        <v>0.758012</v>
       </c>
       <c r="E79" t="n">
-        <v>0.545027</v>
+        <v>0.275332</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5575560000000001</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5738,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.22579</v>
+        <v>0.219421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.728032</v>
+        <v>0.562895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.300799</v>
+        <v>0.763151</v>
       </c>
       <c r="E80" t="n">
-        <v>0.559347</v>
+        <v>0.304576</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.568441</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5758,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318279</v>
+        <v>0.318925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7272650000000001</v>
+        <v>0.645099</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293431</v>
+        <v>0.752562</v>
       </c>
       <c r="E81" t="n">
-        <v>0.563481</v>
+        <v>0.303285</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.579758</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5778,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.305575</v>
+        <v>0.312366</v>
       </c>
       <c r="C82" t="n">
-        <v>0.716371</v>
+        <v>0.6413990000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.292807</v>
+        <v>0.746399</v>
       </c>
       <c r="E82" t="n">
-        <v>0.556575</v>
+        <v>0.291921</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.579176</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5798,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.301935</v>
+        <v>0.307895</v>
       </c>
       <c r="C83" t="n">
-        <v>0.720767</v>
+        <v>0.635255</v>
       </c>
       <c r="D83" t="n">
-        <v>0.288376</v>
+        <v>0.739697</v>
       </c>
       <c r="E83" t="n">
-        <v>0.556822</v>
+        <v>0.291117</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.572905</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5818,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.295252</v>
+        <v>0.298353</v>
       </c>
       <c r="C84" t="n">
-        <v>0.744822</v>
+        <v>0.6632169999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.289363</v>
+        <v>0.761177</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5828989999999999</v>
+        <v>0.296047</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.586574</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5838,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.292329</v>
+        <v>0.29516</v>
       </c>
       <c r="C85" t="n">
-        <v>0.737556</v>
+        <v>0.658641</v>
       </c>
       <c r="D85" t="n">
-        <v>0.288089</v>
+        <v>0.7537160000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5765</v>
+        <v>0.284528</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.595218</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5858,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.281024</v>
+        <v>0.287136</v>
       </c>
       <c r="C86" t="n">
-        <v>0.752985</v>
+        <v>0.659642</v>
       </c>
       <c r="D86" t="n">
-        <v>0.283601</v>
+        <v>0.7667580000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.582005</v>
+        <v>0.282125</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5833469999999999</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5878,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.275111</v>
+        <v>0.274908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.73206</v>
+        <v>0.659421</v>
       </c>
       <c r="D87" t="n">
-        <v>0.280046</v>
+        <v>0.75307</v>
       </c>
       <c r="E87" t="n">
-        <v>0.580022</v>
+        <v>0.279984</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.587605</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5898,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270847</v>
+        <v>0.27725</v>
       </c>
       <c r="C88" t="n">
-        <v>0.748727</v>
+        <v>0.6400940000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.278578</v>
+        <v>0.7555269999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.57545</v>
+        <v>0.284213</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.590814</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5918,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.259904</v>
+        <v>0.262588</v>
       </c>
       <c r="C89" t="n">
-        <v>0.72934</v>
+        <v>0.628016</v>
       </c>
       <c r="D89" t="n">
-        <v>0.283995</v>
+        <v>0.76505</v>
       </c>
       <c r="E89" t="n">
-        <v>0.575584</v>
+        <v>0.279354</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.586431</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5938,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260417</v>
+        <v>0.253808</v>
       </c>
       <c r="C90" t="n">
-        <v>0.726254</v>
+        <v>0.629792</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277153</v>
+        <v>0.758771</v>
       </c>
       <c r="E90" t="n">
-        <v>0.573705</v>
+        <v>0.275774</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.584434</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5958,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253488</v>
+        <v>0.250382</v>
       </c>
       <c r="C91" t="n">
-        <v>0.734087</v>
+        <v>0.627426</v>
       </c>
       <c r="D91" t="n">
-        <v>0.271751</v>
+        <v>0.770092</v>
       </c>
       <c r="E91" t="n">
-        <v>0.570451</v>
+        <v>0.275761</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.579485</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5978,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.23991</v>
+        <v>0.245131</v>
       </c>
       <c r="C92" t="n">
-        <v>0.649212</v>
+        <v>0.623756</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273758</v>
+        <v>0.670482</v>
       </c>
       <c r="E92" t="n">
-        <v>0.568634</v>
+        <v>0.270803</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.583929</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5998,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234558</v>
+        <v>0.233423</v>
       </c>
       <c r="C93" t="n">
-        <v>0.650583</v>
+        <v>0.607245</v>
       </c>
       <c r="D93" t="n">
-        <v>0.271982</v>
+        <v>0.657091</v>
       </c>
       <c r="E93" t="n">
-        <v>0.572305</v>
+        <v>0.276277</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.575487</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +6018,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225087</v>
+        <v>0.225815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.65776</v>
+        <v>0.603983</v>
       </c>
       <c r="D94" t="n">
-        <v>0.296278</v>
+        <v>0.666804</v>
       </c>
       <c r="E94" t="n">
-        <v>0.584184</v>
+        <v>0.302008</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.598505</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +6038,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.313515</v>
+        <v>0.320129</v>
       </c>
       <c r="C95" t="n">
-        <v>0.649629</v>
+        <v>0.6606880000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.294888</v>
+        <v>0.670731</v>
       </c>
       <c r="E95" t="n">
-        <v>0.59419</v>
+        <v>0.295205</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.586273</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +6058,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.314779</v>
+        <v>0.314507</v>
       </c>
       <c r="C96" t="n">
-        <v>0.642922</v>
+        <v>0.6445380000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.299991</v>
+        <v>0.659309</v>
       </c>
       <c r="E96" t="n">
-        <v>0.586897</v>
+        <v>0.297555</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.59398</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +6078,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.302275</v>
+        <v>0.308862</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6393219999999999</v>
+        <v>0.638571</v>
       </c>
       <c r="D97" t="n">
-        <v>0.298862</v>
+        <v>0.663575</v>
       </c>
       <c r="E97" t="n">
-        <v>0.579549</v>
+        <v>0.29133</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.596906</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +6098,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.30398</v>
+        <v>0.30887</v>
       </c>
       <c r="C98" t="n">
-        <v>0.645527</v>
+        <v>0.637332</v>
       </c>
       <c r="D98" t="n">
-        <v>0.286103</v>
+        <v>0.663424</v>
       </c>
       <c r="E98" t="n">
-        <v>0.593034</v>
+        <v>0.291233</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.586425</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +6118,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.289634</v>
+        <v>0.299652</v>
       </c>
       <c r="C99" t="n">
-        <v>0.643702</v>
+        <v>0.634259</v>
       </c>
       <c r="D99" t="n">
-        <v>0.288484</v>
+        <v>0.670377</v>
       </c>
       <c r="E99" t="n">
-        <v>0.589623</v>
+        <v>0.289169</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.586365</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +6138,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284848</v>
+        <v>0.284378</v>
       </c>
       <c r="C100" t="n">
-        <v>0.645689</v>
+        <v>0.660363</v>
       </c>
       <c r="D100" t="n">
-        <v>0.282993</v>
+        <v>0.661125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.587788</v>
+        <v>0.283426</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.587349</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +6158,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.276456</v>
+        <v>0.277994</v>
       </c>
       <c r="C101" t="n">
-        <v>0.63941</v>
+        <v>0.655686</v>
       </c>
       <c r="D101" t="n">
-        <v>0.284624</v>
+        <v>0.653451</v>
       </c>
       <c r="E101" t="n">
-        <v>0.578529</v>
+        <v>0.283122</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.582668</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +6178,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.271551</v>
+        <v>0.27312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.643763</v>
+        <v>0.647442</v>
       </c>
       <c r="D102" t="n">
-        <v>0.277824</v>
+        <v>0.666726</v>
       </c>
       <c r="E102" t="n">
-        <v>0.583264</v>
+        <v>0.28176</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.579901</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +6198,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266146</v>
+        <v>0.265748</v>
       </c>
       <c r="C103" t="n">
-        <v>0.640646</v>
+        <v>0.6507579999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.278183</v>
+        <v>0.662031</v>
       </c>
       <c r="E103" t="n">
-        <v>0.578812</v>
+        <v>0.281549</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.585184</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +6218,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.256016</v>
+        <v>0.258453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6479279999999999</v>
+        <v>0.639375</v>
       </c>
       <c r="D104" t="n">
-        <v>0.275073</v>
+        <v>0.668238</v>
       </c>
       <c r="E104" t="n">
-        <v>0.585531</v>
+        <v>0.276541</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.582543</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +6238,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252049</v>
+        <v>0.25307</v>
       </c>
       <c r="C105" t="n">
-        <v>0.653892</v>
+        <v>0.628995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.273541</v>
+        <v>0.664703</v>
       </c>
       <c r="E105" t="n">
-        <v>0.573851</v>
+        <v>0.275035</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.589278</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +6258,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242716</v>
+        <v>0.242869</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6459819999999999</v>
+        <v>0.6341869999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.274734</v>
+        <v>0.673213</v>
       </c>
       <c r="E106" t="n">
-        <v>0.57116</v>
+        <v>0.276863</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.5893080000000001</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +6278,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233417</v>
+        <v>0.237729</v>
       </c>
       <c r="C107" t="n">
-        <v>0.649119</v>
+        <v>0.617521</v>
       </c>
       <c r="D107" t="n">
-        <v>0.273077</v>
+        <v>0.659521</v>
       </c>
       <c r="E107" t="n">
-        <v>0.581159</v>
+        <v>0.276229</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.583377</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +6298,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226815</v>
+        <v>0.229407</v>
       </c>
       <c r="C108" t="n">
-        <v>0.634252</v>
+        <v>0.611913</v>
       </c>
       <c r="D108" t="n">
-        <v>0.299898</v>
+        <v>0.672311</v>
       </c>
       <c r="E108" t="n">
-        <v>0.587887</v>
+        <v>0.305497</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.595194</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +6318,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219925</v>
+        <v>0.217608</v>
       </c>
       <c r="C109" t="n">
-        <v>0.633429</v>
+        <v>0.5994660000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.295264</v>
+        <v>0.6632710000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583447</v>
+        <v>0.29719</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.592567</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6338,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.310772</v>
+        <v>0.320169</v>
       </c>
       <c r="C110" t="n">
-        <v>0.638753</v>
+        <v>0.653041</v>
       </c>
       <c r="D110" t="n">
-        <v>0.296379</v>
+        <v>0.652452</v>
       </c>
       <c r="E110" t="n">
-        <v>0.585167</v>
+        <v>0.29523</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.589655</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6358,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.30533</v>
+        <v>0.306169</v>
       </c>
       <c r="C111" t="n">
-        <v>0.64293</v>
+        <v>0.654689</v>
       </c>
       <c r="D111" t="n">
-        <v>0.290558</v>
+        <v>0.655869</v>
       </c>
       <c r="E111" t="n">
-        <v>0.585674</v>
+        <v>0.293299</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.5906439999999999</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6378,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.295543</v>
+        <v>0.300787</v>
       </c>
       <c r="C112" t="n">
-        <v>0.644408</v>
+        <v>0.6395189999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.289032</v>
+        <v>0.650423</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5886</v>
+        <v>0.28804</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.588266</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6398,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.294953</v>
+        <v>0.292277</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6404879999999999</v>
+        <v>0.637182</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287688</v>
+        <v>0.652906</v>
       </c>
       <c r="E113" t="n">
-        <v>0.580573</v>
+        <v>0.288365</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.591537</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6418,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284728</v>
+        <v>0.287973</v>
       </c>
       <c r="C114" t="n">
-        <v>0.632408</v>
+        <v>0.6298859999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.28282</v>
+        <v>0.651187</v>
       </c>
       <c r="E114" t="n">
-        <v>0.581326</v>
+        <v>0.284662</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.587706</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6438,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.277119</v>
+        <v>0.279331</v>
       </c>
       <c r="C115" t="n">
-        <v>0.644864</v>
+        <v>0.629202</v>
       </c>
       <c r="D115" t="n">
-        <v>0.283501</v>
+        <v>0.653446</v>
       </c>
       <c r="E115" t="n">
-        <v>0.581537</v>
+        <v>0.282149</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5787679999999999</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6458,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271027</v>
+        <v>0.272079</v>
       </c>
       <c r="C116" t="n">
-        <v>0.63788</v>
+        <v>0.619478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.285032</v>
+        <v>0.656204</v>
       </c>
       <c r="E116" t="n">
-        <v>0.575948</v>
+        <v>0.279701</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.584139</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6478,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.267799</v>
+        <v>0.2676</v>
       </c>
       <c r="C117" t="n">
-        <v>0.639215</v>
+        <v>0.617909</v>
       </c>
       <c r="D117" t="n">
-        <v>0.27837</v>
+        <v>0.660662</v>
       </c>
       <c r="E117" t="n">
-        <v>0.577269</v>
+        <v>0.280402</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.577919</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6498,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.259796</v>
+        <v>0.261048</v>
       </c>
       <c r="C118" t="n">
-        <v>0.651271</v>
+        <v>0.617255</v>
       </c>
       <c r="D118" t="n">
-        <v>0.276661</v>
+        <v>0.66961</v>
       </c>
       <c r="E118" t="n">
-        <v>0.575562</v>
+        <v>0.277707</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.581237</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6518,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.251082</v>
+        <v>0.251416</v>
       </c>
       <c r="C119" t="n">
-        <v>0.64386</v>
+        <v>0.6095660000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.273954</v>
+        <v>0.6760389999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.576198</v>
+        <v>0.277906</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.578399</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6538,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.24418</v>
+        <v>0.243733</v>
       </c>
       <c r="C120" t="n">
-        <v>0.652106</v>
+        <v>0.601038</v>
       </c>
       <c r="D120" t="n">
-        <v>0.277948</v>
+        <v>0.662303</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5723200000000001</v>
+        <v>0.275296</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.584027</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6558,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236524</v>
+        <v>0.23613</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6548620000000001</v>
+        <v>0.590101</v>
       </c>
       <c r="D121" t="n">
-        <v>0.273596</v>
+        <v>0.661096</v>
       </c>
       <c r="E121" t="n">
-        <v>0.571624</v>
+        <v>0.272154</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.582317</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6578,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228923</v>
+        <v>0.229691</v>
       </c>
       <c r="C122" t="n">
-        <v>0.65615</v>
+        <v>0.595193</v>
       </c>
       <c r="D122" t="n">
-        <v>0.269883</v>
+        <v>0.67388</v>
       </c>
       <c r="E122" t="n">
-        <v>0.568408</v>
+        <v>0.271685</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.579611</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6598,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.219183</v>
+        <v>0.222313</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6430090000000001</v>
+        <v>0.615062</v>
       </c>
       <c r="D123" t="n">
-        <v>0.30231</v>
+        <v>0.666951</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5932730000000001</v>
+        <v>0.296592</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.605295</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6618,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.308511</v>
+        <v>0.315508</v>
       </c>
       <c r="C124" t="n">
-        <v>0.64394</v>
+        <v>0.662102</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294446</v>
+        <v>0.659443</v>
       </c>
       <c r="E124" t="n">
-        <v>0.596159</v>
+        <v>0.294977</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.607861</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6638,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30586</v>
+        <v>0.307885</v>
       </c>
       <c r="C125" t="n">
-        <v>0.646798</v>
+        <v>0.6401019999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.295142</v>
+        <v>0.668782</v>
       </c>
       <c r="E125" t="n">
-        <v>0.583956</v>
+        <v>0.293679</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.591682</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6658,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299091</v>
+        <v>0.306187</v>
       </c>
       <c r="C126" t="n">
-        <v>0.651884</v>
+        <v>0.637513</v>
       </c>
       <c r="D126" t="n">
-        <v>0.28953</v>
+        <v>0.655681</v>
       </c>
       <c r="E126" t="n">
-        <v>0.585994</v>
+        <v>0.287581</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.603029</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6678,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296096</v>
+        <v>0.294988</v>
       </c>
       <c r="C127" t="n">
-        <v>0.640752</v>
+        <v>0.649087</v>
       </c>
       <c r="D127" t="n">
-        <v>0.28789</v>
+        <v>0.67194</v>
       </c>
       <c r="E127" t="n">
-        <v>0.578578</v>
+        <v>0.288208</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.59078</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6698,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.285404</v>
+        <v>0.290127</v>
       </c>
       <c r="C128" t="n">
-        <v>0.639558</v>
+        <v>0.6330789999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.286096</v>
+        <v>0.671001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.580043</v>
+        <v>0.284426</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.59309</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6718,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.281437</v>
+        <v>0.284887</v>
       </c>
       <c r="C129" t="n">
-        <v>0.652811</v>
+        <v>0.637913</v>
       </c>
       <c r="D129" t="n">
-        <v>0.281571</v>
+        <v>0.658246</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5819029999999999</v>
+        <v>0.291162</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.580199</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6738,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273554</v>
+        <v>0.274006</v>
       </c>
       <c r="C130" t="n">
-        <v>0.649518</v>
+        <v>0.615621</v>
       </c>
       <c r="D130" t="n">
-        <v>0.286803</v>
+        <v>0.666172</v>
       </c>
       <c r="E130" t="n">
-        <v>0.577805</v>
+        <v>0.284195</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.582849</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6758,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.265181</v>
+        <v>0.268103</v>
       </c>
       <c r="C131" t="n">
-        <v>0.645827</v>
+        <v>0.659327</v>
       </c>
       <c r="D131" t="n">
-        <v>0.279346</v>
+        <v>0.668779</v>
       </c>
       <c r="E131" t="n">
-        <v>0.580539</v>
+        <v>0.283688</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.588995</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6778,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259433</v>
+        <v>0.259001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.644446</v>
+        <v>0.605255</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2772</v>
+        <v>0.664618</v>
       </c>
       <c r="E132" t="n">
-        <v>0.579959</v>
+        <v>0.280539</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.58364</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6798,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253451</v>
+        <v>0.254658</v>
       </c>
       <c r="C133" t="n">
-        <v>0.645061</v>
+        <v>0.632059</v>
       </c>
       <c r="D133" t="n">
-        <v>0.275146</v>
+        <v>0.6812049999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.586548</v>
+        <v>0.276078</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.591611</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6818,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.245838</v>
+        <v>0.244585</v>
       </c>
       <c r="C134" t="n">
-        <v>0.648551</v>
+        <v>0.597191</v>
       </c>
       <c r="D134" t="n">
-        <v>0.279092</v>
+        <v>0.670656</v>
       </c>
       <c r="E134" t="n">
-        <v>0.572869</v>
+        <v>0.280104</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.5830650000000001</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6838,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.238799</v>
+        <v>0.237747</v>
       </c>
       <c r="C135" t="n">
-        <v>0.647872</v>
+        <v>0.62999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.272353</v>
+        <v>0.678636</v>
       </c>
       <c r="E135" t="n">
-        <v>0.574897</v>
+        <v>0.272853</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.5818449999999999</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6858,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229164</v>
+        <v>0.228841</v>
       </c>
       <c r="C136" t="n">
-        <v>0.664615</v>
+        <v>0.585704</v>
       </c>
       <c r="D136" t="n">
-        <v>0.272099</v>
+        <v>0.676158</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5730420000000001</v>
+        <v>0.28021</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.584264</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6878,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.222472</v>
+        <v>0.227193</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6438739999999999</v>
+        <v>0.611279</v>
       </c>
       <c r="D137" t="n">
-        <v>0.297314</v>
+        <v>0.686095</v>
       </c>
       <c r="E137" t="n">
-        <v>0.588669</v>
+        <v>0.306157</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.59798</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6898,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.315416</v>
+        <v>0.318577</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65425</v>
+        <v>0.661923</v>
       </c>
       <c r="D138" t="n">
-        <v>0.299234</v>
+        <v>0.660977</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5894239999999999</v>
+        <v>0.298668</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.597959</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6918,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.307482</v>
+        <v>0.312638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.64312</v>
+        <v>0.671994</v>
       </c>
       <c r="D139" t="n">
-        <v>0.292887</v>
+        <v>0.666169</v>
       </c>
       <c r="E139" t="n">
-        <v>0.591736</v>
+        <v>0.292941</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.59879</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6938,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.30041</v>
+        <v>0.307719</v>
       </c>
       <c r="C140" t="n">
-        <v>0.641599</v>
+        <v>0.638109</v>
       </c>
       <c r="D140" t="n">
-        <v>0.293777</v>
+        <v>0.681915</v>
       </c>
       <c r="E140" t="n">
-        <v>0.587138</v>
+        <v>0.289263</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.588379</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6958,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.299339</v>
+        <v>0.299361</v>
       </c>
       <c r="C141" t="n">
-        <v>0.643962</v>
+        <v>0.636695</v>
       </c>
       <c r="D141" t="n">
-        <v>0.286208</v>
+        <v>0.689447</v>
       </c>
       <c r="E141" t="n">
-        <v>0.578395</v>
+        <v>0.28884</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.594588</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6978,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.288734</v>
+        <v>0.289649</v>
       </c>
       <c r="C142" t="n">
-        <v>0.647112</v>
+        <v>0.631952</v>
       </c>
       <c r="D142" t="n">
-        <v>0.288623</v>
+        <v>0.669966</v>
       </c>
       <c r="E142" t="n">
-        <v>0.578649</v>
+        <v>0.284878</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.593433</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6998,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.284156</v>
+        <v>0.286555</v>
       </c>
       <c r="C143" t="n">
-        <v>0.643645</v>
+        <v>0.637352</v>
       </c>
       <c r="D143" t="n">
-        <v>0.283344</v>
+        <v>0.680583</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5768720000000001</v>
+        <v>0.282684</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.593781</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.263191</v>
+                  <v>0.255101</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.248206</v>
+                  <v>0.254845</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.242032</v>
+                  <v>0.242535</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.235397</v>
+                  <v>0.240373</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.230715</v>
+                  <v>0.230807</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.218103</v>
+                  <v>0.220413</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210051</v>
+                  <v>0.213355</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.200451</v>
+                  <v>0.201969</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.286746</v>
+                  <v>0.293378</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.281591</v>
+                  <v>0.288748</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277035</v>
+                  <v>0.285419</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.27117</v>
+                  <v>0.272824</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.265743</v>
+                  <v>0.267671</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.261227</v>
+                  <v>0.270765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.256699</v>
+                  <v>0.258467</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.249214</v>
+                  <v>0.251023</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.242565</v>
+                  <v>0.245178</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.241364</v>
+                  <v>0.239643</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.228916</v>
+                  <v>0.233881</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.222589</v>
+                  <v>0.228007</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.215387</v>
+                  <v>0.218175</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.210169</v>
+                  <v>0.209187</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.287715</v>
+                  <v>0.294917</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.286413</v>
+                  <v>0.289254</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.279535</v>
+                  <v>0.285958</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.275125</v>
+                  <v>0.274053</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.266543</v>
+                  <v>0.273736</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.26873</v>
+                  <v>0.265942</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.259623</v>
+                  <v>0.260916</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.250586</v>
+                  <v>0.25323</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.258493</v>
+                  <v>0.247941</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.238961</v>
+                  <v>0.242199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.232698</v>
+                  <v>0.241304</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.226285</v>
+                  <v>0.228182</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.219958</v>
+                  <v>0.22291</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.211344</v>
+                  <v>0.214943</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.292066</v>
+                  <v>0.294503</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.286526</v>
+                  <v>0.294041</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.283963</v>
+                  <v>0.287726</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.277339</v>
+                  <v>0.285282</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.272732</v>
+                  <v>0.274006</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.273794</v>
+                  <v>0.27696</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.263376</v>
+                  <v>0.263345</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254899</v>
+                  <v>0.259304</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.253314</v>
+                  <v>0.254999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.242718</v>
+                  <v>0.245547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.238629</v>
+                  <v>0.238274</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.23005</v>
+                  <v>0.233585</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.22358</v>
+                  <v>0.22776</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216094</v>
+                  <v>0.221818</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.208082</v>
+                  <v>0.208262</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.293707</v>
+                  <v>0.299855</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.294557</v>
+                  <v>0.295517</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.284747</v>
+                  <v>0.293453</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.280702</v>
+                  <v>0.281481</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.274289</v>
+                  <v>0.276335</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.270958</v>
+                  <v>0.272763</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.260536</v>
+                  <v>0.264278</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.257011</v>
+                  <v>0.257758</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.248348</v>
+                  <v>0.254155</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.244976</v>
+                  <v>0.245941</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.237437</v>
+                  <v>0.237215</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.229136</v>
+                  <v>0.231726</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222467</v>
+                  <v>0.222773</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.217309</v>
+                  <v>0.215636</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.308297</v>
+                  <v>0.310859</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.308658</v>
+                  <v>0.308786</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.291243</v>
+                  <v>0.301361</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.292099</v>
+                  <v>0.291633</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.284747</v>
+                  <v>0.28535</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.276856</v>
+                  <v>0.276405</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.273529</v>
+                  <v>0.276899</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.265763</v>
+                  <v>0.268061</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.257626</v>
+                  <v>0.260761</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.248516</v>
+                  <v>0.256341</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.241201</v>
+                  <v>0.25036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.234341</v>
+                  <v>0.237829</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.230582</v>
+                  <v>0.229132</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.223471</v>
+                  <v>0.219421</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.315106</v>
+                  <v>0.318925</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.305504</v>
+                  <v>0.312366</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.300024</v>
+                  <v>0.307895</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.294774</v>
+                  <v>0.298353</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.287321</v>
+                  <v>0.29516</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.280232</v>
+                  <v>0.287136</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.274167</v>
+                  <v>0.274908</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.266225</v>
+                  <v>0.27725</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.260775</v>
+                  <v>0.262588</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.254211</v>
+                  <v>0.253808</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.247192</v>
+                  <v>0.250382</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.239089</v>
+                  <v>0.245131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.236432</v>
+                  <v>0.233423</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.224445</v>
+                  <v>0.225815</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.313186</v>
+                  <v>0.320129</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.312648</v>
+                  <v>0.314507</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.301283</v>
+                  <v>0.308862</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.295017</v>
+                  <v>0.30887</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.289936</v>
+                  <v>0.299652</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.283351</v>
+                  <v>0.284378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.275318</v>
+                  <v>0.277994</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.268879</v>
+                  <v>0.27312</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.263475</v>
+                  <v>0.265748</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.255974</v>
+                  <v>0.258453</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.248702</v>
+                  <v>0.25307</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.241856</v>
+                  <v>0.242869</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.234086</v>
+                  <v>0.237729</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.226741</v>
+                  <v>0.229407</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216452</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.308323</v>
+                  <v>0.320169</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.303592</v>
+                  <v>0.306169</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.300399</v>
+                  <v>0.300787</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.290512</v>
+                  <v>0.292277</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.286016</v>
+                  <v>0.287973</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.282782</v>
+                  <v>0.279331</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.271718</v>
+                  <v>0.272079</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.26611</v>
+                  <v>0.2676</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.256727</v>
+                  <v>0.261048</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.25103</v>
+                  <v>0.251416</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.243922</v>
+                  <v>0.243733</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235551</v>
+                  <v>0.23613</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.227399</v>
+                  <v>0.229691</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.223223</v>
+                  <v>0.222313</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.309608</v>
+                  <v>0.315508</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.307039</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.298588</v>
+                  <v>0.306187</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.291917</v>
+                  <v>0.294988</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.285261</v>
+                  <v>0.290127</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.279366</v>
+                  <v>0.284887</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.272361</v>
+                  <v>0.274006</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.265268</v>
+                  <v>0.268103</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.26006</v>
+                  <v>0.259001</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252265</v>
+                  <v>0.254658</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.244391</v>
+                  <v>0.244585</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.237549</v>
+                  <v>0.237747</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23062</v>
+                  <v>0.228841</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.221903</v>
+                  <v>0.227193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.310916</v>
+                  <v>0.318577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.30631</v>
+                  <v>0.312638</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.299336</v>
+                  <v>0.307719</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.293193</v>
+                  <v>0.299361</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.287927</v>
+                  <v>0.289649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.280304</v>
+                  <v>0.286555</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.537281</v>
+                  <v>0.538669</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.528438</v>
+                  <v>0.541587</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.517103</v>
+                  <v>0.541523</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.532058</v>
+                  <v>0.535771</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.537785</v>
+                  <v>0.511865</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.530551</v>
+                  <v>0.49894</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.5255570000000001</v>
+                  <v>0.504404</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.520734</v>
+                  <v>0.487809</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.517942</v>
+                  <v>0.564709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.518588</v>
+                  <v>0.549225</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5228159999999999</v>
+                  <v>0.537483</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.517604</v>
+                  <v>0.530451</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.519752</v>
+                  <v>0.528514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.514968</v>
+                  <v>0.535161</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.5158</v>
+                  <v>0.523892</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.518061</v>
+                  <v>0.519656</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.515563</v>
+                  <v>0.523504</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.515684</v>
+                  <v>0.507605</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.524042</v>
+                  <v>0.508369</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.531146</v>
+                  <v>0.501539</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.528586</v>
+                  <v>0.496756</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.529431</v>
+                  <v>0.493593</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.534101</v>
+                  <v>0.565649</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.536178</v>
+                  <v>0.549084</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.525867</v>
+                  <v>0.551076</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.525375</v>
+                  <v>0.5528149999999999</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.52954</v>
+                  <v>0.5410160000000001</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.52588</v>
+                  <v>0.54495</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.521008</v>
+                  <v>0.5329120000000001</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.526289</v>
+                  <v>0.536457</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.576645</v>
+                  <v>0.521221</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.5243139999999999</v>
+                  <v>0.515145</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.523475</v>
+                  <v>0.515099</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.5470390000000001</v>
+                  <v>0.49956</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.543451</v>
+                  <v>0.5026</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.54225</v>
+                  <v>0.48989</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.545478</v>
+                  <v>0.55419</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.547441</v>
+                  <v>0.546583</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.546829</v>
+                  <v>0.550717</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.548494</v>
+                  <v>0.540951</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.551337</v>
+                  <v>0.547354</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.549506</v>
+                  <v>0.5439850000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.55363</v>
+                  <v>0.524986</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.555972</v>
+                  <v>0.531375</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.560724</v>
+                  <v>0.522201</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.565886</v>
+                  <v>0.519176</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.569829</v>
+                  <v>0.512151</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.559715</v>
+                  <v>0.519438</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.621677</v>
+                  <v>0.502026</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.625674</v>
+                  <v>0.499428</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.624848</v>
+                  <v>0.490857</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.621205</v>
+                  <v>0.579081</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.630101</v>
+                  <v>0.57833</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.622198</v>
+                  <v>0.57601</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.629087</v>
+                  <v>0.56546</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.632088</v>
+                  <v>0.569774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.631558</v>
+                  <v>0.567878</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.631224</v>
+                  <v>0.559653</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.6401559999999999</v>
+                  <v>0.558039</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.643215</v>
+                  <v>0.561179</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.630724</v>
+                  <v>0.549545</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.650154</v>
+                  <v>0.550719</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.694016</v>
+                  <v>0.541096</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.69081</v>
+                  <v>0.543602</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.697917</v>
+                  <v>0.536326</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.68779</v>
+                  <v>0.6261060000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.679925</v>
+                  <v>0.623007</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.676706</v>
+                  <v>0.6282720000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.675611</v>
+                  <v>0.619444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.678368</v>
+                  <v>0.621055</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.677289</v>
+                  <v>0.610567</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.680121</v>
+                  <v>0.6054389999999999</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.680989</v>
+                  <v>0.598978</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.681675</v>
+                  <v>0.602155</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.684407</v>
+                  <v>0.595268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.679615</v>
+                  <v>0.591022</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.728105</v>
+                  <v>0.585276</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.725469</v>
+                  <v>0.581351</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.720176</v>
+                  <v>0.562895</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.715388</v>
+                  <v>0.645099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.713051</v>
+                  <v>0.6413990000000001</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.712743</v>
+                  <v>0.635255</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.735425</v>
+                  <v>0.6632169999999999</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.739461</v>
+                  <v>0.658641</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.73178</v>
+                  <v>0.659642</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.725921</v>
+                  <v>0.659421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.739121</v>
+                  <v>0.6400940000000001</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.736213</v>
+                  <v>0.628016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.733653</v>
+                  <v>0.629792</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.734465</v>
+                  <v>0.627426</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.635896</v>
+                  <v>0.623756</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.645086</v>
+                  <v>0.607245</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.64361</v>
+                  <v>0.603983</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.6338549999999999</v>
+                  <v>0.6606880000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.634968</v>
+                  <v>0.6445380000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.634406</v>
+                  <v>0.638571</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.634088</v>
+                  <v>0.637332</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.632251</v>
+                  <v>0.634259</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.635805</v>
+                  <v>0.660363</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.641716</v>
+                  <v>0.655686</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.635919</v>
+                  <v>0.647442</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.635645</v>
+                  <v>0.6507579999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.639534</v>
+                  <v>0.639375</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.642572</v>
+                  <v>0.628995</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.64314</v>
+                  <v>0.6341869999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.630903</v>
+                  <v>0.617521</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.628996</v>
+                  <v>0.611913</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.632234</v>
+                  <v>0.5994660000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.630864</v>
+                  <v>0.653041</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.635189</v>
+                  <v>0.654689</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.630884</v>
+                  <v>0.6395189999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.631953</v>
+                  <v>0.637182</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.630872</v>
+                  <v>0.6298859999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.630887</v>
+                  <v>0.629202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.632973</v>
+                  <v>0.619478</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.637191</v>
+                  <v>0.617909</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.63719</v>
+                  <v>0.617255</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.644012</v>
+                  <v>0.6095660000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.650468</v>
+                  <v>0.601038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.641388</v>
+                  <v>0.590101</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.641749</v>
+                  <v>0.595193</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.639469</v>
+                  <v>0.615062</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.638638</v>
+                  <v>0.662102</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.642191</v>
+                  <v>0.6401019999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.638019</v>
+                  <v>0.637513</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.639456</v>
+                  <v>0.649087</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.640292</v>
+                  <v>0.6330789999999999</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.640423</v>
+                  <v>0.637913</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.642256</v>
+                  <v>0.615621</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.64314</v>
+                  <v>0.659327</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.643621</v>
+                  <v>0.605255</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.654349</v>
+                  <v>0.632059</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.646612</v>
+                  <v>0.597191</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.644659</v>
+                  <v>0.62999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.643439</v>
+                  <v>0.585704</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.644463</v>
+                  <v>0.611279</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.64346</v>
+                  <v>0.661923</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.644297</v>
+                  <v>0.671994</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.643886</v>
+                  <v>0.638109</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.652231</v>
+                  <v>0.636695</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.642299</v>
+                  <v>0.631952</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.646354</v>
+                  <v>0.637352</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.265355</v>
+                  <v>0.5517300000000001</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.265338</v>
+                  <v>0.551284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.256047</v>
+                  <v>0.546217</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.258691</v>
+                  <v>0.54192</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.267292</v>
+                  <v>0.5263060000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.254955</v>
+                  <v>0.533048</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.251148</v>
+                  <v>0.540566</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.267766</v>
+                  <v>0.54264</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.266898</v>
+                  <v>0.532095</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.263846</v>
+                  <v>0.532402</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.262303</v>
+                  <v>0.533328</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.266299</v>
+                  <v>0.535423</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.26134</v>
+                  <v>0.538484</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.260775</v>
+                  <v>0.537265</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.259715</v>
+                  <v>0.529666</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.260278</v>
+                  <v>0.526942</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.258557</v>
+                  <v>0.53259</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.256288</v>
+                  <v>0.538194</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.265476</v>
+                  <v>0.52905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.255614</v>
+                  <v>0.5604479999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.261455</v>
+                  <v>0.552551</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.269496</v>
+                  <v>0.5462</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.268624</v>
+                  <v>0.561035</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.27664</v>
+                  <v>0.554308</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.267247</v>
+                  <v>0.541015</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.26501</v>
+                  <v>0.539045</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.268315</v>
+                  <v>0.5407999999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.264304</v>
+                  <v>0.543185</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.262879</v>
+                  <v>0.546309</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.262738</v>
+                  <v>0.550406</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.267413</v>
+                  <v>0.544195</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.262247</v>
+                  <v>0.542334</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.259056</v>
+                  <v>0.541666</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.259553</v>
+                  <v>0.569398</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.259906</v>
+                  <v>0.560046</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.279132</v>
+                  <v>0.558691</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.275682</v>
+                  <v>0.5586410000000001</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.271625</v>
+                  <v>0.55884</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.271003</v>
+                  <v>0.562106</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.271347</v>
+                  <v>0.565737</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.271526</v>
+                  <v>0.566449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.269818</v>
+                  <v>0.562242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.269374</v>
+                  <v>0.568851</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.264981</v>
+                  <v>0.563319</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.26592</v>
+                  <v>0.56758</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.262637</v>
+                  <v>0.576519</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.264057</v>
+                  <v>0.571156</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.262756</v>
+                  <v>0.578968</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.261327</v>
+                  <v>0.646802</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.284113</v>
+                  <v>0.6498350000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.281893</v>
+                  <v>0.652135</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.280036</v>
+                  <v>0.651495</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.278348</v>
+                  <v>0.651522</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.274426</v>
+                  <v>0.646852</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.273932</v>
+                  <v>0.6496459999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.272604</v>
+                  <v>0.665353</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.271688</v>
+                  <v>0.6571979999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.269696</v>
+                  <v>0.650173</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.268657</v>
+                  <v>0.655147</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.266327</v>
+                  <v>0.649361</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.265855</v>
+                  <v>0.6682900000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.26536</v>
+                  <v>0.664104</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.263892</v>
+                  <v>0.724651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.26304</v>
+                  <v>0.724899</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.288558</v>
+                  <v>0.730979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.285607</v>
+                  <v>0.715012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.288407</v>
+                  <v>0.719252</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.285872</v>
+                  <v>0.716792</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.283711</v>
+                  <v>0.707111</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.278999</v>
+                  <v>0.708838</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28253</v>
+                  <v>0.703678</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.275244</v>
+                  <v>0.699994</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.281813</v>
+                  <v>0.702053</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.271265</v>
+                  <v>0.716363</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.272679</v>
+                  <v>0.7005169999999999</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.268322</v>
+                  <v>0.711834</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.267584</v>
+                  <v>0.785799</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.272961</v>
+                  <v>0.758012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.295182</v>
+                  <v>0.763151</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.292656</v>
+                  <v>0.752562</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.290966</v>
+                  <v>0.746399</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.286602</v>
+                  <v>0.739697</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.284324</v>
+                  <v>0.761177</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.283155</v>
+                  <v>0.7537160000000001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.281145</v>
+                  <v>0.7667580000000001</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.278967</v>
+                  <v>0.75307</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.278245</v>
+                  <v>0.7555269999999999</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.276508</v>
+                  <v>0.76505</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.280322</v>
+                  <v>0.758771</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.279369</v>
+                  <v>0.770092</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.270652</v>
+                  <v>0.670482</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.269735</v>
+                  <v>0.657091</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.303561</v>
+                  <v>0.666804</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.294826</v>
+                  <v>0.670731</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.291115</v>
+                  <v>0.659309</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.28888</v>
+                  <v>0.663575</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.292069</v>
+                  <v>0.663424</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.28428</v>
+                  <v>0.670377</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.282532</v>
+                  <v>0.661125</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.28161</v>
+                  <v>0.653451</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.278742</v>
+                  <v>0.666726</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.27642</v>
+                  <v>0.662031</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.27482</v>
+                  <v>0.668238</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.273112</v>
+                  <v>0.664703</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.274433</v>
+                  <v>0.673213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.270265</v>
+                  <v>0.659521</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.299298</v>
+                  <v>0.672311</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.295097</v>
+                  <v>0.6632710000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.293971</v>
+                  <v>0.652452</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.294759</v>
+                  <v>0.655869</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.286685</v>
+                  <v>0.650423</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.285595</v>
+                  <v>0.652906</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.282147</v>
+                  <v>0.651187</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.281454</v>
+                  <v>0.653446</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.278855</v>
+                  <v>0.656204</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.277391</v>
+                  <v>0.660662</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.275658</v>
+                  <v>0.66961</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.275328</v>
+                  <v>0.6760389999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.27335</v>
+                  <v>0.662303</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.270689</v>
+                  <v>0.661096</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.269301</v>
+                  <v>0.67388</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.295046</v>
+                  <v>0.666951</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.293865</v>
+                  <v>0.659443</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.28991</v>
+                  <v>0.668782</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.288194</v>
+                  <v>0.655681</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.289345</v>
+                  <v>0.67194</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.284421</v>
+                  <v>0.671001</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.285953</v>
+                  <v>0.658246</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.281317</v>
+                  <v>0.666172</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.278092</v>
+                  <v>0.668779</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.275992</v>
+                  <v>0.664618</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.274106</v>
+                  <v>0.6812049999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273493</v>
+                  <v>0.670656</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271208</v>
+                  <v>0.678636</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.270381</v>
+                  <v>0.676158</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.297576</v>
+                  <v>0.686095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.292859</v>
+                  <v>0.660977</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.290644</v>
+                  <v>0.666169</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.294692</v>
+                  <v>0.681915</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.286132</v>
+                  <v>0.689447</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.283705</v>
+                  <v>0.669966</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.282834</v>
+                  <v>0.680583</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.52824</v>
+                  <v>0.276841</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.558565</v>
+                  <v>0.266466</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.508576</v>
+                  <v>0.270013</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.522243</v>
+                  <v>0.255214</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.517773</v>
+                  <v>0.25377</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.504412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.502597</v>
+                  <v>0.258382</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.5147040000000001</v>
+                  <v>0.271525</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.5114</v>
+                  <v>0.267258</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.5121559999999999</v>
+                  <v>0.26772</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.5180129999999999</v>
+                  <v>0.266213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.510372</v>
+                  <v>0.262389</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.508829</v>
+                  <v>0.264656</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.508776</v>
+                  <v>0.271243</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.505887</v>
+                  <v>0.263081</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.506756</v>
+                  <v>0.259841</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.5040519999999999</v>
+                  <v>0.263075</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.506335</v>
+                  <v>0.258523</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.5026620000000001</v>
+                  <v>0.257036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.500683</v>
+                  <v>0.257333</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.502304</v>
+                  <v>0.256035</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.517026</v>
+                  <v>0.280564</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.51916</v>
+                  <v>0.276616</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.514768</v>
+                  <v>0.282422</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.513208</v>
+                  <v>0.271227</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.516548</v>
+                  <v>0.267811</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.509263</v>
+                  <v>0.272347</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.511714</v>
+                  <v>0.27239</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.50827</v>
+                  <v>0.268635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.508419</v>
+                  <v>0.267228</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.507921</v>
+                  <v>0.266652</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.506842</v>
+                  <v>0.260806</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.503941</v>
+                  <v>0.266277</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.516744</v>
+                  <v>0.261743</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.505078</v>
+                  <v>0.258519</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.517274</v>
+                  <v>0.281501</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.5184029999999999</v>
+                  <v>0.278127</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.519784</v>
+                  <v>0.280389</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.518439</v>
+                  <v>0.272792</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.517153</v>
+                  <v>0.275566</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.516095</v>
+                  <v>0.272874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.516477</v>
+                  <v>0.271227</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.516336</v>
+                  <v>0.269085</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.5145690000000001</v>
+                  <v>0.270397</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.514298</v>
+                  <v>0.26719</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.515192</v>
+                  <v>0.267681</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.510538</v>
+                  <v>0.265483</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.512064</v>
+                  <v>0.263963</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.5129629999999999</v>
+                  <v>0.265988</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.5334719999999999</v>
+                  <v>0.289338</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.532415</v>
+                  <v>0.287918</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.523869</v>
+                  <v>0.284028</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.522417</v>
+                  <v>0.278773</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.537322</v>
+                  <v>0.280126</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.526664</v>
+                  <v>0.279476</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.532563</v>
+                  <v>0.27584</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.529319</v>
+                  <v>0.281567</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.524022</v>
+                  <v>0.275992</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.536534</v>
+                  <v>0.272281</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.535825</v>
+                  <v>0.268232</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.525961</v>
+                  <v>0.271314</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.526636</v>
+                  <v>0.269508</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.538358</v>
+                  <v>0.266499</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.527431</v>
+                  <v>0.264471</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.549307</v>
+                  <v>0.295614</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.546849</v>
+                  <v>0.289336</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.542775</v>
+                  <v>0.284994</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.564534</v>
+                  <v>0.284772</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.548071</v>
+                  <v>0.283364</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.543788</v>
+                  <v>0.285299</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.544934</v>
+                  <v>0.283394</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.544115</v>
+                  <v>0.275927</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.546277</v>
+                  <v>0.277421</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.541343</v>
+                  <v>0.278161</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.542199</v>
+                  <v>0.275309</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.541002</v>
+                  <v>0.274208</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.539527</v>
+                  <v>0.270554</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.538363</v>
+                  <v>0.275332</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.555094</v>
+                  <v>0.304576</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.555771</v>
+                  <v>0.303285</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.552474</v>
+                  <v>0.291921</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.5509039999999999</v>
+                  <v>0.291117</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.57368</v>
+                  <v>0.296047</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.57313</v>
+                  <v>0.284528</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.570669</v>
+                  <v>0.282125</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.5744629999999999</v>
+                  <v>0.279984</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.570032</v>
+                  <v>0.284213</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.575837</v>
+                  <v>0.279354</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.577452</v>
+                  <v>0.275774</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.566692</v>
+                  <v>0.275761</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.565735</v>
+                  <v>0.270803</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.567732</v>
+                  <v>0.276277</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.587102</v>
+                  <v>0.302008</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.589431</v>
+                  <v>0.295205</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.576515</v>
+                  <v>0.297555</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.576616</v>
+                  <v>0.29133</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.582197</v>
+                  <v>0.291233</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.577766</v>
+                  <v>0.289169</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.572562</v>
+                  <v>0.283426</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.571825</v>
+                  <v>0.283122</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.57302</v>
+                  <v>0.28176</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.580144</v>
+                  <v>0.281549</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.56693</v>
+                  <v>0.276541</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.566576</v>
+                  <v>0.275035</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.56747</v>
+                  <v>0.276863</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.565971</v>
+                  <v>0.276229</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.581348</v>
+                  <v>0.305497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.582088</v>
+                  <v>0.29719</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.582496</v>
+                  <v>0.29523</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.586045</v>
+                  <v>0.293299</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.576833</v>
+                  <v>0.28804</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.581611</v>
+                  <v>0.288365</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.574783</v>
+                  <v>0.284662</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.572576</v>
+                  <v>0.282149</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.571121</v>
+                  <v>0.279701</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.569038</v>
+                  <v>0.280402</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.571675</v>
+                  <v>0.277707</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.571852</v>
+                  <v>0.277906</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.568235</v>
+                  <v>0.275296</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.569684</v>
+                  <v>0.272154</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.569595</v>
+                  <v>0.271685</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.584454</v>
+                  <v>0.296592</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.589064</v>
+                  <v>0.294977</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.582484</v>
+                  <v>0.293679</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.583902</v>
+                  <v>0.287581</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.577562</v>
+                  <v>0.288208</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.57753</v>
+                  <v>0.284426</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.5786750000000001</v>
+                  <v>0.291162</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.571709</v>
+                  <v>0.284195</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.574532</v>
+                  <v>0.283688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.575771</v>
+                  <v>0.280539</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.569493</v>
+                  <v>0.276078</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.5686020000000001</v>
+                  <v>0.280104</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.57248</v>
+                  <v>0.272853</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.567554</v>
+                  <v>0.28021</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.584724</v>
+                  <v>0.306157</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.581499</v>
+                  <v>0.298668</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.584831</v>
+                  <v>0.292941</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.586818</v>
+                  <v>0.289263</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.578213</v>
+                  <v>0.28884</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.578566</v>
+                  <v>0.284878</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.577099</v>
+                  <v>0.282684</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.53474</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.528267</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.526351</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.521931</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.520609</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.514743</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.517891</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.525408</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.527058</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.519437</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.525566</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.52781</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.515701</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.5208930000000001</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.515927</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.510614</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.509088</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.517289</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.522165</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.517145</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.519813</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.536334</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.536129</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.534013</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.531105</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.521</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.521567</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.519618</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.53359</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.526481</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.519653</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.524836</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.523105</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.517454</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.511873</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.5260010000000001</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.524264</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.528565</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.529135</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.523965</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.529007</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.51633</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.52068</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.532498</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.5154260000000001</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.528466</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.523675</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.5210630000000001</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.520605</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.5444290000000001</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.539594</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.548668</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.542137</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.54918</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.5358270000000001</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.5325260000000001</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.535142</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.537561</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.539283</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.535461</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.537166</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.540566</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.535457</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.543459</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.563966</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.560994</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.566543</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.5614209999999999</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.559608</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.559702</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.561134</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.562521</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.569839</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.561738</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.565741</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.560424</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.556644</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.5575560000000001</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.568441</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.579758</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.579176</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.572905</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.586574</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.595218</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.5833469999999999</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.587605</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.590814</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.586431</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.584434</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.579485</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.583929</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.575487</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.598505</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.586273</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.59398</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.596906</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.586425</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.586365</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.587349</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.582668</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.579901</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.585184</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.582543</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.589278</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.5893080000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.583377</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.595194</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.592567</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.589655</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.5906439999999999</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.588266</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.591537</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.587706</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.5787679999999999</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.584139</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.577919</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.581237</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.578399</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.584027</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.582317</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.579611</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.605295</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.607861</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.591682</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.603029</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.59078</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.59309</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.580199</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.582849</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.588995</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.58364</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.591611</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.5830650000000001</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.5818449999999999</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.584264</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.59798</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.597959</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.59879</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.588379</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.594588</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.593433</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.593781</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3793,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4143,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4159,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255101</v>
+        <v>0.252428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.538669</v>
+        <v>0.52781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5517300000000001</v>
+        <v>0.537276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.276841</v>
+        <v>0.267945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53474</v>
+        <v>0.520455</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254845</v>
+        <v>0.241753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541587</v>
+        <v>0.520833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.551284</v>
+        <v>0.534304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.266466</v>
+        <v>0.257606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.528267</v>
+        <v>0.52288</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242535</v>
+        <v>0.239487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.541523</v>
+        <v>0.515636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.546217</v>
+        <v>0.532927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.270013</v>
+        <v>0.257951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.526351</v>
+        <v>0.530872</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240373</v>
+        <v>0.233003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.535771</v>
+        <v>0.516687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54192</v>
+        <v>0.535187</v>
       </c>
       <c r="E5" t="n">
-        <v>0.255214</v>
+        <v>0.257768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.521931</v>
+        <v>0.512561</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230807</v>
+        <v>0.223577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.511865</v>
+        <v>0.502808</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5263060000000001</v>
+        <v>0.533683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25377</v>
+        <v>0.256549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.520609</v>
+        <v>0.51589</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220413</v>
+        <v>0.218109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.49894</v>
+        <v>0.494135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.533048</v>
+        <v>0.5402169999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255738</v>
+        <v>0.255817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.514743</v>
+        <v>0.516205</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213355</v>
+        <v>0.21333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.504404</v>
+        <v>0.501547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.540566</v>
+        <v>0.541099</v>
       </c>
       <c r="E8" t="n">
-        <v>0.258382</v>
+        <v>0.255988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.517891</v>
+        <v>0.511623</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201969</v>
+        <v>0.201504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.487809</v>
+        <v>0.478511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54264</v>
+        <v>0.539085</v>
       </c>
       <c r="E9" t="n">
-        <v>0.271525</v>
+        <v>0.270637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.525408</v>
+        <v>0.523956</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.293378</v>
+        <v>0.291965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.564709</v>
+        <v>0.54649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.532095</v>
+        <v>0.541981</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267258</v>
+        <v>0.270913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.527058</v>
+        <v>0.525517</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288748</v>
+        <v>0.288323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.549225</v>
+        <v>0.542883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.532402</v>
+        <v>0.539214</v>
       </c>
       <c r="E11" t="n">
-        <v>0.26772</v>
+        <v>0.269458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.519437</v>
+        <v>0.523726</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285419</v>
+        <v>0.283681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.537483</v>
+        <v>0.541216</v>
       </c>
       <c r="D12" t="n">
-        <v>0.533328</v>
+        <v>0.5310589999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266213</v>
+        <v>0.266955</v>
       </c>
       <c r="F12" t="n">
-        <v>0.525566</v>
+        <v>0.534187</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.272824</v>
+        <v>0.279081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.530451</v>
+        <v>0.5404870000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.535423</v>
+        <v>0.54037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.262389</v>
+        <v>0.265164</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52781</v>
+        <v>0.52457</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267671</v>
+        <v>0.274928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.528514</v>
+        <v>0.530776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.538484</v>
+        <v>0.539595</v>
       </c>
       <c r="E14" t="n">
-        <v>0.264656</v>
+        <v>0.26581</v>
       </c>
       <c r="F14" t="n">
-        <v>0.515701</v>
+        <v>0.521443</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270765</v>
+        <v>0.263171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.535161</v>
+        <v>0.524521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.537265</v>
+        <v>0.529278</v>
       </c>
       <c r="E15" t="n">
-        <v>0.271243</v>
+        <v>0.262552</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5208930000000001</v>
+        <v>0.5284140000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.258467</v>
+        <v>0.256792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.523892</v>
+        <v>0.521418</v>
       </c>
       <c r="D16" t="n">
-        <v>0.529666</v>
+        <v>0.523187</v>
       </c>
       <c r="E16" t="n">
-        <v>0.263081</v>
+        <v>0.261859</v>
       </c>
       <c r="F16" t="n">
-        <v>0.515927</v>
+        <v>0.519783</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251023</v>
+        <v>0.251242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.519656</v>
+        <v>0.516529</v>
       </c>
       <c r="D17" t="n">
-        <v>0.526942</v>
+        <v>0.540484</v>
       </c>
       <c r="E17" t="n">
-        <v>0.259841</v>
+        <v>0.266601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.510614</v>
+        <v>0.52826</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245178</v>
+        <v>0.248302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.523504</v>
+        <v>0.528056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.53259</v>
+        <v>0.527291</v>
       </c>
       <c r="E18" t="n">
-        <v>0.263075</v>
+        <v>0.257797</v>
       </c>
       <c r="F18" t="n">
-        <v>0.509088</v>
+        <v>0.512462</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.239643</v>
+        <v>0.236978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.507605</v>
+        <v>0.50178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538194</v>
+        <v>0.538364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.258523</v>
+        <v>0.262355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.517289</v>
+        <v>0.511066</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233881</v>
+        <v>0.231188</v>
       </c>
       <c r="C20" t="n">
-        <v>0.508369</v>
+        <v>0.509908</v>
       </c>
       <c r="D20" t="n">
-        <v>0.52905</v>
+        <v>0.526325</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257036</v>
+        <v>0.257438</v>
       </c>
       <c r="F20" t="n">
-        <v>0.522165</v>
+        <v>0.520529</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228007</v>
+        <v>0.229585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.501539</v>
+        <v>0.498746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5604479999999999</v>
+        <v>0.546269</v>
       </c>
       <c r="E21" t="n">
-        <v>0.257333</v>
+        <v>0.261979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.517145</v>
+        <v>0.5128779999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218175</v>
+        <v>0.216764</v>
       </c>
       <c r="C22" t="n">
-        <v>0.496756</v>
+        <v>0.497511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.552551</v>
+        <v>0.54483</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256035</v>
+        <v>0.256668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.519813</v>
+        <v>0.515745</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209187</v>
+        <v>0.21356</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493593</v>
+        <v>0.493426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5462</v>
+        <v>0.531631</v>
       </c>
       <c r="E23" t="n">
-        <v>0.280564</v>
+        <v>0.271209</v>
       </c>
       <c r="F23" t="n">
-        <v>0.536334</v>
+        <v>0.519168</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.294917</v>
+        <v>0.291109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.565649</v>
+        <v>0.545308</v>
       </c>
       <c r="D24" t="n">
-        <v>0.561035</v>
+        <v>0.539629</v>
       </c>
       <c r="E24" t="n">
-        <v>0.276616</v>
+        <v>0.272674</v>
       </c>
       <c r="F24" t="n">
-        <v>0.536129</v>
+        <v>0.544932</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.289254</v>
+        <v>0.285705</v>
       </c>
       <c r="C25" t="n">
-        <v>0.549084</v>
+        <v>0.5475950000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.554308</v>
+        <v>0.552594</v>
       </c>
       <c r="E25" t="n">
-        <v>0.282422</v>
+        <v>0.269714</v>
       </c>
       <c r="F25" t="n">
-        <v>0.534013</v>
+        <v>0.518417</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.285958</v>
+        <v>0.28404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.551076</v>
+        <v>0.543013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.541015</v>
+        <v>0.527687</v>
       </c>
       <c r="E26" t="n">
-        <v>0.271227</v>
+        <v>0.270937</v>
       </c>
       <c r="F26" t="n">
-        <v>0.531105</v>
+        <v>0.518662</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274053</v>
+        <v>0.28453</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5528149999999999</v>
+        <v>0.538207</v>
       </c>
       <c r="D27" t="n">
-        <v>0.539045</v>
+        <v>0.534228</v>
       </c>
       <c r="E27" t="n">
-        <v>0.267811</v>
+        <v>0.268592</v>
       </c>
       <c r="F27" t="n">
-        <v>0.521</v>
+        <v>0.512971</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.273736</v>
+        <v>0.270584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5410160000000001</v>
+        <v>0.532612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5407999999999999</v>
+        <v>0.5344370000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.272347</v>
+        <v>0.268494</v>
       </c>
       <c r="F28" t="n">
-        <v>0.521567</v>
+        <v>0.522859</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.265942</v>
+        <v>0.270388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.54495</v>
+        <v>0.52903</v>
       </c>
       <c r="D29" t="n">
-        <v>0.543185</v>
+        <v>0.535377</v>
       </c>
       <c r="E29" t="n">
-        <v>0.27239</v>
+        <v>0.265154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.519618</v>
+        <v>0.5160169999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260916</v>
+        <v>0.265661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5329120000000001</v>
+        <v>0.535227</v>
       </c>
       <c r="D30" t="n">
-        <v>0.546309</v>
+        <v>0.5362749999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.268635</v>
+        <v>0.26483</v>
       </c>
       <c r="F30" t="n">
-        <v>0.53359</v>
+        <v>0.521811</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25323</v>
+        <v>0.256184</v>
       </c>
       <c r="C31" t="n">
-        <v>0.536457</v>
+        <v>0.520594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.550406</v>
+        <v>0.535431</v>
       </c>
       <c r="E31" t="n">
-        <v>0.267228</v>
+        <v>0.263411</v>
       </c>
       <c r="F31" t="n">
-        <v>0.526481</v>
+        <v>0.511521</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247941</v>
+        <v>0.248558</v>
       </c>
       <c r="C32" t="n">
-        <v>0.521221</v>
+        <v>0.519845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.544195</v>
+        <v>0.533465</v>
       </c>
       <c r="E32" t="n">
-        <v>0.266652</v>
+        <v>0.269047</v>
       </c>
       <c r="F32" t="n">
-        <v>0.519653</v>
+        <v>0.514757</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242199</v>
+        <v>0.242564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515145</v>
+        <v>0.515693</v>
       </c>
       <c r="D33" t="n">
-        <v>0.542334</v>
+        <v>0.540442</v>
       </c>
       <c r="E33" t="n">
-        <v>0.260806</v>
+        <v>0.261169</v>
       </c>
       <c r="F33" t="n">
-        <v>0.524836</v>
+        <v>0.516575</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.241304</v>
+        <v>0.240611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.515099</v>
+        <v>0.51174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.541666</v>
+        <v>0.5347420000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.266277</v>
+        <v>0.259858</v>
       </c>
       <c r="F34" t="n">
-        <v>0.523105</v>
+        <v>0.508845</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228182</v>
+        <v>0.228465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.49956</v>
+        <v>0.497673</v>
       </c>
       <c r="D35" t="n">
-        <v>0.569398</v>
+        <v>0.553582</v>
       </c>
       <c r="E35" t="n">
-        <v>0.261743</v>
+        <v>0.259117</v>
       </c>
       <c r="F35" t="n">
-        <v>0.517454</v>
+        <v>0.505726</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22291</v>
+        <v>0.225613</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5026</v>
+        <v>0.499722</v>
       </c>
       <c r="D36" t="n">
-        <v>0.560046</v>
+        <v>0.554043</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258519</v>
+        <v>0.258172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.511873</v>
+        <v>0.514942</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214943</v>
+        <v>0.213727</v>
       </c>
       <c r="C37" t="n">
-        <v>0.48989</v>
+        <v>0.490636</v>
       </c>
       <c r="D37" t="n">
-        <v>0.558691</v>
+        <v>0.548243</v>
       </c>
       <c r="E37" t="n">
-        <v>0.281501</v>
+        <v>0.275828</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5260010000000001</v>
+        <v>0.527677</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.294503</v>
+        <v>0.296596</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55419</v>
+        <v>0.554775</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5586410000000001</v>
+        <v>0.54377</v>
       </c>
       <c r="E38" t="n">
-        <v>0.278127</v>
+        <v>0.274018</v>
       </c>
       <c r="F38" t="n">
-        <v>0.524264</v>
+        <v>0.518694</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294041</v>
+        <v>0.289029</v>
       </c>
       <c r="C39" t="n">
-        <v>0.546583</v>
+        <v>0.553021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.55884</v>
+        <v>0.552193</v>
       </c>
       <c r="E39" t="n">
-        <v>0.280389</v>
+        <v>0.287422</v>
       </c>
       <c r="F39" t="n">
-        <v>0.528565</v>
+        <v>0.527864</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.287726</v>
+        <v>0.291025</v>
       </c>
       <c r="C40" t="n">
-        <v>0.550717</v>
+        <v>0.552304</v>
       </c>
       <c r="D40" t="n">
-        <v>0.562106</v>
+        <v>0.5552240000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272792</v>
+        <v>0.272086</v>
       </c>
       <c r="F40" t="n">
-        <v>0.529135</v>
+        <v>0.5249549999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285282</v>
+        <v>0.280323</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540951</v>
+        <v>0.544975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.565737</v>
+        <v>0.559289</v>
       </c>
       <c r="E41" t="n">
-        <v>0.275566</v>
+        <v>0.276376</v>
       </c>
       <c r="F41" t="n">
-        <v>0.523965</v>
+        <v>0.519661</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.274006</v>
+        <v>0.273861</v>
       </c>
       <c r="C42" t="n">
-        <v>0.547354</v>
+        <v>0.539541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.566449</v>
+        <v>0.554874</v>
       </c>
       <c r="E42" t="n">
-        <v>0.272874</v>
+        <v>0.268665</v>
       </c>
       <c r="F42" t="n">
-        <v>0.529007</v>
+        <v>0.519178</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.27696</v>
+        <v>0.269765</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5439850000000001</v>
+        <v>0.53271</v>
       </c>
       <c r="D43" t="n">
-        <v>0.562242</v>
+        <v>0.558514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.271227</v>
+        <v>0.267936</v>
       </c>
       <c r="F43" t="n">
-        <v>0.51633</v>
+        <v>0.520994</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263345</v>
+        <v>0.263644</v>
       </c>
       <c r="C44" t="n">
-        <v>0.524986</v>
+        <v>0.5376</v>
       </c>
       <c r="D44" t="n">
-        <v>0.568851</v>
+        <v>0.562559</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269085</v>
+        <v>0.269958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.52068</v>
+        <v>0.523326</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259304</v>
+        <v>0.259849</v>
       </c>
       <c r="C45" t="n">
-        <v>0.531375</v>
+        <v>0.539801</v>
       </c>
       <c r="D45" t="n">
-        <v>0.563319</v>
+        <v>0.56136</v>
       </c>
       <c r="E45" t="n">
-        <v>0.270397</v>
+        <v>0.267062</v>
       </c>
       <c r="F45" t="n">
-        <v>0.532498</v>
+        <v>0.524771</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.254999</v>
+        <v>0.253945</v>
       </c>
       <c r="C46" t="n">
-        <v>0.522201</v>
+        <v>0.5232290000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.56758</v>
+        <v>0.567245</v>
       </c>
       <c r="E46" t="n">
-        <v>0.26719</v>
+        <v>0.263515</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5154260000000001</v>
+        <v>0.517921</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.245547</v>
+        <v>0.244157</v>
       </c>
       <c r="C47" t="n">
-        <v>0.519176</v>
+        <v>0.529213</v>
       </c>
       <c r="D47" t="n">
-        <v>0.576519</v>
+        <v>0.5729610000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.267681</v>
+        <v>0.264378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.528466</v>
+        <v>0.521895</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.238274</v>
+        <v>0.240725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.512151</v>
+        <v>0.527589</v>
       </c>
       <c r="D48" t="n">
-        <v>0.571156</v>
+        <v>0.556323</v>
       </c>
       <c r="E48" t="n">
-        <v>0.265483</v>
+        <v>0.261513</v>
       </c>
       <c r="F48" t="n">
-        <v>0.523675</v>
+        <v>0.511731</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233585</v>
+        <v>0.235345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.519438</v>
+        <v>0.509695</v>
       </c>
       <c r="D49" t="n">
-        <v>0.578968</v>
+        <v>0.579402</v>
       </c>
       <c r="E49" t="n">
-        <v>0.263963</v>
+        <v>0.260313</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5210630000000001</v>
+        <v>0.513276</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22776</v>
+        <v>0.223386</v>
       </c>
       <c r="C50" t="n">
-        <v>0.502026</v>
+        <v>0.5060170000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.646802</v>
+        <v>0.623855</v>
       </c>
       <c r="E50" t="n">
-        <v>0.265988</v>
+        <v>0.266707</v>
       </c>
       <c r="F50" t="n">
-        <v>0.520605</v>
+        <v>0.5181789999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221818</v>
+        <v>0.217102</v>
       </c>
       <c r="C51" t="n">
-        <v>0.499428</v>
+        <v>0.514997</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6498350000000001</v>
+        <v>0.62001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.289338</v>
+        <v>0.282858</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5444290000000001</v>
+        <v>0.545146</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208262</v>
+        <v>0.208301</v>
       </c>
       <c r="C52" t="n">
-        <v>0.490857</v>
+        <v>0.515859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.652135</v>
+        <v>0.630562</v>
       </c>
       <c r="E52" t="n">
-        <v>0.287918</v>
+        <v>0.280347</v>
       </c>
       <c r="F52" t="n">
-        <v>0.539594</v>
+        <v>0.552468</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299855</v>
+        <v>0.299862</v>
       </c>
       <c r="C53" t="n">
-        <v>0.579081</v>
+        <v>0.585694</v>
       </c>
       <c r="D53" t="n">
-        <v>0.651495</v>
+        <v>0.637433</v>
       </c>
       <c r="E53" t="n">
-        <v>0.284028</v>
+        <v>0.290281</v>
       </c>
       <c r="F53" t="n">
-        <v>0.548668</v>
+        <v>0.5408539999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295517</v>
+        <v>0.295584</v>
       </c>
       <c r="C54" t="n">
-        <v>0.57833</v>
+        <v>0.578973</v>
       </c>
       <c r="D54" t="n">
-        <v>0.651522</v>
+        <v>0.634077</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278773</v>
+        <v>0.278832</v>
       </c>
       <c r="F54" t="n">
-        <v>0.542137</v>
+        <v>0.54138</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293453</v>
+        <v>0.293541</v>
       </c>
       <c r="C55" t="n">
-        <v>0.57601</v>
+        <v>0.559346</v>
       </c>
       <c r="D55" t="n">
-        <v>0.646852</v>
+        <v>0.636571</v>
       </c>
       <c r="E55" t="n">
-        <v>0.280126</v>
+        <v>0.276463</v>
       </c>
       <c r="F55" t="n">
-        <v>0.54918</v>
+        <v>0.542526</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.281481</v>
+        <v>0.280583</v>
       </c>
       <c r="C56" t="n">
-        <v>0.56546</v>
+        <v>0.592188</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6496459999999999</v>
+        <v>0.643303</v>
       </c>
       <c r="E56" t="n">
-        <v>0.279476</v>
+        <v>0.282164</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5358270000000001</v>
+        <v>0.533782</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.276335</v>
+        <v>0.275822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.569774</v>
+        <v>0.587295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.665353</v>
+        <v>0.651394</v>
       </c>
       <c r="E57" t="n">
-        <v>0.27584</v>
+        <v>0.276601</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5325260000000001</v>
+        <v>0.5326880000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.272763</v>
+        <v>0.269463</v>
       </c>
       <c r="C58" t="n">
-        <v>0.567878</v>
+        <v>0.565902</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6571979999999999</v>
+        <v>0.638907</v>
       </c>
       <c r="E58" t="n">
-        <v>0.281567</v>
+        <v>0.271959</v>
       </c>
       <c r="F58" t="n">
-        <v>0.535142</v>
+        <v>0.545651</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.264278</v>
+        <v>0.263815</v>
       </c>
       <c r="C59" t="n">
-        <v>0.559653</v>
+        <v>0.562042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.650173</v>
+        <v>0.646</v>
       </c>
       <c r="E59" t="n">
-        <v>0.275992</v>
+        <v>0.271118</v>
       </c>
       <c r="F59" t="n">
-        <v>0.537561</v>
+        <v>0.5374949999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257758</v>
+        <v>0.258618</v>
       </c>
       <c r="C60" t="n">
-        <v>0.558039</v>
+        <v>0.587511</v>
       </c>
       <c r="D60" t="n">
-        <v>0.655147</v>
+        <v>0.6467270000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272281</v>
+        <v>0.272962</v>
       </c>
       <c r="F60" t="n">
-        <v>0.539283</v>
+        <v>0.532199</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.254155</v>
+        <v>0.255074</v>
       </c>
       <c r="C61" t="n">
-        <v>0.561179</v>
+        <v>0.552271</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649361</v>
+        <v>0.643655</v>
       </c>
       <c r="E61" t="n">
-        <v>0.268232</v>
+        <v>0.267614</v>
       </c>
       <c r="F61" t="n">
-        <v>0.535461</v>
+        <v>0.540666</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.245941</v>
+        <v>0.244392</v>
       </c>
       <c r="C62" t="n">
-        <v>0.549545</v>
+        <v>0.5497300000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6682900000000001</v>
+        <v>0.651286</v>
       </c>
       <c r="E62" t="n">
-        <v>0.271314</v>
+        <v>0.267185</v>
       </c>
       <c r="F62" t="n">
-        <v>0.537166</v>
+        <v>0.534765</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.237215</v>
+        <v>0.235993</v>
       </c>
       <c r="C63" t="n">
-        <v>0.550719</v>
+        <v>0.543773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.664104</v>
+        <v>0.652265</v>
       </c>
       <c r="E63" t="n">
-        <v>0.269508</v>
+        <v>0.265805</v>
       </c>
       <c r="F63" t="n">
-        <v>0.540566</v>
+        <v>0.534278</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.231726</v>
+        <v>0.234758</v>
       </c>
       <c r="C64" t="n">
-        <v>0.541096</v>
+        <v>0.572811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.724651</v>
+        <v>0.711903</v>
       </c>
       <c r="E64" t="n">
-        <v>0.266499</v>
+        <v>0.264937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.535457</v>
+        <v>0.543152</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222773</v>
+        <v>0.221176</v>
       </c>
       <c r="C65" t="n">
-        <v>0.543602</v>
+        <v>0.5467649999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.724899</v>
+        <v>0.706499</v>
       </c>
       <c r="E65" t="n">
-        <v>0.264471</v>
+        <v>0.26618</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543459</v>
+        <v>0.543125</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.215636</v>
+        <v>0.214181</v>
       </c>
       <c r="C66" t="n">
-        <v>0.536326</v>
+        <v>0.546264</v>
       </c>
       <c r="D66" t="n">
-        <v>0.730979</v>
+        <v>0.706517</v>
       </c>
       <c r="E66" t="n">
-        <v>0.295614</v>
+        <v>0.288667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.563966</v>
+        <v>0.564885</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.310859</v>
+        <v>0.313638</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6261060000000001</v>
+        <v>0.633974</v>
       </c>
       <c r="D67" t="n">
-        <v>0.715012</v>
+        <v>0.7007679999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.289336</v>
+        <v>0.287813</v>
       </c>
       <c r="F67" t="n">
-        <v>0.560994</v>
+        <v>0.571711</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.308786</v>
+        <v>0.303204</v>
       </c>
       <c r="C68" t="n">
-        <v>0.623007</v>
+        <v>0.609367</v>
       </c>
       <c r="D68" t="n">
-        <v>0.719252</v>
+        <v>0.696963</v>
       </c>
       <c r="E68" t="n">
-        <v>0.284994</v>
+        <v>0.285082</v>
       </c>
       <c r="F68" t="n">
-        <v>0.566543</v>
+        <v>0.562599</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301361</v>
+        <v>0.301536</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6282720000000001</v>
+        <v>0.615779</v>
       </c>
       <c r="D69" t="n">
-        <v>0.716792</v>
+        <v>0.714131</v>
       </c>
       <c r="E69" t="n">
-        <v>0.284772</v>
+        <v>0.282616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5614209999999999</v>
+        <v>0.562096</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.291633</v>
+        <v>0.297524</v>
       </c>
       <c r="C70" t="n">
-        <v>0.619444</v>
+        <v>0.606702</v>
       </c>
       <c r="D70" t="n">
-        <v>0.707111</v>
+        <v>0.704313</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283364</v>
+        <v>0.283966</v>
       </c>
       <c r="F70" t="n">
-        <v>0.559608</v>
+        <v>0.56472</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.28535</v>
+        <v>0.287319</v>
       </c>
       <c r="C71" t="n">
-        <v>0.621055</v>
+        <v>0.612077</v>
       </c>
       <c r="D71" t="n">
-        <v>0.708838</v>
+        <v>0.690673</v>
       </c>
       <c r="E71" t="n">
-        <v>0.285299</v>
+        <v>0.282834</v>
       </c>
       <c r="F71" t="n">
-        <v>0.559702</v>
+        <v>0.555525</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276405</v>
+        <v>0.275131</v>
       </c>
       <c r="C72" t="n">
-        <v>0.610567</v>
+        <v>0.602346</v>
       </c>
       <c r="D72" t="n">
-        <v>0.703678</v>
+        <v>0.694679</v>
       </c>
       <c r="E72" t="n">
-        <v>0.283394</v>
+        <v>0.279482</v>
       </c>
       <c r="F72" t="n">
-        <v>0.561134</v>
+        <v>0.549561</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.276899</v>
+        <v>0.272818</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6054389999999999</v>
+        <v>0.609256</v>
       </c>
       <c r="D73" t="n">
-        <v>0.699994</v>
+        <v>0.69179</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275927</v>
+        <v>0.275693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.562521</v>
+        <v>0.551518</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.268061</v>
+        <v>0.264842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.598978</v>
+        <v>0.601481</v>
       </c>
       <c r="D74" t="n">
-        <v>0.702053</v>
+        <v>0.690885</v>
       </c>
       <c r="E74" t="n">
-        <v>0.277421</v>
+        <v>0.272852</v>
       </c>
       <c r="F74" t="n">
-        <v>0.569839</v>
+        <v>0.551828</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260761</v>
+        <v>0.260613</v>
       </c>
       <c r="C75" t="n">
-        <v>0.602155</v>
+        <v>0.5916670000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.716363</v>
+        <v>0.685411</v>
       </c>
       <c r="E75" t="n">
-        <v>0.278161</v>
+        <v>0.274534</v>
       </c>
       <c r="F75" t="n">
-        <v>0.561738</v>
+        <v>0.547969</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.256341</v>
+        <v>0.252496</v>
       </c>
       <c r="C76" t="n">
-        <v>0.595268</v>
+        <v>0.592786</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7005169999999999</v>
+        <v>0.684873</v>
       </c>
       <c r="E76" t="n">
-        <v>0.275309</v>
+        <v>0.272621</v>
       </c>
       <c r="F76" t="n">
-        <v>0.565741</v>
+        <v>0.551218</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25036</v>
+        <v>0.242901</v>
       </c>
       <c r="C77" t="n">
-        <v>0.591022</v>
+        <v>0.577442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.711834</v>
+        <v>0.685689</v>
       </c>
       <c r="E77" t="n">
-        <v>0.274208</v>
+        <v>0.270924</v>
       </c>
       <c r="F77" t="n">
-        <v>0.560424</v>
+        <v>0.548629</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237829</v>
+        <v>0.237388</v>
       </c>
       <c r="C78" t="n">
-        <v>0.585276</v>
+        <v>0.582695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.785799</v>
+        <v>0.751999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.270554</v>
+        <v>0.274921</v>
       </c>
       <c r="F78" t="n">
-        <v>0.556644</v>
+        <v>0.548959</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.229132</v>
+        <v>0.227139</v>
       </c>
       <c r="C79" t="n">
-        <v>0.581351</v>
+        <v>0.57211</v>
       </c>
       <c r="D79" t="n">
-        <v>0.758012</v>
+        <v>0.7675110000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.275332</v>
+        <v>0.270117</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5575560000000001</v>
+        <v>0.549296</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219421</v>
+        <v>0.224023</v>
       </c>
       <c r="C80" t="n">
-        <v>0.562895</v>
+        <v>0.558833</v>
       </c>
       <c r="D80" t="n">
-        <v>0.763151</v>
+        <v>0.749897</v>
       </c>
       <c r="E80" t="n">
-        <v>0.304576</v>
+        <v>0.300635</v>
       </c>
       <c r="F80" t="n">
-        <v>0.568441</v>
+        <v>0.560791</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318925</v>
+        <v>0.313972</v>
       </c>
       <c r="C81" t="n">
-        <v>0.645099</v>
+        <v>0.620448</v>
       </c>
       <c r="D81" t="n">
-        <v>0.752562</v>
+        <v>0.744188</v>
       </c>
       <c r="E81" t="n">
-        <v>0.303285</v>
+        <v>0.292512</v>
       </c>
       <c r="F81" t="n">
-        <v>0.579758</v>
+        <v>0.563545</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.312366</v>
+        <v>0.311989</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6413990000000001</v>
+        <v>0.619408</v>
       </c>
       <c r="D82" t="n">
-        <v>0.746399</v>
+        <v>0.736633</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291921</v>
+        <v>0.291396</v>
       </c>
       <c r="F82" t="n">
-        <v>0.579176</v>
+        <v>0.565435</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.307895</v>
+        <v>0.304751</v>
       </c>
       <c r="C83" t="n">
-        <v>0.635255</v>
+        <v>0.609569</v>
       </c>
       <c r="D83" t="n">
-        <v>0.739697</v>
+        <v>0.734688</v>
       </c>
       <c r="E83" t="n">
-        <v>0.291117</v>
+        <v>0.29151</v>
       </c>
       <c r="F83" t="n">
-        <v>0.572905</v>
+        <v>0.564877</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298353</v>
+        <v>0.298381</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6632169999999999</v>
+        <v>0.642572</v>
       </c>
       <c r="D84" t="n">
-        <v>0.761177</v>
+        <v>0.75924</v>
       </c>
       <c r="E84" t="n">
-        <v>0.296047</v>
+        <v>0.287901</v>
       </c>
       <c r="F84" t="n">
-        <v>0.586574</v>
+        <v>0.582642</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29516</v>
+        <v>0.29034</v>
       </c>
       <c r="C85" t="n">
-        <v>0.658641</v>
+        <v>0.63976</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7537160000000001</v>
+        <v>0.763406</v>
       </c>
       <c r="E85" t="n">
-        <v>0.284528</v>
+        <v>0.287354</v>
       </c>
       <c r="F85" t="n">
-        <v>0.595218</v>
+        <v>0.588175</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.287136</v>
+        <v>0.285138</v>
       </c>
       <c r="C86" t="n">
-        <v>0.659642</v>
+        <v>0.645832</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7667580000000001</v>
+        <v>0.747682</v>
       </c>
       <c r="E86" t="n">
-        <v>0.282125</v>
+        <v>0.281245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5833469999999999</v>
+        <v>0.589171</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.274908</v>
+        <v>0.277268</v>
       </c>
       <c r="C87" t="n">
-        <v>0.659421</v>
+        <v>0.6333220000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.75307</v>
+        <v>0.759211</v>
       </c>
       <c r="E87" t="n">
-        <v>0.279984</v>
+        <v>0.280263</v>
       </c>
       <c r="F87" t="n">
-        <v>0.587605</v>
+        <v>0.58844</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.27725</v>
+        <v>0.270323</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6400940000000001</v>
+        <v>0.630393</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7555269999999999</v>
+        <v>0.765133</v>
       </c>
       <c r="E88" t="n">
-        <v>0.284213</v>
+        <v>0.281193</v>
       </c>
       <c r="F88" t="n">
-        <v>0.590814</v>
+        <v>0.587555</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.262588</v>
+        <v>0.263952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.628016</v>
+        <v>0.606996</v>
       </c>
       <c r="D89" t="n">
-        <v>0.76505</v>
+        <v>0.754674</v>
       </c>
       <c r="E89" t="n">
-        <v>0.279354</v>
+        <v>0.278012</v>
       </c>
       <c r="F89" t="n">
-        <v>0.586431</v>
+        <v>0.581489</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.253808</v>
+        <v>0.258643</v>
       </c>
       <c r="C90" t="n">
-        <v>0.629792</v>
+        <v>0.608088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.758771</v>
+        <v>0.747521</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275774</v>
+        <v>0.275484</v>
       </c>
       <c r="F90" t="n">
-        <v>0.584434</v>
+        <v>0.576953</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.250382</v>
+        <v>0.253704</v>
       </c>
       <c r="C91" t="n">
-        <v>0.627426</v>
+        <v>0.597394</v>
       </c>
       <c r="D91" t="n">
-        <v>0.770092</v>
+        <v>0.742818</v>
       </c>
       <c r="E91" t="n">
-        <v>0.275761</v>
+        <v>0.2762</v>
       </c>
       <c r="F91" t="n">
-        <v>0.579485</v>
+        <v>0.574574</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245131</v>
+        <v>0.240973</v>
       </c>
       <c r="C92" t="n">
-        <v>0.623756</v>
+        <v>0.599353</v>
       </c>
       <c r="D92" t="n">
-        <v>0.670482</v>
+        <v>0.665036</v>
       </c>
       <c r="E92" t="n">
-        <v>0.270803</v>
+        <v>0.272295</v>
       </c>
       <c r="F92" t="n">
-        <v>0.583929</v>
+        <v>0.582341</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.233423</v>
+        <v>0.235508</v>
       </c>
       <c r="C93" t="n">
-        <v>0.607245</v>
+        <v>0.597434</v>
       </c>
       <c r="D93" t="n">
-        <v>0.657091</v>
+        <v>0.656228</v>
       </c>
       <c r="E93" t="n">
-        <v>0.276277</v>
+        <v>0.275453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.575487</v>
+        <v>0.5763779999999999</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225815</v>
+        <v>0.223989</v>
       </c>
       <c r="C94" t="n">
-        <v>0.603983</v>
+        <v>0.5871420000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.666804</v>
+        <v>0.65039</v>
       </c>
       <c r="E94" t="n">
-        <v>0.302008</v>
+        <v>0.300038</v>
       </c>
       <c r="F94" t="n">
-        <v>0.598505</v>
+        <v>0.586515</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.320129</v>
+        <v>0.319416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6606880000000001</v>
+        <v>0.650959</v>
       </c>
       <c r="D95" t="n">
-        <v>0.670731</v>
+        <v>0.663803</v>
       </c>
       <c r="E95" t="n">
-        <v>0.295205</v>
+        <v>0.294746</v>
       </c>
       <c r="F95" t="n">
-        <v>0.586273</v>
+        <v>0.587056</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.314507</v>
+        <v>0.313388</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6445380000000001</v>
+        <v>0.640787</v>
       </c>
       <c r="D96" t="n">
-        <v>0.659309</v>
+        <v>0.658907</v>
       </c>
       <c r="E96" t="n">
-        <v>0.297555</v>
+        <v>0.292177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.59398</v>
+        <v>0.594705</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308862</v>
+        <v>0.305577</v>
       </c>
       <c r="C97" t="n">
-        <v>0.638571</v>
+        <v>0.636409</v>
       </c>
       <c r="D97" t="n">
-        <v>0.663575</v>
+        <v>0.651955</v>
       </c>
       <c r="E97" t="n">
-        <v>0.29133</v>
+        <v>0.291108</v>
       </c>
       <c r="F97" t="n">
-        <v>0.596906</v>
+        <v>0.590348</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.30887</v>
+        <v>0.299655</v>
       </c>
       <c r="C98" t="n">
-        <v>0.637332</v>
+        <v>0.630752</v>
       </c>
       <c r="D98" t="n">
-        <v>0.663424</v>
+        <v>0.643666</v>
       </c>
       <c r="E98" t="n">
-        <v>0.291233</v>
+        <v>0.287753</v>
       </c>
       <c r="F98" t="n">
-        <v>0.586425</v>
+        <v>0.588172</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.299652</v>
+        <v>0.291279</v>
       </c>
       <c r="C99" t="n">
-        <v>0.634259</v>
+        <v>0.624873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.670377</v>
+        <v>0.651809</v>
       </c>
       <c r="E99" t="n">
-        <v>0.289169</v>
+        <v>0.284633</v>
       </c>
       <c r="F99" t="n">
-        <v>0.586365</v>
+        <v>0.601116</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284378</v>
+        <v>0.284306</v>
       </c>
       <c r="C100" t="n">
-        <v>0.660363</v>
+        <v>0.620906</v>
       </c>
       <c r="D100" t="n">
-        <v>0.661125</v>
+        <v>0.641115</v>
       </c>
       <c r="E100" t="n">
-        <v>0.283426</v>
+        <v>0.28303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.587349</v>
+        <v>0.5887559999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277994</v>
+        <v>0.277243</v>
       </c>
       <c r="C101" t="n">
-        <v>0.655686</v>
+        <v>0.620957</v>
       </c>
       <c r="D101" t="n">
-        <v>0.653451</v>
+        <v>0.647844</v>
       </c>
       <c r="E101" t="n">
-        <v>0.283122</v>
+        <v>0.280557</v>
       </c>
       <c r="F101" t="n">
-        <v>0.582668</v>
+        <v>0.579875</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27312</v>
+        <v>0.273807</v>
       </c>
       <c r="C102" t="n">
-        <v>0.647442</v>
+        <v>0.615717</v>
       </c>
       <c r="D102" t="n">
-        <v>0.666726</v>
+        <v>0.662562</v>
       </c>
       <c r="E102" t="n">
-        <v>0.28176</v>
+        <v>0.280013</v>
       </c>
       <c r="F102" t="n">
-        <v>0.579901</v>
+        <v>0.5839259999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.265748</v>
+        <v>0.266578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6507579999999999</v>
+        <v>0.603787</v>
       </c>
       <c r="D103" t="n">
-        <v>0.662031</v>
+        <v>0.653648</v>
       </c>
       <c r="E103" t="n">
-        <v>0.281549</v>
+        <v>0.278238</v>
       </c>
       <c r="F103" t="n">
-        <v>0.585184</v>
+        <v>0.593203</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.258453</v>
+        <v>0.257815</v>
       </c>
       <c r="C104" t="n">
-        <v>0.639375</v>
+        <v>0.595942</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668238</v>
+        <v>0.652152</v>
       </c>
       <c r="E104" t="n">
-        <v>0.276541</v>
+        <v>0.274804</v>
       </c>
       <c r="F104" t="n">
-        <v>0.582543</v>
+        <v>0.593557</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25307</v>
+        <v>0.252926</v>
       </c>
       <c r="C105" t="n">
-        <v>0.628995</v>
+        <v>0.592473</v>
       </c>
       <c r="D105" t="n">
-        <v>0.664703</v>
+        <v>0.660904</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275035</v>
+        <v>0.275296</v>
       </c>
       <c r="F105" t="n">
-        <v>0.589278</v>
+        <v>0.575989</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242869</v>
+        <v>0.242963</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6341869999999999</v>
+        <v>0.595069</v>
       </c>
       <c r="D106" t="n">
-        <v>0.673213</v>
+        <v>0.650031</v>
       </c>
       <c r="E106" t="n">
-        <v>0.276863</v>
+        <v>0.272821</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5893080000000001</v>
+        <v>0.579021</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.237729</v>
+        <v>0.236548</v>
       </c>
       <c r="C107" t="n">
-        <v>0.617521</v>
+        <v>0.592303</v>
       </c>
       <c r="D107" t="n">
-        <v>0.659521</v>
+        <v>0.64093</v>
       </c>
       <c r="E107" t="n">
-        <v>0.276229</v>
+        <v>0.271201</v>
       </c>
       <c r="F107" t="n">
-        <v>0.583377</v>
+        <v>0.574732</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.229407</v>
+        <v>0.232917</v>
       </c>
       <c r="C108" t="n">
-        <v>0.611913</v>
+        <v>0.583676</v>
       </c>
       <c r="D108" t="n">
-        <v>0.672311</v>
+        <v>0.639043</v>
       </c>
       <c r="E108" t="n">
-        <v>0.305497</v>
+        <v>0.299184</v>
       </c>
       <c r="F108" t="n">
-        <v>0.595194</v>
+        <v>0.590511</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.217608</v>
+        <v>0.218503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5994660000000001</v>
+        <v>0.572013</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6632710000000001</v>
+        <v>0.654689</v>
       </c>
       <c r="E109" t="n">
-        <v>0.29719</v>
+        <v>0.298308</v>
       </c>
       <c r="F109" t="n">
-        <v>0.592567</v>
+        <v>0.596671</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.320169</v>
+        <v>0.312123</v>
       </c>
       <c r="C110" t="n">
-        <v>0.653041</v>
+        <v>0.649864</v>
       </c>
       <c r="D110" t="n">
-        <v>0.652452</v>
+        <v>0.642978</v>
       </c>
       <c r="E110" t="n">
-        <v>0.29523</v>
+        <v>0.297869</v>
       </c>
       <c r="F110" t="n">
-        <v>0.589655</v>
+        <v>0.59002</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.306169</v>
+        <v>0.309987</v>
       </c>
       <c r="C111" t="n">
-        <v>0.654689</v>
+        <v>0.6421790000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.655869</v>
+        <v>0.64923</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293299</v>
+        <v>0.293777</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5906439999999999</v>
+        <v>0.587091</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.300787</v>
+        <v>0.30082</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.653259</v>
       </c>
       <c r="D112" t="n">
-        <v>0.650423</v>
+        <v>0.638319</v>
       </c>
       <c r="E112" t="n">
-        <v>0.28804</v>
+        <v>0.291281</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588266</v>
+        <v>0.588464</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292277</v>
+        <v>0.295209</v>
       </c>
       <c r="C113" t="n">
-        <v>0.637182</v>
+        <v>0.639964</v>
       </c>
       <c r="D113" t="n">
-        <v>0.652906</v>
+        <v>0.655424</v>
       </c>
       <c r="E113" t="n">
-        <v>0.288365</v>
+        <v>0.286702</v>
       </c>
       <c r="F113" t="n">
-        <v>0.591537</v>
+        <v>0.594722</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287973</v>
+        <v>0.286116</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6298859999999999</v>
+        <v>0.650413</v>
       </c>
       <c r="D114" t="n">
-        <v>0.651187</v>
+        <v>0.6372060000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284662</v>
+        <v>0.284187</v>
       </c>
       <c r="F114" t="n">
-        <v>0.587706</v>
+        <v>0.580726</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279331</v>
+        <v>0.27774</v>
       </c>
       <c r="C115" t="n">
-        <v>0.629202</v>
+        <v>0.651716</v>
       </c>
       <c r="D115" t="n">
-        <v>0.653446</v>
+        <v>0.64276</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282149</v>
+        <v>0.282448</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5787679999999999</v>
+        <v>0.579312</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272079</v>
+        <v>0.271004</v>
       </c>
       <c r="C116" t="n">
-        <v>0.619478</v>
+        <v>0.607351</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656204</v>
+        <v>0.638342</v>
       </c>
       <c r="E116" t="n">
-        <v>0.279701</v>
+        <v>0.280561</v>
       </c>
       <c r="F116" t="n">
-        <v>0.584139</v>
+        <v>0.581498</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2676</v>
+        <v>0.263795</v>
       </c>
       <c r="C117" t="n">
-        <v>0.617909</v>
+        <v>0.603174</v>
       </c>
       <c r="D117" t="n">
-        <v>0.660662</v>
+        <v>0.645247</v>
       </c>
       <c r="E117" t="n">
-        <v>0.280402</v>
+        <v>0.276881</v>
       </c>
       <c r="F117" t="n">
-        <v>0.577919</v>
+        <v>0.5779</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.261048</v>
+        <v>0.25716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.617255</v>
+        <v>0.619275</v>
       </c>
       <c r="D118" t="n">
-        <v>0.66961</v>
+        <v>0.644781</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277707</v>
+        <v>0.280588</v>
       </c>
       <c r="F118" t="n">
-        <v>0.581237</v>
+        <v>0.574067</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.251416</v>
+        <v>0.254869</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6095660000000001</v>
+        <v>0.607654</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6760389999999999</v>
+        <v>0.646971</v>
       </c>
       <c r="E119" t="n">
-        <v>0.277906</v>
+        <v>0.276441</v>
       </c>
       <c r="F119" t="n">
-        <v>0.578399</v>
+        <v>0.57542</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243733</v>
+        <v>0.243039</v>
       </c>
       <c r="C120" t="n">
-        <v>0.601038</v>
+        <v>0.589903</v>
       </c>
       <c r="D120" t="n">
-        <v>0.662303</v>
+        <v>0.651135</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275296</v>
+        <v>0.275331</v>
       </c>
       <c r="F120" t="n">
-        <v>0.584027</v>
+        <v>0.579938</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23613</v>
+        <v>0.237327</v>
       </c>
       <c r="C121" t="n">
-        <v>0.590101</v>
+        <v>0.595574</v>
       </c>
       <c r="D121" t="n">
-        <v>0.661096</v>
+        <v>0.651915</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272154</v>
+        <v>0.272683</v>
       </c>
       <c r="F121" t="n">
-        <v>0.582317</v>
+        <v>0.572082</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229691</v>
+        <v>0.230434</v>
       </c>
       <c r="C122" t="n">
-        <v>0.595193</v>
+        <v>0.589827</v>
       </c>
       <c r="D122" t="n">
-        <v>0.67388</v>
+        <v>0.654528</v>
       </c>
       <c r="E122" t="n">
-        <v>0.271685</v>
+        <v>0.269805</v>
       </c>
       <c r="F122" t="n">
-        <v>0.579611</v>
+        <v>0.573076</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222313</v>
+        <v>0.218457</v>
       </c>
       <c r="C123" t="n">
-        <v>0.615062</v>
+        <v>0.587803</v>
       </c>
       <c r="D123" t="n">
-        <v>0.666951</v>
+        <v>0.6465689999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.296592</v>
+        <v>0.295928</v>
       </c>
       <c r="F123" t="n">
-        <v>0.605295</v>
+        <v>0.596723</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.315508</v>
+        <v>0.311869</v>
       </c>
       <c r="C124" t="n">
-        <v>0.662102</v>
+        <v>0.650271</v>
       </c>
       <c r="D124" t="n">
-        <v>0.659443</v>
+        <v>0.65085</v>
       </c>
       <c r="E124" t="n">
-        <v>0.294977</v>
+        <v>0.292989</v>
       </c>
       <c r="F124" t="n">
-        <v>0.607861</v>
+        <v>0.586048</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307885</v>
+        <v>0.30801</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6401019999999999</v>
+        <v>0.667609</v>
       </c>
       <c r="D125" t="n">
-        <v>0.668782</v>
+        <v>0.6488699999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.293679</v>
+        <v>0.291511</v>
       </c>
       <c r="F125" t="n">
-        <v>0.591682</v>
+        <v>0.585518</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306187</v>
+        <v>0.301286</v>
       </c>
       <c r="C126" t="n">
-        <v>0.637513</v>
+        <v>0.668079</v>
       </c>
       <c r="D126" t="n">
-        <v>0.655681</v>
+        <v>0.648026</v>
       </c>
       <c r="E126" t="n">
-        <v>0.287581</v>
+        <v>0.288786</v>
       </c>
       <c r="F126" t="n">
-        <v>0.603029</v>
+        <v>0.595027</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.294988</v>
+        <v>0.292728</v>
       </c>
       <c r="C127" t="n">
-        <v>0.649087</v>
+        <v>0.657983</v>
       </c>
       <c r="D127" t="n">
-        <v>0.67194</v>
+        <v>0.663915</v>
       </c>
       <c r="E127" t="n">
-        <v>0.288208</v>
+        <v>0.285445</v>
       </c>
       <c r="F127" t="n">
-        <v>0.59078</v>
+        <v>0.583172</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.290127</v>
+        <v>0.286681</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6330789999999999</v>
+        <v>0.665812</v>
       </c>
       <c r="D128" t="n">
-        <v>0.671001</v>
+        <v>0.662971</v>
       </c>
       <c r="E128" t="n">
-        <v>0.284426</v>
+        <v>0.283172</v>
       </c>
       <c r="F128" t="n">
-        <v>0.59309</v>
+        <v>0.583195</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284887</v>
+        <v>0.278742</v>
       </c>
       <c r="C129" t="n">
-        <v>0.637913</v>
+        <v>0.633148</v>
       </c>
       <c r="D129" t="n">
-        <v>0.658246</v>
+        <v>0.6465919999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.291162</v>
+        <v>0.281586</v>
       </c>
       <c r="F129" t="n">
-        <v>0.580199</v>
+        <v>0.578855</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.274006</v>
+        <v>0.273493</v>
       </c>
       <c r="C130" t="n">
-        <v>0.615621</v>
+        <v>0.63826</v>
       </c>
       <c r="D130" t="n">
-        <v>0.666172</v>
+        <v>0.648012</v>
       </c>
       <c r="E130" t="n">
-        <v>0.284195</v>
+        <v>0.282048</v>
       </c>
       <c r="F130" t="n">
-        <v>0.582849</v>
+        <v>0.578981</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.268103</v>
+        <v>0.266834</v>
       </c>
       <c r="C131" t="n">
-        <v>0.659327</v>
+        <v>0.605373</v>
       </c>
       <c r="D131" t="n">
-        <v>0.668779</v>
+        <v>0.6493989999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.283688</v>
+        <v>0.278165</v>
       </c>
       <c r="F131" t="n">
-        <v>0.588995</v>
+        <v>0.57744</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259001</v>
+        <v>0.258825</v>
       </c>
       <c r="C132" t="n">
-        <v>0.605255</v>
+        <v>0.645172</v>
       </c>
       <c r="D132" t="n">
-        <v>0.664618</v>
+        <v>0.654556</v>
       </c>
       <c r="E132" t="n">
-        <v>0.280539</v>
+        <v>0.277988</v>
       </c>
       <c r="F132" t="n">
-        <v>0.58364</v>
+        <v>0.5769919999999999</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.254658</v>
+        <v>0.253987</v>
       </c>
       <c r="C133" t="n">
-        <v>0.632059</v>
+        <v>0.599088</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6812049999999999</v>
+        <v>0.652918</v>
       </c>
       <c r="E133" t="n">
-        <v>0.276078</v>
+        <v>0.275568</v>
       </c>
       <c r="F133" t="n">
-        <v>0.591611</v>
+        <v>0.575194</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244585</v>
+        <v>0.244298</v>
       </c>
       <c r="C134" t="n">
-        <v>0.597191</v>
+        <v>0.60891</v>
       </c>
       <c r="D134" t="n">
-        <v>0.670656</v>
+        <v>0.652613</v>
       </c>
       <c r="E134" t="n">
-        <v>0.280104</v>
+        <v>0.274651</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5830650000000001</v>
+        <v>0.577515</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237747</v>
+        <v>0.237514</v>
       </c>
       <c r="C135" t="n">
-        <v>0.62999</v>
+        <v>0.602723</v>
       </c>
       <c r="D135" t="n">
-        <v>0.678636</v>
+        <v>0.656041</v>
       </c>
       <c r="E135" t="n">
-        <v>0.272853</v>
+        <v>0.273211</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5818449999999999</v>
+        <v>0.576247</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.228841</v>
+        <v>0.229254</v>
       </c>
       <c r="C136" t="n">
-        <v>0.585704</v>
+        <v>0.599568</v>
       </c>
       <c r="D136" t="n">
-        <v>0.676158</v>
+        <v>0.656501</v>
       </c>
       <c r="E136" t="n">
-        <v>0.28021</v>
+        <v>0.273552</v>
       </c>
       <c r="F136" t="n">
-        <v>0.584264</v>
+        <v>0.574039</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227193</v>
+        <v>0.219711</v>
       </c>
       <c r="C137" t="n">
-        <v>0.611279</v>
+        <v>0.580296</v>
       </c>
       <c r="D137" t="n">
-        <v>0.686095</v>
+        <v>0.647165</v>
       </c>
       <c r="E137" t="n">
-        <v>0.306157</v>
+        <v>0.315944</v>
       </c>
       <c r="F137" t="n">
-        <v>0.59798</v>
+        <v>0.590372</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.318577</v>
+        <v>0.313476</v>
       </c>
       <c r="C138" t="n">
-        <v>0.661923</v>
+        <v>0.640769</v>
       </c>
       <c r="D138" t="n">
-        <v>0.660977</v>
+        <v>0.665533</v>
       </c>
       <c r="E138" t="n">
-        <v>0.298668</v>
+        <v>0.292821</v>
       </c>
       <c r="F138" t="n">
-        <v>0.597959</v>
+        <v>0.5880609999999999</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312638</v>
+        <v>0.312577</v>
       </c>
       <c r="C139" t="n">
-        <v>0.671994</v>
+        <v>0.665536</v>
       </c>
       <c r="D139" t="n">
-        <v>0.666169</v>
+        <v>0.651328</v>
       </c>
       <c r="E139" t="n">
-        <v>0.292941</v>
+        <v>0.290532</v>
       </c>
       <c r="F139" t="n">
-        <v>0.59879</v>
+        <v>0.586801</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.307719</v>
+        <v>0.302959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.638109</v>
+        <v>0.62903</v>
       </c>
       <c r="D140" t="n">
-        <v>0.681915</v>
+        <v>0.655913</v>
       </c>
       <c r="E140" t="n">
-        <v>0.289263</v>
+        <v>0.288411</v>
       </c>
       <c r="F140" t="n">
-        <v>0.588379</v>
+        <v>0.58397</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.299361</v>
+        <v>0.294927</v>
       </c>
       <c r="C141" t="n">
-        <v>0.636695</v>
+        <v>0.623438</v>
       </c>
       <c r="D141" t="n">
-        <v>0.689447</v>
+        <v>0.649264</v>
       </c>
       <c r="E141" t="n">
-        <v>0.28884</v>
+        <v>0.286511</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594588</v>
+        <v>0.594562</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289649</v>
+        <v>0.289242</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631952</v>
+        <v>0.619502</v>
       </c>
       <c r="D142" t="n">
-        <v>0.669966</v>
+        <v>0.658465</v>
       </c>
       <c r="E142" t="n">
-        <v>0.284878</v>
+        <v>0.28691</v>
       </c>
       <c r="F142" t="n">
-        <v>0.593433</v>
+        <v>0.580527</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.286555</v>
+        <v>0.282289</v>
       </c>
       <c r="C143" t="n">
-        <v>0.637352</v>
+        <v>0.624497</v>
       </c>
       <c r="D143" t="n">
-        <v>0.680583</v>
+        <v>0.6443140000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.282684</v>
+        <v>0.283794</v>
       </c>
       <c r="F143" t="n">
-        <v>0.593781</v>
+        <v>0.5793779999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252428</v>
+        <v>0.249747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52781</v>
+        <v>0.5154029999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537276</v>
+        <v>0.537018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267945</v>
+        <v>0.268824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520455</v>
+        <v>0.5227309999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241753</v>
+        <v>0.248097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520833</v>
+        <v>0.5263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534304</v>
+        <v>0.535022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257606</v>
+        <v>0.269056</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52288</v>
+        <v>0.520225</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239487</v>
+        <v>0.239038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515636</v>
+        <v>0.515628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532927</v>
+        <v>0.528388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.257951</v>
+        <v>0.262226</v>
       </c>
       <c r="F4" t="n">
-        <v>0.530872</v>
+        <v>0.520201</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233003</v>
+        <v>0.23734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516687</v>
+        <v>0.509749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535187</v>
+        <v>0.526215</v>
       </c>
       <c r="E5" t="n">
-        <v>0.257768</v>
+        <v>0.258764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.512561</v>
+        <v>0.514294</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223577</v>
+        <v>0.226769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502808</v>
+        <v>0.494498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533683</v>
+        <v>0.515894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.256549</v>
+        <v>0.253963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51589</v>
+        <v>0.5042140000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218109</v>
+        <v>0.216627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494135</v>
+        <v>0.487989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.521241</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255817</v>
+        <v>0.253171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.516205</v>
+        <v>0.501271</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21333</v>
+        <v>0.210022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501547</v>
+        <v>0.483171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541099</v>
+        <v>0.523311</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255988</v>
+        <v>0.259243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.511623</v>
+        <v>0.513343</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201504</v>
+        <v>0.201172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478511</v>
+        <v>0.476815</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539085</v>
+        <v>0.534659</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270637</v>
+        <v>0.266754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523956</v>
+        <v>0.51701</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291965</v>
+        <v>0.288324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54649</v>
+        <v>0.535042</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541981</v>
+        <v>0.520124</v>
       </c>
       <c r="E10" t="n">
-        <v>0.270913</v>
+        <v>0.267798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.525517</v>
+        <v>0.5238429999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288323</v>
+        <v>0.288804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.542883</v>
+        <v>0.548534</v>
       </c>
       <c r="D11" t="n">
-        <v>0.539214</v>
+        <v>0.528863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.269458</v>
+        <v>0.268996</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523726</v>
+        <v>0.531678</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283681</v>
+        <v>0.281904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541216</v>
+        <v>0.53826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.52977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266955</v>
+        <v>0.273683</v>
       </c>
       <c r="F12" t="n">
-        <v>0.534187</v>
+        <v>0.516304</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279081</v>
+        <v>0.273351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.528164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54037</v>
+        <v>0.522008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265164</v>
+        <v>0.264678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52457</v>
+        <v>0.516746</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274928</v>
+        <v>0.273313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530776</v>
+        <v>0.519718</v>
       </c>
       <c r="D14" t="n">
-        <v>0.539595</v>
+        <v>0.522803</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26581</v>
+        <v>0.267701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.521443</v>
+        <v>0.509101</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263171</v>
+        <v>0.259489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524521</v>
+        <v>0.518784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529278</v>
+        <v>0.533631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.262552</v>
+        <v>0.260358</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.514358</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256792</v>
+        <v>0.257711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521418</v>
+        <v>0.514027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.523187</v>
+        <v>0.517405</v>
       </c>
       <c r="E16" t="n">
-        <v>0.261859</v>
+        <v>0.259281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.519783</v>
+        <v>0.509082</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251242</v>
+        <v>0.249853</v>
       </c>
       <c r="C17" t="n">
-        <v>0.516529</v>
+        <v>0.5098200000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.540484</v>
+        <v>0.530046</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266601</v>
+        <v>0.258706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52826</v>
+        <v>0.510284</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248302</v>
+        <v>0.245179</v>
       </c>
       <c r="C18" t="n">
-        <v>0.528056</v>
+        <v>0.5053530000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.527291</v>
+        <v>0.524906</v>
       </c>
       <c r="E18" t="n">
-        <v>0.257797</v>
+        <v>0.262543</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512462</v>
+        <v>0.506846</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236978</v>
+        <v>0.237369</v>
       </c>
       <c r="C19" t="n">
-        <v>0.50178</v>
+        <v>0.501116</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538364</v>
+        <v>0.528321</v>
       </c>
       <c r="E19" t="n">
-        <v>0.262355</v>
+        <v>0.25782</v>
       </c>
       <c r="F19" t="n">
-        <v>0.511066</v>
+        <v>0.507538</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231188</v>
+        <v>0.231272</v>
       </c>
       <c r="C20" t="n">
-        <v>0.509908</v>
+        <v>0.499531</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526325</v>
+        <v>0.526428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257438</v>
+        <v>0.259333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.520529</v>
+        <v>0.506051</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229585</v>
+        <v>0.22449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498746</v>
+        <v>0.490262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.546269</v>
+        <v>0.533548</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261979</v>
+        <v>0.260429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5128779999999999</v>
+        <v>0.507619</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216764</v>
+        <v>0.218666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497511</v>
+        <v>0.498672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.54483</v>
+        <v>0.534106</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256668</v>
+        <v>0.255371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.515745</v>
+        <v>0.505352</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21356</v>
+        <v>0.208656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493426</v>
+        <v>0.488921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531631</v>
+        <v>0.535419</v>
       </c>
       <c r="E23" t="n">
-        <v>0.271209</v>
+        <v>0.272109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.519168</v>
+        <v>0.517082</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.291109</v>
+        <v>0.294251</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545308</v>
+        <v>0.553988</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539629</v>
+        <v>0.530405</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272674</v>
+        <v>0.270913</v>
       </c>
       <c r="F24" t="n">
-        <v>0.544932</v>
+        <v>0.521647</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285705</v>
+        <v>0.289264</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.536685</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552594</v>
+        <v>0.544305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269714</v>
+        <v>0.269541</v>
       </c>
       <c r="F25" t="n">
-        <v>0.518417</v>
+        <v>0.517196</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28404</v>
+        <v>0.280938</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543013</v>
+        <v>0.5404870000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.527687</v>
+        <v>0.537626</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270937</v>
+        <v>0.270539</v>
       </c>
       <c r="F26" t="n">
-        <v>0.518662</v>
+        <v>0.5232019999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28453</v>
+        <v>0.27469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538207</v>
+        <v>0.537922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534228</v>
+        <v>0.529305</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268592</v>
+        <v>0.269027</v>
       </c>
       <c r="F27" t="n">
-        <v>0.512971</v>
+        <v>0.51799</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270584</v>
+        <v>0.269331</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532612</v>
+        <v>0.523663</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.530161</v>
       </c>
       <c r="E28" t="n">
-        <v>0.268494</v>
+        <v>0.273791</v>
       </c>
       <c r="F28" t="n">
-        <v>0.522859</v>
+        <v>0.516649</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270388</v>
+        <v>0.263523</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52903</v>
+        <v>0.528917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.535377</v>
+        <v>0.531042</v>
       </c>
       <c r="E29" t="n">
-        <v>0.265154</v>
+        <v>0.264849</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5160169999999999</v>
+        <v>0.510238</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265661</v>
+        <v>0.257209</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535227</v>
+        <v>0.527132</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.543195</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26483</v>
+        <v>0.264359</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521811</v>
+        <v>0.514655</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256184</v>
+        <v>0.253025</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520594</v>
+        <v>0.518889</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535431</v>
+        <v>0.534147</v>
       </c>
       <c r="E31" t="n">
-        <v>0.263411</v>
+        <v>0.261753</v>
       </c>
       <c r="F31" t="n">
-        <v>0.511521</v>
+        <v>0.520979</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248558</v>
+        <v>0.246964</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519845</v>
+        <v>0.52106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533465</v>
+        <v>0.535038</v>
       </c>
       <c r="E32" t="n">
-        <v>0.269047</v>
+        <v>0.263028</v>
       </c>
       <c r="F32" t="n">
-        <v>0.514757</v>
+        <v>0.515164</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242564</v>
+        <v>0.238915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515693</v>
+        <v>0.507067</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540442</v>
+        <v>0.529913</v>
       </c>
       <c r="E33" t="n">
-        <v>0.261169</v>
+        <v>0.260624</v>
       </c>
       <c r="F33" t="n">
-        <v>0.516575</v>
+        <v>0.510285</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240611</v>
+        <v>0.233833</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51174</v>
+        <v>0.508192</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5347420000000001</v>
+        <v>0.532908</v>
       </c>
       <c r="E34" t="n">
-        <v>0.259858</v>
+        <v>0.260903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.508845</v>
+        <v>0.516113</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228465</v>
+        <v>0.226051</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497673</v>
+        <v>0.505512</v>
       </c>
       <c r="D35" t="n">
-        <v>0.553582</v>
+        <v>0.546274</v>
       </c>
       <c r="E35" t="n">
-        <v>0.259117</v>
+        <v>0.260694</v>
       </c>
       <c r="F35" t="n">
-        <v>0.505726</v>
+        <v>0.515563</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225613</v>
+        <v>0.2195</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499722</v>
+        <v>0.498184</v>
       </c>
       <c r="D36" t="n">
-        <v>0.554043</v>
+        <v>0.561978</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258172</v>
+        <v>0.256927</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514942</v>
+        <v>0.518787</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213727</v>
+        <v>0.216331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490636</v>
+        <v>0.490728</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548243</v>
+        <v>0.552917</v>
       </c>
       <c r="E37" t="n">
-        <v>0.275828</v>
+        <v>0.279863</v>
       </c>
       <c r="F37" t="n">
-        <v>0.527677</v>
+        <v>0.521141</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296596</v>
+        <v>0.29413</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554775</v>
+        <v>0.552122</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54377</v>
+        <v>0.552752</v>
       </c>
       <c r="E38" t="n">
-        <v>0.274018</v>
+        <v>0.2767</v>
       </c>
       <c r="F38" t="n">
-        <v>0.518694</v>
+        <v>0.521404</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289029</v>
+        <v>0.290292</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553021</v>
+        <v>0.552582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.552193</v>
+        <v>0.547138</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287422</v>
+        <v>0.277066</v>
       </c>
       <c r="F39" t="n">
-        <v>0.527864</v>
+        <v>0.523385</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291025</v>
+        <v>0.288211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.552304</v>
+        <v>0.55688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5552240000000001</v>
+        <v>0.557959</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272086</v>
+        <v>0.279684</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.519993</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280323</v>
+        <v>0.281753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.544975</v>
+        <v>0.545017</v>
       </c>
       <c r="D41" t="n">
-        <v>0.559289</v>
+        <v>0.545581</v>
       </c>
       <c r="E41" t="n">
-        <v>0.276376</v>
+        <v>0.27332</v>
       </c>
       <c r="F41" t="n">
-        <v>0.519661</v>
+        <v>0.516298</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.273861</v>
+        <v>0.280318</v>
       </c>
       <c r="C42" t="n">
-        <v>0.539541</v>
+        <v>0.536389</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554874</v>
+        <v>0.550725</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268665</v>
+        <v>0.27097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.519178</v>
+        <v>0.51466</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.269765</v>
+        <v>0.267722</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53271</v>
+        <v>0.5378039999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558514</v>
+        <v>0.547017</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267936</v>
+        <v>0.268689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.520994</v>
+        <v>0.516861</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263644</v>
+        <v>0.261581</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5376</v>
+        <v>0.528263</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562559</v>
+        <v>0.548741</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269958</v>
+        <v>0.266179</v>
       </c>
       <c r="F44" t="n">
-        <v>0.523326</v>
+        <v>0.516838</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259849</v>
+        <v>0.257274</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539801</v>
+        <v>0.526423</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56136</v>
+        <v>0.566541</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267062</v>
+        <v>0.267502</v>
       </c>
       <c r="F45" t="n">
-        <v>0.524771</v>
+        <v>0.513598</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253945</v>
+        <v>0.249472</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5232290000000001</v>
+        <v>0.5245300000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567245</v>
+        <v>0.557707</v>
       </c>
       <c r="E46" t="n">
-        <v>0.263515</v>
+        <v>0.2719</v>
       </c>
       <c r="F46" t="n">
-        <v>0.517921</v>
+        <v>0.514116</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244157</v>
+        <v>0.243357</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529213</v>
+        <v>0.5158160000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5729610000000001</v>
+        <v>0.564737</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264378</v>
+        <v>0.264896</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521895</v>
+        <v>0.523455</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240725</v>
+        <v>0.23982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527589</v>
+        <v>0.525379</v>
       </c>
       <c r="D48" t="n">
-        <v>0.556323</v>
+        <v>0.5669960000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.261513</v>
+        <v>0.264991</v>
       </c>
       <c r="F48" t="n">
-        <v>0.511731</v>
+        <v>0.513243</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235345</v>
+        <v>0.232961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509695</v>
+        <v>0.513783</v>
       </c>
       <c r="D49" t="n">
-        <v>0.579402</v>
+        <v>0.569096</v>
       </c>
       <c r="E49" t="n">
-        <v>0.260313</v>
+        <v>0.269278</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513276</v>
+        <v>0.513357</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223386</v>
+        <v>0.223846</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5060170000000001</v>
+        <v>0.502614</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623855</v>
+        <v>0.628423</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266707</v>
+        <v>0.259975</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5181789999999999</v>
+        <v>0.516694</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217102</v>
+        <v>0.215525</v>
       </c>
       <c r="C51" t="n">
-        <v>0.514997</v>
+        <v>0.497605</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62001</v>
+        <v>0.6265579999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282858</v>
+        <v>0.282346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545146</v>
+        <v>0.532374</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208301</v>
+        <v>0.207187</v>
       </c>
       <c r="C52" t="n">
-        <v>0.515859</v>
+        <v>0.488138</v>
       </c>
       <c r="D52" t="n">
-        <v>0.630562</v>
+        <v>0.622673</v>
       </c>
       <c r="E52" t="n">
-        <v>0.280347</v>
+        <v>0.28598</v>
       </c>
       <c r="F52" t="n">
-        <v>0.552468</v>
+        <v>0.531599</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299862</v>
+        <v>0.30051</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585694</v>
+        <v>0.589222</v>
       </c>
       <c r="D53" t="n">
-        <v>0.637433</v>
+        <v>0.624656</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290281</v>
+        <v>0.278259</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.537124</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295584</v>
+        <v>0.295421</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578973</v>
+        <v>0.567227</v>
       </c>
       <c r="D54" t="n">
-        <v>0.634077</v>
+        <v>0.627515</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278832</v>
+        <v>0.279675</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54138</v>
+        <v>0.537869</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293541</v>
+        <v>0.288582</v>
       </c>
       <c r="C55" t="n">
-        <v>0.559346</v>
+        <v>0.5582819999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636571</v>
+        <v>0.640158</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276463</v>
+        <v>0.276956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542526</v>
+        <v>0.523962</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280583</v>
+        <v>0.282152</v>
       </c>
       <c r="C56" t="n">
-        <v>0.592188</v>
+        <v>0.552362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.643303</v>
+        <v>0.627107</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282164</v>
+        <v>0.273736</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533782</v>
+        <v>0.533453</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275822</v>
+        <v>0.277037</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587295</v>
+        <v>0.552965</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651394</v>
+        <v>0.630651</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276601</v>
+        <v>0.282848</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5326880000000001</v>
+        <v>0.538585</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269463</v>
+        <v>0.268245</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565902</v>
+        <v>0.545973</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638907</v>
+        <v>0.6348009999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.271959</v>
+        <v>0.27026</v>
       </c>
       <c r="F58" t="n">
-        <v>0.545651</v>
+        <v>0.542859</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263815</v>
+        <v>0.260897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.562042</v>
+        <v>0.5708760000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646</v>
+        <v>0.634991</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271118</v>
+        <v>0.271251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5374949999999999</v>
+        <v>0.524549</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258618</v>
+        <v>0.254524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.587511</v>
+        <v>0.542177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.635309</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272962</v>
+        <v>0.26904</v>
       </c>
       <c r="F60" t="n">
-        <v>0.532199</v>
+        <v>0.530294</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255074</v>
+        <v>0.252145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.552271</v>
+        <v>0.541925</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643655</v>
+        <v>0.646388</v>
       </c>
       <c r="E61" t="n">
-        <v>0.267614</v>
+        <v>0.266976</v>
       </c>
       <c r="F61" t="n">
-        <v>0.540666</v>
+        <v>0.522193</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244392</v>
+        <v>0.24734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.538025</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651286</v>
+        <v>0.640751</v>
       </c>
       <c r="E62" t="n">
-        <v>0.267185</v>
+        <v>0.275631</v>
       </c>
       <c r="F62" t="n">
-        <v>0.534765</v>
+        <v>0.532861</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235993</v>
+        <v>0.235671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543773</v>
+        <v>0.535449</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652265</v>
+        <v>0.641809</v>
       </c>
       <c r="E63" t="n">
-        <v>0.265805</v>
+        <v>0.266368</v>
       </c>
       <c r="F63" t="n">
-        <v>0.534278</v>
+        <v>0.532608</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234758</v>
+        <v>0.227714</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572811</v>
+        <v>0.5331939999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.711903</v>
+        <v>0.69653</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264937</v>
+        <v>0.264487</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543152</v>
+        <v>0.524333</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221176</v>
+        <v>0.220236</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5467649999999999</v>
+        <v>0.537145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706499</v>
+        <v>0.6913010000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.26618</v>
+        <v>0.262271</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543125</v>
+        <v>0.535327</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214181</v>
+        <v>0.211912</v>
       </c>
       <c r="C66" t="n">
-        <v>0.546264</v>
+        <v>0.523892</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706517</v>
+        <v>0.688384</v>
       </c>
       <c r="E66" t="n">
-        <v>0.288667</v>
+        <v>0.287411</v>
       </c>
       <c r="F66" t="n">
-        <v>0.564885</v>
+        <v>0.544847</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313638</v>
+        <v>0.310853</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633974</v>
+        <v>0.598657</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.687808</v>
       </c>
       <c r="E67" t="n">
-        <v>0.287813</v>
+        <v>0.286146</v>
       </c>
       <c r="F67" t="n">
-        <v>0.571711</v>
+        <v>0.547604</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303204</v>
+        <v>0.305059</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609367</v>
+        <v>0.60938</v>
       </c>
       <c r="D68" t="n">
-        <v>0.696963</v>
+        <v>0.693344</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285082</v>
+        <v>0.285063</v>
       </c>
       <c r="F68" t="n">
-        <v>0.562599</v>
+        <v>0.549569</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301536</v>
+        <v>0.296984</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615779</v>
+        <v>0.611575</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714131</v>
+        <v>0.707355</v>
       </c>
       <c r="E69" t="n">
-        <v>0.282616</v>
+        <v>0.289136</v>
       </c>
       <c r="F69" t="n">
-        <v>0.562096</v>
+        <v>0.550264</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297524</v>
+        <v>0.293562</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606702</v>
+        <v>0.602847</v>
       </c>
       <c r="D70" t="n">
-        <v>0.704313</v>
+        <v>0.692679</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283966</v>
+        <v>0.282716</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56472</v>
+        <v>0.55912</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287319</v>
+        <v>0.287816</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612077</v>
+        <v>0.6141990000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690673</v>
+        <v>0.689934</v>
       </c>
       <c r="E71" t="n">
-        <v>0.282834</v>
+        <v>0.280217</v>
       </c>
       <c r="F71" t="n">
-        <v>0.555525</v>
+        <v>0.566168</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275131</v>
+        <v>0.281528</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602346</v>
+        <v>0.599379</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694679</v>
+        <v>0.694253</v>
       </c>
       <c r="E72" t="n">
-        <v>0.279482</v>
+        <v>0.276992</v>
       </c>
       <c r="F72" t="n">
-        <v>0.549561</v>
+        <v>0.551195</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272818</v>
+        <v>0.272146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.609256</v>
+        <v>0.592292</v>
       </c>
       <c r="D73" t="n">
-        <v>0.69179</v>
+        <v>0.6895790000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275693</v>
+        <v>0.276697</v>
       </c>
       <c r="F73" t="n">
-        <v>0.551518</v>
+        <v>0.552353</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264842</v>
+        <v>0.262621</v>
       </c>
       <c r="C74" t="n">
-        <v>0.601481</v>
+        <v>0.592585</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690885</v>
+        <v>0.688711</v>
       </c>
       <c r="E74" t="n">
-        <v>0.272852</v>
+        <v>0.275221</v>
       </c>
       <c r="F74" t="n">
-        <v>0.551828</v>
+        <v>0.547415</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260613</v>
+        <v>0.25592</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5916670000000001</v>
+        <v>0.576155</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685411</v>
+        <v>0.68103</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274534</v>
+        <v>0.271599</v>
       </c>
       <c r="F75" t="n">
-        <v>0.547969</v>
+        <v>0.54362</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252496</v>
+        <v>0.249326</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592786</v>
+        <v>0.566755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684873</v>
+        <v>0.681444</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272621</v>
+        <v>0.270934</v>
       </c>
       <c r="F76" t="n">
-        <v>0.551218</v>
+        <v>0.540851</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242901</v>
+        <v>0.244978</v>
       </c>
       <c r="C77" t="n">
-        <v>0.577442</v>
+        <v>0.5745170000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685689</v>
+        <v>0.682747</v>
       </c>
       <c r="E77" t="n">
-        <v>0.270924</v>
+        <v>0.273039</v>
       </c>
       <c r="F77" t="n">
-        <v>0.548629</v>
+        <v>0.540577</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237388</v>
+        <v>0.237282</v>
       </c>
       <c r="C78" t="n">
-        <v>0.582695</v>
+        <v>0.560906</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751999</v>
+        <v>0.736613</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274921</v>
+        <v>0.268148</v>
       </c>
       <c r="F78" t="n">
-        <v>0.548959</v>
+        <v>0.545981</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.227139</v>
+        <v>0.228878</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57211</v>
+        <v>0.553831</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7675110000000001</v>
+        <v>0.732166</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270117</v>
+        <v>0.268825</v>
       </c>
       <c r="F79" t="n">
-        <v>0.549296</v>
+        <v>0.538021</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224023</v>
+        <v>0.221555</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558833</v>
+        <v>0.544428</v>
       </c>
       <c r="D80" t="n">
-        <v>0.749897</v>
+        <v>0.726627</v>
       </c>
       <c r="E80" t="n">
-        <v>0.300635</v>
+        <v>0.295647</v>
       </c>
       <c r="F80" t="n">
-        <v>0.560791</v>
+        <v>0.557886</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313972</v>
+        <v>0.316443</v>
       </c>
       <c r="C81" t="n">
-        <v>0.620448</v>
+        <v>0.622506</v>
       </c>
       <c r="D81" t="n">
-        <v>0.744188</v>
+        <v>0.723231</v>
       </c>
       <c r="E81" t="n">
-        <v>0.292512</v>
+        <v>0.300385</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563545</v>
+        <v>0.556551</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311989</v>
+        <v>0.307963</v>
       </c>
       <c r="C82" t="n">
-        <v>0.619408</v>
+        <v>0.604225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736633</v>
+        <v>0.713277</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291396</v>
+        <v>0.290281</v>
       </c>
       <c r="F82" t="n">
-        <v>0.565435</v>
+        <v>0.551326</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304751</v>
+        <v>0.301448</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609569</v>
+        <v>0.602942</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734688</v>
+        <v>0.7228869999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29151</v>
+        <v>0.293153</v>
       </c>
       <c r="F83" t="n">
-        <v>0.564877</v>
+        <v>0.551886</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298381</v>
+        <v>0.297678</v>
       </c>
       <c r="C84" t="n">
-        <v>0.642572</v>
+        <v>0.64396</v>
       </c>
       <c r="D84" t="n">
-        <v>0.75924</v>
+        <v>0.754851</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287901</v>
+        <v>0.285787</v>
       </c>
       <c r="F84" t="n">
-        <v>0.582642</v>
+        <v>0.575534</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29034</v>
+        <v>0.286842</v>
       </c>
       <c r="C85" t="n">
-        <v>0.63976</v>
+        <v>0.627969</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763406</v>
+        <v>0.751727</v>
       </c>
       <c r="E85" t="n">
-        <v>0.287354</v>
+        <v>0.284671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.588175</v>
+        <v>0.5758259999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285138</v>
+        <v>0.28415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.645832</v>
+        <v>0.627916</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747682</v>
+        <v>0.74091</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281245</v>
+        <v>0.281584</v>
       </c>
       <c r="F86" t="n">
-        <v>0.589171</v>
+        <v>0.578911</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277268</v>
+        <v>0.275817</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6333220000000001</v>
+        <v>0.631679</v>
       </c>
       <c r="D87" t="n">
-        <v>0.759211</v>
+        <v>0.736637</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280263</v>
+        <v>0.279785</v>
       </c>
       <c r="F87" t="n">
-        <v>0.58844</v>
+        <v>0.578982</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270323</v>
+        <v>0.268983</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630393</v>
+        <v>0.6145350000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765133</v>
+        <v>0.733442</v>
       </c>
       <c r="E88" t="n">
-        <v>0.281193</v>
+        <v>0.283796</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587555</v>
+        <v>0.570059</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263952</v>
+        <v>0.262172</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606996</v>
+        <v>0.622111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.754674</v>
+        <v>0.74171</v>
       </c>
       <c r="E89" t="n">
-        <v>0.278012</v>
+        <v>0.277843</v>
       </c>
       <c r="F89" t="n">
-        <v>0.581489</v>
+        <v>0.575596</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258643</v>
+        <v>0.255343</v>
       </c>
       <c r="C90" t="n">
-        <v>0.608088</v>
+        <v>0.627008</v>
       </c>
       <c r="D90" t="n">
-        <v>0.747521</v>
+        <v>0.730385</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275484</v>
+        <v>0.274695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576953</v>
+        <v>0.5685789999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253704</v>
+        <v>0.246131</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597394</v>
+        <v>0.615808</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742818</v>
+        <v>0.731092</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2762</v>
+        <v>0.272985</v>
       </c>
       <c r="F91" t="n">
-        <v>0.574574</v>
+        <v>0.571546</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240973</v>
+        <v>0.2399</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599353</v>
+        <v>0.6075469999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.665036</v>
+        <v>0.645854</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272295</v>
+        <v>0.271666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.582341</v>
+        <v>0.57215</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.235508</v>
+        <v>0.232689</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597434</v>
+        <v>0.595266</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656228</v>
+        <v>0.645431</v>
       </c>
       <c r="E93" t="n">
-        <v>0.275453</v>
+        <v>0.27313</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5763779999999999</v>
+        <v>0.5675249999999999</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223989</v>
+        <v>0.227348</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5871420000000001</v>
+        <v>0.5909720000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65039</v>
+        <v>0.645241</v>
       </c>
       <c r="E94" t="n">
-        <v>0.300038</v>
+        <v>0.299842</v>
       </c>
       <c r="F94" t="n">
-        <v>0.586515</v>
+        <v>0.584426</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319416</v>
+        <v>0.31716</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650959</v>
+        <v>0.634176</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663803</v>
+        <v>0.653156</v>
       </c>
       <c r="E95" t="n">
-        <v>0.294746</v>
+        <v>0.295125</v>
       </c>
       <c r="F95" t="n">
-        <v>0.587056</v>
+        <v>0.58423</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313388</v>
+        <v>0.311795</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640787</v>
+        <v>0.635068</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658907</v>
+        <v>0.636424</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292177</v>
+        <v>0.301194</v>
       </c>
       <c r="F96" t="n">
-        <v>0.594705</v>
+        <v>0.577332</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305577</v>
+        <v>0.303305</v>
       </c>
       <c r="C97" t="n">
-        <v>0.636409</v>
+        <v>0.6280250000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.651955</v>
+        <v>0.643451</v>
       </c>
       <c r="E97" t="n">
-        <v>0.291108</v>
+        <v>0.290035</v>
       </c>
       <c r="F97" t="n">
-        <v>0.590348</v>
+        <v>0.576717</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299655</v>
+        <v>0.295438</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630752</v>
+        <v>0.624262</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643666</v>
+        <v>0.641602</v>
       </c>
       <c r="E98" t="n">
-        <v>0.287753</v>
+        <v>0.291608</v>
       </c>
       <c r="F98" t="n">
-        <v>0.588172</v>
+        <v>0.57897</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291279</v>
+        <v>0.291878</v>
       </c>
       <c r="C99" t="n">
-        <v>0.624873</v>
+        <v>0.622624</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651809</v>
+        <v>0.634791</v>
       </c>
       <c r="E99" t="n">
-        <v>0.284633</v>
+        <v>0.28563</v>
       </c>
       <c r="F99" t="n">
-        <v>0.601116</v>
+        <v>0.575941</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284306</v>
+        <v>0.283554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.620906</v>
+        <v>0.63257</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641115</v>
+        <v>0.641173</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28303</v>
+        <v>0.283396</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5887559999999999</v>
+        <v>0.576188</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277243</v>
+        <v>0.278203</v>
       </c>
       <c r="C101" t="n">
-        <v>0.620957</v>
+        <v>0.6265810000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.647844</v>
+        <v>0.643108</v>
       </c>
       <c r="E101" t="n">
-        <v>0.280557</v>
+        <v>0.285386</v>
       </c>
       <c r="F101" t="n">
-        <v>0.579875</v>
+        <v>0.572773</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273807</v>
+        <v>0.269297</v>
       </c>
       <c r="C102" t="n">
-        <v>0.615717</v>
+        <v>0.62358</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662562</v>
+        <v>0.641463</v>
       </c>
       <c r="E102" t="n">
-        <v>0.280013</v>
+        <v>0.279278</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.572596</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266578</v>
+        <v>0.262644</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603787</v>
+        <v>0.618929</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653648</v>
+        <v>0.64195</v>
       </c>
       <c r="E103" t="n">
-        <v>0.278238</v>
+        <v>0.281281</v>
       </c>
       <c r="F103" t="n">
-        <v>0.593203</v>
+        <v>0.575551</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257815</v>
+        <v>0.255356</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595942</v>
+        <v>0.625663</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652152</v>
+        <v>0.649624</v>
       </c>
       <c r="E104" t="n">
-        <v>0.274804</v>
+        <v>0.279031</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593557</v>
+        <v>0.573057</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252926</v>
+        <v>0.249302</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592473</v>
+        <v>0.619503</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660904</v>
+        <v>0.648271</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275296</v>
+        <v>0.273857</v>
       </c>
       <c r="F105" t="n">
-        <v>0.575989</v>
+        <v>0.5765940000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242963</v>
+        <v>0.240801</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595069</v>
+        <v>0.614158</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650031</v>
+        <v>0.646868</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272821</v>
+        <v>0.272893</v>
       </c>
       <c r="F106" t="n">
-        <v>0.579021</v>
+        <v>0.569627</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236548</v>
+        <v>0.233071</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592303</v>
+        <v>0.606062</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64093</v>
+        <v>0.636184</v>
       </c>
       <c r="E107" t="n">
-        <v>0.271201</v>
+        <v>0.270712</v>
       </c>
       <c r="F107" t="n">
-        <v>0.574732</v>
+        <v>0.56494</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232917</v>
+        <v>0.228162</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583676</v>
+        <v>0.596023</v>
       </c>
       <c r="D108" t="n">
-        <v>0.639043</v>
+        <v>0.646026</v>
       </c>
       <c r="E108" t="n">
-        <v>0.299184</v>
+        <v>0.300936</v>
       </c>
       <c r="F108" t="n">
-        <v>0.590511</v>
+        <v>0.585216</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218503</v>
+        <v>0.214998</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572013</v>
+        <v>0.589222</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654689</v>
+        <v>0.642639</v>
       </c>
       <c r="E109" t="n">
-        <v>0.298308</v>
+        <v>0.295372</v>
       </c>
       <c r="F109" t="n">
-        <v>0.596671</v>
+        <v>0.585347</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312123</v>
+        <v>0.31259</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649864</v>
+        <v>0.642225</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642978</v>
+        <v>0.635584</v>
       </c>
       <c r="E110" t="n">
-        <v>0.297869</v>
+        <v>0.29224</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59002</v>
+        <v>0.582758</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309987</v>
+        <v>0.303687</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6421790000000001</v>
+        <v>0.6364300000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64923</v>
+        <v>0.635137</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293777</v>
+        <v>0.290331</v>
       </c>
       <c r="F111" t="n">
-        <v>0.587091</v>
+        <v>0.577592</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30082</v>
+        <v>0.306449</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653259</v>
+        <v>0.625184</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638319</v>
+        <v>0.636154</v>
       </c>
       <c r="E112" t="n">
-        <v>0.291281</v>
+        <v>0.28986</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588464</v>
+        <v>0.5798489999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295209</v>
+        <v>0.296682</v>
       </c>
       <c r="C113" t="n">
-        <v>0.639964</v>
+        <v>0.623682</v>
       </c>
       <c r="D113" t="n">
-        <v>0.655424</v>
+        <v>0.634332</v>
       </c>
       <c r="E113" t="n">
-        <v>0.286702</v>
+        <v>0.28389</v>
       </c>
       <c r="F113" t="n">
-        <v>0.594722</v>
+        <v>0.578864</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286116</v>
+        <v>0.284625</v>
       </c>
       <c r="C114" t="n">
-        <v>0.650413</v>
+        <v>0.654697</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6372060000000001</v>
+        <v>0.638369</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284187</v>
+        <v>0.283881</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580726</v>
+        <v>0.577493</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27774</v>
+        <v>0.278431</v>
       </c>
       <c r="C115" t="n">
-        <v>0.651716</v>
+        <v>0.655182</v>
       </c>
       <c r="D115" t="n">
-        <v>0.64276</v>
+        <v>0.637672</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282448</v>
+        <v>0.280943</v>
       </c>
       <c r="F115" t="n">
-        <v>0.579312</v>
+        <v>0.574582</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271004</v>
+        <v>0.271085</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607351</v>
+        <v>0.604309</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638342</v>
+        <v>0.646443</v>
       </c>
       <c r="E116" t="n">
-        <v>0.280561</v>
+        <v>0.279905</v>
       </c>
       <c r="F116" t="n">
-        <v>0.581498</v>
+        <v>0.57215</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263795</v>
+        <v>0.263904</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603174</v>
+        <v>0.6110449999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645247</v>
+        <v>0.645414</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276881</v>
+        <v>0.277258</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5779</v>
+        <v>0.571613</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25716</v>
+        <v>0.256571</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619275</v>
+        <v>0.610761</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644781</v>
+        <v>0.645496</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280588</v>
+        <v>0.277</v>
       </c>
       <c r="F118" t="n">
-        <v>0.574067</v>
+        <v>0.570429</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254869</v>
+        <v>0.249958</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607654</v>
+        <v>0.610388</v>
       </c>
       <c r="D119" t="n">
-        <v>0.646971</v>
+        <v>0.643886</v>
       </c>
       <c r="E119" t="n">
-        <v>0.276441</v>
+        <v>0.273604</v>
       </c>
       <c r="F119" t="n">
-        <v>0.57542</v>
+        <v>0.571673</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243039</v>
+        <v>0.242189</v>
       </c>
       <c r="C120" t="n">
-        <v>0.589903</v>
+        <v>0.5848139999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651135</v>
+        <v>0.650424</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275331</v>
+        <v>0.272683</v>
       </c>
       <c r="F120" t="n">
-        <v>0.579938</v>
+        <v>0.570349</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237327</v>
+        <v>0.234583</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595574</v>
+        <v>0.6241449999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.651915</v>
+        <v>0.6478080000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272683</v>
+        <v>0.271626</v>
       </c>
       <c r="F121" t="n">
-        <v>0.572082</v>
+        <v>0.571932</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230434</v>
+        <v>0.228673</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589827</v>
+        <v>0.617628</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654528</v>
+        <v>0.647682</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269805</v>
+        <v>0.269718</v>
       </c>
       <c r="F122" t="n">
-        <v>0.573076</v>
+        <v>0.567207</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218457</v>
+        <v>0.217839</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587803</v>
+        <v>0.606443</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.644445</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295928</v>
+        <v>0.295756</v>
       </c>
       <c r="F123" t="n">
-        <v>0.596723</v>
+        <v>0.582282</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311869</v>
+        <v>0.313491</v>
       </c>
       <c r="C124" t="n">
-        <v>0.650271</v>
+        <v>0.6367429999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.65085</v>
+        <v>0.646644</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292989</v>
+        <v>0.292465</v>
       </c>
       <c r="F124" t="n">
-        <v>0.586048</v>
+        <v>0.585189</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30801</v>
+        <v>0.305932</v>
       </c>
       <c r="C125" t="n">
-        <v>0.667609</v>
+        <v>0.641527</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6488699999999999</v>
+        <v>0.639945</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291511</v>
+        <v>0.292997</v>
       </c>
       <c r="F125" t="n">
-        <v>0.585518</v>
+        <v>0.590781</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301286</v>
+        <v>0.300397</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668079</v>
+        <v>0.632795</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648026</v>
+        <v>0.643304</v>
       </c>
       <c r="E126" t="n">
-        <v>0.288786</v>
+        <v>0.286984</v>
       </c>
       <c r="F126" t="n">
-        <v>0.595027</v>
+        <v>0.584031</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292728</v>
+        <v>0.292306</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657983</v>
+        <v>0.665403</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663915</v>
+        <v>0.65661</v>
       </c>
       <c r="E127" t="n">
-        <v>0.285445</v>
+        <v>0.28502</v>
       </c>
       <c r="F127" t="n">
-        <v>0.583172</v>
+        <v>0.581871</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.286681</v>
+        <v>0.285289</v>
       </c>
       <c r="C128" t="n">
-        <v>0.665812</v>
+        <v>0.640814</v>
       </c>
       <c r="D128" t="n">
-        <v>0.662971</v>
+        <v>0.646242</v>
       </c>
       <c r="E128" t="n">
-        <v>0.283172</v>
+        <v>0.28328</v>
       </c>
       <c r="F128" t="n">
-        <v>0.583195</v>
+        <v>0.577552</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278742</v>
+        <v>0.280851</v>
       </c>
       <c r="C129" t="n">
-        <v>0.633148</v>
+        <v>0.646242</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6465919999999999</v>
+        <v>0.64781</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281586</v>
+        <v>0.280787</v>
       </c>
       <c r="F129" t="n">
-        <v>0.578855</v>
+        <v>0.583817</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273493</v>
+        <v>0.275257</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63826</v>
+        <v>0.648892</v>
       </c>
       <c r="D130" t="n">
-        <v>0.648012</v>
+        <v>0.670987</v>
       </c>
       <c r="E130" t="n">
-        <v>0.282048</v>
+        <v>0.283823</v>
       </c>
       <c r="F130" t="n">
-        <v>0.578981</v>
+        <v>0.598406</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266834</v>
+        <v>0.267793</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605373</v>
+        <v>0.645356</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6493989999999999</v>
+        <v>0.6648810000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.278165</v>
+        <v>0.290969</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57744</v>
+        <v>0.6021879999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258825</v>
+        <v>0.263123</v>
       </c>
       <c r="C132" t="n">
-        <v>0.645172</v>
+        <v>0.623716</v>
       </c>
       <c r="D132" t="n">
-        <v>0.654556</v>
+        <v>0.65735</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277988</v>
+        <v>0.279534</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5769919999999999</v>
+        <v>0.570229</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253987</v>
+        <v>0.251369</v>
       </c>
       <c r="C133" t="n">
-        <v>0.599088</v>
+        <v>0.592664</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652918</v>
+        <v>0.656923</v>
       </c>
       <c r="E133" t="n">
-        <v>0.275568</v>
+        <v>0.274953</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575194</v>
+        <v>0.57611</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244298</v>
+        <v>0.244255</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60891</v>
+        <v>0.60742</v>
       </c>
       <c r="D134" t="n">
-        <v>0.652613</v>
+        <v>0.658475</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274651</v>
+        <v>0.274359</v>
       </c>
       <c r="F134" t="n">
-        <v>0.577515</v>
+        <v>0.575143</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237514</v>
+        <v>0.24027</v>
       </c>
       <c r="C135" t="n">
-        <v>0.602723</v>
+        <v>0.585852</v>
       </c>
       <c r="D135" t="n">
-        <v>0.656041</v>
+        <v>0.654151</v>
       </c>
       <c r="E135" t="n">
-        <v>0.273211</v>
+        <v>0.270279</v>
       </c>
       <c r="F135" t="n">
-        <v>0.576247</v>
+        <v>0.569197</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229254</v>
+        <v>0.228548</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599568</v>
+        <v>0.577697</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656501</v>
+        <v>0.645719</v>
       </c>
       <c r="E136" t="n">
-        <v>0.273552</v>
+        <v>0.269953</v>
       </c>
       <c r="F136" t="n">
-        <v>0.574039</v>
+        <v>0.57491</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.219711</v>
+        <v>0.21863</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580296</v>
+        <v>0.56712</v>
       </c>
       <c r="D137" t="n">
-        <v>0.647165</v>
+        <v>0.645887</v>
       </c>
       <c r="E137" t="n">
-        <v>0.315944</v>
+        <v>0.296014</v>
       </c>
       <c r="F137" t="n">
-        <v>0.590372</v>
+        <v>0.588149</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313476</v>
+        <v>0.316627</v>
       </c>
       <c r="C138" t="n">
-        <v>0.640769</v>
+        <v>0.636949</v>
       </c>
       <c r="D138" t="n">
-        <v>0.665533</v>
+        <v>0.645415</v>
       </c>
       <c r="E138" t="n">
-        <v>0.292821</v>
+        <v>0.30143</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.582334</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312577</v>
+        <v>0.309556</v>
       </c>
       <c r="C139" t="n">
-        <v>0.665536</v>
+        <v>0.6724020000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.651328</v>
+        <v>0.648954</v>
       </c>
       <c r="E139" t="n">
-        <v>0.290532</v>
+        <v>0.291338</v>
       </c>
       <c r="F139" t="n">
-        <v>0.586801</v>
+        <v>0.589533</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302959</v>
+        <v>0.302256</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62903</v>
+        <v>0.630466</v>
       </c>
       <c r="D140" t="n">
-        <v>0.655913</v>
+        <v>0.646692</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288411</v>
+        <v>0.288937</v>
       </c>
       <c r="F140" t="n">
-        <v>0.58397</v>
+        <v>0.581755</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294927</v>
+        <v>0.294569</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623438</v>
+        <v>0.627514</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649264</v>
+        <v>0.646299</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286511</v>
+        <v>0.287048</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594562</v>
+        <v>0.579856</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289242</v>
+        <v>0.288018</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619502</v>
+        <v>0.652532</v>
       </c>
       <c r="D142" t="n">
-        <v>0.658465</v>
+        <v>0.644719</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28691</v>
+        <v>0.282666</v>
       </c>
       <c r="F142" t="n">
-        <v>0.580527</v>
+        <v>0.5772659999999999</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.282289</v>
+        <v>0.280847</v>
       </c>
       <c r="C143" t="n">
-        <v>0.624497</v>
+        <v>0.620534</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6443140000000001</v>
+        <v>0.64745</v>
       </c>
       <c r="E143" t="n">
-        <v>0.283794</v>
+        <v>0.281595</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.574557</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249747</v>
+        <v>0.25509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5154029999999999</v>
+        <v>0.538496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537018</v>
+        <v>0.558052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.268824</v>
+        <v>0.262242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5227309999999999</v>
+        <v>0.53278</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248097</v>
+        <v>0.249414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5263</v>
+        <v>0.525665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.535022</v>
+        <v>0.544478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.269056</v>
+        <v>0.260863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.520225</v>
+        <v>0.5306959999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239038</v>
+        <v>0.247784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515628</v>
+        <v>0.515381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.528388</v>
+        <v>0.536322</v>
       </c>
       <c r="E4" t="n">
-        <v>0.262226</v>
+        <v>0.256569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.520201</v>
+        <v>0.516326</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23734</v>
+        <v>0.237042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.509749</v>
+        <v>0.515938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526215</v>
+        <v>0.531633</v>
       </c>
       <c r="E5" t="n">
-        <v>0.258764</v>
+        <v>0.255284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.514294</v>
+        <v>0.510035</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226769</v>
+        <v>0.222387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494498</v>
+        <v>0.501385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.515894</v>
+        <v>0.531507</v>
       </c>
       <c r="E6" t="n">
-        <v>0.253963</v>
+        <v>0.254387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5042140000000001</v>
+        <v>0.506311</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216627</v>
+        <v>0.216186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.487989</v>
+        <v>0.490981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.521241</v>
+        <v>0.536568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.253171</v>
+        <v>0.253779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.501271</v>
+        <v>0.502658</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210022</v>
+        <v>0.209235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.483171</v>
+        <v>0.490457</v>
       </c>
       <c r="D8" t="n">
-        <v>0.523311</v>
+        <v>0.541312</v>
       </c>
       <c r="E8" t="n">
-        <v>0.259243</v>
+        <v>0.258656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.513343</v>
+        <v>0.50601</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201172</v>
+        <v>0.205119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.476815</v>
+        <v>0.475013</v>
       </c>
       <c r="D9" t="n">
-        <v>0.534659</v>
+        <v>0.5345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.266754</v>
+        <v>0.267987</v>
       </c>
       <c r="F9" t="n">
-        <v>0.51701</v>
+        <v>0.513275</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.288324</v>
+        <v>0.288331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.535042</v>
+        <v>0.545143</v>
       </c>
       <c r="D10" t="n">
-        <v>0.520124</v>
+        <v>0.537417</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267798</v>
+        <v>0.269596</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5238429999999999</v>
+        <v>0.514643</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288804</v>
+        <v>0.283069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548534</v>
+        <v>0.540956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.528863</v>
+        <v>0.537245</v>
       </c>
       <c r="E11" t="n">
-        <v>0.268996</v>
+        <v>0.265165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.531678</v>
+        <v>0.512054</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281904</v>
+        <v>0.275718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.53826</v>
+        <v>0.5341939999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.52977</v>
+        <v>0.532106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.273683</v>
+        <v>0.262881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.516304</v>
+        <v>0.508651</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.273351</v>
+        <v>0.272931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.528164</v>
+        <v>0.5346919999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.522008</v>
+        <v>0.533833</v>
       </c>
       <c r="E13" t="n">
-        <v>0.264678</v>
+        <v>0.261875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.516746</v>
+        <v>0.509038</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273313</v>
+        <v>0.265959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.519718</v>
+        <v>0.529825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.522803</v>
+        <v>0.532266</v>
       </c>
       <c r="E14" t="n">
-        <v>0.267701</v>
+        <v>0.262365</v>
       </c>
       <c r="F14" t="n">
-        <v>0.509101</v>
+        <v>0.505849</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.259489</v>
+        <v>0.261178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.518784</v>
+        <v>0.524802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.533631</v>
+        <v>0.539735</v>
       </c>
       <c r="E15" t="n">
-        <v>0.260358</v>
+        <v>0.261151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.514358</v>
+        <v>0.509087</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257711</v>
+        <v>0.255088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.514027</v>
+        <v>0.522857</v>
       </c>
       <c r="D16" t="n">
-        <v>0.517405</v>
+        <v>0.535367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.259281</v>
+        <v>0.25988</v>
       </c>
       <c r="F16" t="n">
-        <v>0.509082</v>
+        <v>0.511613</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.249853</v>
+        <v>0.250912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5098200000000001</v>
+        <v>0.515248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.530046</v>
+        <v>0.536485</v>
       </c>
       <c r="E17" t="n">
-        <v>0.258706</v>
+        <v>0.258611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.510284</v>
+        <v>0.506208</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245179</v>
+        <v>0.242255</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5053530000000001</v>
+        <v>0.506972</v>
       </c>
       <c r="D18" t="n">
-        <v>0.524906</v>
+        <v>0.534484</v>
       </c>
       <c r="E18" t="n">
-        <v>0.262543</v>
+        <v>0.258734</v>
       </c>
       <c r="F18" t="n">
-        <v>0.506846</v>
+        <v>0.511945</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237369</v>
+        <v>0.23544</v>
       </c>
       <c r="C19" t="n">
-        <v>0.501116</v>
+        <v>0.520423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.528321</v>
+        <v>0.538982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25782</v>
+        <v>0.258354</v>
       </c>
       <c r="F19" t="n">
-        <v>0.507538</v>
+        <v>0.506552</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231272</v>
+        <v>0.232159</v>
       </c>
       <c r="C20" t="n">
-        <v>0.499531</v>
+        <v>0.51425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526428</v>
+        <v>0.537428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.259333</v>
+        <v>0.257325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.506051</v>
+        <v>0.509247</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22449</v>
+        <v>0.22369</v>
       </c>
       <c r="C21" t="n">
-        <v>0.490262</v>
+        <v>0.506189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.533548</v>
+        <v>0.550224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.260429</v>
+        <v>0.255619</v>
       </c>
       <c r="F21" t="n">
-        <v>0.507619</v>
+        <v>0.508382</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218666</v>
+        <v>0.218278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.498672</v>
+        <v>0.492795</v>
       </c>
       <c r="D22" t="n">
-        <v>0.534106</v>
+        <v>0.556554</v>
       </c>
       <c r="E22" t="n">
-        <v>0.255371</v>
+        <v>0.256554</v>
       </c>
       <c r="F22" t="n">
-        <v>0.505352</v>
+        <v>0.50795</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.208656</v>
+        <v>0.207675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.488921</v>
+        <v>0.484951</v>
       </c>
       <c r="D23" t="n">
-        <v>0.535419</v>
+        <v>0.553362</v>
       </c>
       <c r="E23" t="n">
-        <v>0.272109</v>
+        <v>0.270887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.517082</v>
+        <v>0.523539</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.294251</v>
+        <v>0.291832</v>
       </c>
       <c r="C24" t="n">
-        <v>0.553988</v>
+        <v>0.549849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.530405</v>
+        <v>0.561006</v>
       </c>
       <c r="E24" t="n">
-        <v>0.270913</v>
+        <v>0.273887</v>
       </c>
       <c r="F24" t="n">
-        <v>0.521647</v>
+        <v>0.519299</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.289264</v>
+        <v>0.285847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536685</v>
+        <v>0.552752</v>
       </c>
       <c r="D25" t="n">
-        <v>0.544305</v>
+        <v>0.558006</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269541</v>
+        <v>0.268506</v>
       </c>
       <c r="F25" t="n">
-        <v>0.517196</v>
+        <v>0.517356</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.280938</v>
+        <v>0.281473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.544977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.537626</v>
+        <v>0.545369</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270539</v>
+        <v>0.267005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5232019999999999</v>
+        <v>0.520018</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27469</v>
+        <v>0.27876</v>
       </c>
       <c r="C27" t="n">
-        <v>0.537922</v>
+        <v>0.542174</v>
       </c>
       <c r="D27" t="n">
-        <v>0.529305</v>
+        <v>0.545886</v>
       </c>
       <c r="E27" t="n">
-        <v>0.269027</v>
+        <v>0.268076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.51799</v>
+        <v>0.516303</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.269331</v>
+        <v>0.270007</v>
       </c>
       <c r="C28" t="n">
-        <v>0.523663</v>
+        <v>0.531471</v>
       </c>
       <c r="D28" t="n">
-        <v>0.530161</v>
+        <v>0.55466</v>
       </c>
       <c r="E28" t="n">
-        <v>0.273791</v>
+        <v>0.27045</v>
       </c>
       <c r="F28" t="n">
-        <v>0.516649</v>
+        <v>0.513707</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263523</v>
+        <v>0.26407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.528917</v>
+        <v>0.531734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.531042</v>
+        <v>0.551149</v>
       </c>
       <c r="E29" t="n">
-        <v>0.264849</v>
+        <v>0.268064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.510238</v>
+        <v>0.512442</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.257209</v>
+        <v>0.261283</v>
       </c>
       <c r="C30" t="n">
-        <v>0.527132</v>
+        <v>0.525964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.543195</v>
+        <v>0.563263</v>
       </c>
       <c r="E30" t="n">
-        <v>0.264359</v>
+        <v>0.265128</v>
       </c>
       <c r="F30" t="n">
-        <v>0.514655</v>
+        <v>0.520852</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253025</v>
+        <v>0.257321</v>
       </c>
       <c r="C31" t="n">
-        <v>0.518889</v>
+        <v>0.5343020000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.534147</v>
+        <v>0.548739</v>
       </c>
       <c r="E31" t="n">
-        <v>0.261753</v>
+        <v>0.26551</v>
       </c>
       <c r="F31" t="n">
-        <v>0.520979</v>
+        <v>0.51642</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.246964</v>
+        <v>0.247759</v>
       </c>
       <c r="C32" t="n">
-        <v>0.52106</v>
+        <v>0.5138160000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.535038</v>
+        <v>0.551512</v>
       </c>
       <c r="E32" t="n">
-        <v>0.263028</v>
+        <v>0.265509</v>
       </c>
       <c r="F32" t="n">
-        <v>0.515164</v>
+        <v>0.517668</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.238915</v>
+        <v>0.241968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.507067</v>
+        <v>0.520115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.529913</v>
+        <v>0.555411</v>
       </c>
       <c r="E33" t="n">
-        <v>0.260624</v>
+        <v>0.26202</v>
       </c>
       <c r="F33" t="n">
-        <v>0.510285</v>
+        <v>0.518328</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.233833</v>
+        <v>0.23435</v>
       </c>
       <c r="C34" t="n">
-        <v>0.508192</v>
+        <v>0.514034</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532908</v>
+        <v>0.5566140000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.260903</v>
+        <v>0.26053</v>
       </c>
       <c r="F34" t="n">
-        <v>0.516113</v>
+        <v>0.51866</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.226051</v>
+        <v>0.227593</v>
       </c>
       <c r="C35" t="n">
-        <v>0.505512</v>
+        <v>0.502313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.546274</v>
+        <v>0.573055</v>
       </c>
       <c r="E35" t="n">
-        <v>0.260694</v>
+        <v>0.261087</v>
       </c>
       <c r="F35" t="n">
-        <v>0.515563</v>
+        <v>0.526123</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2195</v>
+        <v>0.223577</v>
       </c>
       <c r="C36" t="n">
-        <v>0.498184</v>
+        <v>0.497483</v>
       </c>
       <c r="D36" t="n">
-        <v>0.561978</v>
+        <v>0.576868</v>
       </c>
       <c r="E36" t="n">
-        <v>0.256927</v>
+        <v>0.258144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.518787</v>
+        <v>0.510709</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216331</v>
+        <v>0.212922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490728</v>
+        <v>0.493896</v>
       </c>
       <c r="D37" t="n">
-        <v>0.552917</v>
+        <v>0.569049</v>
       </c>
       <c r="E37" t="n">
-        <v>0.279863</v>
+        <v>0.280697</v>
       </c>
       <c r="F37" t="n">
-        <v>0.521141</v>
+        <v>0.530737</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.29413</v>
+        <v>0.294854</v>
       </c>
       <c r="C38" t="n">
-        <v>0.552122</v>
+        <v>0.563377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.552752</v>
+        <v>0.56747</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2767</v>
+        <v>0.27859</v>
       </c>
       <c r="F38" t="n">
-        <v>0.521404</v>
+        <v>0.530215</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.290292</v>
+        <v>0.299784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.552582</v>
+        <v>0.559451</v>
       </c>
       <c r="D39" t="n">
-        <v>0.547138</v>
+        <v>0.572918</v>
       </c>
       <c r="E39" t="n">
-        <v>0.277066</v>
+        <v>0.276024</v>
       </c>
       <c r="F39" t="n">
-        <v>0.523385</v>
+        <v>0.522486</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.288211</v>
+        <v>0.285908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.55688</v>
+        <v>0.562296</v>
       </c>
       <c r="D40" t="n">
-        <v>0.557959</v>
+        <v>0.568464</v>
       </c>
       <c r="E40" t="n">
-        <v>0.279684</v>
+        <v>0.275314</v>
       </c>
       <c r="F40" t="n">
-        <v>0.519993</v>
+        <v>0.519258</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.281753</v>
+        <v>0.281636</v>
       </c>
       <c r="C41" t="n">
-        <v>0.545017</v>
+        <v>0.546619</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545581</v>
+        <v>0.572537</v>
       </c>
       <c r="E41" t="n">
-        <v>0.27332</v>
+        <v>0.27029</v>
       </c>
       <c r="F41" t="n">
-        <v>0.516298</v>
+        <v>0.524257</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280318</v>
+        <v>0.274774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.536389</v>
+        <v>0.549206</v>
       </c>
       <c r="D42" t="n">
-        <v>0.550725</v>
+        <v>0.592828</v>
       </c>
       <c r="E42" t="n">
-        <v>0.27097</v>
+        <v>0.270798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.51466</v>
+        <v>0.527479</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.267722</v>
+        <v>0.26895</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5378039999999999</v>
+        <v>0.539263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.547017</v>
+        <v>0.573003</v>
       </c>
       <c r="E43" t="n">
-        <v>0.268689</v>
+        <v>0.268155</v>
       </c>
       <c r="F43" t="n">
-        <v>0.516861</v>
+        <v>0.5206190000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.261581</v>
+        <v>0.261075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.528263</v>
+        <v>0.534269</v>
       </c>
       <c r="D44" t="n">
-        <v>0.548741</v>
+        <v>0.5692430000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.266179</v>
+        <v>0.265628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.516838</v>
+        <v>0.523916</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257274</v>
+        <v>0.260456</v>
       </c>
       <c r="C45" t="n">
-        <v>0.526423</v>
+        <v>0.533527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.566541</v>
+        <v>0.573054</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267502</v>
+        <v>0.264844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.513598</v>
+        <v>0.520626</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.249472</v>
+        <v>0.249267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5245300000000001</v>
+        <v>0.53274</v>
       </c>
       <c r="D46" t="n">
-        <v>0.557707</v>
+        <v>0.582608</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2719</v>
+        <v>0.266823</v>
       </c>
       <c r="F46" t="n">
-        <v>0.514116</v>
+        <v>0.513346</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.243357</v>
+        <v>0.243053</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5158160000000001</v>
+        <v>0.519709</v>
       </c>
       <c r="D47" t="n">
-        <v>0.564737</v>
+        <v>0.583293</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264896</v>
+        <v>0.264083</v>
       </c>
       <c r="F47" t="n">
-        <v>0.523455</v>
+        <v>0.513355</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23982</v>
+        <v>0.241534</v>
       </c>
       <c r="C48" t="n">
-        <v>0.525379</v>
+        <v>0.509816</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5669960000000001</v>
+        <v>0.573649</v>
       </c>
       <c r="E48" t="n">
-        <v>0.264991</v>
+        <v>0.262111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.513243</v>
+        <v>0.51223</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.232961</v>
+        <v>0.231272</v>
       </c>
       <c r="C49" t="n">
-        <v>0.513783</v>
+        <v>0.507842</v>
       </c>
       <c r="D49" t="n">
-        <v>0.569096</v>
+        <v>0.577736</v>
       </c>
       <c r="E49" t="n">
-        <v>0.269278</v>
+        <v>0.264234</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513357</v>
+        <v>0.513441</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223846</v>
+        <v>0.223247</v>
       </c>
       <c r="C50" t="n">
-        <v>0.502614</v>
+        <v>0.5012760000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.628423</v>
+        <v>0.641271</v>
       </c>
       <c r="E50" t="n">
-        <v>0.259975</v>
+        <v>0.261963</v>
       </c>
       <c r="F50" t="n">
-        <v>0.516694</v>
+        <v>0.5087429999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.215525</v>
+        <v>0.220728</v>
       </c>
       <c r="C51" t="n">
-        <v>0.497605</v>
+        <v>0.516904</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6265579999999999</v>
+        <v>0.646524</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282346</v>
+        <v>0.286737</v>
       </c>
       <c r="F51" t="n">
-        <v>0.532374</v>
+        <v>0.540667</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207187</v>
+        <v>0.207303</v>
       </c>
       <c r="C52" t="n">
-        <v>0.488138</v>
+        <v>0.496706</v>
       </c>
       <c r="D52" t="n">
-        <v>0.622673</v>
+        <v>0.647774</v>
       </c>
       <c r="E52" t="n">
-        <v>0.28598</v>
+        <v>0.281109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.531599</v>
+        <v>0.5283330000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30051</v>
+        <v>0.296601</v>
       </c>
       <c r="C53" t="n">
-        <v>0.589222</v>
+        <v>0.568156</v>
       </c>
       <c r="D53" t="n">
-        <v>0.624656</v>
+        <v>0.644042</v>
       </c>
       <c r="E53" t="n">
-        <v>0.278259</v>
+        <v>0.280058</v>
       </c>
       <c r="F53" t="n">
-        <v>0.537124</v>
+        <v>0.535494</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295421</v>
+        <v>0.291988</v>
       </c>
       <c r="C54" t="n">
-        <v>0.567227</v>
+        <v>0.5652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.627515</v>
+        <v>0.647539</v>
       </c>
       <c r="E54" t="n">
-        <v>0.279675</v>
+        <v>0.278634</v>
       </c>
       <c r="F54" t="n">
-        <v>0.537869</v>
+        <v>0.526741</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288582</v>
+        <v>0.288221</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5582819999999999</v>
+        <v>0.569277</v>
       </c>
       <c r="D55" t="n">
-        <v>0.640158</v>
+        <v>0.650628</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276956</v>
+        <v>0.27621</v>
       </c>
       <c r="F55" t="n">
-        <v>0.523962</v>
+        <v>0.525116</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.282152</v>
+        <v>0.278533</v>
       </c>
       <c r="C56" t="n">
-        <v>0.552362</v>
+        <v>0.563947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.627107</v>
+        <v>0.651166</v>
       </c>
       <c r="E56" t="n">
-        <v>0.273736</v>
+        <v>0.276887</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533453</v>
+        <v>0.53023</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.277037</v>
+        <v>0.275171</v>
       </c>
       <c r="C57" t="n">
-        <v>0.552965</v>
+        <v>0.576923</v>
       </c>
       <c r="D57" t="n">
-        <v>0.630651</v>
+        <v>0.66465</v>
       </c>
       <c r="E57" t="n">
-        <v>0.282848</v>
+        <v>0.277569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.538585</v>
+        <v>0.5396609999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.268245</v>
+        <v>0.269649</v>
       </c>
       <c r="C58" t="n">
-        <v>0.545973</v>
+        <v>0.564079</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6348009999999999</v>
+        <v>0.663282</v>
       </c>
       <c r="E58" t="n">
-        <v>0.27026</v>
+        <v>0.271272</v>
       </c>
       <c r="F58" t="n">
-        <v>0.542859</v>
+        <v>0.55599</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260897</v>
+        <v>0.262555</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5708760000000001</v>
+        <v>0.574087</v>
       </c>
       <c r="D59" t="n">
-        <v>0.634991</v>
+        <v>0.656095</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271251</v>
+        <v>0.269646</v>
       </c>
       <c r="F59" t="n">
-        <v>0.524549</v>
+        <v>0.527204</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254524</v>
+        <v>0.255447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.542177</v>
+        <v>0.546168</v>
       </c>
       <c r="D60" t="n">
-        <v>0.635309</v>
+        <v>0.655142</v>
       </c>
       <c r="E60" t="n">
-        <v>0.26904</v>
+        <v>0.268581</v>
       </c>
       <c r="F60" t="n">
-        <v>0.530294</v>
+        <v>0.526828</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.252145</v>
+        <v>0.248711</v>
       </c>
       <c r="C61" t="n">
-        <v>0.541925</v>
+        <v>0.554748</v>
       </c>
       <c r="D61" t="n">
-        <v>0.646388</v>
+        <v>0.658605</v>
       </c>
       <c r="E61" t="n">
-        <v>0.266976</v>
+        <v>0.268077</v>
       </c>
       <c r="F61" t="n">
-        <v>0.522193</v>
+        <v>0.536543</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.24734</v>
+        <v>0.241061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.538025</v>
+        <v>0.5605599999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.640751</v>
+        <v>0.659754</v>
       </c>
       <c r="E62" t="n">
-        <v>0.275631</v>
+        <v>0.265173</v>
       </c>
       <c r="F62" t="n">
-        <v>0.532861</v>
+        <v>0.528656</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235671</v>
+        <v>0.237851</v>
       </c>
       <c r="C63" t="n">
-        <v>0.535449</v>
+        <v>0.557424</v>
       </c>
       <c r="D63" t="n">
-        <v>0.641809</v>
+        <v>0.661286</v>
       </c>
       <c r="E63" t="n">
-        <v>0.266368</v>
+        <v>0.267851</v>
       </c>
       <c r="F63" t="n">
-        <v>0.532608</v>
+        <v>0.530019</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.227714</v>
+        <v>0.227515</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5331939999999999</v>
+        <v>0.54681</v>
       </c>
       <c r="D64" t="n">
-        <v>0.69653</v>
+        <v>0.723016</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264487</v>
+        <v>0.264775</v>
       </c>
       <c r="F64" t="n">
-        <v>0.524333</v>
+        <v>0.52968</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.220236</v>
+        <v>0.221429</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537145</v>
+        <v>0.534456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6913010000000001</v>
+        <v>0.714652</v>
       </c>
       <c r="E65" t="n">
-        <v>0.262271</v>
+        <v>0.265622</v>
       </c>
       <c r="F65" t="n">
-        <v>0.535327</v>
+        <v>0.537482</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.211912</v>
+        <v>0.211786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.523892</v>
+        <v>0.537409</v>
       </c>
       <c r="D66" t="n">
-        <v>0.688384</v>
+        <v>0.71583</v>
       </c>
       <c r="E66" t="n">
-        <v>0.287411</v>
+        <v>0.290097</v>
       </c>
       <c r="F66" t="n">
-        <v>0.544847</v>
+        <v>0.554455</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.310853</v>
+        <v>0.311707</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598657</v>
+        <v>0.607982</v>
       </c>
       <c r="D67" t="n">
-        <v>0.687808</v>
+        <v>0.713598</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286146</v>
+        <v>0.292341</v>
       </c>
       <c r="F67" t="n">
-        <v>0.547604</v>
+        <v>0.558191</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305059</v>
+        <v>0.307781</v>
       </c>
       <c r="C68" t="n">
-        <v>0.60938</v>
+        <v>0.617346</v>
       </c>
       <c r="D68" t="n">
-        <v>0.693344</v>
+        <v>0.717214</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285063</v>
+        <v>0.28962</v>
       </c>
       <c r="F68" t="n">
-        <v>0.549569</v>
+        <v>0.561427</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.296984</v>
+        <v>0.299139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.611575</v>
+        <v>0.6101529999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.707355</v>
+        <v>0.7066480000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.289136</v>
+        <v>0.288212</v>
       </c>
       <c r="F69" t="n">
-        <v>0.550264</v>
+        <v>0.558769</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.293562</v>
+        <v>0.289509</v>
       </c>
       <c r="C70" t="n">
-        <v>0.602847</v>
+        <v>0.604205</v>
       </c>
       <c r="D70" t="n">
-        <v>0.692679</v>
+        <v>0.701305</v>
       </c>
       <c r="E70" t="n">
-        <v>0.282716</v>
+        <v>0.282788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.55912</v>
+        <v>0.563025</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287816</v>
+        <v>0.283207</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6141990000000001</v>
+        <v>0.5932730000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.689934</v>
+        <v>0.703693</v>
       </c>
       <c r="E71" t="n">
-        <v>0.280217</v>
+        <v>0.282306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.566168</v>
+        <v>0.5651389999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.281528</v>
+        <v>0.276051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.599379</v>
+        <v>0.600751</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694253</v>
+        <v>0.704329</v>
       </c>
       <c r="E72" t="n">
-        <v>0.276992</v>
+        <v>0.276205</v>
       </c>
       <c r="F72" t="n">
-        <v>0.551195</v>
+        <v>0.558061</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272146</v>
+        <v>0.276754</v>
       </c>
       <c r="C73" t="n">
-        <v>0.592292</v>
+        <v>0.583492</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6895790000000001</v>
+        <v>0.6961540000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.276697</v>
+        <v>0.284266</v>
       </c>
       <c r="F73" t="n">
-        <v>0.552353</v>
+        <v>0.546963</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.262621</v>
+        <v>0.268156</v>
       </c>
       <c r="C74" t="n">
-        <v>0.592585</v>
+        <v>0.583047</v>
       </c>
       <c r="D74" t="n">
-        <v>0.688711</v>
+        <v>0.700685</v>
       </c>
       <c r="E74" t="n">
-        <v>0.275221</v>
+        <v>0.276483</v>
       </c>
       <c r="F74" t="n">
-        <v>0.547415</v>
+        <v>0.550561</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.25592</v>
+        <v>0.257732</v>
       </c>
       <c r="C75" t="n">
-        <v>0.576155</v>
+        <v>0.5776250000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.68103</v>
+        <v>0.697916</v>
       </c>
       <c r="E75" t="n">
-        <v>0.271599</v>
+        <v>0.274893</v>
       </c>
       <c r="F75" t="n">
-        <v>0.54362</v>
+        <v>0.546629</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.249326</v>
+        <v>0.254448</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566755</v>
+        <v>0.5807</v>
       </c>
       <c r="D76" t="n">
-        <v>0.681444</v>
+        <v>0.701624</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270934</v>
+        <v>0.276416</v>
       </c>
       <c r="F76" t="n">
-        <v>0.540851</v>
+        <v>0.551362</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.244978</v>
+        <v>0.245648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5745170000000001</v>
+        <v>0.565033</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682747</v>
+        <v>0.71021</v>
       </c>
       <c r="E77" t="n">
-        <v>0.273039</v>
+        <v>0.273463</v>
       </c>
       <c r="F77" t="n">
-        <v>0.540577</v>
+        <v>0.551529</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237282</v>
+        <v>0.239785</v>
       </c>
       <c r="C78" t="n">
-        <v>0.560906</v>
+        <v>0.572924</v>
       </c>
       <c r="D78" t="n">
-        <v>0.736613</v>
+        <v>0.777116</v>
       </c>
       <c r="E78" t="n">
-        <v>0.268148</v>
+        <v>0.270803</v>
       </c>
       <c r="F78" t="n">
-        <v>0.545981</v>
+        <v>0.556802</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228878</v>
+        <v>0.230031</v>
       </c>
       <c r="C79" t="n">
-        <v>0.553831</v>
+        <v>0.555911</v>
       </c>
       <c r="D79" t="n">
-        <v>0.732166</v>
+        <v>0.759521</v>
       </c>
       <c r="E79" t="n">
-        <v>0.268825</v>
+        <v>0.270373</v>
       </c>
       <c r="F79" t="n">
-        <v>0.538021</v>
+        <v>0.555285</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.221555</v>
+        <v>0.22033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.544428</v>
+        <v>0.541975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.726627</v>
+        <v>0.739746</v>
       </c>
       <c r="E80" t="n">
-        <v>0.295647</v>
+        <v>0.295025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.557886</v>
+        <v>0.563561</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.316443</v>
+        <v>0.313235</v>
       </c>
       <c r="C81" t="n">
-        <v>0.622506</v>
+        <v>0.626449</v>
       </c>
       <c r="D81" t="n">
-        <v>0.723231</v>
+        <v>0.7419519999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.300385</v>
+        <v>0.29269</v>
       </c>
       <c r="F81" t="n">
-        <v>0.556551</v>
+        <v>0.559848</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.307963</v>
+        <v>0.308725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.604225</v>
+        <v>0.6204730000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.713277</v>
+        <v>0.737451</v>
       </c>
       <c r="E82" t="n">
-        <v>0.290281</v>
+        <v>0.288246</v>
       </c>
       <c r="F82" t="n">
-        <v>0.551326</v>
+        <v>0.552489</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.301448</v>
+        <v>0.301549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.602942</v>
+        <v>0.615055</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.734475</v>
       </c>
       <c r="E83" t="n">
-        <v>0.293153</v>
+        <v>0.287197</v>
       </c>
       <c r="F83" t="n">
-        <v>0.551886</v>
+        <v>0.552543</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.297678</v>
+        <v>0.294421</v>
       </c>
       <c r="C84" t="n">
-        <v>0.64396</v>
+        <v>0.645091</v>
       </c>
       <c r="D84" t="n">
-        <v>0.754851</v>
+        <v>0.763346</v>
       </c>
       <c r="E84" t="n">
-        <v>0.285787</v>
+        <v>0.285519</v>
       </c>
       <c r="F84" t="n">
-        <v>0.575534</v>
+        <v>0.574167</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.286842</v>
+        <v>0.289496</v>
       </c>
       <c r="C85" t="n">
-        <v>0.627969</v>
+        <v>0.638042</v>
       </c>
       <c r="D85" t="n">
-        <v>0.751727</v>
+        <v>0.754322</v>
       </c>
       <c r="E85" t="n">
-        <v>0.284671</v>
+        <v>0.28256</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5758259999999999</v>
+        <v>0.57214</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.28415</v>
+        <v>0.282598</v>
       </c>
       <c r="C86" t="n">
-        <v>0.627916</v>
+        <v>0.635093</v>
       </c>
       <c r="D86" t="n">
-        <v>0.74091</v>
+        <v>0.757885</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281584</v>
+        <v>0.285449</v>
       </c>
       <c r="F86" t="n">
-        <v>0.578911</v>
+        <v>0.57782</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.275817</v>
+        <v>0.273426</v>
       </c>
       <c r="C87" t="n">
-        <v>0.631679</v>
+        <v>0.629312</v>
       </c>
       <c r="D87" t="n">
-        <v>0.736637</v>
+        <v>0.758984</v>
       </c>
       <c r="E87" t="n">
-        <v>0.279785</v>
+        <v>0.279212</v>
       </c>
       <c r="F87" t="n">
-        <v>0.578982</v>
+        <v>0.571407</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.268983</v>
+        <v>0.269407</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6145350000000001</v>
+        <v>0.626266</v>
       </c>
       <c r="D88" t="n">
-        <v>0.733442</v>
+        <v>0.748574</v>
       </c>
       <c r="E88" t="n">
-        <v>0.283796</v>
+        <v>0.27907</v>
       </c>
       <c r="F88" t="n">
-        <v>0.570059</v>
+        <v>0.579468</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.262172</v>
+        <v>0.260668</v>
       </c>
       <c r="C89" t="n">
-        <v>0.622111</v>
+        <v>0.623759</v>
       </c>
       <c r="D89" t="n">
-        <v>0.74171</v>
+        <v>0.748265</v>
       </c>
       <c r="E89" t="n">
-        <v>0.277843</v>
+        <v>0.27592</v>
       </c>
       <c r="F89" t="n">
-        <v>0.575596</v>
+        <v>0.570611</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.255343</v>
+        <v>0.258084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.627008</v>
+        <v>0.61917</v>
       </c>
       <c r="D90" t="n">
-        <v>0.730385</v>
+        <v>0.7534110000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.274695</v>
+        <v>0.274294</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5685789999999999</v>
+        <v>0.57481</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.246131</v>
+        <v>0.246274</v>
       </c>
       <c r="C91" t="n">
-        <v>0.615808</v>
+        <v>0.631014</v>
       </c>
       <c r="D91" t="n">
-        <v>0.731092</v>
+        <v>0.74821</v>
       </c>
       <c r="E91" t="n">
-        <v>0.272985</v>
+        <v>0.27306</v>
       </c>
       <c r="F91" t="n">
-        <v>0.571546</v>
+        <v>0.5680269999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2399</v>
+        <v>0.238508</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6075469999999999</v>
+        <v>0.609084</v>
       </c>
       <c r="D92" t="n">
-        <v>0.645854</v>
+        <v>0.664444</v>
       </c>
       <c r="E92" t="n">
-        <v>0.271666</v>
+        <v>0.271008</v>
       </c>
       <c r="F92" t="n">
-        <v>0.57215</v>
+        <v>0.567103</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.232689</v>
+        <v>0.230751</v>
       </c>
       <c r="C93" t="n">
-        <v>0.595266</v>
+        <v>0.60393</v>
       </c>
       <c r="D93" t="n">
-        <v>0.645431</v>
+        <v>0.66071</v>
       </c>
       <c r="E93" t="n">
-        <v>0.27313</v>
+        <v>0.271692</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5675249999999999</v>
+        <v>0.5697489999999999</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227348</v>
+        <v>0.2227</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5909720000000001</v>
+        <v>0.595964</v>
       </c>
       <c r="D94" t="n">
-        <v>0.645241</v>
+        <v>0.662004</v>
       </c>
       <c r="E94" t="n">
-        <v>0.299842</v>
+        <v>0.296433</v>
       </c>
       <c r="F94" t="n">
-        <v>0.584426</v>
+        <v>0.584774</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.31716</v>
+        <v>0.314804</v>
       </c>
       <c r="C95" t="n">
-        <v>0.634176</v>
+        <v>0.6737030000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653156</v>
+        <v>0.672088</v>
       </c>
       <c r="E95" t="n">
-        <v>0.295125</v>
+        <v>0.296054</v>
       </c>
       <c r="F95" t="n">
-        <v>0.58423</v>
+        <v>0.581738</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.311795</v>
+        <v>0.309572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635068</v>
+        <v>0.670867</v>
       </c>
       <c r="D96" t="n">
-        <v>0.636424</v>
+        <v>0.657964</v>
       </c>
       <c r="E96" t="n">
-        <v>0.301194</v>
+        <v>0.291255</v>
       </c>
       <c r="F96" t="n">
-        <v>0.577332</v>
+        <v>0.584104</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.303305</v>
+        <v>0.303635</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6280250000000001</v>
+        <v>0.660655</v>
       </c>
       <c r="D97" t="n">
-        <v>0.643451</v>
+        <v>0.664613</v>
       </c>
       <c r="E97" t="n">
-        <v>0.290035</v>
+        <v>0.288144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.576717</v>
+        <v>0.579999</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.295438</v>
+        <v>0.297541</v>
       </c>
       <c r="C98" t="n">
-        <v>0.624262</v>
+        <v>0.660146</v>
       </c>
       <c r="D98" t="n">
-        <v>0.641602</v>
+        <v>0.662635</v>
       </c>
       <c r="E98" t="n">
-        <v>0.291608</v>
+        <v>0.285967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.57897</v>
+        <v>0.580421</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291878</v>
+        <v>0.294338</v>
       </c>
       <c r="C99" t="n">
-        <v>0.622624</v>
+        <v>0.648763</v>
       </c>
       <c r="D99" t="n">
-        <v>0.634791</v>
+        <v>0.65584</v>
       </c>
       <c r="E99" t="n">
-        <v>0.28563</v>
+        <v>0.285888</v>
       </c>
       <c r="F99" t="n">
-        <v>0.575941</v>
+        <v>0.5814009999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.283554</v>
+        <v>0.284156</v>
       </c>
       <c r="C100" t="n">
-        <v>0.63257</v>
+        <v>0.628776</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641173</v>
+        <v>0.658397</v>
       </c>
       <c r="E100" t="n">
-        <v>0.283396</v>
+        <v>0.282029</v>
       </c>
       <c r="F100" t="n">
-        <v>0.576188</v>
+        <v>0.576148</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.278203</v>
+        <v>0.277008</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6265810000000001</v>
+        <v>0.620604</v>
       </c>
       <c r="D101" t="n">
-        <v>0.643108</v>
+        <v>0.655816</v>
       </c>
       <c r="E101" t="n">
-        <v>0.285386</v>
+        <v>0.280075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.572773</v>
+        <v>0.571444</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.269297</v>
+        <v>0.268112</v>
       </c>
       <c r="C102" t="n">
-        <v>0.62358</v>
+        <v>0.614993</v>
       </c>
       <c r="D102" t="n">
-        <v>0.641463</v>
+        <v>0.65725</v>
       </c>
       <c r="E102" t="n">
-        <v>0.279278</v>
+        <v>0.277373</v>
       </c>
       <c r="F102" t="n">
-        <v>0.572596</v>
+        <v>0.578541</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.262644</v>
+        <v>0.261009</v>
       </c>
       <c r="C103" t="n">
-        <v>0.618929</v>
+        <v>0.6136509999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.64195</v>
+        <v>0.65715</v>
       </c>
       <c r="E103" t="n">
-        <v>0.281281</v>
+        <v>0.276088</v>
       </c>
       <c r="F103" t="n">
-        <v>0.575551</v>
+        <v>0.57525</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255356</v>
+        <v>0.254042</v>
       </c>
       <c r="C104" t="n">
-        <v>0.625663</v>
+        <v>0.632889</v>
       </c>
       <c r="D104" t="n">
-        <v>0.649624</v>
+        <v>0.682665</v>
       </c>
       <c r="E104" t="n">
-        <v>0.279031</v>
+        <v>0.276606</v>
       </c>
       <c r="F104" t="n">
-        <v>0.573057</v>
+        <v>0.571049</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.249302</v>
+        <v>0.251351</v>
       </c>
       <c r="C105" t="n">
-        <v>0.619503</v>
+        <v>0.622289</v>
       </c>
       <c r="D105" t="n">
-        <v>0.648271</v>
+        <v>0.670813</v>
       </c>
       <c r="E105" t="n">
-        <v>0.273857</v>
+        <v>0.275376</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5765940000000001</v>
+        <v>0.569834</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.240801</v>
+        <v>0.240547</v>
       </c>
       <c r="C106" t="n">
-        <v>0.614158</v>
+        <v>0.615393</v>
       </c>
       <c r="D106" t="n">
-        <v>0.646868</v>
+        <v>0.671388</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272893</v>
+        <v>0.27194</v>
       </c>
       <c r="F106" t="n">
-        <v>0.569627</v>
+        <v>0.573213</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233071</v>
+        <v>0.232075</v>
       </c>
       <c r="C107" t="n">
-        <v>0.606062</v>
+        <v>0.60937</v>
       </c>
       <c r="D107" t="n">
-        <v>0.636184</v>
+        <v>0.661058</v>
       </c>
       <c r="E107" t="n">
-        <v>0.270712</v>
+        <v>0.270054</v>
       </c>
       <c r="F107" t="n">
-        <v>0.56494</v>
+        <v>0.568364</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.228162</v>
+        <v>0.225194</v>
       </c>
       <c r="C108" t="n">
-        <v>0.596023</v>
+        <v>0.599168</v>
       </c>
       <c r="D108" t="n">
-        <v>0.646026</v>
+        <v>0.655025</v>
       </c>
       <c r="E108" t="n">
-        <v>0.300936</v>
+        <v>0.296804</v>
       </c>
       <c r="F108" t="n">
-        <v>0.585216</v>
+        <v>0.584237</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.214998</v>
+        <v>0.216269</v>
       </c>
       <c r="C109" t="n">
-        <v>0.589222</v>
+        <v>0.593064</v>
       </c>
       <c r="D109" t="n">
-        <v>0.642639</v>
+        <v>0.657307</v>
       </c>
       <c r="E109" t="n">
-        <v>0.295372</v>
+        <v>0.295547</v>
       </c>
       <c r="F109" t="n">
-        <v>0.585347</v>
+        <v>0.584368</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.31259</v>
+        <v>0.310046</v>
       </c>
       <c r="C110" t="n">
-        <v>0.642225</v>
+        <v>0.649954</v>
       </c>
       <c r="D110" t="n">
-        <v>0.635584</v>
+        <v>0.653234</v>
       </c>
       <c r="E110" t="n">
-        <v>0.29224</v>
+        <v>0.293577</v>
       </c>
       <c r="F110" t="n">
-        <v>0.582758</v>
+        <v>0.583014</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.303687</v>
+        <v>0.307633</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6364300000000001</v>
+        <v>0.640663</v>
       </c>
       <c r="D111" t="n">
-        <v>0.635137</v>
+        <v>0.652598</v>
       </c>
       <c r="E111" t="n">
-        <v>0.290331</v>
+        <v>0.290752</v>
       </c>
       <c r="F111" t="n">
-        <v>0.577592</v>
+        <v>0.578359</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.306449</v>
+        <v>0.296987</v>
       </c>
       <c r="C112" t="n">
-        <v>0.625184</v>
+        <v>0.627391</v>
       </c>
       <c r="D112" t="n">
-        <v>0.636154</v>
+        <v>0.656621</v>
       </c>
       <c r="E112" t="n">
-        <v>0.28986</v>
+        <v>0.287906</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5798489999999999</v>
+        <v>0.5852540000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.296682</v>
+        <v>0.291225</v>
       </c>
       <c r="C113" t="n">
-        <v>0.623682</v>
+        <v>0.621604</v>
       </c>
       <c r="D113" t="n">
-        <v>0.634332</v>
+        <v>0.651034</v>
       </c>
       <c r="E113" t="n">
-        <v>0.28389</v>
+        <v>0.287492</v>
       </c>
       <c r="F113" t="n">
-        <v>0.578864</v>
+        <v>0.578302</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284625</v>
+        <v>0.285073</v>
       </c>
       <c r="C114" t="n">
-        <v>0.654697</v>
+        <v>0.616942</v>
       </c>
       <c r="D114" t="n">
-        <v>0.638369</v>
+        <v>0.654473</v>
       </c>
       <c r="E114" t="n">
-        <v>0.283881</v>
+        <v>0.283602</v>
       </c>
       <c r="F114" t="n">
-        <v>0.577493</v>
+        <v>0.580964</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.278431</v>
+        <v>0.277408</v>
       </c>
       <c r="C115" t="n">
-        <v>0.655182</v>
+        <v>0.652791</v>
       </c>
       <c r="D115" t="n">
-        <v>0.637672</v>
+        <v>0.663733</v>
       </c>
       <c r="E115" t="n">
-        <v>0.280943</v>
+        <v>0.280846</v>
       </c>
       <c r="F115" t="n">
-        <v>0.574582</v>
+        <v>0.57745</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271085</v>
+        <v>0.271279</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604309</v>
+        <v>0.612435</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646443</v>
+        <v>0.656566</v>
       </c>
       <c r="E116" t="n">
-        <v>0.279905</v>
+        <v>0.277704</v>
       </c>
       <c r="F116" t="n">
-        <v>0.57215</v>
+        <v>0.573525</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263904</v>
+        <v>0.262425</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6110449999999999</v>
+        <v>0.605654</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645414</v>
+        <v>0.659505</v>
       </c>
       <c r="E117" t="n">
-        <v>0.277258</v>
+        <v>0.276106</v>
       </c>
       <c r="F117" t="n">
-        <v>0.571613</v>
+        <v>0.573983</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.256571</v>
+        <v>0.256811</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610761</v>
+        <v>0.610109</v>
       </c>
       <c r="D118" t="n">
-        <v>0.645496</v>
+        <v>0.659361</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277</v>
+        <v>0.275743</v>
       </c>
       <c r="F118" t="n">
-        <v>0.570429</v>
+        <v>0.575434</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.249958</v>
+        <v>0.249699</v>
       </c>
       <c r="C119" t="n">
-        <v>0.610388</v>
+        <v>0.597039</v>
       </c>
       <c r="D119" t="n">
-        <v>0.643886</v>
+        <v>0.677257</v>
       </c>
       <c r="E119" t="n">
-        <v>0.273604</v>
+        <v>0.273641</v>
       </c>
       <c r="F119" t="n">
-        <v>0.571673</v>
+        <v>0.574856</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.242189</v>
+        <v>0.243173</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5848139999999999</v>
+        <v>0.586399</v>
       </c>
       <c r="D120" t="n">
-        <v>0.650424</v>
+        <v>0.662649</v>
       </c>
       <c r="E120" t="n">
-        <v>0.272683</v>
+        <v>0.271879</v>
       </c>
       <c r="F120" t="n">
-        <v>0.570349</v>
+        <v>0.569074</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234583</v>
+        <v>0.237261</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6241449999999999</v>
+        <v>0.602688</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6478080000000001</v>
+        <v>0.666204</v>
       </c>
       <c r="E121" t="n">
-        <v>0.271626</v>
+        <v>0.272418</v>
       </c>
       <c r="F121" t="n">
-        <v>0.571932</v>
+        <v>0.571783</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228673</v>
+        <v>0.226989</v>
       </c>
       <c r="C122" t="n">
-        <v>0.617628</v>
+        <v>0.594146</v>
       </c>
       <c r="D122" t="n">
-        <v>0.647682</v>
+        <v>0.661874</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269718</v>
+        <v>0.269617</v>
       </c>
       <c r="F122" t="n">
-        <v>0.567207</v>
+        <v>0.5692700000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.217839</v>
+        <v>0.218566</v>
       </c>
       <c r="C123" t="n">
-        <v>0.606443</v>
+        <v>0.587171</v>
       </c>
       <c r="D123" t="n">
-        <v>0.644445</v>
+        <v>0.665345</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295756</v>
+        <v>0.295905</v>
       </c>
       <c r="F123" t="n">
-        <v>0.582282</v>
+        <v>0.585636</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313491</v>
+        <v>0.311711</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6367429999999999</v>
+        <v>0.682576</v>
       </c>
       <c r="D124" t="n">
-        <v>0.646644</v>
+        <v>0.667759</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292465</v>
+        <v>0.29271</v>
       </c>
       <c r="F124" t="n">
-        <v>0.585189</v>
+        <v>0.588387</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.305932</v>
+        <v>0.307437</v>
       </c>
       <c r="C125" t="n">
-        <v>0.641527</v>
+        <v>0.640073</v>
       </c>
       <c r="D125" t="n">
-        <v>0.639945</v>
+        <v>0.663737</v>
       </c>
       <c r="E125" t="n">
-        <v>0.292997</v>
+        <v>0.289688</v>
       </c>
       <c r="F125" t="n">
-        <v>0.590781</v>
+        <v>0.580342</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.300397</v>
+        <v>0.300367</v>
       </c>
       <c r="C126" t="n">
-        <v>0.632795</v>
+        <v>0.6353529999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.643304</v>
+        <v>0.66088</v>
       </c>
       <c r="E126" t="n">
-        <v>0.286984</v>
+        <v>0.287302</v>
       </c>
       <c r="F126" t="n">
-        <v>0.584031</v>
+        <v>0.585161</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292306</v>
+        <v>0.295447</v>
       </c>
       <c r="C127" t="n">
-        <v>0.665403</v>
+        <v>0.6632479999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.65661</v>
+        <v>0.662229</v>
       </c>
       <c r="E127" t="n">
-        <v>0.28502</v>
+        <v>0.287425</v>
       </c>
       <c r="F127" t="n">
-        <v>0.581871</v>
+        <v>0.5767370000000001</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.285289</v>
+        <v>0.286179</v>
       </c>
       <c r="C128" t="n">
-        <v>0.640814</v>
+        <v>0.619753</v>
       </c>
       <c r="D128" t="n">
-        <v>0.646242</v>
+        <v>0.663335</v>
       </c>
       <c r="E128" t="n">
-        <v>0.28328</v>
+        <v>0.284417</v>
       </c>
       <c r="F128" t="n">
-        <v>0.577552</v>
+        <v>0.577707</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.280851</v>
+        <v>0.279038</v>
       </c>
       <c r="C129" t="n">
-        <v>0.646242</v>
+        <v>0.625339</v>
       </c>
       <c r="D129" t="n">
-        <v>0.64781</v>
+        <v>0.6650239999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.280787</v>
+        <v>0.281661</v>
       </c>
       <c r="F129" t="n">
-        <v>0.583817</v>
+        <v>0.578122</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.275257</v>
+        <v>0.271959</v>
       </c>
       <c r="C130" t="n">
-        <v>0.648892</v>
+        <v>0.608805</v>
       </c>
       <c r="D130" t="n">
-        <v>0.670987</v>
+        <v>0.67201</v>
       </c>
       <c r="E130" t="n">
-        <v>0.283823</v>
+        <v>0.279752</v>
       </c>
       <c r="F130" t="n">
-        <v>0.598406</v>
+        <v>0.575649</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.267793</v>
+        <v>0.265931</v>
       </c>
       <c r="C131" t="n">
-        <v>0.645356</v>
+        <v>0.65369</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6648810000000001</v>
+        <v>0.665323</v>
       </c>
       <c r="E131" t="n">
-        <v>0.290969</v>
+        <v>0.277739</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6021879999999999</v>
+        <v>0.576927</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.263123</v>
+        <v>0.257888</v>
       </c>
       <c r="C132" t="n">
-        <v>0.623716</v>
+        <v>0.614703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.65735</v>
+        <v>0.665117</v>
       </c>
       <c r="E132" t="n">
-        <v>0.279534</v>
+        <v>0.276046</v>
       </c>
       <c r="F132" t="n">
-        <v>0.570229</v>
+        <v>0.575721</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.251369</v>
+        <v>0.25191</v>
       </c>
       <c r="C133" t="n">
-        <v>0.592664</v>
+        <v>0.593986</v>
       </c>
       <c r="D133" t="n">
-        <v>0.656923</v>
+        <v>0.665179</v>
       </c>
       <c r="E133" t="n">
-        <v>0.274953</v>
+        <v>0.27434</v>
       </c>
       <c r="F133" t="n">
-        <v>0.57611</v>
+        <v>0.574051</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244255</v>
+        <v>0.248039</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60742</v>
+        <v>0.589033</v>
       </c>
       <c r="D134" t="n">
-        <v>0.658475</v>
+        <v>0.669919</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274359</v>
+        <v>0.272503</v>
       </c>
       <c r="F134" t="n">
-        <v>0.575143</v>
+        <v>0.570562</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24027</v>
+        <v>0.236555</v>
       </c>
       <c r="C135" t="n">
-        <v>0.585852</v>
+        <v>0.583755</v>
       </c>
       <c r="D135" t="n">
-        <v>0.654151</v>
+        <v>0.668285</v>
       </c>
       <c r="E135" t="n">
-        <v>0.270279</v>
+        <v>0.279965</v>
       </c>
       <c r="F135" t="n">
-        <v>0.569197</v>
+        <v>0.571412</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.228548</v>
+        <v>0.231711</v>
       </c>
       <c r="C136" t="n">
-        <v>0.577697</v>
+        <v>0.5996320000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.645719</v>
+        <v>0.663748</v>
       </c>
       <c r="E136" t="n">
-        <v>0.269953</v>
+        <v>0.26909</v>
       </c>
       <c r="F136" t="n">
-        <v>0.57491</v>
+        <v>0.572442</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.21863</v>
+        <v>0.22029</v>
       </c>
       <c r="C137" t="n">
-        <v>0.56712</v>
+        <v>0.5694</v>
       </c>
       <c r="D137" t="n">
-        <v>0.645887</v>
+        <v>0.665686</v>
       </c>
       <c r="E137" t="n">
-        <v>0.296014</v>
+        <v>0.29608</v>
       </c>
       <c r="F137" t="n">
-        <v>0.588149</v>
+        <v>0.585477</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316627</v>
+        <v>0.312419</v>
       </c>
       <c r="C138" t="n">
-        <v>0.636949</v>
+        <v>0.686057</v>
       </c>
       <c r="D138" t="n">
-        <v>0.645415</v>
+        <v>0.664311</v>
       </c>
       <c r="E138" t="n">
-        <v>0.30143</v>
+        <v>0.292597</v>
       </c>
       <c r="F138" t="n">
-        <v>0.582334</v>
+        <v>0.58369</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.309556</v>
+        <v>0.307145</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6724020000000001</v>
+        <v>0.6681820000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.648954</v>
+        <v>0.664851</v>
       </c>
       <c r="E139" t="n">
-        <v>0.291338</v>
+        <v>0.292131</v>
       </c>
       <c r="F139" t="n">
-        <v>0.589533</v>
+        <v>0.5889720000000001</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302256</v>
+        <v>0.3023</v>
       </c>
       <c r="C140" t="n">
-        <v>0.630466</v>
+        <v>0.628795</v>
       </c>
       <c r="D140" t="n">
-        <v>0.646692</v>
+        <v>0.661471</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288937</v>
+        <v>0.288557</v>
       </c>
       <c r="F140" t="n">
-        <v>0.581755</v>
+        <v>0.582267</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294569</v>
+        <v>0.293344</v>
       </c>
       <c r="C141" t="n">
-        <v>0.627514</v>
+        <v>0.626641</v>
       </c>
       <c r="D141" t="n">
-        <v>0.646299</v>
+        <v>0.66296</v>
       </c>
       <c r="E141" t="n">
-        <v>0.287048</v>
+        <v>0.287154</v>
       </c>
       <c r="F141" t="n">
-        <v>0.579856</v>
+        <v>0.580256</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.288018</v>
+        <v>0.286365</v>
       </c>
       <c r="C142" t="n">
-        <v>0.652532</v>
+        <v>0.635833</v>
       </c>
       <c r="D142" t="n">
-        <v>0.644719</v>
+        <v>0.665129</v>
       </c>
       <c r="E142" t="n">
-        <v>0.282666</v>
+        <v>0.284413</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5772659999999999</v>
+        <v>0.583882</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.280847</v>
+        <v>0.281065</v>
       </c>
       <c r="C143" t="n">
-        <v>0.620534</v>
+        <v>0.6528890000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.64745</v>
+        <v>0.66145</v>
       </c>
       <c r="E143" t="n">
-        <v>0.281595</v>
+        <v>0.28042</v>
       </c>
       <c r="F143" t="n">
-        <v>0.574557</v>
+        <v>0.578643</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252428</v>
+        <v>0.260497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52781</v>
+        <v>0.53821</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537276</v>
+        <v>0.555288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267945</v>
+        <v>0.190616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520455</v>
+        <v>0.463534</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241753</v>
+        <v>0.252886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520833</v>
+        <v>0.537995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534304</v>
+        <v>0.54239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257606</v>
+        <v>0.186034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52288</v>
+        <v>0.455738</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239487</v>
+        <v>0.243029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515636</v>
+        <v>0.515499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532927</v>
+        <v>0.53731</v>
       </c>
       <c r="E4" t="n">
-        <v>0.257951</v>
+        <v>0.181111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.530872</v>
+        <v>0.450956</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233003</v>
+        <v>0.232029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516687</v>
+        <v>0.505738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535187</v>
+        <v>0.5421240000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.257768</v>
+        <v>0.181549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.512561</v>
+        <v>0.445614</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223577</v>
+        <v>0.223997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502808</v>
+        <v>0.495925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533683</v>
+        <v>0.517405</v>
       </c>
       <c r="E6" t="n">
-        <v>0.256549</v>
+        <v>0.173564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51589</v>
+        <v>0.435962</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218109</v>
+        <v>0.219198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494135</v>
+        <v>0.486502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.532519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255817</v>
+        <v>0.17075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.516205</v>
+        <v>0.437421</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21333</v>
+        <v>0.208915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501547</v>
+        <v>0.482428</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541099</v>
+        <v>0.526083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255988</v>
+        <v>0.168925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.511623</v>
+        <v>0.42983</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201504</v>
+        <v>0.205487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478511</v>
+        <v>0.481333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539085</v>
+        <v>0.528452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270637</v>
+        <v>0.220895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523956</v>
+        <v>0.472455</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291965</v>
+        <v>0.288533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54649</v>
+        <v>0.534893</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541981</v>
+        <v>0.529732</v>
       </c>
       <c r="E10" t="n">
-        <v>0.270913</v>
+        <v>0.21472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.525517</v>
+        <v>0.477032</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288323</v>
+        <v>0.283946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.542883</v>
+        <v>0.531426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.539214</v>
+        <v>0.527318</v>
       </c>
       <c r="E11" t="n">
-        <v>0.269458</v>
+        <v>0.209555</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523726</v>
+        <v>0.469726</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283681</v>
+        <v>0.278069</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541216</v>
+        <v>0.530182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.529668</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266955</v>
+        <v>0.204318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.534187</v>
+        <v>0.460649</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279081</v>
+        <v>0.271823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.522194</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54037</v>
+        <v>0.521004</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265164</v>
+        <v>0.201114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52457</v>
+        <v>0.457589</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274928</v>
+        <v>0.268804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530776</v>
+        <v>0.519645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.539595</v>
+        <v>0.52551</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26581</v>
+        <v>0.199655</v>
       </c>
       <c r="F14" t="n">
-        <v>0.521443</v>
+        <v>0.453211</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263171</v>
+        <v>0.260586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524521</v>
+        <v>0.515024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529278</v>
+        <v>0.520641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.262552</v>
+        <v>0.194521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.457384</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256792</v>
+        <v>0.255246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521418</v>
+        <v>0.513126</v>
       </c>
       <c r="D16" t="n">
-        <v>0.523187</v>
+        <v>0.528545</v>
       </c>
       <c r="E16" t="n">
-        <v>0.261859</v>
+        <v>0.192483</v>
       </c>
       <c r="F16" t="n">
-        <v>0.519783</v>
+        <v>0.454173</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251242</v>
+        <v>0.24933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.516529</v>
+        <v>0.5083800000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.540484</v>
+        <v>0.523305</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266601</v>
+        <v>0.190686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52826</v>
+        <v>0.452201</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248302</v>
+        <v>0.2435</v>
       </c>
       <c r="C18" t="n">
-        <v>0.528056</v>
+        <v>0.506937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.527291</v>
+        <v>0.518449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.257797</v>
+        <v>0.185919</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512462</v>
+        <v>0.44566</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236978</v>
+        <v>0.236867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.50178</v>
+        <v>0.495979</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538364</v>
+        <v>0.527549</v>
       </c>
       <c r="E19" t="n">
-        <v>0.262355</v>
+        <v>0.181994</v>
       </c>
       <c r="F19" t="n">
-        <v>0.511066</v>
+        <v>0.443749</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231188</v>
+        <v>0.230738</v>
       </c>
       <c r="C20" t="n">
-        <v>0.509908</v>
+        <v>0.493087</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526325</v>
+        <v>0.5266</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257438</v>
+        <v>0.182193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.520529</v>
+        <v>0.441294</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229585</v>
+        <v>0.223467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498746</v>
+        <v>0.488557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.546269</v>
+        <v>0.532325</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261979</v>
+        <v>0.175983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5128779999999999</v>
+        <v>0.43518</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216764</v>
+        <v>0.21686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497511</v>
+        <v>0.486921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.54483</v>
+        <v>0.541026</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256668</v>
+        <v>0.173896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.515745</v>
+        <v>0.430217</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21356</v>
+        <v>0.209251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493426</v>
+        <v>0.474366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531631</v>
+        <v>0.530545</v>
       </c>
       <c r="E23" t="n">
-        <v>0.271209</v>
+        <v>0.224921</v>
       </c>
       <c r="F23" t="n">
-        <v>0.519168</v>
+        <v>0.483513</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.291109</v>
+        <v>0.28796</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545308</v>
+        <v>0.538349</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539629</v>
+        <v>0.533116</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272674</v>
+        <v>0.217986</v>
       </c>
       <c r="F24" t="n">
-        <v>0.544932</v>
+        <v>0.473511</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285705</v>
+        <v>0.282709</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.535158</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552594</v>
+        <v>0.537033</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269714</v>
+        <v>0.215165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.518417</v>
+        <v>0.481351</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28404</v>
+        <v>0.27984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543013</v>
+        <v>0.532292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.527687</v>
+        <v>0.52988</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270937</v>
+        <v>0.214292</v>
       </c>
       <c r="F26" t="n">
-        <v>0.518662</v>
+        <v>0.465535</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28453</v>
+        <v>0.274591</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538207</v>
+        <v>0.531346</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534228</v>
+        <v>0.539232</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268592</v>
+        <v>0.206859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.512971</v>
+        <v>0.462082</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270584</v>
+        <v>0.268495</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532612</v>
+        <v>0.523204</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.540829</v>
       </c>
       <c r="E28" t="n">
-        <v>0.268494</v>
+        <v>0.213598</v>
       </c>
       <c r="F28" t="n">
-        <v>0.522859</v>
+        <v>0.464209</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270388</v>
+        <v>0.263653</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52903</v>
+        <v>0.521732</v>
       </c>
       <c r="D29" t="n">
-        <v>0.535377</v>
+        <v>0.527952</v>
       </c>
       <c r="E29" t="n">
-        <v>0.265154</v>
+        <v>0.199162</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5160169999999999</v>
+        <v>0.456344</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265661</v>
+        <v>0.257677</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535227</v>
+        <v>0.519004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.527343</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26483</v>
+        <v>0.1961</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521811</v>
+        <v>0.454032</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256184</v>
+        <v>0.251018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520594</v>
+        <v>0.509493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535431</v>
+        <v>0.535401</v>
       </c>
       <c r="E31" t="n">
-        <v>0.263411</v>
+        <v>0.193346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.511521</v>
+        <v>0.450178</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248558</v>
+        <v>0.247763</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519845</v>
+        <v>0.5131599999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533465</v>
+        <v>0.531431</v>
       </c>
       <c r="E32" t="n">
-        <v>0.269047</v>
+        <v>0.189209</v>
       </c>
       <c r="F32" t="n">
-        <v>0.514757</v>
+        <v>0.444719</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242564</v>
+        <v>0.240156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515693</v>
+        <v>0.499884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540442</v>
+        <v>0.527949</v>
       </c>
       <c r="E33" t="n">
-        <v>0.261169</v>
+        <v>0.190444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.516575</v>
+        <v>0.445561</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240611</v>
+        <v>0.233286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51174</v>
+        <v>0.495329</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5347420000000001</v>
+        <v>0.527541</v>
       </c>
       <c r="E34" t="n">
-        <v>0.259858</v>
+        <v>0.182602</v>
       </c>
       <c r="F34" t="n">
-        <v>0.508845</v>
+        <v>0.443889</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228465</v>
+        <v>0.229587</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497673</v>
+        <v>0.496004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.553582</v>
+        <v>0.549023</v>
       </c>
       <c r="E35" t="n">
-        <v>0.259117</v>
+        <v>0.182406</v>
       </c>
       <c r="F35" t="n">
-        <v>0.505726</v>
+        <v>0.438103</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225613</v>
+        <v>0.220073</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499722</v>
+        <v>0.484733</v>
       </c>
       <c r="D36" t="n">
-        <v>0.554043</v>
+        <v>0.548951</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258172</v>
+        <v>0.177122</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514942</v>
+        <v>0.443664</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213727</v>
+        <v>0.212412</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490636</v>
+        <v>0.478881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548243</v>
+        <v>0.549246</v>
       </c>
       <c r="E37" t="n">
-        <v>0.275828</v>
+        <v>0.233099</v>
       </c>
       <c r="F37" t="n">
-        <v>0.527677</v>
+        <v>0.481338</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296596</v>
+        <v>0.290812</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554775</v>
+        <v>0.545843</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54377</v>
+        <v>0.549617</v>
       </c>
       <c r="E38" t="n">
-        <v>0.274018</v>
+        <v>0.226648</v>
       </c>
       <c r="F38" t="n">
-        <v>0.518694</v>
+        <v>0.480021</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289029</v>
+        <v>0.287722</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553021</v>
+        <v>0.541913</v>
       </c>
       <c r="D39" t="n">
-        <v>0.552193</v>
+        <v>0.5477959999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287422</v>
+        <v>0.220623</v>
       </c>
       <c r="F39" t="n">
-        <v>0.527864</v>
+        <v>0.478383</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291025</v>
+        <v>0.284929</v>
       </c>
       <c r="C40" t="n">
-        <v>0.552304</v>
+        <v>0.543061</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5552240000000001</v>
+        <v>0.546268</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272086</v>
+        <v>0.215288</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.470841</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280323</v>
+        <v>0.279743</v>
       </c>
       <c r="C41" t="n">
-        <v>0.544975</v>
+        <v>0.533278</v>
       </c>
       <c r="D41" t="n">
-        <v>0.559289</v>
+        <v>0.550688</v>
       </c>
       <c r="E41" t="n">
-        <v>0.276376</v>
+        <v>0.21195</v>
       </c>
       <c r="F41" t="n">
-        <v>0.519661</v>
+        <v>0.466605</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.273861</v>
+        <v>0.272096</v>
       </c>
       <c r="C42" t="n">
-        <v>0.539541</v>
+        <v>0.530182</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554874</v>
+        <v>0.546123</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268665</v>
+        <v>0.209889</v>
       </c>
       <c r="F42" t="n">
-        <v>0.519178</v>
+        <v>0.466694</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.269765</v>
+        <v>0.267445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53271</v>
+        <v>0.5379350000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558514</v>
+        <v>0.554096</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267936</v>
+        <v>0.20418</v>
       </c>
       <c r="F43" t="n">
-        <v>0.520994</v>
+        <v>0.460432</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263644</v>
+        <v>0.26139</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5376</v>
+        <v>0.517191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562559</v>
+        <v>0.549271</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269958</v>
+        <v>0.203079</v>
       </c>
       <c r="F44" t="n">
-        <v>0.523326</v>
+        <v>0.455449</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259849</v>
+        <v>0.254474</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539801</v>
+        <v>0.518212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56136</v>
+        <v>0.561923</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267062</v>
+        <v>0.196405</v>
       </c>
       <c r="F45" t="n">
-        <v>0.524771</v>
+        <v>0.458108</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253945</v>
+        <v>0.251282</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5232290000000001</v>
+        <v>0.514238</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567245</v>
+        <v>0.554023</v>
       </c>
       <c r="E46" t="n">
-        <v>0.263515</v>
+        <v>0.195679</v>
       </c>
       <c r="F46" t="n">
-        <v>0.517921</v>
+        <v>0.451154</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244157</v>
+        <v>0.242289</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529213</v>
+        <v>0.50913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5729610000000001</v>
+        <v>0.573149</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264378</v>
+        <v>0.190615</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521895</v>
+        <v>0.451928</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240725</v>
+        <v>0.23788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527589</v>
+        <v>0.504952</v>
       </c>
       <c r="D48" t="n">
-        <v>0.556323</v>
+        <v>0.568732</v>
       </c>
       <c r="E48" t="n">
-        <v>0.261513</v>
+        <v>0.186212</v>
       </c>
       <c r="F48" t="n">
-        <v>0.511731</v>
+        <v>0.450158</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235345</v>
+        <v>0.230867</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509695</v>
+        <v>0.50587</v>
       </c>
       <c r="D49" t="n">
-        <v>0.579402</v>
+        <v>0.58062</v>
       </c>
       <c r="E49" t="n">
-        <v>0.260313</v>
+        <v>0.182629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513276</v>
+        <v>0.449855</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223386</v>
+        <v>0.222585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5060170000000001</v>
+        <v>0.502192</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623855</v>
+        <v>0.62276</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266707</v>
+        <v>0.179701</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5181789999999999</v>
+        <v>0.444987</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217102</v>
+        <v>0.215185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.514997</v>
+        <v>0.493186</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62001</v>
+        <v>0.621633</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282858</v>
+        <v>0.236215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545146</v>
+        <v>0.503812</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208301</v>
+        <v>0.207587</v>
       </c>
       <c r="C52" t="n">
-        <v>0.515859</v>
+        <v>0.493019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.630562</v>
+        <v>0.625999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.280347</v>
+        <v>0.235989</v>
       </c>
       <c r="F52" t="n">
-        <v>0.552468</v>
+        <v>0.485623</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299862</v>
+        <v>0.295599</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585694</v>
+        <v>0.556315</v>
       </c>
       <c r="D53" t="n">
-        <v>0.637433</v>
+        <v>0.630521</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290281</v>
+        <v>0.227377</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.480743</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295584</v>
+        <v>0.291115</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578973</v>
+        <v>0.5612470000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.634077</v>
+        <v>0.635081</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278832</v>
+        <v>0.222927</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54138</v>
+        <v>0.494544</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293541</v>
+        <v>0.285116</v>
       </c>
       <c r="C55" t="n">
-        <v>0.559346</v>
+        <v>0.572661</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636571</v>
+        <v>0.628533</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276463</v>
+        <v>0.218034</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542526</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280583</v>
+        <v>0.279777</v>
       </c>
       <c r="C56" t="n">
-        <v>0.592188</v>
+        <v>0.571175</v>
       </c>
       <c r="D56" t="n">
-        <v>0.643303</v>
+        <v>0.633755</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282164</v>
+        <v>0.213961</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533782</v>
+        <v>0.484256</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275822</v>
+        <v>0.275049</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587295</v>
+        <v>0.55999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651394</v>
+        <v>0.633205</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276601</v>
+        <v>0.209606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5326880000000001</v>
+        <v>0.484082</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269463</v>
+        <v>0.267206</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565902</v>
+        <v>0.557239</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638907</v>
+        <v>0.645302</v>
       </c>
       <c r="E58" t="n">
-        <v>0.271959</v>
+        <v>0.207704</v>
       </c>
       <c r="F58" t="n">
-        <v>0.545651</v>
+        <v>0.484901</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263815</v>
+        <v>0.26177</v>
       </c>
       <c r="C59" t="n">
-        <v>0.562042</v>
+        <v>0.548637</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646</v>
+        <v>0.641558</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271118</v>
+        <v>0.203159</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5374949999999999</v>
+        <v>0.481612</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258618</v>
+        <v>0.257979</v>
       </c>
       <c r="C60" t="n">
-        <v>0.587511</v>
+        <v>0.560586</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272962</v>
+        <v>0.198153</v>
       </c>
       <c r="F60" t="n">
-        <v>0.532199</v>
+        <v>0.479325</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255074</v>
+        <v>0.252003</v>
       </c>
       <c r="C61" t="n">
-        <v>0.552271</v>
+        <v>0.565455</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643655</v>
+        <v>0.642873</v>
       </c>
       <c r="E61" t="n">
-        <v>0.267614</v>
+        <v>0.195421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.540666</v>
+        <v>0.48112</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244392</v>
+        <v>0.242913</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.562272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651286</v>
+        <v>0.64593</v>
       </c>
       <c r="E62" t="n">
-        <v>0.267185</v>
+        <v>0.191831</v>
       </c>
       <c r="F62" t="n">
-        <v>0.534765</v>
+        <v>0.473354</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235993</v>
+        <v>0.237115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543773</v>
+        <v>0.5558999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652265</v>
+        <v>0.64857</v>
       </c>
       <c r="E63" t="n">
-        <v>0.265805</v>
+        <v>0.192823</v>
       </c>
       <c r="F63" t="n">
-        <v>0.534278</v>
+        <v>0.474826</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234758</v>
+        <v>0.229083</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572811</v>
+        <v>0.554074</v>
       </c>
       <c r="D64" t="n">
-        <v>0.711903</v>
+        <v>0.701654</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264937</v>
+        <v>0.185353</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543152</v>
+        <v>0.474158</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221176</v>
+        <v>0.226114</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5467649999999999</v>
+        <v>0.557862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706499</v>
+        <v>0.702101</v>
       </c>
       <c r="E65" t="n">
-        <v>0.26618</v>
+        <v>0.18246</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543125</v>
+        <v>0.46985</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214181</v>
+        <v>0.214368</v>
       </c>
       <c r="C66" t="n">
-        <v>0.546264</v>
+        <v>0.530314</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706517</v>
+        <v>0.697344</v>
       </c>
       <c r="E66" t="n">
-        <v>0.288667</v>
+        <v>0.250574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.564885</v>
+        <v>0.515664</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313638</v>
+        <v>0.307984</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633974</v>
+        <v>0.618205</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.692065</v>
       </c>
       <c r="E67" t="n">
-        <v>0.287813</v>
+        <v>0.240031</v>
       </c>
       <c r="F67" t="n">
-        <v>0.571711</v>
+        <v>0.5110479999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303204</v>
+        <v>0.305255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609367</v>
+        <v>0.612758</v>
       </c>
       <c r="D68" t="n">
-        <v>0.696963</v>
+        <v>0.688811</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285082</v>
+        <v>0.23615</v>
       </c>
       <c r="F68" t="n">
-        <v>0.562599</v>
+        <v>0.507532</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301536</v>
+        <v>0.297892</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615779</v>
+        <v>0.595868</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714131</v>
+        <v>0.69114</v>
       </c>
       <c r="E69" t="n">
-        <v>0.282616</v>
+        <v>0.229672</v>
       </c>
       <c r="F69" t="n">
-        <v>0.562096</v>
+        <v>0.505928</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297524</v>
+        <v>0.28603</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606702</v>
+        <v>0.599349</v>
       </c>
       <c r="D70" t="n">
-        <v>0.704313</v>
+        <v>0.686271</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283966</v>
+        <v>0.222845</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56472</v>
+        <v>0.498271</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287319</v>
+        <v>0.286173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612077</v>
+        <v>0.601971</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690673</v>
+        <v>0.68444</v>
       </c>
       <c r="E71" t="n">
-        <v>0.282834</v>
+        <v>0.220054</v>
       </c>
       <c r="F71" t="n">
-        <v>0.555525</v>
+        <v>0.498342</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275131</v>
+        <v>0.283433</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602346</v>
+        <v>0.592711</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694679</v>
+        <v>0.6840619999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.279482</v>
+        <v>0.21557</v>
       </c>
       <c r="F72" t="n">
-        <v>0.549561</v>
+        <v>0.497322</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272818</v>
+        <v>0.275016</v>
       </c>
       <c r="C73" t="n">
-        <v>0.609256</v>
+        <v>0.586062</v>
       </c>
       <c r="D73" t="n">
-        <v>0.69179</v>
+        <v>0.679891</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275693</v>
+        <v>0.211539</v>
       </c>
       <c r="F73" t="n">
-        <v>0.551518</v>
+        <v>0.4963</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264842</v>
+        <v>0.266586</v>
       </c>
       <c r="C74" t="n">
-        <v>0.601481</v>
+        <v>0.58364</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690885</v>
+        <v>0.6808070000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.272852</v>
+        <v>0.204897</v>
       </c>
       <c r="F74" t="n">
-        <v>0.551828</v>
+        <v>0.483666</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260613</v>
+        <v>0.258436</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5916670000000001</v>
+        <v>0.581714</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685411</v>
+        <v>0.6863</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274534</v>
+        <v>0.202024</v>
       </c>
       <c r="F75" t="n">
-        <v>0.547969</v>
+        <v>0.479935</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252496</v>
+        <v>0.250936</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592786</v>
+        <v>0.572441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684873</v>
+        <v>0.685321</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272621</v>
+        <v>0.200037</v>
       </c>
       <c r="F76" t="n">
-        <v>0.551218</v>
+        <v>0.482239</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242901</v>
+        <v>0.245709</v>
       </c>
       <c r="C77" t="n">
-        <v>0.577442</v>
+        <v>0.570562</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685689</v>
+        <v>0.684017</v>
       </c>
       <c r="E77" t="n">
-        <v>0.270924</v>
+        <v>0.195718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.548629</v>
+        <v>0.481527</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237388</v>
+        <v>0.239193</v>
       </c>
       <c r="C78" t="n">
-        <v>0.582695</v>
+        <v>0.563276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751999</v>
+        <v>0.738932</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274921</v>
+        <v>0.194114</v>
       </c>
       <c r="F78" t="n">
-        <v>0.548959</v>
+        <v>0.475489</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.227139</v>
+        <v>0.229874</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57211</v>
+        <v>0.556227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7675110000000001</v>
+        <v>0.733815</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270117</v>
+        <v>0.191949</v>
       </c>
       <c r="F79" t="n">
-        <v>0.549296</v>
+        <v>0.468587</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224023</v>
+        <v>0.221957</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558833</v>
+        <v>0.553231</v>
       </c>
       <c r="D80" t="n">
-        <v>0.749897</v>
+        <v>0.726688</v>
       </c>
       <c r="E80" t="n">
-        <v>0.300635</v>
+        <v>0.24932</v>
       </c>
       <c r="F80" t="n">
-        <v>0.560791</v>
+        <v>0.528393</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313972</v>
+        <v>0.313722</v>
       </c>
       <c r="C81" t="n">
-        <v>0.620448</v>
+        <v>0.611286</v>
       </c>
       <c r="D81" t="n">
-        <v>0.744188</v>
+        <v>0.723601</v>
       </c>
       <c r="E81" t="n">
-        <v>0.292512</v>
+        <v>0.245596</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563545</v>
+        <v>0.520109</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311989</v>
+        <v>0.305876</v>
       </c>
       <c r="C82" t="n">
-        <v>0.619408</v>
+        <v>0.610144</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736633</v>
+        <v>0.719819</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291396</v>
+        <v>0.239766</v>
       </c>
       <c r="F82" t="n">
-        <v>0.565435</v>
+        <v>0.50822</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304751</v>
+        <v>0.300208</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609569</v>
+        <v>0.600603</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734688</v>
+        <v>0.720869</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29151</v>
+        <v>0.233565</v>
       </c>
       <c r="F83" t="n">
-        <v>0.564877</v>
+        <v>0.507623</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298381</v>
+        <v>0.294095</v>
       </c>
       <c r="C84" t="n">
-        <v>0.642572</v>
+        <v>0.639876</v>
       </c>
       <c r="D84" t="n">
-        <v>0.75924</v>
+        <v>0.742865</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287901</v>
+        <v>0.229398</v>
       </c>
       <c r="F84" t="n">
-        <v>0.582642</v>
+        <v>0.535228</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29034</v>
+        <v>0.287569</v>
       </c>
       <c r="C85" t="n">
-        <v>0.63976</v>
+        <v>0.629626</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763406</v>
+        <v>0.738907</v>
       </c>
       <c r="E85" t="n">
-        <v>0.287354</v>
+        <v>0.223756</v>
       </c>
       <c r="F85" t="n">
-        <v>0.588175</v>
+        <v>0.530712</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285138</v>
+        <v>0.280952</v>
       </c>
       <c r="C86" t="n">
-        <v>0.645832</v>
+        <v>0.63134</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747682</v>
+        <v>0.7433920000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281245</v>
+        <v>0.223746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.589171</v>
+        <v>0.532936</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277268</v>
+        <v>0.274697</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6333220000000001</v>
+        <v>0.619927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.759211</v>
+        <v>0.733807</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280263</v>
+        <v>0.215185</v>
       </c>
       <c r="F87" t="n">
-        <v>0.58844</v>
+        <v>0.520691</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270323</v>
+        <v>0.268943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630393</v>
+        <v>0.613904</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765133</v>
+        <v>0.7349599999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.281193</v>
+        <v>0.210243</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587555</v>
+        <v>0.517285</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263952</v>
+        <v>0.260773</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606996</v>
+        <v>0.617615</v>
       </c>
       <c r="D89" t="n">
-        <v>0.754674</v>
+        <v>0.741532</v>
       </c>
       <c r="E89" t="n">
-        <v>0.278012</v>
+        <v>0.205762</v>
       </c>
       <c r="F89" t="n">
-        <v>0.581489</v>
+        <v>0.514251</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258643</v>
+        <v>0.254886</v>
       </c>
       <c r="C90" t="n">
-        <v>0.608088</v>
+        <v>0.611148</v>
       </c>
       <c r="D90" t="n">
-        <v>0.747521</v>
+        <v>0.734059</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275484</v>
+        <v>0.201854</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576953</v>
+        <v>0.514042</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253704</v>
+        <v>0.24766</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597394</v>
+        <v>0.60631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742818</v>
+        <v>0.728609</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2762</v>
+        <v>0.198625</v>
       </c>
       <c r="F91" t="n">
-        <v>0.574574</v>
+        <v>0.51439</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240973</v>
+        <v>0.240494</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599353</v>
+        <v>0.601777</v>
       </c>
       <c r="D92" t="n">
-        <v>0.665036</v>
+        <v>0.644232</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272295</v>
+        <v>0.194214</v>
       </c>
       <c r="F92" t="n">
-        <v>0.582341</v>
+        <v>0.5053029999999999</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.235508</v>
+        <v>0.234589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597434</v>
+        <v>0.5970569999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656228</v>
+        <v>0.6506729999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.275453</v>
+        <v>0.193647</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5763779999999999</v>
+        <v>0.504695</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223989</v>
+        <v>0.223862</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5871420000000001</v>
+        <v>0.596012</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65039</v>
+        <v>0.641091</v>
       </c>
       <c r="E94" t="n">
-        <v>0.300038</v>
+        <v>0.251012</v>
       </c>
       <c r="F94" t="n">
-        <v>0.586515</v>
+        <v>0.549781</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319416</v>
+        <v>0.313091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650959</v>
+        <v>0.6341639999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663803</v>
+        <v>0.644122</v>
       </c>
       <c r="E95" t="n">
-        <v>0.294746</v>
+        <v>0.245109</v>
       </c>
       <c r="F95" t="n">
-        <v>0.587056</v>
+        <v>0.5460159999999999</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313388</v>
+        <v>0.308047</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640787</v>
+        <v>0.629605</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658907</v>
+        <v>0.640934</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292177</v>
+        <v>0.239921</v>
       </c>
       <c r="F96" t="n">
-        <v>0.594705</v>
+        <v>0.543116</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305577</v>
+        <v>0.301489</v>
       </c>
       <c r="C97" t="n">
-        <v>0.636409</v>
+        <v>0.626497</v>
       </c>
       <c r="D97" t="n">
-        <v>0.651955</v>
+        <v>0.639764</v>
       </c>
       <c r="E97" t="n">
-        <v>0.291108</v>
+        <v>0.238972</v>
       </c>
       <c r="F97" t="n">
-        <v>0.590348</v>
+        <v>0.539499</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299655</v>
+        <v>0.299509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630752</v>
+        <v>0.624157</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643666</v>
+        <v>0.639283</v>
       </c>
       <c r="E98" t="n">
-        <v>0.287753</v>
+        <v>0.229135</v>
       </c>
       <c r="F98" t="n">
-        <v>0.588172</v>
+        <v>0.534946</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291279</v>
+        <v>0.290321</v>
       </c>
       <c r="C99" t="n">
-        <v>0.624873</v>
+        <v>0.614595</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651809</v>
+        <v>0.641274</v>
       </c>
       <c r="E99" t="n">
-        <v>0.284633</v>
+        <v>0.224113</v>
       </c>
       <c r="F99" t="n">
-        <v>0.601116</v>
+        <v>0.532352</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284306</v>
+        <v>0.283143</v>
       </c>
       <c r="C100" t="n">
-        <v>0.620906</v>
+        <v>0.612866</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641115</v>
+        <v>0.638592</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28303</v>
+        <v>0.219425</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5887559999999999</v>
+        <v>0.525782</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277243</v>
+        <v>0.279793</v>
       </c>
       <c r="C101" t="n">
-        <v>0.620957</v>
+        <v>0.605387</v>
       </c>
       <c r="D101" t="n">
-        <v>0.647844</v>
+        <v>0.641348</v>
       </c>
       <c r="E101" t="n">
-        <v>0.280557</v>
+        <v>0.21599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.579875</v>
+        <v>0.522904</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273807</v>
+        <v>0.270167</v>
       </c>
       <c r="C102" t="n">
-        <v>0.615717</v>
+        <v>0.595675</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662562</v>
+        <v>0.638598</v>
       </c>
       <c r="E102" t="n">
-        <v>0.280013</v>
+        <v>0.211128</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.520466</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266578</v>
+        <v>0.268181</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603787</v>
+        <v>0.592063</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653648</v>
+        <v>0.642194</v>
       </c>
       <c r="E103" t="n">
-        <v>0.278238</v>
+        <v>0.207143</v>
       </c>
       <c r="F103" t="n">
-        <v>0.593203</v>
+        <v>0.518296</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257815</v>
+        <v>0.259542</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595942</v>
+        <v>0.585549</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652152</v>
+        <v>0.643576</v>
       </c>
       <c r="E104" t="n">
-        <v>0.274804</v>
+        <v>0.203445</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593557</v>
+        <v>0.517244</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252926</v>
+        <v>0.249276</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592473</v>
+        <v>0.587186</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660904</v>
+        <v>0.6475109999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275296</v>
+        <v>0.201681</v>
       </c>
       <c r="F105" t="n">
-        <v>0.575989</v>
+        <v>0.5134880000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242963</v>
+        <v>0.241629</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595069</v>
+        <v>0.5743470000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650031</v>
+        <v>0.644096</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272821</v>
+        <v>0.195489</v>
       </c>
       <c r="F106" t="n">
-        <v>0.579021</v>
+        <v>0.505466</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236548</v>
+        <v>0.236015</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592303</v>
+        <v>0.566796</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64093</v>
+        <v>0.637158</v>
       </c>
       <c r="E107" t="n">
-        <v>0.271201</v>
+        <v>0.191336</v>
       </c>
       <c r="F107" t="n">
-        <v>0.574732</v>
+        <v>0.503363</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232917</v>
+        <v>0.226542</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583676</v>
+        <v>0.563879</v>
       </c>
       <c r="D108" t="n">
-        <v>0.639043</v>
+        <v>0.634185</v>
       </c>
       <c r="E108" t="n">
-        <v>0.299184</v>
+        <v>0.25363</v>
       </c>
       <c r="F108" t="n">
-        <v>0.590511</v>
+        <v>0.553071</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218503</v>
+        <v>0.217187</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572013</v>
+        <v>0.5615790000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654689</v>
+        <v>0.635655</v>
       </c>
       <c r="E109" t="n">
-        <v>0.298308</v>
+        <v>0.246936</v>
       </c>
       <c r="F109" t="n">
-        <v>0.596671</v>
+        <v>0.547719</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312123</v>
+        <v>0.309403</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649864</v>
+        <v>0.62927</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642978</v>
+        <v>0.6351560000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.297869</v>
+        <v>0.241654</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59002</v>
+        <v>0.543564</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309987</v>
+        <v>0.304184</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6421790000000001</v>
+        <v>0.625118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64923</v>
+        <v>0.637999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293777</v>
+        <v>0.236043</v>
       </c>
       <c r="F111" t="n">
-        <v>0.587091</v>
+        <v>0.540082</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30082</v>
+        <v>0.29691</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653259</v>
+        <v>0.654529</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638319</v>
+        <v>0.641275</v>
       </c>
       <c r="E112" t="n">
-        <v>0.291281</v>
+        <v>0.230972</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588464</v>
+        <v>0.536357</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295209</v>
+        <v>0.292482</v>
       </c>
       <c r="C113" t="n">
-        <v>0.639964</v>
+        <v>0.631328</v>
       </c>
       <c r="D113" t="n">
-        <v>0.655424</v>
+        <v>0.633815</v>
       </c>
       <c r="E113" t="n">
-        <v>0.286702</v>
+        <v>0.227476</v>
       </c>
       <c r="F113" t="n">
-        <v>0.594722</v>
+        <v>0.532837</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286116</v>
+        <v>0.284497</v>
       </c>
       <c r="C114" t="n">
-        <v>0.650413</v>
+        <v>0.609826</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6372060000000001</v>
+        <v>0.635258</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284187</v>
+        <v>0.220627</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580726</v>
+        <v>0.533487</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27774</v>
+        <v>0.278501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.651716</v>
+        <v>0.606583</v>
       </c>
       <c r="D115" t="n">
-        <v>0.64276</v>
+        <v>0.646069</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282448</v>
+        <v>0.21653</v>
       </c>
       <c r="F115" t="n">
-        <v>0.579312</v>
+        <v>0.5279509999999999</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271004</v>
+        <v>0.270165</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607351</v>
+        <v>0.619414</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638342</v>
+        <v>0.637952</v>
       </c>
       <c r="E116" t="n">
-        <v>0.280561</v>
+        <v>0.212154</v>
       </c>
       <c r="F116" t="n">
-        <v>0.581498</v>
+        <v>0.521835</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263795</v>
+        <v>0.264396</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603174</v>
+        <v>0.608406</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645247</v>
+        <v>0.639481</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276881</v>
+        <v>0.208166</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5779</v>
+        <v>0.520469</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25716</v>
+        <v>0.258943</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619275</v>
+        <v>0.627057</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644781</v>
+        <v>0.643516</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280588</v>
+        <v>0.203874</v>
       </c>
       <c r="F118" t="n">
-        <v>0.574067</v>
+        <v>0.51317</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254869</v>
+        <v>0.250785</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607654</v>
+        <v>0.581192</v>
       </c>
       <c r="D119" t="n">
-        <v>0.646971</v>
+        <v>0.643642</v>
       </c>
       <c r="E119" t="n">
-        <v>0.276441</v>
+        <v>0.200284</v>
       </c>
       <c r="F119" t="n">
-        <v>0.57542</v>
+        <v>0.510413</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243039</v>
+        <v>0.242757</v>
       </c>
       <c r="C120" t="n">
-        <v>0.589903</v>
+        <v>0.618357</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651135</v>
+        <v>0.644468</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275331</v>
+        <v>0.198496</v>
       </c>
       <c r="F120" t="n">
-        <v>0.579938</v>
+        <v>0.506765</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237327</v>
+        <v>0.23691</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595574</v>
+        <v>0.583697</v>
       </c>
       <c r="D121" t="n">
-        <v>0.651915</v>
+        <v>0.650052</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272683</v>
+        <v>0.192559</v>
       </c>
       <c r="F121" t="n">
-        <v>0.572082</v>
+        <v>0.512691</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230434</v>
+        <v>0.228207</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589827</v>
+        <v>0.573454</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654528</v>
+        <v>0.648602</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269805</v>
+        <v>0.188184</v>
       </c>
       <c r="F122" t="n">
-        <v>0.573076</v>
+        <v>0.5019980000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218457</v>
+        <v>0.219294</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587803</v>
+        <v>0.562725</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.648451</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295928</v>
+        <v>0.247267</v>
       </c>
       <c r="F123" t="n">
-        <v>0.596723</v>
+        <v>0.553162</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311869</v>
+        <v>0.311543</v>
       </c>
       <c r="C124" t="n">
-        <v>0.650271</v>
+        <v>0.635991</v>
       </c>
       <c r="D124" t="n">
-        <v>0.65085</v>
+        <v>0.641172</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292989</v>
+        <v>0.243791</v>
       </c>
       <c r="F124" t="n">
-        <v>0.586048</v>
+        <v>0.554486</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30801</v>
+        <v>0.303352</v>
       </c>
       <c r="C125" t="n">
-        <v>0.667609</v>
+        <v>0.647526</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6488699999999999</v>
+        <v>0.643273</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291511</v>
+        <v>0.238859</v>
       </c>
       <c r="F125" t="n">
-        <v>0.585518</v>
+        <v>0.541157</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301286</v>
+        <v>0.298756</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668079</v>
+        <v>0.6509239999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648026</v>
+        <v>0.64166</v>
       </c>
       <c r="E126" t="n">
-        <v>0.288786</v>
+        <v>0.232291</v>
       </c>
       <c r="F126" t="n">
-        <v>0.595027</v>
+        <v>0.54518</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292728</v>
+        <v>0.29246</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657983</v>
+        <v>0.642082</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663915</v>
+        <v>0.642764</v>
       </c>
       <c r="E127" t="n">
-        <v>0.285445</v>
+        <v>0.22658</v>
       </c>
       <c r="F127" t="n">
-        <v>0.583172</v>
+        <v>0.533203</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.286681</v>
+        <v>0.291684</v>
       </c>
       <c r="C128" t="n">
-        <v>0.665812</v>
+        <v>0.645948</v>
       </c>
       <c r="D128" t="n">
-        <v>0.662971</v>
+        <v>0.640284</v>
       </c>
       <c r="E128" t="n">
-        <v>0.283172</v>
+        <v>0.223352</v>
       </c>
       <c r="F128" t="n">
-        <v>0.583195</v>
+        <v>0.532797</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278742</v>
+        <v>0.278863</v>
       </c>
       <c r="C129" t="n">
-        <v>0.633148</v>
+        <v>0.630166</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6465919999999999</v>
+        <v>0.65288</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281586</v>
+        <v>0.217662</v>
       </c>
       <c r="F129" t="n">
-        <v>0.578855</v>
+        <v>0.526122</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273493</v>
+        <v>0.27946</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63826</v>
+        <v>0.629707</v>
       </c>
       <c r="D130" t="n">
-        <v>0.648012</v>
+        <v>0.646333</v>
       </c>
       <c r="E130" t="n">
-        <v>0.282048</v>
+        <v>0.213671</v>
       </c>
       <c r="F130" t="n">
-        <v>0.578981</v>
+        <v>0.528429</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266834</v>
+        <v>0.266247</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605373</v>
+        <v>0.634223</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6493989999999999</v>
+        <v>0.643856</v>
       </c>
       <c r="E131" t="n">
-        <v>0.278165</v>
+        <v>0.208893</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57744</v>
+        <v>0.51967</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258825</v>
+        <v>0.258468</v>
       </c>
       <c r="C132" t="n">
-        <v>0.645172</v>
+        <v>0.620299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.654556</v>
+        <v>0.64418</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277988</v>
+        <v>0.207786</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5769919999999999</v>
+        <v>0.5168430000000001</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253987</v>
+        <v>0.252381</v>
       </c>
       <c r="C133" t="n">
-        <v>0.599088</v>
+        <v>0.6018019999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652918</v>
+        <v>0.654586</v>
       </c>
       <c r="E133" t="n">
-        <v>0.275568</v>
+        <v>0.202415</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575194</v>
+        <v>0.51494</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244298</v>
+        <v>0.245007</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60891</v>
+        <v>0.592996</v>
       </c>
       <c r="D134" t="n">
-        <v>0.652613</v>
+        <v>0.649491</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274651</v>
+        <v>0.198148</v>
       </c>
       <c r="F134" t="n">
-        <v>0.577515</v>
+        <v>0.508485</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237514</v>
+        <v>0.239379</v>
       </c>
       <c r="C135" t="n">
-        <v>0.602723</v>
+        <v>0.604199</v>
       </c>
       <c r="D135" t="n">
-        <v>0.656041</v>
+        <v>0.646478</v>
       </c>
       <c r="E135" t="n">
-        <v>0.273211</v>
+        <v>0.192632</v>
       </c>
       <c r="F135" t="n">
-        <v>0.576247</v>
+        <v>0.507065</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229254</v>
+        <v>0.2301</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599568</v>
+        <v>0.599189</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656501</v>
+        <v>0.647052</v>
       </c>
       <c r="E136" t="n">
-        <v>0.273552</v>
+        <v>0.189955</v>
       </c>
       <c r="F136" t="n">
-        <v>0.574039</v>
+        <v>0.509144</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.219711</v>
+        <v>0.220657</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580296</v>
+        <v>0.591355</v>
       </c>
       <c r="D137" t="n">
-        <v>0.647165</v>
+        <v>0.644918</v>
       </c>
       <c r="E137" t="n">
-        <v>0.315944</v>
+        <v>0.248819</v>
       </c>
       <c r="F137" t="n">
-        <v>0.590372</v>
+        <v>0.568647</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313476</v>
+        <v>0.311217</v>
       </c>
       <c r="C138" t="n">
-        <v>0.640769</v>
+        <v>0.630558</v>
       </c>
       <c r="D138" t="n">
-        <v>0.665533</v>
+        <v>0.64259</v>
       </c>
       <c r="E138" t="n">
-        <v>0.292821</v>
+        <v>0.244599</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.551076</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312577</v>
+        <v>0.305499</v>
       </c>
       <c r="C139" t="n">
-        <v>0.665536</v>
+        <v>0.657485</v>
       </c>
       <c r="D139" t="n">
-        <v>0.651328</v>
+        <v>0.646679</v>
       </c>
       <c r="E139" t="n">
-        <v>0.290532</v>
+        <v>0.240324</v>
       </c>
       <c r="F139" t="n">
-        <v>0.586801</v>
+        <v>0.5417920000000001</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302959</v>
+        <v>0.300289</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62903</v>
+        <v>0.62453</v>
       </c>
       <c r="D140" t="n">
-        <v>0.655913</v>
+        <v>0.650506</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288411</v>
+        <v>0.232897</v>
       </c>
       <c r="F140" t="n">
-        <v>0.58397</v>
+        <v>0.539364</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294927</v>
+        <v>0.293479</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623438</v>
+        <v>0.6205889999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649264</v>
+        <v>0.642227</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286511</v>
+        <v>0.227389</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594562</v>
+        <v>0.535419</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289242</v>
+        <v>0.286681</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619502</v>
+        <v>0.610287</v>
       </c>
       <c r="D142" t="n">
-        <v>0.658465</v>
+        <v>0.644616</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28691</v>
+        <v>0.222792</v>
       </c>
       <c r="F142" t="n">
-        <v>0.580527</v>
+        <v>0.531543</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.282289</v>
+        <v>0.280557</v>
       </c>
       <c r="C143" t="n">
-        <v>0.624497</v>
+        <v>0.606137</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6443140000000001</v>
+        <v>0.649522</v>
       </c>
       <c r="E143" t="n">
-        <v>0.283794</v>
+        <v>0.218571</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.527559</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260497</v>
+        <v>0.26521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.53821</v>
+        <v>0.528201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.555288</v>
+        <v>0.54662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.190616</v>
+        <v>0.191318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.463534</v>
+        <v>0.481768</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252886</v>
+        <v>0.251578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.537995</v>
+        <v>0.525661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.54239</v>
+        <v>0.538304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.186034</v>
+        <v>0.185901</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455738</v>
+        <v>0.455597</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243029</v>
+        <v>0.243015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515499</v>
+        <v>0.517919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53731</v>
+        <v>0.532712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181111</v>
+        <v>0.179537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.450956</v>
+        <v>0.444926</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232029</v>
+        <v>0.229331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.505738</v>
+        <v>0.513579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5421240000000001</v>
+        <v>0.536598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.181549</v>
+        <v>0.177585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.445614</v>
+        <v>0.441786</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223997</v>
+        <v>0.225719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.495925</v>
+        <v>0.491881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.517405</v>
+        <v>0.522921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.173564</v>
+        <v>0.172673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435962</v>
+        <v>0.432634</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219198</v>
+        <v>0.215814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.486502</v>
+        <v>0.486387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532519</v>
+        <v>0.537469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.17075</v>
+        <v>0.17076</v>
       </c>
       <c r="F7" t="n">
-        <v>0.437421</v>
+        <v>0.432821</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208915</v>
+        <v>0.209017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.482428</v>
+        <v>0.477994</v>
       </c>
       <c r="D8" t="n">
-        <v>0.526083</v>
+        <v>0.546602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.168925</v>
+        <v>0.16812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.42983</v>
+        <v>0.430778</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.205487</v>
+        <v>0.199834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.481333</v>
+        <v>0.474189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.528452</v>
+        <v>0.536477</v>
       </c>
       <c r="E9" t="n">
-        <v>0.220895</v>
+        <v>0.218697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.472455</v>
+        <v>0.472266</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.288533</v>
+        <v>0.286305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.534893</v>
+        <v>0.534112</v>
       </c>
       <c r="D10" t="n">
-        <v>0.529732</v>
+        <v>0.531036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21472</v>
+        <v>0.213944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.477032</v>
+        <v>0.475933</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.283946</v>
+        <v>0.282664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.531426</v>
+        <v>0.533111</v>
       </c>
       <c r="D11" t="n">
-        <v>0.527318</v>
+        <v>0.5306149999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.209555</v>
+        <v>0.208234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.469726</v>
+        <v>0.462817</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278069</v>
+        <v>0.279505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.530182</v>
+        <v>0.52803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.529668</v>
+        <v>0.528259</v>
       </c>
       <c r="E12" t="n">
-        <v>0.204318</v>
+        <v>0.204083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.460649</v>
+        <v>0.458721</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.271823</v>
+        <v>0.269774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.522194</v>
+        <v>0.523325</v>
       </c>
       <c r="D13" t="n">
-        <v>0.521004</v>
+        <v>0.527215</v>
       </c>
       <c r="E13" t="n">
-        <v>0.201114</v>
+        <v>0.201892</v>
       </c>
       <c r="F13" t="n">
-        <v>0.457589</v>
+        <v>0.456056</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.268804</v>
+        <v>0.265356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.519645</v>
+        <v>0.517231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.52551</v>
+        <v>0.537691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.199655</v>
+        <v>0.195915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.453211</v>
+        <v>0.45318</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.260586</v>
+        <v>0.260559</v>
       </c>
       <c r="C15" t="n">
-        <v>0.515024</v>
+        <v>0.513667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.520641</v>
+        <v>0.526399</v>
       </c>
       <c r="E15" t="n">
-        <v>0.194521</v>
+        <v>0.195759</v>
       </c>
       <c r="F15" t="n">
-        <v>0.457384</v>
+        <v>0.455469</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255246</v>
+        <v>0.254087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.513126</v>
+        <v>0.510732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.528545</v>
+        <v>0.529914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.192483</v>
+        <v>0.192157</v>
       </c>
       <c r="F16" t="n">
-        <v>0.454173</v>
+        <v>0.45005</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24933</v>
+        <v>0.248047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5083800000000001</v>
+        <v>0.511036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.523305</v>
+        <v>0.531964</v>
       </c>
       <c r="E17" t="n">
-        <v>0.190686</v>
+        <v>0.188744</v>
       </c>
       <c r="F17" t="n">
-        <v>0.452201</v>
+        <v>0.445855</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2435</v>
+        <v>0.242229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.506937</v>
+        <v>0.498785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.518449</v>
+        <v>0.527492</v>
       </c>
       <c r="E18" t="n">
-        <v>0.185919</v>
+        <v>0.184835</v>
       </c>
       <c r="F18" t="n">
-        <v>0.44566</v>
+        <v>0.446505</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236867</v>
+        <v>0.238758</v>
       </c>
       <c r="C19" t="n">
-        <v>0.495979</v>
+        <v>0.496043</v>
       </c>
       <c r="D19" t="n">
-        <v>0.527549</v>
+        <v>0.529558</v>
       </c>
       <c r="E19" t="n">
-        <v>0.181994</v>
+        <v>0.181733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.443749</v>
+        <v>0.438362</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.230738</v>
+        <v>0.229415</v>
       </c>
       <c r="C20" t="n">
-        <v>0.493087</v>
+        <v>0.491812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5266</v>
+        <v>0.526873</v>
       </c>
       <c r="E20" t="n">
-        <v>0.182193</v>
+        <v>0.179755</v>
       </c>
       <c r="F20" t="n">
-        <v>0.441294</v>
+        <v>0.435543</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.223467</v>
+        <v>0.224394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.488557</v>
+        <v>0.488412</v>
       </c>
       <c r="D21" t="n">
-        <v>0.532325</v>
+        <v>0.543392</v>
       </c>
       <c r="E21" t="n">
-        <v>0.175983</v>
+        <v>0.176419</v>
       </c>
       <c r="F21" t="n">
-        <v>0.43518</v>
+        <v>0.43239</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.21686</v>
+        <v>0.216955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.486921</v>
+        <v>0.482665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.541026</v>
+        <v>0.544346</v>
       </c>
       <c r="E22" t="n">
-        <v>0.173896</v>
+        <v>0.172974</v>
       </c>
       <c r="F22" t="n">
-        <v>0.430217</v>
+        <v>0.435151</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209251</v>
+        <v>0.208936</v>
       </c>
       <c r="C23" t="n">
-        <v>0.474366</v>
+        <v>0.47249</v>
       </c>
       <c r="D23" t="n">
-        <v>0.530545</v>
+        <v>0.536647</v>
       </c>
       <c r="E23" t="n">
-        <v>0.224921</v>
+        <v>0.223095</v>
       </c>
       <c r="F23" t="n">
-        <v>0.483513</v>
+        <v>0.477763</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.28796</v>
+        <v>0.288106</v>
       </c>
       <c r="C24" t="n">
-        <v>0.538349</v>
+        <v>0.537318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.533116</v>
+        <v>0.54194</v>
       </c>
       <c r="E24" t="n">
-        <v>0.217986</v>
+        <v>0.219374</v>
       </c>
       <c r="F24" t="n">
-        <v>0.473511</v>
+        <v>0.472052</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282709</v>
+        <v>0.28246</v>
       </c>
       <c r="C25" t="n">
-        <v>0.535158</v>
+        <v>0.533449</v>
       </c>
       <c r="D25" t="n">
-        <v>0.537033</v>
+        <v>0.548116</v>
       </c>
       <c r="E25" t="n">
-        <v>0.215165</v>
+        <v>0.21483</v>
       </c>
       <c r="F25" t="n">
-        <v>0.481351</v>
+        <v>0.466466</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.27984</v>
+        <v>0.276692</v>
       </c>
       <c r="C26" t="n">
-        <v>0.532292</v>
+        <v>0.527921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.52988</v>
+        <v>0.535561</v>
       </c>
       <c r="E26" t="n">
-        <v>0.214292</v>
+        <v>0.211701</v>
       </c>
       <c r="F26" t="n">
-        <v>0.465535</v>
+        <v>0.462844</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274591</v>
+        <v>0.272069</v>
       </c>
       <c r="C27" t="n">
-        <v>0.531346</v>
+        <v>0.534726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.539232</v>
+        <v>0.539568</v>
       </c>
       <c r="E27" t="n">
-        <v>0.206859</v>
+        <v>0.207236</v>
       </c>
       <c r="F27" t="n">
-        <v>0.462082</v>
+        <v>0.462701</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.268495</v>
+        <v>0.267527</v>
       </c>
       <c r="C28" t="n">
-        <v>0.523204</v>
+        <v>0.525089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.540829</v>
+        <v>0.538201</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213598</v>
+        <v>0.205961</v>
       </c>
       <c r="F28" t="n">
-        <v>0.464209</v>
+        <v>0.457755</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263653</v>
+        <v>0.262151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.521732</v>
+        <v>0.517791</v>
       </c>
       <c r="D29" t="n">
-        <v>0.527952</v>
+        <v>0.534659</v>
       </c>
       <c r="E29" t="n">
-        <v>0.199162</v>
+        <v>0.198202</v>
       </c>
       <c r="F29" t="n">
-        <v>0.456344</v>
+        <v>0.454121</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.257677</v>
+        <v>0.255341</v>
       </c>
       <c r="C30" t="n">
-        <v>0.519004</v>
+        <v>0.511799</v>
       </c>
       <c r="D30" t="n">
-        <v>0.527343</v>
+        <v>0.535797</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1961</v>
+        <v>0.195043</v>
       </c>
       <c r="F30" t="n">
-        <v>0.454032</v>
+        <v>0.450466</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.251018</v>
+        <v>0.250782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.509493</v>
+        <v>0.50791</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535401</v>
+        <v>0.540447</v>
       </c>
       <c r="E31" t="n">
-        <v>0.193346</v>
+        <v>0.193277</v>
       </c>
       <c r="F31" t="n">
-        <v>0.450178</v>
+        <v>0.451462</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247763</v>
+        <v>0.248327</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5131599999999999</v>
+        <v>0.506033</v>
       </c>
       <c r="D32" t="n">
-        <v>0.531431</v>
+        <v>0.535407</v>
       </c>
       <c r="E32" t="n">
-        <v>0.189209</v>
+        <v>0.189861</v>
       </c>
       <c r="F32" t="n">
-        <v>0.444719</v>
+        <v>0.447111</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.240156</v>
+        <v>0.239189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.499884</v>
+        <v>0.497751</v>
       </c>
       <c r="D33" t="n">
-        <v>0.527949</v>
+        <v>0.534702</v>
       </c>
       <c r="E33" t="n">
-        <v>0.190444</v>
+        <v>0.193334</v>
       </c>
       <c r="F33" t="n">
-        <v>0.445561</v>
+        <v>0.442836</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.233286</v>
+        <v>0.232191</v>
       </c>
       <c r="C34" t="n">
-        <v>0.495329</v>
+        <v>0.493525</v>
       </c>
       <c r="D34" t="n">
-        <v>0.527541</v>
+        <v>0.548566</v>
       </c>
       <c r="E34" t="n">
-        <v>0.182602</v>
+        <v>0.18307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.443889</v>
+        <v>0.440647</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.229587</v>
+        <v>0.225747</v>
       </c>
       <c r="C35" t="n">
-        <v>0.496004</v>
+        <v>0.488574</v>
       </c>
       <c r="D35" t="n">
-        <v>0.549023</v>
+        <v>0.565265</v>
       </c>
       <c r="E35" t="n">
-        <v>0.182406</v>
+        <v>0.180065</v>
       </c>
       <c r="F35" t="n">
-        <v>0.438103</v>
+        <v>0.437552</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.220073</v>
+        <v>0.219085</v>
       </c>
       <c r="C36" t="n">
-        <v>0.484733</v>
+        <v>0.482351</v>
       </c>
       <c r="D36" t="n">
-        <v>0.548951</v>
+        <v>0.554661</v>
       </c>
       <c r="E36" t="n">
-        <v>0.177122</v>
+        <v>0.177242</v>
       </c>
       <c r="F36" t="n">
-        <v>0.443664</v>
+        <v>0.436515</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212412</v>
+        <v>0.211602</v>
       </c>
       <c r="C37" t="n">
-        <v>0.478881</v>
+        <v>0.473569</v>
       </c>
       <c r="D37" t="n">
-        <v>0.549246</v>
+        <v>0.557539</v>
       </c>
       <c r="E37" t="n">
-        <v>0.233099</v>
+        <v>0.232359</v>
       </c>
       <c r="F37" t="n">
-        <v>0.481338</v>
+        <v>0.482089</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.290812</v>
+        <v>0.293145</v>
       </c>
       <c r="C38" t="n">
-        <v>0.545843</v>
+        <v>0.547001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.549617</v>
+        <v>0.571372</v>
       </c>
       <c r="E38" t="n">
-        <v>0.226648</v>
+        <v>0.230799</v>
       </c>
       <c r="F38" t="n">
-        <v>0.480021</v>
+        <v>0.475424</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.287722</v>
+        <v>0.28552</v>
       </c>
       <c r="C39" t="n">
-        <v>0.541913</v>
+        <v>0.541428</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5477959999999999</v>
+        <v>0.555115</v>
       </c>
       <c r="E39" t="n">
-        <v>0.220623</v>
+        <v>0.221749</v>
       </c>
       <c r="F39" t="n">
-        <v>0.478383</v>
+        <v>0.471186</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.284929</v>
+        <v>0.283444</v>
       </c>
       <c r="C40" t="n">
-        <v>0.543061</v>
+        <v>0.53795</v>
       </c>
       <c r="D40" t="n">
-        <v>0.546268</v>
+        <v>0.554244</v>
       </c>
       <c r="E40" t="n">
-        <v>0.215288</v>
+        <v>0.215512</v>
       </c>
       <c r="F40" t="n">
-        <v>0.470841</v>
+        <v>0.469931</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279743</v>
+        <v>0.276892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.533278</v>
+        <v>0.533476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.550688</v>
+        <v>0.561277</v>
       </c>
       <c r="E41" t="n">
-        <v>0.21195</v>
+        <v>0.215452</v>
       </c>
       <c r="F41" t="n">
-        <v>0.466605</v>
+        <v>0.468788</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.272096</v>
+        <v>0.271103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.530182</v>
+        <v>0.5256960000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.546123</v>
+        <v>0.549088</v>
       </c>
       <c r="E42" t="n">
-        <v>0.209889</v>
+        <v>0.207719</v>
       </c>
       <c r="F42" t="n">
-        <v>0.466694</v>
+        <v>0.460629</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.267445</v>
+        <v>0.267329</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5379350000000001</v>
+        <v>0.527473</v>
       </c>
       <c r="D43" t="n">
-        <v>0.554096</v>
+        <v>0.551463</v>
       </c>
       <c r="E43" t="n">
-        <v>0.20418</v>
+        <v>0.206048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.460432</v>
+        <v>0.459727</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26139</v>
+        <v>0.26159</v>
       </c>
       <c r="C44" t="n">
-        <v>0.517191</v>
+        <v>0.519092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.549271</v>
+        <v>0.551158</v>
       </c>
       <c r="E44" t="n">
-        <v>0.203079</v>
+        <v>0.200617</v>
       </c>
       <c r="F44" t="n">
-        <v>0.455449</v>
+        <v>0.457139</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.254474</v>
+        <v>0.255101</v>
       </c>
       <c r="C45" t="n">
-        <v>0.518212</v>
+        <v>0.520243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.561923</v>
+        <v>0.558443</v>
       </c>
       <c r="E45" t="n">
-        <v>0.196405</v>
+        <v>0.197787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.458108</v>
+        <v>0.452225</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251282</v>
+        <v>0.251868</v>
       </c>
       <c r="C46" t="n">
-        <v>0.514238</v>
+        <v>0.515673</v>
       </c>
       <c r="D46" t="n">
-        <v>0.554023</v>
+        <v>0.560837</v>
       </c>
       <c r="E46" t="n">
-        <v>0.195679</v>
+        <v>0.193902</v>
       </c>
       <c r="F46" t="n">
-        <v>0.451154</v>
+        <v>0.450217</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.242289</v>
+        <v>0.243516</v>
       </c>
       <c r="C47" t="n">
-        <v>0.50913</v>
+        <v>0.518194</v>
       </c>
       <c r="D47" t="n">
-        <v>0.573149</v>
+        <v>0.564673</v>
       </c>
       <c r="E47" t="n">
-        <v>0.190615</v>
+        <v>0.190444</v>
       </c>
       <c r="F47" t="n">
-        <v>0.451928</v>
+        <v>0.451481</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23788</v>
+        <v>0.236912</v>
       </c>
       <c r="C48" t="n">
-        <v>0.504952</v>
+        <v>0.501866</v>
       </c>
       <c r="D48" t="n">
-        <v>0.568732</v>
+        <v>0.561443</v>
       </c>
       <c r="E48" t="n">
-        <v>0.186212</v>
+        <v>0.18613</v>
       </c>
       <c r="F48" t="n">
-        <v>0.450158</v>
+        <v>0.451095</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.230867</v>
+        <v>0.230916</v>
       </c>
       <c r="C49" t="n">
-        <v>0.50587</v>
+        <v>0.497937</v>
       </c>
       <c r="D49" t="n">
-        <v>0.58062</v>
+        <v>0.572098</v>
       </c>
       <c r="E49" t="n">
-        <v>0.182629</v>
+        <v>0.18657</v>
       </c>
       <c r="F49" t="n">
-        <v>0.449855</v>
+        <v>0.442872</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.222585</v>
+        <v>0.223544</v>
       </c>
       <c r="C50" t="n">
-        <v>0.502192</v>
+        <v>0.498505</v>
       </c>
       <c r="D50" t="n">
-        <v>0.62276</v>
+        <v>0.639458</v>
       </c>
       <c r="E50" t="n">
-        <v>0.179701</v>
+        <v>0.18262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.444987</v>
+        <v>0.447113</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.215185</v>
+        <v>0.21727</v>
       </c>
       <c r="C51" t="n">
-        <v>0.493186</v>
+        <v>0.490916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.621633</v>
+        <v>0.630225</v>
       </c>
       <c r="E51" t="n">
-        <v>0.236215</v>
+        <v>0.239467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.503812</v>
+        <v>0.492157</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207587</v>
+        <v>0.212961</v>
       </c>
       <c r="C52" t="n">
-        <v>0.493019</v>
+        <v>0.483064</v>
       </c>
       <c r="D52" t="n">
-        <v>0.625999</v>
+        <v>0.631928</v>
       </c>
       <c r="E52" t="n">
-        <v>0.235989</v>
+        <v>0.233965</v>
       </c>
       <c r="F52" t="n">
-        <v>0.485623</v>
+        <v>0.486717</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.295599</v>
+        <v>0.293956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.556315</v>
+        <v>0.557106</v>
       </c>
       <c r="D53" t="n">
-        <v>0.630521</v>
+        <v>0.635857</v>
       </c>
       <c r="E53" t="n">
-        <v>0.227377</v>
+        <v>0.228321</v>
       </c>
       <c r="F53" t="n">
-        <v>0.480743</v>
+        <v>0.478852</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.291115</v>
+        <v>0.288393</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5612470000000001</v>
+        <v>0.551534</v>
       </c>
       <c r="D54" t="n">
-        <v>0.635081</v>
+        <v>0.642464</v>
       </c>
       <c r="E54" t="n">
-        <v>0.222927</v>
+        <v>0.228031</v>
       </c>
       <c r="F54" t="n">
-        <v>0.494544</v>
+        <v>0.477473</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.285116</v>
+        <v>0.283408</v>
       </c>
       <c r="C55" t="n">
-        <v>0.572661</v>
+        <v>0.550427</v>
       </c>
       <c r="D55" t="n">
-        <v>0.628533</v>
+        <v>0.63814</v>
       </c>
       <c r="E55" t="n">
-        <v>0.218034</v>
+        <v>0.219659</v>
       </c>
       <c r="F55" t="n">
-        <v>0.49069</v>
+        <v>0.47811</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.279777</v>
+        <v>0.281777</v>
       </c>
       <c r="C56" t="n">
-        <v>0.571175</v>
+        <v>0.556387</v>
       </c>
       <c r="D56" t="n">
-        <v>0.633755</v>
+        <v>0.640458</v>
       </c>
       <c r="E56" t="n">
-        <v>0.213961</v>
+        <v>0.216142</v>
       </c>
       <c r="F56" t="n">
-        <v>0.484256</v>
+        <v>0.472496</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275049</v>
+        <v>0.272725</v>
       </c>
       <c r="C57" t="n">
-        <v>0.55999</v>
+        <v>0.545713</v>
       </c>
       <c r="D57" t="n">
-        <v>0.633205</v>
+        <v>0.64593</v>
       </c>
       <c r="E57" t="n">
-        <v>0.209606</v>
+        <v>0.212232</v>
       </c>
       <c r="F57" t="n">
-        <v>0.484082</v>
+        <v>0.473822</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267206</v>
+        <v>0.267547</v>
       </c>
       <c r="C58" t="n">
-        <v>0.557239</v>
+        <v>0.543387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.645302</v>
+        <v>0.646989</v>
       </c>
       <c r="E58" t="n">
-        <v>0.207704</v>
+        <v>0.210259</v>
       </c>
       <c r="F58" t="n">
-        <v>0.484901</v>
+        <v>0.482226</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.26177</v>
+        <v>0.26173</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548637</v>
+        <v>0.5434290000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.641558</v>
+        <v>0.647099</v>
       </c>
       <c r="E59" t="n">
-        <v>0.203159</v>
+        <v>0.202505</v>
       </c>
       <c r="F59" t="n">
-        <v>0.481612</v>
+        <v>0.483723</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257979</v>
+        <v>0.255314</v>
       </c>
       <c r="C60" t="n">
-        <v>0.560586</v>
+        <v>0.53586</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6415999999999999</v>
+        <v>0.647594</v>
       </c>
       <c r="E60" t="n">
-        <v>0.198153</v>
+        <v>0.199645</v>
       </c>
       <c r="F60" t="n">
-        <v>0.479325</v>
+        <v>0.465337</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.252003</v>
+        <v>0.251531</v>
       </c>
       <c r="C61" t="n">
-        <v>0.565455</v>
+        <v>0.541806</v>
       </c>
       <c r="D61" t="n">
-        <v>0.642873</v>
+        <v>0.655487</v>
       </c>
       <c r="E61" t="n">
-        <v>0.195421</v>
+        <v>0.1958</v>
       </c>
       <c r="F61" t="n">
-        <v>0.48112</v>
+        <v>0.461483</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.242913</v>
+        <v>0.243745</v>
       </c>
       <c r="C62" t="n">
-        <v>0.562272</v>
+        <v>0.5343059999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.64593</v>
+        <v>0.6451789999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.191831</v>
+        <v>0.193153</v>
       </c>
       <c r="F62" t="n">
-        <v>0.473354</v>
+        <v>0.45929</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.237115</v>
+        <v>0.235866</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5558999999999999</v>
+        <v>0.543883</v>
       </c>
       <c r="D63" t="n">
-        <v>0.64857</v>
+        <v>0.649387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.192823</v>
+        <v>0.189751</v>
       </c>
       <c r="F63" t="n">
-        <v>0.474826</v>
+        <v>0.459344</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.229083</v>
+        <v>0.229282</v>
       </c>
       <c r="C64" t="n">
-        <v>0.554074</v>
+        <v>0.529061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.701654</v>
+        <v>0.707611</v>
       </c>
       <c r="E64" t="n">
-        <v>0.185353</v>
+        <v>0.187948</v>
       </c>
       <c r="F64" t="n">
-        <v>0.474158</v>
+        <v>0.460669</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.226114</v>
+        <v>0.222264</v>
       </c>
       <c r="C65" t="n">
-        <v>0.557862</v>
+        <v>0.525267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.702101</v>
+        <v>0.705994</v>
       </c>
       <c r="E65" t="n">
-        <v>0.18246</v>
+        <v>0.181742</v>
       </c>
       <c r="F65" t="n">
-        <v>0.46985</v>
+        <v>0.458321</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214368</v>
+        <v>0.212987</v>
       </c>
       <c r="C66" t="n">
-        <v>0.530314</v>
+        <v>0.520964</v>
       </c>
       <c r="D66" t="n">
-        <v>0.697344</v>
+        <v>0.700124</v>
       </c>
       <c r="E66" t="n">
-        <v>0.250574</v>
+        <v>0.239484</v>
       </c>
       <c r="F66" t="n">
-        <v>0.515664</v>
+        <v>0.514581</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.307984</v>
+        <v>0.301846</v>
       </c>
       <c r="C67" t="n">
-        <v>0.618205</v>
+        <v>0.604931</v>
       </c>
       <c r="D67" t="n">
-        <v>0.692065</v>
+        <v>0.705438</v>
       </c>
       <c r="E67" t="n">
-        <v>0.240031</v>
+        <v>0.237945</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5110479999999999</v>
+        <v>0.500648</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305255</v>
+        <v>0.296733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.612758</v>
+        <v>0.604138</v>
       </c>
       <c r="D68" t="n">
-        <v>0.688811</v>
+        <v>0.697567</v>
       </c>
       <c r="E68" t="n">
-        <v>0.23615</v>
+        <v>0.229208</v>
       </c>
       <c r="F68" t="n">
-        <v>0.507532</v>
+        <v>0.504482</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.297892</v>
+        <v>0.29204</v>
       </c>
       <c r="C69" t="n">
-        <v>0.595868</v>
+        <v>0.602855</v>
       </c>
       <c r="D69" t="n">
-        <v>0.69114</v>
+        <v>0.701637</v>
       </c>
       <c r="E69" t="n">
-        <v>0.229672</v>
+        <v>0.229043</v>
       </c>
       <c r="F69" t="n">
-        <v>0.505928</v>
+        <v>0.5007200000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.28603</v>
+        <v>0.28996</v>
       </c>
       <c r="C70" t="n">
-        <v>0.599349</v>
+        <v>0.597817</v>
       </c>
       <c r="D70" t="n">
-        <v>0.686271</v>
+        <v>0.691326</v>
       </c>
       <c r="E70" t="n">
-        <v>0.222845</v>
+        <v>0.220259</v>
       </c>
       <c r="F70" t="n">
-        <v>0.498271</v>
+        <v>0.491726</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.286173</v>
+        <v>0.280686</v>
       </c>
       <c r="C71" t="n">
-        <v>0.601971</v>
+        <v>0.593073</v>
       </c>
       <c r="D71" t="n">
-        <v>0.68444</v>
+        <v>0.6949109999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.220054</v>
+        <v>0.221038</v>
       </c>
       <c r="F71" t="n">
-        <v>0.498342</v>
+        <v>0.495917</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283433</v>
+        <v>0.272821</v>
       </c>
       <c r="C72" t="n">
-        <v>0.592711</v>
+        <v>0.589108</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6840619999999999</v>
+        <v>0.693326</v>
       </c>
       <c r="E72" t="n">
-        <v>0.21557</v>
+        <v>0.212763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.497322</v>
+        <v>0.490854</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.275016</v>
+        <v>0.267225</v>
       </c>
       <c r="C73" t="n">
-        <v>0.586062</v>
+        <v>0.58712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.679891</v>
+        <v>0.690849</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211539</v>
+        <v>0.208472</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4963</v>
+        <v>0.491876</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.266586</v>
+        <v>0.263239</v>
       </c>
       <c r="C74" t="n">
-        <v>0.58364</v>
+        <v>0.578967</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6808070000000001</v>
+        <v>0.684246</v>
       </c>
       <c r="E74" t="n">
-        <v>0.204897</v>
+        <v>0.203414</v>
       </c>
       <c r="F74" t="n">
-        <v>0.483666</v>
+        <v>0.483537</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.258436</v>
+        <v>0.258394</v>
       </c>
       <c r="C75" t="n">
-        <v>0.581714</v>
+        <v>0.577497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6863</v>
+        <v>0.690006</v>
       </c>
       <c r="E75" t="n">
-        <v>0.202024</v>
+        <v>0.199993</v>
       </c>
       <c r="F75" t="n">
-        <v>0.479935</v>
+        <v>0.479152</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.250936</v>
+        <v>0.248183</v>
       </c>
       <c r="C76" t="n">
-        <v>0.572441</v>
+        <v>0.5736019999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.685321</v>
+        <v>0.688671</v>
       </c>
       <c r="E76" t="n">
-        <v>0.200037</v>
+        <v>0.199486</v>
       </c>
       <c r="F76" t="n">
-        <v>0.482239</v>
+        <v>0.480596</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.245709</v>
+        <v>0.240469</v>
       </c>
       <c r="C77" t="n">
-        <v>0.570562</v>
+        <v>0.565432</v>
       </c>
       <c r="D77" t="n">
-        <v>0.684017</v>
+        <v>0.685544</v>
       </c>
       <c r="E77" t="n">
-        <v>0.195718</v>
+        <v>0.193954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.481527</v>
+        <v>0.475899</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.239193</v>
+        <v>0.234451</v>
       </c>
       <c r="C78" t="n">
-        <v>0.563276</v>
+        <v>0.565453</v>
       </c>
       <c r="D78" t="n">
-        <v>0.738932</v>
+        <v>0.746804</v>
       </c>
       <c r="E78" t="n">
-        <v>0.194114</v>
+        <v>0.189279</v>
       </c>
       <c r="F78" t="n">
-        <v>0.475489</v>
+        <v>0.471946</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.229874</v>
+        <v>0.230632</v>
       </c>
       <c r="C79" t="n">
-        <v>0.556227</v>
+        <v>0.557875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.733815</v>
+        <v>0.744744</v>
       </c>
       <c r="E79" t="n">
-        <v>0.191949</v>
+        <v>0.186934</v>
       </c>
       <c r="F79" t="n">
-        <v>0.468587</v>
+        <v>0.466361</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.221957</v>
+        <v>0.220557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.553231</v>
+        <v>0.546121</v>
       </c>
       <c r="D80" t="n">
-        <v>0.726688</v>
+        <v>0.736493</v>
       </c>
       <c r="E80" t="n">
-        <v>0.24932</v>
+        <v>0.246903</v>
       </c>
       <c r="F80" t="n">
-        <v>0.528393</v>
+        <v>0.5196460000000001</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313722</v>
+        <v>0.310012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.611286</v>
+        <v>0.611448</v>
       </c>
       <c r="D81" t="n">
-        <v>0.723601</v>
+        <v>0.738775</v>
       </c>
       <c r="E81" t="n">
-        <v>0.245596</v>
+        <v>0.245574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.520109</v>
+        <v>0.515334</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.305876</v>
+        <v>0.303737</v>
       </c>
       <c r="C82" t="n">
-        <v>0.610144</v>
+        <v>0.610002</v>
       </c>
       <c r="D82" t="n">
-        <v>0.719819</v>
+        <v>0.735717</v>
       </c>
       <c r="E82" t="n">
-        <v>0.239766</v>
+        <v>0.239602</v>
       </c>
       <c r="F82" t="n">
-        <v>0.50822</v>
+        <v>0.516827</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.300208</v>
+        <v>0.297812</v>
       </c>
       <c r="C83" t="n">
-        <v>0.600603</v>
+        <v>0.597893</v>
       </c>
       <c r="D83" t="n">
-        <v>0.720869</v>
+        <v>0.7213000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.233565</v>
+        <v>0.231594</v>
       </c>
       <c r="F83" t="n">
-        <v>0.507623</v>
+        <v>0.507441</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.294095</v>
+        <v>0.291724</v>
       </c>
       <c r="C84" t="n">
-        <v>0.639876</v>
+        <v>0.639497</v>
       </c>
       <c r="D84" t="n">
-        <v>0.742865</v>
+        <v>0.743711</v>
       </c>
       <c r="E84" t="n">
-        <v>0.229398</v>
+        <v>0.226972</v>
       </c>
       <c r="F84" t="n">
-        <v>0.535228</v>
+        <v>0.532493</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287569</v>
+        <v>0.285764</v>
       </c>
       <c r="C85" t="n">
-        <v>0.629626</v>
+        <v>0.636478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.738907</v>
+        <v>0.7455580000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.223756</v>
+        <v>0.222975</v>
       </c>
       <c r="F85" t="n">
-        <v>0.530712</v>
+        <v>0.527887</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.280952</v>
+        <v>0.281553</v>
       </c>
       <c r="C86" t="n">
-        <v>0.63134</v>
+        <v>0.631511</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7433920000000001</v>
+        <v>0.743259</v>
       </c>
       <c r="E86" t="n">
-        <v>0.223746</v>
+        <v>0.218055</v>
       </c>
       <c r="F86" t="n">
-        <v>0.532936</v>
+        <v>0.524149</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.274697</v>
+        <v>0.274212</v>
       </c>
       <c r="C87" t="n">
-        <v>0.619927</v>
+        <v>0.620826</v>
       </c>
       <c r="D87" t="n">
-        <v>0.733807</v>
+        <v>0.745536</v>
       </c>
       <c r="E87" t="n">
-        <v>0.215185</v>
+        <v>0.214195</v>
       </c>
       <c r="F87" t="n">
-        <v>0.520691</v>
+        <v>0.520718</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.268943</v>
+        <v>0.270006</v>
       </c>
       <c r="C88" t="n">
-        <v>0.613904</v>
+        <v>0.620645</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7349599999999999</v>
+        <v>0.737627</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210243</v>
+        <v>0.208939</v>
       </c>
       <c r="F88" t="n">
-        <v>0.517285</v>
+        <v>0.515748</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.260773</v>
+        <v>0.260222</v>
       </c>
       <c r="C89" t="n">
-        <v>0.617615</v>
+        <v>0.609442</v>
       </c>
       <c r="D89" t="n">
-        <v>0.741532</v>
+        <v>0.744507</v>
       </c>
       <c r="E89" t="n">
-        <v>0.205762</v>
+        <v>0.205656</v>
       </c>
       <c r="F89" t="n">
-        <v>0.514251</v>
+        <v>0.512303</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.254886</v>
+        <v>0.255234</v>
       </c>
       <c r="C90" t="n">
-        <v>0.611148</v>
+        <v>0.598413</v>
       </c>
       <c r="D90" t="n">
-        <v>0.734059</v>
+        <v>0.735022</v>
       </c>
       <c r="E90" t="n">
-        <v>0.201854</v>
+        <v>0.201845</v>
       </c>
       <c r="F90" t="n">
-        <v>0.514042</v>
+        <v>0.507773</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.24766</v>
+        <v>0.247299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.60631</v>
+        <v>0.5926129999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.728609</v>
+        <v>0.73664</v>
       </c>
       <c r="E91" t="n">
-        <v>0.198625</v>
+        <v>0.199378</v>
       </c>
       <c r="F91" t="n">
-        <v>0.51439</v>
+        <v>0.506869</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240494</v>
+        <v>0.239735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.601777</v>
+        <v>0.590491</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644232</v>
+        <v>0.646922</v>
       </c>
       <c r="E92" t="n">
-        <v>0.194214</v>
+        <v>0.195966</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5053029999999999</v>
+        <v>0.5042720000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234589</v>
+        <v>0.231832</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5970569999999999</v>
+        <v>0.599042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6506729999999999</v>
+        <v>0.650292</v>
       </c>
       <c r="E93" t="n">
-        <v>0.193647</v>
+        <v>0.189464</v>
       </c>
       <c r="F93" t="n">
-        <v>0.504695</v>
+        <v>0.498388</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223862</v>
+        <v>0.222537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.596012</v>
+        <v>0.596283</v>
       </c>
       <c r="D94" t="n">
-        <v>0.641091</v>
+        <v>0.64884</v>
       </c>
       <c r="E94" t="n">
-        <v>0.251012</v>
+        <v>0.250138</v>
       </c>
       <c r="F94" t="n">
-        <v>0.549781</v>
+        <v>0.549759</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.313091</v>
+        <v>0.315331</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6341639999999999</v>
+        <v>0.6626919999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.644122</v>
+        <v>0.6503139999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.245109</v>
+        <v>0.246307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5460159999999999</v>
+        <v>0.552296</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.308047</v>
+        <v>0.309261</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629605</v>
+        <v>0.6583599999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.640934</v>
+        <v>0.647886</v>
       </c>
       <c r="E96" t="n">
-        <v>0.239921</v>
+        <v>0.240525</v>
       </c>
       <c r="F96" t="n">
-        <v>0.543116</v>
+        <v>0.546028</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.301489</v>
+        <v>0.303834</v>
       </c>
       <c r="C97" t="n">
-        <v>0.626497</v>
+        <v>0.653019</v>
       </c>
       <c r="D97" t="n">
-        <v>0.639764</v>
+        <v>0.6500629999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.238972</v>
+        <v>0.234337</v>
       </c>
       <c r="F97" t="n">
-        <v>0.539499</v>
+        <v>0.541905</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299509</v>
+        <v>0.297702</v>
       </c>
       <c r="C98" t="n">
-        <v>0.624157</v>
+        <v>0.643787</v>
       </c>
       <c r="D98" t="n">
-        <v>0.639283</v>
+        <v>0.641527</v>
       </c>
       <c r="E98" t="n">
-        <v>0.229135</v>
+        <v>0.228358</v>
       </c>
       <c r="F98" t="n">
-        <v>0.534946</v>
+        <v>0.538455</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.290321</v>
+        <v>0.29055</v>
       </c>
       <c r="C99" t="n">
-        <v>0.614595</v>
+        <v>0.642612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.641274</v>
+        <v>0.646729</v>
       </c>
       <c r="E99" t="n">
-        <v>0.224113</v>
+        <v>0.224942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.532352</v>
+        <v>0.531401</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.283143</v>
+        <v>0.282933</v>
       </c>
       <c r="C100" t="n">
-        <v>0.612866</v>
+        <v>0.627049</v>
       </c>
       <c r="D100" t="n">
-        <v>0.638592</v>
+        <v>0.650804</v>
       </c>
       <c r="E100" t="n">
-        <v>0.219425</v>
+        <v>0.221813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.525782</v>
+        <v>0.530258</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.279793</v>
+        <v>0.274352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.605387</v>
+        <v>0.616683</v>
       </c>
       <c r="D101" t="n">
-        <v>0.641348</v>
+        <v>0.649266</v>
       </c>
       <c r="E101" t="n">
-        <v>0.21599</v>
+        <v>0.215728</v>
       </c>
       <c r="F101" t="n">
-        <v>0.522904</v>
+        <v>0.522034</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.270167</v>
+        <v>0.269618</v>
       </c>
       <c r="C102" t="n">
-        <v>0.595675</v>
+        <v>0.612355</v>
       </c>
       <c r="D102" t="n">
-        <v>0.638598</v>
+        <v>0.646444</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211128</v>
+        <v>0.211741</v>
       </c>
       <c r="F102" t="n">
-        <v>0.520466</v>
+        <v>0.517541</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.268181</v>
+        <v>0.261439</v>
       </c>
       <c r="C103" t="n">
-        <v>0.592063</v>
+        <v>0.604545</v>
       </c>
       <c r="D103" t="n">
-        <v>0.642194</v>
+        <v>0.651474</v>
       </c>
       <c r="E103" t="n">
-        <v>0.207143</v>
+        <v>0.208541</v>
       </c>
       <c r="F103" t="n">
-        <v>0.518296</v>
+        <v>0.518247</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.259542</v>
+        <v>0.255532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.585549</v>
+        <v>0.600386</v>
       </c>
       <c r="D104" t="n">
-        <v>0.643576</v>
+        <v>0.648088</v>
       </c>
       <c r="E104" t="n">
-        <v>0.203445</v>
+        <v>0.202975</v>
       </c>
       <c r="F104" t="n">
-        <v>0.517244</v>
+        <v>0.511714</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.249276</v>
+        <v>0.252363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587186</v>
+        <v>0.604003</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6475109999999999</v>
+        <v>0.656598</v>
       </c>
       <c r="E105" t="n">
-        <v>0.201681</v>
+        <v>0.199227</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5134880000000001</v>
+        <v>0.508596</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.241629</v>
+        <v>0.242032</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5743470000000001</v>
+        <v>0.594023</v>
       </c>
       <c r="D106" t="n">
-        <v>0.644096</v>
+        <v>0.657458</v>
       </c>
       <c r="E106" t="n">
-        <v>0.195489</v>
+        <v>0.193967</v>
       </c>
       <c r="F106" t="n">
-        <v>0.505466</v>
+        <v>0.501981</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236015</v>
+        <v>0.234093</v>
       </c>
       <c r="C107" t="n">
-        <v>0.566796</v>
+        <v>0.58144</v>
       </c>
       <c r="D107" t="n">
-        <v>0.637158</v>
+        <v>0.6454260000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.191336</v>
+        <v>0.191227</v>
       </c>
       <c r="F107" t="n">
-        <v>0.503363</v>
+        <v>0.501516</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226542</v>
+        <v>0.226047</v>
       </c>
       <c r="C108" t="n">
-        <v>0.563879</v>
+        <v>0.573244</v>
       </c>
       <c r="D108" t="n">
-        <v>0.634185</v>
+        <v>0.6400439999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.25363</v>
+        <v>0.253548</v>
       </c>
       <c r="F108" t="n">
-        <v>0.553071</v>
+        <v>0.558214</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.217187</v>
+        <v>0.216213</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615790000000001</v>
+        <v>0.563948</v>
       </c>
       <c r="D109" t="n">
-        <v>0.635655</v>
+        <v>0.640631</v>
       </c>
       <c r="E109" t="n">
-        <v>0.246936</v>
+        <v>0.246409</v>
       </c>
       <c r="F109" t="n">
-        <v>0.547719</v>
+        <v>0.549726</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.309403</v>
+        <v>0.308634</v>
       </c>
       <c r="C110" t="n">
-        <v>0.62927</v>
+        <v>0.627715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6351560000000001</v>
+        <v>0.640807</v>
       </c>
       <c r="E110" t="n">
-        <v>0.241654</v>
+        <v>0.246028</v>
       </c>
       <c r="F110" t="n">
-        <v>0.543564</v>
+        <v>0.552599</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.304184</v>
+        <v>0.301433</v>
       </c>
       <c r="C111" t="n">
-        <v>0.625118</v>
+        <v>0.622839</v>
       </c>
       <c r="D111" t="n">
-        <v>0.637999</v>
+        <v>0.645031</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236043</v>
+        <v>0.239424</v>
       </c>
       <c r="F111" t="n">
-        <v>0.540082</v>
+        <v>0.537086</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.29691</v>
+        <v>0.294779</v>
       </c>
       <c r="C112" t="n">
-        <v>0.654529</v>
+        <v>0.631999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.641275</v>
+        <v>0.642886</v>
       </c>
       <c r="E112" t="n">
-        <v>0.230972</v>
+        <v>0.22919</v>
       </c>
       <c r="F112" t="n">
-        <v>0.536357</v>
+        <v>0.53376</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292482</v>
+        <v>0.291189</v>
       </c>
       <c r="C113" t="n">
-        <v>0.631328</v>
+        <v>0.629156</v>
       </c>
       <c r="D113" t="n">
-        <v>0.633815</v>
+        <v>0.64397</v>
       </c>
       <c r="E113" t="n">
-        <v>0.227476</v>
+        <v>0.225484</v>
       </c>
       <c r="F113" t="n">
-        <v>0.532837</v>
+        <v>0.530274</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284497</v>
+        <v>0.283857</v>
       </c>
       <c r="C114" t="n">
-        <v>0.609826</v>
+        <v>0.624031</v>
       </c>
       <c r="D114" t="n">
-        <v>0.635258</v>
+        <v>0.64389</v>
       </c>
       <c r="E114" t="n">
-        <v>0.220627</v>
+        <v>0.221066</v>
       </c>
       <c r="F114" t="n">
-        <v>0.533487</v>
+        <v>0.5273060000000001</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.278501</v>
+        <v>0.283037</v>
       </c>
       <c r="C115" t="n">
-        <v>0.606583</v>
+        <v>0.603662</v>
       </c>
       <c r="D115" t="n">
-        <v>0.646069</v>
+        <v>0.641981</v>
       </c>
       <c r="E115" t="n">
-        <v>0.21653</v>
+        <v>0.216346</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5279509999999999</v>
+        <v>0.529249</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.270165</v>
+        <v>0.2718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.619414</v>
+        <v>0.602111</v>
       </c>
       <c r="D116" t="n">
-        <v>0.637952</v>
+        <v>0.643622</v>
       </c>
       <c r="E116" t="n">
-        <v>0.212154</v>
+        <v>0.21621</v>
       </c>
       <c r="F116" t="n">
-        <v>0.521835</v>
+        <v>0.5224220000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.264396</v>
+        <v>0.265178</v>
       </c>
       <c r="C117" t="n">
-        <v>0.608406</v>
+        <v>0.627806</v>
       </c>
       <c r="D117" t="n">
-        <v>0.639481</v>
+        <v>0.656523</v>
       </c>
       <c r="E117" t="n">
-        <v>0.208166</v>
+        <v>0.206971</v>
       </c>
       <c r="F117" t="n">
-        <v>0.520469</v>
+        <v>0.517776</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.258943</v>
+        <v>0.256158</v>
       </c>
       <c r="C118" t="n">
-        <v>0.627057</v>
+        <v>0.5876479999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.643516</v>
+        <v>0.645913</v>
       </c>
       <c r="E118" t="n">
-        <v>0.203874</v>
+        <v>0.202834</v>
       </c>
       <c r="F118" t="n">
-        <v>0.51317</v>
+        <v>0.511124</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.250785</v>
+        <v>0.250119</v>
       </c>
       <c r="C119" t="n">
-        <v>0.581192</v>
+        <v>0.582716</v>
       </c>
       <c r="D119" t="n">
-        <v>0.643642</v>
+        <v>0.64746</v>
       </c>
       <c r="E119" t="n">
-        <v>0.200284</v>
+        <v>0.199891</v>
       </c>
       <c r="F119" t="n">
-        <v>0.510413</v>
+        <v>0.513836</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.242757</v>
+        <v>0.247739</v>
       </c>
       <c r="C120" t="n">
-        <v>0.618357</v>
+        <v>0.651101</v>
       </c>
       <c r="D120" t="n">
-        <v>0.644468</v>
+        <v>0.667038</v>
       </c>
       <c r="E120" t="n">
-        <v>0.198496</v>
+        <v>0.195749</v>
       </c>
       <c r="F120" t="n">
-        <v>0.506765</v>
+        <v>0.512567</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23691</v>
+        <v>0.236378</v>
       </c>
       <c r="C121" t="n">
-        <v>0.583697</v>
+        <v>0.594195</v>
       </c>
       <c r="D121" t="n">
-        <v>0.650052</v>
+        <v>0.655915</v>
       </c>
       <c r="E121" t="n">
-        <v>0.192559</v>
+        <v>0.19167</v>
       </c>
       <c r="F121" t="n">
-        <v>0.512691</v>
+        <v>0.502754</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228207</v>
+        <v>0.228643</v>
       </c>
       <c r="C122" t="n">
-        <v>0.573454</v>
+        <v>0.586046</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648602</v>
+        <v>0.650464</v>
       </c>
       <c r="E122" t="n">
-        <v>0.188184</v>
+        <v>0.18853</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5019980000000001</v>
+        <v>0.502358</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.219294</v>
+        <v>0.219194</v>
       </c>
       <c r="C123" t="n">
-        <v>0.562725</v>
+        <v>0.5583360000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.648451</v>
+        <v>0.655397</v>
       </c>
       <c r="E123" t="n">
-        <v>0.247267</v>
+        <v>0.249553</v>
       </c>
       <c r="F123" t="n">
-        <v>0.553162</v>
+        <v>0.551042</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311543</v>
+        <v>0.308858</v>
       </c>
       <c r="C124" t="n">
-        <v>0.635991</v>
+        <v>0.627969</v>
       </c>
       <c r="D124" t="n">
-        <v>0.641172</v>
+        <v>0.653471</v>
       </c>
       <c r="E124" t="n">
-        <v>0.243791</v>
+        <v>0.241955</v>
       </c>
       <c r="F124" t="n">
-        <v>0.554486</v>
+        <v>0.547064</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.303352</v>
+        <v>0.304984</v>
       </c>
       <c r="C125" t="n">
-        <v>0.647526</v>
+        <v>0.628647</v>
       </c>
       <c r="D125" t="n">
-        <v>0.643273</v>
+        <v>0.653066</v>
       </c>
       <c r="E125" t="n">
-        <v>0.238859</v>
+        <v>0.237162</v>
       </c>
       <c r="F125" t="n">
-        <v>0.541157</v>
+        <v>0.54191</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.298756</v>
+        <v>0.300034</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6509239999999999</v>
+        <v>0.623815</v>
       </c>
       <c r="D126" t="n">
-        <v>0.64166</v>
+        <v>0.649755</v>
       </c>
       <c r="E126" t="n">
-        <v>0.232291</v>
+        <v>0.233244</v>
       </c>
       <c r="F126" t="n">
-        <v>0.54518</v>
+        <v>0.537473</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29246</v>
+        <v>0.291319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.642082</v>
+        <v>0.615241</v>
       </c>
       <c r="D127" t="n">
-        <v>0.642764</v>
+        <v>0.6505</v>
       </c>
       <c r="E127" t="n">
-        <v>0.22658</v>
+        <v>0.225136</v>
       </c>
       <c r="F127" t="n">
-        <v>0.533203</v>
+        <v>0.5331630000000001</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291684</v>
+        <v>0.284508</v>
       </c>
       <c r="C128" t="n">
-        <v>0.645948</v>
+        <v>0.610365</v>
       </c>
       <c r="D128" t="n">
-        <v>0.640284</v>
+        <v>0.657307</v>
       </c>
       <c r="E128" t="n">
-        <v>0.223352</v>
+        <v>0.223248</v>
       </c>
       <c r="F128" t="n">
-        <v>0.532797</v>
+        <v>0.529647</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278863</v>
+        <v>0.27823</v>
       </c>
       <c r="C129" t="n">
-        <v>0.630166</v>
+        <v>0.609962</v>
       </c>
       <c r="D129" t="n">
-        <v>0.65288</v>
+        <v>0.654324</v>
       </c>
       <c r="E129" t="n">
-        <v>0.217662</v>
+        <v>0.221403</v>
       </c>
       <c r="F129" t="n">
-        <v>0.526122</v>
+        <v>0.530664</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.27946</v>
+        <v>0.272697</v>
       </c>
       <c r="C130" t="n">
-        <v>0.629707</v>
+        <v>0.599955</v>
       </c>
       <c r="D130" t="n">
-        <v>0.646333</v>
+        <v>0.6501749999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.213671</v>
+        <v>0.211938</v>
       </c>
       <c r="F130" t="n">
-        <v>0.528429</v>
+        <v>0.521077</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266247</v>
+        <v>0.266203</v>
       </c>
       <c r="C131" t="n">
-        <v>0.634223</v>
+        <v>0.611111</v>
       </c>
       <c r="D131" t="n">
-        <v>0.643856</v>
+        <v>0.658981</v>
       </c>
       <c r="E131" t="n">
-        <v>0.208893</v>
+        <v>0.210129</v>
       </c>
       <c r="F131" t="n">
-        <v>0.51967</v>
+        <v>0.519848</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258468</v>
+        <v>0.259794</v>
       </c>
       <c r="C132" t="n">
-        <v>0.620299</v>
+        <v>0.590924</v>
       </c>
       <c r="D132" t="n">
-        <v>0.64418</v>
+        <v>0.656546</v>
       </c>
       <c r="E132" t="n">
-        <v>0.207786</v>
+        <v>0.205428</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5168430000000001</v>
+        <v>0.516647</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.252381</v>
+        <v>0.252412</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6018019999999999</v>
+        <v>0.583248</v>
       </c>
       <c r="D133" t="n">
-        <v>0.654586</v>
+        <v>0.655072</v>
       </c>
       <c r="E133" t="n">
-        <v>0.202415</v>
+        <v>0.200055</v>
       </c>
       <c r="F133" t="n">
-        <v>0.51494</v>
+        <v>0.5109629999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.245007</v>
+        <v>0.245438</v>
       </c>
       <c r="C134" t="n">
-        <v>0.592996</v>
+        <v>0.596699</v>
       </c>
       <c r="D134" t="n">
-        <v>0.649491</v>
+        <v>0.658892</v>
       </c>
       <c r="E134" t="n">
-        <v>0.198148</v>
+        <v>0.196756</v>
       </c>
       <c r="F134" t="n">
-        <v>0.508485</v>
+        <v>0.510704</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239379</v>
+        <v>0.237095</v>
       </c>
       <c r="C135" t="n">
-        <v>0.604199</v>
+        <v>0.574673</v>
       </c>
       <c r="D135" t="n">
-        <v>0.646478</v>
+        <v>0.6571</v>
       </c>
       <c r="E135" t="n">
-        <v>0.192632</v>
+        <v>0.193095</v>
       </c>
       <c r="F135" t="n">
-        <v>0.507065</v>
+        <v>0.507654</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2301</v>
+        <v>0.229244</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599189</v>
+        <v>0.60987</v>
       </c>
       <c r="D136" t="n">
-        <v>0.647052</v>
+        <v>0.664585</v>
       </c>
       <c r="E136" t="n">
-        <v>0.189955</v>
+        <v>0.19048</v>
       </c>
       <c r="F136" t="n">
-        <v>0.509144</v>
+        <v>0.504093</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.220657</v>
+        <v>0.220253</v>
       </c>
       <c r="C137" t="n">
-        <v>0.591355</v>
+        <v>0.559281</v>
       </c>
       <c r="D137" t="n">
-        <v>0.644918</v>
+        <v>0.657561</v>
       </c>
       <c r="E137" t="n">
-        <v>0.248819</v>
+        <v>0.248558</v>
       </c>
       <c r="F137" t="n">
-        <v>0.568647</v>
+        <v>0.556168</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311217</v>
+        <v>0.311166</v>
       </c>
       <c r="C138" t="n">
-        <v>0.630558</v>
+        <v>0.669313</v>
       </c>
       <c r="D138" t="n">
-        <v>0.64259</v>
+        <v>0.65546</v>
       </c>
       <c r="E138" t="n">
-        <v>0.244599</v>
+        <v>0.243768</v>
       </c>
       <c r="F138" t="n">
-        <v>0.551076</v>
+        <v>0.546606</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.305499</v>
+        <v>0.304818</v>
       </c>
       <c r="C139" t="n">
-        <v>0.657485</v>
+        <v>0.64928</v>
       </c>
       <c r="D139" t="n">
-        <v>0.646679</v>
+        <v>0.65482</v>
       </c>
       <c r="E139" t="n">
-        <v>0.240324</v>
+        <v>0.239237</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5417920000000001</v>
+        <v>0.546103</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.300289</v>
+        <v>0.299304</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62453</v>
+        <v>0.630158</v>
       </c>
       <c r="D140" t="n">
-        <v>0.650506</v>
+        <v>0.653018</v>
       </c>
       <c r="E140" t="n">
-        <v>0.232897</v>
+        <v>0.237809</v>
       </c>
       <c r="F140" t="n">
-        <v>0.539364</v>
+        <v>0.5397110000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.293479</v>
+        <v>0.293652</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6205889999999999</v>
+        <v>0.6509</v>
       </c>
       <c r="D141" t="n">
-        <v>0.642227</v>
+        <v>0.653343</v>
       </c>
       <c r="E141" t="n">
-        <v>0.227389</v>
+        <v>0.228548</v>
       </c>
       <c r="F141" t="n">
-        <v>0.535419</v>
+        <v>0.537605</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.286681</v>
+        <v>0.285083</v>
       </c>
       <c r="C142" t="n">
-        <v>0.610287</v>
+        <v>0.609336</v>
       </c>
       <c r="D142" t="n">
-        <v>0.644616</v>
+        <v>0.650922</v>
       </c>
       <c r="E142" t="n">
-        <v>0.222792</v>
+        <v>0.222413</v>
       </c>
       <c r="F142" t="n">
-        <v>0.531543</v>
+        <v>0.534798</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.280557</v>
+        <v>0.279151</v>
       </c>
       <c r="C143" t="n">
-        <v>0.606137</v>
+        <v>0.610244</v>
       </c>
       <c r="D143" t="n">
-        <v>0.649522</v>
+        <v>0.654173</v>
       </c>
       <c r="E143" t="n">
-        <v>0.218571</v>
+        <v>0.218548</v>
       </c>
       <c r="F143" t="n">
-        <v>0.527559</v>
+        <v>0.529956</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252428</v>
+        <v>0.262976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52781</v>
+        <v>0.532807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537276</v>
+        <v>0.54647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267945</v>
+        <v>0.202946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520455</v>
+        <v>0.459985</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241753</v>
+        <v>0.252544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520833</v>
+        <v>0.526082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534304</v>
+        <v>0.533859</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257606</v>
+        <v>0.199419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52288</v>
+        <v>0.457077</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239487</v>
+        <v>0.246178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515636</v>
+        <v>0.52042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532927</v>
+        <v>0.53691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.257951</v>
+        <v>0.192898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.530872</v>
+        <v>0.447596</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233003</v>
+        <v>0.235648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516687</v>
+        <v>0.510732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535187</v>
+        <v>0.521071</v>
       </c>
       <c r="E5" t="n">
-        <v>0.257768</v>
+        <v>0.186385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.512561</v>
+        <v>0.435251</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223577</v>
+        <v>0.22342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502808</v>
+        <v>0.493176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533683</v>
+        <v>0.5277579999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.256549</v>
+        <v>0.183718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51589</v>
+        <v>0.429834</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218109</v>
+        <v>0.214094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494135</v>
+        <v>0.4844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.534439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255817</v>
+        <v>0.234672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.516205</v>
+        <v>0.474591</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21333</v>
+        <v>0.209381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501547</v>
+        <v>0.480048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541099</v>
+        <v>0.534629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255988</v>
+        <v>0.228883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.511623</v>
+        <v>0.471255</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201504</v>
+        <v>0.202494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478511</v>
+        <v>0.473274</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539085</v>
+        <v>0.535343</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270637</v>
+        <v>0.226014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523956</v>
+        <v>0.46745</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291965</v>
+        <v>0.287149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54649</v>
+        <v>0.534067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541981</v>
+        <v>0.530214</v>
       </c>
       <c r="E10" t="n">
-        <v>0.270913</v>
+        <v>0.219647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.525517</v>
+        <v>0.459602</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288323</v>
+        <v>0.282658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.542883</v>
+        <v>0.5310279999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.539214</v>
+        <v>0.531821</v>
       </c>
       <c r="E11" t="n">
-        <v>0.269458</v>
+        <v>0.217139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523726</v>
+        <v>0.45794</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283681</v>
+        <v>0.27745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541216</v>
+        <v>0.525361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.526959</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266955</v>
+        <v>0.21224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.534187</v>
+        <v>0.455557</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279081</v>
+        <v>0.272432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.525263</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54037</v>
+        <v>0.528732</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265164</v>
+        <v>0.209689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52457</v>
+        <v>0.451188</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274928</v>
+        <v>0.266973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530776</v>
+        <v>0.5172330000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.539595</v>
+        <v>0.52644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26581</v>
+        <v>0.206088</v>
       </c>
       <c r="F14" t="n">
-        <v>0.521443</v>
+        <v>0.451812</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263171</v>
+        <v>0.261807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524521</v>
+        <v>0.516518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529278</v>
+        <v>0.528151</v>
       </c>
       <c r="E15" t="n">
-        <v>0.262552</v>
+        <v>0.204762</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.447299</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256792</v>
+        <v>0.254614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521418</v>
+        <v>0.510893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.523187</v>
+        <v>0.527815</v>
       </c>
       <c r="E16" t="n">
-        <v>0.261859</v>
+        <v>0.20902</v>
       </c>
       <c r="F16" t="n">
-        <v>0.519783</v>
+        <v>0.445415</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251242</v>
+        <v>0.249819</v>
       </c>
       <c r="C17" t="n">
-        <v>0.516529</v>
+        <v>0.511784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.540484</v>
+        <v>0.524501</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266601</v>
+        <v>0.197648</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52826</v>
+        <v>0.441552</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248302</v>
+        <v>0.243012</v>
       </c>
       <c r="C18" t="n">
-        <v>0.528056</v>
+        <v>0.501912</v>
       </c>
       <c r="D18" t="n">
-        <v>0.527291</v>
+        <v>0.534786</v>
       </c>
       <c r="E18" t="n">
-        <v>0.257797</v>
+        <v>0.196319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512462</v>
+        <v>0.436241</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236978</v>
+        <v>0.236399</v>
       </c>
       <c r="C19" t="n">
-        <v>0.50178</v>
+        <v>0.495427</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538364</v>
+        <v>0.524997</v>
       </c>
       <c r="E19" t="n">
-        <v>0.262355</v>
+        <v>0.192592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.511066</v>
+        <v>0.433735</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231188</v>
+        <v>0.234855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.509908</v>
+        <v>0.491661</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526325</v>
+        <v>0.530518</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257438</v>
+        <v>0.191089</v>
       </c>
       <c r="F20" t="n">
-        <v>0.520529</v>
+        <v>0.429388</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229585</v>
+        <v>0.223539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498746</v>
+        <v>0.483891</v>
       </c>
       <c r="D21" t="n">
-        <v>0.546269</v>
+        <v>0.541772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261979</v>
+        <v>0.241565</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5128779999999999</v>
+        <v>0.478087</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216764</v>
+        <v>0.216702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497511</v>
+        <v>0.48283</v>
       </c>
       <c r="D22" t="n">
-        <v>0.54483</v>
+        <v>0.544704</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256668</v>
+        <v>0.236574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.515745</v>
+        <v>0.47528</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21356</v>
+        <v>0.209527</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493426</v>
+        <v>0.473759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531631</v>
+        <v>0.544133</v>
       </c>
       <c r="E23" t="n">
-        <v>0.271209</v>
+        <v>0.233685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.519168</v>
+        <v>0.476844</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.291109</v>
+        <v>0.289176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545308</v>
+        <v>0.5445489999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539629</v>
+        <v>0.543369</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272674</v>
+        <v>0.229042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.544932</v>
+        <v>0.469089</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285705</v>
+        <v>0.284899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.535183</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552594</v>
+        <v>0.54038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269714</v>
+        <v>0.225199</v>
       </c>
       <c r="F25" t="n">
-        <v>0.518417</v>
+        <v>0.465554</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28404</v>
+        <v>0.279232</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543013</v>
+        <v>0.52815</v>
       </c>
       <c r="D26" t="n">
-        <v>0.527687</v>
+        <v>0.539876</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270937</v>
+        <v>0.22267</v>
       </c>
       <c r="F26" t="n">
-        <v>0.518662</v>
+        <v>0.468157</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28453</v>
+        <v>0.275839</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538207</v>
+        <v>0.5319700000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534228</v>
+        <v>0.542193</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268592</v>
+        <v>0.217971</v>
       </c>
       <c r="F27" t="n">
-        <v>0.512971</v>
+        <v>0.460027</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270584</v>
+        <v>0.269633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532612</v>
+        <v>0.524703</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.539614</v>
       </c>
       <c r="E28" t="n">
-        <v>0.268494</v>
+        <v>0.214722</v>
       </c>
       <c r="F28" t="n">
-        <v>0.522859</v>
+        <v>0.454491</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270388</v>
+        <v>0.266382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52903</v>
+        <v>0.5239279999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.535377</v>
+        <v>0.552861</v>
       </c>
       <c r="E29" t="n">
-        <v>0.265154</v>
+        <v>0.212508</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5160169999999999</v>
+        <v>0.45715</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265661</v>
+        <v>0.260946</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535227</v>
+        <v>0.526298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.541539</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26483</v>
+        <v>0.210691</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521811</v>
+        <v>0.451595</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256184</v>
+        <v>0.251951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520594</v>
+        <v>0.516354</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535431</v>
+        <v>0.543021</v>
       </c>
       <c r="E31" t="n">
-        <v>0.263411</v>
+        <v>0.206025</v>
       </c>
       <c r="F31" t="n">
-        <v>0.511521</v>
+        <v>0.456413</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248558</v>
+        <v>0.246709</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519845</v>
+        <v>0.504557</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533465</v>
+        <v>0.5359120000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.269047</v>
+        <v>0.204108</v>
       </c>
       <c r="F32" t="n">
-        <v>0.514757</v>
+        <v>0.441237</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242564</v>
+        <v>0.239712</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515693</v>
+        <v>0.509655</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540442</v>
+        <v>0.537232</v>
       </c>
       <c r="E33" t="n">
-        <v>0.261169</v>
+        <v>0.202084</v>
       </c>
       <c r="F33" t="n">
-        <v>0.516575</v>
+        <v>0.440323</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240611</v>
+        <v>0.235177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51174</v>
+        <v>0.497825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5347420000000001</v>
+        <v>0.53676</v>
       </c>
       <c r="E34" t="n">
-        <v>0.259858</v>
+        <v>0.198833</v>
       </c>
       <c r="F34" t="n">
-        <v>0.508845</v>
+        <v>0.438823</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228465</v>
+        <v>0.226893</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497673</v>
+        <v>0.495747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.553582</v>
+        <v>0.555156</v>
       </c>
       <c r="E35" t="n">
-        <v>0.259117</v>
+        <v>0.194595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.505726</v>
+        <v>0.436683</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225613</v>
+        <v>0.225465</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499722</v>
+        <v>0.49185</v>
       </c>
       <c r="D36" t="n">
-        <v>0.554043</v>
+        <v>0.557857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258172</v>
+        <v>0.247589</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514942</v>
+        <v>0.488708</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213727</v>
+        <v>0.215324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490636</v>
+        <v>0.491579</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548243</v>
+        <v>0.562907</v>
       </c>
       <c r="E37" t="n">
-        <v>0.275828</v>
+        <v>0.24223</v>
       </c>
       <c r="F37" t="n">
-        <v>0.527677</v>
+        <v>0.48331</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296596</v>
+        <v>0.295764</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554775</v>
+        <v>0.5557879999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54377</v>
+        <v>0.560263</v>
       </c>
       <c r="E38" t="n">
-        <v>0.274018</v>
+        <v>0.237009</v>
       </c>
       <c r="F38" t="n">
-        <v>0.518694</v>
+        <v>0.475589</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289029</v>
+        <v>0.287946</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553021</v>
+        <v>0.544024</v>
       </c>
       <c r="D39" t="n">
-        <v>0.552193</v>
+        <v>0.561966</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287422</v>
+        <v>0.232368</v>
       </c>
       <c r="F39" t="n">
-        <v>0.527864</v>
+        <v>0.473203</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291025</v>
+        <v>0.281915</v>
       </c>
       <c r="C40" t="n">
-        <v>0.552304</v>
+        <v>0.544909</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5552240000000001</v>
+        <v>0.551953</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272086</v>
+        <v>0.225575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.463904</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280323</v>
+        <v>0.279126</v>
       </c>
       <c r="C41" t="n">
-        <v>0.544975</v>
+        <v>0.535067</v>
       </c>
       <c r="D41" t="n">
-        <v>0.559289</v>
+        <v>0.556507</v>
       </c>
       <c r="E41" t="n">
-        <v>0.276376</v>
+        <v>0.226896</v>
       </c>
       <c r="F41" t="n">
-        <v>0.519661</v>
+        <v>0.465685</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.273861</v>
+        <v>0.274993</v>
       </c>
       <c r="C42" t="n">
-        <v>0.539541</v>
+        <v>0.532938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554874</v>
+        <v>0.5583360000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268665</v>
+        <v>0.220578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.519178</v>
+        <v>0.462293</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.269765</v>
+        <v>0.269299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53271</v>
+        <v>0.530645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558514</v>
+        <v>0.56037</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267936</v>
+        <v>0.216086</v>
       </c>
       <c r="F43" t="n">
-        <v>0.520994</v>
+        <v>0.455772</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263644</v>
+        <v>0.267216</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5376</v>
+        <v>0.527577</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562559</v>
+        <v>0.56664</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269958</v>
+        <v>0.215203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.523326</v>
+        <v>0.457381</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259849</v>
+        <v>0.256237</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539801</v>
+        <v>0.525607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56136</v>
+        <v>0.56971</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267062</v>
+        <v>0.211887</v>
       </c>
       <c r="F45" t="n">
-        <v>0.524771</v>
+        <v>0.455996</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253945</v>
+        <v>0.252435</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5232290000000001</v>
+        <v>0.5282750000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567245</v>
+        <v>0.575499</v>
       </c>
       <c r="E46" t="n">
-        <v>0.263515</v>
+        <v>0.20831</v>
       </c>
       <c r="F46" t="n">
-        <v>0.517921</v>
+        <v>0.446097</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244157</v>
+        <v>0.243602</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529213</v>
+        <v>0.518406</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5729610000000001</v>
+        <v>0.5665249999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264378</v>
+        <v>0.204601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521895</v>
+        <v>0.451902</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240725</v>
+        <v>0.240885</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527589</v>
+        <v>0.518407</v>
       </c>
       <c r="D48" t="n">
-        <v>0.556323</v>
+        <v>0.5769030000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.261513</v>
+        <v>0.199766</v>
       </c>
       <c r="F48" t="n">
-        <v>0.511731</v>
+        <v>0.442603</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235345</v>
+        <v>0.230336</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509695</v>
+        <v>0.522302</v>
       </c>
       <c r="D49" t="n">
-        <v>0.579402</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.260313</v>
+        <v>0.197384</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513276</v>
+        <v>0.444664</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223386</v>
+        <v>0.222982</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5060170000000001</v>
+        <v>0.513239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623855</v>
+        <v>0.6223880000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266707</v>
+        <v>0.252982</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5181789999999999</v>
+        <v>0.48801</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217102</v>
+        <v>0.216459</v>
       </c>
       <c r="C51" t="n">
-        <v>0.514997</v>
+        <v>0.507147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62001</v>
+        <v>0.623973</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282858</v>
+        <v>0.244735</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545146</v>
+        <v>0.491212</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208301</v>
+        <v>0.208552</v>
       </c>
       <c r="C52" t="n">
-        <v>0.515859</v>
+        <v>0.5022180000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.630562</v>
+        <v>0.63009</v>
       </c>
       <c r="E52" t="n">
-        <v>0.280347</v>
+        <v>0.24404</v>
       </c>
       <c r="F52" t="n">
-        <v>0.552468</v>
+        <v>0.49055</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299862</v>
+        <v>0.296125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585694</v>
+        <v>0.576819</v>
       </c>
       <c r="D53" t="n">
-        <v>0.637433</v>
+        <v>0.632785</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290281</v>
+        <v>0.244763</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.490167</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295584</v>
+        <v>0.291707</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578973</v>
+        <v>0.556827</v>
       </c>
       <c r="D54" t="n">
-        <v>0.634077</v>
+        <v>0.63732</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278832</v>
+        <v>0.232791</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54138</v>
+        <v>0.480403</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293541</v>
+        <v>0.285214</v>
       </c>
       <c r="C55" t="n">
-        <v>0.559346</v>
+        <v>0.560554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636571</v>
+        <v>0.638935</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276463</v>
+        <v>0.229347</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542526</v>
+        <v>0.47196</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280583</v>
+        <v>0.284697</v>
       </c>
       <c r="C56" t="n">
-        <v>0.592188</v>
+        <v>0.548395</v>
       </c>
       <c r="D56" t="n">
-        <v>0.643303</v>
+        <v>0.637872</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282164</v>
+        <v>0.226537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533782</v>
+        <v>0.471362</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275822</v>
+        <v>0.272356</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587295</v>
+        <v>0.5453750000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651394</v>
+        <v>0.6497230000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276601</v>
+        <v>0.224511</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5326880000000001</v>
+        <v>0.471788</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269463</v>
+        <v>0.267725</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565902</v>
+        <v>0.539815</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638907</v>
+        <v>0.6415149999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.271959</v>
+        <v>0.218059</v>
       </c>
       <c r="F58" t="n">
-        <v>0.545651</v>
+        <v>0.468385</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263815</v>
+        <v>0.259616</v>
       </c>
       <c r="C59" t="n">
-        <v>0.562042</v>
+        <v>0.551325</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646</v>
+        <v>0.642849</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271118</v>
+        <v>0.214953</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5374949999999999</v>
+        <v>0.46349</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258618</v>
+        <v>0.255971</v>
       </c>
       <c r="C60" t="n">
-        <v>0.587511</v>
+        <v>0.54081</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.641786</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272962</v>
+        <v>0.211162</v>
       </c>
       <c r="F60" t="n">
-        <v>0.532199</v>
+        <v>0.458276</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255074</v>
+        <v>0.248024</v>
       </c>
       <c r="C61" t="n">
-        <v>0.552271</v>
+        <v>0.557572</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643655</v>
+        <v>0.6478660000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.267614</v>
+        <v>0.20895</v>
       </c>
       <c r="F61" t="n">
-        <v>0.540666</v>
+        <v>0.45896</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244392</v>
+        <v>0.243835</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.526442</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651286</v>
+        <v>0.650707</v>
       </c>
       <c r="E62" t="n">
-        <v>0.267185</v>
+        <v>0.208315</v>
       </c>
       <c r="F62" t="n">
-        <v>0.534765</v>
+        <v>0.457636</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235993</v>
+        <v>0.234541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543773</v>
+        <v>0.524199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652265</v>
+        <v>0.648327</v>
       </c>
       <c r="E63" t="n">
-        <v>0.265805</v>
+        <v>0.207997</v>
       </c>
       <c r="F63" t="n">
-        <v>0.534278</v>
+        <v>0.471696</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234758</v>
+        <v>0.228194</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572811</v>
+        <v>0.520205</v>
       </c>
       <c r="D64" t="n">
-        <v>0.711903</v>
+        <v>0.6987989999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264937</v>
+        <v>0.262198</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543152</v>
+        <v>0.518881</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221176</v>
+        <v>0.224584</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5467649999999999</v>
+        <v>0.538708</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706499</v>
+        <v>0.696506</v>
       </c>
       <c r="E65" t="n">
-        <v>0.26618</v>
+        <v>0.255977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543125</v>
+        <v>0.509359</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214181</v>
+        <v>0.213496</v>
       </c>
       <c r="C66" t="n">
-        <v>0.546264</v>
+        <v>0.5339739999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706517</v>
+        <v>0.699284</v>
       </c>
       <c r="E66" t="n">
-        <v>0.288667</v>
+        <v>0.25422</v>
       </c>
       <c r="F66" t="n">
-        <v>0.564885</v>
+        <v>0.498579</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313638</v>
+        <v>0.30313</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633974</v>
+        <v>0.600468</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.708499</v>
       </c>
       <c r="E67" t="n">
-        <v>0.287813</v>
+        <v>0.252737</v>
       </c>
       <c r="F67" t="n">
-        <v>0.571711</v>
+        <v>0.5051870000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303204</v>
+        <v>0.298531</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609367</v>
+        <v>0.589322</v>
       </c>
       <c r="D68" t="n">
-        <v>0.696963</v>
+        <v>0.700109</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285082</v>
+        <v>0.244689</v>
       </c>
       <c r="F68" t="n">
-        <v>0.562599</v>
+        <v>0.491692</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301536</v>
+        <v>0.296022</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615779</v>
+        <v>0.589714</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714131</v>
+        <v>0.68524</v>
       </c>
       <c r="E69" t="n">
-        <v>0.282616</v>
+        <v>0.239425</v>
       </c>
       <c r="F69" t="n">
-        <v>0.562096</v>
+        <v>0.497653</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297524</v>
+        <v>0.287101</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606702</v>
+        <v>0.587554</v>
       </c>
       <c r="D70" t="n">
-        <v>0.704313</v>
+        <v>0.6890579999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283966</v>
+        <v>0.23121</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56472</v>
+        <v>0.492057</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287319</v>
+        <v>0.286033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612077</v>
+        <v>0.57958</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690673</v>
+        <v>0.688331</v>
       </c>
       <c r="E71" t="n">
-        <v>0.282834</v>
+        <v>0.23081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.555525</v>
+        <v>0.489366</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275131</v>
+        <v>0.281225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602346</v>
+        <v>0.5752080000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694679</v>
+        <v>0.689351</v>
       </c>
       <c r="E72" t="n">
-        <v>0.279482</v>
+        <v>0.228789</v>
       </c>
       <c r="F72" t="n">
-        <v>0.549561</v>
+        <v>0.486575</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272818</v>
+        <v>0.268866</v>
       </c>
       <c r="C73" t="n">
-        <v>0.609256</v>
+        <v>0.577051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.69179</v>
+        <v>0.688291</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275693</v>
+        <v>0.219376</v>
       </c>
       <c r="F73" t="n">
-        <v>0.551518</v>
+        <v>0.479162</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264842</v>
+        <v>0.263755</v>
       </c>
       <c r="C74" t="n">
-        <v>0.601481</v>
+        <v>0.566153</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690885</v>
+        <v>0.689385</v>
       </c>
       <c r="E74" t="n">
-        <v>0.272852</v>
+        <v>0.219794</v>
       </c>
       <c r="F74" t="n">
-        <v>0.551828</v>
+        <v>0.477836</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260613</v>
+        <v>0.257275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5916670000000001</v>
+        <v>0.561686</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685411</v>
+        <v>0.6871390000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274534</v>
+        <v>0.21725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.547969</v>
+        <v>0.477461</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252496</v>
+        <v>0.250582</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592786</v>
+        <v>0.553527</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684873</v>
+        <v>0.688523</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272621</v>
+        <v>0.213627</v>
       </c>
       <c r="F76" t="n">
-        <v>0.551218</v>
+        <v>0.47657</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242901</v>
+        <v>0.245245</v>
       </c>
       <c r="C77" t="n">
-        <v>0.577442</v>
+        <v>0.550795</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685689</v>
+        <v>0.688076</v>
       </c>
       <c r="E77" t="n">
-        <v>0.270924</v>
+        <v>0.208653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.548629</v>
+        <v>0.471446</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237388</v>
+        <v>0.235262</v>
       </c>
       <c r="C78" t="n">
-        <v>0.582695</v>
+        <v>0.5444830000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751999</v>
+        <v>0.742422</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274921</v>
+        <v>0.205238</v>
       </c>
       <c r="F78" t="n">
-        <v>0.548959</v>
+        <v>0.469402</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.227139</v>
+        <v>0.229592</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57211</v>
+        <v>0.5370239999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7675110000000001</v>
+        <v>0.741004</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270117</v>
+        <v>0.259525</v>
       </c>
       <c r="F79" t="n">
-        <v>0.549296</v>
+        <v>0.517407</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224023</v>
+        <v>0.224661</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558833</v>
+        <v>0.534808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.749897</v>
+        <v>0.738492</v>
       </c>
       <c r="E80" t="n">
-        <v>0.300635</v>
+        <v>0.2567</v>
       </c>
       <c r="F80" t="n">
-        <v>0.560791</v>
+        <v>0.513763</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313972</v>
+        <v>0.311862</v>
       </c>
       <c r="C81" t="n">
-        <v>0.620448</v>
+        <v>0.616971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.744188</v>
+        <v>0.726948</v>
       </c>
       <c r="E81" t="n">
-        <v>0.292512</v>
+        <v>0.251254</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563545</v>
+        <v>0.504039</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311989</v>
+        <v>0.30403</v>
       </c>
       <c r="C82" t="n">
-        <v>0.619408</v>
+        <v>0.611424</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736633</v>
+        <v>0.71982</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291396</v>
+        <v>0.244375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.565435</v>
+        <v>0.500175</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304751</v>
+        <v>0.300476</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609569</v>
+        <v>0.6233610000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734688</v>
+        <v>0.7248830000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29151</v>
+        <v>0.243068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.564877</v>
+        <v>0.502568</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298381</v>
+        <v>0.29429</v>
       </c>
       <c r="C84" t="n">
-        <v>0.642572</v>
+        <v>0.6467889999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.75924</v>
+        <v>0.758841</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287901</v>
+        <v>0.238212</v>
       </c>
       <c r="F84" t="n">
-        <v>0.582642</v>
+        <v>0.530419</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29034</v>
+        <v>0.28954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.63976</v>
+        <v>0.6384379999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763406</v>
+        <v>0.742917</v>
       </c>
       <c r="E85" t="n">
-        <v>0.287354</v>
+        <v>0.233304</v>
       </c>
       <c r="F85" t="n">
-        <v>0.588175</v>
+        <v>0.526528</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285138</v>
+        <v>0.280503</v>
       </c>
       <c r="C86" t="n">
-        <v>0.645832</v>
+        <v>0.6367080000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747682</v>
+        <v>0.7447820000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281245</v>
+        <v>0.229491</v>
       </c>
       <c r="F86" t="n">
-        <v>0.589171</v>
+        <v>0.5236</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277268</v>
+        <v>0.275204</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6333220000000001</v>
+        <v>0.631642</v>
       </c>
       <c r="D87" t="n">
-        <v>0.759211</v>
+        <v>0.737245</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280263</v>
+        <v>0.226347</v>
       </c>
       <c r="F87" t="n">
-        <v>0.58844</v>
+        <v>0.520221</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270323</v>
+        <v>0.268253</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630393</v>
+        <v>0.628739</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765133</v>
+        <v>0.73895</v>
       </c>
       <c r="E88" t="n">
-        <v>0.281193</v>
+        <v>0.22122</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587555</v>
+        <v>0.51448</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263952</v>
+        <v>0.260564</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606996</v>
+        <v>0.617471</v>
       </c>
       <c r="D89" t="n">
-        <v>0.754674</v>
+        <v>0.736883</v>
       </c>
       <c r="E89" t="n">
-        <v>0.278012</v>
+        <v>0.217107</v>
       </c>
       <c r="F89" t="n">
-        <v>0.581489</v>
+        <v>0.509389</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258643</v>
+        <v>0.253412</v>
       </c>
       <c r="C90" t="n">
-        <v>0.608088</v>
+        <v>0.615168</v>
       </c>
       <c r="D90" t="n">
-        <v>0.747521</v>
+        <v>0.736744</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275484</v>
+        <v>0.214065</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576953</v>
+        <v>0.505852</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253704</v>
+        <v>0.247229</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597394</v>
+        <v>0.601555</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742818</v>
+        <v>0.733396</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2762</v>
+        <v>0.210388</v>
       </c>
       <c r="F91" t="n">
-        <v>0.574574</v>
+        <v>0.500497</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240973</v>
+        <v>0.240161</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599353</v>
+        <v>0.609831</v>
       </c>
       <c r="D92" t="n">
-        <v>0.665036</v>
+        <v>0.649161</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272295</v>
+        <v>0.207593</v>
       </c>
       <c r="F92" t="n">
-        <v>0.582341</v>
+        <v>0.500714</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.235508</v>
+        <v>0.232829</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597434</v>
+        <v>0.604497</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656228</v>
+        <v>0.644809</v>
       </c>
       <c r="E93" t="n">
-        <v>0.275453</v>
+        <v>0.264648</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5763779999999999</v>
+        <v>0.550938</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223989</v>
+        <v>0.223932</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5871420000000001</v>
+        <v>0.592646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65039</v>
+        <v>0.649746</v>
       </c>
       <c r="E94" t="n">
-        <v>0.300038</v>
+        <v>0.2583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.586515</v>
+        <v>0.548288</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319416</v>
+        <v>0.312299</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650959</v>
+        <v>0.633328</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663803</v>
+        <v>0.648242</v>
       </c>
       <c r="E95" t="n">
-        <v>0.294746</v>
+        <v>0.255385</v>
       </c>
       <c r="F95" t="n">
-        <v>0.587056</v>
+        <v>0.543231</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313388</v>
+        <v>0.305339</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640787</v>
+        <v>0.626412</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658907</v>
+        <v>0.651751</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292177</v>
+        <v>0.247063</v>
       </c>
       <c r="F96" t="n">
-        <v>0.594705</v>
+        <v>0.540123</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305577</v>
+        <v>0.299929</v>
       </c>
       <c r="C97" t="n">
-        <v>0.636409</v>
+        <v>0.623538</v>
       </c>
       <c r="D97" t="n">
-        <v>0.651955</v>
+        <v>0.644018</v>
       </c>
       <c r="E97" t="n">
-        <v>0.291108</v>
+        <v>0.243832</v>
       </c>
       <c r="F97" t="n">
-        <v>0.590348</v>
+        <v>0.533154</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299655</v>
+        <v>0.294999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630752</v>
+        <v>0.626709</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643666</v>
+        <v>0.648498</v>
       </c>
       <c r="E98" t="n">
-        <v>0.287753</v>
+        <v>0.239899</v>
       </c>
       <c r="F98" t="n">
-        <v>0.588172</v>
+        <v>0.531016</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291279</v>
+        <v>0.288201</v>
       </c>
       <c r="C99" t="n">
-        <v>0.624873</v>
+        <v>0.62615</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651809</v>
+        <v>0.644848</v>
       </c>
       <c r="E99" t="n">
-        <v>0.284633</v>
+        <v>0.234385</v>
       </c>
       <c r="F99" t="n">
-        <v>0.601116</v>
+        <v>0.5270550000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284306</v>
+        <v>0.285533</v>
       </c>
       <c r="C100" t="n">
-        <v>0.620906</v>
+        <v>0.627278</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641115</v>
+        <v>0.649629</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28303</v>
+        <v>0.22957</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5887559999999999</v>
+        <v>0.5233179999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277243</v>
+        <v>0.275069</v>
       </c>
       <c r="C101" t="n">
-        <v>0.620957</v>
+        <v>0.6250329999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.647844</v>
+        <v>0.643745</v>
       </c>
       <c r="E101" t="n">
-        <v>0.280557</v>
+        <v>0.22639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.579875</v>
+        <v>0.518692</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273807</v>
+        <v>0.268736</v>
       </c>
       <c r="C102" t="n">
-        <v>0.615717</v>
+        <v>0.615725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662562</v>
+        <v>0.647833</v>
       </c>
       <c r="E102" t="n">
-        <v>0.280013</v>
+        <v>0.223012</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.515968</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266578</v>
+        <v>0.261876</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603787</v>
+        <v>0.60983</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653648</v>
+        <v>0.650462</v>
       </c>
       <c r="E103" t="n">
-        <v>0.278238</v>
+        <v>0.219837</v>
       </c>
       <c r="F103" t="n">
-        <v>0.593203</v>
+        <v>0.51232</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257815</v>
+        <v>0.256721</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595942</v>
+        <v>0.621861</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652152</v>
+        <v>0.654051</v>
       </c>
       <c r="E104" t="n">
-        <v>0.274804</v>
+        <v>0.21836</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593557</v>
+        <v>0.511752</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252926</v>
+        <v>0.248252</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592473</v>
+        <v>0.606989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660904</v>
+        <v>0.654264</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275296</v>
+        <v>0.212533</v>
       </c>
       <c r="F105" t="n">
-        <v>0.575989</v>
+        <v>0.504888</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242963</v>
+        <v>0.242636</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595069</v>
+        <v>0.602372</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650031</v>
+        <v>0.656459</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272821</v>
+        <v>0.208924</v>
       </c>
       <c r="F106" t="n">
-        <v>0.579021</v>
+        <v>0.499357</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236548</v>
+        <v>0.233571</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592303</v>
+        <v>0.585377</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64093</v>
+        <v>0.648599</v>
       </c>
       <c r="E107" t="n">
-        <v>0.271201</v>
+        <v>0.269923</v>
       </c>
       <c r="F107" t="n">
-        <v>0.574732</v>
+        <v>0.591303</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232917</v>
+        <v>0.230939</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583676</v>
+        <v>0.580922</v>
       </c>
       <c r="D108" t="n">
-        <v>0.639043</v>
+        <v>0.644296</v>
       </c>
       <c r="E108" t="n">
-        <v>0.299184</v>
+        <v>0.260905</v>
       </c>
       <c r="F108" t="n">
-        <v>0.590511</v>
+        <v>0.553796</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218503</v>
+        <v>0.216197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572013</v>
+        <v>0.574507</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654689</v>
+        <v>0.648474</v>
       </c>
       <c r="E109" t="n">
-        <v>0.298308</v>
+        <v>0.263365</v>
       </c>
       <c r="F109" t="n">
-        <v>0.596671</v>
+        <v>0.549635</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312123</v>
+        <v>0.309754</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649864</v>
+        <v>0.637715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642978</v>
+        <v>0.650905</v>
       </c>
       <c r="E110" t="n">
-        <v>0.297869</v>
+        <v>0.250014</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59002</v>
+        <v>0.545053</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309987</v>
+        <v>0.302906</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6421790000000001</v>
+        <v>0.633592</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64923</v>
+        <v>0.646055</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293777</v>
+        <v>0.246044</v>
       </c>
       <c r="F111" t="n">
-        <v>0.587091</v>
+        <v>0.536586</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30082</v>
+        <v>0.297115</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653259</v>
+        <v>0.629668</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638319</v>
+        <v>0.64945</v>
       </c>
       <c r="E112" t="n">
-        <v>0.291281</v>
+        <v>0.240637</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588464</v>
+        <v>0.537457</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295209</v>
+        <v>0.289984</v>
       </c>
       <c r="C113" t="n">
-        <v>0.639964</v>
+        <v>0.616215</v>
       </c>
       <c r="D113" t="n">
-        <v>0.655424</v>
+        <v>0.646602</v>
       </c>
       <c r="E113" t="n">
-        <v>0.286702</v>
+        <v>0.236277</v>
       </c>
       <c r="F113" t="n">
-        <v>0.594722</v>
+        <v>0.533849</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286116</v>
+        <v>0.284664</v>
       </c>
       <c r="C114" t="n">
-        <v>0.650413</v>
+        <v>0.615162</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6372060000000001</v>
+        <v>0.644888</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284187</v>
+        <v>0.231136</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580726</v>
+        <v>0.533893</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27774</v>
+        <v>0.277586</v>
       </c>
       <c r="C115" t="n">
-        <v>0.651716</v>
+        <v>0.650079</v>
       </c>
       <c r="D115" t="n">
-        <v>0.64276</v>
+        <v>0.646123</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282448</v>
+        <v>0.227551</v>
       </c>
       <c r="F115" t="n">
-        <v>0.579312</v>
+        <v>0.521808</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271004</v>
+        <v>0.270425</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607351</v>
+        <v>0.6054079999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638342</v>
+        <v>0.648321</v>
       </c>
       <c r="E116" t="n">
-        <v>0.280561</v>
+        <v>0.223744</v>
       </c>
       <c r="F116" t="n">
-        <v>0.581498</v>
+        <v>0.5189279999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263795</v>
+        <v>0.263142</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603174</v>
+        <v>0.596353</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645247</v>
+        <v>0.647968</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276881</v>
+        <v>0.219627</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5779</v>
+        <v>0.519402</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25716</v>
+        <v>0.25899</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619275</v>
+        <v>0.608291</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644781</v>
+        <v>0.650623</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280588</v>
+        <v>0.216712</v>
       </c>
       <c r="F118" t="n">
-        <v>0.574067</v>
+        <v>0.514747</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254869</v>
+        <v>0.250547</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607654</v>
+        <v>0.601587</v>
       </c>
       <c r="D119" t="n">
-        <v>0.646971</v>
+        <v>0.65899</v>
       </c>
       <c r="E119" t="n">
-        <v>0.276441</v>
+        <v>0.213597</v>
       </c>
       <c r="F119" t="n">
-        <v>0.57542</v>
+        <v>0.508081</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243039</v>
+        <v>0.243862</v>
       </c>
       <c r="C120" t="n">
-        <v>0.589903</v>
+        <v>0.582358</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651135</v>
+        <v>0.657016</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275331</v>
+        <v>0.210884</v>
       </c>
       <c r="F120" t="n">
-        <v>0.579938</v>
+        <v>0.501783</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237327</v>
+        <v>0.236408</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595574</v>
+        <v>0.616148</v>
       </c>
       <c r="D121" t="n">
-        <v>0.651915</v>
+        <v>0.6531709999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272683</v>
+        <v>0.266915</v>
       </c>
       <c r="F121" t="n">
-        <v>0.572082</v>
+        <v>0.556783</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230434</v>
+        <v>0.228143</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589827</v>
+        <v>0.601913</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654528</v>
+        <v>0.658192</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269805</v>
+        <v>0.263019</v>
       </c>
       <c r="F122" t="n">
-        <v>0.573076</v>
+        <v>0.55426</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218457</v>
+        <v>0.219433</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587803</v>
+        <v>0.5940530000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.654645</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295928</v>
+        <v>0.25605</v>
       </c>
       <c r="F123" t="n">
-        <v>0.596723</v>
+        <v>0.548881</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311869</v>
+        <v>0.309876</v>
       </c>
       <c r="C124" t="n">
-        <v>0.650271</v>
+        <v>0.638315</v>
       </c>
       <c r="D124" t="n">
-        <v>0.65085</v>
+        <v>0.65526</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292989</v>
+        <v>0.250531</v>
       </c>
       <c r="F124" t="n">
-        <v>0.586048</v>
+        <v>0.544645</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30801</v>
+        <v>0.304202</v>
       </c>
       <c r="C125" t="n">
-        <v>0.667609</v>
+        <v>0.658733</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6488699999999999</v>
+        <v>0.660289</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291511</v>
+        <v>0.24636</v>
       </c>
       <c r="F125" t="n">
-        <v>0.585518</v>
+        <v>0.540081</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301286</v>
+        <v>0.297498</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668079</v>
+        <v>0.659758</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648026</v>
+        <v>0.656434</v>
       </c>
       <c r="E126" t="n">
-        <v>0.288786</v>
+        <v>0.242025</v>
       </c>
       <c r="F126" t="n">
-        <v>0.595027</v>
+        <v>0.535714</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292728</v>
+        <v>0.291986</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657983</v>
+        <v>0.648824</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663915</v>
+        <v>0.651934</v>
       </c>
       <c r="E127" t="n">
-        <v>0.285445</v>
+        <v>0.236377</v>
       </c>
       <c r="F127" t="n">
-        <v>0.583172</v>
+        <v>0.531097</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.286681</v>
+        <v>0.285431</v>
       </c>
       <c r="C128" t="n">
-        <v>0.665812</v>
+        <v>0.646021</v>
       </c>
       <c r="D128" t="n">
-        <v>0.662971</v>
+        <v>0.656048</v>
       </c>
       <c r="E128" t="n">
-        <v>0.283172</v>
+        <v>0.232817</v>
       </c>
       <c r="F128" t="n">
-        <v>0.583195</v>
+        <v>0.528925</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278742</v>
+        <v>0.279896</v>
       </c>
       <c r="C129" t="n">
-        <v>0.633148</v>
+        <v>0.620066</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6465919999999999</v>
+        <v>0.654212</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281586</v>
+        <v>0.229497</v>
       </c>
       <c r="F129" t="n">
-        <v>0.578855</v>
+        <v>0.523259</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273493</v>
+        <v>0.272122</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63826</v>
+        <v>0.622455</v>
       </c>
       <c r="D130" t="n">
-        <v>0.648012</v>
+        <v>0.652366</v>
       </c>
       <c r="E130" t="n">
-        <v>0.282048</v>
+        <v>0.224578</v>
       </c>
       <c r="F130" t="n">
-        <v>0.578981</v>
+        <v>0.519604</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266834</v>
+        <v>0.264816</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605373</v>
+        <v>0.619551</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6493989999999999</v>
+        <v>0.652419</v>
       </c>
       <c r="E131" t="n">
-        <v>0.278165</v>
+        <v>0.219883</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57744</v>
+        <v>0.515312</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258825</v>
+        <v>0.259543</v>
       </c>
       <c r="C132" t="n">
-        <v>0.645172</v>
+        <v>0.635605</v>
       </c>
       <c r="D132" t="n">
-        <v>0.654556</v>
+        <v>0.655354</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277988</v>
+        <v>0.217307</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5769919999999999</v>
+        <v>0.511995</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253987</v>
+        <v>0.255569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.599088</v>
+        <v>0.58485</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652918</v>
+        <v>0.661348</v>
       </c>
       <c r="E133" t="n">
-        <v>0.275568</v>
+        <v>0.212736</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575194</v>
+        <v>0.5108470000000001</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244298</v>
+        <v>0.244218</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60891</v>
+        <v>0.5991379999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.652613</v>
+        <v>0.65922</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274651</v>
+        <v>0.210626</v>
       </c>
       <c r="F134" t="n">
-        <v>0.577515</v>
+        <v>0.506846</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237514</v>
+        <v>0.238211</v>
       </c>
       <c r="C135" t="n">
-        <v>0.602723</v>
+        <v>0.57737</v>
       </c>
       <c r="D135" t="n">
-        <v>0.656041</v>
+        <v>0.657614</v>
       </c>
       <c r="E135" t="n">
-        <v>0.273211</v>
+        <v>0.270422</v>
       </c>
       <c r="F135" t="n">
-        <v>0.576247</v>
+        <v>0.560843</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229254</v>
+        <v>0.228969</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599568</v>
+        <v>0.605638</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656501</v>
+        <v>0.6567</v>
       </c>
       <c r="E136" t="n">
-        <v>0.273552</v>
+        <v>0.262562</v>
       </c>
       <c r="F136" t="n">
-        <v>0.574039</v>
+        <v>0.5562510000000001</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.219711</v>
+        <v>0.219622</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580296</v>
+        <v>0.562501</v>
       </c>
       <c r="D137" t="n">
-        <v>0.647165</v>
+        <v>0.6554140000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.315944</v>
+        <v>0.256321</v>
       </c>
       <c r="F137" t="n">
-        <v>0.590372</v>
+        <v>0.554711</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313476</v>
+        <v>0.310364</v>
       </c>
       <c r="C138" t="n">
-        <v>0.640769</v>
+        <v>0.633804</v>
       </c>
       <c r="D138" t="n">
-        <v>0.665533</v>
+        <v>0.653049</v>
       </c>
       <c r="E138" t="n">
-        <v>0.292821</v>
+        <v>0.259534</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.547736</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312577</v>
+        <v>0.305363</v>
       </c>
       <c r="C139" t="n">
-        <v>0.665536</v>
+        <v>0.655713</v>
       </c>
       <c r="D139" t="n">
-        <v>0.651328</v>
+        <v>0.657161</v>
       </c>
       <c r="E139" t="n">
-        <v>0.290532</v>
+        <v>0.24592</v>
       </c>
       <c r="F139" t="n">
-        <v>0.586801</v>
+        <v>0.540757</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302959</v>
+        <v>0.298274</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62903</v>
+        <v>0.6190020000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.655913</v>
+        <v>0.653844</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288411</v>
+        <v>0.242602</v>
       </c>
       <c r="F140" t="n">
-        <v>0.58397</v>
+        <v>0.536672</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294927</v>
+        <v>0.291756</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623438</v>
+        <v>0.619879</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649264</v>
+        <v>0.655959</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286511</v>
+        <v>0.237036</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594562</v>
+        <v>0.531299</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289242</v>
+        <v>0.289599</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619502</v>
+        <v>0.6103730000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.658465</v>
+        <v>0.65576</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28691</v>
+        <v>0.234337</v>
       </c>
       <c r="F142" t="n">
-        <v>0.580527</v>
+        <v>0.530771</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.282289</v>
+        <v>0.282609</v>
       </c>
       <c r="C143" t="n">
-        <v>0.624497</v>
+        <v>0.616919</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6443140000000001</v>
+        <v>0.65607</v>
       </c>
       <c r="E143" t="n">
-        <v>0.283794</v>
+        <v>0.232337</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.528581</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252428</v>
+        <v>0.261408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52781</v>
+        <v>0.51585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537276</v>
+        <v>0.525885</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267945</v>
+        <v>0.197393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520455</v>
+        <v>0.446253</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241753</v>
+        <v>0.248947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520833</v>
+        <v>0.505454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534304</v>
+        <v>0.53342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257606</v>
+        <v>0.194427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52288</v>
+        <v>0.451043</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239487</v>
+        <v>0.251261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515636</v>
+        <v>0.503826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532927</v>
+        <v>0.521914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.257951</v>
+        <v>0.188336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.530872</v>
+        <v>0.442409</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233003</v>
+        <v>0.240304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516687</v>
+        <v>0.499181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535187</v>
+        <v>0.533493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.257768</v>
+        <v>0.188865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.512561</v>
+        <v>0.446026</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223577</v>
+        <v>0.235814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502808</v>
+        <v>0.494761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533683</v>
+        <v>0.523024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.256549</v>
+        <v>0.184205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51589</v>
+        <v>0.436677</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218109</v>
+        <v>0.227551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494135</v>
+        <v>0.49603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.532998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255817</v>
+        <v>0.181858</v>
       </c>
       <c r="F7" t="n">
-        <v>0.516205</v>
+        <v>0.433662</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21333</v>
+        <v>0.215897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501547</v>
+        <v>0.484376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541099</v>
+        <v>0.531986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255988</v>
+        <v>0.180224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.511623</v>
+        <v>0.433942</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201504</v>
+        <v>0.208233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478511</v>
+        <v>0.484476</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539085</v>
+        <v>0.531519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270637</v>
+        <v>0.229838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523956</v>
+        <v>0.472405</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291965</v>
+        <v>0.306192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54649</v>
+        <v>0.552006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541981</v>
+        <v>0.531888</v>
       </c>
       <c r="E10" t="n">
-        <v>0.270913</v>
+        <v>0.227743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.525517</v>
+        <v>0.477269</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288323</v>
+        <v>0.298686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.542883</v>
+        <v>0.535122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.539214</v>
+        <v>0.53233</v>
       </c>
       <c r="E11" t="n">
-        <v>0.269458</v>
+        <v>0.220524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523726</v>
+        <v>0.482436</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283681</v>
+        <v>0.293208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541216</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.548206</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266955</v>
+        <v>0.216348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.534187</v>
+        <v>0.461639</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279081</v>
+        <v>0.288932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.528521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54037</v>
+        <v>0.531622</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265164</v>
+        <v>0.211861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52457</v>
+        <v>0.457784</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274928</v>
+        <v>0.28227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530776</v>
+        <v>0.5209859999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.539595</v>
+        <v>0.5284799999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26581</v>
+        <v>0.210795</v>
       </c>
       <c r="F14" t="n">
-        <v>0.521443</v>
+        <v>0.456607</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263171</v>
+        <v>0.276222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524521</v>
+        <v>0.518641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529278</v>
+        <v>0.527367</v>
       </c>
       <c r="E15" t="n">
-        <v>0.262552</v>
+        <v>0.205512</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.45412</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256792</v>
+        <v>0.268311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521418</v>
+        <v>0.517611</v>
       </c>
       <c r="D16" t="n">
-        <v>0.523187</v>
+        <v>0.525815</v>
       </c>
       <c r="E16" t="n">
-        <v>0.261859</v>
+        <v>0.203082</v>
       </c>
       <c r="F16" t="n">
-        <v>0.519783</v>
+        <v>0.450071</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251242</v>
+        <v>0.262513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.516529</v>
+        <v>0.52084</v>
       </c>
       <c r="D17" t="n">
-        <v>0.540484</v>
+        <v>0.538373</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266601</v>
+        <v>0.199283</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52826</v>
+        <v>0.445083</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248302</v>
+        <v>0.256998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.528056</v>
+        <v>0.505185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.527291</v>
+        <v>0.524774</v>
       </c>
       <c r="E18" t="n">
-        <v>0.257797</v>
+        <v>0.196072</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512462</v>
+        <v>0.441476</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236978</v>
+        <v>0.251619</v>
       </c>
       <c r="C19" t="n">
-        <v>0.50178</v>
+        <v>0.496994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538364</v>
+        <v>0.527468</v>
       </c>
       <c r="E19" t="n">
-        <v>0.262355</v>
+        <v>0.192489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.511066</v>
+        <v>0.440278</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231188</v>
+        <v>0.244767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.509908</v>
+        <v>0.493392</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526325</v>
+        <v>0.524911</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257438</v>
+        <v>0.191504</v>
       </c>
       <c r="F20" t="n">
-        <v>0.520529</v>
+        <v>0.439406</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229585</v>
+        <v>0.234552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498746</v>
+        <v>0.494965</v>
       </c>
       <c r="D21" t="n">
-        <v>0.546269</v>
+        <v>0.5449580000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261979</v>
+        <v>0.191355</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5128779999999999</v>
+        <v>0.439018</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216764</v>
+        <v>0.225789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497511</v>
+        <v>0.483423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.54483</v>
+        <v>0.543277</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256668</v>
+        <v>0.184125</v>
       </c>
       <c r="F22" t="n">
-        <v>0.515745</v>
+        <v>0.431378</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21356</v>
+        <v>0.217053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493426</v>
+        <v>0.471268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531631</v>
+        <v>0.5352440000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.271209</v>
+        <v>0.233577</v>
       </c>
       <c r="F23" t="n">
-        <v>0.519168</v>
+        <v>0.472613</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.291109</v>
+        <v>0.302568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545308</v>
+        <v>0.535312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539629</v>
+        <v>0.534807</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272674</v>
+        <v>0.228591</v>
       </c>
       <c r="F24" t="n">
-        <v>0.544932</v>
+        <v>0.469088</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285705</v>
+        <v>0.301233</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.533188</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552594</v>
+        <v>0.53365</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269714</v>
+        <v>0.225956</v>
       </c>
       <c r="F25" t="n">
-        <v>0.518417</v>
+        <v>0.467358</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28404</v>
+        <v>0.294079</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543013</v>
+        <v>0.531761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.527687</v>
+        <v>0.535353</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270937</v>
+        <v>0.220316</v>
       </c>
       <c r="F26" t="n">
-        <v>0.518662</v>
+        <v>0.463255</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28453</v>
+        <v>0.286897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538207</v>
+        <v>0.5272829999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534228</v>
+        <v>0.534335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268592</v>
+        <v>0.217038</v>
       </c>
       <c r="F27" t="n">
-        <v>0.512971</v>
+        <v>0.459505</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270584</v>
+        <v>0.282483</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532612</v>
+        <v>0.529627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.535366</v>
       </c>
       <c r="E28" t="n">
-        <v>0.268494</v>
+        <v>0.213372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.522859</v>
+        <v>0.456587</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270388</v>
+        <v>0.275901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52903</v>
+        <v>0.517842</v>
       </c>
       <c r="D29" t="n">
-        <v>0.535377</v>
+        <v>0.538991</v>
       </c>
       <c r="E29" t="n">
-        <v>0.265154</v>
+        <v>0.210869</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5160169999999999</v>
+        <v>0.45378</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265661</v>
+        <v>0.269378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535227</v>
+        <v>0.516394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.533727</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26483</v>
+        <v>0.207521</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521811</v>
+        <v>0.459133</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256184</v>
+        <v>0.263483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520594</v>
+        <v>0.507408</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535431</v>
+        <v>0.53127</v>
       </c>
       <c r="E31" t="n">
-        <v>0.263411</v>
+        <v>0.203422</v>
       </c>
       <c r="F31" t="n">
-        <v>0.511521</v>
+        <v>0.451166</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248558</v>
+        <v>0.257512</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519845</v>
+        <v>0.507596</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533465</v>
+        <v>0.5344</v>
       </c>
       <c r="E32" t="n">
-        <v>0.269047</v>
+        <v>0.204196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.514757</v>
+        <v>0.447882</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242564</v>
+        <v>0.256284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515693</v>
+        <v>0.4991</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540442</v>
+        <v>0.532837</v>
       </c>
       <c r="E33" t="n">
-        <v>0.261169</v>
+        <v>0.198012</v>
       </c>
       <c r="F33" t="n">
-        <v>0.516575</v>
+        <v>0.44378</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240611</v>
+        <v>0.247011</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51174</v>
+        <v>0.49844</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5347420000000001</v>
+        <v>0.5329199999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.259858</v>
+        <v>0.193849</v>
       </c>
       <c r="F34" t="n">
-        <v>0.508845</v>
+        <v>0.441269</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228465</v>
+        <v>0.236249</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497673</v>
+        <v>0.492178</v>
       </c>
       <c r="D35" t="n">
-        <v>0.553582</v>
+        <v>0.562937</v>
       </c>
       <c r="E35" t="n">
-        <v>0.259117</v>
+        <v>0.193271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.505726</v>
+        <v>0.438905</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225613</v>
+        <v>0.227996</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499722</v>
+        <v>0.483517</v>
       </c>
       <c r="D36" t="n">
-        <v>0.554043</v>
+        <v>0.550361</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258172</v>
+        <v>0.188844</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514942</v>
+        <v>0.43271</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213727</v>
+        <v>0.220497</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490636</v>
+        <v>0.479179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548243</v>
+        <v>0.551526</v>
       </c>
       <c r="E37" t="n">
-        <v>0.275828</v>
+        <v>0.239576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.527677</v>
+        <v>0.479005</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296596</v>
+        <v>0.306703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554775</v>
+        <v>0.543619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54377</v>
+        <v>0.546237</v>
       </c>
       <c r="E38" t="n">
-        <v>0.274018</v>
+        <v>0.235029</v>
       </c>
       <c r="F38" t="n">
-        <v>0.518694</v>
+        <v>0.475435</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289029</v>
+        <v>0.301636</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553021</v>
+        <v>0.549171</v>
       </c>
       <c r="D39" t="n">
-        <v>0.552193</v>
+        <v>0.5460390000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287422</v>
+        <v>0.230645</v>
       </c>
       <c r="F39" t="n">
-        <v>0.527864</v>
+        <v>0.471855</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291025</v>
+        <v>0.296764</v>
       </c>
       <c r="C40" t="n">
-        <v>0.552304</v>
+        <v>0.541529</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5552240000000001</v>
+        <v>0.551823</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272086</v>
+        <v>0.224841</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.471813</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280323</v>
+        <v>0.292811</v>
       </c>
       <c r="C41" t="n">
-        <v>0.544975</v>
+        <v>0.533556</v>
       </c>
       <c r="D41" t="n">
-        <v>0.559289</v>
+        <v>0.549856</v>
       </c>
       <c r="E41" t="n">
-        <v>0.276376</v>
+        <v>0.220689</v>
       </c>
       <c r="F41" t="n">
-        <v>0.519661</v>
+        <v>0.466653</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.273861</v>
+        <v>0.286576</v>
       </c>
       <c r="C42" t="n">
-        <v>0.539541</v>
+        <v>0.532084</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554874</v>
+        <v>0.55533</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268665</v>
+        <v>0.218168</v>
       </c>
       <c r="F42" t="n">
-        <v>0.519178</v>
+        <v>0.459126</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.269765</v>
+        <v>0.280523</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53271</v>
+        <v>0.524857</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558514</v>
+        <v>0.571778</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267936</v>
+        <v>0.21596</v>
       </c>
       <c r="F43" t="n">
-        <v>0.520994</v>
+        <v>0.462652</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263644</v>
+        <v>0.27422</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5376</v>
+        <v>0.5250089999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562559</v>
+        <v>0.566353</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269958</v>
+        <v>0.211532</v>
       </c>
       <c r="F44" t="n">
-        <v>0.523326</v>
+        <v>0.457603</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259849</v>
+        <v>0.267046</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539801</v>
+        <v>0.5235919999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56136</v>
+        <v>0.569788</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267062</v>
+        <v>0.208106</v>
       </c>
       <c r="F45" t="n">
-        <v>0.524771</v>
+        <v>0.455136</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253945</v>
+        <v>0.261771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5232290000000001</v>
+        <v>0.516327</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567245</v>
+        <v>0.565001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.263515</v>
+        <v>0.204712</v>
       </c>
       <c r="F46" t="n">
-        <v>0.517921</v>
+        <v>0.450577</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244157</v>
+        <v>0.254284</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529213</v>
+        <v>0.5067390000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5729610000000001</v>
+        <v>0.560607</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264378</v>
+        <v>0.201245</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521895</v>
+        <v>0.44971</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240725</v>
+        <v>0.250949</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527589</v>
+        <v>0.515066</v>
       </c>
       <c r="D48" t="n">
-        <v>0.556323</v>
+        <v>0.568593</v>
       </c>
       <c r="E48" t="n">
-        <v>0.261513</v>
+        <v>0.199685</v>
       </c>
       <c r="F48" t="n">
-        <v>0.511731</v>
+        <v>0.450991</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235345</v>
+        <v>0.24246</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509695</v>
+        <v>0.499584</v>
       </c>
       <c r="D49" t="n">
-        <v>0.579402</v>
+        <v>0.572851</v>
       </c>
       <c r="E49" t="n">
-        <v>0.260313</v>
+        <v>0.19557</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513276</v>
+        <v>0.441971</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223386</v>
+        <v>0.232053</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5060170000000001</v>
+        <v>0.500092</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623855</v>
+        <v>0.633833</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266707</v>
+        <v>0.192625</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5181789999999999</v>
+        <v>0.441613</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217102</v>
+        <v>0.224209</v>
       </c>
       <c r="C51" t="n">
-        <v>0.514997</v>
+        <v>0.490397</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62001</v>
+        <v>0.633185</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282858</v>
+        <v>0.246267</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545146</v>
+        <v>0.499545</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208301</v>
+        <v>0.214288</v>
       </c>
       <c r="C52" t="n">
-        <v>0.515859</v>
+        <v>0.482942</v>
       </c>
       <c r="D52" t="n">
-        <v>0.630562</v>
+        <v>0.632424</v>
       </c>
       <c r="E52" t="n">
-        <v>0.280347</v>
+        <v>0.24178</v>
       </c>
       <c r="F52" t="n">
-        <v>0.552468</v>
+        <v>0.495973</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299862</v>
+        <v>0.309493</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585694</v>
+        <v>0.582654</v>
       </c>
       <c r="D53" t="n">
-        <v>0.637433</v>
+        <v>0.6384379999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290281</v>
+        <v>0.237789</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.492883</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295584</v>
+        <v>0.306181</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578973</v>
+        <v>0.578418</v>
       </c>
       <c r="D54" t="n">
-        <v>0.634077</v>
+        <v>0.63878</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278832</v>
+        <v>0.233593</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54138</v>
+        <v>0.479197</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293541</v>
+        <v>0.30082</v>
       </c>
       <c r="C55" t="n">
-        <v>0.559346</v>
+        <v>0.55548</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636571</v>
+        <v>0.6400130000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276463</v>
+        <v>0.228609</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542526</v>
+        <v>0.479538</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280583</v>
+        <v>0.292892</v>
       </c>
       <c r="C56" t="n">
-        <v>0.592188</v>
+        <v>0.576344</v>
       </c>
       <c r="D56" t="n">
-        <v>0.643303</v>
+        <v>0.6433449999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282164</v>
+        <v>0.223256</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533782</v>
+        <v>0.481393</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275822</v>
+        <v>0.286934</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587295</v>
+        <v>0.550037</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651394</v>
+        <v>0.6455149999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276601</v>
+        <v>0.220961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5326880000000001</v>
+        <v>0.472007</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269463</v>
+        <v>0.28244</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565902</v>
+        <v>0.5719880000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638907</v>
+        <v>0.6462909999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.271959</v>
+        <v>0.216612</v>
       </c>
       <c r="F58" t="n">
-        <v>0.545651</v>
+        <v>0.479434</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263815</v>
+        <v>0.283072</v>
       </c>
       <c r="C59" t="n">
-        <v>0.562042</v>
+        <v>0.551061</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646</v>
+        <v>0.66721</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271118</v>
+        <v>0.214769</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5374949999999999</v>
+        <v>0.464384</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258618</v>
+        <v>0.267063</v>
       </c>
       <c r="C60" t="n">
-        <v>0.587511</v>
+        <v>0.544637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.649829</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272962</v>
+        <v>0.21034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.532199</v>
+        <v>0.463303</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255074</v>
+        <v>0.259223</v>
       </c>
       <c r="C61" t="n">
-        <v>0.552271</v>
+        <v>0.547262</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643655</v>
+        <v>0.6509239999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.267614</v>
+        <v>0.206607</v>
       </c>
       <c r="F61" t="n">
-        <v>0.540666</v>
+        <v>0.47713</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244392</v>
+        <v>0.255071</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.561683</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651286</v>
+        <v>0.653423</v>
       </c>
       <c r="E62" t="n">
-        <v>0.267185</v>
+        <v>0.202291</v>
       </c>
       <c r="F62" t="n">
-        <v>0.534765</v>
+        <v>0.474822</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235993</v>
+        <v>0.246564</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543773</v>
+        <v>0.548791</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652265</v>
+        <v>0.654356</v>
       </c>
       <c r="E63" t="n">
-        <v>0.265805</v>
+        <v>0.19963</v>
       </c>
       <c r="F63" t="n">
-        <v>0.534278</v>
+        <v>0.457109</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234758</v>
+        <v>0.238594</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572811</v>
+        <v>0.524901</v>
       </c>
       <c r="D64" t="n">
-        <v>0.711903</v>
+        <v>0.7107830000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264937</v>
+        <v>0.197256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543152</v>
+        <v>0.466899</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221176</v>
+        <v>0.230124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5467649999999999</v>
+        <v>0.542358</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706499</v>
+        <v>0.709078</v>
       </c>
       <c r="E65" t="n">
-        <v>0.26618</v>
+        <v>0.193953</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543125</v>
+        <v>0.458243</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214181</v>
+        <v>0.220523</v>
       </c>
       <c r="C66" t="n">
-        <v>0.546264</v>
+        <v>0.513081</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706517</v>
+        <v>0.706275</v>
       </c>
       <c r="E66" t="n">
-        <v>0.288667</v>
+        <v>0.252382</v>
       </c>
       <c r="F66" t="n">
-        <v>0.564885</v>
+        <v>0.512552</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313638</v>
+        <v>0.320407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633974</v>
+        <v>0.61082</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.699671</v>
       </c>
       <c r="E67" t="n">
-        <v>0.287813</v>
+        <v>0.25438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.571711</v>
+        <v>0.506046</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303204</v>
+        <v>0.319636</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609367</v>
+        <v>0.598572</v>
       </c>
       <c r="D68" t="n">
-        <v>0.696963</v>
+        <v>0.702077</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285082</v>
+        <v>0.240534</v>
       </c>
       <c r="F68" t="n">
-        <v>0.562599</v>
+        <v>0.500769</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301536</v>
+        <v>0.307187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615779</v>
+        <v>0.5928600000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714131</v>
+        <v>0.693511</v>
       </c>
       <c r="E69" t="n">
-        <v>0.282616</v>
+        <v>0.240405</v>
       </c>
       <c r="F69" t="n">
-        <v>0.562096</v>
+        <v>0.500611</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297524</v>
+        <v>0.309653</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606702</v>
+        <v>0.597332</v>
       </c>
       <c r="D70" t="n">
-        <v>0.704313</v>
+        <v>0.691949</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283966</v>
+        <v>0.235496</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56472</v>
+        <v>0.497959</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287319</v>
+        <v>0.29747</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612077</v>
+        <v>0.595323</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690673</v>
+        <v>0.688955</v>
       </c>
       <c r="E71" t="n">
-        <v>0.282834</v>
+        <v>0.227237</v>
       </c>
       <c r="F71" t="n">
-        <v>0.555525</v>
+        <v>0.496738</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275131</v>
+        <v>0.288009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602346</v>
+        <v>0.597498</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694679</v>
+        <v>0.687339</v>
       </c>
       <c r="E72" t="n">
-        <v>0.279482</v>
+        <v>0.222642</v>
       </c>
       <c r="F72" t="n">
-        <v>0.549561</v>
+        <v>0.488697</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272818</v>
+        <v>0.280221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.609256</v>
+        <v>0.584136</v>
       </c>
       <c r="D73" t="n">
-        <v>0.69179</v>
+        <v>0.693793</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275693</v>
+        <v>0.221397</v>
       </c>
       <c r="F73" t="n">
-        <v>0.551518</v>
+        <v>0.483556</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264842</v>
+        <v>0.273966</v>
       </c>
       <c r="C74" t="n">
-        <v>0.601481</v>
+        <v>0.582792</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690885</v>
+        <v>0.689062</v>
       </c>
       <c r="E74" t="n">
-        <v>0.272852</v>
+        <v>0.217544</v>
       </c>
       <c r="F74" t="n">
-        <v>0.551828</v>
+        <v>0.484926</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260613</v>
+        <v>0.270052</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5916670000000001</v>
+        <v>0.581636</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685411</v>
+        <v>0.691675</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274534</v>
+        <v>0.211766</v>
       </c>
       <c r="F75" t="n">
-        <v>0.547969</v>
+        <v>0.486089</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252496</v>
+        <v>0.263064</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592786</v>
+        <v>0.5736869999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684873</v>
+        <v>0.686075</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272621</v>
+        <v>0.211807</v>
       </c>
       <c r="F76" t="n">
-        <v>0.551218</v>
+        <v>0.482891</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242901</v>
+        <v>0.259427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.577442</v>
+        <v>0.570117</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685689</v>
+        <v>0.688937</v>
       </c>
       <c r="E77" t="n">
-        <v>0.270924</v>
+        <v>0.207057</v>
       </c>
       <c r="F77" t="n">
-        <v>0.548629</v>
+        <v>0.478579</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237388</v>
+        <v>0.248132</v>
       </c>
       <c r="C78" t="n">
-        <v>0.582695</v>
+        <v>0.563786</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751999</v>
+        <v>0.74355</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274921</v>
+        <v>0.207088</v>
       </c>
       <c r="F78" t="n">
-        <v>0.548959</v>
+        <v>0.472724</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.227139</v>
+        <v>0.236481</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57211</v>
+        <v>0.557872</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7675110000000001</v>
+        <v>0.73812</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270117</v>
+        <v>0.201005</v>
       </c>
       <c r="F79" t="n">
-        <v>0.549296</v>
+        <v>0.472167</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224023</v>
+        <v>0.228034</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558833</v>
+        <v>0.5460120000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.749897</v>
+        <v>0.738322</v>
       </c>
       <c r="E80" t="n">
-        <v>0.300635</v>
+        <v>0.259021</v>
       </c>
       <c r="F80" t="n">
-        <v>0.560791</v>
+        <v>0.518336</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313972</v>
+        <v>0.326216</v>
       </c>
       <c r="C81" t="n">
-        <v>0.620448</v>
+        <v>0.617459</v>
       </c>
       <c r="D81" t="n">
-        <v>0.744188</v>
+        <v>0.730079</v>
       </c>
       <c r="E81" t="n">
-        <v>0.292512</v>
+        <v>0.252965</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563545</v>
+        <v>0.513004</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311989</v>
+        <v>0.319974</v>
       </c>
       <c r="C82" t="n">
-        <v>0.619408</v>
+        <v>0.617386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736633</v>
+        <v>0.7252150000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291396</v>
+        <v>0.247129</v>
       </c>
       <c r="F82" t="n">
-        <v>0.565435</v>
+        <v>0.505906</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304751</v>
+        <v>0.313495</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609569</v>
+        <v>0.609909</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734688</v>
+        <v>0.719794</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29151</v>
+        <v>0.250753</v>
       </c>
       <c r="F83" t="n">
-        <v>0.564877</v>
+        <v>0.504972</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298381</v>
+        <v>0.308466</v>
       </c>
       <c r="C84" t="n">
-        <v>0.642572</v>
+        <v>0.649017</v>
       </c>
       <c r="D84" t="n">
-        <v>0.75924</v>
+        <v>0.753603</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287901</v>
+        <v>0.239389</v>
       </c>
       <c r="F84" t="n">
-        <v>0.582642</v>
+        <v>0.537768</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29034</v>
+        <v>0.302592</v>
       </c>
       <c r="C85" t="n">
-        <v>0.63976</v>
+        <v>0.644555</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763406</v>
+        <v>0.755145</v>
       </c>
       <c r="E85" t="n">
-        <v>0.287354</v>
+        <v>0.233668</v>
       </c>
       <c r="F85" t="n">
-        <v>0.588175</v>
+        <v>0.533321</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285138</v>
+        <v>0.29728</v>
       </c>
       <c r="C86" t="n">
-        <v>0.645832</v>
+        <v>0.644939</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747682</v>
+        <v>0.751565</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281245</v>
+        <v>0.228934</v>
       </c>
       <c r="F86" t="n">
-        <v>0.589171</v>
+        <v>0.525578</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277268</v>
+        <v>0.290656</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6333220000000001</v>
+        <v>0.642917</v>
       </c>
       <c r="D87" t="n">
-        <v>0.759211</v>
+        <v>0.748578</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280263</v>
+        <v>0.224905</v>
       </c>
       <c r="F87" t="n">
-        <v>0.58844</v>
+        <v>0.52198</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270323</v>
+        <v>0.280742</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630393</v>
+        <v>0.635204</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765133</v>
+        <v>0.744714</v>
       </c>
       <c r="E88" t="n">
-        <v>0.281193</v>
+        <v>0.221202</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587555</v>
+        <v>0.5189319999999999</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263952</v>
+        <v>0.272878</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606996</v>
+        <v>0.619216</v>
       </c>
       <c r="D89" t="n">
-        <v>0.754674</v>
+        <v>0.745958</v>
       </c>
       <c r="E89" t="n">
-        <v>0.278012</v>
+        <v>0.216643</v>
       </c>
       <c r="F89" t="n">
-        <v>0.581489</v>
+        <v>0.514713</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258643</v>
+        <v>0.265458</v>
       </c>
       <c r="C90" t="n">
-        <v>0.608088</v>
+        <v>0.6160600000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.747521</v>
+        <v>0.743799</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275484</v>
+        <v>0.213129</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576953</v>
+        <v>0.512554</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253704</v>
+        <v>0.259115</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597394</v>
+        <v>0.606329</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742818</v>
+        <v>0.744457</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2762</v>
+        <v>0.209491</v>
       </c>
       <c r="F91" t="n">
-        <v>0.574574</v>
+        <v>0.512448</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240973</v>
+        <v>0.250934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599353</v>
+        <v>0.596594</v>
       </c>
       <c r="D92" t="n">
-        <v>0.665036</v>
+        <v>0.65338</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272295</v>
+        <v>0.20432</v>
       </c>
       <c r="F92" t="n">
-        <v>0.582341</v>
+        <v>0.50451</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.235508</v>
+        <v>0.240781</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597434</v>
+        <v>0.588461</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656228</v>
+        <v>0.654709</v>
       </c>
       <c r="E93" t="n">
-        <v>0.275453</v>
+        <v>0.201339</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5763779999999999</v>
+        <v>0.501352</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223989</v>
+        <v>0.231075</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5871420000000001</v>
+        <v>0.5834279999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65039</v>
+        <v>0.650878</v>
       </c>
       <c r="E94" t="n">
-        <v>0.300038</v>
+        <v>0.260082</v>
       </c>
       <c r="F94" t="n">
-        <v>0.586515</v>
+        <v>0.555487</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319416</v>
+        <v>0.328942</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650959</v>
+        <v>0.641433</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663803</v>
+        <v>0.65319</v>
       </c>
       <c r="E95" t="n">
-        <v>0.294746</v>
+        <v>0.261437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.587056</v>
+        <v>0.552194</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313388</v>
+        <v>0.321822</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640787</v>
+        <v>0.635306</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658907</v>
+        <v>0.648861</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292177</v>
+        <v>0.250155</v>
       </c>
       <c r="F96" t="n">
-        <v>0.594705</v>
+        <v>0.5446299999999999</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305577</v>
+        <v>0.316017</v>
       </c>
       <c r="C97" t="n">
-        <v>0.636409</v>
+        <v>0.632135</v>
       </c>
       <c r="D97" t="n">
-        <v>0.651955</v>
+        <v>0.649961</v>
       </c>
       <c r="E97" t="n">
-        <v>0.291108</v>
+        <v>0.243918</v>
       </c>
       <c r="F97" t="n">
-        <v>0.590348</v>
+        <v>0.539887</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299655</v>
+        <v>0.312349</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630752</v>
+        <v>0.624882</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643666</v>
+        <v>0.648735</v>
       </c>
       <c r="E98" t="n">
-        <v>0.287753</v>
+        <v>0.239994</v>
       </c>
       <c r="F98" t="n">
-        <v>0.588172</v>
+        <v>0.53515</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291279</v>
+        <v>0.303179</v>
       </c>
       <c r="C99" t="n">
-        <v>0.624873</v>
+        <v>0.622048</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651809</v>
+        <v>0.649101</v>
       </c>
       <c r="E99" t="n">
-        <v>0.284633</v>
+        <v>0.235048</v>
       </c>
       <c r="F99" t="n">
-        <v>0.601116</v>
+        <v>0.53448</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284306</v>
+        <v>0.297858</v>
       </c>
       <c r="C100" t="n">
-        <v>0.620906</v>
+        <v>0.646929</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641115</v>
+        <v>0.646947</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28303</v>
+        <v>0.231195</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5887559999999999</v>
+        <v>0.5258429999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277243</v>
+        <v>0.288666</v>
       </c>
       <c r="C101" t="n">
-        <v>0.620957</v>
+        <v>0.638415</v>
       </c>
       <c r="D101" t="n">
-        <v>0.647844</v>
+        <v>0.652141</v>
       </c>
       <c r="E101" t="n">
-        <v>0.280557</v>
+        <v>0.22627</v>
       </c>
       <c r="F101" t="n">
-        <v>0.579875</v>
+        <v>0.525411</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273807</v>
+        <v>0.282876</v>
       </c>
       <c r="C102" t="n">
-        <v>0.615717</v>
+        <v>0.6429589999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662562</v>
+        <v>0.648388</v>
       </c>
       <c r="E102" t="n">
-        <v>0.280013</v>
+        <v>0.22123</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.5235379999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266578</v>
+        <v>0.274689</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603787</v>
+        <v>0.630257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653648</v>
+        <v>0.652639</v>
       </c>
       <c r="E103" t="n">
-        <v>0.278238</v>
+        <v>0.217642</v>
       </c>
       <c r="F103" t="n">
-        <v>0.593203</v>
+        <v>0.5158430000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257815</v>
+        <v>0.267675</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595942</v>
+        <v>0.595783</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652152</v>
+        <v>0.659005</v>
       </c>
       <c r="E104" t="n">
-        <v>0.274804</v>
+        <v>0.214948</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593557</v>
+        <v>0.513478</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252926</v>
+        <v>0.258908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592473</v>
+        <v>0.588052</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660904</v>
+        <v>0.6613560000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275296</v>
+        <v>0.210714</v>
       </c>
       <c r="F105" t="n">
-        <v>0.575989</v>
+        <v>0.508865</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242963</v>
+        <v>0.249894</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595069</v>
+        <v>0.584144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650031</v>
+        <v>0.657046</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272821</v>
+        <v>0.20544</v>
       </c>
       <c r="F106" t="n">
-        <v>0.579021</v>
+        <v>0.508185</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236548</v>
+        <v>0.243285</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592303</v>
+        <v>0.595911</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64093</v>
+        <v>0.6464839999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.271201</v>
+        <v>0.20404</v>
       </c>
       <c r="F107" t="n">
-        <v>0.574732</v>
+        <v>0.501858</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232917</v>
+        <v>0.234218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583676</v>
+        <v>0.585365</v>
       </c>
       <c r="D108" t="n">
-        <v>0.639043</v>
+        <v>0.645753</v>
       </c>
       <c r="E108" t="n">
-        <v>0.299184</v>
+        <v>0.261208</v>
       </c>
       <c r="F108" t="n">
-        <v>0.590511</v>
+        <v>0.557627</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218503</v>
+        <v>0.223205</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572013</v>
+        <v>0.575453</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654689</v>
+        <v>0.644415</v>
       </c>
       <c r="E109" t="n">
-        <v>0.298308</v>
+        <v>0.261234</v>
       </c>
       <c r="F109" t="n">
-        <v>0.596671</v>
+        <v>0.55162</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312123</v>
+        <v>0.324343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649864</v>
+        <v>0.630472</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642978</v>
+        <v>0.643611</v>
       </c>
       <c r="E110" t="n">
-        <v>0.297869</v>
+        <v>0.251892</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59002</v>
+        <v>0.5488229999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309987</v>
+        <v>0.320699</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6421790000000001</v>
+        <v>0.6244960000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64923</v>
+        <v>0.645348</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293777</v>
+        <v>0.245744</v>
       </c>
       <c r="F111" t="n">
-        <v>0.587091</v>
+        <v>0.545145</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30082</v>
+        <v>0.313234</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653259</v>
+        <v>0.658581</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638319</v>
+        <v>0.6491440000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.291281</v>
+        <v>0.240695</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588464</v>
+        <v>0.537349</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295209</v>
+        <v>0.304046</v>
       </c>
       <c r="C113" t="n">
-        <v>0.639964</v>
+        <v>0.656269</v>
       </c>
       <c r="D113" t="n">
-        <v>0.655424</v>
+        <v>0.64684</v>
       </c>
       <c r="E113" t="n">
-        <v>0.286702</v>
+        <v>0.236695</v>
       </c>
       <c r="F113" t="n">
-        <v>0.594722</v>
+        <v>0.53857</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286116</v>
+        <v>0.298623</v>
       </c>
       <c r="C114" t="n">
-        <v>0.650413</v>
+        <v>0.648849</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6372060000000001</v>
+        <v>0.650412</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284187</v>
+        <v>0.230176</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580726</v>
+        <v>0.5269</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27774</v>
+        <v>0.290091</v>
       </c>
       <c r="C115" t="n">
-        <v>0.651716</v>
+        <v>0.649908</v>
       </c>
       <c r="D115" t="n">
-        <v>0.64276</v>
+        <v>0.648127</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282448</v>
+        <v>0.227196</v>
       </c>
       <c r="F115" t="n">
-        <v>0.579312</v>
+        <v>0.524438</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271004</v>
+        <v>0.282652</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607351</v>
+        <v>0.637</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638342</v>
+        <v>0.650791</v>
       </c>
       <c r="E116" t="n">
-        <v>0.280561</v>
+        <v>0.221732</v>
       </c>
       <c r="F116" t="n">
-        <v>0.581498</v>
+        <v>0.524197</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263795</v>
+        <v>0.277155</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603174</v>
+        <v>0.629511</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645247</v>
+        <v>0.6483950000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276881</v>
+        <v>0.218815</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5779</v>
+        <v>0.5248119999999999</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25716</v>
+        <v>0.269187</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619275</v>
+        <v>0.6196700000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644781</v>
+        <v>0.6495300000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280588</v>
+        <v>0.215956</v>
       </c>
       <c r="F118" t="n">
-        <v>0.574067</v>
+        <v>0.515641</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254869</v>
+        <v>0.260745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607654</v>
+        <v>0.621092</v>
       </c>
       <c r="D119" t="n">
-        <v>0.646971</v>
+        <v>0.656269</v>
       </c>
       <c r="E119" t="n">
-        <v>0.276441</v>
+        <v>0.209935</v>
       </c>
       <c r="F119" t="n">
-        <v>0.57542</v>
+        <v>0.5114880000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243039</v>
+        <v>0.253771</v>
       </c>
       <c r="C120" t="n">
-        <v>0.589903</v>
+        <v>0.596432</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651135</v>
+        <v>0.653015</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275331</v>
+        <v>0.208469</v>
       </c>
       <c r="F120" t="n">
-        <v>0.579938</v>
+        <v>0.506487</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237327</v>
+        <v>0.244331</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595574</v>
+        <v>0.592055</v>
       </c>
       <c r="D121" t="n">
-        <v>0.651915</v>
+        <v>0.655655</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272683</v>
+        <v>0.203665</v>
       </c>
       <c r="F121" t="n">
-        <v>0.572082</v>
+        <v>0.501536</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230434</v>
+        <v>0.234478</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589827</v>
+        <v>0.5777409999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654528</v>
+        <v>0.658099</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269805</v>
+        <v>0.202827</v>
       </c>
       <c r="F122" t="n">
-        <v>0.573076</v>
+        <v>0.497873</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218457</v>
+        <v>0.225709</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587803</v>
+        <v>0.576532</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.659736</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295928</v>
+        <v>0.258558</v>
       </c>
       <c r="F123" t="n">
-        <v>0.596723</v>
+        <v>0.552439</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311869</v>
+        <v>0.323421</v>
       </c>
       <c r="C124" t="n">
-        <v>0.650271</v>
+        <v>0.631361</v>
       </c>
       <c r="D124" t="n">
-        <v>0.65085</v>
+        <v>0.657969</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292989</v>
+        <v>0.251815</v>
       </c>
       <c r="F124" t="n">
-        <v>0.586048</v>
+        <v>0.5463710000000001</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30801</v>
+        <v>0.319097</v>
       </c>
       <c r="C125" t="n">
-        <v>0.667609</v>
+        <v>0.655667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6488699999999999</v>
+        <v>0.652517</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291511</v>
+        <v>0.245609</v>
       </c>
       <c r="F125" t="n">
-        <v>0.585518</v>
+        <v>0.543635</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301286</v>
+        <v>0.312815</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668079</v>
+        <v>0.621099</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648026</v>
+        <v>0.653058</v>
       </c>
       <c r="E126" t="n">
-        <v>0.288786</v>
+        <v>0.24038</v>
       </c>
       <c r="F126" t="n">
-        <v>0.595027</v>
+        <v>0.541573</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292728</v>
+        <v>0.30714</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657983</v>
+        <v>0.653654</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663915</v>
+        <v>0.6651</v>
       </c>
       <c r="E127" t="n">
-        <v>0.285445</v>
+        <v>0.237109</v>
       </c>
       <c r="F127" t="n">
-        <v>0.583172</v>
+        <v>0.5375529999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.286681</v>
+        <v>0.29753</v>
       </c>
       <c r="C128" t="n">
-        <v>0.665812</v>
+        <v>0.60817</v>
       </c>
       <c r="D128" t="n">
-        <v>0.662971</v>
+        <v>0.655317</v>
       </c>
       <c r="E128" t="n">
-        <v>0.283172</v>
+        <v>0.231905</v>
       </c>
       <c r="F128" t="n">
-        <v>0.583195</v>
+        <v>0.537986</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278742</v>
+        <v>0.293234</v>
       </c>
       <c r="C129" t="n">
-        <v>0.633148</v>
+        <v>0.616744</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6465919999999999</v>
+        <v>0.6548310000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281586</v>
+        <v>0.227917</v>
       </c>
       <c r="F129" t="n">
-        <v>0.578855</v>
+        <v>0.525414</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273493</v>
+        <v>0.287717</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63826</v>
+        <v>0.600403</v>
       </c>
       <c r="D130" t="n">
-        <v>0.648012</v>
+        <v>0.656963</v>
       </c>
       <c r="E130" t="n">
-        <v>0.282048</v>
+        <v>0.223345</v>
       </c>
       <c r="F130" t="n">
-        <v>0.578981</v>
+        <v>0.523264</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266834</v>
+        <v>0.279863</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605373</v>
+        <v>0.599827</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6493989999999999</v>
+        <v>0.6571360000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.278165</v>
+        <v>0.219264</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57744</v>
+        <v>0.522542</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258825</v>
+        <v>0.270808</v>
       </c>
       <c r="C132" t="n">
-        <v>0.645172</v>
+        <v>0.592119</v>
       </c>
       <c r="D132" t="n">
-        <v>0.654556</v>
+        <v>0.6580859999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277988</v>
+        <v>0.215533</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5769919999999999</v>
+        <v>0.519086</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253987</v>
+        <v>0.265888</v>
       </c>
       <c r="C133" t="n">
-        <v>0.599088</v>
+        <v>0.585876</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652918</v>
+        <v>0.660128</v>
       </c>
       <c r="E133" t="n">
-        <v>0.275568</v>
+        <v>0.21243</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575194</v>
+        <v>0.5150709999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244298</v>
+        <v>0.254556</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60891</v>
+        <v>0.621881</v>
       </c>
       <c r="D134" t="n">
-        <v>0.652613</v>
+        <v>0.659789</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274651</v>
+        <v>0.208778</v>
       </c>
       <c r="F134" t="n">
-        <v>0.577515</v>
+        <v>0.510308</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237514</v>
+        <v>0.246033</v>
       </c>
       <c r="C135" t="n">
-        <v>0.602723</v>
+        <v>0.593232</v>
       </c>
       <c r="D135" t="n">
-        <v>0.656041</v>
+        <v>0.663283</v>
       </c>
       <c r="E135" t="n">
-        <v>0.273211</v>
+        <v>0.205772</v>
       </c>
       <c r="F135" t="n">
-        <v>0.576247</v>
+        <v>0.505965</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229254</v>
+        <v>0.240139</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599568</v>
+        <v>0.607414</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656501</v>
+        <v>0.656901</v>
       </c>
       <c r="E136" t="n">
-        <v>0.273552</v>
+        <v>0.200196</v>
       </c>
       <c r="F136" t="n">
-        <v>0.574039</v>
+        <v>0.505584</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.219711</v>
+        <v>0.227629</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580296</v>
+        <v>0.558376</v>
       </c>
       <c r="D137" t="n">
-        <v>0.647165</v>
+        <v>0.656956</v>
       </c>
       <c r="E137" t="n">
-        <v>0.315944</v>
+        <v>0.261604</v>
       </c>
       <c r="F137" t="n">
-        <v>0.590372</v>
+        <v>0.552513</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313476</v>
+        <v>0.32338</v>
       </c>
       <c r="C138" t="n">
-        <v>0.640769</v>
+        <v>0.658219</v>
       </c>
       <c r="D138" t="n">
-        <v>0.665533</v>
+        <v>0.6563059999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.292821</v>
+        <v>0.252246</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.547652</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312577</v>
+        <v>0.3209</v>
       </c>
       <c r="C139" t="n">
-        <v>0.665536</v>
+        <v>0.621939</v>
       </c>
       <c r="D139" t="n">
-        <v>0.651328</v>
+        <v>0.656334</v>
       </c>
       <c r="E139" t="n">
-        <v>0.290532</v>
+        <v>0.246262</v>
       </c>
       <c r="F139" t="n">
-        <v>0.586801</v>
+        <v>0.5441820000000001</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302959</v>
+        <v>0.316611</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62903</v>
+        <v>0.618021</v>
       </c>
       <c r="D140" t="n">
-        <v>0.655913</v>
+        <v>0.6576920000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288411</v>
+        <v>0.250659</v>
       </c>
       <c r="F140" t="n">
-        <v>0.58397</v>
+        <v>0.543227</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294927</v>
+        <v>0.30761</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623438</v>
+        <v>0.652753</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649264</v>
+        <v>0.658091</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286511</v>
+        <v>0.237066</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594562</v>
+        <v>0.53696</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289242</v>
+        <v>0.30247</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619502</v>
+        <v>0.621663</v>
       </c>
       <c r="D142" t="n">
-        <v>0.658465</v>
+        <v>0.66779</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28691</v>
+        <v>0.232414</v>
       </c>
       <c r="F142" t="n">
-        <v>0.580527</v>
+        <v>0.534233</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.282289</v>
+        <v>0.294015</v>
       </c>
       <c r="C143" t="n">
-        <v>0.624497</v>
+        <v>0.655155</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6443140000000001</v>
+        <v>0.6567460000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.283794</v>
+        <v>0.228922</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.530903</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.261408</v>
+        <v>0.274315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.51585</v>
+        <v>0.5132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.525885</v>
+        <v>0.527933</v>
       </c>
       <c r="E2" t="n">
-        <v>0.197393</v>
+        <v>0.188373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.446253</v>
+        <v>0.452038</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248947</v>
+        <v>0.255785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.505454</v>
+        <v>0.506485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53342</v>
+        <v>0.524282</v>
       </c>
       <c r="E3" t="n">
-        <v>0.194427</v>
+        <v>0.186263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.451043</v>
+        <v>0.446623</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251261</v>
+        <v>0.246469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503826</v>
+        <v>0.498437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.521914</v>
+        <v>0.522251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.188336</v>
+        <v>0.181047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.442409</v>
+        <v>0.451668</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240304</v>
+        <v>0.242314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.499181</v>
+        <v>0.491682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.533493</v>
+        <v>0.517085</v>
       </c>
       <c r="E5" t="n">
-        <v>0.188865</v>
+        <v>0.178586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.446026</v>
+        <v>0.438458</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235814</v>
+        <v>0.231571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494761</v>
+        <v>0.494899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.523024</v>
+        <v>0.518985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.184205</v>
+        <v>0.175228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.436677</v>
+        <v>0.436502</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227551</v>
+        <v>0.227568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.49603</v>
+        <v>0.493672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532998</v>
+        <v>0.530771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181858</v>
+        <v>0.174209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433662</v>
+        <v>0.444502</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.215897</v>
+        <v>0.219015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.484376</v>
+        <v>0.483746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531986</v>
+        <v>0.535552</v>
       </c>
       <c r="E8" t="n">
-        <v>0.180224</v>
+        <v>0.171869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.433942</v>
+        <v>0.43675</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.208233</v>
+        <v>0.208649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.484476</v>
+        <v>0.469739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.531519</v>
+        <v>0.531102</v>
       </c>
       <c r="E9" t="n">
-        <v>0.229838</v>
+        <v>0.226047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.472405</v>
+        <v>0.47865</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306192</v>
+        <v>0.301161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.552006</v>
+        <v>0.538811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.531888</v>
+        <v>0.5295800000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.227743</v>
+        <v>0.219745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.477269</v>
+        <v>0.472752</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298686</v>
+        <v>0.295205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.535122</v>
+        <v>0.532594</v>
       </c>
       <c r="D11" t="n">
-        <v>0.53233</v>
+        <v>0.528324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.220524</v>
+        <v>0.215678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.482436</v>
+        <v>0.468394</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293208</v>
+        <v>0.290262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5316959999999999</v>
+        <v>0.539018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.548206</v>
+        <v>0.527786</v>
       </c>
       <c r="E12" t="n">
-        <v>0.216348</v>
+        <v>0.210712</v>
       </c>
       <c r="F12" t="n">
-        <v>0.461639</v>
+        <v>0.463629</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288932</v>
+        <v>0.287634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.528521</v>
+        <v>0.5316650000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.531622</v>
+        <v>0.529412</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211861</v>
+        <v>0.208829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.457784</v>
+        <v>0.465827</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28227</v>
+        <v>0.278624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5209859999999999</v>
+        <v>0.522167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5284799999999999</v>
+        <v>0.533931</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210795</v>
+        <v>0.20498</v>
       </c>
       <c r="F14" t="n">
-        <v>0.456607</v>
+        <v>0.462738</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.276222</v>
+        <v>0.275085</v>
       </c>
       <c r="C15" t="n">
-        <v>0.518641</v>
+        <v>0.521962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.527367</v>
+        <v>0.529562</v>
       </c>
       <c r="E15" t="n">
-        <v>0.205512</v>
+        <v>0.200805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.45412</v>
+        <v>0.45793</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.268311</v>
+        <v>0.273472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.517611</v>
+        <v>0.517214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.525815</v>
+        <v>0.532357</v>
       </c>
       <c r="E16" t="n">
-        <v>0.203082</v>
+        <v>0.198091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.450071</v>
+        <v>0.460521</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262513</v>
+        <v>0.263588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.52084</v>
+        <v>0.509422</v>
       </c>
       <c r="D17" t="n">
-        <v>0.538373</v>
+        <v>0.533973</v>
       </c>
       <c r="E17" t="n">
-        <v>0.199283</v>
+        <v>0.193975</v>
       </c>
       <c r="F17" t="n">
-        <v>0.445083</v>
+        <v>0.452973</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256998</v>
+        <v>0.259383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.505185</v>
+        <v>0.504626</v>
       </c>
       <c r="D18" t="n">
-        <v>0.524774</v>
+        <v>0.532575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.196072</v>
+        <v>0.188992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.441476</v>
+        <v>0.444802</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.251619</v>
+        <v>0.247715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.496994</v>
+        <v>0.505456</v>
       </c>
       <c r="D19" t="n">
-        <v>0.527468</v>
+        <v>0.536057</v>
       </c>
       <c r="E19" t="n">
-        <v>0.192489</v>
+        <v>0.186538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.440278</v>
+        <v>0.44766</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244767</v>
+        <v>0.24356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.493392</v>
+        <v>0.492541</v>
       </c>
       <c r="D20" t="n">
-        <v>0.524911</v>
+        <v>0.532519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.191504</v>
+        <v>0.183534</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439406</v>
+        <v>0.440479</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.234552</v>
+        <v>0.239453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.494965</v>
+        <v>0.486517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5449580000000001</v>
+        <v>0.545227</v>
       </c>
       <c r="E21" t="n">
-        <v>0.191355</v>
+        <v>0.17902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.439018</v>
+        <v>0.442935</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225789</v>
+        <v>0.22583</v>
       </c>
       <c r="C22" t="n">
-        <v>0.483423</v>
+        <v>0.482941</v>
       </c>
       <c r="D22" t="n">
-        <v>0.543277</v>
+        <v>0.5401550000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.184125</v>
+        <v>0.176677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.431378</v>
+        <v>0.436006</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.217053</v>
+        <v>0.218304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.471268</v>
+        <v>0.475362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5352440000000001</v>
+        <v>0.541259</v>
       </c>
       <c r="E23" t="n">
-        <v>0.233577</v>
+        <v>0.228461</v>
       </c>
       <c r="F23" t="n">
-        <v>0.472613</v>
+        <v>0.480057</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.302568</v>
+        <v>0.300786</v>
       </c>
       <c r="C24" t="n">
-        <v>0.535312</v>
+        <v>0.542901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.534807</v>
+        <v>0.547022</v>
       </c>
       <c r="E24" t="n">
-        <v>0.228591</v>
+        <v>0.224241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.469088</v>
+        <v>0.475061</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.301233</v>
+        <v>0.302968</v>
       </c>
       <c r="C25" t="n">
-        <v>0.533188</v>
+        <v>0.539566</v>
       </c>
       <c r="D25" t="n">
-        <v>0.53365</v>
+        <v>0.543008</v>
       </c>
       <c r="E25" t="n">
-        <v>0.225956</v>
+        <v>0.21838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.467358</v>
+        <v>0.474958</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294079</v>
+        <v>0.291856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.531761</v>
+        <v>0.534884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.535353</v>
+        <v>0.547082</v>
       </c>
       <c r="E26" t="n">
-        <v>0.220316</v>
+        <v>0.216268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.463255</v>
+        <v>0.471296</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286897</v>
+        <v>0.289287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5272829999999999</v>
+        <v>0.529527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534335</v>
+        <v>0.541729</v>
       </c>
       <c r="E27" t="n">
-        <v>0.217038</v>
+        <v>0.211362</v>
       </c>
       <c r="F27" t="n">
-        <v>0.459505</v>
+        <v>0.466481</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.282483</v>
+        <v>0.283007</v>
       </c>
       <c r="C28" t="n">
-        <v>0.529627</v>
+        <v>0.5211519999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.535366</v>
+        <v>0.533566</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213372</v>
+        <v>0.211946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.456587</v>
+        <v>0.468709</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275901</v>
+        <v>0.275596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.517842</v>
+        <v>0.518438</v>
       </c>
       <c r="D29" t="n">
-        <v>0.538991</v>
+        <v>0.5421859999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.210869</v>
+        <v>0.204466</v>
       </c>
       <c r="F29" t="n">
-        <v>0.45378</v>
+        <v>0.456131</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269378</v>
+        <v>0.269101</v>
       </c>
       <c r="C30" t="n">
-        <v>0.516394</v>
+        <v>0.516385</v>
       </c>
       <c r="D30" t="n">
-        <v>0.533727</v>
+        <v>0.532465</v>
       </c>
       <c r="E30" t="n">
-        <v>0.207521</v>
+        <v>0.199912</v>
       </c>
       <c r="F30" t="n">
-        <v>0.459133</v>
+        <v>0.453723</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.263483</v>
+        <v>0.263093</v>
       </c>
       <c r="C31" t="n">
-        <v>0.507408</v>
+        <v>0.510506</v>
       </c>
       <c r="D31" t="n">
-        <v>0.53127</v>
+        <v>0.5376880000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.203422</v>
+        <v>0.198298</v>
       </c>
       <c r="F31" t="n">
-        <v>0.451166</v>
+        <v>0.450538</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.257512</v>
+        <v>0.261562</v>
       </c>
       <c r="C32" t="n">
-        <v>0.507596</v>
+        <v>0.502356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5344</v>
+        <v>0.530371</v>
       </c>
       <c r="E32" t="n">
-        <v>0.204196</v>
+        <v>0.192874</v>
       </c>
       <c r="F32" t="n">
-        <v>0.447882</v>
+        <v>0.445983</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256284</v>
+        <v>0.250338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4991</v>
+        <v>0.506084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.532837</v>
+        <v>0.530011</v>
       </c>
       <c r="E33" t="n">
-        <v>0.198012</v>
+        <v>0.189651</v>
       </c>
       <c r="F33" t="n">
-        <v>0.44378</v>
+        <v>0.44365</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.247011</v>
+        <v>0.243584</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49844</v>
+        <v>0.493289</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5329199999999999</v>
+        <v>0.532533</v>
       </c>
       <c r="E34" t="n">
-        <v>0.193849</v>
+        <v>0.187473</v>
       </c>
       <c r="F34" t="n">
-        <v>0.441269</v>
+        <v>0.440699</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.236249</v>
+        <v>0.23675</v>
       </c>
       <c r="C35" t="n">
-        <v>0.492178</v>
+        <v>0.48883</v>
       </c>
       <c r="D35" t="n">
-        <v>0.562937</v>
+        <v>0.5481200000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.193271</v>
+        <v>0.183172</v>
       </c>
       <c r="F35" t="n">
-        <v>0.438905</v>
+        <v>0.44268</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227996</v>
+        <v>0.229446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.483517</v>
+        <v>0.483585</v>
       </c>
       <c r="D36" t="n">
-        <v>0.550361</v>
+        <v>0.547107</v>
       </c>
       <c r="E36" t="n">
-        <v>0.188844</v>
+        <v>0.181005</v>
       </c>
       <c r="F36" t="n">
-        <v>0.43271</v>
+        <v>0.437588</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220497</v>
+        <v>0.220499</v>
       </c>
       <c r="C37" t="n">
-        <v>0.479179</v>
+        <v>0.477459</v>
       </c>
       <c r="D37" t="n">
-        <v>0.551526</v>
+        <v>0.552373</v>
       </c>
       <c r="E37" t="n">
-        <v>0.239576</v>
+        <v>0.234599</v>
       </c>
       <c r="F37" t="n">
-        <v>0.479005</v>
+        <v>0.47996</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306703</v>
+        <v>0.304371</v>
       </c>
       <c r="C38" t="n">
-        <v>0.543619</v>
+        <v>0.545902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.546237</v>
+        <v>0.551296</v>
       </c>
       <c r="E38" t="n">
-        <v>0.235029</v>
+        <v>0.234399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.475435</v>
+        <v>0.476787</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.301636</v>
+        <v>0.299992</v>
       </c>
       <c r="C39" t="n">
-        <v>0.549171</v>
+        <v>0.553627</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5460390000000001</v>
+        <v>0.545566</v>
       </c>
       <c r="E39" t="n">
-        <v>0.230645</v>
+        <v>0.227766</v>
       </c>
       <c r="F39" t="n">
-        <v>0.471855</v>
+        <v>0.472844</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296764</v>
+        <v>0.295688</v>
       </c>
       <c r="C40" t="n">
-        <v>0.541529</v>
+        <v>0.540071</v>
       </c>
       <c r="D40" t="n">
-        <v>0.551823</v>
+        <v>0.549893</v>
       </c>
       <c r="E40" t="n">
-        <v>0.224841</v>
+        <v>0.218795</v>
       </c>
       <c r="F40" t="n">
-        <v>0.471813</v>
+        <v>0.47464</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292811</v>
+        <v>0.289584</v>
       </c>
       <c r="C41" t="n">
-        <v>0.533556</v>
+        <v>0.546391</v>
       </c>
       <c r="D41" t="n">
-        <v>0.549856</v>
+        <v>0.549257</v>
       </c>
       <c r="E41" t="n">
-        <v>0.220689</v>
+        <v>0.214654</v>
       </c>
       <c r="F41" t="n">
-        <v>0.466653</v>
+        <v>0.469032</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.286576</v>
+        <v>0.28463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.532084</v>
+        <v>0.534148</v>
       </c>
       <c r="D42" t="n">
-        <v>0.55533</v>
+        <v>0.551494</v>
       </c>
       <c r="E42" t="n">
-        <v>0.218168</v>
+        <v>0.21165</v>
       </c>
       <c r="F42" t="n">
-        <v>0.459126</v>
+        <v>0.46521</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280523</v>
+        <v>0.287592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.524857</v>
+        <v>0.529213</v>
       </c>
       <c r="D43" t="n">
-        <v>0.571778</v>
+        <v>0.554243</v>
       </c>
       <c r="E43" t="n">
-        <v>0.21596</v>
+        <v>0.206795</v>
       </c>
       <c r="F43" t="n">
-        <v>0.462652</v>
+        <v>0.466881</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.27422</v>
+        <v>0.27431</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5250089999999999</v>
+        <v>0.522782</v>
       </c>
       <c r="D44" t="n">
-        <v>0.566353</v>
+        <v>0.555674</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211532</v>
+        <v>0.204539</v>
       </c>
       <c r="F44" t="n">
-        <v>0.457603</v>
+        <v>0.460165</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.267046</v>
+        <v>0.267302</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5235919999999999</v>
+        <v>0.522192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.569788</v>
+        <v>0.571498</v>
       </c>
       <c r="E45" t="n">
-        <v>0.208106</v>
+        <v>0.202018</v>
       </c>
       <c r="F45" t="n">
-        <v>0.455136</v>
+        <v>0.455019</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261771</v>
+        <v>0.260161</v>
       </c>
       <c r="C46" t="n">
-        <v>0.516327</v>
+        <v>0.5206229999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.565001</v>
+        <v>0.556</v>
       </c>
       <c r="E46" t="n">
-        <v>0.204712</v>
+        <v>0.19731</v>
       </c>
       <c r="F46" t="n">
-        <v>0.450577</v>
+        <v>0.456602</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.254284</v>
+        <v>0.255552</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5067390000000001</v>
+        <v>0.509499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.560607</v>
+        <v>0.555396</v>
       </c>
       <c r="E47" t="n">
-        <v>0.201245</v>
+        <v>0.194647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.44971</v>
+        <v>0.446126</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.250949</v>
+        <v>0.248706</v>
       </c>
       <c r="C48" t="n">
-        <v>0.515066</v>
+        <v>0.504928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.568593</v>
+        <v>0.564183</v>
       </c>
       <c r="E48" t="n">
-        <v>0.199685</v>
+        <v>0.191542</v>
       </c>
       <c r="F48" t="n">
-        <v>0.450991</v>
+        <v>0.449883</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24246</v>
+        <v>0.240308</v>
       </c>
       <c r="C49" t="n">
-        <v>0.499584</v>
+        <v>0.504258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.572851</v>
+        <v>0.564917</v>
       </c>
       <c r="E49" t="n">
-        <v>0.19557</v>
+        <v>0.187592</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441971</v>
+        <v>0.451274</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.232053</v>
+        <v>0.23483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.500092</v>
+        <v>0.502766</v>
       </c>
       <c r="D50" t="n">
-        <v>0.633833</v>
+        <v>0.62364</v>
       </c>
       <c r="E50" t="n">
-        <v>0.192625</v>
+        <v>0.188758</v>
       </c>
       <c r="F50" t="n">
-        <v>0.441613</v>
+        <v>0.443557</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224209</v>
+        <v>0.224711</v>
       </c>
       <c r="C51" t="n">
-        <v>0.490397</v>
+        <v>0.489397</v>
       </c>
       <c r="D51" t="n">
-        <v>0.633185</v>
+        <v>0.635324</v>
       </c>
       <c r="E51" t="n">
-        <v>0.246267</v>
+        <v>0.245001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.499545</v>
+        <v>0.493367</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.214288</v>
+        <v>0.215871</v>
       </c>
       <c r="C52" t="n">
-        <v>0.482942</v>
+        <v>0.487414</v>
       </c>
       <c r="D52" t="n">
-        <v>0.632424</v>
+        <v>0.632607</v>
       </c>
       <c r="E52" t="n">
-        <v>0.24178</v>
+        <v>0.237198</v>
       </c>
       <c r="F52" t="n">
-        <v>0.495973</v>
+        <v>0.491259</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.309493</v>
+        <v>0.308838</v>
       </c>
       <c r="C53" t="n">
-        <v>0.582654</v>
+        <v>0.573034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6384379999999999</v>
+        <v>0.636358</v>
       </c>
       <c r="E53" t="n">
-        <v>0.237789</v>
+        <v>0.231334</v>
       </c>
       <c r="F53" t="n">
-        <v>0.492883</v>
+        <v>0.50095</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.306181</v>
+        <v>0.305654</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578418</v>
+        <v>0.585704</v>
       </c>
       <c r="D54" t="n">
-        <v>0.63878</v>
+        <v>0.635845</v>
       </c>
       <c r="E54" t="n">
-        <v>0.233593</v>
+        <v>0.227375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.479197</v>
+        <v>0.483759</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.30082</v>
+        <v>0.300004</v>
       </c>
       <c r="C55" t="n">
-        <v>0.55548</v>
+        <v>0.552131</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6400130000000001</v>
+        <v>0.6334689999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.228609</v>
+        <v>0.224175</v>
       </c>
       <c r="F55" t="n">
-        <v>0.479538</v>
+        <v>0.476007</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292892</v>
+        <v>0.292934</v>
       </c>
       <c r="C56" t="n">
-        <v>0.576344</v>
+        <v>0.547244</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6433449999999999</v>
+        <v>0.635964</v>
       </c>
       <c r="E56" t="n">
-        <v>0.223256</v>
+        <v>0.22029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.481393</v>
+        <v>0.47792</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286934</v>
+        <v>0.289169</v>
       </c>
       <c r="C57" t="n">
-        <v>0.550037</v>
+        <v>0.57261</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6455149999999999</v>
+        <v>0.636386</v>
       </c>
       <c r="E57" t="n">
-        <v>0.220961</v>
+        <v>0.214317</v>
       </c>
       <c r="F57" t="n">
-        <v>0.472007</v>
+        <v>0.480145</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.28244</v>
+        <v>0.281717</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5719880000000001</v>
+        <v>0.544699</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6462909999999999</v>
+        <v>0.638612</v>
       </c>
       <c r="E58" t="n">
-        <v>0.216612</v>
+        <v>0.21169</v>
       </c>
       <c r="F58" t="n">
-        <v>0.479434</v>
+        <v>0.485176</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283072</v>
+        <v>0.272856</v>
       </c>
       <c r="C59" t="n">
-        <v>0.551061</v>
+        <v>0.5759609999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.66721</v>
+        <v>0.639198</v>
       </c>
       <c r="E59" t="n">
-        <v>0.214769</v>
+        <v>0.209347</v>
       </c>
       <c r="F59" t="n">
-        <v>0.464384</v>
+        <v>0.485328</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.267063</v>
+        <v>0.269165</v>
       </c>
       <c r="C60" t="n">
-        <v>0.544637</v>
+        <v>0.5669459999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.649829</v>
+        <v>0.646729</v>
       </c>
       <c r="E60" t="n">
-        <v>0.21034</v>
+        <v>0.202641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.463303</v>
+        <v>0.471112</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259223</v>
+        <v>0.261515</v>
       </c>
       <c r="C61" t="n">
-        <v>0.547262</v>
+        <v>0.557074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6509239999999999</v>
+        <v>0.648549</v>
       </c>
       <c r="E61" t="n">
-        <v>0.206607</v>
+        <v>0.198074</v>
       </c>
       <c r="F61" t="n">
-        <v>0.47713</v>
+        <v>0.46409</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255071</v>
+        <v>0.253329</v>
       </c>
       <c r="C62" t="n">
-        <v>0.561683</v>
+        <v>0.548886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.653423</v>
+        <v>0.644713</v>
       </c>
       <c r="E62" t="n">
-        <v>0.202291</v>
+        <v>0.19506</v>
       </c>
       <c r="F62" t="n">
-        <v>0.474822</v>
+        <v>0.463027</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.246564</v>
+        <v>0.24613</v>
       </c>
       <c r="C63" t="n">
-        <v>0.548791</v>
+        <v>0.534988</v>
       </c>
       <c r="D63" t="n">
-        <v>0.654356</v>
+        <v>0.646648</v>
       </c>
       <c r="E63" t="n">
-        <v>0.19963</v>
+        <v>0.1902</v>
       </c>
       <c r="F63" t="n">
-        <v>0.457109</v>
+        <v>0.473397</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238594</v>
+        <v>0.238979</v>
       </c>
       <c r="C64" t="n">
-        <v>0.524901</v>
+        <v>0.5526990000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7107830000000001</v>
+        <v>0.693331</v>
       </c>
       <c r="E64" t="n">
-        <v>0.197256</v>
+        <v>0.188101</v>
       </c>
       <c r="F64" t="n">
-        <v>0.466899</v>
+        <v>0.466968</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230124</v>
+        <v>0.230027</v>
       </c>
       <c r="C65" t="n">
-        <v>0.542358</v>
+        <v>0.542716</v>
       </c>
       <c r="D65" t="n">
-        <v>0.709078</v>
+        <v>0.692744</v>
       </c>
       <c r="E65" t="n">
-        <v>0.193953</v>
+        <v>0.183959</v>
       </c>
       <c r="F65" t="n">
-        <v>0.458243</v>
+        <v>0.461648</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220523</v>
+        <v>0.227243</v>
       </c>
       <c r="C66" t="n">
-        <v>0.513081</v>
+        <v>0.538278</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706275</v>
+        <v>0.690469</v>
       </c>
       <c r="E66" t="n">
-        <v>0.252382</v>
+        <v>0.245454</v>
       </c>
       <c r="F66" t="n">
-        <v>0.512552</v>
+        <v>0.516443</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.320407</v>
+        <v>0.317955</v>
       </c>
       <c r="C67" t="n">
-        <v>0.61082</v>
+        <v>0.598538</v>
       </c>
       <c r="D67" t="n">
-        <v>0.699671</v>
+        <v>0.687189</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25438</v>
+        <v>0.237412</v>
       </c>
       <c r="F67" t="n">
-        <v>0.506046</v>
+        <v>0.503485</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.319636</v>
+        <v>0.310888</v>
       </c>
       <c r="C68" t="n">
-        <v>0.598572</v>
+        <v>0.594245</v>
       </c>
       <c r="D68" t="n">
-        <v>0.702077</v>
+        <v>0.690463</v>
       </c>
       <c r="E68" t="n">
-        <v>0.240534</v>
+        <v>0.233968</v>
       </c>
       <c r="F68" t="n">
-        <v>0.500769</v>
+        <v>0.502444</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307187</v>
+        <v>0.308182</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5928600000000001</v>
+        <v>0.601217</v>
       </c>
       <c r="D69" t="n">
-        <v>0.693511</v>
+        <v>0.696693</v>
       </c>
       <c r="E69" t="n">
-        <v>0.240405</v>
+        <v>0.2309</v>
       </c>
       <c r="F69" t="n">
-        <v>0.500611</v>
+        <v>0.49888</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.309653</v>
+        <v>0.30485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.597332</v>
+        <v>0.586371</v>
       </c>
       <c r="D70" t="n">
-        <v>0.691949</v>
+        <v>0.680457</v>
       </c>
       <c r="E70" t="n">
-        <v>0.235496</v>
+        <v>0.22613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.497959</v>
+        <v>0.494008</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.29747</v>
+        <v>0.295424</v>
       </c>
       <c r="C71" t="n">
-        <v>0.595323</v>
+        <v>0.584938</v>
       </c>
       <c r="D71" t="n">
-        <v>0.688955</v>
+        <v>0.686071</v>
       </c>
       <c r="E71" t="n">
-        <v>0.227237</v>
+        <v>0.224759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.496738</v>
+        <v>0.497012</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.288009</v>
+        <v>0.288555</v>
       </c>
       <c r="C72" t="n">
-        <v>0.597498</v>
+        <v>0.584413</v>
       </c>
       <c r="D72" t="n">
-        <v>0.687339</v>
+        <v>0.68251</v>
       </c>
       <c r="E72" t="n">
-        <v>0.222642</v>
+        <v>0.219645</v>
       </c>
       <c r="F72" t="n">
-        <v>0.488697</v>
+        <v>0.493246</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.280221</v>
+        <v>0.280754</v>
       </c>
       <c r="C73" t="n">
-        <v>0.584136</v>
+        <v>0.579497</v>
       </c>
       <c r="D73" t="n">
-        <v>0.693793</v>
+        <v>0.6831469999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.221397</v>
+        <v>0.210908</v>
       </c>
       <c r="F73" t="n">
-        <v>0.483556</v>
+        <v>0.488472</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.273966</v>
+        <v>0.277484</v>
       </c>
       <c r="C74" t="n">
-        <v>0.582792</v>
+        <v>0.575713</v>
       </c>
       <c r="D74" t="n">
-        <v>0.689062</v>
+        <v>0.676612</v>
       </c>
       <c r="E74" t="n">
-        <v>0.217544</v>
+        <v>0.209408</v>
       </c>
       <c r="F74" t="n">
-        <v>0.484926</v>
+        <v>0.485379</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270052</v>
+        <v>0.269507</v>
       </c>
       <c r="C75" t="n">
-        <v>0.581636</v>
+        <v>0.566961</v>
       </c>
       <c r="D75" t="n">
-        <v>0.691675</v>
+        <v>0.67763</v>
       </c>
       <c r="E75" t="n">
-        <v>0.211766</v>
+        <v>0.202979</v>
       </c>
       <c r="F75" t="n">
-        <v>0.486089</v>
+        <v>0.484609</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.263064</v>
+        <v>0.262511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5736869999999999</v>
+        <v>0.567291</v>
       </c>
       <c r="D76" t="n">
-        <v>0.686075</v>
+        <v>0.682106</v>
       </c>
       <c r="E76" t="n">
-        <v>0.211807</v>
+        <v>0.201458</v>
       </c>
       <c r="F76" t="n">
-        <v>0.482891</v>
+        <v>0.47948</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259427</v>
+        <v>0.256545</v>
       </c>
       <c r="C77" t="n">
-        <v>0.570117</v>
+        <v>0.5659149999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.688937</v>
+        <v>0.688974</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207057</v>
+        <v>0.19536</v>
       </c>
       <c r="F77" t="n">
-        <v>0.478579</v>
+        <v>0.47426</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248132</v>
+        <v>0.246562</v>
       </c>
       <c r="C78" t="n">
-        <v>0.563786</v>
+        <v>0.5568149999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.74355</v>
+        <v>0.736903</v>
       </c>
       <c r="E78" t="n">
-        <v>0.207088</v>
+        <v>0.192884</v>
       </c>
       <c r="F78" t="n">
-        <v>0.472724</v>
+        <v>0.470539</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236481</v>
+        <v>0.237013</v>
       </c>
       <c r="C79" t="n">
-        <v>0.557872</v>
+        <v>0.554073</v>
       </c>
       <c r="D79" t="n">
-        <v>0.73812</v>
+        <v>0.730249</v>
       </c>
       <c r="E79" t="n">
-        <v>0.201005</v>
+        <v>0.19179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.472167</v>
+        <v>0.472339</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228034</v>
+        <v>0.226176</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5460120000000001</v>
+        <v>0.542771</v>
       </c>
       <c r="D80" t="n">
-        <v>0.738322</v>
+        <v>0.721271</v>
       </c>
       <c r="E80" t="n">
-        <v>0.259021</v>
+        <v>0.251318</v>
       </c>
       <c r="F80" t="n">
-        <v>0.518336</v>
+        <v>0.522423</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.326216</v>
+        <v>0.324336</v>
       </c>
       <c r="C81" t="n">
-        <v>0.617459</v>
+        <v>0.595738</v>
       </c>
       <c r="D81" t="n">
-        <v>0.730079</v>
+        <v>0.72562</v>
       </c>
       <c r="E81" t="n">
-        <v>0.252965</v>
+        <v>0.24482</v>
       </c>
       <c r="F81" t="n">
-        <v>0.513004</v>
+        <v>0.522586</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.319974</v>
+        <v>0.319334</v>
       </c>
       <c r="C82" t="n">
-        <v>0.617386</v>
+        <v>0.5887790000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7252150000000001</v>
+        <v>0.7213850000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247129</v>
+        <v>0.241396</v>
       </c>
       <c r="F82" t="n">
-        <v>0.505906</v>
+        <v>0.5103</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.313495</v>
+        <v>0.311399</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609909</v>
+        <v>0.585947</v>
       </c>
       <c r="D83" t="n">
-        <v>0.719794</v>
+        <v>0.72115</v>
       </c>
       <c r="E83" t="n">
-        <v>0.250753</v>
+        <v>0.23411</v>
       </c>
       <c r="F83" t="n">
-        <v>0.504972</v>
+        <v>0.503327</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.308466</v>
+        <v>0.304611</v>
       </c>
       <c r="C84" t="n">
-        <v>0.649017</v>
+        <v>0.615675</v>
       </c>
       <c r="D84" t="n">
-        <v>0.753603</v>
+        <v>0.756515</v>
       </c>
       <c r="E84" t="n">
-        <v>0.239389</v>
+        <v>0.230093</v>
       </c>
       <c r="F84" t="n">
-        <v>0.537768</v>
+        <v>0.536299</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.302592</v>
+        <v>0.297491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.644555</v>
+        <v>0.611873</v>
       </c>
       <c r="D85" t="n">
-        <v>0.755145</v>
+        <v>0.753053</v>
       </c>
       <c r="E85" t="n">
-        <v>0.233668</v>
+        <v>0.230068</v>
       </c>
       <c r="F85" t="n">
-        <v>0.533321</v>
+        <v>0.533807</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29728</v>
+        <v>0.29313</v>
       </c>
       <c r="C86" t="n">
-        <v>0.644939</v>
+        <v>0.611024</v>
       </c>
       <c r="D86" t="n">
-        <v>0.751565</v>
+        <v>0.741895</v>
       </c>
       <c r="E86" t="n">
-        <v>0.228934</v>
+        <v>0.220659</v>
       </c>
       <c r="F86" t="n">
-        <v>0.525578</v>
+        <v>0.524553</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.290656</v>
+        <v>0.284118</v>
       </c>
       <c r="C87" t="n">
-        <v>0.642917</v>
+        <v>0.603944</v>
       </c>
       <c r="D87" t="n">
-        <v>0.748578</v>
+        <v>0.750297</v>
       </c>
       <c r="E87" t="n">
-        <v>0.224905</v>
+        <v>0.216864</v>
       </c>
       <c r="F87" t="n">
-        <v>0.52198</v>
+        <v>0.524544</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.280742</v>
+        <v>0.27948</v>
       </c>
       <c r="C88" t="n">
-        <v>0.635204</v>
+        <v>0.612584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.744714</v>
+        <v>0.741961</v>
       </c>
       <c r="E88" t="n">
-        <v>0.221202</v>
+        <v>0.213247</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5189319999999999</v>
+        <v>0.520185</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.272878</v>
+        <v>0.273464</v>
       </c>
       <c r="C89" t="n">
-        <v>0.619216</v>
+        <v>0.605753</v>
       </c>
       <c r="D89" t="n">
-        <v>0.745958</v>
+        <v>0.73055</v>
       </c>
       <c r="E89" t="n">
-        <v>0.216643</v>
+        <v>0.208003</v>
       </c>
       <c r="F89" t="n">
-        <v>0.514713</v>
+        <v>0.517045</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.265458</v>
+        <v>0.266439</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6160600000000001</v>
+        <v>0.606114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.743799</v>
+        <v>0.741931</v>
       </c>
       <c r="E90" t="n">
-        <v>0.213129</v>
+        <v>0.204378</v>
       </c>
       <c r="F90" t="n">
-        <v>0.512554</v>
+        <v>0.513929</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.259115</v>
+        <v>0.260039</v>
       </c>
       <c r="C91" t="n">
-        <v>0.606329</v>
+        <v>0.590986</v>
       </c>
       <c r="D91" t="n">
-        <v>0.744457</v>
+        <v>0.7330719999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.209491</v>
+        <v>0.200344</v>
       </c>
       <c r="F91" t="n">
-        <v>0.512448</v>
+        <v>0.508629</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.250934</v>
+        <v>0.25574</v>
       </c>
       <c r="C92" t="n">
-        <v>0.596594</v>
+        <v>0.588543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.65338</v>
+        <v>0.651157</v>
       </c>
       <c r="E92" t="n">
-        <v>0.20432</v>
+        <v>0.19695</v>
       </c>
       <c r="F92" t="n">
-        <v>0.50451</v>
+        <v>0.508126</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.240781</v>
+        <v>0.244009</v>
       </c>
       <c r="C93" t="n">
-        <v>0.588461</v>
+        <v>0.583013</v>
       </c>
       <c r="D93" t="n">
-        <v>0.654709</v>
+        <v>0.645798</v>
       </c>
       <c r="E93" t="n">
-        <v>0.201339</v>
+        <v>0.192965</v>
       </c>
       <c r="F93" t="n">
-        <v>0.501352</v>
+        <v>0.504647</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231075</v>
+        <v>0.23395</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5834279999999999</v>
+        <v>0.575738</v>
       </c>
       <c r="D94" t="n">
-        <v>0.650878</v>
+        <v>0.64462</v>
       </c>
       <c r="E94" t="n">
-        <v>0.260082</v>
+        <v>0.254023</v>
       </c>
       <c r="F94" t="n">
-        <v>0.555487</v>
+        <v>0.550605</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.328942</v>
+        <v>0.326117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.641433</v>
+        <v>0.717269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.65319</v>
+        <v>0.674431</v>
       </c>
       <c r="E95" t="n">
-        <v>0.261437</v>
+        <v>0.25876</v>
       </c>
       <c r="F95" t="n">
-        <v>0.552194</v>
+        <v>0.558794</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.321822</v>
+        <v>0.329707</v>
       </c>
       <c r="C96" t="n">
-        <v>0.635306</v>
+        <v>0.649975</v>
       </c>
       <c r="D96" t="n">
-        <v>0.648861</v>
+        <v>0.640401</v>
       </c>
       <c r="E96" t="n">
-        <v>0.250155</v>
+        <v>0.243021</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5446299999999999</v>
+        <v>0.544548</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.316017</v>
+        <v>0.317969</v>
       </c>
       <c r="C97" t="n">
-        <v>0.632135</v>
+        <v>0.64262</v>
       </c>
       <c r="D97" t="n">
-        <v>0.649961</v>
+        <v>0.64211</v>
       </c>
       <c r="E97" t="n">
-        <v>0.243918</v>
+        <v>0.239468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.539887</v>
+        <v>0.542246</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.312349</v>
+        <v>0.308149</v>
       </c>
       <c r="C98" t="n">
-        <v>0.624882</v>
+        <v>0.641778</v>
       </c>
       <c r="D98" t="n">
-        <v>0.648735</v>
+        <v>0.644525</v>
       </c>
       <c r="E98" t="n">
-        <v>0.239994</v>
+        <v>0.232857</v>
       </c>
       <c r="F98" t="n">
-        <v>0.53515</v>
+        <v>0.543915</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.303179</v>
+        <v>0.306269</v>
       </c>
       <c r="C99" t="n">
-        <v>0.622048</v>
+        <v>0.63389</v>
       </c>
       <c r="D99" t="n">
-        <v>0.649101</v>
+        <v>0.64961</v>
       </c>
       <c r="E99" t="n">
-        <v>0.235048</v>
+        <v>0.227284</v>
       </c>
       <c r="F99" t="n">
-        <v>0.53448</v>
+        <v>0.533511</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.297858</v>
+        <v>0.297498</v>
       </c>
       <c r="C100" t="n">
-        <v>0.646929</v>
+        <v>0.617806</v>
       </c>
       <c r="D100" t="n">
-        <v>0.646947</v>
+        <v>0.647869</v>
       </c>
       <c r="E100" t="n">
-        <v>0.231195</v>
+        <v>0.222768</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5258429999999999</v>
+        <v>0.526937</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.288666</v>
+        <v>0.289585</v>
       </c>
       <c r="C101" t="n">
-        <v>0.638415</v>
+        <v>0.609948</v>
       </c>
       <c r="D101" t="n">
-        <v>0.652141</v>
+        <v>0.648525</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22627</v>
+        <v>0.2194</v>
       </c>
       <c r="F101" t="n">
-        <v>0.525411</v>
+        <v>0.526736</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.282876</v>
+        <v>0.283109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6429589999999999</v>
+        <v>0.6092070000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.648388</v>
+        <v>0.650766</v>
       </c>
       <c r="E102" t="n">
-        <v>0.22123</v>
+        <v>0.214237</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5235379999999999</v>
+        <v>0.520797</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.274689</v>
+        <v>0.277205</v>
       </c>
       <c r="C103" t="n">
-        <v>0.630257</v>
+        <v>0.598459</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652639</v>
+        <v>0.649343</v>
       </c>
       <c r="E103" t="n">
-        <v>0.217642</v>
+        <v>0.211775</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.525962</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.267675</v>
+        <v>0.268989</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595783</v>
+        <v>0.61714</v>
       </c>
       <c r="D104" t="n">
-        <v>0.659005</v>
+        <v>0.6526149999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.214948</v>
+        <v>0.205446</v>
       </c>
       <c r="F104" t="n">
-        <v>0.513478</v>
+        <v>0.5137</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258908</v>
+        <v>0.260708</v>
       </c>
       <c r="C105" t="n">
-        <v>0.588052</v>
+        <v>0.609162</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6613560000000001</v>
+        <v>0.651522</v>
       </c>
       <c r="E105" t="n">
-        <v>0.210714</v>
+        <v>0.201779</v>
       </c>
       <c r="F105" t="n">
-        <v>0.508865</v>
+        <v>0.511212</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249894</v>
+        <v>0.252695</v>
       </c>
       <c r="C106" t="n">
-        <v>0.584144</v>
+        <v>0.604332</v>
       </c>
       <c r="D106" t="n">
-        <v>0.657046</v>
+        <v>0.653888</v>
       </c>
       <c r="E106" t="n">
-        <v>0.20544</v>
+        <v>0.198474</v>
       </c>
       <c r="F106" t="n">
-        <v>0.508185</v>
+        <v>0.506645</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.243285</v>
+        <v>0.244424</v>
       </c>
       <c r="C107" t="n">
-        <v>0.595911</v>
+        <v>0.596505</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6464839999999999</v>
+        <v>0.643054</v>
       </c>
       <c r="E107" t="n">
-        <v>0.20404</v>
+        <v>0.194698</v>
       </c>
       <c r="F107" t="n">
-        <v>0.501858</v>
+        <v>0.503754</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234218</v>
+        <v>0.234452</v>
       </c>
       <c r="C108" t="n">
-        <v>0.585365</v>
+        <v>0.587871</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645753</v>
+        <v>0.645105</v>
       </c>
       <c r="E108" t="n">
-        <v>0.261208</v>
+        <v>0.255348</v>
       </c>
       <c r="F108" t="n">
-        <v>0.557627</v>
+        <v>0.5593129999999999</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223205</v>
+        <v>0.224393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575453</v>
+        <v>0.582893</v>
       </c>
       <c r="D109" t="n">
-        <v>0.644415</v>
+        <v>0.6423140000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.261234</v>
+        <v>0.249987</v>
       </c>
       <c r="F109" t="n">
-        <v>0.55162</v>
+        <v>0.551396</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.324343</v>
+        <v>0.320026</v>
       </c>
       <c r="C110" t="n">
-        <v>0.630472</v>
+        <v>0.629354</v>
       </c>
       <c r="D110" t="n">
-        <v>0.643611</v>
+        <v>0.645412</v>
       </c>
       <c r="E110" t="n">
-        <v>0.251892</v>
+        <v>0.244125</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5488229999999999</v>
+        <v>0.547531</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.320699</v>
+        <v>0.31497</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6244960000000001</v>
+        <v>0.621932</v>
       </c>
       <c r="D111" t="n">
-        <v>0.645348</v>
+        <v>0.6439589999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.245744</v>
+        <v>0.240073</v>
       </c>
       <c r="F111" t="n">
-        <v>0.545145</v>
+        <v>0.541072</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313234</v>
+        <v>0.3097</v>
       </c>
       <c r="C112" t="n">
-        <v>0.658581</v>
+        <v>0.628426</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6491440000000001</v>
+        <v>0.636696</v>
       </c>
       <c r="E112" t="n">
-        <v>0.240695</v>
+        <v>0.23667</v>
       </c>
       <c r="F112" t="n">
-        <v>0.537349</v>
+        <v>0.542233</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.304046</v>
+        <v>0.30298</v>
       </c>
       <c r="C113" t="n">
-        <v>0.656269</v>
+        <v>0.61931</v>
       </c>
       <c r="D113" t="n">
-        <v>0.64684</v>
+        <v>0.645635</v>
       </c>
       <c r="E113" t="n">
-        <v>0.236695</v>
+        <v>0.231007</v>
       </c>
       <c r="F113" t="n">
-        <v>0.53857</v>
+        <v>0.535523</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.298623</v>
+        <v>0.295415</v>
       </c>
       <c r="C114" t="n">
-        <v>0.648849</v>
+        <v>0.64405</v>
       </c>
       <c r="D114" t="n">
-        <v>0.650412</v>
+        <v>0.643508</v>
       </c>
       <c r="E114" t="n">
-        <v>0.230176</v>
+        <v>0.224166</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5269</v>
+        <v>0.53576</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.290091</v>
+        <v>0.289384</v>
       </c>
       <c r="C115" t="n">
-        <v>0.649908</v>
+        <v>0.599657</v>
       </c>
       <c r="D115" t="n">
-        <v>0.648127</v>
+        <v>0.642509</v>
       </c>
       <c r="E115" t="n">
-        <v>0.227196</v>
+        <v>0.219208</v>
       </c>
       <c r="F115" t="n">
-        <v>0.524438</v>
+        <v>0.525637</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.282652</v>
+        <v>0.28187</v>
       </c>
       <c r="C116" t="n">
-        <v>0.637</v>
+        <v>0.63262</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650791</v>
+        <v>0.6436770000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.221732</v>
+        <v>0.214558</v>
       </c>
       <c r="F116" t="n">
-        <v>0.524197</v>
+        <v>0.520466</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277155</v>
+        <v>0.277557</v>
       </c>
       <c r="C117" t="n">
-        <v>0.629511</v>
+        <v>0.6338</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6483950000000001</v>
+        <v>0.643958</v>
       </c>
       <c r="E117" t="n">
-        <v>0.218815</v>
+        <v>0.211367</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5248119999999999</v>
+        <v>0.519913</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.269187</v>
+        <v>0.27115</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6196700000000001</v>
+        <v>0.585716</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6495300000000001</v>
+        <v>0.647389</v>
       </c>
       <c r="E118" t="n">
-        <v>0.215956</v>
+        <v>0.206881</v>
       </c>
       <c r="F118" t="n">
-        <v>0.515641</v>
+        <v>0.521838</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260745</v>
+        <v>0.262248</v>
       </c>
       <c r="C119" t="n">
-        <v>0.621092</v>
+        <v>0.583516</v>
       </c>
       <c r="D119" t="n">
-        <v>0.656269</v>
+        <v>0.653713</v>
       </c>
       <c r="E119" t="n">
-        <v>0.209935</v>
+        <v>0.203861</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5114880000000001</v>
+        <v>0.513548</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.253771</v>
+        <v>0.254307</v>
       </c>
       <c r="C120" t="n">
-        <v>0.596432</v>
+        <v>0.5946669999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.653015</v>
+        <v>0.654345</v>
       </c>
       <c r="E120" t="n">
-        <v>0.208469</v>
+        <v>0.197833</v>
       </c>
       <c r="F120" t="n">
-        <v>0.506487</v>
+        <v>0.508117</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244331</v>
+        <v>0.24725</v>
       </c>
       <c r="C121" t="n">
-        <v>0.592055</v>
+        <v>0.572221</v>
       </c>
       <c r="D121" t="n">
-        <v>0.655655</v>
+        <v>0.650962</v>
       </c>
       <c r="E121" t="n">
-        <v>0.203665</v>
+        <v>0.195417</v>
       </c>
       <c r="F121" t="n">
-        <v>0.501536</v>
+        <v>0.503236</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234478</v>
+        <v>0.234984</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5777409999999999</v>
+        <v>0.56434</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658099</v>
+        <v>0.652911</v>
       </c>
       <c r="E122" t="n">
-        <v>0.202827</v>
+        <v>0.191677</v>
       </c>
       <c r="F122" t="n">
-        <v>0.497873</v>
+        <v>0.50142</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225709</v>
+        <v>0.226481</v>
       </c>
       <c r="C123" t="n">
-        <v>0.576532</v>
+        <v>0.560304</v>
       </c>
       <c r="D123" t="n">
-        <v>0.659736</v>
+        <v>0.651304</v>
       </c>
       <c r="E123" t="n">
-        <v>0.258558</v>
+        <v>0.251305</v>
       </c>
       <c r="F123" t="n">
-        <v>0.552439</v>
+        <v>0.558952</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.323421</v>
+        <v>0.325892</v>
       </c>
       <c r="C124" t="n">
-        <v>0.631361</v>
+        <v>0.662678</v>
       </c>
       <c r="D124" t="n">
-        <v>0.657969</v>
+        <v>0.6484</v>
       </c>
       <c r="E124" t="n">
-        <v>0.251815</v>
+        <v>0.24624</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5463710000000001</v>
+        <v>0.549627</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.319097</v>
+        <v>0.317861</v>
       </c>
       <c r="C125" t="n">
-        <v>0.655667</v>
+        <v>0.6448199999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.652517</v>
+        <v>0.648574</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245609</v>
+        <v>0.240285</v>
       </c>
       <c r="F125" t="n">
-        <v>0.543635</v>
+        <v>0.5443</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312815</v>
+        <v>0.315312</v>
       </c>
       <c r="C126" t="n">
-        <v>0.621099</v>
+        <v>0.641168</v>
       </c>
       <c r="D126" t="n">
-        <v>0.653058</v>
+        <v>0.648136</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24038</v>
+        <v>0.237028</v>
       </c>
       <c r="F126" t="n">
-        <v>0.541573</v>
+        <v>0.542407</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30714</v>
+        <v>0.303913</v>
       </c>
       <c r="C127" t="n">
-        <v>0.653654</v>
+        <v>0.643189</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6651</v>
+        <v>0.649333</v>
       </c>
       <c r="E127" t="n">
-        <v>0.237109</v>
+        <v>0.229759</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5375529999999999</v>
+        <v>0.5379930000000001</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.29753</v>
+        <v>0.299988</v>
       </c>
       <c r="C128" t="n">
-        <v>0.60817</v>
+        <v>0.63809</v>
       </c>
       <c r="D128" t="n">
-        <v>0.655317</v>
+        <v>0.646696</v>
       </c>
       <c r="E128" t="n">
-        <v>0.231905</v>
+        <v>0.226313</v>
       </c>
       <c r="F128" t="n">
-        <v>0.537986</v>
+        <v>0.533285</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293234</v>
+        <v>0.289916</v>
       </c>
       <c r="C129" t="n">
-        <v>0.616744</v>
+        <v>0.668883</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6548310000000001</v>
+        <v>0.6598349999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.227917</v>
+        <v>0.222555</v>
       </c>
       <c r="F129" t="n">
-        <v>0.525414</v>
+        <v>0.531451</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.287717</v>
+        <v>0.28609</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600403</v>
+        <v>0.61245</v>
       </c>
       <c r="D130" t="n">
-        <v>0.656963</v>
+        <v>0.653111</v>
       </c>
       <c r="E130" t="n">
-        <v>0.223345</v>
+        <v>0.216758</v>
       </c>
       <c r="F130" t="n">
-        <v>0.523264</v>
+        <v>0.526906</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279863</v>
+        <v>0.27816</v>
       </c>
       <c r="C131" t="n">
-        <v>0.599827</v>
+        <v>0.601092</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6571360000000001</v>
+        <v>0.657071</v>
       </c>
       <c r="E131" t="n">
-        <v>0.219264</v>
+        <v>0.214038</v>
       </c>
       <c r="F131" t="n">
-        <v>0.522542</v>
+        <v>0.521655</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.270808</v>
+        <v>0.271266</v>
       </c>
       <c r="C132" t="n">
-        <v>0.592119</v>
+        <v>0.612078</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6580859999999999</v>
+        <v>0.6664600000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.215533</v>
+        <v>0.209491</v>
       </c>
       <c r="F132" t="n">
-        <v>0.519086</v>
+        <v>0.519046</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.265888</v>
+        <v>0.263788</v>
       </c>
       <c r="C133" t="n">
-        <v>0.585876</v>
+        <v>0.593662</v>
       </c>
       <c r="D133" t="n">
-        <v>0.660128</v>
+        <v>0.65771</v>
       </c>
       <c r="E133" t="n">
-        <v>0.21243</v>
+        <v>0.204506</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5150709999999999</v>
+        <v>0.516609</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.254556</v>
+        <v>0.256013</v>
       </c>
       <c r="C134" t="n">
-        <v>0.621881</v>
+        <v>0.595054</v>
       </c>
       <c r="D134" t="n">
-        <v>0.659789</v>
+        <v>0.654869</v>
       </c>
       <c r="E134" t="n">
-        <v>0.208778</v>
+        <v>0.19916</v>
       </c>
       <c r="F134" t="n">
-        <v>0.510308</v>
+        <v>0.513499</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246033</v>
+        <v>0.247436</v>
       </c>
       <c r="C135" t="n">
-        <v>0.593232</v>
+        <v>0.601194</v>
       </c>
       <c r="D135" t="n">
-        <v>0.663283</v>
+        <v>0.653169</v>
       </c>
       <c r="E135" t="n">
-        <v>0.205772</v>
+        <v>0.194941</v>
       </c>
       <c r="F135" t="n">
-        <v>0.505965</v>
+        <v>0.50878</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240139</v>
+        <v>0.239132</v>
       </c>
       <c r="C136" t="n">
-        <v>0.607414</v>
+        <v>0.59161</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656901</v>
+        <v>0.654004</v>
       </c>
       <c r="E136" t="n">
-        <v>0.200196</v>
+        <v>0.193026</v>
       </c>
       <c r="F136" t="n">
-        <v>0.505584</v>
+        <v>0.504183</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227629</v>
+        <v>0.229152</v>
       </c>
       <c r="C137" t="n">
-        <v>0.558376</v>
+        <v>0.579376</v>
       </c>
       <c r="D137" t="n">
-        <v>0.656956</v>
+        <v>0.6577809999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.261604</v>
+        <v>0.253795</v>
       </c>
       <c r="F137" t="n">
-        <v>0.552513</v>
+        <v>0.555589</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.32338</v>
+        <v>0.323586</v>
       </c>
       <c r="C138" t="n">
-        <v>0.658219</v>
+        <v>0.674715</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6563059999999999</v>
+        <v>0.6517269999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.252246</v>
+        <v>0.249633</v>
       </c>
       <c r="F138" t="n">
-        <v>0.547652</v>
+        <v>0.549588</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3209</v>
+        <v>0.318549</v>
       </c>
       <c r="C139" t="n">
-        <v>0.621939</v>
+        <v>0.624818</v>
       </c>
       <c r="D139" t="n">
-        <v>0.656334</v>
+        <v>0.646527</v>
       </c>
       <c r="E139" t="n">
-        <v>0.246262</v>
+        <v>0.241265</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5441820000000001</v>
+        <v>0.547258</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.316611</v>
+        <v>0.31409</v>
       </c>
       <c r="C140" t="n">
-        <v>0.618021</v>
+        <v>0.616174</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6576920000000001</v>
+        <v>0.651378</v>
       </c>
       <c r="E140" t="n">
-        <v>0.250659</v>
+        <v>0.236721</v>
       </c>
       <c r="F140" t="n">
-        <v>0.543227</v>
+        <v>0.54319</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.30761</v>
+        <v>0.305472</v>
       </c>
       <c r="C141" t="n">
-        <v>0.652753</v>
+        <v>0.612101</v>
       </c>
       <c r="D141" t="n">
-        <v>0.658091</v>
+        <v>0.652381</v>
       </c>
       <c r="E141" t="n">
-        <v>0.237066</v>
+        <v>0.23164</v>
       </c>
       <c r="F141" t="n">
-        <v>0.53696</v>
+        <v>0.537525</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.30247</v>
+        <v>0.299435</v>
       </c>
       <c r="C142" t="n">
-        <v>0.621663</v>
+        <v>0.614131</v>
       </c>
       <c r="D142" t="n">
-        <v>0.66779</v>
+        <v>0.649738</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232414</v>
+        <v>0.225812</v>
       </c>
       <c r="F142" t="n">
-        <v>0.534233</v>
+        <v>0.536111</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.294015</v>
+        <v>0.294571</v>
       </c>
       <c r="C143" t="n">
-        <v>0.655155</v>
+        <v>0.602436</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6567460000000001</v>
+        <v>0.64961</v>
       </c>
       <c r="E143" t="n">
-        <v>0.228922</v>
+        <v>0.220616</v>
       </c>
       <c r="F143" t="n">
-        <v>0.530903</v>
+        <v>0.533079</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274315</v>
+        <v>0.270313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5132</v>
+        <v>0.52174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.527933</v>
+        <v>0.561886</v>
       </c>
       <c r="E2" t="n">
-        <v>0.188373</v>
+        <v>0.194149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.452038</v>
+        <v>0.471658</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.255785</v>
+        <v>0.26724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506485</v>
+        <v>0.523845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.524282</v>
+        <v>0.55707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.186263</v>
+        <v>0.20103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.446623</v>
+        <v>0.465832</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.246469</v>
+        <v>0.257731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.498437</v>
+        <v>0.53676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.522251</v>
+        <v>0.547976</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181047</v>
+        <v>0.181809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.451668</v>
+        <v>0.466301</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242314</v>
+        <v>0.253102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.491682</v>
+        <v>0.515859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.517085</v>
+        <v>0.552475</v>
       </c>
       <c r="E5" t="n">
-        <v>0.178586</v>
+        <v>0.178094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.438458</v>
+        <v>0.444483</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231571</v>
+        <v>0.242157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494899</v>
+        <v>0.500894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.518985</v>
+        <v>0.543235</v>
       </c>
       <c r="E6" t="n">
-        <v>0.175228</v>
+        <v>0.179189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.436502</v>
+        <v>0.443266</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227568</v>
+        <v>0.235723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.493672</v>
+        <v>0.491964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.530771</v>
+        <v>0.547273</v>
       </c>
       <c r="E7" t="n">
-        <v>0.174209</v>
+        <v>0.172849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.444502</v>
+        <v>0.44109</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219015</v>
+        <v>0.22076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.483746</v>
+        <v>0.486305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.535552</v>
+        <v>0.54431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.171869</v>
+        <v>0.170885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.43675</v>
+        <v>0.434927</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.208649</v>
+        <v>0.208366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.469739</v>
+        <v>0.486278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.531102</v>
+        <v>0.544191</v>
       </c>
       <c r="E9" t="n">
-        <v>0.226047</v>
+        <v>0.228246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.47865</v>
+        <v>0.471912</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.301161</v>
+        <v>0.301383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.538811</v>
+        <v>0.542664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5295800000000001</v>
+        <v>0.547072</v>
       </c>
       <c r="E10" t="n">
-        <v>0.219745</v>
+        <v>0.215631</v>
       </c>
       <c r="F10" t="n">
-        <v>0.472752</v>
+        <v>0.47022</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295205</v>
+        <v>0.295873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532594</v>
+        <v>0.54864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.528324</v>
+        <v>0.5564</v>
       </c>
       <c r="E11" t="n">
-        <v>0.215678</v>
+        <v>0.213486</v>
       </c>
       <c r="F11" t="n">
-        <v>0.468394</v>
+        <v>0.466651</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290262</v>
+        <v>0.291178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.539018</v>
+        <v>0.541289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.527786</v>
+        <v>0.535947</v>
       </c>
       <c r="E12" t="n">
-        <v>0.210712</v>
+        <v>0.212171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.463629</v>
+        <v>0.465723</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287634</v>
+        <v>0.283426</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5316650000000001</v>
+        <v>0.522875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.529412</v>
+        <v>0.539679</v>
       </c>
       <c r="E13" t="n">
-        <v>0.208829</v>
+        <v>0.204646</v>
       </c>
       <c r="F13" t="n">
-        <v>0.465827</v>
+        <v>0.460227</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278624</v>
+        <v>0.282773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.522167</v>
+        <v>0.521197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.533931</v>
+        <v>0.5434369999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.20498</v>
+        <v>0.201777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.462738</v>
+        <v>0.459094</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.275085</v>
+        <v>0.273054</v>
       </c>
       <c r="C15" t="n">
-        <v>0.521962</v>
+        <v>0.511738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529562</v>
+        <v>0.537975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.200805</v>
+        <v>0.198453</v>
       </c>
       <c r="F15" t="n">
-        <v>0.45793</v>
+        <v>0.452893</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273472</v>
+        <v>0.272207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.517214</v>
+        <v>0.516888</v>
       </c>
       <c r="D16" t="n">
-        <v>0.532357</v>
+        <v>0.544351</v>
       </c>
       <c r="E16" t="n">
-        <v>0.198091</v>
+        <v>0.199271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.460521</v>
+        <v>0.448489</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.263588</v>
+        <v>0.260106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.509422</v>
+        <v>0.519755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.533973</v>
+        <v>0.5471009999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.193975</v>
+        <v>0.197994</v>
       </c>
       <c r="F17" t="n">
-        <v>0.452973</v>
+        <v>0.449934</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.259383</v>
+        <v>0.258885</v>
       </c>
       <c r="C18" t="n">
-        <v>0.504626</v>
+        <v>0.51819</v>
       </c>
       <c r="D18" t="n">
-        <v>0.532575</v>
+        <v>0.551122</v>
       </c>
       <c r="E18" t="n">
-        <v>0.188992</v>
+        <v>0.191063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.444802</v>
+        <v>0.440419</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247715</v>
+        <v>0.249611</v>
       </c>
       <c r="C19" t="n">
-        <v>0.505456</v>
+        <v>0.508771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.536057</v>
+        <v>0.544583</v>
       </c>
       <c r="E19" t="n">
-        <v>0.186538</v>
+        <v>0.186426</v>
       </c>
       <c r="F19" t="n">
-        <v>0.44766</v>
+        <v>0.442506</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24356</v>
+        <v>0.243428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.492541</v>
+        <v>0.502102</v>
       </c>
       <c r="D20" t="n">
-        <v>0.532519</v>
+        <v>0.547808</v>
       </c>
       <c r="E20" t="n">
-        <v>0.183534</v>
+        <v>0.18232</v>
       </c>
       <c r="F20" t="n">
-        <v>0.440479</v>
+        <v>0.441458</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239453</v>
+        <v>0.236884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.486517</v>
+        <v>0.498343</v>
       </c>
       <c r="D21" t="n">
-        <v>0.545227</v>
+        <v>0.552406</v>
       </c>
       <c r="E21" t="n">
-        <v>0.17902</v>
+        <v>0.180363</v>
       </c>
       <c r="F21" t="n">
-        <v>0.442935</v>
+        <v>0.439745</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22583</v>
+        <v>0.227177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.482941</v>
+        <v>0.496952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5401550000000001</v>
+        <v>0.563908</v>
       </c>
       <c r="E22" t="n">
-        <v>0.176677</v>
+        <v>0.177021</v>
       </c>
       <c r="F22" t="n">
-        <v>0.436006</v>
+        <v>0.435011</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.218304</v>
+        <v>0.217746</v>
       </c>
       <c r="C23" t="n">
-        <v>0.475362</v>
+        <v>0.47559</v>
       </c>
       <c r="D23" t="n">
-        <v>0.541259</v>
+        <v>0.554043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.228461</v>
+        <v>0.232865</v>
       </c>
       <c r="F23" t="n">
-        <v>0.480057</v>
+        <v>0.474327</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.300786</v>
+        <v>0.30831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.542901</v>
+        <v>0.547373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.547022</v>
+        <v>0.555593</v>
       </c>
       <c r="E24" t="n">
-        <v>0.224241</v>
+        <v>0.228334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.475061</v>
+        <v>0.473828</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302968</v>
+        <v>0.295761</v>
       </c>
       <c r="C25" t="n">
-        <v>0.539566</v>
+        <v>0.530437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.543008</v>
+        <v>0.546431</v>
       </c>
       <c r="E25" t="n">
-        <v>0.21838</v>
+        <v>0.221719</v>
       </c>
       <c r="F25" t="n">
-        <v>0.474958</v>
+        <v>0.471336</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291856</v>
+        <v>0.29402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.534884</v>
+        <v>0.538384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.547082</v>
+        <v>0.563436</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216268</v>
+        <v>0.214547</v>
       </c>
       <c r="F26" t="n">
-        <v>0.471296</v>
+        <v>0.469459</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.289287</v>
+        <v>0.2899</v>
       </c>
       <c r="C27" t="n">
-        <v>0.529527</v>
+        <v>0.528762</v>
       </c>
       <c r="D27" t="n">
-        <v>0.541729</v>
+        <v>0.549153</v>
       </c>
       <c r="E27" t="n">
-        <v>0.211362</v>
+        <v>0.211035</v>
       </c>
       <c r="F27" t="n">
-        <v>0.466481</v>
+        <v>0.470325</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283007</v>
+        <v>0.285012</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5211519999999999</v>
+        <v>0.523975</v>
       </c>
       <c r="D28" t="n">
-        <v>0.533566</v>
+        <v>0.550051</v>
       </c>
       <c r="E28" t="n">
-        <v>0.211946</v>
+        <v>0.204538</v>
       </c>
       <c r="F28" t="n">
-        <v>0.468709</v>
+        <v>0.458313</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275596</v>
+        <v>0.280215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.518438</v>
+        <v>0.521228</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5421859999999999</v>
+        <v>0.549495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.204466</v>
+        <v>0.205661</v>
       </c>
       <c r="F29" t="n">
-        <v>0.456131</v>
+        <v>0.463515</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.269101</v>
+        <v>0.270036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.516385</v>
+        <v>0.522522</v>
       </c>
       <c r="D30" t="n">
-        <v>0.532465</v>
+        <v>0.552152</v>
       </c>
       <c r="E30" t="n">
-        <v>0.199912</v>
+        <v>0.199012</v>
       </c>
       <c r="F30" t="n">
-        <v>0.453723</v>
+        <v>0.467917</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.263093</v>
+        <v>0.265385</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510506</v>
+        <v>0.5201750000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5376880000000001</v>
+        <v>0.547508</v>
       </c>
       <c r="E31" t="n">
-        <v>0.198298</v>
+        <v>0.196548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.450538</v>
+        <v>0.462163</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261562</v>
+        <v>0.25808</v>
       </c>
       <c r="C32" t="n">
-        <v>0.502356</v>
+        <v>0.510312</v>
       </c>
       <c r="D32" t="n">
-        <v>0.530371</v>
+        <v>0.561948</v>
       </c>
       <c r="E32" t="n">
-        <v>0.192874</v>
+        <v>0.192185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.445983</v>
+        <v>0.445356</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.250338</v>
+        <v>0.254544</v>
       </c>
       <c r="C33" t="n">
-        <v>0.506084</v>
+        <v>0.498627</v>
       </c>
       <c r="D33" t="n">
-        <v>0.530011</v>
+        <v>0.5540620000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.189651</v>
+        <v>0.188347</v>
       </c>
       <c r="F33" t="n">
-        <v>0.44365</v>
+        <v>0.455048</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.243584</v>
+        <v>0.245834</v>
       </c>
       <c r="C34" t="n">
-        <v>0.493289</v>
+        <v>0.499539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532533</v>
+        <v>0.550216</v>
       </c>
       <c r="E34" t="n">
-        <v>0.187473</v>
+        <v>0.187471</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440699</v>
+        <v>0.445474</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23675</v>
+        <v>0.239873</v>
       </c>
       <c r="C35" t="n">
-        <v>0.48883</v>
+        <v>0.495295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5481200000000001</v>
+        <v>0.573808</v>
       </c>
       <c r="E35" t="n">
-        <v>0.183172</v>
+        <v>0.185095</v>
       </c>
       <c r="F35" t="n">
-        <v>0.44268</v>
+        <v>0.44074</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229446</v>
+        <v>0.231364</v>
       </c>
       <c r="C36" t="n">
-        <v>0.483585</v>
+        <v>0.489535</v>
       </c>
       <c r="D36" t="n">
-        <v>0.547107</v>
+        <v>0.5679</v>
       </c>
       <c r="E36" t="n">
-        <v>0.181005</v>
+        <v>0.182599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.437588</v>
+        <v>0.437028</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220499</v>
+        <v>0.219584</v>
       </c>
       <c r="C37" t="n">
-        <v>0.477459</v>
+        <v>0.485809</v>
       </c>
       <c r="D37" t="n">
-        <v>0.552373</v>
+        <v>0.588968</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234599</v>
+        <v>0.235411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.47996</v>
+        <v>0.497338</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304371</v>
+        <v>0.30734</v>
       </c>
       <c r="C38" t="n">
-        <v>0.545902</v>
+        <v>0.544726</v>
       </c>
       <c r="D38" t="n">
-        <v>0.551296</v>
+        <v>0.567821</v>
       </c>
       <c r="E38" t="n">
-        <v>0.234399</v>
+        <v>0.227664</v>
       </c>
       <c r="F38" t="n">
-        <v>0.476787</v>
+        <v>0.487394</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299992</v>
+        <v>0.303694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553627</v>
+        <v>0.550186</v>
       </c>
       <c r="D39" t="n">
-        <v>0.545566</v>
+        <v>0.569946</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227766</v>
+        <v>0.223066</v>
       </c>
       <c r="F39" t="n">
-        <v>0.472844</v>
+        <v>0.473606</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295688</v>
+        <v>0.297728</v>
       </c>
       <c r="C40" t="n">
-        <v>0.540071</v>
+        <v>0.542281</v>
       </c>
       <c r="D40" t="n">
-        <v>0.549893</v>
+        <v>0.5719340000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.218795</v>
+        <v>0.220445</v>
       </c>
       <c r="F40" t="n">
-        <v>0.47464</v>
+        <v>0.467341</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289584</v>
+        <v>0.299913</v>
       </c>
       <c r="C41" t="n">
-        <v>0.546391</v>
+        <v>0.540848</v>
       </c>
       <c r="D41" t="n">
-        <v>0.549257</v>
+        <v>0.571489</v>
       </c>
       <c r="E41" t="n">
-        <v>0.214654</v>
+        <v>0.217496</v>
       </c>
       <c r="F41" t="n">
-        <v>0.469032</v>
+        <v>0.472803</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28463</v>
+        <v>0.306294</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534148</v>
+        <v>0.531286</v>
       </c>
       <c r="D42" t="n">
-        <v>0.551494</v>
+        <v>0.576009</v>
       </c>
       <c r="E42" t="n">
-        <v>0.21165</v>
+        <v>0.211346</v>
       </c>
       <c r="F42" t="n">
-        <v>0.46521</v>
+        <v>0.472453</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287592</v>
+        <v>0.280848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.529213</v>
+        <v>0.529439</v>
       </c>
       <c r="D43" t="n">
-        <v>0.554243</v>
+        <v>0.5706560000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.206795</v>
+        <v>0.212097</v>
       </c>
       <c r="F43" t="n">
-        <v>0.466881</v>
+        <v>0.460365</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.27431</v>
+        <v>0.275393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522782</v>
+        <v>0.524745</v>
       </c>
       <c r="D44" t="n">
-        <v>0.555674</v>
+        <v>0.56777</v>
       </c>
       <c r="E44" t="n">
-        <v>0.204539</v>
+        <v>0.208625</v>
       </c>
       <c r="F44" t="n">
-        <v>0.460165</v>
+        <v>0.460167</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.267302</v>
+        <v>0.27161</v>
       </c>
       <c r="C45" t="n">
-        <v>0.522192</v>
+        <v>0.516223</v>
       </c>
       <c r="D45" t="n">
-        <v>0.571498</v>
+        <v>0.566629</v>
       </c>
       <c r="E45" t="n">
-        <v>0.202018</v>
+        <v>0.203734</v>
       </c>
       <c r="F45" t="n">
-        <v>0.455019</v>
+        <v>0.453109</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.260161</v>
+        <v>0.262118</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5206229999999999</v>
+        <v>0.523814</v>
       </c>
       <c r="D46" t="n">
-        <v>0.556</v>
+        <v>0.580439</v>
       </c>
       <c r="E46" t="n">
-        <v>0.19731</v>
+        <v>0.198249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.456602</v>
+        <v>0.453979</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.255552</v>
+        <v>0.258166</v>
       </c>
       <c r="C47" t="n">
-        <v>0.509499</v>
+        <v>0.521559</v>
       </c>
       <c r="D47" t="n">
-        <v>0.555396</v>
+        <v>0.581268</v>
       </c>
       <c r="E47" t="n">
-        <v>0.194647</v>
+        <v>0.19621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.446126</v>
+        <v>0.456109</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.248706</v>
+        <v>0.251971</v>
       </c>
       <c r="C48" t="n">
-        <v>0.504928</v>
+        <v>0.516911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.564183</v>
+        <v>0.575915</v>
       </c>
       <c r="E48" t="n">
-        <v>0.191542</v>
+        <v>0.190374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.449883</v>
+        <v>0.448168</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240308</v>
+        <v>0.241671</v>
       </c>
       <c r="C49" t="n">
-        <v>0.504258</v>
+        <v>0.503816</v>
       </c>
       <c r="D49" t="n">
-        <v>0.564917</v>
+        <v>0.578145</v>
       </c>
       <c r="E49" t="n">
-        <v>0.187592</v>
+        <v>0.187566</v>
       </c>
       <c r="F49" t="n">
-        <v>0.451274</v>
+        <v>0.447766</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23483</v>
+        <v>0.233642</v>
       </c>
       <c r="C50" t="n">
-        <v>0.502766</v>
+        <v>0.509879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.62364</v>
+        <v>0.6399359999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.188758</v>
+        <v>0.185205</v>
       </c>
       <c r="F50" t="n">
-        <v>0.443557</v>
+        <v>0.441357</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224711</v>
+        <v>0.226891</v>
       </c>
       <c r="C51" t="n">
-        <v>0.489397</v>
+        <v>0.498507</v>
       </c>
       <c r="D51" t="n">
-        <v>0.635324</v>
+        <v>0.64244</v>
       </c>
       <c r="E51" t="n">
-        <v>0.245001</v>
+        <v>0.241309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.493367</v>
+        <v>0.49301</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.215871</v>
+        <v>0.215404</v>
       </c>
       <c r="C52" t="n">
-        <v>0.487414</v>
+        <v>0.487796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.632607</v>
+        <v>0.651527</v>
       </c>
       <c r="E52" t="n">
-        <v>0.237198</v>
+        <v>0.236273</v>
       </c>
       <c r="F52" t="n">
-        <v>0.491259</v>
+        <v>0.489426</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.308838</v>
+        <v>0.309749</v>
       </c>
       <c r="C53" t="n">
-        <v>0.573034</v>
+        <v>0.564212</v>
       </c>
       <c r="D53" t="n">
-        <v>0.636358</v>
+        <v>0.646481</v>
       </c>
       <c r="E53" t="n">
-        <v>0.231334</v>
+        <v>0.237564</v>
       </c>
       <c r="F53" t="n">
-        <v>0.50095</v>
+        <v>0.484627</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.305654</v>
+        <v>0.303953</v>
       </c>
       <c r="C54" t="n">
-        <v>0.585704</v>
+        <v>0.561833</v>
       </c>
       <c r="D54" t="n">
-        <v>0.635845</v>
+        <v>0.650064</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227375</v>
+        <v>0.22604</v>
       </c>
       <c r="F54" t="n">
-        <v>0.483759</v>
+        <v>0.483078</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.300004</v>
+        <v>0.304781</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552131</v>
+        <v>0.552967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6334689999999999</v>
+        <v>0.658363</v>
       </c>
       <c r="E55" t="n">
-        <v>0.224175</v>
+        <v>0.221355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.476007</v>
+        <v>0.479045</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.292934</v>
+        <v>0.300325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.547244</v>
+        <v>0.55279</v>
       </c>
       <c r="D56" t="n">
-        <v>0.635964</v>
+        <v>0.662756</v>
       </c>
       <c r="E56" t="n">
-        <v>0.22029</v>
+        <v>0.222698</v>
       </c>
       <c r="F56" t="n">
-        <v>0.47792</v>
+        <v>0.481312</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.289169</v>
+        <v>0.286737</v>
       </c>
       <c r="C57" t="n">
-        <v>0.57261</v>
+        <v>0.559647</v>
       </c>
       <c r="D57" t="n">
-        <v>0.636386</v>
+        <v>0.656538</v>
       </c>
       <c r="E57" t="n">
-        <v>0.214317</v>
+        <v>0.214578</v>
       </c>
       <c r="F57" t="n">
-        <v>0.480145</v>
+        <v>0.495087</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281717</v>
+        <v>0.282471</v>
       </c>
       <c r="C58" t="n">
-        <v>0.544699</v>
+        <v>0.5747370000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638612</v>
+        <v>0.660226</v>
       </c>
       <c r="E58" t="n">
-        <v>0.21169</v>
+        <v>0.209514</v>
       </c>
       <c r="F58" t="n">
-        <v>0.485176</v>
+        <v>0.485043</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272856</v>
+        <v>0.278127</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5759609999999999</v>
+        <v>0.548062</v>
       </c>
       <c r="D59" t="n">
-        <v>0.639198</v>
+        <v>0.64873</v>
       </c>
       <c r="E59" t="n">
-        <v>0.209347</v>
+        <v>0.206436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.485328</v>
+        <v>0.476885</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.269165</v>
+        <v>0.270725</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5669459999999999</v>
+        <v>0.560765</v>
       </c>
       <c r="D60" t="n">
-        <v>0.646729</v>
+        <v>0.6554140000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.202641</v>
+        <v>0.20135</v>
       </c>
       <c r="F60" t="n">
-        <v>0.471112</v>
+        <v>0.468605</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261515</v>
+        <v>0.261117</v>
       </c>
       <c r="C61" t="n">
-        <v>0.557074</v>
+        <v>0.5405799999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.648549</v>
+        <v>0.6614679999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.198074</v>
+        <v>0.198196</v>
       </c>
       <c r="F61" t="n">
-        <v>0.46409</v>
+        <v>0.468047</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253329</v>
+        <v>0.256251</v>
       </c>
       <c r="C62" t="n">
-        <v>0.548886</v>
+        <v>0.571892</v>
       </c>
       <c r="D62" t="n">
-        <v>0.644713</v>
+        <v>0.676821</v>
       </c>
       <c r="E62" t="n">
-        <v>0.19506</v>
+        <v>0.197603</v>
       </c>
       <c r="F62" t="n">
-        <v>0.463027</v>
+        <v>0.46364</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.24613</v>
+        <v>0.252157</v>
       </c>
       <c r="C63" t="n">
-        <v>0.534988</v>
+        <v>0.568177</v>
       </c>
       <c r="D63" t="n">
-        <v>0.646648</v>
+        <v>0.690603</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1902</v>
+        <v>0.191758</v>
       </c>
       <c r="F63" t="n">
-        <v>0.473397</v>
+        <v>0.4772</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238979</v>
+        <v>0.241752</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5526990000000001</v>
+        <v>0.549962</v>
       </c>
       <c r="D64" t="n">
-        <v>0.693331</v>
+        <v>0.725206</v>
       </c>
       <c r="E64" t="n">
-        <v>0.188101</v>
+        <v>0.187815</v>
       </c>
       <c r="F64" t="n">
-        <v>0.466968</v>
+        <v>0.462235</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230027</v>
+        <v>0.232798</v>
       </c>
       <c r="C65" t="n">
-        <v>0.542716</v>
+        <v>0.522974</v>
       </c>
       <c r="D65" t="n">
-        <v>0.692744</v>
+        <v>0.722269</v>
       </c>
       <c r="E65" t="n">
-        <v>0.183959</v>
+        <v>0.185777</v>
       </c>
       <c r="F65" t="n">
-        <v>0.461648</v>
+        <v>0.463037</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.227243</v>
+        <v>0.226849</v>
       </c>
       <c r="C66" t="n">
-        <v>0.538278</v>
+        <v>0.525451</v>
       </c>
       <c r="D66" t="n">
-        <v>0.690469</v>
+        <v>0.715801</v>
       </c>
       <c r="E66" t="n">
-        <v>0.245454</v>
+        <v>0.243901</v>
       </c>
       <c r="F66" t="n">
-        <v>0.516443</v>
+        <v>0.5058859999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.317955</v>
+        <v>0.315351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598538</v>
+        <v>0.617443</v>
       </c>
       <c r="D67" t="n">
-        <v>0.687189</v>
+        <v>0.710385</v>
       </c>
       <c r="E67" t="n">
-        <v>0.237412</v>
+        <v>0.242111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.503485</v>
+        <v>0.506679</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.310888</v>
+        <v>0.31185</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594245</v>
+        <v>0.606073</v>
       </c>
       <c r="D68" t="n">
-        <v>0.690463</v>
+        <v>0.726853</v>
       </c>
       <c r="E68" t="n">
-        <v>0.233968</v>
+        <v>0.234601</v>
       </c>
       <c r="F68" t="n">
-        <v>0.502444</v>
+        <v>0.505084</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.308182</v>
+        <v>0.309274</v>
       </c>
       <c r="C69" t="n">
-        <v>0.601217</v>
+        <v>0.607059</v>
       </c>
       <c r="D69" t="n">
-        <v>0.696693</v>
+        <v>0.721905</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2309</v>
+        <v>0.231297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.49888</v>
+        <v>0.500461</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.30485</v>
+        <v>0.303137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.586371</v>
+        <v>0.599708</v>
       </c>
       <c r="D70" t="n">
-        <v>0.680457</v>
+        <v>0.721135</v>
       </c>
       <c r="E70" t="n">
-        <v>0.22613</v>
+        <v>0.22678</v>
       </c>
       <c r="F70" t="n">
-        <v>0.494008</v>
+        <v>0.50304</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.295424</v>
+        <v>0.300266</v>
       </c>
       <c r="C71" t="n">
-        <v>0.584938</v>
+        <v>0.601434</v>
       </c>
       <c r="D71" t="n">
-        <v>0.686071</v>
+        <v>0.7194700000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.224759</v>
+        <v>0.218383</v>
       </c>
       <c r="F71" t="n">
-        <v>0.497012</v>
+        <v>0.501851</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.288555</v>
+        <v>0.294152</v>
       </c>
       <c r="C72" t="n">
-        <v>0.584413</v>
+        <v>0.599356</v>
       </c>
       <c r="D72" t="n">
-        <v>0.68251</v>
+        <v>0.704417</v>
       </c>
       <c r="E72" t="n">
-        <v>0.219645</v>
+        <v>0.216008</v>
       </c>
       <c r="F72" t="n">
-        <v>0.493246</v>
+        <v>0.487425</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.280754</v>
+        <v>0.282612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.579497</v>
+        <v>0.594584</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6831469999999999</v>
+        <v>0.710572</v>
       </c>
       <c r="E73" t="n">
-        <v>0.210908</v>
+        <v>0.211291</v>
       </c>
       <c r="F73" t="n">
-        <v>0.488472</v>
+        <v>0.492193</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.277484</v>
+        <v>0.280529</v>
       </c>
       <c r="C74" t="n">
-        <v>0.575713</v>
+        <v>0.592453</v>
       </c>
       <c r="D74" t="n">
-        <v>0.676612</v>
+        <v>0.7058410000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.209408</v>
+        <v>0.212582</v>
       </c>
       <c r="F74" t="n">
-        <v>0.485379</v>
+        <v>0.493279</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.269507</v>
+        <v>0.269204</v>
       </c>
       <c r="C75" t="n">
-        <v>0.566961</v>
+        <v>0.584915</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67763</v>
+        <v>0.702353</v>
       </c>
       <c r="E75" t="n">
-        <v>0.202979</v>
+        <v>0.204252</v>
       </c>
       <c r="F75" t="n">
-        <v>0.484609</v>
+        <v>0.481266</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.262511</v>
+        <v>0.26448</v>
       </c>
       <c r="C76" t="n">
-        <v>0.567291</v>
+        <v>0.581139</v>
       </c>
       <c r="D76" t="n">
-        <v>0.682106</v>
+        <v>0.7001230000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.201458</v>
+        <v>0.203967</v>
       </c>
       <c r="F76" t="n">
-        <v>0.47948</v>
+        <v>0.48379</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.256545</v>
+        <v>0.260165</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5659149999999999</v>
+        <v>0.572701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.688974</v>
+        <v>0.7047020000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.19536</v>
+        <v>0.199975</v>
       </c>
       <c r="F77" t="n">
-        <v>0.47426</v>
+        <v>0.481571</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.246562</v>
+        <v>0.248696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5568149999999999</v>
+        <v>0.566885</v>
       </c>
       <c r="D78" t="n">
-        <v>0.736903</v>
+        <v>0.763409</v>
       </c>
       <c r="E78" t="n">
-        <v>0.192884</v>
+        <v>0.193888</v>
       </c>
       <c r="F78" t="n">
-        <v>0.470539</v>
+        <v>0.478036</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.237013</v>
+        <v>0.236349</v>
       </c>
       <c r="C79" t="n">
-        <v>0.554073</v>
+        <v>0.564239</v>
       </c>
       <c r="D79" t="n">
-        <v>0.730249</v>
+        <v>0.751348</v>
       </c>
       <c r="E79" t="n">
-        <v>0.19179</v>
+        <v>0.188258</v>
       </c>
       <c r="F79" t="n">
-        <v>0.472339</v>
+        <v>0.476898</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.226176</v>
+        <v>0.231751</v>
       </c>
       <c r="C80" t="n">
-        <v>0.542771</v>
+        <v>0.558712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.721271</v>
+        <v>0.755734</v>
       </c>
       <c r="E80" t="n">
-        <v>0.251318</v>
+        <v>0.252004</v>
       </c>
       <c r="F80" t="n">
-        <v>0.522423</v>
+        <v>0.523516</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.324336</v>
+        <v>0.324694</v>
       </c>
       <c r="C81" t="n">
-        <v>0.595738</v>
+        <v>0.594757</v>
       </c>
       <c r="D81" t="n">
-        <v>0.72562</v>
+        <v>0.763026</v>
       </c>
       <c r="E81" t="n">
-        <v>0.24482</v>
+        <v>0.246119</v>
       </c>
       <c r="F81" t="n">
-        <v>0.522586</v>
+        <v>0.521682</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.319334</v>
+        <v>0.321759</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5887790000000001</v>
+        <v>0.598706</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7213850000000001</v>
+        <v>0.759798</v>
       </c>
       <c r="E82" t="n">
-        <v>0.241396</v>
+        <v>0.242998</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5103</v>
+        <v>0.520238</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.311399</v>
+        <v>0.314712</v>
       </c>
       <c r="C83" t="n">
-        <v>0.585947</v>
+        <v>0.594204</v>
       </c>
       <c r="D83" t="n">
-        <v>0.72115</v>
+        <v>0.757058</v>
       </c>
       <c r="E83" t="n">
-        <v>0.23411</v>
+        <v>0.23487</v>
       </c>
       <c r="F83" t="n">
-        <v>0.503327</v>
+        <v>0.515211</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304611</v>
+        <v>0.307451</v>
       </c>
       <c r="C84" t="n">
-        <v>0.615675</v>
+        <v>0.622579</v>
       </c>
       <c r="D84" t="n">
-        <v>0.756515</v>
+        <v>0.782061</v>
       </c>
       <c r="E84" t="n">
-        <v>0.230093</v>
+        <v>0.229846</v>
       </c>
       <c r="F84" t="n">
-        <v>0.536299</v>
+        <v>0.542279</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297491</v>
+        <v>0.299996</v>
       </c>
       <c r="C85" t="n">
-        <v>0.611873</v>
+        <v>0.621856</v>
       </c>
       <c r="D85" t="n">
-        <v>0.753053</v>
+        <v>0.774456</v>
       </c>
       <c r="E85" t="n">
-        <v>0.230068</v>
+        <v>0.226007</v>
       </c>
       <c r="F85" t="n">
-        <v>0.533807</v>
+        <v>0.538744</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29313</v>
+        <v>0.292357</v>
       </c>
       <c r="C86" t="n">
-        <v>0.611024</v>
+        <v>0.623726</v>
       </c>
       <c r="D86" t="n">
-        <v>0.741895</v>
+        <v>0.763723</v>
       </c>
       <c r="E86" t="n">
-        <v>0.220659</v>
+        <v>0.220493</v>
       </c>
       <c r="F86" t="n">
-        <v>0.524553</v>
+        <v>0.5319</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.284118</v>
+        <v>0.289894</v>
       </c>
       <c r="C87" t="n">
-        <v>0.603944</v>
+        <v>0.611889</v>
       </c>
       <c r="D87" t="n">
-        <v>0.750297</v>
+        <v>0.766277</v>
       </c>
       <c r="E87" t="n">
-        <v>0.216864</v>
+        <v>0.218124</v>
       </c>
       <c r="F87" t="n">
-        <v>0.524544</v>
+        <v>0.538043</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.27948</v>
+        <v>0.284894</v>
       </c>
       <c r="C88" t="n">
-        <v>0.612584</v>
+        <v>0.615537</v>
       </c>
       <c r="D88" t="n">
-        <v>0.741961</v>
+        <v>0.760134</v>
       </c>
       <c r="E88" t="n">
-        <v>0.213247</v>
+        <v>0.211719</v>
       </c>
       <c r="F88" t="n">
-        <v>0.520185</v>
+        <v>0.520336</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.273464</v>
+        <v>0.27379</v>
       </c>
       <c r="C89" t="n">
-        <v>0.605753</v>
+        <v>0.606048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.73055</v>
+        <v>0.7834100000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.208003</v>
+        <v>0.20879</v>
       </c>
       <c r="F89" t="n">
-        <v>0.517045</v>
+        <v>0.522763</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.266439</v>
+        <v>0.267042</v>
       </c>
       <c r="C90" t="n">
-        <v>0.606114</v>
+        <v>0.611049</v>
       </c>
       <c r="D90" t="n">
-        <v>0.741931</v>
+        <v>0.761794</v>
       </c>
       <c r="E90" t="n">
-        <v>0.204378</v>
+        <v>0.205958</v>
       </c>
       <c r="F90" t="n">
-        <v>0.513929</v>
+        <v>0.523795</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.260039</v>
+        <v>0.257964</v>
       </c>
       <c r="C91" t="n">
-        <v>0.590986</v>
+        <v>0.609221</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7330719999999999</v>
+        <v>0.763236</v>
       </c>
       <c r="E91" t="n">
-        <v>0.200344</v>
+        <v>0.201354</v>
       </c>
       <c r="F91" t="n">
-        <v>0.508629</v>
+        <v>0.512692</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25574</v>
+        <v>0.252659</v>
       </c>
       <c r="C92" t="n">
-        <v>0.588543</v>
+        <v>0.60348</v>
       </c>
       <c r="D92" t="n">
-        <v>0.651157</v>
+        <v>0.6700430000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.19695</v>
+        <v>0.195894</v>
       </c>
       <c r="F92" t="n">
-        <v>0.508126</v>
+        <v>0.508441</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244009</v>
+        <v>0.24133</v>
       </c>
       <c r="C93" t="n">
-        <v>0.583013</v>
+        <v>0.59183</v>
       </c>
       <c r="D93" t="n">
-        <v>0.645798</v>
+        <v>0.666842</v>
       </c>
       <c r="E93" t="n">
-        <v>0.192965</v>
+        <v>0.193808</v>
       </c>
       <c r="F93" t="n">
-        <v>0.504647</v>
+        <v>0.507113</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23395</v>
+        <v>0.233602</v>
       </c>
       <c r="C94" t="n">
-        <v>0.575738</v>
+        <v>0.592079</v>
       </c>
       <c r="D94" t="n">
-        <v>0.64462</v>
+        <v>0.664416</v>
       </c>
       <c r="E94" t="n">
-        <v>0.254023</v>
+        <v>0.254583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.550605</v>
+        <v>0.560465</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.326117</v>
+        <v>0.327445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.717269</v>
+        <v>0.659763</v>
       </c>
       <c r="D95" t="n">
-        <v>0.674431</v>
+        <v>0.6698190000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25876</v>
+        <v>0.249513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.558794</v>
+        <v>0.556373</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.329707</v>
+        <v>0.321881</v>
       </c>
       <c r="C96" t="n">
-        <v>0.649975</v>
+        <v>0.644401</v>
       </c>
       <c r="D96" t="n">
-        <v>0.640401</v>
+        <v>0.668585</v>
       </c>
       <c r="E96" t="n">
-        <v>0.243021</v>
+        <v>0.242257</v>
       </c>
       <c r="F96" t="n">
-        <v>0.544548</v>
+        <v>0.553273</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.317969</v>
+        <v>0.316751</v>
       </c>
       <c r="C97" t="n">
-        <v>0.64262</v>
+        <v>0.648223</v>
       </c>
       <c r="D97" t="n">
-        <v>0.64211</v>
+        <v>0.6632749999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.239468</v>
+        <v>0.239593</v>
       </c>
       <c r="F97" t="n">
-        <v>0.542246</v>
+        <v>0.5513400000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.308149</v>
+        <v>0.310123</v>
       </c>
       <c r="C98" t="n">
-        <v>0.641778</v>
+        <v>0.638041</v>
       </c>
       <c r="D98" t="n">
-        <v>0.644525</v>
+        <v>0.675276</v>
       </c>
       <c r="E98" t="n">
-        <v>0.232857</v>
+        <v>0.231283</v>
       </c>
       <c r="F98" t="n">
-        <v>0.543915</v>
+        <v>0.543506</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.306269</v>
+        <v>0.302491</v>
       </c>
       <c r="C99" t="n">
-        <v>0.63389</v>
+        <v>0.632149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.64961</v>
+        <v>0.665162</v>
       </c>
       <c r="E99" t="n">
-        <v>0.227284</v>
+        <v>0.229833</v>
       </c>
       <c r="F99" t="n">
-        <v>0.533511</v>
+        <v>0.547264</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.297498</v>
+        <v>0.296889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.617806</v>
+        <v>0.619758</v>
       </c>
       <c r="D100" t="n">
-        <v>0.647869</v>
+        <v>0.668309</v>
       </c>
       <c r="E100" t="n">
-        <v>0.222768</v>
+        <v>0.221135</v>
       </c>
       <c r="F100" t="n">
-        <v>0.526937</v>
+        <v>0.54956</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.289585</v>
+        <v>0.293715</v>
       </c>
       <c r="C101" t="n">
-        <v>0.609948</v>
+        <v>0.608026</v>
       </c>
       <c r="D101" t="n">
-        <v>0.648525</v>
+        <v>0.661389</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2194</v>
+        <v>0.217877</v>
       </c>
       <c r="F101" t="n">
-        <v>0.526736</v>
+        <v>0.53185</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.283109</v>
+        <v>0.286096</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6092070000000001</v>
+        <v>0.605804</v>
       </c>
       <c r="D102" t="n">
-        <v>0.650766</v>
+        <v>0.667716</v>
       </c>
       <c r="E102" t="n">
-        <v>0.214237</v>
+        <v>0.212672</v>
       </c>
       <c r="F102" t="n">
-        <v>0.520797</v>
+        <v>0.52224</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.277205</v>
+        <v>0.277217</v>
       </c>
       <c r="C103" t="n">
-        <v>0.598459</v>
+        <v>0.603453</v>
       </c>
       <c r="D103" t="n">
-        <v>0.649343</v>
+        <v>0.6605220000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.211775</v>
+        <v>0.208447</v>
       </c>
       <c r="F103" t="n">
-        <v>0.525962</v>
+        <v>0.530576</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.268989</v>
+        <v>0.267769</v>
       </c>
       <c r="C104" t="n">
-        <v>0.61714</v>
+        <v>0.626088</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6526149999999999</v>
+        <v>0.674592</v>
       </c>
       <c r="E104" t="n">
-        <v>0.205446</v>
+        <v>0.205441</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5137</v>
+        <v>0.517706</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.260708</v>
+        <v>0.261742</v>
       </c>
       <c r="C105" t="n">
-        <v>0.609162</v>
+        <v>0.6233379999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.651522</v>
+        <v>0.667677</v>
       </c>
       <c r="E105" t="n">
-        <v>0.201779</v>
+        <v>0.201583</v>
       </c>
       <c r="F105" t="n">
-        <v>0.511212</v>
+        <v>0.513051</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252695</v>
+        <v>0.251819</v>
       </c>
       <c r="C106" t="n">
-        <v>0.604332</v>
+        <v>0.644124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.653888</v>
+        <v>0.678021</v>
       </c>
       <c r="E106" t="n">
-        <v>0.198474</v>
+        <v>0.197507</v>
       </c>
       <c r="F106" t="n">
-        <v>0.506645</v>
+        <v>0.514531</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244424</v>
+        <v>0.244148</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596505</v>
+        <v>0.580473</v>
       </c>
       <c r="D107" t="n">
-        <v>0.643054</v>
+        <v>0.6675990000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.194698</v>
+        <v>0.193898</v>
       </c>
       <c r="F107" t="n">
-        <v>0.503754</v>
+        <v>0.5122100000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234452</v>
+        <v>0.241385</v>
       </c>
       <c r="C108" t="n">
-        <v>0.587871</v>
+        <v>0.581214</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645105</v>
+        <v>0.6703480000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.255348</v>
+        <v>0.254303</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5593129999999999</v>
+        <v>0.55752</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224393</v>
+        <v>0.223963</v>
       </c>
       <c r="C109" t="n">
-        <v>0.582893</v>
+        <v>0.566368</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6423140000000001</v>
+        <v>0.67103</v>
       </c>
       <c r="E109" t="n">
-        <v>0.249987</v>
+        <v>0.247829</v>
       </c>
       <c r="F109" t="n">
-        <v>0.551396</v>
+        <v>0.557836</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.320026</v>
+        <v>0.327937</v>
       </c>
       <c r="C110" t="n">
-        <v>0.629354</v>
+        <v>0.673038</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645412</v>
+        <v>0.663212</v>
       </c>
       <c r="E110" t="n">
-        <v>0.244125</v>
+        <v>0.242538</v>
       </c>
       <c r="F110" t="n">
-        <v>0.547531</v>
+        <v>0.5543979999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31497</v>
+        <v>0.320172</v>
       </c>
       <c r="C111" t="n">
-        <v>0.621932</v>
+        <v>0.668523</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6439589999999999</v>
+        <v>0.659983</v>
       </c>
       <c r="E111" t="n">
-        <v>0.240073</v>
+        <v>0.23936</v>
       </c>
       <c r="F111" t="n">
-        <v>0.541072</v>
+        <v>0.5456220000000001</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3097</v>
+        <v>0.311499</v>
       </c>
       <c r="C112" t="n">
-        <v>0.628426</v>
+        <v>0.662569</v>
       </c>
       <c r="D112" t="n">
-        <v>0.636696</v>
+        <v>0.655331</v>
       </c>
       <c r="E112" t="n">
-        <v>0.23667</v>
+        <v>0.231452</v>
       </c>
       <c r="F112" t="n">
-        <v>0.542233</v>
+        <v>0.547184</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.30298</v>
+        <v>0.304894</v>
       </c>
       <c r="C113" t="n">
-        <v>0.61931</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.645635</v>
+        <v>0.671444</v>
       </c>
       <c r="E113" t="n">
-        <v>0.231007</v>
+        <v>0.231234</v>
       </c>
       <c r="F113" t="n">
-        <v>0.535523</v>
+        <v>0.536224</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295415</v>
+        <v>0.296485</v>
       </c>
       <c r="C114" t="n">
-        <v>0.64405</v>
+        <v>0.632267</v>
       </c>
       <c r="D114" t="n">
-        <v>0.643508</v>
+        <v>0.6627729999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.224166</v>
+        <v>0.226611</v>
       </c>
       <c r="F114" t="n">
-        <v>0.53576</v>
+        <v>0.535789</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289384</v>
+        <v>0.291054</v>
       </c>
       <c r="C115" t="n">
-        <v>0.599657</v>
+        <v>0.6355</v>
       </c>
       <c r="D115" t="n">
-        <v>0.642509</v>
+        <v>0.665832</v>
       </c>
       <c r="E115" t="n">
-        <v>0.219208</v>
+        <v>0.219043</v>
       </c>
       <c r="F115" t="n">
-        <v>0.525637</v>
+        <v>0.527532</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28187</v>
+        <v>0.283806</v>
       </c>
       <c r="C116" t="n">
-        <v>0.63262</v>
+        <v>0.661135</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6436770000000001</v>
+        <v>0.661158</v>
       </c>
       <c r="E116" t="n">
-        <v>0.214558</v>
+        <v>0.21438</v>
       </c>
       <c r="F116" t="n">
-        <v>0.520466</v>
+        <v>0.535527</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277557</v>
+        <v>0.279606</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6338</v>
+        <v>0.636598</v>
       </c>
       <c r="D117" t="n">
-        <v>0.643958</v>
+        <v>0.664848</v>
       </c>
       <c r="E117" t="n">
-        <v>0.211367</v>
+        <v>0.213474</v>
       </c>
       <c r="F117" t="n">
-        <v>0.519913</v>
+        <v>0.525791</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27115</v>
+        <v>0.270409</v>
       </c>
       <c r="C118" t="n">
-        <v>0.585716</v>
+        <v>0.624897</v>
       </c>
       <c r="D118" t="n">
-        <v>0.647389</v>
+        <v>0.671836</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206881</v>
+        <v>0.209764</v>
       </c>
       <c r="F118" t="n">
-        <v>0.521838</v>
+        <v>0.525957</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262248</v>
+        <v>0.265516</v>
       </c>
       <c r="C119" t="n">
-        <v>0.583516</v>
+        <v>0.6212220000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.653713</v>
+        <v>0.688647</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203861</v>
+        <v>0.205105</v>
       </c>
       <c r="F119" t="n">
-        <v>0.513548</v>
+        <v>0.5216420000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254307</v>
+        <v>0.261452</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5946669999999999</v>
+        <v>0.595028</v>
       </c>
       <c r="D120" t="n">
-        <v>0.654345</v>
+        <v>0.679491</v>
       </c>
       <c r="E120" t="n">
-        <v>0.197833</v>
+        <v>0.200756</v>
       </c>
       <c r="F120" t="n">
-        <v>0.508117</v>
+        <v>0.5196539999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24725</v>
+        <v>0.252891</v>
       </c>
       <c r="C121" t="n">
-        <v>0.572221</v>
+        <v>0.59626</v>
       </c>
       <c r="D121" t="n">
-        <v>0.650962</v>
+        <v>0.6747300000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.195417</v>
+        <v>0.194998</v>
       </c>
       <c r="F121" t="n">
-        <v>0.503236</v>
+        <v>0.506474</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234984</v>
+        <v>0.237261</v>
       </c>
       <c r="C122" t="n">
-        <v>0.56434</v>
+        <v>0.584028</v>
       </c>
       <c r="D122" t="n">
-        <v>0.652911</v>
+        <v>0.6699040000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.191677</v>
+        <v>0.19064</v>
       </c>
       <c r="F122" t="n">
-        <v>0.50142</v>
+        <v>0.501932</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226481</v>
+        <v>0.227251</v>
       </c>
       <c r="C123" t="n">
-        <v>0.560304</v>
+        <v>0.574976</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651304</v>
+        <v>0.666864</v>
       </c>
       <c r="E123" t="n">
-        <v>0.251305</v>
+        <v>0.251959</v>
       </c>
       <c r="F123" t="n">
-        <v>0.558952</v>
+        <v>0.557067</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.325892</v>
+        <v>0.325541</v>
       </c>
       <c r="C124" t="n">
-        <v>0.662678</v>
+        <v>0.635302</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6484</v>
+        <v>0.667787</v>
       </c>
       <c r="E124" t="n">
-        <v>0.24624</v>
+        <v>0.244823</v>
       </c>
       <c r="F124" t="n">
-        <v>0.549627</v>
+        <v>0.554744</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317861</v>
+        <v>0.31971</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6448199999999999</v>
+        <v>0.640243</v>
       </c>
       <c r="D125" t="n">
-        <v>0.648574</v>
+        <v>0.676383</v>
       </c>
       <c r="E125" t="n">
-        <v>0.240285</v>
+        <v>0.239412</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5443</v>
+        <v>0.550081</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315312</v>
+        <v>0.322719</v>
       </c>
       <c r="C126" t="n">
-        <v>0.641168</v>
+        <v>0.634367</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648136</v>
+        <v>0.676799</v>
       </c>
       <c r="E126" t="n">
-        <v>0.237028</v>
+        <v>0.234793</v>
       </c>
       <c r="F126" t="n">
-        <v>0.542407</v>
+        <v>0.541687</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.303913</v>
+        <v>0.306505</v>
       </c>
       <c r="C127" t="n">
-        <v>0.643189</v>
+        <v>0.649183</v>
       </c>
       <c r="D127" t="n">
-        <v>0.649333</v>
+        <v>0.664618</v>
       </c>
       <c r="E127" t="n">
-        <v>0.229759</v>
+        <v>0.230748</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5379930000000001</v>
+        <v>0.539748</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.299988</v>
+        <v>0.298699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.63809</v>
+        <v>0.6147899999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.646696</v>
+        <v>0.667404</v>
       </c>
       <c r="E128" t="n">
-        <v>0.226313</v>
+        <v>0.228244</v>
       </c>
       <c r="F128" t="n">
-        <v>0.533285</v>
+        <v>0.542602</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.289916</v>
+        <v>0.293267</v>
       </c>
       <c r="C129" t="n">
-        <v>0.668883</v>
+        <v>0.6251</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6598349999999999</v>
+        <v>0.677494</v>
       </c>
       <c r="E129" t="n">
-        <v>0.222555</v>
+        <v>0.221829</v>
       </c>
       <c r="F129" t="n">
-        <v>0.531451</v>
+        <v>0.544609</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.28609</v>
+        <v>0.287137</v>
       </c>
       <c r="C130" t="n">
-        <v>0.61245</v>
+        <v>0.608395</v>
       </c>
       <c r="D130" t="n">
-        <v>0.653111</v>
+        <v>0.672685</v>
       </c>
       <c r="E130" t="n">
-        <v>0.216758</v>
+        <v>0.21706</v>
       </c>
       <c r="F130" t="n">
-        <v>0.526906</v>
+        <v>0.534511</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.27816</v>
+        <v>0.279688</v>
       </c>
       <c r="C131" t="n">
-        <v>0.601092</v>
+        <v>0.639146</v>
       </c>
       <c r="D131" t="n">
-        <v>0.657071</v>
+        <v>0.672372</v>
       </c>
       <c r="E131" t="n">
-        <v>0.214038</v>
+        <v>0.215133</v>
       </c>
       <c r="F131" t="n">
-        <v>0.521655</v>
+        <v>0.51994</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.271266</v>
+        <v>0.271292</v>
       </c>
       <c r="C132" t="n">
-        <v>0.612078</v>
+        <v>0.590983</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6664600000000001</v>
+        <v>0.68596</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209491</v>
+        <v>0.209068</v>
       </c>
       <c r="F132" t="n">
-        <v>0.519046</v>
+        <v>0.521722</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263788</v>
+        <v>0.26817</v>
       </c>
       <c r="C133" t="n">
-        <v>0.593662</v>
+        <v>0.590576</v>
       </c>
       <c r="D133" t="n">
-        <v>0.65771</v>
+        <v>0.677515</v>
       </c>
       <c r="E133" t="n">
-        <v>0.204506</v>
+        <v>0.209293</v>
       </c>
       <c r="F133" t="n">
-        <v>0.516609</v>
+        <v>0.528546</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.256013</v>
+        <v>0.256113</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595054</v>
+        <v>0.6377</v>
       </c>
       <c r="D134" t="n">
-        <v>0.654869</v>
+        <v>0.678878</v>
       </c>
       <c r="E134" t="n">
-        <v>0.19916</v>
+        <v>0.200392</v>
       </c>
       <c r="F134" t="n">
-        <v>0.513499</v>
+        <v>0.525576</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247436</v>
+        <v>0.248238</v>
       </c>
       <c r="C135" t="n">
-        <v>0.601194</v>
+        <v>0.583315</v>
       </c>
       <c r="D135" t="n">
-        <v>0.653169</v>
+        <v>0.673187</v>
       </c>
       <c r="E135" t="n">
-        <v>0.194941</v>
+        <v>0.197476</v>
       </c>
       <c r="F135" t="n">
-        <v>0.50878</v>
+        <v>0.509399</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239132</v>
+        <v>0.243294</v>
       </c>
       <c r="C136" t="n">
-        <v>0.59161</v>
+        <v>0.594342</v>
       </c>
       <c r="D136" t="n">
-        <v>0.654004</v>
+        <v>0.685482</v>
       </c>
       <c r="E136" t="n">
-        <v>0.193026</v>
+        <v>0.196713</v>
       </c>
       <c r="F136" t="n">
-        <v>0.504183</v>
+        <v>0.512464</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.229152</v>
+        <v>0.235492</v>
       </c>
       <c r="C137" t="n">
-        <v>0.579376</v>
+        <v>0.637244</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6577809999999999</v>
+        <v>0.664934</v>
       </c>
       <c r="E137" t="n">
-        <v>0.253795</v>
+        <v>0.253536</v>
       </c>
       <c r="F137" t="n">
-        <v>0.555589</v>
+        <v>0.5697719999999999</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.323586</v>
+        <v>0.32828</v>
       </c>
       <c r="C138" t="n">
-        <v>0.674715</v>
+        <v>0.631776</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6517269999999999</v>
+        <v>0.6638579999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249633</v>
+        <v>0.250382</v>
       </c>
       <c r="F138" t="n">
-        <v>0.549588</v>
+        <v>0.56266</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318549</v>
+        <v>0.324782</v>
       </c>
       <c r="C139" t="n">
-        <v>0.624818</v>
+        <v>0.676941</v>
       </c>
       <c r="D139" t="n">
-        <v>0.646527</v>
+        <v>0.677634</v>
       </c>
       <c r="E139" t="n">
-        <v>0.241265</v>
+        <v>0.240823</v>
       </c>
       <c r="F139" t="n">
-        <v>0.547258</v>
+        <v>0.549978</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.31409</v>
+        <v>0.313885</v>
       </c>
       <c r="C140" t="n">
-        <v>0.616174</v>
+        <v>0.648423</v>
       </c>
       <c r="D140" t="n">
-        <v>0.651378</v>
+        <v>0.67216</v>
       </c>
       <c r="E140" t="n">
-        <v>0.236721</v>
+        <v>0.239991</v>
       </c>
       <c r="F140" t="n">
-        <v>0.54319</v>
+        <v>0.543479</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.305472</v>
+        <v>0.307078</v>
       </c>
       <c r="C141" t="n">
-        <v>0.612101</v>
+        <v>0.634741</v>
       </c>
       <c r="D141" t="n">
-        <v>0.652381</v>
+        <v>0.670571</v>
       </c>
       <c r="E141" t="n">
-        <v>0.23164</v>
+        <v>0.23205</v>
       </c>
       <c r="F141" t="n">
-        <v>0.537525</v>
+        <v>0.53781</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.299435</v>
+        <v>0.302964</v>
       </c>
       <c r="C142" t="n">
-        <v>0.614131</v>
+        <v>0.631956</v>
       </c>
       <c r="D142" t="n">
-        <v>0.649738</v>
+        <v>0.670414</v>
       </c>
       <c r="E142" t="n">
-        <v>0.225812</v>
+        <v>0.226283</v>
       </c>
       <c r="F142" t="n">
-        <v>0.536111</v>
+        <v>0.535655</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.294571</v>
+        <v>0.294561</v>
       </c>
       <c r="C143" t="n">
-        <v>0.602436</v>
+        <v>0.622241</v>
       </c>
       <c r="D143" t="n">
-        <v>0.64961</v>
+        <v>0.684686</v>
       </c>
       <c r="E143" t="n">
-        <v>0.220616</v>
+        <v>0.223349</v>
       </c>
       <c r="F143" t="n">
-        <v>0.533079</v>
+        <v>0.540475</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252428</v>
+        <v>0.23428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52781</v>
+        <v>0.736862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.537276</v>
+        <v>0.621431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267945</v>
+        <v>0.291492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520455</v>
+        <v>0.632359</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241753</v>
+        <v>0.385619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520833</v>
+        <v>0.798249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534304</v>
+        <v>0.710226</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257606</v>
+        <v>0.347036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52288</v>
+        <v>0.674581</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239487</v>
+        <v>0.283409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515636</v>
+        <v>0.694192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532927</v>
+        <v>0.618211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.257951</v>
+        <v>0.262768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.530872</v>
+        <v>0.616527</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233003</v>
+        <v>0.364607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516687</v>
+        <v>0.53717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535187</v>
+        <v>0.692854</v>
       </c>
       <c r="E5" t="n">
-        <v>0.257768</v>
+        <v>0.222317</v>
       </c>
       <c r="F5" t="n">
-        <v>0.512561</v>
+        <v>0.579816</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223577</v>
+        <v>0.308437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502808</v>
+        <v>0.869426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533683</v>
+        <v>0.762586</v>
       </c>
       <c r="E6" t="n">
-        <v>0.256549</v>
+        <v>0.250504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51589</v>
+        <v>0.6418509999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218109</v>
+        <v>0.245053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494135</v>
+        <v>0.788969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.871206</v>
       </c>
       <c r="E7" t="n">
-        <v>0.255817</v>
+        <v>0.254256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.516205</v>
+        <v>0.819916</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21333</v>
+        <v>0.322727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501547</v>
+        <v>0.6313299999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541099</v>
+        <v>0.720274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255988</v>
+        <v>0.175177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.511623</v>
+        <v>0.528205</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201504</v>
+        <v>0.244684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478511</v>
+        <v>0.723423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539085</v>
+        <v>0.634423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270637</v>
+        <v>0.261086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523956</v>
+        <v>0.646424</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291965</v>
+        <v>0.509307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54649</v>
+        <v>0.816513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541981</v>
+        <v>0.836461</v>
       </c>
       <c r="E10" t="n">
-        <v>0.270913</v>
+        <v>0.420045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.525517</v>
+        <v>0.789834</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288323</v>
+        <v>0.48117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.542883</v>
+        <v>0.589411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.539214</v>
+        <v>0.711951</v>
       </c>
       <c r="E11" t="n">
-        <v>0.269458</v>
+        <v>0.36023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523726</v>
+        <v>0.712122</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283681</v>
+        <v>0.446258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541216</v>
+        <v>0.855169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5310589999999999</v>
+        <v>0.800865</v>
       </c>
       <c r="E12" t="n">
-        <v>0.266955</v>
+        <v>0.378614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.534187</v>
+        <v>0.765906</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279081</v>
+        <v>0.414343</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.938699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.54037</v>
+        <v>0.83221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265164</v>
+        <v>0.384694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52457</v>
+        <v>0.762787</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274928</v>
+        <v>0.476048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530776</v>
+        <v>0.759903</v>
       </c>
       <c r="D14" t="n">
-        <v>0.539595</v>
+        <v>0.769781</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26581</v>
+        <v>0.37523</v>
       </c>
       <c r="F14" t="n">
-        <v>0.521443</v>
+        <v>0.704708</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263171</v>
+        <v>0.373805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.524521</v>
+        <v>0.7746189999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.529278</v>
+        <v>0.674517</v>
       </c>
       <c r="E15" t="n">
-        <v>0.262552</v>
+        <v>0.283429</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.632192</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256792</v>
+        <v>0.39679</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521418</v>
+        <v>0.623131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.523187</v>
+        <v>0.655218</v>
       </c>
       <c r="E16" t="n">
-        <v>0.261859</v>
+        <v>0.335439</v>
       </c>
       <c r="F16" t="n">
-        <v>0.519783</v>
+        <v>0.454317</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251242</v>
+        <v>0.443812</v>
       </c>
       <c r="C17" t="n">
-        <v>0.516529</v>
+        <v>0.7202499999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.540484</v>
+        <v>0.763981</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266601</v>
+        <v>0.344709</v>
       </c>
       <c r="F17" t="n">
-        <v>0.52826</v>
+        <v>0.574716</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248302</v>
+        <v>0.425384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.528056</v>
+        <v>0.83713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.527291</v>
+        <v>0.721436</v>
       </c>
       <c r="E18" t="n">
-        <v>0.257797</v>
+        <v>0.338328</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512462</v>
+        <v>0.65929</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236978</v>
+        <v>0.451194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.50178</v>
+        <v>0.673074</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538364</v>
+        <v>0.643089</v>
       </c>
       <c r="E19" t="n">
-        <v>0.262355</v>
+        <v>0.34477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.511066</v>
+        <v>0.648506</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231188</v>
+        <v>0.436827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.509908</v>
+        <v>0.608965</v>
       </c>
       <c r="D20" t="n">
-        <v>0.526325</v>
+        <v>0.687327</v>
       </c>
       <c r="E20" t="n">
-        <v>0.257438</v>
+        <v>0.272693</v>
       </c>
       <c r="F20" t="n">
-        <v>0.520529</v>
+        <v>0.65082</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.229585</v>
+        <v>0.244126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498746</v>
+        <v>0.768379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.546269</v>
+        <v>0.778741</v>
       </c>
       <c r="E21" t="n">
-        <v>0.261979</v>
+        <v>0.313251</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5128779999999999</v>
+        <v>0.5992960000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216764</v>
+        <v>0.350963</v>
       </c>
       <c r="C22" t="n">
-        <v>0.497511</v>
+        <v>0.740874</v>
       </c>
       <c r="D22" t="n">
-        <v>0.54483</v>
+        <v>0.967682</v>
       </c>
       <c r="E22" t="n">
-        <v>0.256668</v>
+        <v>0.318213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.515745</v>
+        <v>0.679046</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21356</v>
+        <v>0.296329</v>
       </c>
       <c r="C23" t="n">
-        <v>0.493426</v>
+        <v>0.645793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.531631</v>
+        <v>0.6913859999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.271209</v>
+        <v>0.340078</v>
       </c>
       <c r="F23" t="n">
-        <v>0.519168</v>
+        <v>0.651906</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.291109</v>
+        <v>0.451811</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545308</v>
+        <v>0.715211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539629</v>
+        <v>0.614928</v>
       </c>
       <c r="E24" t="n">
-        <v>0.272674</v>
+        <v>0.375575</v>
       </c>
       <c r="F24" t="n">
-        <v>0.544932</v>
+        <v>0.73955</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285705</v>
+        <v>0.454611</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.917083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.552594</v>
+        <v>0.869463</v>
       </c>
       <c r="E25" t="n">
-        <v>0.269714</v>
+        <v>0.39927</v>
       </c>
       <c r="F25" t="n">
-        <v>0.518417</v>
+        <v>0.831603</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28404</v>
+        <v>0.442629</v>
       </c>
       <c r="C26" t="n">
-        <v>0.543013</v>
+        <v>0.872834</v>
       </c>
       <c r="D26" t="n">
-        <v>0.527687</v>
+        <v>0.980926</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270937</v>
+        <v>0.388832</v>
       </c>
       <c r="F26" t="n">
-        <v>0.518662</v>
+        <v>0.873694</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28453</v>
+        <v>0.452473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538207</v>
+        <v>0.763591</v>
       </c>
       <c r="D27" t="n">
-        <v>0.534228</v>
+        <v>0.743587</v>
       </c>
       <c r="E27" t="n">
-        <v>0.268592</v>
+        <v>0.301162</v>
       </c>
       <c r="F27" t="n">
-        <v>0.512971</v>
+        <v>0.661699</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270584</v>
+        <v>0.454779</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532612</v>
+        <v>1.02027</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.925279</v>
       </c>
       <c r="E28" t="n">
-        <v>0.268494</v>
+        <v>0.277382</v>
       </c>
       <c r="F28" t="n">
-        <v>0.522859</v>
+        <v>0.620345</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270388</v>
+        <v>0.381795</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52903</v>
+        <v>0.737472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.535377</v>
+        <v>0.715333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.265154</v>
+        <v>0.277498</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5160169999999999</v>
+        <v>0.932518</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.265661</v>
+        <v>0.40229</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535227</v>
+        <v>0.678478</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.949246</v>
       </c>
       <c r="E30" t="n">
-        <v>0.26483</v>
+        <v>0.383371</v>
       </c>
       <c r="F30" t="n">
-        <v>0.521811</v>
+        <v>0.697937</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256184</v>
+        <v>0.438674</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520594</v>
+        <v>0.748918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.535431</v>
+        <v>0.856524</v>
       </c>
       <c r="E31" t="n">
-        <v>0.263411</v>
+        <v>0.336205</v>
       </c>
       <c r="F31" t="n">
-        <v>0.511521</v>
+        <v>0.699425</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248558</v>
+        <v>0.424892</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519845</v>
+        <v>0.87906</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533465</v>
+        <v>0.898335</v>
       </c>
       <c r="E32" t="n">
-        <v>0.269047</v>
+        <v>0.355607</v>
       </c>
       <c r="F32" t="n">
-        <v>0.514757</v>
+        <v>0.693598</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242564</v>
+        <v>0.440252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.515693</v>
+        <v>0.76476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.540442</v>
+        <v>0.910636</v>
       </c>
       <c r="E33" t="n">
-        <v>0.261169</v>
+        <v>0.340632</v>
       </c>
       <c r="F33" t="n">
-        <v>0.516575</v>
+        <v>0.667172</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240611</v>
+        <v>0.404237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51174</v>
+        <v>0.831622</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5347420000000001</v>
+        <v>0.954569</v>
       </c>
       <c r="E34" t="n">
-        <v>0.259858</v>
+        <v>0.311091</v>
       </c>
       <c r="F34" t="n">
-        <v>0.508845</v>
+        <v>0.680613</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228465</v>
+        <v>0.366633</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497673</v>
+        <v>0.8428369999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.553582</v>
+        <v>0.787119</v>
       </c>
       <c r="E35" t="n">
-        <v>0.259117</v>
+        <v>0.350154</v>
       </c>
       <c r="F35" t="n">
-        <v>0.505726</v>
+        <v>0.574535</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225613</v>
+        <v>0.342739</v>
       </c>
       <c r="C36" t="n">
-        <v>0.499722</v>
+        <v>0.622584</v>
       </c>
       <c r="D36" t="n">
-        <v>0.554043</v>
+        <v>0.812186</v>
       </c>
       <c r="E36" t="n">
-        <v>0.258172</v>
+        <v>0.297247</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514942</v>
+        <v>0.7151960000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213727</v>
+        <v>0.353645</v>
       </c>
       <c r="C37" t="n">
-        <v>0.490636</v>
+        <v>0.662591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548243</v>
+        <v>0.864401</v>
       </c>
       <c r="E37" t="n">
-        <v>0.275828</v>
+        <v>0.389144</v>
       </c>
       <c r="F37" t="n">
-        <v>0.527677</v>
+        <v>0.840622</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296596</v>
+        <v>0.521316</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554775</v>
+        <v>1.035</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54377</v>
+        <v>1.0079</v>
       </c>
       <c r="E38" t="n">
-        <v>0.274018</v>
+        <v>0.436703</v>
       </c>
       <c r="F38" t="n">
-        <v>0.518694</v>
+        <v>0.796945</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.289029</v>
+        <v>0.457014</v>
       </c>
       <c r="C39" t="n">
-        <v>0.553021</v>
+        <v>0.955153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.552193</v>
+        <v>0.7982359999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287422</v>
+        <v>0.382923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.527864</v>
+        <v>0.837434</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291025</v>
+        <v>0.454442</v>
       </c>
       <c r="C40" t="n">
-        <v>0.552304</v>
+        <v>0.915237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5552240000000001</v>
+        <v>0.9338959999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.272086</v>
+        <v>0.394193</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5249549999999999</v>
+        <v>0.762507</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280323</v>
+        <v>0.443267</v>
       </c>
       <c r="C41" t="n">
-        <v>0.544975</v>
+        <v>0.928123</v>
       </c>
       <c r="D41" t="n">
-        <v>0.559289</v>
+        <v>0.621242</v>
       </c>
       <c r="E41" t="n">
-        <v>0.276376</v>
+        <v>0.260966</v>
       </c>
       <c r="F41" t="n">
-        <v>0.519661</v>
+        <v>0.781855</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.273861</v>
+        <v>0.449511</v>
       </c>
       <c r="C42" t="n">
-        <v>0.539541</v>
+        <v>0.6637690000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554874</v>
+        <v>0.641383</v>
       </c>
       <c r="E42" t="n">
-        <v>0.268665</v>
+        <v>0.336335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.519178</v>
+        <v>0.767836</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.269765</v>
+        <v>0.431938</v>
       </c>
       <c r="C43" t="n">
-        <v>0.53271</v>
+        <v>0.849901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558514</v>
+        <v>0.764443</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267936</v>
+        <v>0.321455</v>
       </c>
       <c r="F43" t="n">
-        <v>0.520994</v>
+        <v>0.744519</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263644</v>
+        <v>0.457054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5376</v>
+        <v>0.833226</v>
       </c>
       <c r="D44" t="n">
-        <v>0.562559</v>
+        <v>0.801606</v>
       </c>
       <c r="E44" t="n">
-        <v>0.269958</v>
+        <v>0.308065</v>
       </c>
       <c r="F44" t="n">
-        <v>0.523326</v>
+        <v>0.855955</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259849</v>
+        <v>0.452887</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539801</v>
+        <v>0.811388</v>
       </c>
       <c r="D45" t="n">
-        <v>0.56136</v>
+        <v>0.8093129999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.267062</v>
+        <v>0.313721</v>
       </c>
       <c r="F45" t="n">
-        <v>0.524771</v>
+        <v>0.751892</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253945</v>
+        <v>0.397013</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5232290000000001</v>
+        <v>0.7844370000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.567245</v>
+        <v>0.883825</v>
       </c>
       <c r="E46" t="n">
-        <v>0.263515</v>
+        <v>0.307438</v>
       </c>
       <c r="F46" t="n">
-        <v>0.517921</v>
+        <v>0.823425</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244157</v>
+        <v>0.410725</v>
       </c>
       <c r="C47" t="n">
-        <v>0.529213</v>
+        <v>0.852322</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5729610000000001</v>
+        <v>0.71543</v>
       </c>
       <c r="E47" t="n">
-        <v>0.264378</v>
+        <v>0.336218</v>
       </c>
       <c r="F47" t="n">
-        <v>0.521895</v>
+        <v>0.5296149999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.240725</v>
+        <v>0.419765</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527589</v>
+        <v>0.816263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.556323</v>
+        <v>0.923385</v>
       </c>
       <c r="E48" t="n">
-        <v>0.261513</v>
+        <v>0.249062</v>
       </c>
       <c r="F48" t="n">
-        <v>0.511731</v>
+        <v>0.83134</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235345</v>
+        <v>0.348498</v>
       </c>
       <c r="C49" t="n">
-        <v>0.509695</v>
+        <v>0.786114</v>
       </c>
       <c r="D49" t="n">
-        <v>0.579402</v>
+        <v>0.654023</v>
       </c>
       <c r="E49" t="n">
-        <v>0.260313</v>
+        <v>0.338876</v>
       </c>
       <c r="F49" t="n">
-        <v>0.513276</v>
+        <v>0.827797</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223386</v>
+        <v>0.371599</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5060170000000001</v>
+        <v>0.755697</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623855</v>
+        <v>0.90093</v>
       </c>
       <c r="E50" t="n">
-        <v>0.266707</v>
+        <v>0.285588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5181789999999999</v>
+        <v>0.753087</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217102</v>
+        <v>0.346733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.514997</v>
+        <v>0.72766</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62001</v>
+        <v>0.759378</v>
       </c>
       <c r="E51" t="n">
-        <v>0.282858</v>
+        <v>0.390653</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545146</v>
+        <v>0.837056</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208301</v>
+        <v>0.360546</v>
       </c>
       <c r="C52" t="n">
-        <v>0.515859</v>
+        <v>0.718051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.630562</v>
+        <v>0.991142</v>
       </c>
       <c r="E52" t="n">
-        <v>0.280347</v>
+        <v>0.338077</v>
       </c>
       <c r="F52" t="n">
-        <v>0.552468</v>
+        <v>0.8368100000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299862</v>
+        <v>0.533135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585694</v>
+        <v>0.887896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.637433</v>
+        <v>0.7371180000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290281</v>
+        <v>0.349844</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5408539999999999</v>
+        <v>0.818026</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295584</v>
+        <v>0.466834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.578973</v>
+        <v>0.919652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.634077</v>
+        <v>0.8860209999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278832</v>
+        <v>0.374911</v>
       </c>
       <c r="F54" t="n">
-        <v>0.54138</v>
+        <v>0.769273</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293541</v>
+        <v>0.459764</v>
       </c>
       <c r="C55" t="n">
-        <v>0.559346</v>
+        <v>0.833322</v>
       </c>
       <c r="D55" t="n">
-        <v>0.636571</v>
+        <v>0.911342</v>
       </c>
       <c r="E55" t="n">
-        <v>0.276463</v>
+        <v>0.387524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542526</v>
+        <v>0.839321</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280583</v>
+        <v>0.416954</v>
       </c>
       <c r="C56" t="n">
-        <v>0.592188</v>
+        <v>0.91024</v>
       </c>
       <c r="D56" t="n">
-        <v>0.643303</v>
+        <v>0.835014</v>
       </c>
       <c r="E56" t="n">
-        <v>0.282164</v>
+        <v>0.401627</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533782</v>
+        <v>0.795923</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275822</v>
+        <v>0.433279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587295</v>
+        <v>1.11113</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651394</v>
+        <v>1.04819</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276601</v>
+        <v>0.333413</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5326880000000001</v>
+        <v>0.762204</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269463</v>
+        <v>0.46125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.565902</v>
+        <v>0.85024</v>
       </c>
       <c r="D58" t="n">
-        <v>0.638907</v>
+        <v>1.09876</v>
       </c>
       <c r="E58" t="n">
-        <v>0.271959</v>
+        <v>0.311652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.545651</v>
+        <v>0.698673</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263815</v>
+        <v>0.426875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.562042</v>
+        <v>0.831765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646</v>
+        <v>0.778191</v>
       </c>
       <c r="E59" t="n">
-        <v>0.271118</v>
+        <v>0.377724</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5374949999999999</v>
+        <v>0.575689</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258618</v>
+        <v>0.397006</v>
       </c>
       <c r="C60" t="n">
-        <v>0.587511</v>
+        <v>0.814313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.987966</v>
       </c>
       <c r="E60" t="n">
-        <v>0.272962</v>
+        <v>0.360921</v>
       </c>
       <c r="F60" t="n">
-        <v>0.532199</v>
+        <v>0.632602</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.255074</v>
+        <v>0.391026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.552271</v>
+        <v>1.04194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643655</v>
+        <v>0.841126</v>
       </c>
       <c r="E61" t="n">
-        <v>0.267614</v>
+        <v>0.338687</v>
       </c>
       <c r="F61" t="n">
-        <v>0.540666</v>
+        <v>0.668866</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244392</v>
+        <v>0.41861</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5497300000000001</v>
+        <v>0.87025</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651286</v>
+        <v>1.08551</v>
       </c>
       <c r="E62" t="n">
-        <v>0.267185</v>
+        <v>0.361113</v>
       </c>
       <c r="F62" t="n">
-        <v>0.534765</v>
+        <v>0.662859</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235993</v>
+        <v>0.396362</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543773</v>
+        <v>0.72478</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652265</v>
+        <v>1.04415</v>
       </c>
       <c r="E63" t="n">
-        <v>0.265805</v>
+        <v>0.352441</v>
       </c>
       <c r="F63" t="n">
-        <v>0.534278</v>
+        <v>0.759006</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234758</v>
+        <v>0.389409</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572811</v>
+        <v>0.615621</v>
       </c>
       <c r="D64" t="n">
-        <v>0.711903</v>
+        <v>0.939226</v>
       </c>
       <c r="E64" t="n">
-        <v>0.264937</v>
+        <v>0.238297</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543152</v>
+        <v>0.810701</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221176</v>
+        <v>0.372781</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5467649999999999</v>
+        <v>0.6765910000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.706499</v>
+        <v>1.01199</v>
       </c>
       <c r="E65" t="n">
-        <v>0.26618</v>
+        <v>0.344391</v>
       </c>
       <c r="F65" t="n">
-        <v>0.543125</v>
+        <v>0.690286</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214181</v>
+        <v>0.341469</v>
       </c>
       <c r="C66" t="n">
-        <v>0.546264</v>
+        <v>0.5570580000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706517</v>
+        <v>1.06116</v>
       </c>
       <c r="E66" t="n">
-        <v>0.288667</v>
+        <v>0.333268</v>
       </c>
       <c r="F66" t="n">
-        <v>0.564885</v>
+        <v>0.916795</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313638</v>
+        <v>0.538003</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633974</v>
+        <v>0.906137</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.905691</v>
       </c>
       <c r="E67" t="n">
-        <v>0.287813</v>
+        <v>0.355433</v>
       </c>
       <c r="F67" t="n">
-        <v>0.571711</v>
+        <v>0.869058</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303204</v>
+        <v>0.515101</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609367</v>
+        <v>0.975638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.696963</v>
+        <v>1.09327</v>
       </c>
       <c r="E68" t="n">
-        <v>0.285082</v>
+        <v>0.324851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.562599</v>
+        <v>0.939176</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301536</v>
+        <v>0.470144</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615779</v>
+        <v>1.05894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.714131</v>
+        <v>1.00286</v>
       </c>
       <c r="E69" t="n">
-        <v>0.282616</v>
+        <v>0.371091</v>
       </c>
       <c r="F69" t="n">
-        <v>0.562096</v>
+        <v>0.838047</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297524</v>
+        <v>0.46081</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606702</v>
+        <v>0.960885</v>
       </c>
       <c r="D70" t="n">
-        <v>0.704313</v>
+        <v>0.9394130000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.283966</v>
+        <v>0.399483</v>
       </c>
       <c r="F70" t="n">
-        <v>0.56472</v>
+        <v>0.739326</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287319</v>
+        <v>0.453362</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612077</v>
+        <v>0.930074</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690673</v>
+        <v>1.01208</v>
       </c>
       <c r="E71" t="n">
-        <v>0.282834</v>
+        <v>0.334545</v>
       </c>
       <c r="F71" t="n">
-        <v>0.555525</v>
+        <v>0.642967</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275131</v>
+        <v>0.475167</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602346</v>
+        <v>0.971348</v>
       </c>
       <c r="D72" t="n">
-        <v>0.694679</v>
+        <v>0.955178</v>
       </c>
       <c r="E72" t="n">
-        <v>0.279482</v>
+        <v>0.307376</v>
       </c>
       <c r="F72" t="n">
-        <v>0.549561</v>
+        <v>0.706601</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272818</v>
+        <v>0.437172</v>
       </c>
       <c r="C73" t="n">
-        <v>0.609256</v>
+        <v>1.04423</v>
       </c>
       <c r="D73" t="n">
-        <v>0.69179</v>
+        <v>1.1186</v>
       </c>
       <c r="E73" t="n">
-        <v>0.275693</v>
+        <v>0.335308</v>
       </c>
       <c r="F73" t="n">
-        <v>0.551518</v>
+        <v>0.879033</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.264842</v>
+        <v>0.45318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.601481</v>
+        <v>1.00297</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690885</v>
+        <v>1.1281</v>
       </c>
       <c r="E74" t="n">
-        <v>0.272852</v>
+        <v>0.364699</v>
       </c>
       <c r="F74" t="n">
-        <v>0.551828</v>
+        <v>0.837984</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.260613</v>
+        <v>0.41609</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5916670000000001</v>
+        <v>0.922826</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685411</v>
+        <v>1.06101</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274534</v>
+        <v>0.338852</v>
       </c>
       <c r="F75" t="n">
-        <v>0.547969</v>
+        <v>0.745455</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.252496</v>
+        <v>0.425337</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592786</v>
+        <v>0.865313</v>
       </c>
       <c r="D76" t="n">
-        <v>0.684873</v>
+        <v>1.11424</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272621</v>
+        <v>0.360964</v>
       </c>
       <c r="F76" t="n">
-        <v>0.551218</v>
+        <v>0.745882</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242901</v>
+        <v>0.380276</v>
       </c>
       <c r="C77" t="n">
-        <v>0.577442</v>
+        <v>0.865657</v>
       </c>
       <c r="D77" t="n">
-        <v>0.685689</v>
+        <v>1.06902</v>
       </c>
       <c r="E77" t="n">
-        <v>0.270924</v>
+        <v>0.292817</v>
       </c>
       <c r="F77" t="n">
-        <v>0.548629</v>
+        <v>0.756231</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.237388</v>
+        <v>0.365614</v>
       </c>
       <c r="C78" t="n">
-        <v>0.582695</v>
+        <v>0.95749</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751999</v>
+        <v>1.11092</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274921</v>
+        <v>0.275566</v>
       </c>
       <c r="F78" t="n">
-        <v>0.548959</v>
+        <v>0.809222</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.227139</v>
+        <v>0.35558</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57211</v>
+        <v>0.8151350000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7675110000000001</v>
+        <v>0.915938</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270117</v>
+        <v>0.279698</v>
       </c>
       <c r="F79" t="n">
-        <v>0.549296</v>
+        <v>0.921329</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224023</v>
+        <v>0.352773</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558833</v>
+        <v>0.917712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.749897</v>
+        <v>0.9267069999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.300635</v>
+        <v>0.334472</v>
       </c>
       <c r="F80" t="n">
-        <v>0.560791</v>
+        <v>0.6886</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.313972</v>
+        <v>0.473574</v>
       </c>
       <c r="C81" t="n">
-        <v>0.620448</v>
+        <v>1.00176</v>
       </c>
       <c r="D81" t="n">
-        <v>0.744188</v>
+        <v>1.10068</v>
       </c>
       <c r="E81" t="n">
-        <v>0.292512</v>
+        <v>0.306705</v>
       </c>
       <c r="F81" t="n">
-        <v>0.563545</v>
+        <v>0.741981</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311989</v>
+        <v>0.488782</v>
       </c>
       <c r="C82" t="n">
-        <v>0.619408</v>
+        <v>0.998625</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736633</v>
+        <v>1.0367</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291396</v>
+        <v>0.381145</v>
       </c>
       <c r="F82" t="n">
-        <v>0.565435</v>
+        <v>0.688198</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304751</v>
+        <v>0.501752</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609569</v>
+        <v>0.997486</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734688</v>
+        <v>1.08168</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29151</v>
+        <v>0.3735</v>
       </c>
       <c r="F83" t="n">
-        <v>0.564877</v>
+        <v>0.875301</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298381</v>
+        <v>0.472849</v>
       </c>
       <c r="C84" t="n">
-        <v>0.642572</v>
+        <v>1.09521</v>
       </c>
       <c r="D84" t="n">
-        <v>0.75924</v>
+        <v>1.2394</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287901</v>
+        <v>0.388854</v>
       </c>
       <c r="F84" t="n">
-        <v>0.582642</v>
+        <v>0.93827</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29034</v>
+        <v>0.475608</v>
       </c>
       <c r="C85" t="n">
-        <v>0.63976</v>
+        <v>1.08335</v>
       </c>
       <c r="D85" t="n">
-        <v>0.763406</v>
+        <v>1.0771</v>
       </c>
       <c r="E85" t="n">
-        <v>0.287354</v>
+        <v>0.351445</v>
       </c>
       <c r="F85" t="n">
-        <v>0.588175</v>
+        <v>0.780898</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285138</v>
+        <v>0.454963</v>
       </c>
       <c r="C86" t="n">
-        <v>0.645832</v>
+        <v>1.13355</v>
       </c>
       <c r="D86" t="n">
-        <v>0.747682</v>
+        <v>1.11608</v>
       </c>
       <c r="E86" t="n">
-        <v>0.281245</v>
+        <v>0.318497</v>
       </c>
       <c r="F86" t="n">
-        <v>0.589171</v>
+        <v>0.920648</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277268</v>
+        <v>0.448074</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6333220000000001</v>
+        <v>1.13485</v>
       </c>
       <c r="D87" t="n">
-        <v>0.759211</v>
+        <v>1.20838</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280263</v>
+        <v>0.328943</v>
       </c>
       <c r="F87" t="n">
-        <v>0.58844</v>
+        <v>0.735977</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.270323</v>
+        <v>0.414203</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630393</v>
+        <v>1.02798</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765133</v>
+        <v>1.19717</v>
       </c>
       <c r="E88" t="n">
-        <v>0.281193</v>
+        <v>0.34314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.587555</v>
+        <v>0.799185</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263952</v>
+        <v>0.419904</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606996</v>
+        <v>1.0314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.754674</v>
+        <v>1.08151</v>
       </c>
       <c r="E89" t="n">
-        <v>0.278012</v>
+        <v>0.286699</v>
       </c>
       <c r="F89" t="n">
-        <v>0.581489</v>
+        <v>0.669696</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258643</v>
+        <v>0.408347</v>
       </c>
       <c r="C90" t="n">
-        <v>0.608088</v>
+        <v>1.1062</v>
       </c>
       <c r="D90" t="n">
-        <v>0.747521</v>
+        <v>1.17214</v>
       </c>
       <c r="E90" t="n">
-        <v>0.275484</v>
+        <v>0.367019</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576953</v>
+        <v>0.970119</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253704</v>
+        <v>0.382745</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597394</v>
+        <v>1.01212</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742818</v>
+        <v>1.12872</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2762</v>
+        <v>0.355599</v>
       </c>
       <c r="F91" t="n">
-        <v>0.574574</v>
+        <v>0.7600749999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240973</v>
+        <v>0.409195</v>
       </c>
       <c r="C92" t="n">
-        <v>0.599353</v>
+        <v>0.9831299999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.665036</v>
+        <v>1.13544</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272295</v>
+        <v>0.338435</v>
       </c>
       <c r="F92" t="n">
-        <v>0.582341</v>
+        <v>0.781601</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.235508</v>
+        <v>0.386679</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597434</v>
+        <v>1.02182</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656228</v>
+        <v>1.12662</v>
       </c>
       <c r="E93" t="n">
-        <v>0.275453</v>
+        <v>0.29431</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5763779999999999</v>
+        <v>0.8597050000000001</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223989</v>
+        <v>0.346725</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5871420000000001</v>
+        <v>1.02052</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65039</v>
+        <v>1.1253</v>
       </c>
       <c r="E94" t="n">
-        <v>0.300038</v>
+        <v>0.365409</v>
       </c>
       <c r="F94" t="n">
-        <v>0.586515</v>
+        <v>0.702089</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319416</v>
+        <v>0.483571</v>
       </c>
       <c r="C95" t="n">
-        <v>0.650959</v>
+        <v>1.06173</v>
       </c>
       <c r="D95" t="n">
-        <v>0.663803</v>
+        <v>0.957515</v>
       </c>
       <c r="E95" t="n">
-        <v>0.294746</v>
+        <v>0.404069</v>
       </c>
       <c r="F95" t="n">
-        <v>0.587056</v>
+        <v>0.855395</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.313388</v>
+        <v>0.500206</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640787</v>
+        <v>1.02754</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658907</v>
+        <v>1.00907</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292177</v>
+        <v>0.391261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.594705</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305577</v>
+        <v>0.496806</v>
       </c>
       <c r="C97" t="n">
-        <v>0.636409</v>
+        <v>1.07883</v>
       </c>
       <c r="D97" t="n">
-        <v>0.651955</v>
+        <v>1.0532</v>
       </c>
       <c r="E97" t="n">
-        <v>0.291108</v>
+        <v>0.396843</v>
       </c>
       <c r="F97" t="n">
-        <v>0.590348</v>
+        <v>0.869973</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299655</v>
+        <v>0.512178</v>
       </c>
       <c r="C98" t="n">
-        <v>0.630752</v>
+        <v>1.08421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643666</v>
+        <v>1.01869</v>
       </c>
       <c r="E98" t="n">
-        <v>0.287753</v>
+        <v>0.362509</v>
       </c>
       <c r="F98" t="n">
-        <v>0.588172</v>
+        <v>0.808088</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291279</v>
+        <v>0.412196</v>
       </c>
       <c r="C99" t="n">
-        <v>0.624873</v>
+        <v>1.11281</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651809</v>
+        <v>1.06695</v>
       </c>
       <c r="E99" t="n">
-        <v>0.284633</v>
+        <v>0.323984</v>
       </c>
       <c r="F99" t="n">
-        <v>0.601116</v>
+        <v>1.03777</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284306</v>
+        <v>0.440795</v>
       </c>
       <c r="C100" t="n">
-        <v>0.620906</v>
+        <v>0.9543469999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.641115</v>
+        <v>1.10306</v>
       </c>
       <c r="E100" t="n">
-        <v>0.28303</v>
+        <v>0.23097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5887559999999999</v>
+        <v>0.934451</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277243</v>
+        <v>0.442681</v>
       </c>
       <c r="C101" t="n">
-        <v>0.620957</v>
+        <v>1.0311</v>
       </c>
       <c r="D101" t="n">
-        <v>0.647844</v>
+        <v>1.11894</v>
       </c>
       <c r="E101" t="n">
-        <v>0.280557</v>
+        <v>0.383924</v>
       </c>
       <c r="F101" t="n">
-        <v>0.579875</v>
+        <v>0.702747</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273807</v>
+        <v>0.420768</v>
       </c>
       <c r="C102" t="n">
-        <v>0.615717</v>
+        <v>1.01156</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662562</v>
+        <v>0.927073</v>
       </c>
       <c r="E102" t="n">
-        <v>0.280013</v>
+        <v>0.31601</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5839259999999999</v>
+        <v>0.831017</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266578</v>
+        <v>0.378507</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603787</v>
+        <v>1.11348</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653648</v>
+        <v>1.02316</v>
       </c>
       <c r="E103" t="n">
-        <v>0.278238</v>
+        <v>0.357058</v>
       </c>
       <c r="F103" t="n">
-        <v>0.593203</v>
+        <v>0.828359</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257815</v>
+        <v>0.373955</v>
       </c>
       <c r="C104" t="n">
-        <v>0.595942</v>
+        <v>1.02017</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652152</v>
+        <v>1.04122</v>
       </c>
       <c r="E104" t="n">
-        <v>0.274804</v>
+        <v>0.323577</v>
       </c>
       <c r="F104" t="n">
-        <v>0.593557</v>
+        <v>0.82074</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252926</v>
+        <v>0.412108</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592473</v>
+        <v>1.0121</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660904</v>
+        <v>1.23352</v>
       </c>
       <c r="E105" t="n">
-        <v>0.275296</v>
+        <v>0.387245</v>
       </c>
       <c r="F105" t="n">
-        <v>0.575989</v>
+        <v>0.820787</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242963</v>
+        <v>0.410386</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595069</v>
+        <v>1.06546</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650031</v>
+        <v>1.16818</v>
       </c>
       <c r="E106" t="n">
-        <v>0.272821</v>
+        <v>0.275386</v>
       </c>
       <c r="F106" t="n">
-        <v>0.579021</v>
+        <v>0.831122</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236548</v>
+        <v>0.357349</v>
       </c>
       <c r="C107" t="n">
-        <v>0.592303</v>
+        <v>0.877071</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64093</v>
+        <v>1.01605</v>
       </c>
       <c r="E107" t="n">
-        <v>0.271201</v>
+        <v>0.310916</v>
       </c>
       <c r="F107" t="n">
-        <v>0.574732</v>
+        <v>0.653506</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232917</v>
+        <v>0.362986</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583676</v>
+        <v>1.022</v>
       </c>
       <c r="D108" t="n">
-        <v>0.639043</v>
+        <v>1.0984</v>
       </c>
       <c r="E108" t="n">
-        <v>0.299184</v>
+        <v>0.396448</v>
       </c>
       <c r="F108" t="n">
-        <v>0.590511</v>
+        <v>0.866788</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218503</v>
+        <v>0.313749</v>
       </c>
       <c r="C109" t="n">
-        <v>0.572013</v>
+        <v>0.901372</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654689</v>
+        <v>1.04974</v>
       </c>
       <c r="E109" t="n">
-        <v>0.298308</v>
+        <v>0.367622</v>
       </c>
       <c r="F109" t="n">
-        <v>0.596671</v>
+        <v>0.882313</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312123</v>
+        <v>0.484758</v>
       </c>
       <c r="C110" t="n">
-        <v>0.649864</v>
+        <v>0.956156</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642978</v>
+        <v>0.9870139999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.297869</v>
+        <v>0.326522</v>
       </c>
       <c r="F110" t="n">
-        <v>0.59002</v>
+        <v>1.05527</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309987</v>
+        <v>0.466928</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6421790000000001</v>
+        <v>1.07786</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64923</v>
+        <v>0.991556</v>
       </c>
       <c r="E111" t="n">
-        <v>0.293777</v>
+        <v>0.397176</v>
       </c>
       <c r="F111" t="n">
-        <v>0.587091</v>
+        <v>0.834077</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30082</v>
+        <v>0.485885</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653259</v>
+        <v>1.04912</v>
       </c>
       <c r="D112" t="n">
-        <v>0.638319</v>
+        <v>0.953074</v>
       </c>
       <c r="E112" t="n">
-        <v>0.291281</v>
+        <v>0.410058</v>
       </c>
       <c r="F112" t="n">
-        <v>0.588464</v>
+        <v>0.954147</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295209</v>
+        <v>0.481685</v>
       </c>
       <c r="C113" t="n">
-        <v>0.639964</v>
+        <v>1.07893</v>
       </c>
       <c r="D113" t="n">
-        <v>0.655424</v>
+        <v>1.00543</v>
       </c>
       <c r="E113" t="n">
-        <v>0.286702</v>
+        <v>0.319558</v>
       </c>
       <c r="F113" t="n">
-        <v>0.594722</v>
+        <v>0.735213</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286116</v>
+        <v>0.443939</v>
       </c>
       <c r="C114" t="n">
-        <v>0.650413</v>
+        <v>1.15164</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6372060000000001</v>
+        <v>1.08443</v>
       </c>
       <c r="E114" t="n">
-        <v>0.284187</v>
+        <v>0.3818</v>
       </c>
       <c r="F114" t="n">
-        <v>0.580726</v>
+        <v>0.814618</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27774</v>
+        <v>0.412808</v>
       </c>
       <c r="C115" t="n">
-        <v>0.651716</v>
+        <v>0.948665</v>
       </c>
       <c r="D115" t="n">
-        <v>0.64276</v>
+        <v>0.984834</v>
       </c>
       <c r="E115" t="n">
-        <v>0.282448</v>
+        <v>0.361819</v>
       </c>
       <c r="F115" t="n">
-        <v>0.579312</v>
+        <v>0.960236</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271004</v>
+        <v>0.43966</v>
       </c>
       <c r="C116" t="n">
-        <v>0.607351</v>
+        <v>0.983808</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638342</v>
+        <v>1.05428</v>
       </c>
       <c r="E116" t="n">
-        <v>0.280561</v>
+        <v>0.395619</v>
       </c>
       <c r="F116" t="n">
-        <v>0.581498</v>
+        <v>0.898273</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263795</v>
+        <v>0.419423</v>
       </c>
       <c r="C117" t="n">
-        <v>0.603174</v>
+        <v>1.01108</v>
       </c>
       <c r="D117" t="n">
-        <v>0.645247</v>
+        <v>1.13511</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276881</v>
+        <v>0.321999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5779</v>
+        <v>0.761456</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25716</v>
+        <v>0.382145</v>
       </c>
       <c r="C118" t="n">
-        <v>0.619275</v>
+        <v>0.87426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.644781</v>
+        <v>1.00367</v>
       </c>
       <c r="E118" t="n">
-        <v>0.280588</v>
+        <v>0.359926</v>
       </c>
       <c r="F118" t="n">
-        <v>0.574067</v>
+        <v>0.8056759999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254869</v>
+        <v>0.329227</v>
       </c>
       <c r="C119" t="n">
-        <v>0.607654</v>
+        <v>0.983903</v>
       </c>
       <c r="D119" t="n">
-        <v>0.646971</v>
+        <v>0.891437</v>
       </c>
       <c r="E119" t="n">
-        <v>0.276441</v>
+        <v>0.263571</v>
       </c>
       <c r="F119" t="n">
-        <v>0.57542</v>
+        <v>0.796752</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243039</v>
+        <v>0.370102</v>
       </c>
       <c r="C120" t="n">
-        <v>0.589903</v>
+        <v>1.00828</v>
       </c>
       <c r="D120" t="n">
-        <v>0.651135</v>
+        <v>1.0459</v>
       </c>
       <c r="E120" t="n">
-        <v>0.275331</v>
+        <v>0.341578</v>
       </c>
       <c r="F120" t="n">
-        <v>0.579938</v>
+        <v>0.825102</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.237327</v>
+        <v>0.352181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595574</v>
+        <v>0.8859629999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.651915</v>
+        <v>1.01286</v>
       </c>
       <c r="E121" t="n">
-        <v>0.272683</v>
+        <v>0.313925</v>
       </c>
       <c r="F121" t="n">
-        <v>0.572082</v>
+        <v>0.732533</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230434</v>
+        <v>0.384872</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589827</v>
+        <v>0.951611</v>
       </c>
       <c r="D122" t="n">
-        <v>0.654528</v>
+        <v>1.0454</v>
       </c>
       <c r="E122" t="n">
-        <v>0.269805</v>
+        <v>0.27725</v>
       </c>
       <c r="F122" t="n">
-        <v>0.573076</v>
+        <v>0.88671</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218457</v>
+        <v>0.296217</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587803</v>
+        <v>0.853959</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.901321</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295928</v>
+        <v>0.373556</v>
       </c>
       <c r="F123" t="n">
-        <v>0.596723</v>
+        <v>0.817199</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311869</v>
+        <v>0.45046</v>
       </c>
       <c r="C124" t="n">
-        <v>0.650271</v>
+        <v>1.09596</v>
       </c>
       <c r="D124" t="n">
-        <v>0.65085</v>
+        <v>0.976828</v>
       </c>
       <c r="E124" t="n">
-        <v>0.292989</v>
+        <v>0.346456</v>
       </c>
       <c r="F124" t="n">
-        <v>0.586048</v>
+        <v>0.9210660000000001</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.30801</v>
+        <v>0.462969</v>
       </c>
       <c r="C125" t="n">
-        <v>0.667609</v>
+        <v>1.04408</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6488699999999999</v>
+        <v>0.967994</v>
       </c>
       <c r="E125" t="n">
-        <v>0.291511</v>
+        <v>0.312379</v>
       </c>
       <c r="F125" t="n">
-        <v>0.585518</v>
+        <v>0.857508</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301286</v>
+        <v>0.483068</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668079</v>
+        <v>1.06559</v>
       </c>
       <c r="D126" t="n">
-        <v>0.648026</v>
+        <v>1.01841</v>
       </c>
       <c r="E126" t="n">
-        <v>0.288786</v>
+        <v>0.287627</v>
       </c>
       <c r="F126" t="n">
-        <v>0.595027</v>
+        <v>0.890974</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.292728</v>
+        <v>0.49947</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657983</v>
+        <v>1.00992</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663915</v>
+        <v>1.10609</v>
       </c>
       <c r="E127" t="n">
-        <v>0.285445</v>
+        <v>0.35426</v>
       </c>
       <c r="F127" t="n">
-        <v>0.583172</v>
+        <v>0.863445</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.286681</v>
+        <v>0.459982</v>
       </c>
       <c r="C128" t="n">
-        <v>0.665812</v>
+        <v>1.01155</v>
       </c>
       <c r="D128" t="n">
-        <v>0.662971</v>
+        <v>0.97188</v>
       </c>
       <c r="E128" t="n">
-        <v>0.283172</v>
+        <v>0.387785</v>
       </c>
       <c r="F128" t="n">
-        <v>0.583195</v>
+        <v>0.959964</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278742</v>
+        <v>0.444595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.633148</v>
+        <v>1.03077</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6465919999999999</v>
+        <v>1.18928</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281586</v>
+        <v>0.326811</v>
       </c>
       <c r="F129" t="n">
-        <v>0.578855</v>
+        <v>0.954009</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.273493</v>
+        <v>0.407803</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63826</v>
+        <v>0.918192</v>
       </c>
       <c r="D130" t="n">
-        <v>0.648012</v>
+        <v>0.962317</v>
       </c>
       <c r="E130" t="n">
-        <v>0.282048</v>
+        <v>0.281761</v>
       </c>
       <c r="F130" t="n">
-        <v>0.578981</v>
+        <v>0.996521</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.266834</v>
+        <v>0.381937</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605373</v>
+        <v>0.955133</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6493989999999999</v>
+        <v>0.985061</v>
       </c>
       <c r="E131" t="n">
-        <v>0.278165</v>
+        <v>0.340123</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57744</v>
+        <v>0.896676</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258825</v>
+        <v>0.371281</v>
       </c>
       <c r="C132" t="n">
-        <v>0.645172</v>
+        <v>0.955202</v>
       </c>
       <c r="D132" t="n">
-        <v>0.654556</v>
+        <v>1.16255</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277988</v>
+        <v>0.276882</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5769919999999999</v>
+        <v>0.89499</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.253987</v>
+        <v>0.375113</v>
       </c>
       <c r="C133" t="n">
-        <v>0.599088</v>
+        <v>1.00037</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652918</v>
+        <v>0.939897</v>
       </c>
       <c r="E133" t="n">
-        <v>0.275568</v>
+        <v>0.323087</v>
       </c>
       <c r="F133" t="n">
-        <v>0.575194</v>
+        <v>0.788955</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244298</v>
+        <v>0.354573</v>
       </c>
       <c r="C134" t="n">
-        <v>0.60891</v>
+        <v>0.856315</v>
       </c>
       <c r="D134" t="n">
-        <v>0.652613</v>
+        <v>1.12311</v>
       </c>
       <c r="E134" t="n">
-        <v>0.274651</v>
+        <v>0.306523</v>
       </c>
       <c r="F134" t="n">
-        <v>0.577515</v>
+        <v>0.744637</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237514</v>
+        <v>0.340353</v>
       </c>
       <c r="C135" t="n">
-        <v>0.602723</v>
+        <v>1.08883</v>
       </c>
       <c r="D135" t="n">
-        <v>0.656041</v>
+        <v>1.01803</v>
       </c>
       <c r="E135" t="n">
-        <v>0.273211</v>
+        <v>0.29075</v>
       </c>
       <c r="F135" t="n">
-        <v>0.576247</v>
+        <v>0.683173</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.229254</v>
+        <v>0.33706</v>
       </c>
       <c r="C136" t="n">
-        <v>0.599568</v>
+        <v>1.032</v>
       </c>
       <c r="D136" t="n">
-        <v>0.656501</v>
+        <v>1.08804</v>
       </c>
       <c r="E136" t="n">
-        <v>0.273552</v>
+        <v>0.296794</v>
       </c>
       <c r="F136" t="n">
-        <v>0.574039</v>
+        <v>0.890138</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.219711</v>
+        <v>0.357188</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580296</v>
+        <v>0.9017039999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.647165</v>
+        <v>0.807178</v>
       </c>
       <c r="E137" t="n">
-        <v>0.315944</v>
+        <v>0.330989</v>
       </c>
       <c r="F137" t="n">
-        <v>0.590372</v>
+        <v>0.725332</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313476</v>
+        <v>0.488993</v>
       </c>
       <c r="C138" t="n">
-        <v>0.640769</v>
+        <v>0.71266</v>
       </c>
       <c r="D138" t="n">
-        <v>0.665533</v>
+        <v>0.97168</v>
       </c>
       <c r="E138" t="n">
-        <v>0.292821</v>
+        <v>0.379894</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.718631</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312577</v>
+        <v>0.538297</v>
       </c>
       <c r="C139" t="n">
-        <v>0.665536</v>
+        <v>0.873754</v>
       </c>
       <c r="D139" t="n">
-        <v>0.651328</v>
+        <v>0.823581</v>
       </c>
       <c r="E139" t="n">
-        <v>0.290532</v>
+        <v>0.33108</v>
       </c>
       <c r="F139" t="n">
-        <v>0.586801</v>
+        <v>0.75339</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.302959</v>
+        <v>0.434565</v>
       </c>
       <c r="C140" t="n">
-        <v>0.62903</v>
+        <v>0.919719</v>
       </c>
       <c r="D140" t="n">
-        <v>0.655913</v>
+        <v>1.04162</v>
       </c>
       <c r="E140" t="n">
-        <v>0.288411</v>
+        <v>0.344949</v>
       </c>
       <c r="F140" t="n">
-        <v>0.58397</v>
+        <v>0.809998</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294927</v>
+        <v>0.482195</v>
       </c>
       <c r="C141" t="n">
-        <v>0.623438</v>
+        <v>0.851344</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649264</v>
+        <v>0.831228</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286511</v>
+        <v>0.396389</v>
       </c>
       <c r="F141" t="n">
-        <v>0.594562</v>
+        <v>0.609406</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289242</v>
+        <v>0.43727</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619502</v>
+        <v>0.846652</v>
       </c>
       <c r="D142" t="n">
-        <v>0.658465</v>
+        <v>0.947321</v>
       </c>
       <c r="E142" t="n">
-        <v>0.28691</v>
+        <v>0.373923</v>
       </c>
       <c r="F142" t="n">
-        <v>0.580527</v>
+        <v>0.758289</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.282289</v>
+        <v>0.462505</v>
       </c>
       <c r="C143" t="n">
-        <v>0.624497</v>
+        <v>0.919027</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6443140000000001</v>
+        <v>0.730773</v>
       </c>
       <c r="E143" t="n">
-        <v>0.283794</v>
+        <v>0.317311</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5793779999999999</v>
+        <v>0.8402230000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.23428</v>
+        <v>0.303736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.736862</v>
+        <v>0.7540249999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.621431</v>
+        <v>0.654861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.291492</v>
+        <v>0.206195</v>
       </c>
       <c r="F2" t="n">
-        <v>0.632359</v>
+        <v>0.580985</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.385619</v>
+        <v>0.232712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.798249</v>
+        <v>0.574348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.710226</v>
+        <v>0.6498159999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.347036</v>
+        <v>0.205985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.674581</v>
+        <v>0.59365</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.283409</v>
+        <v>0.316037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.694192</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.618211</v>
+        <v>0.6664870000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.262768</v>
+        <v>0.252063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.616527</v>
+        <v>0.537102</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.364607</v>
+        <v>0.278067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.53717</v>
+        <v>0.644687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.692854</v>
+        <v>0.5819569999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.222317</v>
+        <v>0.259689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.579816</v>
+        <v>0.572061</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.308437</v>
+        <v>0.281499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.869426</v>
+        <v>0.797025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.762586</v>
+        <v>0.782319</v>
       </c>
       <c r="E6" t="n">
-        <v>0.250504</v>
+        <v>0.297151</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6418509999999999</v>
+        <v>0.710012</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245053</v>
+        <v>0.303765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.788969</v>
+        <v>0.557798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.871206</v>
+        <v>0.744998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.254256</v>
+        <v>0.306034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.819916</v>
+        <v>0.5223719999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.322727</v>
+        <v>0.273061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6313299999999999</v>
+        <v>0.730442</v>
       </c>
       <c r="D8" t="n">
-        <v>0.720274</v>
+        <v>0.634232</v>
       </c>
       <c r="E8" t="n">
-        <v>0.175177</v>
+        <v>0.260079</v>
       </c>
       <c r="F8" t="n">
-        <v>0.528205</v>
+        <v>0.510382</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244684</v>
+        <v>0.192391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.723423</v>
+        <v>0.701416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.634423</v>
+        <v>0.621183</v>
       </c>
       <c r="E9" t="n">
-        <v>0.261086</v>
+        <v>0.34976</v>
       </c>
       <c r="F9" t="n">
-        <v>0.646424</v>
+        <v>0.709353</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.509307</v>
+        <v>0.425228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.816513</v>
+        <v>0.603297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.836461</v>
+        <v>0.648585</v>
       </c>
       <c r="E10" t="n">
-        <v>0.420045</v>
+        <v>0.276207</v>
       </c>
       <c r="F10" t="n">
-        <v>0.789834</v>
+        <v>0.6770659999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48117</v>
+        <v>0.369304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.589411</v>
+        <v>0.725581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.711951</v>
+        <v>0.8777779999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.36023</v>
+        <v>0.336028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.712122</v>
+        <v>0.629397</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.446258</v>
+        <v>0.518691</v>
       </c>
       <c r="C12" t="n">
-        <v>0.855169</v>
+        <v>0.718666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.800865</v>
+        <v>0.666156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.378614</v>
+        <v>0.389959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.765906</v>
+        <v>0.583076</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.414343</v>
+        <v>0.408817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.938699</v>
+        <v>0.715215</v>
       </c>
       <c r="D13" t="n">
-        <v>0.83221</v>
+        <v>0.6995130000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.384694</v>
+        <v>0.381174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.762787</v>
+        <v>0.831107</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.476048</v>
+        <v>0.471126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.759903</v>
+        <v>0.717762</v>
       </c>
       <c r="D14" t="n">
-        <v>0.769781</v>
+        <v>0.753309</v>
       </c>
       <c r="E14" t="n">
-        <v>0.37523</v>
+        <v>0.293513</v>
       </c>
       <c r="F14" t="n">
-        <v>0.704708</v>
+        <v>0.81414</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.373805</v>
+        <v>0.360399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7746189999999999</v>
+        <v>0.575897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.674517</v>
+        <v>0.6946059999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.283429</v>
+        <v>0.363162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.632192</v>
+        <v>0.562063</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.39679</v>
+        <v>0.446017</v>
       </c>
       <c r="C16" t="n">
-        <v>0.623131</v>
+        <v>0.711326</v>
       </c>
       <c r="D16" t="n">
-        <v>0.655218</v>
+        <v>0.745842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.335439</v>
+        <v>0.332571</v>
       </c>
       <c r="F16" t="n">
-        <v>0.454317</v>
+        <v>0.815495</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443812</v>
+        <v>0.409399</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7202499999999999</v>
+        <v>0.750207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.763981</v>
+        <v>0.926025</v>
       </c>
       <c r="E17" t="n">
-        <v>0.344709</v>
+        <v>0.280358</v>
       </c>
       <c r="F17" t="n">
-        <v>0.574716</v>
+        <v>0.7423920000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.425384</v>
+        <v>0.370767</v>
       </c>
       <c r="C18" t="n">
-        <v>0.83713</v>
+        <v>0.727756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.721436</v>
+        <v>0.777623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.338328</v>
+        <v>0.368342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.65929</v>
+        <v>0.731977</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451194</v>
+        <v>0.393098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.673074</v>
+        <v>0.69909</v>
       </c>
       <c r="D19" t="n">
-        <v>0.643089</v>
+        <v>0.7588510000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.34477</v>
+        <v>0.297725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.648506</v>
+        <v>0.700893</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436827</v>
+        <v>0.385137</v>
       </c>
       <c r="C20" t="n">
-        <v>0.608965</v>
+        <v>0.788111</v>
       </c>
       <c r="D20" t="n">
-        <v>0.687327</v>
+        <v>0.784242</v>
       </c>
       <c r="E20" t="n">
-        <v>0.272693</v>
+        <v>0.343299</v>
       </c>
       <c r="F20" t="n">
-        <v>0.65082</v>
+        <v>0.704952</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.244126</v>
+        <v>0.367308</v>
       </c>
       <c r="C21" t="n">
-        <v>0.768379</v>
+        <v>0.940823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.778741</v>
+        <v>0.99512</v>
       </c>
       <c r="E21" t="n">
-        <v>0.313251</v>
+        <v>0.332501</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5992960000000001</v>
+        <v>0.694068</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.350963</v>
+        <v>0.282717</v>
       </c>
       <c r="C22" t="n">
-        <v>0.740874</v>
+        <v>0.862038</v>
       </c>
       <c r="D22" t="n">
-        <v>0.967682</v>
+        <v>0.827579</v>
       </c>
       <c r="E22" t="n">
-        <v>0.318213</v>
+        <v>0.327306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.679046</v>
+        <v>0.687828</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.296329</v>
+        <v>0.320791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.645793</v>
+        <v>0.841315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6913859999999999</v>
+        <v>1.00798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.340078</v>
+        <v>0.41858</v>
       </c>
       <c r="F23" t="n">
-        <v>0.651906</v>
+        <v>0.734646</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.451811</v>
+        <v>0.454197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.715211</v>
+        <v>0.931626</v>
       </c>
       <c r="D24" t="n">
-        <v>0.614928</v>
+        <v>0.887976</v>
       </c>
       <c r="E24" t="n">
-        <v>0.375575</v>
+        <v>0.382542</v>
       </c>
       <c r="F24" t="n">
-        <v>0.73955</v>
+        <v>0.559141</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.454611</v>
+        <v>0.405453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.917083</v>
+        <v>0.726965</v>
       </c>
       <c r="D25" t="n">
-        <v>0.869463</v>
+        <v>0.821539</v>
       </c>
       <c r="E25" t="n">
-        <v>0.39927</v>
+        <v>0.343798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.831603</v>
+        <v>0.777149</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.442629</v>
+        <v>0.463044</v>
       </c>
       <c r="C26" t="n">
-        <v>0.872834</v>
+        <v>0.57741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.980926</v>
+        <v>0.7678120000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388832</v>
+        <v>0.281127</v>
       </c>
       <c r="F26" t="n">
-        <v>0.873694</v>
+        <v>0.555325</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.452473</v>
+        <v>0.420944</v>
       </c>
       <c r="C27" t="n">
-        <v>0.763591</v>
+        <v>1.01212</v>
       </c>
       <c r="D27" t="n">
-        <v>0.743587</v>
+        <v>0.790969</v>
       </c>
       <c r="E27" t="n">
-        <v>0.301162</v>
+        <v>0.307944</v>
       </c>
       <c r="F27" t="n">
-        <v>0.661699</v>
+        <v>0.745821</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.454779</v>
+        <v>0.42392</v>
       </c>
       <c r="C28" t="n">
-        <v>1.02027</v>
+        <v>0.855364</v>
       </c>
       <c r="D28" t="n">
-        <v>0.925279</v>
+        <v>0.703682</v>
       </c>
       <c r="E28" t="n">
-        <v>0.277382</v>
+        <v>0.370986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.620345</v>
+        <v>0.725917</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.381795</v>
+        <v>0.433652</v>
       </c>
       <c r="C29" t="n">
-        <v>0.737472</v>
+        <v>0.683876</v>
       </c>
       <c r="D29" t="n">
-        <v>0.715333</v>
+        <v>0.67308</v>
       </c>
       <c r="E29" t="n">
-        <v>0.277498</v>
+        <v>0.329067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.932518</v>
+        <v>0.730755</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.40229</v>
+        <v>0.398924</v>
       </c>
       <c r="C30" t="n">
-        <v>0.678478</v>
+        <v>0.621866</v>
       </c>
       <c r="D30" t="n">
-        <v>0.949246</v>
+        <v>0.630806</v>
       </c>
       <c r="E30" t="n">
-        <v>0.383371</v>
+        <v>0.271542</v>
       </c>
       <c r="F30" t="n">
-        <v>0.697937</v>
+        <v>0.568322</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.438674</v>
+        <v>0.417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.748918</v>
+        <v>0.747447</v>
       </c>
       <c r="D31" t="n">
-        <v>0.856524</v>
+        <v>0.687183</v>
       </c>
       <c r="E31" t="n">
-        <v>0.336205</v>
+        <v>0.314478</v>
       </c>
       <c r="F31" t="n">
-        <v>0.699425</v>
+        <v>0.708959</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424892</v>
+        <v>0.423032</v>
       </c>
       <c r="C32" t="n">
-        <v>0.87906</v>
+        <v>0.824289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.898335</v>
+        <v>0.572174</v>
       </c>
       <c r="E32" t="n">
-        <v>0.355607</v>
+        <v>0.340731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.693598</v>
+        <v>0.892526</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.440252</v>
+        <v>0.404104</v>
       </c>
       <c r="C33" t="n">
-        <v>0.76476</v>
+        <v>0.921404</v>
       </c>
       <c r="D33" t="n">
-        <v>0.910636</v>
+        <v>0.816629</v>
       </c>
       <c r="E33" t="n">
-        <v>0.340632</v>
+        <v>0.257383</v>
       </c>
       <c r="F33" t="n">
-        <v>0.667172</v>
+        <v>0.596853</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.404237</v>
+        <v>0.347478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.831622</v>
+        <v>0.690065</v>
       </c>
       <c r="D34" t="n">
-        <v>0.954569</v>
+        <v>0.834963</v>
       </c>
       <c r="E34" t="n">
-        <v>0.311091</v>
+        <v>0.347534</v>
       </c>
       <c r="F34" t="n">
-        <v>0.680613</v>
+        <v>0.628873</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.366633</v>
+        <v>0.37581</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8428369999999999</v>
+        <v>0.718932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.787119</v>
+        <v>0.780447</v>
       </c>
       <c r="E35" t="n">
-        <v>0.350154</v>
+        <v>0.301096</v>
       </c>
       <c r="F35" t="n">
-        <v>0.574535</v>
+        <v>0.590074</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.342739</v>
+        <v>0.337657</v>
       </c>
       <c r="C36" t="n">
-        <v>0.622584</v>
+        <v>0.819958</v>
       </c>
       <c r="D36" t="n">
-        <v>0.812186</v>
+        <v>0.880981</v>
       </c>
       <c r="E36" t="n">
-        <v>0.297247</v>
+        <v>0.344501</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7151960000000001</v>
+        <v>0.518748</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353645</v>
+        <v>0.275966</v>
       </c>
       <c r="C37" t="n">
-        <v>0.662591</v>
+        <v>0.543582</v>
       </c>
       <c r="D37" t="n">
-        <v>0.864401</v>
+        <v>0.73938</v>
       </c>
       <c r="E37" t="n">
-        <v>0.389144</v>
+        <v>0.26072</v>
       </c>
       <c r="F37" t="n">
-        <v>0.840622</v>
+        <v>0.8156600000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.521316</v>
+        <v>0.422022</v>
       </c>
       <c r="C38" t="n">
-        <v>1.035</v>
+        <v>0.769671</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0079</v>
+        <v>0.8012629999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.436703</v>
+        <v>0.370283</v>
       </c>
       <c r="F38" t="n">
-        <v>0.796945</v>
+        <v>0.818312</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.457014</v>
+        <v>0.399947</v>
       </c>
       <c r="C39" t="n">
-        <v>0.955153</v>
+        <v>1.00411</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7982359999999999</v>
+        <v>1.05735</v>
       </c>
       <c r="E39" t="n">
-        <v>0.382923</v>
+        <v>0.39138</v>
       </c>
       <c r="F39" t="n">
-        <v>0.837434</v>
+        <v>0.724374</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.454442</v>
+        <v>0.445934</v>
       </c>
       <c r="C40" t="n">
-        <v>0.915237</v>
+        <v>0.845452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9338959999999999</v>
+        <v>0.638562</v>
       </c>
       <c r="E40" t="n">
-        <v>0.394193</v>
+        <v>0.338229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.762507</v>
+        <v>0.787841</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.443267</v>
+        <v>0.416363</v>
       </c>
       <c r="C41" t="n">
-        <v>0.928123</v>
+        <v>0.910195</v>
       </c>
       <c r="D41" t="n">
-        <v>0.621242</v>
+        <v>0.640275</v>
       </c>
       <c r="E41" t="n">
-        <v>0.260966</v>
+        <v>0.319202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.781855</v>
+        <v>0.6529239999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.449511</v>
+        <v>0.384766</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6637690000000001</v>
+        <v>0.94972</v>
       </c>
       <c r="D42" t="n">
-        <v>0.641383</v>
+        <v>1.19602</v>
       </c>
       <c r="E42" t="n">
-        <v>0.336335</v>
+        <v>0.378382</v>
       </c>
       <c r="F42" t="n">
-        <v>0.767836</v>
+        <v>0.763409</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.431938</v>
+        <v>0.449991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.849901</v>
+        <v>0.864211</v>
       </c>
       <c r="D43" t="n">
-        <v>0.764443</v>
+        <v>0.779178</v>
       </c>
       <c r="E43" t="n">
-        <v>0.321455</v>
+        <v>0.346575</v>
       </c>
       <c r="F43" t="n">
-        <v>0.744519</v>
+        <v>0.80572</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.457054</v>
+        <v>0.435488</v>
       </c>
       <c r="C44" t="n">
-        <v>0.833226</v>
+        <v>0.796801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.801606</v>
+        <v>0.636783</v>
       </c>
       <c r="E44" t="n">
-        <v>0.308065</v>
+        <v>0.322859</v>
       </c>
       <c r="F44" t="n">
-        <v>0.855955</v>
+        <v>0.732085</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.452887</v>
+        <v>0.389608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.811388</v>
+        <v>0.773602</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8093129999999999</v>
+        <v>0.755462</v>
       </c>
       <c r="E45" t="n">
-        <v>0.313721</v>
+        <v>0.285427</v>
       </c>
       <c r="F45" t="n">
-        <v>0.751892</v>
+        <v>0.800621</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.397013</v>
+        <v>0.427153</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7844370000000001</v>
+        <v>0.922195</v>
       </c>
       <c r="D46" t="n">
-        <v>0.883825</v>
+        <v>0.68971</v>
       </c>
       <c r="E46" t="n">
-        <v>0.307438</v>
+        <v>0.32502</v>
       </c>
       <c r="F46" t="n">
-        <v>0.823425</v>
+        <v>0.729282</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.410725</v>
+        <v>0.391203</v>
       </c>
       <c r="C47" t="n">
-        <v>0.852322</v>
+        <v>0.962028</v>
       </c>
       <c r="D47" t="n">
-        <v>0.71543</v>
+        <v>0.706348</v>
       </c>
       <c r="E47" t="n">
-        <v>0.336218</v>
+        <v>0.335284</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5296149999999999</v>
+        <v>0.7530790000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.419765</v>
+        <v>0.366365</v>
       </c>
       <c r="C48" t="n">
-        <v>0.816263</v>
+        <v>0.803958</v>
       </c>
       <c r="D48" t="n">
-        <v>0.923385</v>
+        <v>0.81358</v>
       </c>
       <c r="E48" t="n">
-        <v>0.249062</v>
+        <v>0.317802</v>
       </c>
       <c r="F48" t="n">
-        <v>0.83134</v>
+        <v>0.9160779999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.348498</v>
+        <v>0.364398</v>
       </c>
       <c r="C49" t="n">
-        <v>0.786114</v>
+        <v>0.8295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.654023</v>
+        <v>0.779186</v>
       </c>
       <c r="E49" t="n">
-        <v>0.338876</v>
+        <v>0.301039</v>
       </c>
       <c r="F49" t="n">
-        <v>0.827797</v>
+        <v>0.867032</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.371599</v>
+        <v>0.378334</v>
       </c>
       <c r="C50" t="n">
-        <v>0.755697</v>
+        <v>0.736324</v>
       </c>
       <c r="D50" t="n">
-        <v>0.90093</v>
+        <v>0.946464</v>
       </c>
       <c r="E50" t="n">
-        <v>0.285588</v>
+        <v>0.322605</v>
       </c>
       <c r="F50" t="n">
-        <v>0.753087</v>
+        <v>0.741676</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.346733</v>
+        <v>0.369515</v>
       </c>
       <c r="C51" t="n">
-        <v>0.72766</v>
+        <v>0.7510829999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.759378</v>
+        <v>0.942683</v>
       </c>
       <c r="E51" t="n">
-        <v>0.390653</v>
+        <v>0.382719</v>
       </c>
       <c r="F51" t="n">
-        <v>0.837056</v>
+        <v>0.806821</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.360546</v>
+        <v>0.316463</v>
       </c>
       <c r="C52" t="n">
-        <v>0.718051</v>
+        <v>0.7223039999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.991142</v>
+        <v>0.849519</v>
       </c>
       <c r="E52" t="n">
-        <v>0.338077</v>
+        <v>0.366481</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8368100000000001</v>
+        <v>0.945244</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.533135</v>
+        <v>0.457295</v>
       </c>
       <c r="C53" t="n">
-        <v>0.887896</v>
+        <v>0.887759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7371180000000001</v>
+        <v>0.813238</v>
       </c>
       <c r="E53" t="n">
-        <v>0.349844</v>
+        <v>0.374475</v>
       </c>
       <c r="F53" t="n">
-        <v>0.818026</v>
+        <v>0.816756</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.466834</v>
+        <v>0.432609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.919652</v>
+        <v>0.859889</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8860209999999999</v>
+        <v>0.714786</v>
       </c>
       <c r="E54" t="n">
-        <v>0.374911</v>
+        <v>0.39069</v>
       </c>
       <c r="F54" t="n">
-        <v>0.769273</v>
+        <v>0.644185</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.459764</v>
+        <v>0.477954</v>
       </c>
       <c r="C55" t="n">
-        <v>0.833322</v>
+        <v>0.9176299999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.911342</v>
+        <v>0.688485</v>
       </c>
       <c r="E55" t="n">
-        <v>0.387524</v>
+        <v>0.336713</v>
       </c>
       <c r="F55" t="n">
-        <v>0.839321</v>
+        <v>0.729614</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.416954</v>
+        <v>0.462397</v>
       </c>
       <c r="C56" t="n">
-        <v>0.91024</v>
+        <v>0.808123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.835014</v>
+        <v>0.741499</v>
       </c>
       <c r="E56" t="n">
-        <v>0.401627</v>
+        <v>0.312649</v>
       </c>
       <c r="F56" t="n">
-        <v>0.795923</v>
+        <v>0.807992</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.433279</v>
+        <v>0.482722</v>
       </c>
       <c r="C57" t="n">
-        <v>1.11113</v>
+        <v>0.839214</v>
       </c>
       <c r="D57" t="n">
-        <v>1.04819</v>
+        <v>0.852573</v>
       </c>
       <c r="E57" t="n">
-        <v>0.333413</v>
+        <v>0.401082</v>
       </c>
       <c r="F57" t="n">
-        <v>0.762204</v>
+        <v>0.767567</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.46125</v>
+        <v>0.422161</v>
       </c>
       <c r="C58" t="n">
-        <v>0.85024</v>
+        <v>0.934839</v>
       </c>
       <c r="D58" t="n">
-        <v>1.09876</v>
+        <v>0.8803569999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.311652</v>
+        <v>0.398879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.698673</v>
+        <v>0.836131</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.426875</v>
+        <v>0.421042</v>
       </c>
       <c r="C59" t="n">
-        <v>0.831765</v>
+        <v>0.924284</v>
       </c>
       <c r="D59" t="n">
-        <v>0.778191</v>
+        <v>1.0362</v>
       </c>
       <c r="E59" t="n">
-        <v>0.377724</v>
+        <v>0.369884</v>
       </c>
       <c r="F59" t="n">
-        <v>0.575689</v>
+        <v>0.7213540000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.397006</v>
+        <v>0.416114</v>
       </c>
       <c r="C60" t="n">
-        <v>0.814313</v>
+        <v>1.00508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.987966</v>
+        <v>0.894139</v>
       </c>
       <c r="E60" t="n">
-        <v>0.360921</v>
+        <v>0.353161</v>
       </c>
       <c r="F60" t="n">
-        <v>0.632602</v>
+        <v>0.654626</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.391026</v>
+        <v>0.4319</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04194</v>
+        <v>0.763369</v>
       </c>
       <c r="D61" t="n">
-        <v>0.841126</v>
+        <v>0.977683</v>
       </c>
       <c r="E61" t="n">
-        <v>0.338687</v>
+        <v>0.291056</v>
       </c>
       <c r="F61" t="n">
-        <v>0.668866</v>
+        <v>0.676264</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.41861</v>
+        <v>0.400609</v>
       </c>
       <c r="C62" t="n">
-        <v>0.87025</v>
+        <v>0.735301</v>
       </c>
       <c r="D62" t="n">
-        <v>1.08551</v>
+        <v>0.880978</v>
       </c>
       <c r="E62" t="n">
-        <v>0.361113</v>
+        <v>0.356053</v>
       </c>
       <c r="F62" t="n">
-        <v>0.662859</v>
+        <v>0.79949</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.396362</v>
+        <v>0.371641</v>
       </c>
       <c r="C63" t="n">
-        <v>0.72478</v>
+        <v>0.861233</v>
       </c>
       <c r="D63" t="n">
-        <v>1.04415</v>
+        <v>0.95067</v>
       </c>
       <c r="E63" t="n">
-        <v>0.352441</v>
+        <v>0.342411</v>
       </c>
       <c r="F63" t="n">
-        <v>0.759006</v>
+        <v>0.846035</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.389409</v>
+        <v>0.392838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.615621</v>
+        <v>0.8624849999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.939226</v>
+        <v>0.976071</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238297</v>
+        <v>0.317101</v>
       </c>
       <c r="F64" t="n">
-        <v>0.810701</v>
+        <v>0.592882</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.372781</v>
+        <v>0.352743</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6765910000000001</v>
+        <v>0.858475</v>
       </c>
       <c r="D65" t="n">
-        <v>1.01199</v>
+        <v>0.856741</v>
       </c>
       <c r="E65" t="n">
-        <v>0.344391</v>
+        <v>0.32902</v>
       </c>
       <c r="F65" t="n">
-        <v>0.690286</v>
+        <v>0.7776459999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341469</v>
+        <v>0.351499</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5570580000000001</v>
+        <v>0.900371</v>
       </c>
       <c r="D66" t="n">
-        <v>1.06116</v>
+        <v>1.19459</v>
       </c>
       <c r="E66" t="n">
-        <v>0.333268</v>
+        <v>0.335217</v>
       </c>
       <c r="F66" t="n">
-        <v>0.916795</v>
+        <v>0.741008</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.538003</v>
+        <v>0.459223</v>
       </c>
       <c r="C67" t="n">
-        <v>0.906137</v>
+        <v>1.10208</v>
       </c>
       <c r="D67" t="n">
-        <v>0.905691</v>
+        <v>1.08127</v>
       </c>
       <c r="E67" t="n">
-        <v>0.355433</v>
+        <v>0.418725</v>
       </c>
       <c r="F67" t="n">
-        <v>0.869058</v>
+        <v>0.884094</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515101</v>
+        <v>0.481553</v>
       </c>
       <c r="C68" t="n">
-        <v>0.975638</v>
+        <v>0.772359</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09327</v>
+        <v>1.04028</v>
       </c>
       <c r="E68" t="n">
-        <v>0.324851</v>
+        <v>0.403085</v>
       </c>
       <c r="F68" t="n">
-        <v>0.939176</v>
+        <v>0.800891</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.470144</v>
+        <v>0.50197</v>
       </c>
       <c r="C69" t="n">
-        <v>1.05894</v>
+        <v>0.944276</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00286</v>
+        <v>0.887818</v>
       </c>
       <c r="E69" t="n">
-        <v>0.371091</v>
+        <v>0.388165</v>
       </c>
       <c r="F69" t="n">
-        <v>0.838047</v>
+        <v>0.721058</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.46081</v>
+        <v>0.374322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.960885</v>
+        <v>0.842212</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9394130000000001</v>
+        <v>0.832223</v>
       </c>
       <c r="E70" t="n">
-        <v>0.399483</v>
+        <v>0.324366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.739326</v>
+        <v>0.773394</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453362</v>
+        <v>0.42434</v>
       </c>
       <c r="C71" t="n">
-        <v>0.930074</v>
+        <v>1.04561</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01208</v>
+        <v>1.01275</v>
       </c>
       <c r="E71" t="n">
-        <v>0.334545</v>
+        <v>0.306799</v>
       </c>
       <c r="F71" t="n">
-        <v>0.642967</v>
+        <v>0.732449</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.475167</v>
+        <v>0.451631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.971348</v>
+        <v>0.934658</v>
       </c>
       <c r="D72" t="n">
-        <v>0.955178</v>
+        <v>0.9985619999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.307376</v>
+        <v>0.380322</v>
       </c>
       <c r="F72" t="n">
-        <v>0.706601</v>
+        <v>0.744986</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.437172</v>
+        <v>0.385602</v>
       </c>
       <c r="C73" t="n">
-        <v>1.04423</v>
+        <v>0.922698</v>
       </c>
       <c r="D73" t="n">
-        <v>1.1186</v>
+        <v>0.972701</v>
       </c>
       <c r="E73" t="n">
-        <v>0.335308</v>
+        <v>0.377687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.879033</v>
+        <v>0.713148</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.45318</v>
+        <v>0.340323</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00297</v>
+        <v>0.966036</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1281</v>
+        <v>1.09502</v>
       </c>
       <c r="E74" t="n">
-        <v>0.364699</v>
+        <v>0.283528</v>
       </c>
       <c r="F74" t="n">
-        <v>0.837984</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.41609</v>
+        <v>0.406448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.922826</v>
+        <v>1.00466</v>
       </c>
       <c r="D75" t="n">
-        <v>1.06101</v>
+        <v>1.19038</v>
       </c>
       <c r="E75" t="n">
-        <v>0.338852</v>
+        <v>0.339591</v>
       </c>
       <c r="F75" t="n">
-        <v>0.745455</v>
+        <v>0.728615</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.425337</v>
+        <v>0.372309</v>
       </c>
       <c r="C76" t="n">
-        <v>0.865313</v>
+        <v>0.8787430000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>1.11424</v>
+        <v>1.06462</v>
       </c>
       <c r="E76" t="n">
-        <v>0.360964</v>
+        <v>0.318479</v>
       </c>
       <c r="F76" t="n">
-        <v>0.745882</v>
+        <v>0.812133</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.380276</v>
+        <v>0.40529</v>
       </c>
       <c r="C77" t="n">
-        <v>0.865657</v>
+        <v>0.867158</v>
       </c>
       <c r="D77" t="n">
-        <v>1.06902</v>
+        <v>1.12188</v>
       </c>
       <c r="E77" t="n">
-        <v>0.292817</v>
+        <v>0.354387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.756231</v>
+        <v>0.763211</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.365614</v>
+        <v>0.366788</v>
       </c>
       <c r="C78" t="n">
-        <v>0.95749</v>
+        <v>0.863029</v>
       </c>
       <c r="D78" t="n">
-        <v>1.11092</v>
+        <v>1.13584</v>
       </c>
       <c r="E78" t="n">
-        <v>0.275566</v>
+        <v>0.358977</v>
       </c>
       <c r="F78" t="n">
-        <v>0.809222</v>
+        <v>0.754789</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35558</v>
+        <v>0.353581</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8151350000000001</v>
+        <v>0.857035</v>
       </c>
       <c r="D79" t="n">
-        <v>0.915938</v>
+        <v>1.11866</v>
       </c>
       <c r="E79" t="n">
-        <v>0.279698</v>
+        <v>0.344151</v>
       </c>
       <c r="F79" t="n">
-        <v>0.921329</v>
+        <v>0.758001</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.352773</v>
+        <v>0.341895</v>
       </c>
       <c r="C80" t="n">
-        <v>0.917712</v>
+        <v>0.980978</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9267069999999999</v>
+        <v>1.0566</v>
       </c>
       <c r="E80" t="n">
-        <v>0.334472</v>
+        <v>0.422268</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6886</v>
+        <v>0.845757</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.473574</v>
+        <v>0.478931</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00176</v>
+        <v>1.046</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10068</v>
+        <v>1.06639</v>
       </c>
       <c r="E81" t="n">
-        <v>0.306705</v>
+        <v>0.399662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.741981</v>
+        <v>0.895204</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.488782</v>
+        <v>0.473952</v>
       </c>
       <c r="C82" t="n">
-        <v>0.998625</v>
+        <v>1.1817</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0367</v>
+        <v>1.07796</v>
       </c>
       <c r="E82" t="n">
-        <v>0.381145</v>
+        <v>0.357102</v>
       </c>
       <c r="F82" t="n">
-        <v>0.688198</v>
+        <v>0.888807</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.501752</v>
+        <v>0.473223</v>
       </c>
       <c r="C83" t="n">
-        <v>0.997486</v>
+        <v>0.9818440000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08168</v>
+        <v>1.00478</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3735</v>
+        <v>0.28585</v>
       </c>
       <c r="F83" t="n">
-        <v>0.875301</v>
+        <v>0.750941</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.472849</v>
+        <v>0.453495</v>
       </c>
       <c r="C84" t="n">
-        <v>1.09521</v>
+        <v>1.11758</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2394</v>
+        <v>1.14549</v>
       </c>
       <c r="E84" t="n">
-        <v>0.388854</v>
+        <v>0.294372</v>
       </c>
       <c r="F84" t="n">
-        <v>0.93827</v>
+        <v>0.756256</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.475608</v>
+        <v>0.4327</v>
       </c>
       <c r="C85" t="n">
-        <v>1.08335</v>
+        <v>1.0321</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0771</v>
+        <v>1.13669</v>
       </c>
       <c r="E85" t="n">
-        <v>0.351445</v>
+        <v>0.331826</v>
       </c>
       <c r="F85" t="n">
-        <v>0.780898</v>
+        <v>0.774541</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.454963</v>
+        <v>0.479899</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13355</v>
+        <v>1.0897</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11608</v>
+        <v>1.0594</v>
       </c>
       <c r="E86" t="n">
-        <v>0.318497</v>
+        <v>0.361745</v>
       </c>
       <c r="F86" t="n">
-        <v>0.920648</v>
+        <v>0.74076</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.448074</v>
+        <v>0.421663</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13485</v>
+        <v>1.0478</v>
       </c>
       <c r="D87" t="n">
-        <v>1.20838</v>
+        <v>1.17666</v>
       </c>
       <c r="E87" t="n">
-        <v>0.328943</v>
+        <v>0.368666</v>
       </c>
       <c r="F87" t="n">
-        <v>0.735977</v>
+        <v>0.761058</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.414203</v>
+        <v>0.378097</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02798</v>
+        <v>1.18249</v>
       </c>
       <c r="D88" t="n">
-        <v>1.19717</v>
+        <v>1.20982</v>
       </c>
       <c r="E88" t="n">
-        <v>0.34314</v>
+        <v>0.297688</v>
       </c>
       <c r="F88" t="n">
-        <v>0.799185</v>
+        <v>0.602931</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.419904</v>
+        <v>0.393272</v>
       </c>
       <c r="C89" t="n">
-        <v>1.0314</v>
+        <v>1.04864</v>
       </c>
       <c r="D89" t="n">
-        <v>1.08151</v>
+        <v>1.17205</v>
       </c>
       <c r="E89" t="n">
-        <v>0.286699</v>
+        <v>0.313996</v>
       </c>
       <c r="F89" t="n">
-        <v>0.669696</v>
+        <v>0.796154</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.408347</v>
+        <v>0.36691</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1062</v>
+        <v>0.996804</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17214</v>
+        <v>1.20762</v>
       </c>
       <c r="E90" t="n">
-        <v>0.367019</v>
+        <v>0.303759</v>
       </c>
       <c r="F90" t="n">
-        <v>0.970119</v>
+        <v>0.772708</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382745</v>
+        <v>0.347885</v>
       </c>
       <c r="C91" t="n">
-        <v>1.01212</v>
+        <v>1.08598</v>
       </c>
       <c r="D91" t="n">
-        <v>1.12872</v>
+        <v>1.16441</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355599</v>
+        <v>0.296969</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.889724</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.409195</v>
+        <v>0.337484</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9831299999999999</v>
+        <v>0.943002</v>
       </c>
       <c r="D92" t="n">
-        <v>1.13544</v>
+        <v>1.22744</v>
       </c>
       <c r="E92" t="n">
-        <v>0.338435</v>
+        <v>0.357646</v>
       </c>
       <c r="F92" t="n">
-        <v>0.781601</v>
+        <v>0.959916</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386679</v>
+        <v>0.344866</v>
       </c>
       <c r="C93" t="n">
-        <v>1.02182</v>
+        <v>0.986977</v>
       </c>
       <c r="D93" t="n">
-        <v>1.12662</v>
+        <v>0.799964</v>
       </c>
       <c r="E93" t="n">
-        <v>0.29431</v>
+        <v>0.238994</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8597050000000001</v>
+        <v>0.91439</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.346725</v>
+        <v>0.335049</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02052</v>
+        <v>1.0295</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1253</v>
+        <v>1.04382</v>
       </c>
       <c r="E94" t="n">
-        <v>0.365409</v>
+        <v>0.355185</v>
       </c>
       <c r="F94" t="n">
-        <v>0.702089</v>
+        <v>0.784929</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.483571</v>
+        <v>0.510626</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06173</v>
+        <v>1.04075</v>
       </c>
       <c r="D95" t="n">
-        <v>0.957515</v>
+        <v>1.13159</v>
       </c>
       <c r="E95" t="n">
-        <v>0.404069</v>
+        <v>0.338673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.855395</v>
+        <v>0.847296</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.500206</v>
+        <v>0.552096</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02754</v>
+        <v>1.15001</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00907</v>
+        <v>1.17428</v>
       </c>
       <c r="E96" t="n">
-        <v>0.391261</v>
+        <v>0.336502</v>
       </c>
       <c r="F96" t="n">
-        <v>1.01299</v>
+        <v>1.09826</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.496806</v>
+        <v>0.455096</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07883</v>
+        <v>1.05377</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0532</v>
+        <v>1.08301</v>
       </c>
       <c r="E97" t="n">
-        <v>0.396843</v>
+        <v>0.413657</v>
       </c>
       <c r="F97" t="n">
-        <v>0.869973</v>
+        <v>0.863689</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.512178</v>
+        <v>0.431926</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08421</v>
+        <v>1.1068</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01869</v>
+        <v>1.04077</v>
       </c>
       <c r="E98" t="n">
-        <v>0.362509</v>
+        <v>0.412898</v>
       </c>
       <c r="F98" t="n">
-        <v>0.808088</v>
+        <v>0.804924</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.412196</v>
+        <v>0.475233</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11281</v>
+        <v>0.998709</v>
       </c>
       <c r="D99" t="n">
-        <v>1.06695</v>
+        <v>1.09722</v>
       </c>
       <c r="E99" t="n">
-        <v>0.323984</v>
+        <v>0.378603</v>
       </c>
       <c r="F99" t="n">
-        <v>1.03777</v>
+        <v>0.815451</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.440795</v>
+        <v>0.498543</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9543469999999999</v>
+        <v>1.07673</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10306</v>
+        <v>1.09139</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23097</v>
+        <v>0.378564</v>
       </c>
       <c r="F100" t="n">
-        <v>0.934451</v>
+        <v>0.851075</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.442681</v>
+        <v>0.430041</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0311</v>
+        <v>1.18781</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11894</v>
+        <v>1.08854</v>
       </c>
       <c r="E101" t="n">
-        <v>0.383924</v>
+        <v>0.366647</v>
       </c>
       <c r="F101" t="n">
-        <v>0.702747</v>
+        <v>0.883113</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.420768</v>
+        <v>0.427068</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01156</v>
+        <v>0.892101</v>
       </c>
       <c r="D102" t="n">
-        <v>0.927073</v>
+        <v>1.09252</v>
       </c>
       <c r="E102" t="n">
-        <v>0.31601</v>
+        <v>0.333237</v>
       </c>
       <c r="F102" t="n">
-        <v>0.831017</v>
+        <v>0.770617</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.378507</v>
+        <v>0.417401</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11348</v>
+        <v>1.00292</v>
       </c>
       <c r="D103" t="n">
-        <v>1.02316</v>
+        <v>1.01324</v>
       </c>
       <c r="E103" t="n">
-        <v>0.357058</v>
+        <v>0.369758</v>
       </c>
       <c r="F103" t="n">
-        <v>0.828359</v>
+        <v>0.832008</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.373955</v>
+        <v>0.375169</v>
       </c>
       <c r="C104" t="n">
-        <v>1.02017</v>
+        <v>1.02092</v>
       </c>
       <c r="D104" t="n">
-        <v>1.04122</v>
+        <v>1.03519</v>
       </c>
       <c r="E104" t="n">
-        <v>0.323577</v>
+        <v>0.344991</v>
       </c>
       <c r="F104" t="n">
-        <v>0.82074</v>
+        <v>0.7611</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.412108</v>
+        <v>0.392861</v>
       </c>
       <c r="C105" t="n">
-        <v>1.0121</v>
+        <v>0.952815</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23352</v>
+        <v>1.11575</v>
       </c>
       <c r="E105" t="n">
-        <v>0.387245</v>
+        <v>0.36519</v>
       </c>
       <c r="F105" t="n">
-        <v>0.820787</v>
+        <v>0.8187950000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.410386</v>
+        <v>0.349975</v>
       </c>
       <c r="C106" t="n">
-        <v>1.06546</v>
+        <v>0.9719410000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16818</v>
+        <v>1.10632</v>
       </c>
       <c r="E106" t="n">
-        <v>0.275386</v>
+        <v>0.358254</v>
       </c>
       <c r="F106" t="n">
-        <v>0.831122</v>
+        <v>0.846603</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.357349</v>
+        <v>0.343111</v>
       </c>
       <c r="C107" t="n">
-        <v>0.877071</v>
+        <v>0.937212</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01605</v>
+        <v>0.975969</v>
       </c>
       <c r="E107" t="n">
-        <v>0.310916</v>
+        <v>0.315189</v>
       </c>
       <c r="F107" t="n">
-        <v>0.653506</v>
+        <v>0.830573</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.362986</v>
+        <v>0.354109</v>
       </c>
       <c r="C108" t="n">
-        <v>1.022</v>
+        <v>0.9251740000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0984</v>
+        <v>0.976706</v>
       </c>
       <c r="E108" t="n">
-        <v>0.396448</v>
+        <v>0.429438</v>
       </c>
       <c r="F108" t="n">
-        <v>0.866788</v>
+        <v>0.942148</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.313749</v>
+        <v>0.332481</v>
       </c>
       <c r="C109" t="n">
-        <v>0.901372</v>
+        <v>0.896273</v>
       </c>
       <c r="D109" t="n">
-        <v>1.04974</v>
+        <v>0.997369</v>
       </c>
       <c r="E109" t="n">
-        <v>0.367622</v>
+        <v>0.412017</v>
       </c>
       <c r="F109" t="n">
-        <v>0.882313</v>
+        <v>0.934191</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.484758</v>
+        <v>0.472033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.956156</v>
+        <v>1.05536</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9870139999999999</v>
+        <v>1.1313</v>
       </c>
       <c r="E110" t="n">
-        <v>0.326522</v>
+        <v>0.393706</v>
       </c>
       <c r="F110" t="n">
-        <v>1.05527</v>
+        <v>0.831159</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.466928</v>
+        <v>0.490616</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07786</v>
+        <v>1.07441</v>
       </c>
       <c r="D111" t="n">
-        <v>0.991556</v>
+        <v>1.12569</v>
       </c>
       <c r="E111" t="n">
-        <v>0.397176</v>
+        <v>0.357766</v>
       </c>
       <c r="F111" t="n">
-        <v>0.834077</v>
+        <v>0.960941</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.485885</v>
+        <v>0.471723</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04912</v>
+        <v>1.15121</v>
       </c>
       <c r="D112" t="n">
-        <v>0.953074</v>
+        <v>1.14048</v>
       </c>
       <c r="E112" t="n">
-        <v>0.410058</v>
+        <v>0.352401</v>
       </c>
       <c r="F112" t="n">
-        <v>0.954147</v>
+        <v>0.867121</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.481685</v>
+        <v>0.451411</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07893</v>
+        <v>1.08825</v>
       </c>
       <c r="D113" t="n">
-        <v>1.00543</v>
+        <v>0.983413</v>
       </c>
       <c r="E113" t="n">
-        <v>0.319558</v>
+        <v>0.367013</v>
       </c>
       <c r="F113" t="n">
-        <v>0.735213</v>
+        <v>0.940367</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.443939</v>
+        <v>0.426141</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15164</v>
+        <v>0.9865</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08443</v>
+        <v>1.03347</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3818</v>
+        <v>0.34627</v>
       </c>
       <c r="F114" t="n">
-        <v>0.814618</v>
+        <v>0.906738</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.412808</v>
+        <v>0.405811</v>
       </c>
       <c r="C115" t="n">
-        <v>0.948665</v>
+        <v>1.06468</v>
       </c>
       <c r="D115" t="n">
-        <v>0.984834</v>
+        <v>1.00719</v>
       </c>
       <c r="E115" t="n">
-        <v>0.361819</v>
+        <v>0.344102</v>
       </c>
       <c r="F115" t="n">
-        <v>0.960236</v>
+        <v>0.918884</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.43966</v>
+        <v>0.442596</v>
       </c>
       <c r="C116" t="n">
-        <v>0.983808</v>
+        <v>0.979129</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05428</v>
+        <v>1.07916</v>
       </c>
       <c r="E116" t="n">
-        <v>0.395619</v>
+        <v>0.246782</v>
       </c>
       <c r="F116" t="n">
-        <v>0.898273</v>
+        <v>0.856752</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.419423</v>
+        <v>0.383274</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01108</v>
+        <v>1.03133</v>
       </c>
       <c r="D117" t="n">
-        <v>1.13511</v>
+        <v>1.15671</v>
       </c>
       <c r="E117" t="n">
-        <v>0.321999</v>
+        <v>0.391512</v>
       </c>
       <c r="F117" t="n">
-        <v>0.761456</v>
+        <v>0.8845460000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.382145</v>
+        <v>0.364278</v>
       </c>
       <c r="C118" t="n">
-        <v>0.87426</v>
+        <v>1.04695</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00367</v>
+        <v>1.17622</v>
       </c>
       <c r="E118" t="n">
-        <v>0.359926</v>
+        <v>0.342321</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8056759999999999</v>
+        <v>0.7742520000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.329227</v>
+        <v>0.337407</v>
       </c>
       <c r="C119" t="n">
-        <v>0.983903</v>
+        <v>0.953702</v>
       </c>
       <c r="D119" t="n">
-        <v>0.891437</v>
+        <v>1.30078</v>
       </c>
       <c r="E119" t="n">
-        <v>0.263571</v>
+        <v>0.385866</v>
       </c>
       <c r="F119" t="n">
-        <v>0.796752</v>
+        <v>0.878466</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.370102</v>
+        <v>0.427244</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00828</v>
+        <v>0.944632</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0459</v>
+        <v>1.05901</v>
       </c>
       <c r="E120" t="n">
-        <v>0.341578</v>
+        <v>0.344257</v>
       </c>
       <c r="F120" t="n">
-        <v>0.825102</v>
+        <v>0.853193</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.352181</v>
+        <v>0.36321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8859629999999999</v>
+        <v>0.913624</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01286</v>
+        <v>1.11201</v>
       </c>
       <c r="E121" t="n">
-        <v>0.313925</v>
+        <v>0.288434</v>
       </c>
       <c r="F121" t="n">
-        <v>0.732533</v>
+        <v>0.847204</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.384872</v>
+        <v>0.369217</v>
       </c>
       <c r="C122" t="n">
-        <v>0.951611</v>
+        <v>1.00137</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0454</v>
+        <v>1.00847</v>
       </c>
       <c r="E122" t="n">
-        <v>0.27725</v>
+        <v>0.297247</v>
       </c>
       <c r="F122" t="n">
-        <v>0.88671</v>
+        <v>0.910428</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.296217</v>
+        <v>0.338949</v>
       </c>
       <c r="C123" t="n">
-        <v>0.853959</v>
+        <v>0.853409</v>
       </c>
       <c r="D123" t="n">
-        <v>0.901321</v>
+        <v>1.0859</v>
       </c>
       <c r="E123" t="n">
-        <v>0.373556</v>
+        <v>0.36342</v>
       </c>
       <c r="F123" t="n">
-        <v>0.817199</v>
+        <v>0.903873</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.45046</v>
+        <v>0.480484</v>
       </c>
       <c r="C124" t="n">
-        <v>1.09596</v>
+        <v>0.982005</v>
       </c>
       <c r="D124" t="n">
-        <v>0.976828</v>
+        <v>0.972712</v>
       </c>
       <c r="E124" t="n">
-        <v>0.346456</v>
+        <v>0.338347</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9210660000000001</v>
+        <v>1.0037</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.462969</v>
+        <v>0.479892</v>
       </c>
       <c r="C125" t="n">
-        <v>1.04408</v>
+        <v>1.07878</v>
       </c>
       <c r="D125" t="n">
-        <v>0.967994</v>
+        <v>1.11188</v>
       </c>
       <c r="E125" t="n">
-        <v>0.312379</v>
+        <v>0.363067</v>
       </c>
       <c r="F125" t="n">
-        <v>0.857508</v>
+        <v>0.847724</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.483068</v>
+        <v>0.479995</v>
       </c>
       <c r="C126" t="n">
-        <v>1.06559</v>
+        <v>1.14345</v>
       </c>
       <c r="D126" t="n">
-        <v>1.01841</v>
+        <v>1.11271</v>
       </c>
       <c r="E126" t="n">
-        <v>0.287627</v>
+        <v>0.372301</v>
       </c>
       <c r="F126" t="n">
-        <v>0.890974</v>
+        <v>0.853866</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.49947</v>
+        <v>0.434177</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00992</v>
+        <v>1.07234</v>
       </c>
       <c r="D127" t="n">
-        <v>1.10609</v>
+        <v>1.06639</v>
       </c>
       <c r="E127" t="n">
-        <v>0.35426</v>
+        <v>0.339497</v>
       </c>
       <c r="F127" t="n">
-        <v>0.863445</v>
+        <v>0.892468</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.459982</v>
+        <v>0.435167</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01155</v>
+        <v>1.05896</v>
       </c>
       <c r="D128" t="n">
-        <v>0.97188</v>
+        <v>1.08514</v>
       </c>
       <c r="E128" t="n">
-        <v>0.387785</v>
+        <v>0.382493</v>
       </c>
       <c r="F128" t="n">
-        <v>0.959964</v>
+        <v>0.790571</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.444595</v>
+        <v>0.429288</v>
       </c>
       <c r="C129" t="n">
-        <v>1.03077</v>
+        <v>0.9142169999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>1.18928</v>
+        <v>1.12645</v>
       </c>
       <c r="E129" t="n">
-        <v>0.326811</v>
+        <v>0.357432</v>
       </c>
       <c r="F129" t="n">
-        <v>0.954009</v>
+        <v>0.744353</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.407803</v>
+        <v>0.391983</v>
       </c>
       <c r="C130" t="n">
-        <v>0.918192</v>
+        <v>1.06844</v>
       </c>
       <c r="D130" t="n">
-        <v>0.962317</v>
+        <v>1.0358</v>
       </c>
       <c r="E130" t="n">
-        <v>0.281761</v>
+        <v>0.340201</v>
       </c>
       <c r="F130" t="n">
-        <v>0.996521</v>
+        <v>0.788095</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.381937</v>
+        <v>0.409557</v>
       </c>
       <c r="C131" t="n">
-        <v>0.955133</v>
+        <v>0.896405</v>
       </c>
       <c r="D131" t="n">
-        <v>0.985061</v>
+        <v>0.902163</v>
       </c>
       <c r="E131" t="n">
-        <v>0.340123</v>
+        <v>0.356074</v>
       </c>
       <c r="F131" t="n">
-        <v>0.896676</v>
+        <v>0.802938</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.371281</v>
+        <v>0.368853</v>
       </c>
       <c r="C132" t="n">
-        <v>0.955202</v>
+        <v>0.843486</v>
       </c>
       <c r="D132" t="n">
-        <v>1.16255</v>
+        <v>1.08293</v>
       </c>
       <c r="E132" t="n">
-        <v>0.276882</v>
+        <v>0.373644</v>
       </c>
       <c r="F132" t="n">
-        <v>0.89499</v>
+        <v>0.876139</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.375113</v>
+        <v>0.382811</v>
       </c>
       <c r="C133" t="n">
-        <v>1.00037</v>
+        <v>1.09288</v>
       </c>
       <c r="D133" t="n">
-        <v>0.939897</v>
+        <v>0.904946</v>
       </c>
       <c r="E133" t="n">
-        <v>0.323087</v>
+        <v>0.363583</v>
       </c>
       <c r="F133" t="n">
-        <v>0.788955</v>
+        <v>0.760827</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354573</v>
+        <v>0.345294</v>
       </c>
       <c r="C134" t="n">
-        <v>0.856315</v>
+        <v>0.851657</v>
       </c>
       <c r="D134" t="n">
-        <v>1.12311</v>
+        <v>0.92288</v>
       </c>
       <c r="E134" t="n">
-        <v>0.306523</v>
+        <v>0.314672</v>
       </c>
       <c r="F134" t="n">
-        <v>0.744637</v>
+        <v>0.7927999999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.340353</v>
+        <v>0.349123</v>
       </c>
       <c r="C135" t="n">
-        <v>1.08883</v>
+        <v>0.821292</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01803</v>
+        <v>0.940914</v>
       </c>
       <c r="E135" t="n">
-        <v>0.29075</v>
+        <v>0.282707</v>
       </c>
       <c r="F135" t="n">
-        <v>0.683173</v>
+        <v>0.823627</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.33706</v>
+        <v>0.372139</v>
       </c>
       <c r="C136" t="n">
-        <v>1.032</v>
+        <v>0.881367</v>
       </c>
       <c r="D136" t="n">
-        <v>1.08804</v>
+        <v>1.00589</v>
       </c>
       <c r="E136" t="n">
-        <v>0.296794</v>
+        <v>0.305793</v>
       </c>
       <c r="F136" t="n">
-        <v>0.890138</v>
+        <v>0.698977</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.357188</v>
+        <v>0.352465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9017039999999999</v>
+        <v>0.8369450000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.807178</v>
+        <v>0.960246</v>
       </c>
       <c r="E137" t="n">
-        <v>0.330989</v>
+        <v>0.404724</v>
       </c>
       <c r="F137" t="n">
-        <v>0.725332</v>
+        <v>0.762563</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.488993</v>
+        <v>0.426611</v>
       </c>
       <c r="C138" t="n">
-        <v>0.71266</v>
+        <v>0.910585</v>
       </c>
       <c r="D138" t="n">
-        <v>0.97168</v>
+        <v>0.792628</v>
       </c>
       <c r="E138" t="n">
-        <v>0.379894</v>
+        <v>0.331234</v>
       </c>
       <c r="F138" t="n">
-        <v>0.718631</v>
+        <v>0.855386</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.538297</v>
+        <v>0.423404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.873754</v>
+        <v>0.788567</v>
       </c>
       <c r="D139" t="n">
-        <v>0.823581</v>
+        <v>0.968946</v>
       </c>
       <c r="E139" t="n">
-        <v>0.33108</v>
+        <v>0.375453</v>
       </c>
       <c r="F139" t="n">
-        <v>0.75339</v>
+        <v>0.801605</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.434565</v>
+        <v>0.415664</v>
       </c>
       <c r="C140" t="n">
-        <v>0.919719</v>
+        <v>0.885087</v>
       </c>
       <c r="D140" t="n">
-        <v>1.04162</v>
+        <v>0.870058</v>
       </c>
       <c r="E140" t="n">
-        <v>0.344949</v>
+        <v>0.332269</v>
       </c>
       <c r="F140" t="n">
-        <v>0.809998</v>
+        <v>0.713758</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.482195</v>
+        <v>0.423698</v>
       </c>
       <c r="C141" t="n">
-        <v>0.851344</v>
+        <v>0.83733</v>
       </c>
       <c r="D141" t="n">
-        <v>0.831228</v>
+        <v>0.849939</v>
       </c>
       <c r="E141" t="n">
-        <v>0.396389</v>
+        <v>0.359013</v>
       </c>
       <c r="F141" t="n">
-        <v>0.609406</v>
+        <v>0.788957</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.43727</v>
+        <v>0.35641</v>
       </c>
       <c r="C142" t="n">
-        <v>0.846652</v>
+        <v>0.832607</v>
       </c>
       <c r="D142" t="n">
-        <v>0.947321</v>
+        <v>1.04752</v>
       </c>
       <c r="E142" t="n">
-        <v>0.373923</v>
+        <v>0.349775</v>
       </c>
       <c r="F142" t="n">
-        <v>0.758289</v>
+        <v>0.8112470000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.462505</v>
+        <v>0.346625</v>
       </c>
       <c r="C143" t="n">
-        <v>0.919027</v>
+        <v>0.798189</v>
       </c>
       <c r="D143" t="n">
-        <v>0.730773</v>
+        <v>1.07442</v>
       </c>
       <c r="E143" t="n">
-        <v>0.317311</v>
+        <v>0.332431</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8402230000000001</v>
+        <v>0.65389</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.270313</v>
+        <v>0.284307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52174</v>
+        <v>0.928086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.561886</v>
+        <v>0.877448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.194149</v>
+        <v>0.216862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.471658</v>
+        <v>0.540174</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26724</v>
+        <v>0.295441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.523845</v>
+        <v>0.722185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.55707</v>
+        <v>0.621506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.20103</v>
+        <v>0.204993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.465832</v>
+        <v>0.5880030000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257731</v>
+        <v>0.283556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53676</v>
+        <v>0.552803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.547976</v>
+        <v>0.754653</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181809</v>
+        <v>0.210637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.466301</v>
+        <v>0.539493</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.253102</v>
+        <v>0.278622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.515859</v>
+        <v>0.642889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552475</v>
+        <v>0.700326</v>
       </c>
       <c r="E5" t="n">
-        <v>0.178094</v>
+        <v>0.256479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.444483</v>
+        <v>0.766467</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242157</v>
+        <v>0.391023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.500894</v>
+        <v>0.94759</v>
       </c>
       <c r="D6" t="n">
-        <v>0.543235</v>
+        <v>0.996613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.179189</v>
+        <v>0.33557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.443266</v>
+        <v>0.846703</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.235723</v>
+        <v>0.247664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491964</v>
+        <v>0.8293469999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.547273</v>
+        <v>0.837701</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172849</v>
+        <v>0.366762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.44109</v>
+        <v>0.769097</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22076</v>
+        <v>0.38063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.486305</v>
+        <v>0.829952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.54431</v>
+        <v>0.98573</v>
       </c>
       <c r="E8" t="n">
-        <v>0.170885</v>
+        <v>0.292111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434927</v>
+        <v>0.7583220000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.208366</v>
+        <v>0.348287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.486278</v>
+        <v>0.871664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.544191</v>
+        <v>0.943063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.228246</v>
+        <v>0.274962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.471912</v>
+        <v>0.923404</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.301383</v>
+        <v>0.533689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.542664</v>
+        <v>0.771831</v>
       </c>
       <c r="D10" t="n">
-        <v>0.547072</v>
+        <v>0.743499</v>
       </c>
       <c r="E10" t="n">
-        <v>0.215631</v>
+        <v>0.319611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.47022</v>
+        <v>0.732883</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.295873</v>
+        <v>0.495088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.54864</v>
+        <v>0.765734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5564</v>
+        <v>0.759914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.213486</v>
+        <v>0.301204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.466651</v>
+        <v>0.701291</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291178</v>
+        <v>0.454079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541289</v>
+        <v>0.73103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.535947</v>
+        <v>0.852839</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212171</v>
+        <v>0.361953</v>
       </c>
       <c r="F12" t="n">
-        <v>0.465723</v>
+        <v>0.6530049999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283426</v>
+        <v>0.447533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.522875</v>
+        <v>0.79862</v>
       </c>
       <c r="D13" t="n">
-        <v>0.539679</v>
+        <v>0.732212</v>
       </c>
       <c r="E13" t="n">
-        <v>0.204646</v>
+        <v>0.264184</v>
       </c>
       <c r="F13" t="n">
-        <v>0.460227</v>
+        <v>0.763224</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.282773</v>
+        <v>0.438112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.521197</v>
+        <v>1.08674</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5434369999999999</v>
+        <v>0.859007</v>
       </c>
       <c r="E14" t="n">
-        <v>0.201777</v>
+        <v>0.254886</v>
       </c>
       <c r="F14" t="n">
-        <v>0.459094</v>
+        <v>0.575179</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273054</v>
+        <v>0.412755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.511738</v>
+        <v>0.7533609999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.537975</v>
+        <v>0.541255</v>
       </c>
       <c r="E15" t="n">
-        <v>0.198453</v>
+        <v>0.266166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.452893</v>
+        <v>0.623604</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272207</v>
+        <v>0.434965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.516888</v>
+        <v>0.610722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.544351</v>
+        <v>0.606913</v>
       </c>
       <c r="E16" t="n">
-        <v>0.199271</v>
+        <v>0.285559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.448489</v>
+        <v>0.6358470000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260106</v>
+        <v>0.411555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.519755</v>
+        <v>0.739768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5471009999999999</v>
+        <v>0.648692</v>
       </c>
       <c r="E17" t="n">
-        <v>0.197994</v>
+        <v>0.280157</v>
       </c>
       <c r="F17" t="n">
-        <v>0.449934</v>
+        <v>0.939414</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258885</v>
+        <v>0.431657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.51819</v>
+        <v>0.895712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.551122</v>
+        <v>0.9295369999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.191063</v>
+        <v>0.305752</v>
       </c>
       <c r="F18" t="n">
-        <v>0.440419</v>
+        <v>0.562613</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249611</v>
+        <v>0.341929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.508771</v>
+        <v>0.643536</v>
       </c>
       <c r="D19" t="n">
-        <v>0.544583</v>
+        <v>0.749715</v>
       </c>
       <c r="E19" t="n">
-        <v>0.186426</v>
+        <v>0.324347</v>
       </c>
       <c r="F19" t="n">
-        <v>0.442506</v>
+        <v>0.64331</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243428</v>
+        <v>0.334938</v>
       </c>
       <c r="C20" t="n">
-        <v>0.502102</v>
+        <v>0.780172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.547808</v>
+        <v>0.796809</v>
       </c>
       <c r="E20" t="n">
-        <v>0.18232</v>
+        <v>0.314598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.441458</v>
+        <v>0.637104</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.236884</v>
+        <v>0.382007</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498343</v>
+        <v>0.650215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.552406</v>
+        <v>0.780208</v>
       </c>
       <c r="E21" t="n">
-        <v>0.180363</v>
+        <v>0.260203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.439745</v>
+        <v>0.517526</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227177</v>
+        <v>0.360206</v>
       </c>
       <c r="C22" t="n">
-        <v>0.496952</v>
+        <v>0.583749</v>
       </c>
       <c r="D22" t="n">
-        <v>0.563908</v>
+        <v>0.838033</v>
       </c>
       <c r="E22" t="n">
-        <v>0.177021</v>
+        <v>0.223007</v>
       </c>
       <c r="F22" t="n">
-        <v>0.435011</v>
+        <v>0.5933659999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.217746</v>
+        <v>0.344609</v>
       </c>
       <c r="C23" t="n">
-        <v>0.47559</v>
+        <v>0.665764</v>
       </c>
       <c r="D23" t="n">
-        <v>0.554043</v>
+        <v>0.734667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.232865</v>
+        <v>0.352464</v>
       </c>
       <c r="F23" t="n">
-        <v>0.474327</v>
+        <v>0.753367</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.30831</v>
+        <v>0.410245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.547373</v>
+        <v>0.972944</v>
       </c>
       <c r="D24" t="n">
-        <v>0.555593</v>
+        <v>1.08303</v>
       </c>
       <c r="E24" t="n">
-        <v>0.228334</v>
+        <v>0.366595</v>
       </c>
       <c r="F24" t="n">
-        <v>0.473828</v>
+        <v>0.809952</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.295761</v>
+        <v>0.5301090000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.530437</v>
+        <v>0.824416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.546431</v>
+        <v>0.740907</v>
       </c>
       <c r="E25" t="n">
-        <v>0.221719</v>
+        <v>0.355113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.471336</v>
+        <v>0.705545</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29402</v>
+        <v>0.475847</v>
       </c>
       <c r="C26" t="n">
-        <v>0.538384</v>
+        <v>0.972379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.563436</v>
+        <v>0.6990690000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.214547</v>
+        <v>0.315706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.469459</v>
+        <v>0.650814</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2899</v>
+        <v>0.473262</v>
       </c>
       <c r="C27" t="n">
-        <v>0.528762</v>
+        <v>0.631144</v>
       </c>
       <c r="D27" t="n">
-        <v>0.549153</v>
+        <v>0.706106</v>
       </c>
       <c r="E27" t="n">
-        <v>0.211035</v>
+        <v>0.277235</v>
       </c>
       <c r="F27" t="n">
-        <v>0.470325</v>
+        <v>0.64515</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.285012</v>
+        <v>0.421634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.523975</v>
+        <v>0.811476</v>
       </c>
       <c r="D28" t="n">
-        <v>0.550051</v>
+        <v>0.52823</v>
       </c>
       <c r="E28" t="n">
-        <v>0.204538</v>
+        <v>0.278149</v>
       </c>
       <c r="F28" t="n">
-        <v>0.458313</v>
+        <v>0.520162</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280215</v>
+        <v>0.327566</v>
       </c>
       <c r="C29" t="n">
-        <v>0.521228</v>
+        <v>0.688681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.549495</v>
+        <v>0.527719</v>
       </c>
       <c r="E29" t="n">
-        <v>0.205661</v>
+        <v>0.295803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.463515</v>
+        <v>0.547329</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270036</v>
+        <v>0.362424</v>
       </c>
       <c r="C30" t="n">
-        <v>0.522522</v>
+        <v>1.0396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.552152</v>
+        <v>0.877643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.199012</v>
+        <v>0.277469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.467917</v>
+        <v>0.692308</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.265385</v>
+        <v>0.446777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5201750000000001</v>
+        <v>0.569931</v>
       </c>
       <c r="D31" t="n">
-        <v>0.547508</v>
+        <v>0.706579</v>
       </c>
       <c r="E31" t="n">
-        <v>0.196548</v>
+        <v>0.191808</v>
       </c>
       <c r="F31" t="n">
-        <v>0.462163</v>
+        <v>0.632312</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.25808</v>
+        <v>0.398503</v>
       </c>
       <c r="C32" t="n">
-        <v>0.510312</v>
+        <v>0.752702</v>
       </c>
       <c r="D32" t="n">
-        <v>0.561948</v>
+        <v>0.815754</v>
       </c>
       <c r="E32" t="n">
-        <v>0.192185</v>
+        <v>0.322258</v>
       </c>
       <c r="F32" t="n">
-        <v>0.445356</v>
+        <v>0.791961</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254544</v>
+        <v>0.375722</v>
       </c>
       <c r="C33" t="n">
-        <v>0.498627</v>
+        <v>0.765288</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5540620000000001</v>
+        <v>0.703909</v>
       </c>
       <c r="E33" t="n">
-        <v>0.188347</v>
+        <v>0.326776</v>
       </c>
       <c r="F33" t="n">
-        <v>0.455048</v>
+        <v>0.698323</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.245834</v>
+        <v>0.382944</v>
       </c>
       <c r="C34" t="n">
-        <v>0.499539</v>
+        <v>0.636578</v>
       </c>
       <c r="D34" t="n">
-        <v>0.550216</v>
+        <v>0.691296</v>
       </c>
       <c r="E34" t="n">
-        <v>0.187471</v>
+        <v>0.26464</v>
       </c>
       <c r="F34" t="n">
-        <v>0.445474</v>
+        <v>0.762676</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.239873</v>
+        <v>0.34557</v>
       </c>
       <c r="C35" t="n">
-        <v>0.495295</v>
+        <v>0.692956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.573808</v>
+        <v>0.686619</v>
       </c>
       <c r="E35" t="n">
-        <v>0.185095</v>
+        <v>0.258028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.44074</v>
+        <v>0.492503</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231364</v>
+        <v>0.33329</v>
       </c>
       <c r="C36" t="n">
-        <v>0.489535</v>
+        <v>0.651971</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5679</v>
+        <v>0.631367</v>
       </c>
       <c r="E36" t="n">
-        <v>0.182599</v>
+        <v>0.217883</v>
       </c>
       <c r="F36" t="n">
-        <v>0.437028</v>
+        <v>0.612311</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219584</v>
+        <v>0.363053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.485809</v>
+        <v>0.615441</v>
       </c>
       <c r="D37" t="n">
-        <v>0.588968</v>
+        <v>0.632118</v>
       </c>
       <c r="E37" t="n">
-        <v>0.235411</v>
+        <v>0.279763</v>
       </c>
       <c r="F37" t="n">
-        <v>0.497338</v>
+        <v>0.689028</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.30734</v>
+        <v>0.5298929999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.544726</v>
+        <v>0.894823</v>
       </c>
       <c r="D38" t="n">
-        <v>0.567821</v>
+        <v>0.658026</v>
       </c>
       <c r="E38" t="n">
-        <v>0.227664</v>
+        <v>0.308153</v>
       </c>
       <c r="F38" t="n">
-        <v>0.487394</v>
+        <v>0.723368</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303694</v>
+        <v>0.48092</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550186</v>
+        <v>0.844333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.569946</v>
+        <v>0.664249</v>
       </c>
       <c r="E39" t="n">
-        <v>0.223066</v>
+        <v>0.320787</v>
       </c>
       <c r="F39" t="n">
-        <v>0.473606</v>
+        <v>0.832585</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297728</v>
+        <v>0.388646</v>
       </c>
       <c r="C40" t="n">
-        <v>0.542281</v>
+        <v>0.829581</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5719340000000001</v>
+        <v>0.580589</v>
       </c>
       <c r="E40" t="n">
-        <v>0.220445</v>
+        <v>0.286336</v>
       </c>
       <c r="F40" t="n">
-        <v>0.467341</v>
+        <v>0.710982</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.299913</v>
+        <v>0.48177</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540848</v>
+        <v>0.908069</v>
       </c>
       <c r="D41" t="n">
-        <v>0.571489</v>
+        <v>0.696678</v>
       </c>
       <c r="E41" t="n">
-        <v>0.217496</v>
+        <v>0.324986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.472803</v>
+        <v>0.750043</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306294</v>
+        <v>0.292986</v>
       </c>
       <c r="C42" t="n">
-        <v>0.531286</v>
+        <v>0.808415</v>
       </c>
       <c r="D42" t="n">
-        <v>0.576009</v>
+        <v>0.5731270000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.211346</v>
+        <v>0.248406</v>
       </c>
       <c r="F42" t="n">
-        <v>0.472453</v>
+        <v>0.863446</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280848</v>
+        <v>0.435958</v>
       </c>
       <c r="C43" t="n">
-        <v>0.529439</v>
+        <v>0.864052</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5706560000000001</v>
+        <v>0.5935279999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.212097</v>
+        <v>0.229944</v>
       </c>
       <c r="F43" t="n">
-        <v>0.460365</v>
+        <v>0.796629</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.275393</v>
+        <v>0.404834</v>
       </c>
       <c r="C44" t="n">
-        <v>0.524745</v>
+        <v>1.02356</v>
       </c>
       <c r="D44" t="n">
-        <v>0.56777</v>
+        <v>0.702381</v>
       </c>
       <c r="E44" t="n">
-        <v>0.208625</v>
+        <v>0.246643</v>
       </c>
       <c r="F44" t="n">
-        <v>0.460167</v>
+        <v>0.738825</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27161</v>
+        <v>0.426436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.516223</v>
+        <v>0.705545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.566629</v>
+        <v>0.776927</v>
       </c>
       <c r="E45" t="n">
-        <v>0.203734</v>
+        <v>0.234173</v>
       </c>
       <c r="F45" t="n">
-        <v>0.453109</v>
+        <v>0.70255</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262118</v>
+        <v>0.447325</v>
       </c>
       <c r="C46" t="n">
-        <v>0.523814</v>
+        <v>0.927876</v>
       </c>
       <c r="D46" t="n">
-        <v>0.580439</v>
+        <v>0.99709</v>
       </c>
       <c r="E46" t="n">
-        <v>0.198249</v>
+        <v>0.372155</v>
       </c>
       <c r="F46" t="n">
-        <v>0.453979</v>
+        <v>0.991146</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.258166</v>
+        <v>0.325396</v>
       </c>
       <c r="C47" t="n">
-        <v>0.521559</v>
+        <v>1.01577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.581268</v>
+        <v>1.0073</v>
       </c>
       <c r="E47" t="n">
-        <v>0.19621</v>
+        <v>0.291906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.456109</v>
+        <v>0.787181</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.251971</v>
+        <v>0.354148</v>
       </c>
       <c r="C48" t="n">
-        <v>0.516911</v>
+        <v>0.893919</v>
       </c>
       <c r="D48" t="n">
-        <v>0.575915</v>
+        <v>0.980716</v>
       </c>
       <c r="E48" t="n">
-        <v>0.190374</v>
+        <v>0.273638</v>
       </c>
       <c r="F48" t="n">
-        <v>0.448168</v>
+        <v>0.6321830000000001</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.241671</v>
+        <v>0.29913</v>
       </c>
       <c r="C49" t="n">
-        <v>0.503816</v>
+        <v>0.92443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.578145</v>
+        <v>1.00369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.187566</v>
+        <v>0.347921</v>
       </c>
       <c r="F49" t="n">
-        <v>0.447766</v>
+        <v>0.839419</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233642</v>
+        <v>0.305301</v>
       </c>
       <c r="C50" t="n">
-        <v>0.509879</v>
+        <v>0.735085</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.846195</v>
       </c>
       <c r="E50" t="n">
-        <v>0.185205</v>
+        <v>0.322531</v>
       </c>
       <c r="F50" t="n">
-        <v>0.441357</v>
+        <v>0.936063</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226891</v>
+        <v>0.365808</v>
       </c>
       <c r="C51" t="n">
-        <v>0.498507</v>
+        <v>0.817106</v>
       </c>
       <c r="D51" t="n">
-        <v>0.64244</v>
+        <v>0.979491</v>
       </c>
       <c r="E51" t="n">
-        <v>0.241309</v>
+        <v>0.344764</v>
       </c>
       <c r="F51" t="n">
-        <v>0.49301</v>
+        <v>0.957442</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.215404</v>
+        <v>0.380309</v>
       </c>
       <c r="C52" t="n">
-        <v>0.487796</v>
+        <v>0.788066</v>
       </c>
       <c r="D52" t="n">
-        <v>0.651527</v>
+        <v>1.11927</v>
       </c>
       <c r="E52" t="n">
-        <v>0.236273</v>
+        <v>0.386439</v>
       </c>
       <c r="F52" t="n">
-        <v>0.489426</v>
+        <v>0.7949929999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.309749</v>
+        <v>0.448132</v>
       </c>
       <c r="C53" t="n">
-        <v>0.564212</v>
+        <v>0.850821</v>
       </c>
       <c r="D53" t="n">
-        <v>0.646481</v>
+        <v>0.92153</v>
       </c>
       <c r="E53" t="n">
-        <v>0.237564</v>
+        <v>0.32965</v>
       </c>
       <c r="F53" t="n">
-        <v>0.484627</v>
+        <v>0.738034</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.303953</v>
+        <v>0.463655</v>
       </c>
       <c r="C54" t="n">
-        <v>0.561833</v>
+        <v>0.882539</v>
       </c>
       <c r="D54" t="n">
-        <v>0.650064</v>
+        <v>0.766875</v>
       </c>
       <c r="E54" t="n">
-        <v>0.22604</v>
+        <v>0.366326</v>
       </c>
       <c r="F54" t="n">
-        <v>0.483078</v>
+        <v>0.743337</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304781</v>
+        <v>0.476649</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552967</v>
+        <v>0.785722</v>
       </c>
       <c r="D55" t="n">
-        <v>0.658363</v>
+        <v>0.852696</v>
       </c>
       <c r="E55" t="n">
-        <v>0.221355</v>
+        <v>0.319324</v>
       </c>
       <c r="F55" t="n">
-        <v>0.479045</v>
+        <v>0.7079490000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.300325</v>
+        <v>0.48373</v>
       </c>
       <c r="C56" t="n">
-        <v>0.55279</v>
+        <v>1.0485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.662756</v>
+        <v>0.971512</v>
       </c>
       <c r="E56" t="n">
-        <v>0.222698</v>
+        <v>0.275055</v>
       </c>
       <c r="F56" t="n">
-        <v>0.481312</v>
+        <v>0.849896</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.286737</v>
+        <v>0.429837</v>
       </c>
       <c r="C57" t="n">
-        <v>0.559647</v>
+        <v>0.949985</v>
       </c>
       <c r="D57" t="n">
-        <v>0.656538</v>
+        <v>1.12313</v>
       </c>
       <c r="E57" t="n">
-        <v>0.214578</v>
+        <v>0.338457</v>
       </c>
       <c r="F57" t="n">
-        <v>0.495087</v>
+        <v>0.800494</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282471</v>
+        <v>0.397614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5747370000000001</v>
+        <v>1.06322</v>
       </c>
       <c r="D58" t="n">
-        <v>0.660226</v>
+        <v>0.558808</v>
       </c>
       <c r="E58" t="n">
-        <v>0.209514</v>
+        <v>0.297488</v>
       </c>
       <c r="F58" t="n">
-        <v>0.485043</v>
+        <v>0.90469</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.278127</v>
+        <v>0.37538</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548062</v>
+        <v>0.800751</v>
       </c>
       <c r="D59" t="n">
-        <v>0.64873</v>
+        <v>0.789768</v>
       </c>
       <c r="E59" t="n">
-        <v>0.206436</v>
+        <v>0.33349</v>
       </c>
       <c r="F59" t="n">
-        <v>0.476885</v>
+        <v>0.7302689999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.270725</v>
+        <v>0.421591</v>
       </c>
       <c r="C60" t="n">
-        <v>0.560765</v>
+        <v>0.975699</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6554140000000001</v>
+        <v>0.794102</v>
       </c>
       <c r="E60" t="n">
-        <v>0.20135</v>
+        <v>0.364681</v>
       </c>
       <c r="F60" t="n">
-        <v>0.468605</v>
+        <v>0.858522</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261117</v>
+        <v>0.329701</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5405799999999999</v>
+        <v>0.831741</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6614679999999999</v>
+        <v>0.958475</v>
       </c>
       <c r="E61" t="n">
-        <v>0.198196</v>
+        <v>0.321546</v>
       </c>
       <c r="F61" t="n">
-        <v>0.468047</v>
+        <v>0.756876</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256251</v>
+        <v>0.39882</v>
       </c>
       <c r="C62" t="n">
-        <v>0.571892</v>
+        <v>0.956904</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676821</v>
+        <v>1.03633</v>
       </c>
       <c r="E62" t="n">
-        <v>0.197603</v>
+        <v>0.297474</v>
       </c>
       <c r="F62" t="n">
-        <v>0.46364</v>
+        <v>0.694708</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252157</v>
+        <v>0.357476</v>
       </c>
       <c r="C63" t="n">
-        <v>0.568177</v>
+        <v>0.727855</v>
       </c>
       <c r="D63" t="n">
-        <v>0.690603</v>
+        <v>1.07118</v>
       </c>
       <c r="E63" t="n">
-        <v>0.191758</v>
+        <v>0.365306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4772</v>
+        <v>0.652892</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.241752</v>
+        <v>0.300789</v>
       </c>
       <c r="C64" t="n">
-        <v>0.549962</v>
+        <v>0.858924</v>
       </c>
       <c r="D64" t="n">
-        <v>0.725206</v>
+        <v>1.01578</v>
       </c>
       <c r="E64" t="n">
-        <v>0.187815</v>
+        <v>0.323325</v>
       </c>
       <c r="F64" t="n">
-        <v>0.462235</v>
+        <v>0.7780589999999999</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.232798</v>
+        <v>0.309705</v>
       </c>
       <c r="C65" t="n">
-        <v>0.522974</v>
+        <v>0.939813</v>
       </c>
       <c r="D65" t="n">
-        <v>0.722269</v>
+        <v>0.9631</v>
       </c>
       <c r="E65" t="n">
-        <v>0.185777</v>
+        <v>0.313315</v>
       </c>
       <c r="F65" t="n">
-        <v>0.463037</v>
+        <v>0.7190839999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.226849</v>
+        <v>0.317937</v>
       </c>
       <c r="C66" t="n">
-        <v>0.525451</v>
+        <v>0.806777</v>
       </c>
       <c r="D66" t="n">
-        <v>0.715801</v>
+        <v>0.884924</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243901</v>
+        <v>0.343462</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5058859999999999</v>
+        <v>0.80623</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.315351</v>
+        <v>0.515159</v>
       </c>
       <c r="C67" t="n">
-        <v>0.617443</v>
+        <v>1.05885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.710385</v>
+        <v>0.936516</v>
       </c>
       <c r="E67" t="n">
-        <v>0.242111</v>
+        <v>0.416384</v>
       </c>
       <c r="F67" t="n">
-        <v>0.506679</v>
+        <v>0.759262</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.31185</v>
+        <v>0.478744</v>
       </c>
       <c r="C68" t="n">
-        <v>0.606073</v>
+        <v>0.975452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.726853</v>
+        <v>0.99242</v>
       </c>
       <c r="E68" t="n">
-        <v>0.234601</v>
+        <v>0.39178</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505084</v>
+        <v>0.922121</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309274</v>
+        <v>0.423019</v>
       </c>
       <c r="C69" t="n">
-        <v>0.607059</v>
+        <v>1.15879</v>
       </c>
       <c r="D69" t="n">
-        <v>0.721905</v>
+        <v>0.814519</v>
       </c>
       <c r="E69" t="n">
-        <v>0.231297</v>
+        <v>0.342417</v>
       </c>
       <c r="F69" t="n">
-        <v>0.500461</v>
+        <v>0.553843</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.303137</v>
+        <v>0.38753</v>
       </c>
       <c r="C70" t="n">
-        <v>0.599708</v>
+        <v>1.05732</v>
       </c>
       <c r="D70" t="n">
-        <v>0.721135</v>
+        <v>1.03725</v>
       </c>
       <c r="E70" t="n">
-        <v>0.22678</v>
+        <v>0.32041</v>
       </c>
       <c r="F70" t="n">
-        <v>0.50304</v>
+        <v>0.905519</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300266</v>
+        <v>0.408354</v>
       </c>
       <c r="C71" t="n">
-        <v>0.601434</v>
+        <v>0.983961</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7194700000000001</v>
+        <v>0.8976499999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.218383</v>
+        <v>0.328437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.501851</v>
+        <v>0.651079</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294152</v>
+        <v>0.426573</v>
       </c>
       <c r="C72" t="n">
-        <v>0.599356</v>
+        <v>1.03755</v>
       </c>
       <c r="D72" t="n">
-        <v>0.704417</v>
+        <v>1.08063</v>
       </c>
       <c r="E72" t="n">
-        <v>0.216008</v>
+        <v>0.370925</v>
       </c>
       <c r="F72" t="n">
-        <v>0.487425</v>
+        <v>0.88218</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.282612</v>
+        <v>0.465735</v>
       </c>
       <c r="C73" t="n">
-        <v>0.594584</v>
+        <v>1.07151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.710572</v>
+        <v>1.05969</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211291</v>
+        <v>0.244248</v>
       </c>
       <c r="F73" t="n">
-        <v>0.492193</v>
+        <v>0.769021</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.280529</v>
+        <v>0.406871</v>
       </c>
       <c r="C74" t="n">
-        <v>0.592453</v>
+        <v>0.966477</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7058410000000001</v>
+        <v>1.05233</v>
       </c>
       <c r="E74" t="n">
-        <v>0.212582</v>
+        <v>0.351728</v>
       </c>
       <c r="F74" t="n">
-        <v>0.493279</v>
+        <v>0.578916</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.269204</v>
+        <v>0.413558</v>
       </c>
       <c r="C75" t="n">
-        <v>0.584915</v>
+        <v>0.824899</v>
       </c>
       <c r="D75" t="n">
-        <v>0.702353</v>
+        <v>1.02432</v>
       </c>
       <c r="E75" t="n">
-        <v>0.204252</v>
+        <v>0.321633</v>
       </c>
       <c r="F75" t="n">
-        <v>0.481266</v>
+        <v>0.593998</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26448</v>
+        <v>0.3553</v>
       </c>
       <c r="C76" t="n">
-        <v>0.581139</v>
+        <v>0.816751</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7001230000000001</v>
+        <v>1.06745</v>
       </c>
       <c r="E76" t="n">
-        <v>0.203967</v>
+        <v>0.296119</v>
       </c>
       <c r="F76" t="n">
-        <v>0.48379</v>
+        <v>0.539932</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260165</v>
+        <v>0.288251</v>
       </c>
       <c r="C77" t="n">
-        <v>0.572701</v>
+        <v>0.906968</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7047020000000001</v>
+        <v>0.816319</v>
       </c>
       <c r="E77" t="n">
-        <v>0.199975</v>
+        <v>0.272823</v>
       </c>
       <c r="F77" t="n">
-        <v>0.481571</v>
+        <v>0.728904</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248696</v>
+        <v>0.304784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.566885</v>
+        <v>0.84115</v>
       </c>
       <c r="D78" t="n">
-        <v>0.763409</v>
+        <v>1.11381</v>
       </c>
       <c r="E78" t="n">
-        <v>0.193888</v>
+        <v>0.322206</v>
       </c>
       <c r="F78" t="n">
-        <v>0.478036</v>
+        <v>0.862788</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236349</v>
+        <v>0.338101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.564239</v>
+        <v>0.971915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.751348</v>
+        <v>1.14632</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188258</v>
+        <v>0.324274</v>
       </c>
       <c r="F79" t="n">
-        <v>0.476898</v>
+        <v>0.643423</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.231751</v>
+        <v>0.31664</v>
       </c>
       <c r="C80" t="n">
-        <v>0.558712</v>
+        <v>0.853749</v>
       </c>
       <c r="D80" t="n">
-        <v>0.755734</v>
+        <v>1.02818</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252004</v>
+        <v>0.386189</v>
       </c>
       <c r="F80" t="n">
-        <v>0.523516</v>
+        <v>0.784022</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.324694</v>
+        <v>0.467968</v>
       </c>
       <c r="C81" t="n">
-        <v>0.594757</v>
+        <v>0.956965</v>
       </c>
       <c r="D81" t="n">
-        <v>0.763026</v>
+        <v>0.9845159999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.246119</v>
+        <v>0.378645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.521682</v>
+        <v>0.727851</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.321759</v>
+        <v>0.405482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.598706</v>
+        <v>0.992456</v>
       </c>
       <c r="D82" t="n">
-        <v>0.759798</v>
+        <v>1.11248</v>
       </c>
       <c r="E82" t="n">
-        <v>0.242998</v>
+        <v>0.353726</v>
       </c>
       <c r="F82" t="n">
-        <v>0.520238</v>
+        <v>0.850858</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.314712</v>
+        <v>0.415114</v>
       </c>
       <c r="C83" t="n">
-        <v>0.594204</v>
+        <v>1.05344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.757058</v>
+        <v>1.10839</v>
       </c>
       <c r="E83" t="n">
-        <v>0.23487</v>
+        <v>0.394983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.515211</v>
+        <v>0.63912</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.307451</v>
+        <v>0.405787</v>
       </c>
       <c r="C84" t="n">
-        <v>0.622579</v>
+        <v>1.19362</v>
       </c>
       <c r="D84" t="n">
-        <v>0.782061</v>
+        <v>1.1088</v>
       </c>
       <c r="E84" t="n">
-        <v>0.229846</v>
+        <v>0.256652</v>
       </c>
       <c r="F84" t="n">
-        <v>0.542279</v>
+        <v>0.760989</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.299996</v>
+        <v>0.410091</v>
       </c>
       <c r="C85" t="n">
-        <v>0.621856</v>
+        <v>1.05333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.774456</v>
+        <v>1.03796</v>
       </c>
       <c r="E85" t="n">
-        <v>0.226007</v>
+        <v>0.329243</v>
       </c>
       <c r="F85" t="n">
-        <v>0.538744</v>
+        <v>0.663871</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292357</v>
+        <v>0.427899</v>
       </c>
       <c r="C86" t="n">
-        <v>0.623726</v>
+        <v>1.00941</v>
       </c>
       <c r="D86" t="n">
-        <v>0.763723</v>
+        <v>1.17926</v>
       </c>
       <c r="E86" t="n">
-        <v>0.220493</v>
+        <v>0.287803</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5319</v>
+        <v>0.850496</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.289894</v>
+        <v>0.413666</v>
       </c>
       <c r="C87" t="n">
-        <v>0.611889</v>
+        <v>0.99177</v>
       </c>
       <c r="D87" t="n">
-        <v>0.766277</v>
+        <v>1.04383</v>
       </c>
       <c r="E87" t="n">
-        <v>0.218124</v>
+        <v>0.37137</v>
       </c>
       <c r="F87" t="n">
-        <v>0.538043</v>
+        <v>0.813636</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.284894</v>
+        <v>0.447503</v>
       </c>
       <c r="C88" t="n">
-        <v>0.615537</v>
+        <v>1.03269</v>
       </c>
       <c r="D88" t="n">
-        <v>0.760134</v>
+        <v>1.18328</v>
       </c>
       <c r="E88" t="n">
-        <v>0.211719</v>
+        <v>0.308169</v>
       </c>
       <c r="F88" t="n">
-        <v>0.520336</v>
+        <v>0.818376</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.27379</v>
+        <v>0.364237</v>
       </c>
       <c r="C89" t="n">
-        <v>0.606048</v>
+        <v>1.1657</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7834100000000001</v>
+        <v>1.15051</v>
       </c>
       <c r="E89" t="n">
-        <v>0.20879</v>
+        <v>0.292498</v>
       </c>
       <c r="F89" t="n">
-        <v>0.522763</v>
+        <v>0.761591</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.267042</v>
+        <v>0.395655</v>
       </c>
       <c r="C90" t="n">
-        <v>0.611049</v>
+        <v>0.8809669999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.761794</v>
+        <v>1.18581</v>
       </c>
       <c r="E90" t="n">
-        <v>0.205958</v>
+        <v>0.291091</v>
       </c>
       <c r="F90" t="n">
-        <v>0.523795</v>
+        <v>0.881316</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257964</v>
+        <v>0.319886</v>
       </c>
       <c r="C91" t="n">
-        <v>0.609221</v>
+        <v>1.07178</v>
       </c>
       <c r="D91" t="n">
-        <v>0.763236</v>
+        <v>1.29023</v>
       </c>
       <c r="E91" t="n">
-        <v>0.201354</v>
+        <v>0.273426</v>
       </c>
       <c r="F91" t="n">
-        <v>0.512692</v>
+        <v>1.02934</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252659</v>
+        <v>0.36722</v>
       </c>
       <c r="C92" t="n">
-        <v>0.60348</v>
+        <v>0.984158</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6700430000000001</v>
+        <v>0.890304</v>
       </c>
       <c r="E92" t="n">
-        <v>0.195894</v>
+        <v>0.263343</v>
       </c>
       <c r="F92" t="n">
-        <v>0.508441</v>
+        <v>0.93916</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24133</v>
+        <v>0.356789</v>
       </c>
       <c r="C93" t="n">
-        <v>0.59183</v>
+        <v>1.05508</v>
       </c>
       <c r="D93" t="n">
-        <v>0.666842</v>
+        <v>1.1664</v>
       </c>
       <c r="E93" t="n">
-        <v>0.193808</v>
+        <v>0.311069</v>
       </c>
       <c r="F93" t="n">
-        <v>0.507113</v>
+        <v>0.691045</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233602</v>
+        <v>0.311155</v>
       </c>
       <c r="C94" t="n">
-        <v>0.592079</v>
+        <v>0.8501069999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.664416</v>
+        <v>0.943543</v>
       </c>
       <c r="E94" t="n">
-        <v>0.254583</v>
+        <v>0.358318</v>
       </c>
       <c r="F94" t="n">
-        <v>0.560465</v>
+        <v>1.01612</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.327445</v>
+        <v>0.498649</v>
       </c>
       <c r="C95" t="n">
-        <v>0.659763</v>
+        <v>1.05018</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6698190000000001</v>
+        <v>1.1208</v>
       </c>
       <c r="E95" t="n">
-        <v>0.249513</v>
+        <v>0.374972</v>
       </c>
       <c r="F95" t="n">
-        <v>0.556373</v>
+        <v>0.678315</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.321881</v>
+        <v>0.445753</v>
       </c>
       <c r="C96" t="n">
-        <v>0.644401</v>
+        <v>0.958529</v>
       </c>
       <c r="D96" t="n">
-        <v>0.668585</v>
+        <v>1.13667</v>
       </c>
       <c r="E96" t="n">
-        <v>0.242257</v>
+        <v>0.349893</v>
       </c>
       <c r="F96" t="n">
-        <v>0.553273</v>
+        <v>0.706324</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.316751</v>
+        <v>0.418327</v>
       </c>
       <c r="C97" t="n">
-        <v>0.648223</v>
+        <v>1.10318</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6632749999999999</v>
+        <v>1.01027</v>
       </c>
       <c r="E97" t="n">
-        <v>0.239593</v>
+        <v>0.306782</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5513400000000001</v>
+        <v>1.06639</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.310123</v>
+        <v>0.385274</v>
       </c>
       <c r="C98" t="n">
-        <v>0.638041</v>
+        <v>1.22772</v>
       </c>
       <c r="D98" t="n">
-        <v>0.675276</v>
+        <v>0.960103</v>
       </c>
       <c r="E98" t="n">
-        <v>0.231283</v>
+        <v>0.275676</v>
       </c>
       <c r="F98" t="n">
-        <v>0.543506</v>
+        <v>1.03506</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.302491</v>
+        <v>0.441692</v>
       </c>
       <c r="C99" t="n">
-        <v>0.632149</v>
+        <v>1.21433</v>
       </c>
       <c r="D99" t="n">
-        <v>0.665162</v>
+        <v>1.12207</v>
       </c>
       <c r="E99" t="n">
-        <v>0.229833</v>
+        <v>0.329839</v>
       </c>
       <c r="F99" t="n">
-        <v>0.547264</v>
+        <v>0.78403</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.296889</v>
+        <v>0.332975</v>
       </c>
       <c r="C100" t="n">
-        <v>0.619758</v>
+        <v>1.06864</v>
       </c>
       <c r="D100" t="n">
-        <v>0.668309</v>
+        <v>1.1638</v>
       </c>
       <c r="E100" t="n">
-        <v>0.221135</v>
+        <v>0.30156</v>
       </c>
       <c r="F100" t="n">
-        <v>0.54956</v>
+        <v>0.857356</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.293715</v>
+        <v>0.415641</v>
       </c>
       <c r="C101" t="n">
-        <v>0.608026</v>
+        <v>0.909727</v>
       </c>
       <c r="D101" t="n">
-        <v>0.661389</v>
+        <v>1.13637</v>
       </c>
       <c r="E101" t="n">
-        <v>0.217877</v>
+        <v>0.311917</v>
       </c>
       <c r="F101" t="n">
-        <v>0.53185</v>
+        <v>0.731582</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.286096</v>
+        <v>0.346875</v>
       </c>
       <c r="C102" t="n">
-        <v>0.605804</v>
+        <v>0.902574</v>
       </c>
       <c r="D102" t="n">
-        <v>0.667716</v>
+        <v>1.17862</v>
       </c>
       <c r="E102" t="n">
-        <v>0.212672</v>
+        <v>0.388096</v>
       </c>
       <c r="F102" t="n">
-        <v>0.52224</v>
+        <v>0.908596</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.277217</v>
+        <v>0.345304</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603453</v>
+        <v>0.846314</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6605220000000001</v>
+        <v>1.09487</v>
       </c>
       <c r="E103" t="n">
-        <v>0.208447</v>
+        <v>0.325373</v>
       </c>
       <c r="F103" t="n">
-        <v>0.530576</v>
+        <v>0.779366</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.267769</v>
+        <v>0.449906</v>
       </c>
       <c r="C104" t="n">
-        <v>0.626088</v>
+        <v>1.13405</v>
       </c>
       <c r="D104" t="n">
-        <v>0.674592</v>
+        <v>1.09627</v>
       </c>
       <c r="E104" t="n">
-        <v>0.205441</v>
+        <v>0.319239</v>
       </c>
       <c r="F104" t="n">
-        <v>0.517706</v>
+        <v>0.901724</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.261742</v>
+        <v>0.3383</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6233379999999999</v>
+        <v>1.00538</v>
       </c>
       <c r="D105" t="n">
-        <v>0.667677</v>
+        <v>1.03959</v>
       </c>
       <c r="E105" t="n">
-        <v>0.201583</v>
+        <v>0.328639</v>
       </c>
       <c r="F105" t="n">
-        <v>0.513051</v>
+        <v>0.687267</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.251819</v>
+        <v>0.338801</v>
       </c>
       <c r="C106" t="n">
-        <v>0.644124</v>
+        <v>1.00574</v>
       </c>
       <c r="D106" t="n">
-        <v>0.678021</v>
+        <v>1.07124</v>
       </c>
       <c r="E106" t="n">
-        <v>0.197507</v>
+        <v>0.252574</v>
       </c>
       <c r="F106" t="n">
-        <v>0.514531</v>
+        <v>0.724959</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244148</v>
+        <v>0.311189</v>
       </c>
       <c r="C107" t="n">
-        <v>0.580473</v>
+        <v>0.939168</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6675990000000001</v>
+        <v>1.0402</v>
       </c>
       <c r="E107" t="n">
-        <v>0.193898</v>
+        <v>0.237717</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5122100000000001</v>
+        <v>0.765614</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.241385</v>
+        <v>0.31754</v>
       </c>
       <c r="C108" t="n">
-        <v>0.581214</v>
+        <v>1.06319</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6703480000000001</v>
+        <v>1.01187</v>
       </c>
       <c r="E108" t="n">
-        <v>0.254303</v>
+        <v>0.385252</v>
       </c>
       <c r="F108" t="n">
-        <v>0.55752</v>
+        <v>1.13832</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223963</v>
+        <v>0.329294</v>
       </c>
       <c r="C109" t="n">
-        <v>0.566368</v>
+        <v>0.8629520000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.67103</v>
+        <v>1.12897</v>
       </c>
       <c r="E109" t="n">
-        <v>0.247829</v>
+        <v>0.337537</v>
       </c>
       <c r="F109" t="n">
-        <v>0.557836</v>
+        <v>0.858283</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.327937</v>
+        <v>0.409952</v>
       </c>
       <c r="C110" t="n">
-        <v>0.673038</v>
+        <v>0.970163</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663212</v>
+        <v>0.967785</v>
       </c>
       <c r="E110" t="n">
-        <v>0.242538</v>
+        <v>0.34762</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5543979999999999</v>
+        <v>0.937686</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.320172</v>
+        <v>0.434131</v>
       </c>
       <c r="C111" t="n">
-        <v>0.668523</v>
+        <v>0.747094</v>
       </c>
       <c r="D111" t="n">
-        <v>0.659983</v>
+        <v>0.986943</v>
       </c>
       <c r="E111" t="n">
-        <v>0.23936</v>
+        <v>0.325736</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5456220000000001</v>
+        <v>0.95045</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.311499</v>
+        <v>0.442163</v>
       </c>
       <c r="C112" t="n">
-        <v>0.662569</v>
+        <v>1.01769</v>
       </c>
       <c r="D112" t="n">
-        <v>0.655331</v>
+        <v>1.28557</v>
       </c>
       <c r="E112" t="n">
-        <v>0.231452</v>
+        <v>0.359275</v>
       </c>
       <c r="F112" t="n">
-        <v>0.547184</v>
+        <v>0.920838</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.304894</v>
+        <v>0.446281</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6739000000000001</v>
+        <v>1.0331</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671444</v>
+        <v>0.883929</v>
       </c>
       <c r="E113" t="n">
-        <v>0.231234</v>
+        <v>0.339921</v>
       </c>
       <c r="F113" t="n">
-        <v>0.536224</v>
+        <v>0.758347</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.296485</v>
+        <v>0.406494</v>
       </c>
       <c r="C114" t="n">
-        <v>0.632267</v>
+        <v>0.990299</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6627729999999999</v>
+        <v>1.05124</v>
       </c>
       <c r="E114" t="n">
-        <v>0.226611</v>
+        <v>0.328079</v>
       </c>
       <c r="F114" t="n">
-        <v>0.535789</v>
+        <v>0.774131</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291054</v>
+        <v>0.407362</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6355</v>
+        <v>0.9443510000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.665832</v>
+        <v>0.9538990000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.219043</v>
+        <v>0.359416</v>
       </c>
       <c r="F115" t="n">
-        <v>0.527532</v>
+        <v>0.926082</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.283806</v>
+        <v>0.393796</v>
       </c>
       <c r="C116" t="n">
-        <v>0.661135</v>
+        <v>0.946353</v>
       </c>
       <c r="D116" t="n">
-        <v>0.661158</v>
+        <v>0.893573</v>
       </c>
       <c r="E116" t="n">
-        <v>0.21438</v>
+        <v>0.360735</v>
       </c>
       <c r="F116" t="n">
-        <v>0.535527</v>
+        <v>0.827067</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.279606</v>
+        <v>0.356144</v>
       </c>
       <c r="C117" t="n">
-        <v>0.636598</v>
+        <v>1.13263</v>
       </c>
       <c r="D117" t="n">
-        <v>0.664848</v>
+        <v>1.12253</v>
       </c>
       <c r="E117" t="n">
-        <v>0.213474</v>
+        <v>0.359493</v>
       </c>
       <c r="F117" t="n">
-        <v>0.525791</v>
+        <v>0.937554</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270409</v>
+        <v>0.353651</v>
       </c>
       <c r="C118" t="n">
-        <v>0.624897</v>
+        <v>0.996928</v>
       </c>
       <c r="D118" t="n">
-        <v>0.671836</v>
+        <v>1.10475</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209764</v>
+        <v>0.300242</v>
       </c>
       <c r="F118" t="n">
-        <v>0.525957</v>
+        <v>0.62434</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265516</v>
+        <v>0.348704</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6212220000000001</v>
+        <v>0.9075</v>
       </c>
       <c r="D119" t="n">
-        <v>0.688647</v>
+        <v>0.967322</v>
       </c>
       <c r="E119" t="n">
-        <v>0.205105</v>
+        <v>0.29078</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5216420000000001</v>
+        <v>0.684908</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261452</v>
+        <v>0.333793</v>
       </c>
       <c r="C120" t="n">
-        <v>0.595028</v>
+        <v>0.905341</v>
       </c>
       <c r="D120" t="n">
-        <v>0.679491</v>
+        <v>1.09141</v>
       </c>
       <c r="E120" t="n">
-        <v>0.200756</v>
+        <v>0.347957</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5196539999999999</v>
+        <v>0.802772</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252891</v>
+        <v>0.363841</v>
       </c>
       <c r="C121" t="n">
-        <v>0.59626</v>
+        <v>0.808814</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6747300000000001</v>
+        <v>0.969136</v>
       </c>
       <c r="E121" t="n">
-        <v>0.194998</v>
+        <v>0.239673</v>
       </c>
       <c r="F121" t="n">
-        <v>0.506474</v>
+        <v>0.801856</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237261</v>
+        <v>0.257697</v>
       </c>
       <c r="C122" t="n">
-        <v>0.584028</v>
+        <v>0.762707</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6699040000000001</v>
+        <v>0.95123</v>
       </c>
       <c r="E122" t="n">
-        <v>0.19064</v>
+        <v>0.289966</v>
       </c>
       <c r="F122" t="n">
-        <v>0.501932</v>
+        <v>0.667607</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227251</v>
+        <v>0.28319</v>
       </c>
       <c r="C123" t="n">
-        <v>0.574976</v>
+        <v>0.80541</v>
       </c>
       <c r="D123" t="n">
-        <v>0.666864</v>
+        <v>0.915342</v>
       </c>
       <c r="E123" t="n">
-        <v>0.251959</v>
+        <v>0.333439</v>
       </c>
       <c r="F123" t="n">
-        <v>0.557067</v>
+        <v>0.898905</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.325541</v>
+        <v>0.471165</v>
       </c>
       <c r="C124" t="n">
-        <v>0.635302</v>
+        <v>1.15394</v>
       </c>
       <c r="D124" t="n">
-        <v>0.667787</v>
+        <v>0.949234</v>
       </c>
       <c r="E124" t="n">
-        <v>0.244823</v>
+        <v>0.378244</v>
       </c>
       <c r="F124" t="n">
-        <v>0.554744</v>
+        <v>1.04698</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31971</v>
+        <v>0.442376</v>
       </c>
       <c r="C125" t="n">
-        <v>0.640243</v>
+        <v>1.0449</v>
       </c>
       <c r="D125" t="n">
-        <v>0.676383</v>
+        <v>1.02685</v>
       </c>
       <c r="E125" t="n">
-        <v>0.239412</v>
+        <v>0.32225</v>
       </c>
       <c r="F125" t="n">
-        <v>0.550081</v>
+        <v>0.663868</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322719</v>
+        <v>0.431475</v>
       </c>
       <c r="C126" t="n">
-        <v>0.634367</v>
+        <v>0.960832</v>
       </c>
       <c r="D126" t="n">
-        <v>0.676799</v>
+        <v>1.02522</v>
       </c>
       <c r="E126" t="n">
-        <v>0.234793</v>
+        <v>0.302295</v>
       </c>
       <c r="F126" t="n">
-        <v>0.541687</v>
+        <v>0.792621</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.306505</v>
+        <v>0.348305</v>
       </c>
       <c r="C127" t="n">
-        <v>0.649183</v>
+        <v>1.01622</v>
       </c>
       <c r="D127" t="n">
-        <v>0.664618</v>
+        <v>1.06817</v>
       </c>
       <c r="E127" t="n">
-        <v>0.230748</v>
+        <v>0.335289</v>
       </c>
       <c r="F127" t="n">
-        <v>0.539748</v>
+        <v>1.03376</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.298699</v>
+        <v>0.377101</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6147899999999999</v>
+        <v>1.0322</v>
       </c>
       <c r="D128" t="n">
-        <v>0.667404</v>
+        <v>1.02336</v>
       </c>
       <c r="E128" t="n">
-        <v>0.228244</v>
+        <v>0.332887</v>
       </c>
       <c r="F128" t="n">
-        <v>0.542602</v>
+        <v>0.759517</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293267</v>
+        <v>0.411971</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6251</v>
+        <v>0.991134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677494</v>
+        <v>1.08957</v>
       </c>
       <c r="E129" t="n">
-        <v>0.221829</v>
+        <v>0.329845</v>
       </c>
       <c r="F129" t="n">
-        <v>0.544609</v>
+        <v>0.917521</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.287137</v>
+        <v>0.324094</v>
       </c>
       <c r="C130" t="n">
-        <v>0.608395</v>
+        <v>0.820843</v>
       </c>
       <c r="D130" t="n">
-        <v>0.672685</v>
+        <v>0.855057</v>
       </c>
       <c r="E130" t="n">
-        <v>0.21706</v>
+        <v>0.270077</v>
       </c>
       <c r="F130" t="n">
-        <v>0.534511</v>
+        <v>1.03835</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.279688</v>
+        <v>0.408252</v>
       </c>
       <c r="C131" t="n">
-        <v>0.639146</v>
+        <v>0.947386</v>
       </c>
       <c r="D131" t="n">
-        <v>0.672372</v>
+        <v>0.957511</v>
       </c>
       <c r="E131" t="n">
-        <v>0.215133</v>
+        <v>0.307252</v>
       </c>
       <c r="F131" t="n">
-        <v>0.51994</v>
+        <v>0.712163</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.271292</v>
+        <v>0.31713</v>
       </c>
       <c r="C132" t="n">
-        <v>0.590983</v>
+        <v>0.844159</v>
       </c>
       <c r="D132" t="n">
-        <v>0.68596</v>
+        <v>0.940849</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209068</v>
+        <v>0.264953</v>
       </c>
       <c r="F132" t="n">
-        <v>0.521722</v>
+        <v>0.873159</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.26817</v>
+        <v>0.358422</v>
       </c>
       <c r="C133" t="n">
-        <v>0.590576</v>
+        <v>0.8623499999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.677515</v>
+        <v>0.913999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.209293</v>
+        <v>0.333478</v>
       </c>
       <c r="F133" t="n">
-        <v>0.528546</v>
+        <v>0.861491</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.256113</v>
+        <v>0.325858</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6377</v>
+        <v>0.828566</v>
       </c>
       <c r="D134" t="n">
-        <v>0.678878</v>
+        <v>1.02238</v>
       </c>
       <c r="E134" t="n">
-        <v>0.200392</v>
+        <v>0.295372</v>
       </c>
       <c r="F134" t="n">
-        <v>0.525576</v>
+        <v>0.837044</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248238</v>
+        <v>0.305597</v>
       </c>
       <c r="C135" t="n">
-        <v>0.583315</v>
+        <v>0.937317</v>
       </c>
       <c r="D135" t="n">
-        <v>0.673187</v>
+        <v>0.8743919999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.197476</v>
+        <v>0.250323</v>
       </c>
       <c r="F135" t="n">
-        <v>0.509399</v>
+        <v>0.800278</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.243294</v>
+        <v>0.306899</v>
       </c>
       <c r="C136" t="n">
-        <v>0.594342</v>
+        <v>0.76812</v>
       </c>
       <c r="D136" t="n">
-        <v>0.685482</v>
+        <v>0.802737</v>
       </c>
       <c r="E136" t="n">
-        <v>0.196713</v>
+        <v>0.301606</v>
       </c>
       <c r="F136" t="n">
-        <v>0.512464</v>
+        <v>0.801899</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235492</v>
+        <v>0.301508</v>
       </c>
       <c r="C137" t="n">
-        <v>0.637244</v>
+        <v>0.741349</v>
       </c>
       <c r="D137" t="n">
-        <v>0.664934</v>
+        <v>0.750042</v>
       </c>
       <c r="E137" t="n">
-        <v>0.253536</v>
+        <v>0.332397</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5697719999999999</v>
+        <v>0.852264</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.32828</v>
+        <v>0.435184</v>
       </c>
       <c r="C138" t="n">
-        <v>0.631776</v>
+        <v>0.875375</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6638579999999999</v>
+        <v>0.933526</v>
       </c>
       <c r="E138" t="n">
-        <v>0.250382</v>
+        <v>0.365723</v>
       </c>
       <c r="F138" t="n">
-        <v>0.56266</v>
+        <v>0.785046</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.324782</v>
+        <v>0.498901</v>
       </c>
       <c r="C139" t="n">
-        <v>0.676941</v>
+        <v>0.783327</v>
       </c>
       <c r="D139" t="n">
-        <v>0.677634</v>
+        <v>0.787948</v>
       </c>
       <c r="E139" t="n">
-        <v>0.240823</v>
+        <v>0.262422</v>
       </c>
       <c r="F139" t="n">
-        <v>0.549978</v>
+        <v>0.778502</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.313885</v>
+        <v>0.491408</v>
       </c>
       <c r="C140" t="n">
-        <v>0.648423</v>
+        <v>0.842202</v>
       </c>
       <c r="D140" t="n">
-        <v>0.67216</v>
+        <v>0.868771</v>
       </c>
       <c r="E140" t="n">
-        <v>0.239991</v>
+        <v>0.270593</v>
       </c>
       <c r="F140" t="n">
-        <v>0.543479</v>
+        <v>0.837297</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.307078</v>
+        <v>0.493433</v>
       </c>
       <c r="C141" t="n">
-        <v>0.634741</v>
+        <v>0.782481</v>
       </c>
       <c r="D141" t="n">
-        <v>0.670571</v>
+        <v>0.865215</v>
       </c>
       <c r="E141" t="n">
-        <v>0.23205</v>
+        <v>0.284472</v>
       </c>
       <c r="F141" t="n">
-        <v>0.53781</v>
+        <v>0.774313</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.302964</v>
+        <v>0.41235</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631956</v>
+        <v>0.9374749999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.670414</v>
+        <v>0.920791</v>
       </c>
       <c r="E142" t="n">
-        <v>0.226283</v>
+        <v>0.299349</v>
       </c>
       <c r="F142" t="n">
-        <v>0.535655</v>
+        <v>0.666894</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.294561</v>
+        <v>0.414473</v>
       </c>
       <c r="C143" t="n">
-        <v>0.622241</v>
+        <v>0.748745</v>
       </c>
       <c r="D143" t="n">
-        <v>0.684686</v>
+        <v>0.774061</v>
       </c>
       <c r="E143" t="n">
-        <v>0.223349</v>
+        <v>0.247877</v>
       </c>
       <c r="F143" t="n">
-        <v>0.540475</v>
+        <v>0.724781</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.284307</v>
+        <v>0.192706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.928086</v>
+        <v>0.42873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.877448</v>
+        <v>0.414784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.216862</v>
+        <v>0.154701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.540174</v>
+        <v>0.368973</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295441</v>
+        <v>0.188188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.722185</v>
+        <v>0.425136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.621506</v>
+        <v>0.41718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.204993</v>
+        <v>0.154857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5880030000000001</v>
+        <v>0.369148</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.283556</v>
+        <v>0.184864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.552803</v>
+        <v>0.421872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.754653</v>
+        <v>0.421461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.210637</v>
+        <v>0.150806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.539493</v>
+        <v>0.367642</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.278622</v>
+        <v>0.180435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.642889</v>
+        <v>0.414598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.700326</v>
+        <v>0.420218</v>
       </c>
       <c r="E5" t="n">
-        <v>0.256479</v>
+        <v>0.14928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.766467</v>
+        <v>0.367761</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.391023</v>
+        <v>0.174333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.94759</v>
+        <v>0.411305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.996613</v>
+        <v>0.422676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.33557</v>
+        <v>0.147235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.846703</v>
+        <v>0.36439</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247664</v>
+        <v>0.169876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8293469999999999</v>
+        <v>0.40955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.837701</v>
+        <v>0.419077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.366762</v>
+        <v>0.145496</v>
       </c>
       <c r="F7" t="n">
-        <v>0.769097</v>
+        <v>0.364216</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.38063</v>
+        <v>0.163547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.829952</v>
+        <v>0.404255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.98573</v>
+        <v>0.420352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.292111</v>
+        <v>0.142153</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7583220000000001</v>
+        <v>0.364167</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.348287</v>
+        <v>0.156466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.871664</v>
+        <v>0.396521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.943063</v>
+        <v>0.419924</v>
       </c>
       <c r="E9" t="n">
-        <v>0.274962</v>
+        <v>0.177845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.923404</v>
+        <v>0.392872</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.533689</v>
+        <v>0.239839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.771831</v>
+        <v>0.454717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.743499</v>
+        <v>0.420514</v>
       </c>
       <c r="E10" t="n">
-        <v>0.319611</v>
+        <v>0.176118</v>
       </c>
       <c r="F10" t="n">
-        <v>0.732883</v>
+        <v>0.389536</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.495088</v>
+        <v>0.235256</v>
       </c>
       <c r="C11" t="n">
-        <v>0.765734</v>
+        <v>0.45887</v>
       </c>
       <c r="D11" t="n">
-        <v>0.759914</v>
+        <v>0.420318</v>
       </c>
       <c r="E11" t="n">
-        <v>0.301204</v>
+        <v>0.173403</v>
       </c>
       <c r="F11" t="n">
-        <v>0.701291</v>
+        <v>0.387482</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.454079</v>
+        <v>0.230121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.73103</v>
+        <v>0.447253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.852839</v>
+        <v>0.421297</v>
       </c>
       <c r="E12" t="n">
-        <v>0.361953</v>
+        <v>0.17075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6530049999999999</v>
+        <v>0.383998</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.447533</v>
+        <v>0.224969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.79862</v>
+        <v>0.447831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.732212</v>
+        <v>0.420389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.264184</v>
+        <v>0.169162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.763224</v>
+        <v>0.382787</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.438112</v>
+        <v>0.21945</v>
       </c>
       <c r="C14" t="n">
-        <v>1.08674</v>
+        <v>0.443139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.859007</v>
+        <v>0.421942</v>
       </c>
       <c r="E14" t="n">
-        <v>0.254886</v>
+        <v>0.166533</v>
       </c>
       <c r="F14" t="n">
-        <v>0.575179</v>
+        <v>0.380496</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.412755</v>
+        <v>0.213584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7533609999999999</v>
+        <v>0.439123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.541255</v>
+        <v>0.423782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.266166</v>
+        <v>0.166494</v>
       </c>
       <c r="F15" t="n">
-        <v>0.623604</v>
+        <v>0.378428</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.434965</v>
+        <v>0.207559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.610722</v>
+        <v>0.432642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.606913</v>
+        <v>0.423771</v>
       </c>
       <c r="E16" t="n">
-        <v>0.285559</v>
+        <v>0.16366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6358470000000001</v>
+        <v>0.375397</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.411555</v>
+        <v>0.201851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.739768</v>
+        <v>0.432649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.648692</v>
+        <v>0.426369</v>
       </c>
       <c r="E17" t="n">
-        <v>0.280157</v>
+        <v>0.163317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.939414</v>
+        <v>0.377314</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.431657</v>
+        <v>0.196375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.895712</v>
+        <v>0.432808</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9295369999999999</v>
+        <v>0.427023</v>
       </c>
       <c r="E18" t="n">
-        <v>0.305752</v>
+        <v>0.159644</v>
       </c>
       <c r="F18" t="n">
-        <v>0.562613</v>
+        <v>0.371354</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.341929</v>
+        <v>0.190919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.643536</v>
+        <v>0.42244</v>
       </c>
       <c r="D19" t="n">
-        <v>0.749715</v>
+        <v>0.426716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.324347</v>
+        <v>0.157931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.64331</v>
+        <v>0.368981</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.334938</v>
+        <v>0.185366</v>
       </c>
       <c r="C20" t="n">
-        <v>0.780172</v>
+        <v>0.420325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.796809</v>
+        <v>0.430032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.314598</v>
+        <v>0.156038</v>
       </c>
       <c r="F20" t="n">
-        <v>0.637104</v>
+        <v>0.367896</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.382007</v>
+        <v>0.179329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.650215</v>
+        <v>0.41908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.780208</v>
+        <v>0.428872</v>
       </c>
       <c r="E21" t="n">
-        <v>0.260203</v>
+        <v>0.152505</v>
       </c>
       <c r="F21" t="n">
-        <v>0.517526</v>
+        <v>0.366141</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.360206</v>
+        <v>0.172666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.583749</v>
+        <v>0.408962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.838033</v>
+        <v>0.42728</v>
       </c>
       <c r="E22" t="n">
-        <v>0.223007</v>
+        <v>0.149355</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5933659999999999</v>
+        <v>0.362862</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.344609</v>
+        <v>0.165698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.665764</v>
+        <v>0.393932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.734667</v>
+        <v>0.425736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.352464</v>
+        <v>0.182923</v>
       </c>
       <c r="F23" t="n">
-        <v>0.753367</v>
+        <v>0.397773</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.410245</v>
+        <v>0.241355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.972944</v>
+        <v>0.455302</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08303</v>
+        <v>0.426374</v>
       </c>
       <c r="E24" t="n">
-        <v>0.366595</v>
+        <v>0.178824</v>
       </c>
       <c r="F24" t="n">
-        <v>0.809952</v>
+        <v>0.396011</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5301090000000001</v>
+        <v>0.236638</v>
       </c>
       <c r="C25" t="n">
-        <v>0.824416</v>
+        <v>0.452263</v>
       </c>
       <c r="D25" t="n">
-        <v>0.740907</v>
+        <v>0.426199</v>
       </c>
       <c r="E25" t="n">
-        <v>0.355113</v>
+        <v>0.175984</v>
       </c>
       <c r="F25" t="n">
-        <v>0.705545</v>
+        <v>0.391539</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475847</v>
+        <v>0.231874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.972379</v>
+        <v>0.451959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6990690000000001</v>
+        <v>0.426916</v>
       </c>
       <c r="E26" t="n">
-        <v>0.315706</v>
+        <v>0.175203</v>
       </c>
       <c r="F26" t="n">
-        <v>0.650814</v>
+        <v>0.389897</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.473262</v>
+        <v>0.226392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.631144</v>
+        <v>0.450486</v>
       </c>
       <c r="D27" t="n">
-        <v>0.706106</v>
+        <v>0.426981</v>
       </c>
       <c r="E27" t="n">
-        <v>0.277235</v>
+        <v>0.170414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.64515</v>
+        <v>0.386986</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.421634</v>
+        <v>0.221026</v>
       </c>
       <c r="C28" t="n">
-        <v>0.811476</v>
+        <v>0.448105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.52823</v>
+        <v>0.427205</v>
       </c>
       <c r="E28" t="n">
-        <v>0.278149</v>
+        <v>0.169234</v>
       </c>
       <c r="F28" t="n">
-        <v>0.520162</v>
+        <v>0.385665</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.327566</v>
+        <v>0.215022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.688681</v>
+        <v>0.443453</v>
       </c>
       <c r="D29" t="n">
-        <v>0.527719</v>
+        <v>0.427492</v>
       </c>
       <c r="E29" t="n">
-        <v>0.295803</v>
+        <v>0.168016</v>
       </c>
       <c r="F29" t="n">
-        <v>0.547329</v>
+        <v>0.382952</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.362424</v>
+        <v>0.209098</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0396</v>
+        <v>0.439887</v>
       </c>
       <c r="D30" t="n">
-        <v>0.877643</v>
+        <v>0.429365</v>
       </c>
       <c r="E30" t="n">
-        <v>0.277469</v>
+        <v>0.167392</v>
       </c>
       <c r="F30" t="n">
-        <v>0.692308</v>
+        <v>0.381311</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.446777</v>
+        <v>0.203492</v>
       </c>
       <c r="C31" t="n">
-        <v>0.569931</v>
+        <v>0.436061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.706579</v>
+        <v>0.430503</v>
       </c>
       <c r="E31" t="n">
-        <v>0.191808</v>
+        <v>0.163513</v>
       </c>
       <c r="F31" t="n">
-        <v>0.632312</v>
+        <v>0.377662</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.398503</v>
+        <v>0.197869</v>
       </c>
       <c r="C32" t="n">
-        <v>0.752702</v>
+        <v>0.429323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.815754</v>
+        <v>0.430122</v>
       </c>
       <c r="E32" t="n">
-        <v>0.322258</v>
+        <v>0.161289</v>
       </c>
       <c r="F32" t="n">
-        <v>0.791961</v>
+        <v>0.375156</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.375722</v>
+        <v>0.192256</v>
       </c>
       <c r="C33" t="n">
-        <v>0.765288</v>
+        <v>0.426986</v>
       </c>
       <c r="D33" t="n">
-        <v>0.703909</v>
+        <v>0.430816</v>
       </c>
       <c r="E33" t="n">
-        <v>0.326776</v>
+        <v>0.158586</v>
       </c>
       <c r="F33" t="n">
-        <v>0.698323</v>
+        <v>0.373338</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.382944</v>
+        <v>0.186821</v>
       </c>
       <c r="C34" t="n">
-        <v>0.636578</v>
+        <v>0.418882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.691296</v>
+        <v>0.432156</v>
       </c>
       <c r="E34" t="n">
-        <v>0.26464</v>
+        <v>0.156268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.762676</v>
+        <v>0.370218</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.34557</v>
+        <v>0.180948</v>
       </c>
       <c r="C35" t="n">
-        <v>0.692956</v>
+        <v>0.416102</v>
       </c>
       <c r="D35" t="n">
-        <v>0.686619</v>
+        <v>0.432641</v>
       </c>
       <c r="E35" t="n">
-        <v>0.258028</v>
+        <v>0.154339</v>
       </c>
       <c r="F35" t="n">
-        <v>0.492503</v>
+        <v>0.367893</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.33329</v>
+        <v>0.174741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.651971</v>
+        <v>0.410089</v>
       </c>
       <c r="D36" t="n">
-        <v>0.631367</v>
+        <v>0.432686</v>
       </c>
       <c r="E36" t="n">
-        <v>0.217883</v>
+        <v>0.150862</v>
       </c>
       <c r="F36" t="n">
-        <v>0.612311</v>
+        <v>0.365334</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.363053</v>
+        <v>0.168209</v>
       </c>
       <c r="C37" t="n">
-        <v>0.615441</v>
+        <v>0.398981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.632118</v>
+        <v>0.43202</v>
       </c>
       <c r="E37" t="n">
-        <v>0.279763</v>
+        <v>0.182705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.689028</v>
+        <v>0.400788</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5298929999999999</v>
+        <v>0.243164</v>
       </c>
       <c r="C38" t="n">
-        <v>0.894823</v>
+        <v>0.461048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.658026</v>
+        <v>0.43267</v>
       </c>
       <c r="E38" t="n">
-        <v>0.308153</v>
+        <v>0.179559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.723368</v>
+        <v>0.39757</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.48092</v>
+        <v>0.238655</v>
       </c>
       <c r="C39" t="n">
-        <v>0.844333</v>
+        <v>0.45889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.664249</v>
+        <v>0.431892</v>
       </c>
       <c r="E39" t="n">
-        <v>0.320787</v>
+        <v>0.176994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.832585</v>
+        <v>0.395334</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.388646</v>
+        <v>0.233795</v>
       </c>
       <c r="C40" t="n">
-        <v>0.829581</v>
+        <v>0.456245</v>
       </c>
       <c r="D40" t="n">
-        <v>0.580589</v>
+        <v>0.432011</v>
       </c>
       <c r="E40" t="n">
-        <v>0.286336</v>
+        <v>0.174756</v>
       </c>
       <c r="F40" t="n">
-        <v>0.710982</v>
+        <v>0.392767</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.48177</v>
+        <v>0.22814</v>
       </c>
       <c r="C41" t="n">
-        <v>0.908069</v>
+        <v>0.452601</v>
       </c>
       <c r="D41" t="n">
-        <v>0.696678</v>
+        <v>0.434213</v>
       </c>
       <c r="E41" t="n">
-        <v>0.324986</v>
+        <v>0.173128</v>
       </c>
       <c r="F41" t="n">
-        <v>0.750043</v>
+        <v>0.388855</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292986</v>
+        <v>0.222578</v>
       </c>
       <c r="C42" t="n">
-        <v>0.808415</v>
+        <v>0.45421</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5731270000000001</v>
+        <v>0.432619</v>
       </c>
       <c r="E42" t="n">
-        <v>0.248406</v>
+        <v>0.171117</v>
       </c>
       <c r="F42" t="n">
-        <v>0.863446</v>
+        <v>0.387204</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435958</v>
+        <v>0.21642</v>
       </c>
       <c r="C43" t="n">
-        <v>0.864052</v>
+        <v>0.445602</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5935279999999999</v>
+        <v>0.436337</v>
       </c>
       <c r="E43" t="n">
-        <v>0.229944</v>
+        <v>0.168765</v>
       </c>
       <c r="F43" t="n">
-        <v>0.796629</v>
+        <v>0.38374</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.404834</v>
+        <v>0.210825</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02356</v>
+        <v>0.441544</v>
       </c>
       <c r="D44" t="n">
-        <v>0.702381</v>
+        <v>0.434162</v>
       </c>
       <c r="E44" t="n">
-        <v>0.246643</v>
+        <v>0.166698</v>
       </c>
       <c r="F44" t="n">
-        <v>0.738825</v>
+        <v>0.381894</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.426436</v>
+        <v>0.204954</v>
       </c>
       <c r="C45" t="n">
-        <v>0.705545</v>
+        <v>0.437936</v>
       </c>
       <c r="D45" t="n">
-        <v>0.776927</v>
+        <v>0.437921</v>
       </c>
       <c r="E45" t="n">
-        <v>0.234173</v>
+        <v>0.165119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.70255</v>
+        <v>0.380068</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.447325</v>
+        <v>0.199373</v>
       </c>
       <c r="C46" t="n">
-        <v>0.927876</v>
+        <v>0.434235</v>
       </c>
       <c r="D46" t="n">
-        <v>0.99709</v>
+        <v>0.435372</v>
       </c>
       <c r="E46" t="n">
-        <v>0.372155</v>
+        <v>0.163505</v>
       </c>
       <c r="F46" t="n">
-        <v>0.991146</v>
+        <v>0.377936</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.325396</v>
+        <v>0.194064</v>
       </c>
       <c r="C47" t="n">
-        <v>1.01577</v>
+        <v>0.428843</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0073</v>
+        <v>0.435526</v>
       </c>
       <c r="E47" t="n">
-        <v>0.291906</v>
+        <v>0.160183</v>
       </c>
       <c r="F47" t="n">
-        <v>0.787181</v>
+        <v>0.375519</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.354148</v>
+        <v>0.188493</v>
       </c>
       <c r="C48" t="n">
-        <v>0.893919</v>
+        <v>0.42211</v>
       </c>
       <c r="D48" t="n">
-        <v>0.980716</v>
+        <v>0.438944</v>
       </c>
       <c r="E48" t="n">
-        <v>0.273638</v>
+        <v>0.158752</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6321830000000001</v>
+        <v>0.373368</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.29913</v>
+        <v>0.182559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.92443</v>
+        <v>0.415952</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00369</v>
+        <v>0.437335</v>
       </c>
       <c r="E49" t="n">
-        <v>0.347921</v>
+        <v>0.155852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.839419</v>
+        <v>0.37009</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.305301</v>
+        <v>0.176299</v>
       </c>
       <c r="C50" t="n">
-        <v>0.735085</v>
+        <v>0.409984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.846195</v>
+        <v>0.435833</v>
       </c>
       <c r="E50" t="n">
-        <v>0.322531</v>
+        <v>0.15331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.936063</v>
+        <v>0.36756</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.365808</v>
+        <v>0.169695</v>
       </c>
       <c r="C51" t="n">
-        <v>0.817106</v>
+        <v>0.402084</v>
       </c>
       <c r="D51" t="n">
-        <v>0.979491</v>
+        <v>0.435895</v>
       </c>
       <c r="E51" t="n">
-        <v>0.344764</v>
+        <v>0.185347</v>
       </c>
       <c r="F51" t="n">
-        <v>0.957442</v>
+        <v>0.402052</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.380309</v>
+        <v>0.162425</v>
       </c>
       <c r="C52" t="n">
-        <v>0.788066</v>
+        <v>0.391923</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11927</v>
+        <v>0.434145</v>
       </c>
       <c r="E52" t="n">
-        <v>0.386439</v>
+        <v>0.183051</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7949929999999999</v>
+        <v>0.398269</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.448132</v>
+        <v>0.240146</v>
       </c>
       <c r="C53" t="n">
-        <v>0.850821</v>
+        <v>0.460587</v>
       </c>
       <c r="D53" t="n">
-        <v>0.92153</v>
+        <v>0.435424</v>
       </c>
       <c r="E53" t="n">
-        <v>0.32965</v>
+        <v>0.179811</v>
       </c>
       <c r="F53" t="n">
-        <v>0.738034</v>
+        <v>0.396141</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.463655</v>
+        <v>0.234863</v>
       </c>
       <c r="C54" t="n">
-        <v>0.882539</v>
+        <v>0.459048</v>
       </c>
       <c r="D54" t="n">
-        <v>0.766875</v>
+        <v>0.43515</v>
       </c>
       <c r="E54" t="n">
-        <v>0.366326</v>
+        <v>0.176826</v>
       </c>
       <c r="F54" t="n">
-        <v>0.743337</v>
+        <v>0.390923</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.476649</v>
+        <v>0.22946</v>
       </c>
       <c r="C55" t="n">
-        <v>0.785722</v>
+        <v>0.455721</v>
       </c>
       <c r="D55" t="n">
-        <v>0.852696</v>
+        <v>0.434807</v>
       </c>
       <c r="E55" t="n">
-        <v>0.319324</v>
+        <v>0.174873</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7079490000000001</v>
+        <v>0.390635</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.48373</v>
+        <v>0.223949</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0485</v>
+        <v>0.451366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971512</v>
+        <v>0.437277</v>
       </c>
       <c r="E56" t="n">
-        <v>0.275055</v>
+        <v>0.172807</v>
       </c>
       <c r="F56" t="n">
-        <v>0.849896</v>
+        <v>0.38756</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.429837</v>
+        <v>0.217926</v>
       </c>
       <c r="C57" t="n">
-        <v>0.949985</v>
+        <v>0.448084</v>
       </c>
       <c r="D57" t="n">
-        <v>1.12313</v>
+        <v>0.43517</v>
       </c>
       <c r="E57" t="n">
-        <v>0.338457</v>
+        <v>0.170927</v>
       </c>
       <c r="F57" t="n">
-        <v>0.800494</v>
+        <v>0.384822</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397614</v>
+        <v>0.212063</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06322</v>
+        <v>0.443508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.558808</v>
+        <v>0.439384</v>
       </c>
       <c r="E58" t="n">
-        <v>0.297488</v>
+        <v>0.168483</v>
       </c>
       <c r="F58" t="n">
-        <v>0.90469</v>
+        <v>0.382317</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.37538</v>
+        <v>0.206431</v>
       </c>
       <c r="C59" t="n">
-        <v>0.800751</v>
+        <v>0.440458</v>
       </c>
       <c r="D59" t="n">
-        <v>0.789768</v>
+        <v>0.438277</v>
       </c>
       <c r="E59" t="n">
-        <v>0.33349</v>
+        <v>0.166819</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7302689999999999</v>
+        <v>0.379357</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.421591</v>
+        <v>0.200626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.975699</v>
+        <v>0.435937</v>
       </c>
       <c r="D60" t="n">
-        <v>0.794102</v>
+        <v>0.440071</v>
       </c>
       <c r="E60" t="n">
-        <v>0.364681</v>
+        <v>0.164566</v>
       </c>
       <c r="F60" t="n">
-        <v>0.858522</v>
+        <v>0.377606</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.329701</v>
+        <v>0.19503</v>
       </c>
       <c r="C61" t="n">
-        <v>0.831741</v>
+        <v>0.431637</v>
       </c>
       <c r="D61" t="n">
-        <v>0.958475</v>
+        <v>0.443954</v>
       </c>
       <c r="E61" t="n">
-        <v>0.321546</v>
+        <v>0.161729</v>
       </c>
       <c r="F61" t="n">
-        <v>0.756876</v>
+        <v>0.375054</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.39882</v>
+        <v>0.1894</v>
       </c>
       <c r="C62" t="n">
-        <v>0.956904</v>
+        <v>0.426913</v>
       </c>
       <c r="D62" t="n">
-        <v>1.03633</v>
+        <v>0.443802</v>
       </c>
       <c r="E62" t="n">
-        <v>0.297474</v>
+        <v>0.160346</v>
       </c>
       <c r="F62" t="n">
-        <v>0.694708</v>
+        <v>0.372257</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.357476</v>
+        <v>0.183656</v>
       </c>
       <c r="C63" t="n">
-        <v>0.727855</v>
+        <v>0.421592</v>
       </c>
       <c r="D63" t="n">
-        <v>1.07118</v>
+        <v>0.452334</v>
       </c>
       <c r="E63" t="n">
-        <v>0.365306</v>
+        <v>0.157153</v>
       </c>
       <c r="F63" t="n">
-        <v>0.652892</v>
+        <v>0.369822</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.300789</v>
+        <v>0.177864</v>
       </c>
       <c r="C64" t="n">
-        <v>0.858924</v>
+        <v>0.414968</v>
       </c>
       <c r="D64" t="n">
-        <v>1.01578</v>
+        <v>0.467091</v>
       </c>
       <c r="E64" t="n">
-        <v>0.323325</v>
+        <v>0.15433</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.365853</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.309705</v>
+        <v>0.1716</v>
       </c>
       <c r="C65" t="n">
-        <v>0.939813</v>
+        <v>0.407241</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9631</v>
+        <v>0.473058</v>
       </c>
       <c r="E65" t="n">
-        <v>0.313315</v>
+        <v>0.151891</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7190839999999999</v>
+        <v>0.363378</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.317937</v>
+        <v>0.164564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.806777</v>
+        <v>0.400725</v>
       </c>
       <c r="D66" t="n">
-        <v>0.884924</v>
+        <v>0.47827</v>
       </c>
       <c r="E66" t="n">
-        <v>0.343462</v>
+        <v>0.184004</v>
       </c>
       <c r="F66" t="n">
-        <v>0.80623</v>
+        <v>0.398288</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.515159</v>
+        <v>0.240813</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05885</v>
+        <v>0.478001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.936516</v>
+        <v>0.487137</v>
       </c>
       <c r="E67" t="n">
-        <v>0.416384</v>
+        <v>0.181448</v>
       </c>
       <c r="F67" t="n">
-        <v>0.759262</v>
+        <v>0.396339</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.478744</v>
+        <v>0.236029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.975452</v>
+        <v>0.476046</v>
       </c>
       <c r="D68" t="n">
-        <v>0.99242</v>
+        <v>0.492307</v>
       </c>
       <c r="E68" t="n">
-        <v>0.39178</v>
+        <v>0.17832</v>
       </c>
       <c r="F68" t="n">
-        <v>0.922121</v>
+        <v>0.392031</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.423019</v>
+        <v>0.230512</v>
       </c>
       <c r="C69" t="n">
-        <v>1.15879</v>
+        <v>0.479633</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814519</v>
+        <v>0.496676</v>
       </c>
       <c r="E69" t="n">
-        <v>0.342417</v>
+        <v>0.176345</v>
       </c>
       <c r="F69" t="n">
-        <v>0.553843</v>
+        <v>0.390781</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.38753</v>
+        <v>0.225157</v>
       </c>
       <c r="C70" t="n">
-        <v>1.05732</v>
+        <v>0.480193</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03725</v>
+        <v>0.502667</v>
       </c>
       <c r="E70" t="n">
-        <v>0.32041</v>
+        <v>0.173651</v>
       </c>
       <c r="F70" t="n">
-        <v>0.905519</v>
+        <v>0.389471</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.408354</v>
+        <v>0.219233</v>
       </c>
       <c r="C71" t="n">
-        <v>0.983961</v>
+        <v>0.485205</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8976499999999999</v>
+        <v>0.511455</v>
       </c>
       <c r="E71" t="n">
-        <v>0.328437</v>
+        <v>0.171437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.651079</v>
+        <v>0.387791</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.426573</v>
+        <v>0.213256</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03755</v>
+        <v>0.488057</v>
       </c>
       <c r="D72" t="n">
-        <v>1.08063</v>
+        <v>0.516369</v>
       </c>
       <c r="E72" t="n">
-        <v>0.370925</v>
+        <v>0.169261</v>
       </c>
       <c r="F72" t="n">
-        <v>0.88218</v>
+        <v>0.387263</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465735</v>
+        <v>0.207604</v>
       </c>
       <c r="C73" t="n">
-        <v>1.07151</v>
+        <v>0.488374</v>
       </c>
       <c r="D73" t="n">
-        <v>1.05969</v>
+        <v>0.523463</v>
       </c>
       <c r="E73" t="n">
-        <v>0.244248</v>
+        <v>0.167432</v>
       </c>
       <c r="F73" t="n">
-        <v>0.769021</v>
+        <v>0.384331</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.406871</v>
+        <v>0.201925</v>
       </c>
       <c r="C74" t="n">
-        <v>0.966477</v>
+        <v>0.490452</v>
       </c>
       <c r="D74" t="n">
-        <v>1.05233</v>
+        <v>0.528065</v>
       </c>
       <c r="E74" t="n">
-        <v>0.351728</v>
+        <v>0.16522</v>
       </c>
       <c r="F74" t="n">
-        <v>0.578916</v>
+        <v>0.383143</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.413558</v>
+        <v>0.196227</v>
       </c>
       <c r="C75" t="n">
-        <v>0.824899</v>
+        <v>0.493884</v>
       </c>
       <c r="D75" t="n">
-        <v>1.02432</v>
+        <v>0.536369</v>
       </c>
       <c r="E75" t="n">
-        <v>0.321633</v>
+        <v>0.162688</v>
       </c>
       <c r="F75" t="n">
-        <v>0.593998</v>
+        <v>0.380791</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3553</v>
+        <v>0.190797</v>
       </c>
       <c r="C76" t="n">
-        <v>0.816751</v>
+        <v>0.494525</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06745</v>
+        <v>0.540524</v>
       </c>
       <c r="E76" t="n">
-        <v>0.296119</v>
+        <v>0.161027</v>
       </c>
       <c r="F76" t="n">
-        <v>0.539932</v>
+        <v>0.379414</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288251</v>
+        <v>0.184864</v>
       </c>
       <c r="C77" t="n">
-        <v>0.906968</v>
+        <v>0.492779</v>
       </c>
       <c r="D77" t="n">
-        <v>0.816319</v>
+        <v>0.545652</v>
       </c>
       <c r="E77" t="n">
-        <v>0.272823</v>
+        <v>0.158516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.728904</v>
+        <v>0.377797</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.304784</v>
+        <v>0.179404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.84115</v>
+        <v>0.486616</v>
       </c>
       <c r="D78" t="n">
-        <v>1.11381</v>
+        <v>0.557971</v>
       </c>
       <c r="E78" t="n">
-        <v>0.322206</v>
+        <v>0.155806</v>
       </c>
       <c r="F78" t="n">
-        <v>0.862788</v>
+        <v>0.375254</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.338101</v>
+        <v>0.173292</v>
       </c>
       <c r="C79" t="n">
-        <v>0.971915</v>
+        <v>0.485841</v>
       </c>
       <c r="D79" t="n">
-        <v>1.14632</v>
+        <v>0.5583979999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.324274</v>
+        <v>0.153012</v>
       </c>
       <c r="F79" t="n">
-        <v>0.643423</v>
+        <v>0.372959</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.31664</v>
+        <v>0.166215</v>
       </c>
       <c r="C80" t="n">
-        <v>0.853749</v>
+        <v>0.478687</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02818</v>
+        <v>0.557876</v>
       </c>
       <c r="E80" t="n">
-        <v>0.386189</v>
+        <v>0.185957</v>
       </c>
       <c r="F80" t="n">
-        <v>0.784022</v>
+        <v>0.408351</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467968</v>
+        <v>0.241977</v>
       </c>
       <c r="C81" t="n">
-        <v>0.956965</v>
+        <v>0.5522319999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9845159999999999</v>
+        <v>0.557649</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378645</v>
+        <v>0.182286</v>
       </c>
       <c r="F81" t="n">
-        <v>0.727851</v>
+        <v>0.405091</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.405482</v>
+        <v>0.237299</v>
       </c>
       <c r="C82" t="n">
-        <v>0.992456</v>
+        <v>0.544668</v>
       </c>
       <c r="D82" t="n">
-        <v>1.11248</v>
+        <v>0.558242</v>
       </c>
       <c r="E82" t="n">
-        <v>0.353726</v>
+        <v>0.179343</v>
       </c>
       <c r="F82" t="n">
-        <v>0.850858</v>
+        <v>0.401868</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.415114</v>
+        <v>0.232221</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05344</v>
+        <v>0.540025</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10839</v>
+        <v>0.558294</v>
       </c>
       <c r="E83" t="n">
-        <v>0.394983</v>
+        <v>0.177712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.63912</v>
+        <v>0.399297</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.405787</v>
+        <v>0.226238</v>
       </c>
       <c r="C84" t="n">
-        <v>1.19362</v>
+        <v>0.571482</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1088</v>
+        <v>0.598785</v>
       </c>
       <c r="E84" t="n">
-        <v>0.256652</v>
+        <v>0.174473</v>
       </c>
       <c r="F84" t="n">
-        <v>0.760989</v>
+        <v>0.440881</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.410091</v>
+        <v>0.220449</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05333</v>
+        <v>0.566304</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03796</v>
+        <v>0.598548</v>
       </c>
       <c r="E85" t="n">
-        <v>0.329243</v>
+        <v>0.17245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.663871</v>
+        <v>0.440637</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.427899</v>
+        <v>0.214454</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00941</v>
+        <v>0.560281</v>
       </c>
       <c r="D86" t="n">
-        <v>1.17926</v>
+        <v>0.601491</v>
       </c>
       <c r="E86" t="n">
-        <v>0.287803</v>
+        <v>0.17013</v>
       </c>
       <c r="F86" t="n">
-        <v>0.850496</v>
+        <v>0.435129</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.413666</v>
+        <v>0.208544</v>
       </c>
       <c r="C87" t="n">
-        <v>0.99177</v>
+        <v>0.5547299999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.04383</v>
+        <v>0.603177</v>
       </c>
       <c r="E87" t="n">
-        <v>0.37137</v>
+        <v>0.167811</v>
       </c>
       <c r="F87" t="n">
-        <v>0.813636</v>
+        <v>0.432713</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.447503</v>
+        <v>0.202665</v>
       </c>
       <c r="C88" t="n">
-        <v>1.03269</v>
+        <v>0.548362</v>
       </c>
       <c r="D88" t="n">
-        <v>1.18328</v>
+        <v>0.603992</v>
       </c>
       <c r="E88" t="n">
-        <v>0.308169</v>
+        <v>0.165755</v>
       </c>
       <c r="F88" t="n">
-        <v>0.818376</v>
+        <v>0.428132</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.364237</v>
+        <v>0.197238</v>
       </c>
       <c r="C89" t="n">
-        <v>1.1657</v>
+        <v>0.518283</v>
       </c>
       <c r="D89" t="n">
-        <v>1.15051</v>
+        <v>0.605695</v>
       </c>
       <c r="E89" t="n">
-        <v>0.292498</v>
+        <v>0.163273</v>
       </c>
       <c r="F89" t="n">
-        <v>0.761591</v>
+        <v>0.427276</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395655</v>
+        <v>0.191688</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8809669999999999</v>
+        <v>0.510155</v>
       </c>
       <c r="D90" t="n">
-        <v>1.18581</v>
+        <v>0.6048210000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.291091</v>
+        <v>0.16155</v>
       </c>
       <c r="F90" t="n">
-        <v>0.881316</v>
+        <v>0.420996</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.319886</v>
+        <v>0.186174</v>
       </c>
       <c r="C91" t="n">
-        <v>1.07178</v>
+        <v>0.5056659999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>1.29023</v>
+        <v>0.61002</v>
       </c>
       <c r="E91" t="n">
-        <v>0.273426</v>
+        <v>0.15854</v>
       </c>
       <c r="F91" t="n">
-        <v>1.02934</v>
+        <v>0.422187</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.36722</v>
+        <v>0.180466</v>
       </c>
       <c r="C92" t="n">
-        <v>0.984158</v>
+        <v>0.496</v>
       </c>
       <c r="D92" t="n">
-        <v>0.890304</v>
+        <v>0.5418190000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.263343</v>
+        <v>0.156591</v>
       </c>
       <c r="F92" t="n">
-        <v>0.93916</v>
+        <v>0.422227</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356789</v>
+        <v>0.174658</v>
       </c>
       <c r="C93" t="n">
-        <v>1.05508</v>
+        <v>0.492387</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1664</v>
+        <v>0.5424949999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.311069</v>
+        <v>0.154128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.691045</v>
+        <v>0.419279</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.311155</v>
+        <v>0.168092</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8501069999999999</v>
+        <v>0.483503</v>
       </c>
       <c r="D94" t="n">
-        <v>0.943543</v>
+        <v>0.542115</v>
       </c>
       <c r="E94" t="n">
-        <v>0.358318</v>
+        <v>0.185385</v>
       </c>
       <c r="F94" t="n">
-        <v>1.01612</v>
+        <v>0.452213</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498649</v>
+        <v>0.24332</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05018</v>
+        <v>0.549126</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1208</v>
+        <v>0.545226</v>
       </c>
       <c r="E95" t="n">
-        <v>0.374972</v>
+        <v>0.182765</v>
       </c>
       <c r="F95" t="n">
-        <v>0.678315</v>
+        <v>0.450662</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.445753</v>
+        <v>0.238339</v>
       </c>
       <c r="C96" t="n">
-        <v>0.958529</v>
+        <v>0.5318310000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13667</v>
+        <v>0.54654</v>
       </c>
       <c r="E96" t="n">
-        <v>0.349893</v>
+        <v>0.179925</v>
       </c>
       <c r="F96" t="n">
-        <v>0.706324</v>
+        <v>0.446172</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.418327</v>
+        <v>0.232807</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10318</v>
+        <v>0.529549</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01027</v>
+        <v>0.5488499999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.306782</v>
+        <v>0.177195</v>
       </c>
       <c r="F97" t="n">
-        <v>1.06639</v>
+        <v>0.44327</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.385274</v>
+        <v>0.227468</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22772</v>
+        <v>0.52889</v>
       </c>
       <c r="D98" t="n">
-        <v>0.960103</v>
+        <v>0.548609</v>
       </c>
       <c r="E98" t="n">
-        <v>0.275676</v>
+        <v>0.174968</v>
       </c>
       <c r="F98" t="n">
-        <v>1.03506</v>
+        <v>0.441243</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.441692</v>
+        <v>0.221511</v>
       </c>
       <c r="C99" t="n">
-        <v>1.21433</v>
+        <v>0.529058</v>
       </c>
       <c r="D99" t="n">
-        <v>1.12207</v>
+        <v>0.54969</v>
       </c>
       <c r="E99" t="n">
-        <v>0.329839</v>
+        <v>0.172696</v>
       </c>
       <c r="F99" t="n">
-        <v>0.78403</v>
+        <v>0.438051</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.332975</v>
+        <v>0.21567</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06864</v>
+        <v>0.503417</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1638</v>
+        <v>0.551291</v>
       </c>
       <c r="E100" t="n">
-        <v>0.30156</v>
+        <v>0.171004</v>
       </c>
       <c r="F100" t="n">
-        <v>0.857356</v>
+        <v>0.434276</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.415641</v>
+        <v>0.209764</v>
       </c>
       <c r="C101" t="n">
-        <v>0.909727</v>
+        <v>0.494989</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13637</v>
+        <v>0.55594</v>
       </c>
       <c r="E101" t="n">
-        <v>0.311917</v>
+        <v>0.169044</v>
       </c>
       <c r="F101" t="n">
-        <v>0.731582</v>
+        <v>0.4312</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.346875</v>
+        <v>0.20415</v>
       </c>
       <c r="C102" t="n">
-        <v>0.902574</v>
+        <v>0.491638</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17862</v>
+        <v>0.5583630000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.388096</v>
+        <v>0.166641</v>
       </c>
       <c r="F102" t="n">
-        <v>0.908596</v>
+        <v>0.428638</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.345304</v>
+        <v>0.198392</v>
       </c>
       <c r="C103" t="n">
-        <v>0.846314</v>
+        <v>0.48675</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09487</v>
+        <v>0.562483</v>
       </c>
       <c r="E103" t="n">
-        <v>0.325373</v>
+        <v>0.164554</v>
       </c>
       <c r="F103" t="n">
-        <v>0.779366</v>
+        <v>0.425691</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.449906</v>
+        <v>0.192839</v>
       </c>
       <c r="C104" t="n">
-        <v>1.13405</v>
+        <v>0.571471</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09627</v>
+        <v>0.567976</v>
       </c>
       <c r="E104" t="n">
-        <v>0.319239</v>
+        <v>0.162226</v>
       </c>
       <c r="F104" t="n">
-        <v>0.901724</v>
+        <v>0.422869</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3383</v>
+        <v>0.187339</v>
       </c>
       <c r="C105" t="n">
-        <v>1.00538</v>
+        <v>0.5618339999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03959</v>
+        <v>0.571217</v>
       </c>
       <c r="E105" t="n">
-        <v>0.328639</v>
+        <v>0.159708</v>
       </c>
       <c r="F105" t="n">
-        <v>0.687267</v>
+        <v>0.420966</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.338801</v>
+        <v>0.181734</v>
       </c>
       <c r="C106" t="n">
-        <v>1.00574</v>
+        <v>0.557649</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07124</v>
+        <v>0.577021</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252574</v>
+        <v>0.157214</v>
       </c>
       <c r="F106" t="n">
-        <v>0.724959</v>
+        <v>0.417849</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.311189</v>
+        <v>0.175727</v>
       </c>
       <c r="C107" t="n">
-        <v>0.939168</v>
+        <v>0.52486</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0402</v>
+        <v>0.521194</v>
       </c>
       <c r="E107" t="n">
-        <v>0.237717</v>
+        <v>0.154402</v>
       </c>
       <c r="F107" t="n">
-        <v>0.765614</v>
+        <v>0.415271</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.31754</v>
+        <v>0.169568</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06319</v>
+        <v>0.512583</v>
       </c>
       <c r="D108" t="n">
-        <v>1.01187</v>
+        <v>0.525486</v>
       </c>
       <c r="E108" t="n">
-        <v>0.385252</v>
+        <v>0.186652</v>
       </c>
       <c r="F108" t="n">
-        <v>1.13832</v>
+        <v>0.452322</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.329294</v>
+        <v>0.161959</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8629520000000001</v>
+        <v>0.506528</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12897</v>
+        <v>0.5253910000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.337537</v>
+        <v>0.18379</v>
       </c>
       <c r="F109" t="n">
-        <v>0.858283</v>
+        <v>0.44915</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.409952</v>
+        <v>0.239256</v>
       </c>
       <c r="C110" t="n">
-        <v>0.970163</v>
+        <v>0.518518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.967785</v>
+        <v>0.529053</v>
       </c>
       <c r="E110" t="n">
-        <v>0.34762</v>
+        <v>0.180655</v>
       </c>
       <c r="F110" t="n">
-        <v>0.937686</v>
+        <v>0.444658</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.434131</v>
+        <v>0.234397</v>
       </c>
       <c r="C111" t="n">
-        <v>0.747094</v>
+        <v>0.514848</v>
       </c>
       <c r="D111" t="n">
-        <v>0.986943</v>
+        <v>0.532502</v>
       </c>
       <c r="E111" t="n">
-        <v>0.325736</v>
+        <v>0.177837</v>
       </c>
       <c r="F111" t="n">
-        <v>0.95045</v>
+        <v>0.442929</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.442163</v>
+        <v>0.228587</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01769</v>
+        <v>0.593735</v>
       </c>
       <c r="D112" t="n">
-        <v>1.28557</v>
+        <v>0.536956</v>
       </c>
       <c r="E112" t="n">
-        <v>0.359275</v>
+        <v>0.175771</v>
       </c>
       <c r="F112" t="n">
-        <v>0.920838</v>
+        <v>0.439585</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.446281</v>
+        <v>0.222576</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0331</v>
+        <v>0.589404</v>
       </c>
       <c r="D113" t="n">
-        <v>0.883929</v>
+        <v>0.536504</v>
       </c>
       <c r="E113" t="n">
-        <v>0.339921</v>
+        <v>0.173378</v>
       </c>
       <c r="F113" t="n">
-        <v>0.758347</v>
+        <v>0.436602</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.406494</v>
+        <v>0.216744</v>
       </c>
       <c r="C114" t="n">
-        <v>0.990299</v>
+        <v>0.504439</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05124</v>
+        <v>0.540494</v>
       </c>
       <c r="E114" t="n">
-        <v>0.328079</v>
+        <v>0.171238</v>
       </c>
       <c r="F114" t="n">
-        <v>0.774131</v>
+        <v>0.433815</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.407362</v>
+        <v>0.210914</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9443510000000001</v>
+        <v>0.502036</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9538990000000001</v>
+        <v>0.543697</v>
       </c>
       <c r="E115" t="n">
-        <v>0.359416</v>
+        <v>0.16915</v>
       </c>
       <c r="F115" t="n">
-        <v>0.926082</v>
+        <v>0.432386</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.393796</v>
+        <v>0.205257</v>
       </c>
       <c r="C116" t="n">
-        <v>0.946353</v>
+        <v>0.495897</v>
       </c>
       <c r="D116" t="n">
-        <v>0.893573</v>
+        <v>0.547772</v>
       </c>
       <c r="E116" t="n">
-        <v>0.360735</v>
+        <v>0.166827</v>
       </c>
       <c r="F116" t="n">
-        <v>0.827067</v>
+        <v>0.428189</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.356144</v>
+        <v>0.199465</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13263</v>
+        <v>0.52832</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12253</v>
+        <v>0.550834</v>
       </c>
       <c r="E117" t="n">
-        <v>0.359493</v>
+        <v>0.165085</v>
       </c>
       <c r="F117" t="n">
-        <v>0.937554</v>
+        <v>0.42603</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.353651</v>
+        <v>0.193855</v>
       </c>
       <c r="C118" t="n">
-        <v>0.996928</v>
+        <v>0.485261</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10475</v>
+        <v>0.5555600000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.300242</v>
+        <v>0.162375</v>
       </c>
       <c r="F118" t="n">
-        <v>0.62434</v>
+        <v>0.422748</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.348704</v>
+        <v>0.188506</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9075</v>
+        <v>0.480738</v>
       </c>
       <c r="D119" t="n">
-        <v>0.967322</v>
+        <v>0.559912</v>
       </c>
       <c r="E119" t="n">
-        <v>0.29078</v>
+        <v>0.15995</v>
       </c>
       <c r="F119" t="n">
-        <v>0.684908</v>
+        <v>0.418671</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.333793</v>
+        <v>0.182721</v>
       </c>
       <c r="C120" t="n">
-        <v>0.905341</v>
+        <v>0.540034</v>
       </c>
       <c r="D120" t="n">
-        <v>1.09141</v>
+        <v>0.568665</v>
       </c>
       <c r="E120" t="n">
-        <v>0.347957</v>
+        <v>0.157599</v>
       </c>
       <c r="F120" t="n">
-        <v>0.802772</v>
+        <v>0.417839</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.363841</v>
+        <v>0.177021</v>
       </c>
       <c r="C121" t="n">
-        <v>0.808814</v>
+        <v>0.469258</v>
       </c>
       <c r="D121" t="n">
-        <v>0.969136</v>
+        <v>0.53851</v>
       </c>
       <c r="E121" t="n">
-        <v>0.239673</v>
+        <v>0.155108</v>
       </c>
       <c r="F121" t="n">
-        <v>0.801856</v>
+        <v>0.415367</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.257697</v>
+        <v>0.170679</v>
       </c>
       <c r="C122" t="n">
-        <v>0.762707</v>
+        <v>0.462356</v>
       </c>
       <c r="D122" t="n">
-        <v>0.95123</v>
+        <v>0.542764</v>
       </c>
       <c r="E122" t="n">
-        <v>0.289966</v>
+        <v>0.152325</v>
       </c>
       <c r="F122" t="n">
-        <v>0.667607</v>
+        <v>0.411911</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.28319</v>
+        <v>0.163462</v>
       </c>
       <c r="C123" t="n">
-        <v>0.80541</v>
+        <v>0.454776</v>
       </c>
       <c r="D123" t="n">
-        <v>0.915342</v>
+        <v>0.5432399999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.333439</v>
+        <v>0.184756</v>
       </c>
       <c r="F123" t="n">
-        <v>0.898905</v>
+        <v>0.448543</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.471165</v>
+        <v>0.240186</v>
       </c>
       <c r="C124" t="n">
-        <v>1.15394</v>
+        <v>0.536765</v>
       </c>
       <c r="D124" t="n">
-        <v>0.949234</v>
+        <v>0.54366</v>
       </c>
       <c r="E124" t="n">
-        <v>0.378244</v>
+        <v>0.181446</v>
       </c>
       <c r="F124" t="n">
-        <v>1.04698</v>
+        <v>0.44544</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.442376</v>
+        <v>0.235111</v>
       </c>
       <c r="C125" t="n">
-        <v>1.0449</v>
+        <v>0.584798</v>
       </c>
       <c r="D125" t="n">
-        <v>1.02685</v>
+        <v>0.545454</v>
       </c>
       <c r="E125" t="n">
-        <v>0.32225</v>
+        <v>0.179312</v>
       </c>
       <c r="F125" t="n">
-        <v>0.663868</v>
+        <v>0.44318</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.431475</v>
+        <v>0.229565</v>
       </c>
       <c r="C126" t="n">
-        <v>0.960832</v>
+        <v>0.579006</v>
       </c>
       <c r="D126" t="n">
-        <v>1.02522</v>
+        <v>0.547254</v>
       </c>
       <c r="E126" t="n">
-        <v>0.302295</v>
+        <v>0.176728</v>
       </c>
       <c r="F126" t="n">
-        <v>0.792621</v>
+        <v>0.440461</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.348305</v>
+        <v>0.223863</v>
       </c>
       <c r="C127" t="n">
-        <v>1.01622</v>
+        <v>0.577232</v>
       </c>
       <c r="D127" t="n">
-        <v>1.06817</v>
+        <v>0.548274</v>
       </c>
       <c r="E127" t="n">
-        <v>0.335289</v>
+        <v>0.173883</v>
       </c>
       <c r="F127" t="n">
-        <v>1.03376</v>
+        <v>0.436756</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.377101</v>
+        <v>0.218155</v>
       </c>
       <c r="C128" t="n">
-        <v>1.0322</v>
+        <v>0.55443</v>
       </c>
       <c r="D128" t="n">
-        <v>1.02336</v>
+        <v>0.55064</v>
       </c>
       <c r="E128" t="n">
-        <v>0.332887</v>
+        <v>0.171825</v>
       </c>
       <c r="F128" t="n">
-        <v>0.759517</v>
+        <v>0.433888</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.411971</v>
+        <v>0.21214</v>
       </c>
       <c r="C129" t="n">
-        <v>0.991134</v>
+        <v>0.5175959999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>1.08957</v>
+        <v>0.553956</v>
       </c>
       <c r="E129" t="n">
-        <v>0.329845</v>
+        <v>0.169783</v>
       </c>
       <c r="F129" t="n">
-        <v>0.917521</v>
+        <v>0.431821</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.324094</v>
+        <v>0.20633</v>
       </c>
       <c r="C130" t="n">
-        <v>0.820843</v>
+        <v>0.489451</v>
       </c>
       <c r="D130" t="n">
-        <v>0.855057</v>
+        <v>0.556311</v>
       </c>
       <c r="E130" t="n">
-        <v>0.270077</v>
+        <v>0.16749</v>
       </c>
       <c r="F130" t="n">
-        <v>1.03835</v>
+        <v>0.427702</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.408252</v>
+        <v>0.200548</v>
       </c>
       <c r="C131" t="n">
-        <v>0.947386</v>
+        <v>0.483912</v>
       </c>
       <c r="D131" t="n">
-        <v>0.957511</v>
+        <v>0.561366</v>
       </c>
       <c r="E131" t="n">
-        <v>0.307252</v>
+        <v>0.165329</v>
       </c>
       <c r="F131" t="n">
-        <v>0.712163</v>
+        <v>0.426317</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.31713</v>
+        <v>0.194896</v>
       </c>
       <c r="C132" t="n">
-        <v>0.844159</v>
+        <v>0.495491</v>
       </c>
       <c r="D132" t="n">
-        <v>0.940849</v>
+        <v>0.564869</v>
       </c>
       <c r="E132" t="n">
-        <v>0.264953</v>
+        <v>0.162757</v>
       </c>
       <c r="F132" t="n">
-        <v>0.873159</v>
+        <v>0.423654</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.358422</v>
+        <v>0.189651</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8623499999999999</v>
+        <v>0.486283</v>
       </c>
       <c r="D133" t="n">
-        <v>0.913999</v>
+        <v>0.56998</v>
       </c>
       <c r="E133" t="n">
-        <v>0.333478</v>
+        <v>0.160581</v>
       </c>
       <c r="F133" t="n">
-        <v>0.861491</v>
+        <v>0.420838</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.325858</v>
+        <v>0.183879</v>
       </c>
       <c r="C134" t="n">
-        <v>0.828566</v>
+        <v>0.488938</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02238</v>
+        <v>0.572866</v>
       </c>
       <c r="E134" t="n">
-        <v>0.295372</v>
+        <v>0.158113</v>
       </c>
       <c r="F134" t="n">
-        <v>0.837044</v>
+        <v>0.41687</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.305597</v>
+        <v>0.178315</v>
       </c>
       <c r="C135" t="n">
-        <v>0.937317</v>
+        <v>0.485172</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8743919999999999</v>
+        <v>0.542668</v>
       </c>
       <c r="E135" t="n">
-        <v>0.250323</v>
+        <v>0.155517</v>
       </c>
       <c r="F135" t="n">
-        <v>0.800278</v>
+        <v>0.414417</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.306899</v>
+        <v>0.171939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.76812</v>
+        <v>0.459893</v>
       </c>
       <c r="D136" t="n">
-        <v>0.802737</v>
+        <v>0.544275</v>
       </c>
       <c r="E136" t="n">
-        <v>0.301606</v>
+        <v>0.152746</v>
       </c>
       <c r="F136" t="n">
-        <v>0.801899</v>
+        <v>0.412231</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.301508</v>
+        <v>0.164918</v>
       </c>
       <c r="C137" t="n">
-        <v>0.741349</v>
+        <v>0.5182</v>
       </c>
       <c r="D137" t="n">
-        <v>0.750042</v>
+        <v>0.544423</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332397</v>
+        <v>0.188827</v>
       </c>
       <c r="F137" t="n">
-        <v>0.852264</v>
+        <v>0.450237</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.435184</v>
+        <v>0.241468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.875375</v>
+        <v>0.539011</v>
       </c>
       <c r="D138" t="n">
-        <v>0.933526</v>
+        <v>0.547111</v>
       </c>
       <c r="E138" t="n">
-        <v>0.365723</v>
+        <v>0.183349</v>
       </c>
       <c r="F138" t="n">
-        <v>0.785046</v>
+        <v>0.44593</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.498901</v>
+        <v>0.236617</v>
       </c>
       <c r="C139" t="n">
-        <v>0.783327</v>
+        <v>0.594314</v>
       </c>
       <c r="D139" t="n">
-        <v>0.787948</v>
+        <v>0.545725</v>
       </c>
       <c r="E139" t="n">
-        <v>0.262422</v>
+        <v>0.180204</v>
       </c>
       <c r="F139" t="n">
-        <v>0.778502</v>
+        <v>0.443201</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.491408</v>
+        <v>0.23122</v>
       </c>
       <c r="C140" t="n">
-        <v>0.842202</v>
+        <v>0.508184</v>
       </c>
       <c r="D140" t="n">
-        <v>0.868771</v>
+        <v>0.549889</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270593</v>
+        <v>0.17689</v>
       </c>
       <c r="F140" t="n">
-        <v>0.837297</v>
+        <v>0.441267</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.493433</v>
+        <v>0.225282</v>
       </c>
       <c r="C141" t="n">
-        <v>0.782481</v>
+        <v>0.497747</v>
       </c>
       <c r="D141" t="n">
-        <v>0.865215</v>
+        <v>0.54971</v>
       </c>
       <c r="E141" t="n">
-        <v>0.284472</v>
+        <v>0.174583</v>
       </c>
       <c r="F141" t="n">
-        <v>0.774313</v>
+        <v>0.43839</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.41235</v>
+        <v>0.219485</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9374749999999999</v>
+        <v>0.493584</v>
       </c>
       <c r="D142" t="n">
-        <v>0.920791</v>
+        <v>0.551665</v>
       </c>
       <c r="E142" t="n">
-        <v>0.299349</v>
+        <v>0.172385</v>
       </c>
       <c r="F142" t="n">
-        <v>0.666894</v>
+        <v>0.435134</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.414473</v>
+        <v>0.213577</v>
       </c>
       <c r="C143" t="n">
-        <v>0.748745</v>
+        <v>0.520688</v>
       </c>
       <c r="D143" t="n">
-        <v>0.774061</v>
+        <v>0.555193</v>
       </c>
       <c r="E143" t="n">
-        <v>0.247877</v>
+        <v>0.170199</v>
       </c>
       <c r="F143" t="n">
-        <v>0.724781</v>
+        <v>0.431942</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192706</v>
+        <v>0.192859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42873</v>
+        <v>0.433087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414784</v>
+        <v>0.413072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.154701</v>
+        <v>0.154802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.368973</v>
+        <v>0.369305</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188188</v>
+        <v>0.189118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425136</v>
+        <v>0.430353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41718</v>
+        <v>0.418138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.154857</v>
+        <v>0.154999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.369148</v>
+        <v>0.366232</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184864</v>
+        <v>0.18513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.421872</v>
+        <v>0.418881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.421461</v>
+        <v>0.415057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.150806</v>
+        <v>0.151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.367642</v>
+        <v>0.366137</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180435</v>
+        <v>0.179774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.414598</v>
+        <v>0.414106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.420218</v>
+        <v>0.419883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14928</v>
+        <v>0.150415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.367761</v>
+        <v>0.363609</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174333</v>
+        <v>0.17566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.411305</v>
+        <v>0.416931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.422676</v>
+        <v>0.421201</v>
       </c>
       <c r="E6" t="n">
-        <v>0.147235</v>
+        <v>0.15057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.36439</v>
+        <v>0.360876</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169876</v>
+        <v>0.170166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40955</v>
+        <v>0.402053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.419077</v>
+        <v>0.417417</v>
       </c>
       <c r="E7" t="n">
-        <v>0.145496</v>
+        <v>0.145299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.364216</v>
+        <v>0.359984</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163547</v>
+        <v>0.162691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.404255</v>
+        <v>0.401751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420352</v>
+        <v>0.417324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142153</v>
+        <v>0.142892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.364167</v>
+        <v>0.358164</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156466</v>
+        <v>0.157455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.396521</v>
+        <v>0.392328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.419924</v>
+        <v>0.418327</v>
       </c>
       <c r="E9" t="n">
-        <v>0.177845</v>
+        <v>0.17642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.392872</v>
+        <v>0.390261</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239839</v>
+        <v>0.241412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.454717</v>
+        <v>0.45307</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420514</v>
+        <v>0.418095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.176118</v>
+        <v>0.175671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.389536</v>
+        <v>0.388518</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235256</v>
+        <v>0.237038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.45887</v>
+        <v>0.45642</v>
       </c>
       <c r="D11" t="n">
-        <v>0.420318</v>
+        <v>0.418989</v>
       </c>
       <c r="E11" t="n">
-        <v>0.173403</v>
+        <v>0.173629</v>
       </c>
       <c r="F11" t="n">
-        <v>0.387482</v>
+        <v>0.384836</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.230121</v>
+        <v>0.231542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.447253</v>
+        <v>0.449738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421297</v>
+        <v>0.420591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17075</v>
+        <v>0.170325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.383998</v>
+        <v>0.383287</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224969</v>
+        <v>0.225298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.447831</v>
+        <v>0.447722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.420389</v>
+        <v>0.420748</v>
       </c>
       <c r="E13" t="n">
-        <v>0.169162</v>
+        <v>0.168673</v>
       </c>
       <c r="F13" t="n">
-        <v>0.382787</v>
+        <v>0.381809</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21945</v>
+        <v>0.219524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.443139</v>
+        <v>0.443569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.421942</v>
+        <v>0.41981</v>
       </c>
       <c r="E14" t="n">
-        <v>0.166533</v>
+        <v>0.166278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.380496</v>
+        <v>0.379251</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213584</v>
+        <v>0.213681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.439123</v>
+        <v>0.440625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423782</v>
+        <v>0.422191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166494</v>
+        <v>0.164331</v>
       </c>
       <c r="F15" t="n">
-        <v>0.378428</v>
+        <v>0.376936</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207559</v>
+        <v>0.207949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.432642</v>
+        <v>0.436049</v>
       </c>
       <c r="D16" t="n">
-        <v>0.423771</v>
+        <v>0.422558</v>
       </c>
       <c r="E16" t="n">
-        <v>0.16366</v>
+        <v>0.164293</v>
       </c>
       <c r="F16" t="n">
-        <v>0.375397</v>
+        <v>0.374655</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201851</v>
+        <v>0.202295</v>
       </c>
       <c r="C17" t="n">
-        <v>0.432649</v>
+        <v>0.432435</v>
       </c>
       <c r="D17" t="n">
-        <v>0.426369</v>
+        <v>0.422425</v>
       </c>
       <c r="E17" t="n">
-        <v>0.163317</v>
+        <v>0.1623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.377314</v>
+        <v>0.373189</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196375</v>
+        <v>0.196509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.432808</v>
+        <v>0.424311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.427023</v>
+        <v>0.425426</v>
       </c>
       <c r="E18" t="n">
-        <v>0.159644</v>
+        <v>0.158288</v>
       </c>
       <c r="F18" t="n">
-        <v>0.371354</v>
+        <v>0.373404</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190919</v>
+        <v>0.190522</v>
       </c>
       <c r="C19" t="n">
-        <v>0.42244</v>
+        <v>0.428551</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426716</v>
+        <v>0.424437</v>
       </c>
       <c r="E19" t="n">
-        <v>0.157931</v>
+        <v>0.157421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.368981</v>
+        <v>0.371055</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185366</v>
+        <v>0.185222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.420325</v>
+        <v>0.418618</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430032</v>
+        <v>0.427524</v>
       </c>
       <c r="E20" t="n">
-        <v>0.156038</v>
+        <v>0.154857</v>
       </c>
       <c r="F20" t="n">
-        <v>0.367896</v>
+        <v>0.365513</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179329</v>
+        <v>0.179425</v>
       </c>
       <c r="C21" t="n">
-        <v>0.41908</v>
+        <v>0.40722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.428872</v>
+        <v>0.423392</v>
       </c>
       <c r="E21" t="n">
-        <v>0.152505</v>
+        <v>0.151047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366141</v>
+        <v>0.363388</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172666</v>
+        <v>0.172528</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408962</v>
+        <v>0.407971</v>
       </c>
       <c r="D22" t="n">
-        <v>0.42728</v>
+        <v>0.423917</v>
       </c>
       <c r="E22" t="n">
-        <v>0.149355</v>
+        <v>0.147795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.362862</v>
+        <v>0.36173</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165698</v>
+        <v>0.16555</v>
       </c>
       <c r="C23" t="n">
-        <v>0.393932</v>
+        <v>0.398876</v>
       </c>
       <c r="D23" t="n">
-        <v>0.425736</v>
+        <v>0.421628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.182923</v>
+        <v>0.181797</v>
       </c>
       <c r="F23" t="n">
-        <v>0.397773</v>
+        <v>0.396077</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241355</v>
+        <v>0.242335</v>
       </c>
       <c r="C24" t="n">
-        <v>0.455302</v>
+        <v>0.45909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426374</v>
+        <v>0.424241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.178824</v>
+        <v>0.179812</v>
       </c>
       <c r="F24" t="n">
-        <v>0.396011</v>
+        <v>0.39393</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236638</v>
+        <v>0.237748</v>
       </c>
       <c r="C25" t="n">
-        <v>0.452263</v>
+        <v>0.458315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.426199</v>
+        <v>0.426291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175984</v>
+        <v>0.176249</v>
       </c>
       <c r="F25" t="n">
-        <v>0.391539</v>
+        <v>0.390979</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231874</v>
+        <v>0.23275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.451959</v>
+        <v>0.454481</v>
       </c>
       <c r="D26" t="n">
-        <v>0.426916</v>
+        <v>0.425309</v>
       </c>
       <c r="E26" t="n">
-        <v>0.175203</v>
+        <v>0.174753</v>
       </c>
       <c r="F26" t="n">
-        <v>0.389897</v>
+        <v>0.388202</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226392</v>
+        <v>0.227207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.450486</v>
+        <v>0.449218</v>
       </c>
       <c r="D27" t="n">
-        <v>0.426981</v>
+        <v>0.42659</v>
       </c>
       <c r="E27" t="n">
-        <v>0.170414</v>
+        <v>0.170381</v>
       </c>
       <c r="F27" t="n">
-        <v>0.386986</v>
+        <v>0.385403</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221026</v>
+        <v>0.221148</v>
       </c>
       <c r="C28" t="n">
-        <v>0.448105</v>
+        <v>0.444837</v>
       </c>
       <c r="D28" t="n">
-        <v>0.427205</v>
+        <v>0.425074</v>
       </c>
       <c r="E28" t="n">
-        <v>0.169234</v>
+        <v>0.168352</v>
       </c>
       <c r="F28" t="n">
-        <v>0.385665</v>
+        <v>0.383976</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215022</v>
+        <v>0.215725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.443453</v>
+        <v>0.445912</v>
       </c>
       <c r="D29" t="n">
-        <v>0.427492</v>
+        <v>0.427819</v>
       </c>
       <c r="E29" t="n">
-        <v>0.168016</v>
+        <v>0.166769</v>
       </c>
       <c r="F29" t="n">
-        <v>0.382952</v>
+        <v>0.381642</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209098</v>
+        <v>0.209597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.439887</v>
+        <v>0.441767</v>
       </c>
       <c r="D30" t="n">
-        <v>0.429365</v>
+        <v>0.428155</v>
       </c>
       <c r="E30" t="n">
-        <v>0.167392</v>
+        <v>0.164097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.381311</v>
+        <v>0.378616</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203492</v>
+        <v>0.203755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.436061</v>
+        <v>0.434093</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430503</v>
+        <v>0.431221</v>
       </c>
       <c r="E31" t="n">
-        <v>0.163513</v>
+        <v>0.163024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.377662</v>
+        <v>0.377239</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197869</v>
+        <v>0.197758</v>
       </c>
       <c r="C32" t="n">
-        <v>0.429323</v>
+        <v>0.42666</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430122</v>
+        <v>0.430214</v>
       </c>
       <c r="E32" t="n">
-        <v>0.161289</v>
+        <v>0.16215</v>
       </c>
       <c r="F32" t="n">
-        <v>0.375156</v>
+        <v>0.373948</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.192256</v>
+        <v>0.192416</v>
       </c>
       <c r="C33" t="n">
-        <v>0.426986</v>
+        <v>0.425087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.430816</v>
+        <v>0.430754</v>
       </c>
       <c r="E33" t="n">
-        <v>0.158586</v>
+        <v>0.158942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.373338</v>
+        <v>0.372193</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.186821</v>
+        <v>0.18652</v>
       </c>
       <c r="C34" t="n">
-        <v>0.418882</v>
+        <v>0.417002</v>
       </c>
       <c r="D34" t="n">
-        <v>0.432156</v>
+        <v>0.431928</v>
       </c>
       <c r="E34" t="n">
-        <v>0.156268</v>
+        <v>0.158381</v>
       </c>
       <c r="F34" t="n">
-        <v>0.370218</v>
+        <v>0.36731</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180948</v>
+        <v>0.181139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.416102</v>
+        <v>0.412721</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432641</v>
+        <v>0.430898</v>
       </c>
       <c r="E35" t="n">
-        <v>0.154339</v>
+        <v>0.154849</v>
       </c>
       <c r="F35" t="n">
-        <v>0.367893</v>
+        <v>0.3662</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.174741</v>
+        <v>0.174902</v>
       </c>
       <c r="C36" t="n">
-        <v>0.410089</v>
+        <v>0.406943</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432686</v>
+        <v>0.430232</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150862</v>
+        <v>0.151053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.365334</v>
+        <v>0.363343</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168209</v>
+        <v>0.168256</v>
       </c>
       <c r="C37" t="n">
-        <v>0.398981</v>
+        <v>0.399088</v>
       </c>
       <c r="D37" t="n">
-        <v>0.43202</v>
+        <v>0.432198</v>
       </c>
       <c r="E37" t="n">
-        <v>0.182705</v>
+        <v>0.182384</v>
       </c>
       <c r="F37" t="n">
-        <v>0.400788</v>
+        <v>0.399308</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243164</v>
+        <v>0.243352</v>
       </c>
       <c r="C38" t="n">
-        <v>0.461048</v>
+        <v>0.457487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.43267</v>
+        <v>0.432076</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179559</v>
+        <v>0.179735</v>
       </c>
       <c r="F38" t="n">
-        <v>0.39757</v>
+        <v>0.39604</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238655</v>
+        <v>0.238577</v>
       </c>
       <c r="C39" t="n">
-        <v>0.45889</v>
+        <v>0.455069</v>
       </c>
       <c r="D39" t="n">
-        <v>0.431892</v>
+        <v>0.432153</v>
       </c>
       <c r="E39" t="n">
-        <v>0.176994</v>
+        <v>0.177207</v>
       </c>
       <c r="F39" t="n">
-        <v>0.395334</v>
+        <v>0.393807</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233795</v>
+        <v>0.233521</v>
       </c>
       <c r="C40" t="n">
-        <v>0.456245</v>
+        <v>0.45278</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432011</v>
+        <v>0.431687</v>
       </c>
       <c r="E40" t="n">
-        <v>0.174756</v>
+        <v>0.174873</v>
       </c>
       <c r="F40" t="n">
-        <v>0.392767</v>
+        <v>0.390895</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22814</v>
+        <v>0.228158</v>
       </c>
       <c r="C41" t="n">
-        <v>0.452601</v>
+        <v>0.45006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.434213</v>
+        <v>0.432033</v>
       </c>
       <c r="E41" t="n">
-        <v>0.173128</v>
+        <v>0.174355</v>
       </c>
       <c r="F41" t="n">
-        <v>0.388855</v>
+        <v>0.387527</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222578</v>
+        <v>0.222552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.45421</v>
+        <v>0.445206</v>
       </c>
       <c r="D42" t="n">
-        <v>0.432619</v>
+        <v>0.433459</v>
       </c>
       <c r="E42" t="n">
-        <v>0.171117</v>
+        <v>0.170538</v>
       </c>
       <c r="F42" t="n">
-        <v>0.387204</v>
+        <v>0.385639</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.21642</v>
+        <v>0.216899</v>
       </c>
       <c r="C43" t="n">
-        <v>0.445602</v>
+        <v>0.441969</v>
       </c>
       <c r="D43" t="n">
-        <v>0.436337</v>
+        <v>0.433423</v>
       </c>
       <c r="E43" t="n">
-        <v>0.168765</v>
+        <v>0.168542</v>
       </c>
       <c r="F43" t="n">
-        <v>0.38374</v>
+        <v>0.382645</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210825</v>
+        <v>0.210867</v>
       </c>
       <c r="C44" t="n">
-        <v>0.441544</v>
+        <v>0.438594</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434162</v>
+        <v>0.434524</v>
       </c>
       <c r="E44" t="n">
-        <v>0.166698</v>
+        <v>0.166286</v>
       </c>
       <c r="F44" t="n">
-        <v>0.381894</v>
+        <v>0.381803</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204954</v>
+        <v>0.206269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.437936</v>
+        <v>0.434567</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437921</v>
+        <v>0.435182</v>
       </c>
       <c r="E45" t="n">
-        <v>0.165119</v>
+        <v>0.164787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.380068</v>
+        <v>0.37896</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.199373</v>
+        <v>0.199451</v>
       </c>
       <c r="C46" t="n">
-        <v>0.434235</v>
+        <v>0.430279</v>
       </c>
       <c r="D46" t="n">
-        <v>0.435372</v>
+        <v>0.438321</v>
       </c>
       <c r="E46" t="n">
-        <v>0.163505</v>
+        <v>0.163206</v>
       </c>
       <c r="F46" t="n">
-        <v>0.377936</v>
+        <v>0.376521</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.194064</v>
+        <v>0.193845</v>
       </c>
       <c r="C47" t="n">
-        <v>0.428843</v>
+        <v>0.423721</v>
       </c>
       <c r="D47" t="n">
-        <v>0.435526</v>
+        <v>0.437989</v>
       </c>
       <c r="E47" t="n">
-        <v>0.160183</v>
+        <v>0.159812</v>
       </c>
       <c r="F47" t="n">
-        <v>0.375519</v>
+        <v>0.374284</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.188493</v>
+        <v>0.187996</v>
       </c>
       <c r="C48" t="n">
-        <v>0.42211</v>
+        <v>0.419297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.438944</v>
+        <v>0.437608</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158752</v>
+        <v>0.15843</v>
       </c>
       <c r="F48" t="n">
-        <v>0.373368</v>
+        <v>0.371964</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182559</v>
+        <v>0.182371</v>
       </c>
       <c r="C49" t="n">
-        <v>0.415952</v>
+        <v>0.412546</v>
       </c>
       <c r="D49" t="n">
-        <v>0.437335</v>
+        <v>0.436049</v>
       </c>
       <c r="E49" t="n">
-        <v>0.155852</v>
+        <v>0.155279</v>
       </c>
       <c r="F49" t="n">
-        <v>0.37009</v>
+        <v>0.368762</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.176299</v>
+        <v>0.176562</v>
       </c>
       <c r="C50" t="n">
-        <v>0.409984</v>
+        <v>0.406362</v>
       </c>
       <c r="D50" t="n">
-        <v>0.435833</v>
+        <v>0.43666</v>
       </c>
       <c r="E50" t="n">
-        <v>0.15331</v>
+        <v>0.152597</v>
       </c>
       <c r="F50" t="n">
-        <v>0.36756</v>
+        <v>0.366179</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.169695</v>
+        <v>0.170218</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402084</v>
+        <v>0.398128</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435895</v>
+        <v>0.434701</v>
       </c>
       <c r="E51" t="n">
-        <v>0.185347</v>
+        <v>0.18398</v>
       </c>
       <c r="F51" t="n">
-        <v>0.402052</v>
+        <v>0.400277</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162425</v>
+        <v>0.163012</v>
       </c>
       <c r="C52" t="n">
-        <v>0.391923</v>
+        <v>0.38901</v>
       </c>
       <c r="D52" t="n">
-        <v>0.434145</v>
+        <v>0.435223</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183051</v>
+        <v>0.181306</v>
       </c>
       <c r="F52" t="n">
-        <v>0.398269</v>
+        <v>0.397277</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240146</v>
+        <v>0.239884</v>
       </c>
       <c r="C53" t="n">
-        <v>0.460587</v>
+        <v>0.459227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.435424</v>
+        <v>0.434745</v>
       </c>
       <c r="E53" t="n">
-        <v>0.179811</v>
+        <v>0.178696</v>
       </c>
       <c r="F53" t="n">
-        <v>0.396141</v>
+        <v>0.394531</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234863</v>
+        <v>0.235179</v>
       </c>
       <c r="C54" t="n">
-        <v>0.459048</v>
+        <v>0.456796</v>
       </c>
       <c r="D54" t="n">
-        <v>0.43515</v>
+        <v>0.437206</v>
       </c>
       <c r="E54" t="n">
-        <v>0.176826</v>
+        <v>0.177488</v>
       </c>
       <c r="F54" t="n">
-        <v>0.390923</v>
+        <v>0.391448</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.22946</v>
+        <v>0.229808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.455721</v>
+        <v>0.454366</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434807</v>
+        <v>0.434525</v>
       </c>
       <c r="E55" t="n">
-        <v>0.174873</v>
+        <v>0.175764</v>
       </c>
       <c r="F55" t="n">
-        <v>0.390635</v>
+        <v>0.389296</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223949</v>
+        <v>0.224021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.451366</v>
+        <v>0.450797</v>
       </c>
       <c r="D56" t="n">
-        <v>0.437277</v>
+        <v>0.43699</v>
       </c>
       <c r="E56" t="n">
-        <v>0.172807</v>
+        <v>0.172389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.38756</v>
+        <v>0.386245</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.217926</v>
+        <v>0.218413</v>
       </c>
       <c r="C57" t="n">
-        <v>0.448084</v>
+        <v>0.447514</v>
       </c>
       <c r="D57" t="n">
-        <v>0.43517</v>
+        <v>0.436693</v>
       </c>
       <c r="E57" t="n">
-        <v>0.170927</v>
+        <v>0.170388</v>
       </c>
       <c r="F57" t="n">
-        <v>0.384822</v>
+        <v>0.382909</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.212063</v>
+        <v>0.212261</v>
       </c>
       <c r="C58" t="n">
-        <v>0.443508</v>
+        <v>0.443506</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439384</v>
+        <v>0.437761</v>
       </c>
       <c r="E58" t="n">
-        <v>0.168483</v>
+        <v>0.168848</v>
       </c>
       <c r="F58" t="n">
-        <v>0.382317</v>
+        <v>0.380378</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206431</v>
+        <v>0.206637</v>
       </c>
       <c r="C59" t="n">
-        <v>0.440458</v>
+        <v>0.439673</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438277</v>
+        <v>0.439056</v>
       </c>
       <c r="E59" t="n">
-        <v>0.166819</v>
+        <v>0.166898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.379357</v>
+        <v>0.378672</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.200626</v>
+        <v>0.200813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.435937</v>
+        <v>0.435824</v>
       </c>
       <c r="D60" t="n">
-        <v>0.440071</v>
+        <v>0.439283</v>
       </c>
       <c r="E60" t="n">
-        <v>0.164566</v>
+        <v>0.164796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.377606</v>
+        <v>0.376824</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.19503</v>
+        <v>0.195164</v>
       </c>
       <c r="C61" t="n">
-        <v>0.431637</v>
+        <v>0.43054</v>
       </c>
       <c r="D61" t="n">
-        <v>0.443954</v>
+        <v>0.442477</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161729</v>
+        <v>0.162016</v>
       </c>
       <c r="F61" t="n">
-        <v>0.375054</v>
+        <v>0.373866</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1894</v>
+        <v>0.189626</v>
       </c>
       <c r="C62" t="n">
-        <v>0.426913</v>
+        <v>0.42526</v>
       </c>
       <c r="D62" t="n">
-        <v>0.443802</v>
+        <v>0.444706</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160346</v>
+        <v>0.159803</v>
       </c>
       <c r="F62" t="n">
-        <v>0.372257</v>
+        <v>0.372132</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183656</v>
+        <v>0.184225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.421592</v>
+        <v>0.419867</v>
       </c>
       <c r="D63" t="n">
-        <v>0.452334</v>
+        <v>0.446405</v>
       </c>
       <c r="E63" t="n">
-        <v>0.157153</v>
+        <v>0.157345</v>
       </c>
       <c r="F63" t="n">
-        <v>0.369822</v>
+        <v>0.368328</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177864</v>
+        <v>0.177741</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414968</v>
+        <v>0.415421</v>
       </c>
       <c r="D64" t="n">
-        <v>0.467091</v>
+        <v>0.468051</v>
       </c>
       <c r="E64" t="n">
-        <v>0.15433</v>
+        <v>0.154439</v>
       </c>
       <c r="F64" t="n">
-        <v>0.365853</v>
+        <v>0.365959</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1716</v>
+        <v>0.171295</v>
       </c>
       <c r="C65" t="n">
-        <v>0.407241</v>
+        <v>0.409273</v>
       </c>
       <c r="D65" t="n">
-        <v>0.473058</v>
+        <v>0.47506</v>
       </c>
       <c r="E65" t="n">
-        <v>0.151891</v>
+        <v>0.15204</v>
       </c>
       <c r="F65" t="n">
-        <v>0.363378</v>
+        <v>0.362387</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164564</v>
+        <v>0.164256</v>
       </c>
       <c r="C66" t="n">
-        <v>0.400725</v>
+        <v>0.403865</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47827</v>
+        <v>0.47845</v>
       </c>
       <c r="E66" t="n">
-        <v>0.184004</v>
+        <v>0.1833</v>
       </c>
       <c r="F66" t="n">
-        <v>0.398288</v>
+        <v>0.398362</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240813</v>
+        <v>0.241073</v>
       </c>
       <c r="C67" t="n">
-        <v>0.478001</v>
+        <v>0.479613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487137</v>
+        <v>0.491138</v>
       </c>
       <c r="E67" t="n">
-        <v>0.181448</v>
+        <v>0.180714</v>
       </c>
       <c r="F67" t="n">
-        <v>0.396339</v>
+        <v>0.395565</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236029</v>
+        <v>0.236024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.476046</v>
+        <v>0.482833</v>
       </c>
       <c r="D68" t="n">
-        <v>0.492307</v>
+        <v>0.492391</v>
       </c>
       <c r="E68" t="n">
-        <v>0.17832</v>
+        <v>0.178116</v>
       </c>
       <c r="F68" t="n">
-        <v>0.392031</v>
+        <v>0.394021</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230512</v>
+        <v>0.230542</v>
       </c>
       <c r="C69" t="n">
-        <v>0.479633</v>
+        <v>0.48698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.496676</v>
+        <v>0.499948</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176345</v>
+        <v>0.175639</v>
       </c>
       <c r="F69" t="n">
-        <v>0.390781</v>
+        <v>0.391681</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.225157</v>
+        <v>0.224669</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480193</v>
+        <v>0.486794</v>
       </c>
       <c r="D70" t="n">
-        <v>0.502667</v>
+        <v>0.505625</v>
       </c>
       <c r="E70" t="n">
-        <v>0.173651</v>
+        <v>0.173432</v>
       </c>
       <c r="F70" t="n">
-        <v>0.389471</v>
+        <v>0.391065</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219233</v>
+        <v>0.218863</v>
       </c>
       <c r="C71" t="n">
-        <v>0.485205</v>
+        <v>0.488084</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511455</v>
+        <v>0.51203</v>
       </c>
       <c r="E71" t="n">
-        <v>0.171437</v>
+        <v>0.171154</v>
       </c>
       <c r="F71" t="n">
-        <v>0.387791</v>
+        <v>0.387986</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213256</v>
+        <v>0.213005</v>
       </c>
       <c r="C72" t="n">
-        <v>0.488057</v>
+        <v>0.48933</v>
       </c>
       <c r="D72" t="n">
-        <v>0.516369</v>
+        <v>0.516222</v>
       </c>
       <c r="E72" t="n">
-        <v>0.169261</v>
+        <v>0.169219</v>
       </c>
       <c r="F72" t="n">
-        <v>0.387263</v>
+        <v>0.386681</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.207604</v>
+        <v>0.207368</v>
       </c>
       <c r="C73" t="n">
-        <v>0.488374</v>
+        <v>0.499346</v>
       </c>
       <c r="D73" t="n">
-        <v>0.523463</v>
+        <v>0.522945</v>
       </c>
       <c r="E73" t="n">
-        <v>0.167432</v>
+        <v>0.16687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.384331</v>
+        <v>0.385105</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201925</v>
+        <v>0.201768</v>
       </c>
       <c r="C74" t="n">
-        <v>0.490452</v>
+        <v>0.490548</v>
       </c>
       <c r="D74" t="n">
-        <v>0.528065</v>
+        <v>0.5283369999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.16522</v>
+        <v>0.164765</v>
       </c>
       <c r="F74" t="n">
-        <v>0.383143</v>
+        <v>0.38257</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.196227</v>
+        <v>0.195963</v>
       </c>
       <c r="C75" t="n">
-        <v>0.493884</v>
+        <v>0.507176</v>
       </c>
       <c r="D75" t="n">
-        <v>0.536369</v>
+        <v>0.537479</v>
       </c>
       <c r="E75" t="n">
-        <v>0.162688</v>
+        <v>0.162266</v>
       </c>
       <c r="F75" t="n">
-        <v>0.380791</v>
+        <v>0.381412</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190797</v>
+        <v>0.190277</v>
       </c>
       <c r="C76" t="n">
-        <v>0.494525</v>
+        <v>0.488491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.540524</v>
+        <v>0.53932</v>
       </c>
       <c r="E76" t="n">
-        <v>0.161027</v>
+        <v>0.160594</v>
       </c>
       <c r="F76" t="n">
-        <v>0.379414</v>
+        <v>0.379497</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184864</v>
+        <v>0.18474</v>
       </c>
       <c r="C77" t="n">
-        <v>0.492779</v>
+        <v>0.484829</v>
       </c>
       <c r="D77" t="n">
-        <v>0.545652</v>
+        <v>0.546859</v>
       </c>
       <c r="E77" t="n">
-        <v>0.158516</v>
+        <v>0.158353</v>
       </c>
       <c r="F77" t="n">
-        <v>0.377797</v>
+        <v>0.378022</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179404</v>
+        <v>0.17899</v>
       </c>
       <c r="C78" t="n">
-        <v>0.486616</v>
+        <v>0.479975</v>
       </c>
       <c r="D78" t="n">
-        <v>0.557971</v>
+        <v>0.556036</v>
       </c>
       <c r="E78" t="n">
-        <v>0.155806</v>
+        <v>0.155786</v>
       </c>
       <c r="F78" t="n">
-        <v>0.375254</v>
+        <v>0.375945</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173292</v>
+        <v>0.173016</v>
       </c>
       <c r="C79" t="n">
-        <v>0.485841</v>
+        <v>0.47244</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5583979999999999</v>
+        <v>0.5571660000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.153012</v>
+        <v>0.152982</v>
       </c>
       <c r="F79" t="n">
-        <v>0.372959</v>
+        <v>0.372818</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166215</v>
+        <v>0.166287</v>
       </c>
       <c r="C80" t="n">
-        <v>0.478687</v>
+        <v>0.465123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.557876</v>
+        <v>0.555498</v>
       </c>
       <c r="E80" t="n">
-        <v>0.185957</v>
+        <v>0.185373</v>
       </c>
       <c r="F80" t="n">
-        <v>0.408351</v>
+        <v>0.408779</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241977</v>
+        <v>0.242432</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5522319999999999</v>
+        <v>0.533903</v>
       </c>
       <c r="D81" t="n">
-        <v>0.557649</v>
+        <v>0.556901</v>
       </c>
       <c r="E81" t="n">
-        <v>0.182286</v>
+        <v>0.181896</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405091</v>
+        <v>0.405355</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237299</v>
+        <v>0.237602</v>
       </c>
       <c r="C82" t="n">
-        <v>0.544668</v>
+        <v>0.530949</v>
       </c>
       <c r="D82" t="n">
-        <v>0.558242</v>
+        <v>0.553696</v>
       </c>
       <c r="E82" t="n">
-        <v>0.179343</v>
+        <v>0.179069</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401868</v>
+        <v>0.402869</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232221</v>
+        <v>0.232215</v>
       </c>
       <c r="C83" t="n">
-        <v>0.540025</v>
+        <v>0.528796</v>
       </c>
       <c r="D83" t="n">
-        <v>0.558294</v>
+        <v>0.555501</v>
       </c>
       <c r="E83" t="n">
-        <v>0.177712</v>
+        <v>0.176626</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399297</v>
+        <v>0.3997</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.226238</v>
+        <v>0.226461</v>
       </c>
       <c r="C84" t="n">
-        <v>0.571482</v>
+        <v>0.5556680000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.598785</v>
+        <v>0.593104</v>
       </c>
       <c r="E84" t="n">
-        <v>0.174473</v>
+        <v>0.174128</v>
       </c>
       <c r="F84" t="n">
-        <v>0.440881</v>
+        <v>0.443889</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.220449</v>
+        <v>0.220495</v>
       </c>
       <c r="C85" t="n">
-        <v>0.566304</v>
+        <v>0.5531160000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.598548</v>
+        <v>0.59478</v>
       </c>
       <c r="E85" t="n">
-        <v>0.17245</v>
+        <v>0.171895</v>
       </c>
       <c r="F85" t="n">
-        <v>0.440637</v>
+        <v>0.437067</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.214454</v>
+        <v>0.214613</v>
       </c>
       <c r="C86" t="n">
-        <v>0.560281</v>
+        <v>0.545421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.601491</v>
+        <v>0.596372</v>
       </c>
       <c r="E86" t="n">
-        <v>0.17013</v>
+        <v>0.169831</v>
       </c>
       <c r="F86" t="n">
-        <v>0.435129</v>
+        <v>0.43514</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.208544</v>
+        <v>0.208824</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5547299999999999</v>
+        <v>0.540305</v>
       </c>
       <c r="D87" t="n">
-        <v>0.603177</v>
+        <v>0.595393</v>
       </c>
       <c r="E87" t="n">
-        <v>0.167811</v>
+        <v>0.167734</v>
       </c>
       <c r="F87" t="n">
-        <v>0.432713</v>
+        <v>0.429179</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.202665</v>
+        <v>0.202909</v>
       </c>
       <c r="C88" t="n">
-        <v>0.548362</v>
+        <v>0.533613</v>
       </c>
       <c r="D88" t="n">
-        <v>0.603992</v>
+        <v>0.600267</v>
       </c>
       <c r="E88" t="n">
-        <v>0.165755</v>
+        <v>0.165605</v>
       </c>
       <c r="F88" t="n">
-        <v>0.428132</v>
+        <v>0.429286</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.197238</v>
+        <v>0.197289</v>
       </c>
       <c r="C89" t="n">
-        <v>0.518283</v>
+        <v>0.553096</v>
       </c>
       <c r="D89" t="n">
-        <v>0.605695</v>
+        <v>0.601429</v>
       </c>
       <c r="E89" t="n">
-        <v>0.163273</v>
+        <v>0.163151</v>
       </c>
       <c r="F89" t="n">
-        <v>0.427276</v>
+        <v>0.426057</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.191688</v>
+        <v>0.191915</v>
       </c>
       <c r="C90" t="n">
-        <v>0.510155</v>
+        <v>0.549747</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6048210000000001</v>
+        <v>0.60346</v>
       </c>
       <c r="E90" t="n">
-        <v>0.16155</v>
+        <v>0.160947</v>
       </c>
       <c r="F90" t="n">
-        <v>0.420996</v>
+        <v>0.420033</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186174</v>
+        <v>0.186288</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5056659999999999</v>
+        <v>0.5441319999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.61002</v>
+        <v>0.609809</v>
       </c>
       <c r="E91" t="n">
-        <v>0.15854</v>
+        <v>0.159179</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422187</v>
+        <v>0.413525</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180466</v>
+        <v>0.180573</v>
       </c>
       <c r="C92" t="n">
-        <v>0.496</v>
+        <v>0.53926</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5418190000000001</v>
+        <v>0.539301</v>
       </c>
       <c r="E92" t="n">
-        <v>0.156591</v>
+        <v>0.156484</v>
       </c>
       <c r="F92" t="n">
-        <v>0.422227</v>
+        <v>0.420554</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.174658</v>
+        <v>0.174556</v>
       </c>
       <c r="C93" t="n">
-        <v>0.492387</v>
+        <v>0.534483</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5424949999999999</v>
+        <v>0.540728</v>
       </c>
       <c r="E93" t="n">
-        <v>0.154128</v>
+        <v>0.154043</v>
       </c>
       <c r="F93" t="n">
-        <v>0.419279</v>
+        <v>0.414098</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168092</v>
+        <v>0.168034</v>
       </c>
       <c r="C94" t="n">
-        <v>0.483503</v>
+        <v>0.524959</v>
       </c>
       <c r="D94" t="n">
-        <v>0.542115</v>
+        <v>0.544564</v>
       </c>
       <c r="E94" t="n">
-        <v>0.185385</v>
+        <v>0.190844</v>
       </c>
       <c r="F94" t="n">
-        <v>0.452213</v>
+        <v>0.450534</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24332</v>
+        <v>0.243569</v>
       </c>
       <c r="C95" t="n">
-        <v>0.549126</v>
+        <v>0.53512</v>
       </c>
       <c r="D95" t="n">
-        <v>0.545226</v>
+        <v>0.543403</v>
       </c>
       <c r="E95" t="n">
-        <v>0.182765</v>
+        <v>0.183486</v>
       </c>
       <c r="F95" t="n">
-        <v>0.450662</v>
+        <v>0.45194</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238339</v>
+        <v>0.23859</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5318310000000001</v>
+        <v>0.531297</v>
       </c>
       <c r="D96" t="n">
-        <v>0.54654</v>
+        <v>0.545523</v>
       </c>
       <c r="E96" t="n">
-        <v>0.179925</v>
+        <v>0.180004</v>
       </c>
       <c r="F96" t="n">
-        <v>0.446172</v>
+        <v>0.44611</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232807</v>
+        <v>0.233465</v>
       </c>
       <c r="C97" t="n">
-        <v>0.529549</v>
+        <v>0.52842</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5488499999999999</v>
+        <v>0.54605</v>
       </c>
       <c r="E97" t="n">
-        <v>0.177195</v>
+        <v>0.177385</v>
       </c>
       <c r="F97" t="n">
-        <v>0.44327</v>
+        <v>0.446739</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.227468</v>
+        <v>0.227653</v>
       </c>
       <c r="C98" t="n">
-        <v>0.52889</v>
+        <v>0.523529</v>
       </c>
       <c r="D98" t="n">
-        <v>0.548609</v>
+        <v>0.546381</v>
       </c>
       <c r="E98" t="n">
-        <v>0.174968</v>
+        <v>0.175148</v>
       </c>
       <c r="F98" t="n">
-        <v>0.441243</v>
+        <v>0.442886</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.221511</v>
+        <v>0.221899</v>
       </c>
       <c r="C99" t="n">
-        <v>0.529058</v>
+        <v>0.518214</v>
       </c>
       <c r="D99" t="n">
-        <v>0.54969</v>
+        <v>0.55027</v>
       </c>
       <c r="E99" t="n">
-        <v>0.172696</v>
+        <v>0.1724</v>
       </c>
       <c r="F99" t="n">
-        <v>0.438051</v>
+        <v>0.43916</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21567</v>
+        <v>0.215689</v>
       </c>
       <c r="C100" t="n">
-        <v>0.503417</v>
+        <v>0.523114</v>
       </c>
       <c r="D100" t="n">
-        <v>0.551291</v>
+        <v>0.554214</v>
       </c>
       <c r="E100" t="n">
-        <v>0.171004</v>
+        <v>0.170792</v>
       </c>
       <c r="F100" t="n">
-        <v>0.434276</v>
+        <v>0.435058</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.209764</v>
+        <v>0.20989</v>
       </c>
       <c r="C101" t="n">
-        <v>0.494989</v>
+        <v>0.522391</v>
       </c>
       <c r="D101" t="n">
-        <v>0.55594</v>
+        <v>0.554685</v>
       </c>
       <c r="E101" t="n">
-        <v>0.169044</v>
+        <v>0.16823</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4312</v>
+        <v>0.431623</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20415</v>
+        <v>0.204228</v>
       </c>
       <c r="C102" t="n">
-        <v>0.491638</v>
+        <v>0.515622</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5583630000000001</v>
+        <v>0.558505</v>
       </c>
       <c r="E102" t="n">
-        <v>0.166641</v>
+        <v>0.166233</v>
       </c>
       <c r="F102" t="n">
-        <v>0.428638</v>
+        <v>0.428802</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.198392</v>
+        <v>0.198493</v>
       </c>
       <c r="C103" t="n">
-        <v>0.48675</v>
+        <v>0.509883</v>
       </c>
       <c r="D103" t="n">
-        <v>0.562483</v>
+        <v>0.563681</v>
       </c>
       <c r="E103" t="n">
-        <v>0.164554</v>
+        <v>0.164128</v>
       </c>
       <c r="F103" t="n">
-        <v>0.425691</v>
+        <v>0.424868</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.192839</v>
+        <v>0.19289</v>
       </c>
       <c r="C104" t="n">
-        <v>0.571471</v>
+        <v>0.529735</v>
       </c>
       <c r="D104" t="n">
-        <v>0.567976</v>
+        <v>0.56968</v>
       </c>
       <c r="E104" t="n">
-        <v>0.162226</v>
+        <v>0.161607</v>
       </c>
       <c r="F104" t="n">
-        <v>0.422869</v>
+        <v>0.42419</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.187339</v>
+        <v>0.187226</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5618339999999999</v>
+        <v>0.52825</v>
       </c>
       <c r="D105" t="n">
-        <v>0.571217</v>
+        <v>0.572793</v>
       </c>
       <c r="E105" t="n">
-        <v>0.159708</v>
+        <v>0.159704</v>
       </c>
       <c r="F105" t="n">
-        <v>0.420966</v>
+        <v>0.419822</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.181734</v>
+        <v>0.181748</v>
       </c>
       <c r="C106" t="n">
-        <v>0.557649</v>
+        <v>0.525581</v>
       </c>
       <c r="D106" t="n">
-        <v>0.577021</v>
+        <v>0.577451</v>
       </c>
       <c r="E106" t="n">
-        <v>0.157214</v>
+        <v>0.157206</v>
       </c>
       <c r="F106" t="n">
-        <v>0.417849</v>
+        <v>0.417084</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.175727</v>
+        <v>0.175427</v>
       </c>
       <c r="C107" t="n">
-        <v>0.52486</v>
+        <v>0.479552</v>
       </c>
       <c r="D107" t="n">
-        <v>0.521194</v>
+        <v>0.523235</v>
       </c>
       <c r="E107" t="n">
-        <v>0.154402</v>
+        <v>0.154597</v>
       </c>
       <c r="F107" t="n">
-        <v>0.415271</v>
+        <v>0.414144</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169568</v>
+        <v>0.16905</v>
       </c>
       <c r="C108" t="n">
-        <v>0.512583</v>
+        <v>0.471058</v>
       </c>
       <c r="D108" t="n">
-        <v>0.525486</v>
+        <v>0.526401</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186652</v>
+        <v>0.193469</v>
       </c>
       <c r="F108" t="n">
-        <v>0.452322</v>
+        <v>0.45359</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161959</v>
+        <v>0.161819</v>
       </c>
       <c r="C109" t="n">
-        <v>0.506528</v>
+        <v>0.462903</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5253910000000001</v>
+        <v>0.52873</v>
       </c>
       <c r="E109" t="n">
-        <v>0.18379</v>
+        <v>0.184877</v>
       </c>
       <c r="F109" t="n">
-        <v>0.44915</v>
+        <v>0.448749</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239256</v>
+        <v>0.239397</v>
       </c>
       <c r="C110" t="n">
-        <v>0.518518</v>
+        <v>0.522172</v>
       </c>
       <c r="D110" t="n">
-        <v>0.529053</v>
+        <v>0.530888</v>
       </c>
       <c r="E110" t="n">
-        <v>0.180655</v>
+        <v>0.180926</v>
       </c>
       <c r="F110" t="n">
-        <v>0.444658</v>
+        <v>0.445304</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234397</v>
+        <v>0.23453</v>
       </c>
       <c r="C111" t="n">
-        <v>0.514848</v>
+        <v>0.523255</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532502</v>
+        <v>0.532305</v>
       </c>
       <c r="E111" t="n">
-        <v>0.177837</v>
+        <v>0.182803</v>
       </c>
       <c r="F111" t="n">
-        <v>0.442929</v>
+        <v>0.444409</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228587</v>
+        <v>0.228911</v>
       </c>
       <c r="C112" t="n">
-        <v>0.593735</v>
+        <v>0.579032</v>
       </c>
       <c r="D112" t="n">
-        <v>0.536956</v>
+        <v>0.532608</v>
       </c>
       <c r="E112" t="n">
-        <v>0.175771</v>
+        <v>0.176519</v>
       </c>
       <c r="F112" t="n">
-        <v>0.439585</v>
+        <v>0.440995</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.222576</v>
+        <v>0.222888</v>
       </c>
       <c r="C113" t="n">
-        <v>0.589404</v>
+        <v>0.574763</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536504</v>
+        <v>0.536637</v>
       </c>
       <c r="E113" t="n">
-        <v>0.173378</v>
+        <v>0.173282</v>
       </c>
       <c r="F113" t="n">
-        <v>0.436602</v>
+        <v>0.438094</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.216744</v>
+        <v>0.216851</v>
       </c>
       <c r="C114" t="n">
-        <v>0.504439</v>
+        <v>0.5702469999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.540494</v>
+        <v>0.5399080000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.171238</v>
+        <v>0.170922</v>
       </c>
       <c r="F114" t="n">
-        <v>0.433815</v>
+        <v>0.433745</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.210914</v>
+        <v>0.211192</v>
       </c>
       <c r="C115" t="n">
-        <v>0.502036</v>
+        <v>0.5488730000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.543697</v>
+        <v>0.54243</v>
       </c>
       <c r="E115" t="n">
-        <v>0.16915</v>
+        <v>0.168676</v>
       </c>
       <c r="F115" t="n">
-        <v>0.432386</v>
+        <v>0.432116</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.205257</v>
+        <v>0.20506</v>
       </c>
       <c r="C116" t="n">
-        <v>0.495897</v>
+        <v>0.552976</v>
       </c>
       <c r="D116" t="n">
-        <v>0.547772</v>
+        <v>0.549486</v>
       </c>
       <c r="E116" t="n">
-        <v>0.166827</v>
+        <v>0.166413</v>
       </c>
       <c r="F116" t="n">
-        <v>0.428189</v>
+        <v>0.428581</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199465</v>
+        <v>0.19959</v>
       </c>
       <c r="C117" t="n">
-        <v>0.52832</v>
+        <v>0.545041</v>
       </c>
       <c r="D117" t="n">
-        <v>0.550834</v>
+        <v>0.552463</v>
       </c>
       <c r="E117" t="n">
-        <v>0.165085</v>
+        <v>0.164294</v>
       </c>
       <c r="F117" t="n">
-        <v>0.42603</v>
+        <v>0.427823</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.193855</v>
+        <v>0.193815</v>
       </c>
       <c r="C118" t="n">
-        <v>0.485261</v>
+        <v>0.547204</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5555600000000001</v>
+        <v>0.557275</v>
       </c>
       <c r="E118" t="n">
-        <v>0.162375</v>
+        <v>0.161976</v>
       </c>
       <c r="F118" t="n">
-        <v>0.422748</v>
+        <v>0.423906</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.188506</v>
+        <v>0.188391</v>
       </c>
       <c r="C119" t="n">
-        <v>0.480738</v>
+        <v>0.540805</v>
       </c>
       <c r="D119" t="n">
-        <v>0.559912</v>
+        <v>0.559516</v>
       </c>
       <c r="E119" t="n">
-        <v>0.15995</v>
+        <v>0.159512</v>
       </c>
       <c r="F119" t="n">
-        <v>0.418671</v>
+        <v>0.41914</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.182721</v>
+        <v>0.182404</v>
       </c>
       <c r="C120" t="n">
-        <v>0.540034</v>
+        <v>0.508591</v>
       </c>
       <c r="D120" t="n">
-        <v>0.568665</v>
+        <v>0.566375</v>
       </c>
       <c r="E120" t="n">
-        <v>0.157599</v>
+        <v>0.157239</v>
       </c>
       <c r="F120" t="n">
-        <v>0.417839</v>
+        <v>0.419405</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.177021</v>
+        <v>0.176646</v>
       </c>
       <c r="C121" t="n">
-        <v>0.469258</v>
+        <v>0.502921</v>
       </c>
       <c r="D121" t="n">
-        <v>0.53851</v>
+        <v>0.539686</v>
       </c>
       <c r="E121" t="n">
-        <v>0.155108</v>
+        <v>0.154875</v>
       </c>
       <c r="F121" t="n">
-        <v>0.415367</v>
+        <v>0.416502</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.170679</v>
+        <v>0.17057</v>
       </c>
       <c r="C122" t="n">
-        <v>0.462356</v>
+        <v>0.491385</v>
       </c>
       <c r="D122" t="n">
-        <v>0.542764</v>
+        <v>0.541242</v>
       </c>
       <c r="E122" t="n">
-        <v>0.152325</v>
+        <v>0.15202</v>
       </c>
       <c r="F122" t="n">
-        <v>0.411911</v>
+        <v>0.41736</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163462</v>
+        <v>0.163953</v>
       </c>
       <c r="C123" t="n">
-        <v>0.454776</v>
+        <v>0.485237</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5432399999999999</v>
+        <v>0.539736</v>
       </c>
       <c r="E123" t="n">
-        <v>0.184756</v>
+        <v>0.190757</v>
       </c>
       <c r="F123" t="n">
-        <v>0.448543</v>
+        <v>0.453498</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240186</v>
+        <v>0.240484</v>
       </c>
       <c r="C124" t="n">
-        <v>0.536765</v>
+        <v>0.5923349999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.54366</v>
+        <v>0.538814</v>
       </c>
       <c r="E124" t="n">
-        <v>0.181446</v>
+        <v>0.183627</v>
       </c>
       <c r="F124" t="n">
-        <v>0.44544</v>
+        <v>0.445445</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.235111</v>
+        <v>0.235186</v>
       </c>
       <c r="C125" t="n">
-        <v>0.584798</v>
+        <v>0.593238</v>
       </c>
       <c r="D125" t="n">
-        <v>0.545454</v>
+        <v>0.540489</v>
       </c>
       <c r="E125" t="n">
-        <v>0.179312</v>
+        <v>0.179538</v>
       </c>
       <c r="F125" t="n">
-        <v>0.44318</v>
+        <v>0.442413</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229565</v>
+        <v>0.229851</v>
       </c>
       <c r="C126" t="n">
-        <v>0.579006</v>
+        <v>0.505134</v>
       </c>
       <c r="D126" t="n">
-        <v>0.547254</v>
+        <v>0.545431</v>
       </c>
       <c r="E126" t="n">
-        <v>0.176728</v>
+        <v>0.176352</v>
       </c>
       <c r="F126" t="n">
-        <v>0.440461</v>
+        <v>0.439614</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.223863</v>
+        <v>0.22393</v>
       </c>
       <c r="C127" t="n">
-        <v>0.577232</v>
+        <v>0.520115</v>
       </c>
       <c r="D127" t="n">
-        <v>0.548274</v>
+        <v>0.54696</v>
       </c>
       <c r="E127" t="n">
-        <v>0.173883</v>
+        <v>0.173605</v>
       </c>
       <c r="F127" t="n">
-        <v>0.436756</v>
+        <v>0.438438</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218155</v>
+        <v>0.217796</v>
       </c>
       <c r="C128" t="n">
-        <v>0.55443</v>
+        <v>0.497324</v>
       </c>
       <c r="D128" t="n">
-        <v>0.55064</v>
+        <v>0.552334</v>
       </c>
       <c r="E128" t="n">
-        <v>0.171825</v>
+        <v>0.171916</v>
       </c>
       <c r="F128" t="n">
-        <v>0.433888</v>
+        <v>0.435215</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21214</v>
+        <v>0.211955</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5175959999999999</v>
+        <v>0.584938</v>
       </c>
       <c r="D129" t="n">
-        <v>0.553956</v>
+        <v>0.554434</v>
       </c>
       <c r="E129" t="n">
-        <v>0.169783</v>
+        <v>0.169247</v>
       </c>
       <c r="F129" t="n">
-        <v>0.431821</v>
+        <v>0.434067</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20633</v>
+        <v>0.206145</v>
       </c>
       <c r="C130" t="n">
-        <v>0.489451</v>
+        <v>0.488002</v>
       </c>
       <c r="D130" t="n">
-        <v>0.556311</v>
+        <v>0.556183</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16749</v>
+        <v>0.167088</v>
       </c>
       <c r="F130" t="n">
-        <v>0.427702</v>
+        <v>0.430902</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.200548</v>
+        <v>0.200555</v>
       </c>
       <c r="C131" t="n">
-        <v>0.483912</v>
+        <v>0.5222909999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561366</v>
+        <v>0.561343</v>
       </c>
       <c r="E131" t="n">
-        <v>0.165329</v>
+        <v>0.164848</v>
       </c>
       <c r="F131" t="n">
-        <v>0.426317</v>
+        <v>0.427828</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.194896</v>
+        <v>0.1948</v>
       </c>
       <c r="C132" t="n">
-        <v>0.495491</v>
+        <v>0.507016</v>
       </c>
       <c r="D132" t="n">
-        <v>0.564869</v>
+        <v>0.563758</v>
       </c>
       <c r="E132" t="n">
-        <v>0.162757</v>
+        <v>0.162511</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423654</v>
+        <v>0.424654</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.189651</v>
+        <v>0.189484</v>
       </c>
       <c r="C133" t="n">
-        <v>0.486283</v>
+        <v>0.474712</v>
       </c>
       <c r="D133" t="n">
-        <v>0.56998</v>
+        <v>0.570978</v>
       </c>
       <c r="E133" t="n">
-        <v>0.160581</v>
+        <v>0.160322</v>
       </c>
       <c r="F133" t="n">
-        <v>0.420838</v>
+        <v>0.421729</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.183879</v>
+        <v>0.183715</v>
       </c>
       <c r="C134" t="n">
-        <v>0.488938</v>
+        <v>0.518304</v>
       </c>
       <c r="D134" t="n">
-        <v>0.572866</v>
+        <v>0.56881</v>
       </c>
       <c r="E134" t="n">
-        <v>0.158113</v>
+        <v>0.157847</v>
       </c>
       <c r="F134" t="n">
-        <v>0.41687</v>
+        <v>0.417005</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.178315</v>
+        <v>0.178039</v>
       </c>
       <c r="C135" t="n">
-        <v>0.485172</v>
+        <v>0.464789</v>
       </c>
       <c r="D135" t="n">
-        <v>0.542668</v>
+        <v>0.543967</v>
       </c>
       <c r="E135" t="n">
-        <v>0.155517</v>
+        <v>0.155457</v>
       </c>
       <c r="F135" t="n">
-        <v>0.414417</v>
+        <v>0.415903</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.171939</v>
+        <v>0.171873</v>
       </c>
       <c r="C136" t="n">
-        <v>0.459893</v>
+        <v>0.523485</v>
       </c>
       <c r="D136" t="n">
-        <v>0.544275</v>
+        <v>0.544959</v>
       </c>
       <c r="E136" t="n">
-        <v>0.152746</v>
+        <v>0.152597</v>
       </c>
       <c r="F136" t="n">
-        <v>0.412231</v>
+        <v>0.410649</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164918</v>
+        <v>0.165156</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5182</v>
+        <v>0.451595</v>
       </c>
       <c r="D137" t="n">
-        <v>0.544423</v>
+        <v>0.546778</v>
       </c>
       <c r="E137" t="n">
-        <v>0.188827</v>
+        <v>0.192075</v>
       </c>
       <c r="F137" t="n">
-        <v>0.450237</v>
+        <v>0.452754</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241468</v>
+        <v>0.241361</v>
       </c>
       <c r="C138" t="n">
-        <v>0.539011</v>
+        <v>0.52079</v>
       </c>
       <c r="D138" t="n">
-        <v>0.547111</v>
+        <v>0.545293</v>
       </c>
       <c r="E138" t="n">
-        <v>0.183349</v>
+        <v>0.185874</v>
       </c>
       <c r="F138" t="n">
-        <v>0.44593</v>
+        <v>0.447976</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236617</v>
+        <v>0.236298</v>
       </c>
       <c r="C139" t="n">
-        <v>0.594314</v>
+        <v>0.573705</v>
       </c>
       <c r="D139" t="n">
-        <v>0.545725</v>
+        <v>0.545217</v>
       </c>
       <c r="E139" t="n">
-        <v>0.180204</v>
+        <v>0.181244</v>
       </c>
       <c r="F139" t="n">
-        <v>0.443201</v>
+        <v>0.443245</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23122</v>
+        <v>0.230688</v>
       </c>
       <c r="C140" t="n">
-        <v>0.508184</v>
+        <v>0.5015230000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.549889</v>
+        <v>0.5480969999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.17689</v>
+        <v>0.178392</v>
       </c>
       <c r="F140" t="n">
-        <v>0.441267</v>
+        <v>0.44044</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.225282</v>
+        <v>0.225367</v>
       </c>
       <c r="C141" t="n">
-        <v>0.497747</v>
+        <v>0.497315</v>
       </c>
       <c r="D141" t="n">
-        <v>0.54971</v>
+        <v>0.548233</v>
       </c>
       <c r="E141" t="n">
-        <v>0.174583</v>
+        <v>0.175785</v>
       </c>
       <c r="F141" t="n">
-        <v>0.43839</v>
+        <v>0.439039</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.219485</v>
+        <v>0.219327</v>
       </c>
       <c r="C142" t="n">
-        <v>0.493584</v>
+        <v>0.585874</v>
       </c>
       <c r="D142" t="n">
-        <v>0.551665</v>
+        <v>0.551187</v>
       </c>
       <c r="E142" t="n">
-        <v>0.172385</v>
+        <v>0.172269</v>
       </c>
       <c r="F142" t="n">
-        <v>0.435134</v>
+        <v>0.43259</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.213577</v>
+        <v>0.213107</v>
       </c>
       <c r="C143" t="n">
-        <v>0.520688</v>
+        <v>0.5165419999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.555193</v>
+        <v>0.552519</v>
       </c>
       <c r="E143" t="n">
-        <v>0.170199</v>
+        <v>0.17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.431942</v>
+        <v>0.433339</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303736</v>
+        <v>0.18989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7540249999999999</v>
+        <v>0.426358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.654861</v>
+        <v>0.413472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.206195</v>
+        <v>0.153118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.580985</v>
+        <v>0.366918</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.232712</v>
+        <v>0.184782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574348</v>
+        <v>0.426489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6498159999999999</v>
+        <v>0.415809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205985</v>
+        <v>0.151828</v>
       </c>
       <c r="F3" t="n">
-        <v>0.59365</v>
+        <v>0.366393</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.316037</v>
+        <v>0.180862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.410726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6664870000000001</v>
+        <v>0.415307</v>
       </c>
       <c r="E4" t="n">
-        <v>0.252063</v>
+        <v>0.149205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.537102</v>
+        <v>0.36503</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.278067</v>
+        <v>0.176539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.644687</v>
+        <v>0.407516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5819569999999999</v>
+        <v>0.41754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.259689</v>
+        <v>0.147829</v>
       </c>
       <c r="F5" t="n">
-        <v>0.572061</v>
+        <v>0.362824</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281499</v>
+        <v>0.173248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.797025</v>
+        <v>0.417237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.782319</v>
+        <v>0.419917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.297151</v>
+        <v>0.146321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.710012</v>
+        <v>0.359368</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.303765</v>
+        <v>0.166312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.557798</v>
+        <v>0.405469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.744998</v>
+        <v>0.41589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.306034</v>
+        <v>0.144902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5223719999999999</v>
+        <v>0.359196</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.273061</v>
+        <v>0.160182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.730442</v>
+        <v>0.397879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634232</v>
+        <v>0.416733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.260079</v>
+        <v>0.141332</v>
       </c>
       <c r="F8" t="n">
-        <v>0.510382</v>
+        <v>0.357401</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192391</v>
+        <v>0.154631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.701416</v>
+        <v>0.387423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.621183</v>
+        <v>0.416412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.34976</v>
+        <v>0.175604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.709353</v>
+        <v>0.390504</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.425228</v>
+        <v>0.240307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603297</v>
+        <v>0.457237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.648585</v>
+        <v>0.418093</v>
       </c>
       <c r="E10" t="n">
-        <v>0.276207</v>
+        <v>0.174918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6770659999999999</v>
+        <v>0.387446</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.369304</v>
+        <v>0.235573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.725581</v>
+        <v>0.451096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8777779999999999</v>
+        <v>0.41761</v>
       </c>
       <c r="E11" t="n">
-        <v>0.336028</v>
+        <v>0.171779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.629397</v>
+        <v>0.383804</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.518691</v>
+        <v>0.230372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.718666</v>
+        <v>0.452349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.666156</v>
+        <v>0.419295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.389959</v>
+        <v>0.170017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.583076</v>
+        <v>0.380853</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.408817</v>
+        <v>0.224884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.715215</v>
+        <v>0.448336</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6995130000000001</v>
+        <v>0.41747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.381174</v>
+        <v>0.167822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.831107</v>
+        <v>0.379947</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.471126</v>
+        <v>0.219076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.717762</v>
+        <v>0.444333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.753309</v>
+        <v>0.418759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.293513</v>
+        <v>0.166231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.81414</v>
+        <v>0.376925</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.360399</v>
+        <v>0.212673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.575897</v>
+        <v>0.439701</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6946059999999999</v>
+        <v>0.419208</v>
       </c>
       <c r="E15" t="n">
-        <v>0.363162</v>
+        <v>0.164501</v>
       </c>
       <c r="F15" t="n">
-        <v>0.562063</v>
+        <v>0.375329</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446017</v>
+        <v>0.207417</v>
       </c>
       <c r="C16" t="n">
-        <v>0.711326</v>
+        <v>0.439759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.745842</v>
+        <v>0.422393</v>
       </c>
       <c r="E16" t="n">
-        <v>0.332571</v>
+        <v>0.16253</v>
       </c>
       <c r="F16" t="n">
-        <v>0.815495</v>
+        <v>0.373395</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.409399</v>
+        <v>0.201891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.750207</v>
+        <v>0.431997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.926025</v>
+        <v>0.423413</v>
       </c>
       <c r="E17" t="n">
-        <v>0.280358</v>
+        <v>0.161763</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7423920000000001</v>
+        <v>0.370876</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.370767</v>
+        <v>0.19609</v>
       </c>
       <c r="C18" t="n">
-        <v>0.727756</v>
+        <v>0.428477</v>
       </c>
       <c r="D18" t="n">
-        <v>0.777623</v>
+        <v>0.425364</v>
       </c>
       <c r="E18" t="n">
-        <v>0.368342</v>
+        <v>0.157662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.731977</v>
+        <v>0.367986</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.393098</v>
+        <v>0.190376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.69909</v>
+        <v>0.423616</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7588510000000001</v>
+        <v>0.426143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.297725</v>
+        <v>0.157047</v>
       </c>
       <c r="F19" t="n">
-        <v>0.700893</v>
+        <v>0.366972</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.385137</v>
+        <v>0.184569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.788111</v>
+        <v>0.419796</v>
       </c>
       <c r="D20" t="n">
-        <v>0.784242</v>
+        <v>0.427369</v>
       </c>
       <c r="E20" t="n">
-        <v>0.343299</v>
+        <v>0.155557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.704952</v>
+        <v>0.363851</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.367308</v>
+        <v>0.178601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.940823</v>
+        <v>0.413122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.99512</v>
+        <v>0.422788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.332501</v>
+        <v>0.150799</v>
       </c>
       <c r="F21" t="n">
-        <v>0.694068</v>
+        <v>0.361135</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.282717</v>
+        <v>0.172597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.862038</v>
+        <v>0.406581</v>
       </c>
       <c r="D22" t="n">
-        <v>0.827579</v>
+        <v>0.423524</v>
       </c>
       <c r="E22" t="n">
-        <v>0.327306</v>
+        <v>0.147123</v>
       </c>
       <c r="F22" t="n">
-        <v>0.687828</v>
+        <v>0.359624</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.320791</v>
+        <v>0.165426</v>
       </c>
       <c r="C23" t="n">
-        <v>0.841315</v>
+        <v>0.395643</v>
       </c>
       <c r="D23" t="n">
-        <v>1.00798</v>
+        <v>0.422735</v>
       </c>
       <c r="E23" t="n">
-        <v>0.41858</v>
+        <v>0.179682</v>
       </c>
       <c r="F23" t="n">
-        <v>0.734646</v>
+        <v>0.393948</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.454197</v>
+        <v>0.241428</v>
       </c>
       <c r="C24" t="n">
-        <v>0.931626</v>
+        <v>0.458963</v>
       </c>
       <c r="D24" t="n">
-        <v>0.887976</v>
+        <v>0.422952</v>
       </c>
       <c r="E24" t="n">
-        <v>0.382542</v>
+        <v>0.177057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.559141</v>
+        <v>0.391894</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.405453</v>
+        <v>0.236819</v>
       </c>
       <c r="C25" t="n">
-        <v>0.726965</v>
+        <v>0.452814</v>
       </c>
       <c r="D25" t="n">
-        <v>0.821539</v>
+        <v>0.423997</v>
       </c>
       <c r="E25" t="n">
-        <v>0.343798</v>
+        <v>0.174712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.777149</v>
+        <v>0.386513</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.463044</v>
+        <v>0.231499</v>
       </c>
       <c r="C26" t="n">
-        <v>0.57741</v>
+        <v>0.455031</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7678120000000001</v>
+        <v>0.422836</v>
       </c>
       <c r="E26" t="n">
-        <v>0.281127</v>
+        <v>0.172225</v>
       </c>
       <c r="F26" t="n">
-        <v>0.555325</v>
+        <v>0.385804</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.420944</v>
+        <v>0.226512</v>
       </c>
       <c r="C27" t="n">
-        <v>1.01212</v>
+        <v>0.448135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.790969</v>
+        <v>0.423931</v>
       </c>
       <c r="E27" t="n">
-        <v>0.307944</v>
+        <v>0.170005</v>
       </c>
       <c r="F27" t="n">
-        <v>0.745821</v>
+        <v>0.383657</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.42392</v>
+        <v>0.220471</v>
       </c>
       <c r="C28" t="n">
-        <v>0.855364</v>
+        <v>0.447168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.703682</v>
+        <v>0.425431</v>
       </c>
       <c r="E28" t="n">
-        <v>0.370986</v>
+        <v>0.167891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.725917</v>
+        <v>0.382981</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.433652</v>
+        <v>0.215126</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683876</v>
+        <v>0.444564</v>
       </c>
       <c r="D29" t="n">
-        <v>0.67308</v>
+        <v>0.425432</v>
       </c>
       <c r="E29" t="n">
-        <v>0.329067</v>
+        <v>0.167026</v>
       </c>
       <c r="F29" t="n">
-        <v>0.730755</v>
+        <v>0.379802</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.398924</v>
+        <v>0.20893</v>
       </c>
       <c r="C30" t="n">
-        <v>0.621866</v>
+        <v>0.440638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.630806</v>
+        <v>0.427206</v>
       </c>
       <c r="E30" t="n">
-        <v>0.271542</v>
+        <v>0.164215</v>
       </c>
       <c r="F30" t="n">
-        <v>0.568322</v>
+        <v>0.377705</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.417</v>
+        <v>0.202841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.747447</v>
+        <v>0.43783</v>
       </c>
       <c r="D31" t="n">
-        <v>0.687183</v>
+        <v>0.427491</v>
       </c>
       <c r="E31" t="n">
-        <v>0.314478</v>
+        <v>0.163002</v>
       </c>
       <c r="F31" t="n">
-        <v>0.708959</v>
+        <v>0.373923</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.423032</v>
+        <v>0.197473</v>
       </c>
       <c r="C32" t="n">
-        <v>0.824289</v>
+        <v>0.431707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.572174</v>
+        <v>0.429075</v>
       </c>
       <c r="E32" t="n">
-        <v>0.340731</v>
+        <v>0.160672</v>
       </c>
       <c r="F32" t="n">
-        <v>0.892526</v>
+        <v>0.372382</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.404104</v>
+        <v>0.19171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.921404</v>
+        <v>0.427343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.816629</v>
+        <v>0.429606</v>
       </c>
       <c r="E33" t="n">
-        <v>0.257383</v>
+        <v>0.159136</v>
       </c>
       <c r="F33" t="n">
-        <v>0.596853</v>
+        <v>0.369465</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.347478</v>
+        <v>0.185673</v>
       </c>
       <c r="C34" t="n">
-        <v>0.690065</v>
+        <v>0.418278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.834963</v>
+        <v>0.431022</v>
       </c>
       <c r="E34" t="n">
-        <v>0.347534</v>
+        <v>0.156584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.628873</v>
+        <v>0.366557</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.37581</v>
+        <v>0.180286</v>
       </c>
       <c r="C35" t="n">
-        <v>0.718932</v>
+        <v>0.416636</v>
       </c>
       <c r="D35" t="n">
-        <v>0.780447</v>
+        <v>0.431935</v>
       </c>
       <c r="E35" t="n">
-        <v>0.301096</v>
+        <v>0.154553</v>
       </c>
       <c r="F35" t="n">
-        <v>0.590074</v>
+        <v>0.364119</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.337657</v>
+        <v>0.173739</v>
       </c>
       <c r="C36" t="n">
-        <v>0.819958</v>
+        <v>0.406703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.880981</v>
+        <v>0.430089</v>
       </c>
       <c r="E36" t="n">
-        <v>0.344501</v>
+        <v>0.151386</v>
       </c>
       <c r="F36" t="n">
-        <v>0.518748</v>
+        <v>0.361771</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.275966</v>
+        <v>0.166955</v>
       </c>
       <c r="C37" t="n">
-        <v>0.543582</v>
+        <v>0.402668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.73938</v>
+        <v>0.430126</v>
       </c>
       <c r="E37" t="n">
-        <v>0.26072</v>
+        <v>0.18057</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8156600000000001</v>
+        <v>0.397242</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.422022</v>
+        <v>0.241993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769671</v>
+        <v>0.461377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8012629999999999</v>
+        <v>0.431183</v>
       </c>
       <c r="E38" t="n">
-        <v>0.370283</v>
+        <v>0.179528</v>
       </c>
       <c r="F38" t="n">
-        <v>0.818312</v>
+        <v>0.394536</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.399947</v>
+        <v>0.237768</v>
       </c>
       <c r="C39" t="n">
-        <v>1.00411</v>
+        <v>0.455353</v>
       </c>
       <c r="D39" t="n">
-        <v>1.05735</v>
+        <v>0.43033</v>
       </c>
       <c r="E39" t="n">
-        <v>0.39138</v>
+        <v>0.176294</v>
       </c>
       <c r="F39" t="n">
-        <v>0.724374</v>
+        <v>0.392216</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.445934</v>
+        <v>0.232824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.845452</v>
+        <v>0.453223</v>
       </c>
       <c r="D40" t="n">
-        <v>0.638562</v>
+        <v>0.429051</v>
       </c>
       <c r="E40" t="n">
-        <v>0.338229</v>
+        <v>0.174305</v>
       </c>
       <c r="F40" t="n">
-        <v>0.787841</v>
+        <v>0.389479</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.416363</v>
+        <v>0.227148</v>
       </c>
       <c r="C41" t="n">
-        <v>0.910195</v>
+        <v>0.451212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.640275</v>
+        <v>0.430801</v>
       </c>
       <c r="E41" t="n">
-        <v>0.319202</v>
+        <v>0.17281</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6529239999999999</v>
+        <v>0.386503</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.384766</v>
+        <v>0.221623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.94972</v>
+        <v>0.446648</v>
       </c>
       <c r="D42" t="n">
-        <v>1.19602</v>
+        <v>0.432481</v>
       </c>
       <c r="E42" t="n">
-        <v>0.378382</v>
+        <v>0.17041</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763409</v>
+        <v>0.383953</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.449991</v>
+        <v>0.215777</v>
       </c>
       <c r="C43" t="n">
-        <v>0.864211</v>
+        <v>0.444084</v>
       </c>
       <c r="D43" t="n">
-        <v>0.779178</v>
+        <v>0.432382</v>
       </c>
       <c r="E43" t="n">
-        <v>0.346575</v>
+        <v>0.168312</v>
       </c>
       <c r="F43" t="n">
-        <v>0.80572</v>
+        <v>0.381182</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.435488</v>
+        <v>0.210113</v>
       </c>
       <c r="C44" t="n">
-        <v>0.796801</v>
+        <v>0.439477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.636783</v>
+        <v>0.432938</v>
       </c>
       <c r="E44" t="n">
-        <v>0.322859</v>
+        <v>0.165942</v>
       </c>
       <c r="F44" t="n">
-        <v>0.732085</v>
+        <v>0.378299</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.389608</v>
+        <v>0.204175</v>
       </c>
       <c r="C45" t="n">
-        <v>0.773602</v>
+        <v>0.435003</v>
       </c>
       <c r="D45" t="n">
-        <v>0.755462</v>
+        <v>0.4327</v>
       </c>
       <c r="E45" t="n">
-        <v>0.285427</v>
+        <v>0.163824</v>
       </c>
       <c r="F45" t="n">
-        <v>0.800621</v>
+        <v>0.377107</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.427153</v>
+        <v>0.198638</v>
       </c>
       <c r="C46" t="n">
-        <v>0.922195</v>
+        <v>0.428322</v>
       </c>
       <c r="D46" t="n">
-        <v>0.68971</v>
+        <v>0.43351</v>
       </c>
       <c r="E46" t="n">
-        <v>0.32502</v>
+        <v>0.162162</v>
       </c>
       <c r="F46" t="n">
-        <v>0.729282</v>
+        <v>0.375752</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.391203</v>
+        <v>0.192838</v>
       </c>
       <c r="C47" t="n">
-        <v>0.962028</v>
+        <v>0.428482</v>
       </c>
       <c r="D47" t="n">
-        <v>0.706348</v>
+        <v>0.433841</v>
       </c>
       <c r="E47" t="n">
-        <v>0.335284</v>
+        <v>0.16</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7530790000000001</v>
+        <v>0.372138</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.366365</v>
+        <v>0.18714</v>
       </c>
       <c r="C48" t="n">
-        <v>0.803958</v>
+        <v>0.41768</v>
       </c>
       <c r="D48" t="n">
-        <v>0.81358</v>
+        <v>0.434971</v>
       </c>
       <c r="E48" t="n">
-        <v>0.317802</v>
+        <v>0.15796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9160779999999999</v>
+        <v>0.369848</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.364398</v>
+        <v>0.181278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8295</v>
+        <v>0.417432</v>
       </c>
       <c r="D49" t="n">
-        <v>0.779186</v>
+        <v>0.435418</v>
       </c>
       <c r="E49" t="n">
-        <v>0.301039</v>
+        <v>0.15606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.867032</v>
+        <v>0.366527</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.378334</v>
+        <v>0.175344</v>
       </c>
       <c r="C50" t="n">
-        <v>0.736324</v>
+        <v>0.409458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.946464</v>
+        <v>0.432251</v>
       </c>
       <c r="E50" t="n">
-        <v>0.322605</v>
+        <v>0.152869</v>
       </c>
       <c r="F50" t="n">
-        <v>0.741676</v>
+        <v>0.364028</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.369515</v>
+        <v>0.168864</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7510829999999999</v>
+        <v>0.398566</v>
       </c>
       <c r="D51" t="n">
-        <v>0.942683</v>
+        <v>0.431939</v>
       </c>
       <c r="E51" t="n">
-        <v>0.382719</v>
+        <v>0.183704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.806821</v>
+        <v>0.399111</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.316463</v>
+        <v>0.161892</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7223039999999999</v>
+        <v>0.389523</v>
       </c>
       <c r="D52" t="n">
-        <v>0.849519</v>
+        <v>0.43176</v>
       </c>
       <c r="E52" t="n">
-        <v>0.366481</v>
+        <v>0.181099</v>
       </c>
       <c r="F52" t="n">
-        <v>0.945244</v>
+        <v>0.396711</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.457295</v>
+        <v>0.239809</v>
       </c>
       <c r="C53" t="n">
-        <v>0.887759</v>
+        <v>0.459258</v>
       </c>
       <c r="D53" t="n">
-        <v>0.813238</v>
+        <v>0.434426</v>
       </c>
       <c r="E53" t="n">
-        <v>0.374475</v>
+        <v>0.178649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.816756</v>
+        <v>0.393332</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.432609</v>
+        <v>0.234659</v>
       </c>
       <c r="C54" t="n">
-        <v>0.859889</v>
+        <v>0.458041</v>
       </c>
       <c r="D54" t="n">
-        <v>0.714786</v>
+        <v>0.433623</v>
       </c>
       <c r="E54" t="n">
-        <v>0.39069</v>
+        <v>0.176637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.644185</v>
+        <v>0.390666</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.477954</v>
+        <v>0.229273</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9176299999999999</v>
+        <v>0.453953</v>
       </c>
       <c r="D55" t="n">
-        <v>0.688485</v>
+        <v>0.433032</v>
       </c>
       <c r="E55" t="n">
-        <v>0.336713</v>
+        <v>0.174044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.729614</v>
+        <v>0.38773</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.462397</v>
+        <v>0.223227</v>
       </c>
       <c r="C56" t="n">
-        <v>0.808123</v>
+        <v>0.450615</v>
       </c>
       <c r="D56" t="n">
-        <v>0.741499</v>
+        <v>0.434108</v>
       </c>
       <c r="E56" t="n">
-        <v>0.312649</v>
+        <v>0.171942</v>
       </c>
       <c r="F56" t="n">
-        <v>0.807992</v>
+        <v>0.384301</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.482722</v>
+        <v>0.217614</v>
       </c>
       <c r="C57" t="n">
-        <v>0.839214</v>
+        <v>0.448941</v>
       </c>
       <c r="D57" t="n">
-        <v>0.852573</v>
+        <v>0.433434</v>
       </c>
       <c r="E57" t="n">
-        <v>0.401082</v>
+        <v>0.170235</v>
       </c>
       <c r="F57" t="n">
-        <v>0.767567</v>
+        <v>0.383555</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.422161</v>
+        <v>0.211941</v>
       </c>
       <c r="C58" t="n">
-        <v>0.934839</v>
+        <v>0.442007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8803569999999999</v>
+        <v>0.435488</v>
       </c>
       <c r="E58" t="n">
-        <v>0.398879</v>
+        <v>0.168001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.836131</v>
+        <v>0.380366</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.421042</v>
+        <v>0.20583</v>
       </c>
       <c r="C59" t="n">
-        <v>0.924284</v>
+        <v>0.440544</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0362</v>
+        <v>0.436576</v>
       </c>
       <c r="E59" t="n">
-        <v>0.369884</v>
+        <v>0.165668</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7213540000000001</v>
+        <v>0.377849</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.416114</v>
+        <v>0.200294</v>
       </c>
       <c r="C60" t="n">
-        <v>1.00508</v>
+        <v>0.434355</v>
       </c>
       <c r="D60" t="n">
-        <v>0.894139</v>
+        <v>0.436503</v>
       </c>
       <c r="E60" t="n">
-        <v>0.353161</v>
+        <v>0.163422</v>
       </c>
       <c r="F60" t="n">
-        <v>0.654626</v>
+        <v>0.376703</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4319</v>
+        <v>0.194517</v>
       </c>
       <c r="C61" t="n">
-        <v>0.763369</v>
+        <v>0.431887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.977683</v>
+        <v>0.437946</v>
       </c>
       <c r="E61" t="n">
-        <v>0.291056</v>
+        <v>0.161503</v>
       </c>
       <c r="F61" t="n">
-        <v>0.676264</v>
+        <v>0.374228</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.400609</v>
+        <v>0.189097</v>
       </c>
       <c r="C62" t="n">
-        <v>0.735301</v>
+        <v>0.426819</v>
       </c>
       <c r="D62" t="n">
-        <v>0.880978</v>
+        <v>0.443317</v>
       </c>
       <c r="E62" t="n">
-        <v>0.356053</v>
+        <v>0.159373</v>
       </c>
       <c r="F62" t="n">
-        <v>0.79949</v>
+        <v>0.370908</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.371641</v>
+        <v>0.183078</v>
       </c>
       <c r="C63" t="n">
-        <v>0.861233</v>
+        <v>0.421294</v>
       </c>
       <c r="D63" t="n">
-        <v>0.95067</v>
+        <v>0.445809</v>
       </c>
       <c r="E63" t="n">
-        <v>0.342411</v>
+        <v>0.157348</v>
       </c>
       <c r="F63" t="n">
-        <v>0.846035</v>
+        <v>0.36748</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.392838</v>
+        <v>0.17724</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8624849999999999</v>
+        <v>0.413304</v>
       </c>
       <c r="D64" t="n">
-        <v>0.976071</v>
+        <v>0.459097</v>
       </c>
       <c r="E64" t="n">
-        <v>0.317101</v>
+        <v>0.154486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.592882</v>
+        <v>0.366002</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.352743</v>
+        <v>0.170914</v>
       </c>
       <c r="C65" t="n">
-        <v>0.858475</v>
+        <v>0.407075</v>
       </c>
       <c r="D65" t="n">
-        <v>0.856741</v>
+        <v>0.464832</v>
       </c>
       <c r="E65" t="n">
-        <v>0.32902</v>
+        <v>0.151943</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7776459999999999</v>
+        <v>0.363247</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.351499</v>
+        <v>0.163986</v>
       </c>
       <c r="C66" t="n">
-        <v>0.900371</v>
+        <v>0.399658</v>
       </c>
       <c r="D66" t="n">
-        <v>1.19459</v>
+        <v>0.4744</v>
       </c>
       <c r="E66" t="n">
-        <v>0.335217</v>
+        <v>0.183925</v>
       </c>
       <c r="F66" t="n">
-        <v>0.741008</v>
+        <v>0.398452</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.459223</v>
+        <v>0.240649</v>
       </c>
       <c r="C67" t="n">
-        <v>1.10208</v>
+        <v>0.481598</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08127</v>
+        <v>0.483179</v>
       </c>
       <c r="E67" t="n">
-        <v>0.418725</v>
+        <v>0.181496</v>
       </c>
       <c r="F67" t="n">
-        <v>0.884094</v>
+        <v>0.395918</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.481553</v>
+        <v>0.235651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.772359</v>
+        <v>0.481123</v>
       </c>
       <c r="D68" t="n">
-        <v>1.04028</v>
+        <v>0.488393</v>
       </c>
       <c r="E68" t="n">
-        <v>0.403085</v>
+        <v>0.178261</v>
       </c>
       <c r="F68" t="n">
-        <v>0.800891</v>
+        <v>0.392892</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.50197</v>
+        <v>0.230153</v>
       </c>
       <c r="C69" t="n">
-        <v>0.944276</v>
+        <v>0.483935</v>
       </c>
       <c r="D69" t="n">
-        <v>0.887818</v>
+        <v>0.49609</v>
       </c>
       <c r="E69" t="n">
-        <v>0.388165</v>
+        <v>0.175799</v>
       </c>
       <c r="F69" t="n">
-        <v>0.721058</v>
+        <v>0.391034</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.374322</v>
+        <v>0.224541</v>
       </c>
       <c r="C70" t="n">
-        <v>0.842212</v>
+        <v>0.487527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.832223</v>
+        <v>0.49946</v>
       </c>
       <c r="E70" t="n">
-        <v>0.324366</v>
+        <v>0.173156</v>
       </c>
       <c r="F70" t="n">
-        <v>0.773394</v>
+        <v>0.389136</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.42434</v>
+        <v>0.218646</v>
       </c>
       <c r="C71" t="n">
-        <v>1.04561</v>
+        <v>0.489822</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01275</v>
+        <v>0.508474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.306799</v>
+        <v>0.170872</v>
       </c>
       <c r="F71" t="n">
-        <v>0.732449</v>
+        <v>0.387536</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.451631</v>
+        <v>0.212809</v>
       </c>
       <c r="C72" t="n">
-        <v>0.934658</v>
+        <v>0.497234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9985619999999999</v>
+        <v>0.514436</v>
       </c>
       <c r="E72" t="n">
-        <v>0.380322</v>
+        <v>0.169127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.744986</v>
+        <v>0.386089</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.385602</v>
+        <v>0.207231</v>
       </c>
       <c r="C73" t="n">
-        <v>0.922698</v>
+        <v>0.500972</v>
       </c>
       <c r="D73" t="n">
-        <v>0.972701</v>
+        <v>0.517641</v>
       </c>
       <c r="E73" t="n">
-        <v>0.377687</v>
+        <v>0.167079</v>
       </c>
       <c r="F73" t="n">
-        <v>0.713148</v>
+        <v>0.384483</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.340323</v>
+        <v>0.20104</v>
       </c>
       <c r="C74" t="n">
-        <v>0.966036</v>
+        <v>0.489835</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09502</v>
+        <v>0.526363</v>
       </c>
       <c r="E74" t="n">
-        <v>0.283528</v>
+        <v>0.164891</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.3831</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.406448</v>
+        <v>0.195745</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00466</v>
+        <v>0.503349</v>
       </c>
       <c r="D75" t="n">
-        <v>1.19038</v>
+        <v>0.5315260000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.339591</v>
+        <v>0.162543</v>
       </c>
       <c r="F75" t="n">
-        <v>0.728615</v>
+        <v>0.380285</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.372309</v>
+        <v>0.189766</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8787430000000001</v>
+        <v>0.505511</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06462</v>
+        <v>0.538436</v>
       </c>
       <c r="E76" t="n">
-        <v>0.318479</v>
+        <v>0.16041</v>
       </c>
       <c r="F76" t="n">
-        <v>0.812133</v>
+        <v>0.379836</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.40529</v>
+        <v>0.184103</v>
       </c>
       <c r="C77" t="n">
-        <v>0.867158</v>
+        <v>0.485069</v>
       </c>
       <c r="D77" t="n">
-        <v>1.12188</v>
+        <v>0.544011</v>
       </c>
       <c r="E77" t="n">
-        <v>0.354387</v>
+        <v>0.15811</v>
       </c>
       <c r="F77" t="n">
-        <v>0.763211</v>
+        <v>0.378099</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.366788</v>
+        <v>0.178599</v>
       </c>
       <c r="C78" t="n">
-        <v>0.863029</v>
+        <v>0.49982</v>
       </c>
       <c r="D78" t="n">
-        <v>1.13584</v>
+        <v>0.554674</v>
       </c>
       <c r="E78" t="n">
-        <v>0.358977</v>
+        <v>0.155417</v>
       </c>
       <c r="F78" t="n">
-        <v>0.754789</v>
+        <v>0.376414</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.353581</v>
+        <v>0.172361</v>
       </c>
       <c r="C79" t="n">
-        <v>0.857035</v>
+        <v>0.493894</v>
       </c>
       <c r="D79" t="n">
-        <v>1.11866</v>
+        <v>0.554785</v>
       </c>
       <c r="E79" t="n">
-        <v>0.344151</v>
+        <v>0.152711</v>
       </c>
       <c r="F79" t="n">
-        <v>0.758001</v>
+        <v>0.372866</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.341895</v>
+        <v>0.165727</v>
       </c>
       <c r="C80" t="n">
-        <v>0.980978</v>
+        <v>0.488555</v>
       </c>
       <c r="D80" t="n">
-        <v>1.0566</v>
+        <v>0.553782</v>
       </c>
       <c r="E80" t="n">
-        <v>0.422268</v>
+        <v>0.185302</v>
       </c>
       <c r="F80" t="n">
-        <v>0.845757</v>
+        <v>0.408163</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.478931</v>
+        <v>0.24171</v>
       </c>
       <c r="C81" t="n">
-        <v>1.046</v>
+        <v>0.534054</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06639</v>
+        <v>0.552387</v>
       </c>
       <c r="E81" t="n">
-        <v>0.399662</v>
+        <v>0.182436</v>
       </c>
       <c r="F81" t="n">
-        <v>0.895204</v>
+        <v>0.405049</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.473952</v>
+        <v>0.236826</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1817</v>
+        <v>0.531237</v>
       </c>
       <c r="D82" t="n">
-        <v>1.07796</v>
+        <v>0.554111</v>
       </c>
       <c r="E82" t="n">
-        <v>0.357102</v>
+        <v>0.179322</v>
       </c>
       <c r="F82" t="n">
-        <v>0.888807</v>
+        <v>0.402965</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.473223</v>
+        <v>0.231568</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9818440000000001</v>
+        <v>0.528038</v>
       </c>
       <c r="D83" t="n">
-        <v>1.00478</v>
+        <v>0.5538689999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.28585</v>
+        <v>0.176702</v>
       </c>
       <c r="F83" t="n">
-        <v>0.750941</v>
+        <v>0.400093</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.453495</v>
+        <v>0.225794</v>
       </c>
       <c r="C84" t="n">
-        <v>1.11758</v>
+        <v>0.557381</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14549</v>
+        <v>0.594209</v>
       </c>
       <c r="E84" t="n">
-        <v>0.294372</v>
+        <v>0.174468</v>
       </c>
       <c r="F84" t="n">
-        <v>0.756256</v>
+        <v>0.440992</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4327</v>
+        <v>0.220046</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0321</v>
+        <v>0.549577</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13669</v>
+        <v>0.596421</v>
       </c>
       <c r="E85" t="n">
-        <v>0.331826</v>
+        <v>0.172069</v>
       </c>
       <c r="F85" t="n">
-        <v>0.774541</v>
+        <v>0.435628</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.479899</v>
+        <v>0.213642</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0897</v>
+        <v>0.545262</v>
       </c>
       <c r="D86" t="n">
-        <v>1.0594</v>
+        <v>0.597286</v>
       </c>
       <c r="E86" t="n">
-        <v>0.361745</v>
+        <v>0.16973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.74076</v>
+        <v>0.433205</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.421663</v>
+        <v>0.208073</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0478</v>
+        <v>0.538462</v>
       </c>
       <c r="D87" t="n">
-        <v>1.17666</v>
+        <v>0.598576</v>
       </c>
       <c r="E87" t="n">
-        <v>0.368666</v>
+        <v>0.167769</v>
       </c>
       <c r="F87" t="n">
-        <v>0.761058</v>
+        <v>0.434541</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378097</v>
+        <v>0.202295</v>
       </c>
       <c r="C88" t="n">
-        <v>1.18249</v>
+        <v>0.531479</v>
       </c>
       <c r="D88" t="n">
-        <v>1.20982</v>
+        <v>0.601366</v>
       </c>
       <c r="E88" t="n">
-        <v>0.297688</v>
+        <v>0.16588</v>
       </c>
       <c r="F88" t="n">
-        <v>0.602931</v>
+        <v>0.426808</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.393272</v>
+        <v>0.196636</v>
       </c>
       <c r="C89" t="n">
-        <v>1.04864</v>
+        <v>0.559206</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17205</v>
+        <v>0.600994</v>
       </c>
       <c r="E89" t="n">
-        <v>0.313996</v>
+        <v>0.163323</v>
       </c>
       <c r="F89" t="n">
-        <v>0.796154</v>
+        <v>0.427851</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.36691</v>
+        <v>0.191179</v>
       </c>
       <c r="C90" t="n">
-        <v>0.996804</v>
+        <v>0.553406</v>
       </c>
       <c r="D90" t="n">
-        <v>1.20762</v>
+        <v>0.604304</v>
       </c>
       <c r="E90" t="n">
-        <v>0.303759</v>
+        <v>0.16096</v>
       </c>
       <c r="F90" t="n">
-        <v>0.772708</v>
+        <v>0.423028</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.347885</v>
+        <v>0.185713</v>
       </c>
       <c r="C91" t="n">
-        <v>1.08598</v>
+        <v>0.546647</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16441</v>
+        <v>0.606926</v>
       </c>
       <c r="E91" t="n">
-        <v>0.296969</v>
+        <v>0.158668</v>
       </c>
       <c r="F91" t="n">
-        <v>0.889724</v>
+        <v>0.423034</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.337484</v>
+        <v>0.179973</v>
       </c>
       <c r="C92" t="n">
-        <v>0.943002</v>
+        <v>0.544185</v>
       </c>
       <c r="D92" t="n">
-        <v>1.22744</v>
+        <v>0.536489</v>
       </c>
       <c r="E92" t="n">
-        <v>0.357646</v>
+        <v>0.156505</v>
       </c>
       <c r="F92" t="n">
-        <v>0.959916</v>
+        <v>0.419665</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.344866</v>
+        <v>0.173965</v>
       </c>
       <c r="C93" t="n">
-        <v>0.986977</v>
+        <v>0.53549</v>
       </c>
       <c r="D93" t="n">
-        <v>0.799964</v>
+        <v>0.536896</v>
       </c>
       <c r="E93" t="n">
-        <v>0.238994</v>
+        <v>0.15379</v>
       </c>
       <c r="F93" t="n">
-        <v>0.91439</v>
+        <v>0.412444</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.335049</v>
+        <v>0.16715</v>
       </c>
       <c r="C94" t="n">
-        <v>1.0295</v>
+        <v>0.528116</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04382</v>
+        <v>0.539503</v>
       </c>
       <c r="E94" t="n">
-        <v>0.355185</v>
+        <v>0.189488</v>
       </c>
       <c r="F94" t="n">
-        <v>0.784929</v>
+        <v>0.454216</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.510626</v>
+        <v>0.24258</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04075</v>
+        <v>0.564492</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13159</v>
+        <v>0.539268</v>
       </c>
       <c r="E95" t="n">
-        <v>0.338673</v>
+        <v>0.184794</v>
       </c>
       <c r="F95" t="n">
-        <v>0.847296</v>
+        <v>0.446828</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.552096</v>
+        <v>0.237496</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15001</v>
+        <v>0.561238</v>
       </c>
       <c r="D96" t="n">
-        <v>1.17428</v>
+        <v>0.541982</v>
       </c>
       <c r="E96" t="n">
-        <v>0.336502</v>
+        <v>0.180128</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09826</v>
+        <v>0.448795</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.455096</v>
+        <v>0.231991</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05377</v>
+        <v>0.555555</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08301</v>
+        <v>0.5441510000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.413657</v>
+        <v>0.177216</v>
       </c>
       <c r="F97" t="n">
-        <v>0.863689</v>
+        <v>0.442749</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.431926</v>
+        <v>0.226752</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1068</v>
+        <v>0.547001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04077</v>
+        <v>0.542865</v>
       </c>
       <c r="E98" t="n">
-        <v>0.412898</v>
+        <v>0.174748</v>
       </c>
       <c r="F98" t="n">
-        <v>0.804924</v>
+        <v>0.44028</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.475233</v>
+        <v>0.220903</v>
       </c>
       <c r="C99" t="n">
-        <v>0.998709</v>
+        <v>0.541613</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09722</v>
+        <v>0.546829</v>
       </c>
       <c r="E99" t="n">
-        <v>0.378603</v>
+        <v>0.1727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.815451</v>
+        <v>0.436552</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498543</v>
+        <v>0.214878</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07673</v>
+        <v>0.561414</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09139</v>
+        <v>0.547891</v>
       </c>
       <c r="E100" t="n">
-        <v>0.378564</v>
+        <v>0.170472</v>
       </c>
       <c r="F100" t="n">
-        <v>0.851075</v>
+        <v>0.434181</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.430041</v>
+        <v>0.208974</v>
       </c>
       <c r="C101" t="n">
-        <v>1.18781</v>
+        <v>0.558017</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08854</v>
+        <v>0.55236</v>
       </c>
       <c r="E101" t="n">
-        <v>0.366647</v>
+        <v>0.168202</v>
       </c>
       <c r="F101" t="n">
-        <v>0.883113</v>
+        <v>0.431419</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.427068</v>
+        <v>0.203466</v>
       </c>
       <c r="C102" t="n">
-        <v>0.892101</v>
+        <v>0.553859</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09252</v>
+        <v>0.555886</v>
       </c>
       <c r="E102" t="n">
-        <v>0.333237</v>
+        <v>0.165815</v>
       </c>
       <c r="F102" t="n">
-        <v>0.770617</v>
+        <v>0.427605</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.417401</v>
+        <v>0.197618</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00292</v>
+        <v>0.549383</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01324</v>
+        <v>0.560077</v>
       </c>
       <c r="E103" t="n">
-        <v>0.369758</v>
+        <v>0.163533</v>
       </c>
       <c r="F103" t="n">
-        <v>0.832008</v>
+        <v>0.426003</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.375169</v>
+        <v>0.192034</v>
       </c>
       <c r="C104" t="n">
-        <v>1.02092</v>
+        <v>0.556362</v>
       </c>
       <c r="D104" t="n">
-        <v>1.03519</v>
+        <v>0.563769</v>
       </c>
       <c r="E104" t="n">
-        <v>0.344991</v>
+        <v>0.161274</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7611</v>
+        <v>0.42175</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.392861</v>
+        <v>0.186529</v>
       </c>
       <c r="C105" t="n">
-        <v>0.952815</v>
+        <v>0.550244</v>
       </c>
       <c r="D105" t="n">
-        <v>1.11575</v>
+        <v>0.570621</v>
       </c>
       <c r="E105" t="n">
-        <v>0.36519</v>
+        <v>0.159329</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8187950000000001</v>
+        <v>0.418179</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.349975</v>
+        <v>0.18097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9719410000000001</v>
+        <v>0.542317</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10632</v>
+        <v>0.571639</v>
       </c>
       <c r="E106" t="n">
-        <v>0.358254</v>
+        <v>0.156922</v>
       </c>
       <c r="F106" t="n">
-        <v>0.846603</v>
+        <v>0.415355</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.343111</v>
+        <v>0.175053</v>
       </c>
       <c r="C107" t="n">
-        <v>0.937212</v>
+        <v>0.53649</v>
       </c>
       <c r="D107" t="n">
-        <v>0.975969</v>
+        <v>0.516176</v>
       </c>
       <c r="E107" t="n">
-        <v>0.315189</v>
+        <v>0.154115</v>
       </c>
       <c r="F107" t="n">
-        <v>0.830573</v>
+        <v>0.414148</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.354109</v>
+        <v>0.168898</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9251740000000001</v>
+        <v>0.526491</v>
       </c>
       <c r="D108" t="n">
-        <v>0.976706</v>
+        <v>0.518506</v>
       </c>
       <c r="E108" t="n">
-        <v>0.429438</v>
+        <v>0.189352</v>
       </c>
       <c r="F108" t="n">
-        <v>0.942148</v>
+        <v>0.451274</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.332481</v>
+        <v>0.162044</v>
       </c>
       <c r="C109" t="n">
-        <v>0.896273</v>
+        <v>0.516153</v>
       </c>
       <c r="D109" t="n">
-        <v>0.997369</v>
+        <v>0.523319</v>
       </c>
       <c r="E109" t="n">
-        <v>0.412017</v>
+        <v>0.185708</v>
       </c>
       <c r="F109" t="n">
-        <v>0.934191</v>
+        <v>0.447291</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.472033</v>
+        <v>0.238563</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05536</v>
+        <v>0.519753</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1313</v>
+        <v>0.523008</v>
       </c>
       <c r="E110" t="n">
-        <v>0.393706</v>
+        <v>0.181483</v>
       </c>
       <c r="F110" t="n">
-        <v>0.831159</v>
+        <v>0.445737</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.490616</v>
+        <v>0.233527</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07441</v>
+        <v>0.52006</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12569</v>
+        <v>0.5274219999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.357766</v>
+        <v>0.179112</v>
       </c>
       <c r="F111" t="n">
-        <v>0.960941</v>
+        <v>0.443525</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.471723</v>
+        <v>0.228073</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15121</v>
+        <v>0.537312</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14048</v>
+        <v>0.526564</v>
       </c>
       <c r="E112" t="n">
-        <v>0.352401</v>
+        <v>0.175839</v>
       </c>
       <c r="F112" t="n">
-        <v>0.867121</v>
+        <v>0.439856</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.451411</v>
+        <v>0.221797</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08825</v>
+        <v>0.537103</v>
       </c>
       <c r="D113" t="n">
-        <v>0.983413</v>
+        <v>0.533197</v>
       </c>
       <c r="E113" t="n">
-        <v>0.367013</v>
+        <v>0.173671</v>
       </c>
       <c r="F113" t="n">
-        <v>0.940367</v>
+        <v>0.435843</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.426141</v>
+        <v>0.216048</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9865</v>
+        <v>0.536242</v>
       </c>
       <c r="D114" t="n">
-        <v>1.03347</v>
+        <v>0.536149</v>
       </c>
       <c r="E114" t="n">
-        <v>0.34627</v>
+        <v>0.170825</v>
       </c>
       <c r="F114" t="n">
-        <v>0.906738</v>
+        <v>0.432454</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.405811</v>
+        <v>0.21018</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06468</v>
+        <v>0.5647759999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00719</v>
+        <v>0.53859</v>
       </c>
       <c r="E115" t="n">
-        <v>0.344102</v>
+        <v>0.168693</v>
       </c>
       <c r="F115" t="n">
-        <v>0.918884</v>
+        <v>0.430551</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.442596</v>
+        <v>0.204283</v>
       </c>
       <c r="C116" t="n">
-        <v>0.979129</v>
+        <v>0.563499</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07916</v>
+        <v>0.54386</v>
       </c>
       <c r="E116" t="n">
-        <v>0.246782</v>
+        <v>0.16637</v>
       </c>
       <c r="F116" t="n">
-        <v>0.856752</v>
+        <v>0.427372</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.383274</v>
+        <v>0.198519</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03133</v>
+        <v>0.562132</v>
       </c>
       <c r="D117" t="n">
-        <v>1.15671</v>
+        <v>0.54858</v>
       </c>
       <c r="E117" t="n">
-        <v>0.391512</v>
+        <v>0.16404</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8845460000000001</v>
+        <v>0.423897</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364278</v>
+        <v>0.192926</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04695</v>
+        <v>0.524578</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17622</v>
+        <v>0.552339</v>
       </c>
       <c r="E118" t="n">
-        <v>0.342321</v>
+        <v>0.1617</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7742520000000001</v>
+        <v>0.422227</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.337407</v>
+        <v>0.187563</v>
       </c>
       <c r="C119" t="n">
-        <v>0.953702</v>
+        <v>0.519015</v>
       </c>
       <c r="D119" t="n">
-        <v>1.30078</v>
+        <v>0.557916</v>
       </c>
       <c r="E119" t="n">
-        <v>0.385866</v>
+        <v>0.159537</v>
       </c>
       <c r="F119" t="n">
-        <v>0.878466</v>
+        <v>0.417927</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.427244</v>
+        <v>0.182143</v>
       </c>
       <c r="C120" t="n">
-        <v>0.944632</v>
+        <v>0.488522</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05901</v>
+        <v>0.564241</v>
       </c>
       <c r="E120" t="n">
-        <v>0.344257</v>
+        <v>0.157285</v>
       </c>
       <c r="F120" t="n">
-        <v>0.853193</v>
+        <v>0.416069</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.36321</v>
+        <v>0.176255</v>
       </c>
       <c r="C121" t="n">
-        <v>0.913624</v>
+        <v>0.527726</v>
       </c>
       <c r="D121" t="n">
-        <v>1.11201</v>
+        <v>0.5360009999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.288434</v>
+        <v>0.154614</v>
       </c>
       <c r="F121" t="n">
-        <v>0.847204</v>
+        <v>0.412705</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.369217</v>
+        <v>0.169812</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00137</v>
+        <v>0.5210090000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00847</v>
+        <v>0.533368</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297247</v>
+        <v>0.151828</v>
       </c>
       <c r="F122" t="n">
-        <v>0.910428</v>
+        <v>0.409281</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.338949</v>
+        <v>0.162701</v>
       </c>
       <c r="C123" t="n">
-        <v>0.853409</v>
+        <v>0.5130670000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>1.0859</v>
+        <v>0.536328</v>
       </c>
       <c r="E123" t="n">
-        <v>0.36342</v>
+        <v>0.187809</v>
       </c>
       <c r="F123" t="n">
-        <v>0.903873</v>
+        <v>0.447147</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.480484</v>
+        <v>0.239127</v>
       </c>
       <c r="C124" t="n">
-        <v>0.982005</v>
+        <v>0.5100749999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.972712</v>
+        <v>0.534924</v>
       </c>
       <c r="E124" t="n">
-        <v>0.338347</v>
+        <v>0.182807</v>
       </c>
       <c r="F124" t="n">
-        <v>1.0037</v>
+        <v>0.443253</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.479892</v>
+        <v>0.233907</v>
       </c>
       <c r="C125" t="n">
-        <v>1.07878</v>
+        <v>0.506537</v>
       </c>
       <c r="D125" t="n">
-        <v>1.11188</v>
+        <v>0.538676</v>
       </c>
       <c r="E125" t="n">
-        <v>0.363067</v>
+        <v>0.180128</v>
       </c>
       <c r="F125" t="n">
-        <v>0.847724</v>
+        <v>0.441343</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.479995</v>
+        <v>0.228743</v>
       </c>
       <c r="C126" t="n">
-        <v>1.14345</v>
+        <v>0.5191249999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>1.11271</v>
+        <v>0.539918</v>
       </c>
       <c r="E126" t="n">
-        <v>0.372301</v>
+        <v>0.175724</v>
       </c>
       <c r="F126" t="n">
-        <v>0.853866</v>
+        <v>0.437906</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.434177</v>
+        <v>0.223021</v>
       </c>
       <c r="C127" t="n">
-        <v>1.07234</v>
+        <v>0.500607</v>
       </c>
       <c r="D127" t="n">
-        <v>1.06639</v>
+        <v>0.543072</v>
       </c>
       <c r="E127" t="n">
-        <v>0.339497</v>
+        <v>0.173659</v>
       </c>
       <c r="F127" t="n">
-        <v>0.892468</v>
+        <v>0.436952</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.435167</v>
+        <v>0.216982</v>
       </c>
       <c r="C128" t="n">
-        <v>1.05896</v>
+        <v>0.57481</v>
       </c>
       <c r="D128" t="n">
-        <v>1.08514</v>
+        <v>0.545972</v>
       </c>
       <c r="E128" t="n">
-        <v>0.382493</v>
+        <v>0.171462</v>
       </c>
       <c r="F128" t="n">
-        <v>0.790571</v>
+        <v>0.432313</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.429288</v>
+        <v>0.210844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9142169999999999</v>
+        <v>0.491535</v>
       </c>
       <c r="D129" t="n">
-        <v>1.12645</v>
+        <v>0.549364</v>
       </c>
       <c r="E129" t="n">
-        <v>0.357432</v>
+        <v>0.168991</v>
       </c>
       <c r="F129" t="n">
-        <v>0.744353</v>
+        <v>0.429222</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.391983</v>
+        <v>0.205241</v>
       </c>
       <c r="C130" t="n">
-        <v>1.06844</v>
+        <v>0.521451</v>
       </c>
       <c r="D130" t="n">
-        <v>1.0358</v>
+        <v>0.551934</v>
       </c>
       <c r="E130" t="n">
-        <v>0.340201</v>
+        <v>0.166901</v>
       </c>
       <c r="F130" t="n">
-        <v>0.788095</v>
+        <v>0.426897</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.409557</v>
+        <v>0.199389</v>
       </c>
       <c r="C131" t="n">
-        <v>0.896405</v>
+        <v>0.538573</v>
       </c>
       <c r="D131" t="n">
-        <v>0.902163</v>
+        <v>0.556173</v>
       </c>
       <c r="E131" t="n">
-        <v>0.356074</v>
+        <v>0.164368</v>
       </c>
       <c r="F131" t="n">
-        <v>0.802938</v>
+        <v>0.424648</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368853</v>
+        <v>0.193961</v>
       </c>
       <c r="C132" t="n">
-        <v>0.843486</v>
+        <v>0.572449</v>
       </c>
       <c r="D132" t="n">
-        <v>1.08293</v>
+        <v>0.56049</v>
       </c>
       <c r="E132" t="n">
-        <v>0.373644</v>
+        <v>0.16217</v>
       </c>
       <c r="F132" t="n">
-        <v>0.876139</v>
+        <v>0.418984</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.382811</v>
+        <v>0.188651</v>
       </c>
       <c r="C133" t="n">
-        <v>1.09288</v>
+        <v>0.518807</v>
       </c>
       <c r="D133" t="n">
-        <v>0.904946</v>
+        <v>0.563639</v>
       </c>
       <c r="E133" t="n">
-        <v>0.363583</v>
+        <v>0.159946</v>
       </c>
       <c r="F133" t="n">
-        <v>0.760827</v>
+        <v>0.418881</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.345294</v>
+        <v>0.182958</v>
       </c>
       <c r="C134" t="n">
-        <v>0.851657</v>
+        <v>0.468493</v>
       </c>
       <c r="D134" t="n">
-        <v>0.92288</v>
+        <v>0.56692</v>
       </c>
       <c r="E134" t="n">
-        <v>0.314672</v>
+        <v>0.157686</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7927999999999999</v>
+        <v>0.414957</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349123</v>
+        <v>0.177164</v>
       </c>
       <c r="C135" t="n">
-        <v>0.821292</v>
+        <v>0.473786</v>
       </c>
       <c r="D135" t="n">
-        <v>0.940914</v>
+        <v>0.535618</v>
       </c>
       <c r="E135" t="n">
-        <v>0.282707</v>
+        <v>0.155055</v>
       </c>
       <c r="F135" t="n">
-        <v>0.823627</v>
+        <v>0.412604</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.372139</v>
+        <v>0.171168</v>
       </c>
       <c r="C136" t="n">
-        <v>0.881367</v>
+        <v>0.464033</v>
       </c>
       <c r="D136" t="n">
-        <v>1.00589</v>
+        <v>0.537644</v>
       </c>
       <c r="E136" t="n">
-        <v>0.305793</v>
+        <v>0.152175</v>
       </c>
       <c r="F136" t="n">
-        <v>0.698977</v>
+        <v>0.410951</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.352465</v>
+        <v>0.164786</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8369450000000001</v>
+        <v>0.480129</v>
       </c>
       <c r="D137" t="n">
-        <v>0.960246</v>
+        <v>0.539771</v>
       </c>
       <c r="E137" t="n">
-        <v>0.404724</v>
+        <v>0.191034</v>
       </c>
       <c r="F137" t="n">
-        <v>0.762563</v>
+        <v>0.447286</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.426611</v>
+        <v>0.240146</v>
       </c>
       <c r="C138" t="n">
-        <v>0.910585</v>
+        <v>0.528142</v>
       </c>
       <c r="D138" t="n">
-        <v>0.792628</v>
+        <v>0.54076</v>
       </c>
       <c r="E138" t="n">
-        <v>0.331234</v>
+        <v>0.183488</v>
       </c>
       <c r="F138" t="n">
-        <v>0.855386</v>
+        <v>0.444908</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.423404</v>
+        <v>0.235398</v>
       </c>
       <c r="C139" t="n">
-        <v>0.788567</v>
+        <v>0.501544</v>
       </c>
       <c r="D139" t="n">
-        <v>0.968946</v>
+        <v>0.540707</v>
       </c>
       <c r="E139" t="n">
-        <v>0.375453</v>
+        <v>0.182976</v>
       </c>
       <c r="F139" t="n">
-        <v>0.801605</v>
+        <v>0.441869</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.415664</v>
+        <v>0.229762</v>
       </c>
       <c r="C140" t="n">
-        <v>0.885087</v>
+        <v>0.498787</v>
       </c>
       <c r="D140" t="n">
-        <v>0.870058</v>
+        <v>0.541905</v>
       </c>
       <c r="E140" t="n">
-        <v>0.332269</v>
+        <v>0.177652</v>
       </c>
       <c r="F140" t="n">
-        <v>0.713758</v>
+        <v>0.437899</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.423698</v>
+        <v>0.2242</v>
       </c>
       <c r="C141" t="n">
-        <v>0.83733</v>
+        <v>0.587835</v>
       </c>
       <c r="D141" t="n">
-        <v>0.849939</v>
+        <v>0.545709</v>
       </c>
       <c r="E141" t="n">
-        <v>0.359013</v>
+        <v>0.175507</v>
       </c>
       <c r="F141" t="n">
-        <v>0.788957</v>
+        <v>0.435989</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35641</v>
+        <v>0.218138</v>
       </c>
       <c r="C142" t="n">
-        <v>0.832607</v>
+        <v>0.514715</v>
       </c>
       <c r="D142" t="n">
-        <v>1.04752</v>
+        <v>0.54682</v>
       </c>
       <c r="E142" t="n">
-        <v>0.349775</v>
+        <v>0.172198</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8112470000000001</v>
+        <v>0.433736</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.346625</v>
+        <v>0.212072</v>
       </c>
       <c r="C143" t="n">
-        <v>0.798189</v>
+        <v>0.48803</v>
       </c>
       <c r="D143" t="n">
-        <v>1.07442</v>
+        <v>0.548486</v>
       </c>
       <c r="E143" t="n">
-        <v>0.332431</v>
+        <v>0.169464</v>
       </c>
       <c r="F143" t="n">
-        <v>0.65389</v>
+        <v>0.429019</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18989</v>
+        <v>0.193469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426358</v>
+        <v>0.427171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.413472</v>
+        <v>0.414696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.153118</v>
+        <v>0.152501</v>
       </c>
       <c r="F2" t="n">
-        <v>0.366918</v>
+        <v>0.371512</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.184782</v>
+        <v>0.189015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.426489</v>
+        <v>0.424316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.415809</v>
+        <v>0.412503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.151828</v>
+        <v>0.15211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.366393</v>
+        <v>0.37249</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.180862</v>
+        <v>0.182221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410726</v>
+        <v>0.419801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.415307</v>
+        <v>0.41495</v>
       </c>
       <c r="E4" t="n">
-        <v>0.149205</v>
+        <v>0.149107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36503</v>
+        <v>0.370444</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176539</v>
+        <v>0.177035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.407516</v>
+        <v>0.409971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41754</v>
+        <v>0.417857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.147829</v>
+        <v>0.146899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.362824</v>
+        <v>0.368393</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173248</v>
+        <v>0.174634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.417237</v>
+        <v>0.415764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.419917</v>
+        <v>0.422193</v>
       </c>
       <c r="E6" t="n">
-        <v>0.146321</v>
+        <v>0.14515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.359368</v>
+        <v>0.365669</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166312</v>
+        <v>0.167149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.405469</v>
+        <v>0.405674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41589</v>
+        <v>0.415369</v>
       </c>
       <c r="E7" t="n">
-        <v>0.144902</v>
+        <v>0.142629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.359196</v>
+        <v>0.364614</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160182</v>
+        <v>0.162548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397879</v>
+        <v>0.397832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.416733</v>
+        <v>0.418734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.141332</v>
+        <v>0.139649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.357401</v>
+        <v>0.363852</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154631</v>
+        <v>0.156204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.387423</v>
+        <v>0.389238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.416412</v>
+        <v>0.417184</v>
       </c>
       <c r="E9" t="n">
-        <v>0.175604</v>
+        <v>0.176614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.390504</v>
+        <v>0.394263</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240307</v>
+        <v>0.239633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.457237</v>
+        <v>0.453704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.418093</v>
+        <v>0.418635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.174918</v>
+        <v>0.174178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.387446</v>
+        <v>0.392157</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235573</v>
+        <v>0.235375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.451096</v>
+        <v>0.452219</v>
       </c>
       <c r="D11" t="n">
-        <v>0.41761</v>
+        <v>0.418832</v>
       </c>
       <c r="E11" t="n">
-        <v>0.171779</v>
+        <v>0.170916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.383804</v>
+        <v>0.388307</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.230372</v>
+        <v>0.230312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.452349</v>
+        <v>0.450101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.419295</v>
+        <v>0.419931</v>
       </c>
       <c r="E12" t="n">
-        <v>0.170017</v>
+        <v>0.169577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.380853</v>
+        <v>0.38808</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224884</v>
+        <v>0.224451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448336</v>
+        <v>0.447734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.41747</v>
+        <v>0.419887</v>
       </c>
       <c r="E13" t="n">
-        <v>0.167822</v>
+        <v>0.166851</v>
       </c>
       <c r="F13" t="n">
-        <v>0.379947</v>
+        <v>0.385498</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219076</v>
+        <v>0.218537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444333</v>
+        <v>0.44334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.418759</v>
+        <v>0.419816</v>
       </c>
       <c r="E14" t="n">
-        <v>0.166231</v>
+        <v>0.16505</v>
       </c>
       <c r="F14" t="n">
-        <v>0.376925</v>
+        <v>0.385047</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212673</v>
+        <v>0.212917</v>
       </c>
       <c r="C15" t="n">
-        <v>0.439701</v>
+        <v>0.443044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.419208</v>
+        <v>0.42212</v>
       </c>
       <c r="E15" t="n">
-        <v>0.164501</v>
+        <v>0.163398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.375329</v>
+        <v>0.381255</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207417</v>
+        <v>0.207012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.439759</v>
+        <v>0.439584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422393</v>
+        <v>0.422578</v>
       </c>
       <c r="E16" t="n">
-        <v>0.16253</v>
+        <v>0.160126</v>
       </c>
       <c r="F16" t="n">
-        <v>0.373395</v>
+        <v>0.378966</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201891</v>
+        <v>0.201042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.431997</v>
+        <v>0.429666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.423413</v>
+        <v>0.424005</v>
       </c>
       <c r="E17" t="n">
-        <v>0.161763</v>
+        <v>0.15814</v>
       </c>
       <c r="F17" t="n">
-        <v>0.370876</v>
+        <v>0.377006</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19609</v>
+        <v>0.195421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428477</v>
+        <v>0.426937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.425364</v>
+        <v>0.42588</v>
       </c>
       <c r="E18" t="n">
-        <v>0.157662</v>
+        <v>0.156544</v>
       </c>
       <c r="F18" t="n">
-        <v>0.367986</v>
+        <v>0.375494</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190376</v>
+        <v>0.189892</v>
       </c>
       <c r="C19" t="n">
-        <v>0.423616</v>
+        <v>0.420585</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426143</v>
+        <v>0.425604</v>
       </c>
       <c r="E19" t="n">
-        <v>0.157047</v>
+        <v>0.15349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.366972</v>
+        <v>0.373242</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.184569</v>
+        <v>0.184457</v>
       </c>
       <c r="C20" t="n">
-        <v>0.419796</v>
+        <v>0.413974</v>
       </c>
       <c r="D20" t="n">
-        <v>0.427369</v>
+        <v>0.429375</v>
       </c>
       <c r="E20" t="n">
-        <v>0.155557</v>
+        <v>0.151818</v>
       </c>
       <c r="F20" t="n">
-        <v>0.363851</v>
+        <v>0.370062</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178601</v>
+        <v>0.178554</v>
       </c>
       <c r="C21" t="n">
-        <v>0.413122</v>
+        <v>0.41188</v>
       </c>
       <c r="D21" t="n">
-        <v>0.422788</v>
+        <v>0.423729</v>
       </c>
       <c r="E21" t="n">
-        <v>0.150799</v>
+        <v>0.148225</v>
       </c>
       <c r="F21" t="n">
-        <v>0.361135</v>
+        <v>0.368468</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172597</v>
+        <v>0.172265</v>
       </c>
       <c r="C22" t="n">
-        <v>0.406581</v>
+        <v>0.403968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.423524</v>
+        <v>0.423676</v>
       </c>
       <c r="E22" t="n">
-        <v>0.147123</v>
+        <v>0.145625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.359624</v>
+        <v>0.366673</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165426</v>
+        <v>0.165203</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395643</v>
+        <v>0.388892</v>
       </c>
       <c r="D23" t="n">
-        <v>0.422735</v>
+        <v>0.424358</v>
       </c>
       <c r="E23" t="n">
-        <v>0.179682</v>
+        <v>0.178006</v>
       </c>
       <c r="F23" t="n">
-        <v>0.393948</v>
+        <v>0.400193</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241428</v>
+        <v>0.241784</v>
       </c>
       <c r="C24" t="n">
-        <v>0.458963</v>
+        <v>0.46015</v>
       </c>
       <c r="D24" t="n">
-        <v>0.422952</v>
+        <v>0.423479</v>
       </c>
       <c r="E24" t="n">
-        <v>0.177057</v>
+        <v>0.176124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.391894</v>
+        <v>0.397576</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236819</v>
+        <v>0.23708</v>
       </c>
       <c r="C25" t="n">
-        <v>0.452814</v>
+        <v>0.456068</v>
       </c>
       <c r="D25" t="n">
-        <v>0.423997</v>
+        <v>0.425164</v>
       </c>
       <c r="E25" t="n">
-        <v>0.174712</v>
+        <v>0.174296</v>
       </c>
       <c r="F25" t="n">
-        <v>0.386513</v>
+        <v>0.394516</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231499</v>
+        <v>0.231738</v>
       </c>
       <c r="C26" t="n">
-        <v>0.455031</v>
+        <v>0.454191</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422836</v>
+        <v>0.424513</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172225</v>
+        <v>0.171775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.385804</v>
+        <v>0.392278</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226512</v>
+        <v>0.226884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.448135</v>
+        <v>0.452212</v>
       </c>
       <c r="D27" t="n">
-        <v>0.423931</v>
+        <v>0.425741</v>
       </c>
       <c r="E27" t="n">
-        <v>0.170005</v>
+        <v>0.168655</v>
       </c>
       <c r="F27" t="n">
-        <v>0.383657</v>
+        <v>0.390502</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220471</v>
+        <v>0.220701</v>
       </c>
       <c r="C28" t="n">
-        <v>0.447168</v>
+        <v>0.448335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.425431</v>
+        <v>0.425483</v>
       </c>
       <c r="E28" t="n">
-        <v>0.167891</v>
+        <v>0.167419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.382981</v>
+        <v>0.387554</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215126</v>
+        <v>0.215029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.444564</v>
+        <v>0.443632</v>
       </c>
       <c r="D29" t="n">
-        <v>0.425432</v>
+        <v>0.425705</v>
       </c>
       <c r="E29" t="n">
-        <v>0.167026</v>
+        <v>0.164958</v>
       </c>
       <c r="F29" t="n">
-        <v>0.379802</v>
+        <v>0.383975</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20893</v>
+        <v>0.208949</v>
       </c>
       <c r="C30" t="n">
-        <v>0.440638</v>
+        <v>0.437428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427206</v>
+        <v>0.427799</v>
       </c>
       <c r="E30" t="n">
-        <v>0.164215</v>
+        <v>0.163543</v>
       </c>
       <c r="F30" t="n">
-        <v>0.377705</v>
+        <v>0.383807</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202841</v>
+        <v>0.203117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.43783</v>
+        <v>0.435894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.427491</v>
+        <v>0.428849</v>
       </c>
       <c r="E31" t="n">
-        <v>0.163002</v>
+        <v>0.161398</v>
       </c>
       <c r="F31" t="n">
-        <v>0.373923</v>
+        <v>0.379329</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197473</v>
+        <v>0.197324</v>
       </c>
       <c r="C32" t="n">
-        <v>0.431707</v>
+        <v>0.432939</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429075</v>
+        <v>0.430913</v>
       </c>
       <c r="E32" t="n">
-        <v>0.160672</v>
+        <v>0.159465</v>
       </c>
       <c r="F32" t="n">
-        <v>0.372382</v>
+        <v>0.378098</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19171</v>
+        <v>0.191695</v>
       </c>
       <c r="C33" t="n">
-        <v>0.427343</v>
+        <v>0.428503</v>
       </c>
       <c r="D33" t="n">
-        <v>0.429606</v>
+        <v>0.430377</v>
       </c>
       <c r="E33" t="n">
-        <v>0.159136</v>
+        <v>0.156549</v>
       </c>
       <c r="F33" t="n">
-        <v>0.369465</v>
+        <v>0.376262</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.185673</v>
+        <v>0.186038</v>
       </c>
       <c r="C34" t="n">
-        <v>0.418278</v>
+        <v>0.420611</v>
       </c>
       <c r="D34" t="n">
-        <v>0.431022</v>
+        <v>0.431996</v>
       </c>
       <c r="E34" t="n">
-        <v>0.156584</v>
+        <v>0.154691</v>
       </c>
       <c r="F34" t="n">
-        <v>0.366557</v>
+        <v>0.373609</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180286</v>
+        <v>0.180145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.416636</v>
+        <v>0.415471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.431935</v>
+        <v>0.432072</v>
       </c>
       <c r="E35" t="n">
-        <v>0.154553</v>
+        <v>0.151979</v>
       </c>
       <c r="F35" t="n">
-        <v>0.364119</v>
+        <v>0.370683</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.173739</v>
+        <v>0.174156</v>
       </c>
       <c r="C36" t="n">
-        <v>0.406703</v>
+        <v>0.408241</v>
       </c>
       <c r="D36" t="n">
-        <v>0.430089</v>
+        <v>0.431908</v>
       </c>
       <c r="E36" t="n">
-        <v>0.151386</v>
+        <v>0.149524</v>
       </c>
       <c r="F36" t="n">
-        <v>0.361771</v>
+        <v>0.36915</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166955</v>
+        <v>0.167372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402668</v>
+        <v>0.399972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.430126</v>
+        <v>0.4324</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18057</v>
+        <v>0.180568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.397242</v>
+        <v>0.404004</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241993</v>
+        <v>0.242281</v>
       </c>
       <c r="C38" t="n">
-        <v>0.461377</v>
+        <v>0.461094</v>
       </c>
       <c r="D38" t="n">
-        <v>0.431183</v>
+        <v>0.431035</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179528</v>
+        <v>0.177469</v>
       </c>
       <c r="F38" t="n">
-        <v>0.394536</v>
+        <v>0.401661</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237768</v>
+        <v>0.237518</v>
       </c>
       <c r="C39" t="n">
-        <v>0.455353</v>
+        <v>0.459854</v>
       </c>
       <c r="D39" t="n">
-        <v>0.43033</v>
+        <v>0.435612</v>
       </c>
       <c r="E39" t="n">
-        <v>0.176294</v>
+        <v>0.175584</v>
       </c>
       <c r="F39" t="n">
-        <v>0.392216</v>
+        <v>0.398418</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232824</v>
+        <v>0.232434</v>
       </c>
       <c r="C40" t="n">
-        <v>0.453223</v>
+        <v>0.457158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.429051</v>
+        <v>0.432978</v>
       </c>
       <c r="E40" t="n">
-        <v>0.174305</v>
+        <v>0.173359</v>
       </c>
       <c r="F40" t="n">
-        <v>0.389479</v>
+        <v>0.395941</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227148</v>
+        <v>0.227136</v>
       </c>
       <c r="C41" t="n">
-        <v>0.451212</v>
+        <v>0.45509</v>
       </c>
       <c r="D41" t="n">
-        <v>0.430801</v>
+        <v>0.432469</v>
       </c>
       <c r="E41" t="n">
-        <v>0.17281</v>
+        <v>0.171494</v>
       </c>
       <c r="F41" t="n">
-        <v>0.386503</v>
+        <v>0.393465</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.221623</v>
+        <v>0.221441</v>
       </c>
       <c r="C42" t="n">
-        <v>0.446648</v>
+        <v>0.4516</v>
       </c>
       <c r="D42" t="n">
-        <v>0.432481</v>
+        <v>0.434295</v>
       </c>
       <c r="E42" t="n">
-        <v>0.17041</v>
+        <v>0.169329</v>
       </c>
       <c r="F42" t="n">
-        <v>0.383953</v>
+        <v>0.391198</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215777</v>
+        <v>0.215715</v>
       </c>
       <c r="C43" t="n">
-        <v>0.444084</v>
+        <v>0.448284</v>
       </c>
       <c r="D43" t="n">
-        <v>0.432382</v>
+        <v>0.433399</v>
       </c>
       <c r="E43" t="n">
-        <v>0.168312</v>
+        <v>0.16731</v>
       </c>
       <c r="F43" t="n">
-        <v>0.381182</v>
+        <v>0.388698</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210113</v>
+        <v>0.210288</v>
       </c>
       <c r="C44" t="n">
-        <v>0.439477</v>
+        <v>0.443312</v>
       </c>
       <c r="D44" t="n">
-        <v>0.432938</v>
+        <v>0.435136</v>
       </c>
       <c r="E44" t="n">
-        <v>0.165942</v>
+        <v>0.165106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.378299</v>
+        <v>0.386169</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204175</v>
+        <v>0.204568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.435003</v>
+        <v>0.44094</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4327</v>
+        <v>0.437274</v>
       </c>
       <c r="E45" t="n">
-        <v>0.163824</v>
+        <v>0.163184</v>
       </c>
       <c r="F45" t="n">
-        <v>0.377107</v>
+        <v>0.383152</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.198638</v>
+        <v>0.198475</v>
       </c>
       <c r="C46" t="n">
-        <v>0.428322</v>
+        <v>0.432922</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43351</v>
+        <v>0.435189</v>
       </c>
       <c r="E46" t="n">
-        <v>0.162162</v>
+        <v>0.160956</v>
       </c>
       <c r="F46" t="n">
-        <v>0.375752</v>
+        <v>0.380852</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.192838</v>
+        <v>0.193306</v>
       </c>
       <c r="C47" t="n">
-        <v>0.428482</v>
+        <v>0.432032</v>
       </c>
       <c r="D47" t="n">
-        <v>0.433841</v>
+        <v>0.43744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.16</v>
+        <v>0.158987</v>
       </c>
       <c r="F47" t="n">
-        <v>0.372138</v>
+        <v>0.378843</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.18714</v>
+        <v>0.187467</v>
       </c>
       <c r="C48" t="n">
-        <v>0.41768</v>
+        <v>0.42451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.434971</v>
+        <v>0.436874</v>
       </c>
       <c r="E48" t="n">
-        <v>0.15796</v>
+        <v>0.155983</v>
       </c>
       <c r="F48" t="n">
-        <v>0.369848</v>
+        <v>0.376162</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181278</v>
+        <v>0.181824</v>
       </c>
       <c r="C49" t="n">
-        <v>0.417432</v>
+        <v>0.419746</v>
       </c>
       <c r="D49" t="n">
-        <v>0.435418</v>
+        <v>0.43803</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15606</v>
+        <v>0.154082</v>
       </c>
       <c r="F49" t="n">
-        <v>0.366527</v>
+        <v>0.373476</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175344</v>
+        <v>0.175606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.409458</v>
+        <v>0.411714</v>
       </c>
       <c r="D50" t="n">
-        <v>0.432251</v>
+        <v>0.434013</v>
       </c>
       <c r="E50" t="n">
-        <v>0.152869</v>
+        <v>0.151528</v>
       </c>
       <c r="F50" t="n">
-        <v>0.364028</v>
+        <v>0.37047</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168864</v>
+        <v>0.169008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.398566</v>
+        <v>0.402841</v>
       </c>
       <c r="D51" t="n">
-        <v>0.431939</v>
+        <v>0.43399</v>
       </c>
       <c r="E51" t="n">
-        <v>0.183704</v>
+        <v>0.183105</v>
       </c>
       <c r="F51" t="n">
-        <v>0.399111</v>
+        <v>0.406798</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.161892</v>
+        <v>0.162044</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389523</v>
+        <v>0.393527</v>
       </c>
       <c r="D52" t="n">
-        <v>0.43176</v>
+        <v>0.434146</v>
       </c>
       <c r="E52" t="n">
-        <v>0.181099</v>
+        <v>0.180945</v>
       </c>
       <c r="F52" t="n">
-        <v>0.396711</v>
+        <v>0.402972</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239809</v>
+        <v>0.239722</v>
       </c>
       <c r="C53" t="n">
-        <v>0.459258</v>
+        <v>0.462586</v>
       </c>
       <c r="D53" t="n">
-        <v>0.434426</v>
+        <v>0.435027</v>
       </c>
       <c r="E53" t="n">
-        <v>0.178649</v>
+        <v>0.178022</v>
       </c>
       <c r="F53" t="n">
-        <v>0.393332</v>
+        <v>0.400382</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234659</v>
+        <v>0.234539</v>
       </c>
       <c r="C54" t="n">
-        <v>0.458041</v>
+        <v>0.459061</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433623</v>
+        <v>0.434234</v>
       </c>
       <c r="E54" t="n">
-        <v>0.176637</v>
+        <v>0.17633</v>
       </c>
       <c r="F54" t="n">
-        <v>0.390666</v>
+        <v>0.397366</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229273</v>
+        <v>0.229278</v>
       </c>
       <c r="C55" t="n">
-        <v>0.453953</v>
+        <v>0.455905</v>
       </c>
       <c r="D55" t="n">
-        <v>0.433032</v>
+        <v>0.433676</v>
       </c>
       <c r="E55" t="n">
-        <v>0.174044</v>
+        <v>0.173837</v>
       </c>
       <c r="F55" t="n">
-        <v>0.38773</v>
+        <v>0.392367</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223227</v>
+        <v>0.223779</v>
       </c>
       <c r="C56" t="n">
-        <v>0.450615</v>
+        <v>0.453812</v>
       </c>
       <c r="D56" t="n">
-        <v>0.434108</v>
+        <v>0.43412</v>
       </c>
       <c r="E56" t="n">
-        <v>0.171942</v>
+        <v>0.171259</v>
       </c>
       <c r="F56" t="n">
-        <v>0.384301</v>
+        <v>0.392019</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.217614</v>
+        <v>0.217794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.448941</v>
+        <v>0.448748</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433434</v>
+        <v>0.435282</v>
       </c>
       <c r="E57" t="n">
-        <v>0.170235</v>
+        <v>0.169506</v>
       </c>
       <c r="F57" t="n">
-        <v>0.383555</v>
+        <v>0.389058</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.211941</v>
+        <v>0.21152</v>
       </c>
       <c r="C58" t="n">
-        <v>0.442007</v>
+        <v>0.44361</v>
       </c>
       <c r="D58" t="n">
-        <v>0.435488</v>
+        <v>0.437805</v>
       </c>
       <c r="E58" t="n">
-        <v>0.168001</v>
+        <v>0.167471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.380366</v>
+        <v>0.387355</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.20583</v>
+        <v>0.20603</v>
       </c>
       <c r="C59" t="n">
-        <v>0.440544</v>
+        <v>0.440059</v>
       </c>
       <c r="D59" t="n">
-        <v>0.436576</v>
+        <v>0.437745</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165668</v>
+        <v>0.165434</v>
       </c>
       <c r="F59" t="n">
-        <v>0.377849</v>
+        <v>0.384345</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.200294</v>
+        <v>0.200056</v>
       </c>
       <c r="C60" t="n">
-        <v>0.434355</v>
+        <v>0.43639</v>
       </c>
       <c r="D60" t="n">
-        <v>0.436503</v>
+        <v>0.440569</v>
       </c>
       <c r="E60" t="n">
-        <v>0.163422</v>
+        <v>0.162732</v>
       </c>
       <c r="F60" t="n">
-        <v>0.376703</v>
+        <v>0.382109</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.194517</v>
+        <v>0.194649</v>
       </c>
       <c r="C61" t="n">
-        <v>0.431887</v>
+        <v>0.431999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437946</v>
+        <v>0.440616</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161503</v>
+        <v>0.160427</v>
       </c>
       <c r="F61" t="n">
-        <v>0.374228</v>
+        <v>0.379094</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189097</v>
+        <v>0.189276</v>
       </c>
       <c r="C62" t="n">
-        <v>0.426819</v>
+        <v>0.426233</v>
       </c>
       <c r="D62" t="n">
-        <v>0.443317</v>
+        <v>0.444337</v>
       </c>
       <c r="E62" t="n">
-        <v>0.159373</v>
+        <v>0.158176</v>
       </c>
       <c r="F62" t="n">
-        <v>0.370908</v>
+        <v>0.376993</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183078</v>
+        <v>0.183174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.421294</v>
+        <v>0.423175</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445809</v>
+        <v>0.448275</v>
       </c>
       <c r="E63" t="n">
-        <v>0.157348</v>
+        <v>0.156094</v>
       </c>
       <c r="F63" t="n">
-        <v>0.36748</v>
+        <v>0.374036</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17724</v>
+        <v>0.177272</v>
       </c>
       <c r="C64" t="n">
-        <v>0.413304</v>
+        <v>0.415654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.459097</v>
+        <v>0.46203</v>
       </c>
       <c r="E64" t="n">
-        <v>0.154486</v>
+        <v>0.153174</v>
       </c>
       <c r="F64" t="n">
-        <v>0.366002</v>
+        <v>0.371244</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.170914</v>
+        <v>0.171005</v>
       </c>
       <c r="C65" t="n">
-        <v>0.407075</v>
+        <v>0.406594</v>
       </c>
       <c r="D65" t="n">
-        <v>0.464832</v>
+        <v>0.466394</v>
       </c>
       <c r="E65" t="n">
-        <v>0.151943</v>
+        <v>0.150936</v>
       </c>
       <c r="F65" t="n">
-        <v>0.363247</v>
+        <v>0.36906</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163986</v>
+        <v>0.164103</v>
       </c>
       <c r="C66" t="n">
-        <v>0.399658</v>
+        <v>0.399207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4744</v>
+        <v>0.473466</v>
       </c>
       <c r="E66" t="n">
-        <v>0.183925</v>
+        <v>0.182983</v>
       </c>
       <c r="F66" t="n">
-        <v>0.398452</v>
+        <v>0.404993</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240649</v>
+        <v>0.240198</v>
       </c>
       <c r="C67" t="n">
-        <v>0.481598</v>
+        <v>0.480353</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483179</v>
+        <v>0.481775</v>
       </c>
       <c r="E67" t="n">
-        <v>0.181496</v>
+        <v>0.179967</v>
       </c>
       <c r="F67" t="n">
-        <v>0.395918</v>
+        <v>0.402911</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235651</v>
+        <v>0.235521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.481123</v>
+        <v>0.482974</v>
       </c>
       <c r="D68" t="n">
-        <v>0.488393</v>
+        <v>0.488306</v>
       </c>
       <c r="E68" t="n">
-        <v>0.178261</v>
+        <v>0.17816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.392892</v>
+        <v>0.400614</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230153</v>
+        <v>0.22989</v>
       </c>
       <c r="C69" t="n">
-        <v>0.483935</v>
+        <v>0.487031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.49609</v>
+        <v>0.494803</v>
       </c>
       <c r="E69" t="n">
-        <v>0.175799</v>
+        <v>0.175263</v>
       </c>
       <c r="F69" t="n">
-        <v>0.391034</v>
+        <v>0.397645</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.224541</v>
+        <v>0.224821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.487527</v>
+        <v>0.488156</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49946</v>
+        <v>0.501956</v>
       </c>
       <c r="E70" t="n">
-        <v>0.173156</v>
+        <v>0.172715</v>
       </c>
       <c r="F70" t="n">
-        <v>0.389136</v>
+        <v>0.394821</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.218646</v>
+        <v>0.218504</v>
       </c>
       <c r="C71" t="n">
-        <v>0.489822</v>
+        <v>0.495077</v>
       </c>
       <c r="D71" t="n">
-        <v>0.508474</v>
+        <v>0.511584</v>
       </c>
       <c r="E71" t="n">
-        <v>0.170872</v>
+        <v>0.170691</v>
       </c>
       <c r="F71" t="n">
-        <v>0.387536</v>
+        <v>0.393352</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.212809</v>
+        <v>0.212848</v>
       </c>
       <c r="C72" t="n">
-        <v>0.497234</v>
+        <v>0.499268</v>
       </c>
       <c r="D72" t="n">
-        <v>0.514436</v>
+        <v>0.5152139999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.169127</v>
+        <v>0.168164</v>
       </c>
       <c r="F72" t="n">
-        <v>0.386089</v>
+        <v>0.392796</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.207231</v>
+        <v>0.206873</v>
       </c>
       <c r="C73" t="n">
-        <v>0.500972</v>
+        <v>0.499776</v>
       </c>
       <c r="D73" t="n">
-        <v>0.517641</v>
+        <v>0.520082</v>
       </c>
       <c r="E73" t="n">
-        <v>0.167079</v>
+        <v>0.166039</v>
       </c>
       <c r="F73" t="n">
-        <v>0.384483</v>
+        <v>0.390495</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20104</v>
+        <v>0.201368</v>
       </c>
       <c r="C74" t="n">
-        <v>0.489835</v>
+        <v>0.504122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.526363</v>
+        <v>0.524809</v>
       </c>
       <c r="E74" t="n">
-        <v>0.164891</v>
+        <v>0.16399</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3831</v>
+        <v>0.389017</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195745</v>
+        <v>0.195663</v>
       </c>
       <c r="C75" t="n">
-        <v>0.503349</v>
+        <v>0.505511</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5315260000000001</v>
+        <v>0.531617</v>
       </c>
       <c r="E75" t="n">
-        <v>0.162543</v>
+        <v>0.161657</v>
       </c>
       <c r="F75" t="n">
-        <v>0.380285</v>
+        <v>0.387246</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189766</v>
+        <v>0.189863</v>
       </c>
       <c r="C76" t="n">
-        <v>0.505511</v>
+        <v>0.506609</v>
       </c>
       <c r="D76" t="n">
-        <v>0.538436</v>
+        <v>0.537131</v>
       </c>
       <c r="E76" t="n">
-        <v>0.16041</v>
+        <v>0.159276</v>
       </c>
       <c r="F76" t="n">
-        <v>0.379836</v>
+        <v>0.385686</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184103</v>
+        <v>0.184189</v>
       </c>
       <c r="C77" t="n">
-        <v>0.485069</v>
+        <v>0.505681</v>
       </c>
       <c r="D77" t="n">
-        <v>0.544011</v>
+        <v>0.544439</v>
       </c>
       <c r="E77" t="n">
-        <v>0.15811</v>
+        <v>0.156748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.378099</v>
+        <v>0.383687</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178599</v>
+        <v>0.178858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.49982</v>
+        <v>0.503047</v>
       </c>
       <c r="D78" t="n">
-        <v>0.554674</v>
+        <v>0.554715</v>
       </c>
       <c r="E78" t="n">
-        <v>0.155417</v>
+        <v>0.154195</v>
       </c>
       <c r="F78" t="n">
-        <v>0.376414</v>
+        <v>0.381846</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.172361</v>
+        <v>0.173134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.493894</v>
+        <v>0.497662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.554785</v>
+        <v>0.5559500000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.152711</v>
+        <v>0.151533</v>
       </c>
       <c r="F79" t="n">
-        <v>0.372866</v>
+        <v>0.379423</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.165727</v>
+        <v>0.166229</v>
       </c>
       <c r="C80" t="n">
-        <v>0.488555</v>
+        <v>0.491519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.553782</v>
+        <v>0.5537879999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.185302</v>
+        <v>0.184456</v>
       </c>
       <c r="F80" t="n">
-        <v>0.408163</v>
+        <v>0.413866</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24171</v>
+        <v>0.24157</v>
       </c>
       <c r="C81" t="n">
-        <v>0.534054</v>
+        <v>0.562155</v>
       </c>
       <c r="D81" t="n">
-        <v>0.552387</v>
+        <v>0.555899</v>
       </c>
       <c r="E81" t="n">
-        <v>0.182436</v>
+        <v>0.181762</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405049</v>
+        <v>0.411072</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.236826</v>
+        <v>0.236649</v>
       </c>
       <c r="C82" t="n">
-        <v>0.531237</v>
+        <v>0.524473</v>
       </c>
       <c r="D82" t="n">
-        <v>0.554111</v>
+        <v>0.553531</v>
       </c>
       <c r="E82" t="n">
-        <v>0.179322</v>
+        <v>0.178784</v>
       </c>
       <c r="F82" t="n">
-        <v>0.402965</v>
+        <v>0.408645</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.231568</v>
+        <v>0.231335</v>
       </c>
       <c r="C83" t="n">
-        <v>0.528038</v>
+        <v>0.519026</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5538689999999999</v>
+        <v>0.555278</v>
       </c>
       <c r="E83" t="n">
-        <v>0.176702</v>
+        <v>0.176748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.400093</v>
+        <v>0.405635</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.225794</v>
+        <v>0.225487</v>
       </c>
       <c r="C84" t="n">
-        <v>0.557381</v>
+        <v>0.54648</v>
       </c>
       <c r="D84" t="n">
-        <v>0.594209</v>
+        <v>0.595963</v>
       </c>
       <c r="E84" t="n">
-        <v>0.174468</v>
+        <v>0.174441</v>
       </c>
       <c r="F84" t="n">
-        <v>0.440992</v>
+        <v>0.442521</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.220046</v>
+        <v>0.21981</v>
       </c>
       <c r="C85" t="n">
-        <v>0.549577</v>
+        <v>0.542315</v>
       </c>
       <c r="D85" t="n">
-        <v>0.596421</v>
+        <v>0.596777</v>
       </c>
       <c r="E85" t="n">
-        <v>0.172069</v>
+        <v>0.171848</v>
       </c>
       <c r="F85" t="n">
-        <v>0.435628</v>
+        <v>0.443512</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.213642</v>
+        <v>0.213947</v>
       </c>
       <c r="C86" t="n">
-        <v>0.545262</v>
+        <v>0.537345</v>
       </c>
       <c r="D86" t="n">
-        <v>0.597286</v>
+        <v>0.597761</v>
       </c>
       <c r="E86" t="n">
-        <v>0.16973</v>
+        <v>0.169356</v>
       </c>
       <c r="F86" t="n">
-        <v>0.433205</v>
+        <v>0.437802</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.208073</v>
+        <v>0.207945</v>
       </c>
       <c r="C87" t="n">
-        <v>0.538462</v>
+        <v>0.532767</v>
       </c>
       <c r="D87" t="n">
-        <v>0.598576</v>
+        <v>0.599957</v>
       </c>
       <c r="E87" t="n">
-        <v>0.167769</v>
+        <v>0.1671</v>
       </c>
       <c r="F87" t="n">
-        <v>0.434541</v>
+        <v>0.433542</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.202295</v>
+        <v>0.202197</v>
       </c>
       <c r="C88" t="n">
-        <v>0.531479</v>
+        <v>0.524744</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601366</v>
+        <v>0.60133</v>
       </c>
       <c r="E88" t="n">
-        <v>0.16588</v>
+        <v>0.165093</v>
       </c>
       <c r="F88" t="n">
-        <v>0.426808</v>
+        <v>0.431405</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.196636</v>
+        <v>0.19674</v>
       </c>
       <c r="C89" t="n">
-        <v>0.559206</v>
+        <v>0.505852</v>
       </c>
       <c r="D89" t="n">
-        <v>0.600994</v>
+        <v>0.603321</v>
       </c>
       <c r="E89" t="n">
-        <v>0.163323</v>
+        <v>0.16247</v>
       </c>
       <c r="F89" t="n">
-        <v>0.427851</v>
+        <v>0.427556</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.191179</v>
+        <v>0.191371</v>
       </c>
       <c r="C90" t="n">
-        <v>0.553406</v>
+        <v>0.50179</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604304</v>
+        <v>0.605564</v>
       </c>
       <c r="E90" t="n">
-        <v>0.16096</v>
+        <v>0.160233</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423028</v>
+        <v>0.426277</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.185713</v>
+        <v>0.185716</v>
       </c>
       <c r="C91" t="n">
-        <v>0.546647</v>
+        <v>0.495864</v>
       </c>
       <c r="D91" t="n">
-        <v>0.606926</v>
+        <v>0.608232</v>
       </c>
       <c r="E91" t="n">
-        <v>0.158668</v>
+        <v>0.157885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.423034</v>
+        <v>0.423932</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179973</v>
+        <v>0.179869</v>
       </c>
       <c r="C92" t="n">
-        <v>0.544185</v>
+        <v>0.488627</v>
       </c>
       <c r="D92" t="n">
-        <v>0.536489</v>
+        <v>0.537973</v>
       </c>
       <c r="E92" t="n">
-        <v>0.156505</v>
+        <v>0.155079</v>
       </c>
       <c r="F92" t="n">
-        <v>0.419665</v>
+        <v>0.419371</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173965</v>
+        <v>0.174091</v>
       </c>
       <c r="C93" t="n">
-        <v>0.53549</v>
+        <v>0.482023</v>
       </c>
       <c r="D93" t="n">
-        <v>0.536896</v>
+        <v>0.539056</v>
       </c>
       <c r="E93" t="n">
-        <v>0.15379</v>
+        <v>0.15273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.412444</v>
+        <v>0.417124</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16715</v>
+        <v>0.167533</v>
       </c>
       <c r="C94" t="n">
-        <v>0.528116</v>
+        <v>0.473874</v>
       </c>
       <c r="D94" t="n">
-        <v>0.539503</v>
+        <v>0.540442</v>
       </c>
       <c r="E94" t="n">
-        <v>0.189488</v>
+        <v>0.186805</v>
       </c>
       <c r="F94" t="n">
-        <v>0.454216</v>
+        <v>0.458561</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24258</v>
+        <v>0.242437</v>
       </c>
       <c r="C95" t="n">
-        <v>0.564492</v>
+        <v>0.584892</v>
       </c>
       <c r="D95" t="n">
-        <v>0.539268</v>
+        <v>0.541911</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184794</v>
+        <v>0.18322</v>
       </c>
       <c r="F95" t="n">
-        <v>0.446828</v>
+        <v>0.452715</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.237496</v>
+        <v>0.237765</v>
       </c>
       <c r="C96" t="n">
-        <v>0.561238</v>
+        <v>0.583004</v>
       </c>
       <c r="D96" t="n">
-        <v>0.541982</v>
+        <v>0.542297</v>
       </c>
       <c r="E96" t="n">
-        <v>0.180128</v>
+        <v>0.180719</v>
       </c>
       <c r="F96" t="n">
-        <v>0.448795</v>
+        <v>0.451209</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.231991</v>
+        <v>0.232388</v>
       </c>
       <c r="C97" t="n">
-        <v>0.555555</v>
+        <v>0.575426</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5441510000000001</v>
+        <v>0.543668</v>
       </c>
       <c r="E97" t="n">
-        <v>0.177216</v>
+        <v>0.177123</v>
       </c>
       <c r="F97" t="n">
-        <v>0.442749</v>
+        <v>0.446972</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.226752</v>
+        <v>0.226966</v>
       </c>
       <c r="C98" t="n">
-        <v>0.547001</v>
+        <v>0.569388</v>
       </c>
       <c r="D98" t="n">
-        <v>0.542865</v>
+        <v>0.54595</v>
       </c>
       <c r="E98" t="n">
-        <v>0.174748</v>
+        <v>0.174515</v>
       </c>
       <c r="F98" t="n">
-        <v>0.44028</v>
+        <v>0.444416</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220903</v>
+        <v>0.221203</v>
       </c>
       <c r="C99" t="n">
-        <v>0.541613</v>
+        <v>0.56515</v>
       </c>
       <c r="D99" t="n">
-        <v>0.546829</v>
+        <v>0.546608</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1727</v>
+        <v>0.172044</v>
       </c>
       <c r="F99" t="n">
-        <v>0.436552</v>
+        <v>0.440406</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.214878</v>
+        <v>0.21506</v>
       </c>
       <c r="C100" t="n">
-        <v>0.561414</v>
+        <v>0.573662</v>
       </c>
       <c r="D100" t="n">
-        <v>0.547891</v>
+        <v>0.549377</v>
       </c>
       <c r="E100" t="n">
-        <v>0.170472</v>
+        <v>0.169851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.434181</v>
+        <v>0.436597</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.208974</v>
+        <v>0.209298</v>
       </c>
       <c r="C101" t="n">
-        <v>0.558017</v>
+        <v>0.570205</v>
       </c>
       <c r="D101" t="n">
-        <v>0.55236</v>
+        <v>0.554041</v>
       </c>
       <c r="E101" t="n">
-        <v>0.168202</v>
+        <v>0.167494</v>
       </c>
       <c r="F101" t="n">
-        <v>0.431419</v>
+        <v>0.435379</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.203466</v>
+        <v>0.203488</v>
       </c>
       <c r="C102" t="n">
-        <v>0.553859</v>
+        <v>0.565542</v>
       </c>
       <c r="D102" t="n">
-        <v>0.555886</v>
+        <v>0.557215</v>
       </c>
       <c r="E102" t="n">
-        <v>0.165815</v>
+        <v>0.165453</v>
       </c>
       <c r="F102" t="n">
-        <v>0.427605</v>
+        <v>0.432601</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197618</v>
+        <v>0.198009</v>
       </c>
       <c r="C103" t="n">
-        <v>0.549383</v>
+        <v>0.5616989999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560077</v>
+        <v>0.561775</v>
       </c>
       <c r="E103" t="n">
-        <v>0.163533</v>
+        <v>0.163093</v>
       </c>
       <c r="F103" t="n">
-        <v>0.426003</v>
+        <v>0.430507</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.192034</v>
+        <v>0.19224</v>
       </c>
       <c r="C104" t="n">
-        <v>0.556362</v>
+        <v>0.471566</v>
       </c>
       <c r="D104" t="n">
-        <v>0.563769</v>
+        <v>0.567312</v>
       </c>
       <c r="E104" t="n">
-        <v>0.161274</v>
+        <v>0.160625</v>
       </c>
       <c r="F104" t="n">
-        <v>0.42175</v>
+        <v>0.427305</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.186529</v>
+        <v>0.18665</v>
       </c>
       <c r="C105" t="n">
-        <v>0.550244</v>
+        <v>0.465265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.570621</v>
+        <v>0.5680500000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.159329</v>
+        <v>0.158168</v>
       </c>
       <c r="F105" t="n">
-        <v>0.418179</v>
+        <v>0.424176</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18097</v>
+        <v>0.181237</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542317</v>
+        <v>0.461608</v>
       </c>
       <c r="D106" t="n">
-        <v>0.571639</v>
+        <v>0.571648</v>
       </c>
       <c r="E106" t="n">
-        <v>0.156922</v>
+        <v>0.155831</v>
       </c>
       <c r="F106" t="n">
-        <v>0.415355</v>
+        <v>0.421983</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.175053</v>
+        <v>0.17529</v>
       </c>
       <c r="C107" t="n">
-        <v>0.53649</v>
+        <v>0.514401</v>
       </c>
       <c r="D107" t="n">
-        <v>0.516176</v>
+        <v>0.5182870000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.154115</v>
+        <v>0.153</v>
       </c>
       <c r="F107" t="n">
-        <v>0.414148</v>
+        <v>0.418716</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.168898</v>
+        <v>0.168722</v>
       </c>
       <c r="C108" t="n">
-        <v>0.526491</v>
+        <v>0.510819</v>
       </c>
       <c r="D108" t="n">
-        <v>0.518506</v>
+        <v>0.520796</v>
       </c>
       <c r="E108" t="n">
-        <v>0.189352</v>
+        <v>0.188454</v>
       </c>
       <c r="F108" t="n">
-        <v>0.451274</v>
+        <v>0.455868</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162044</v>
+        <v>0.161433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.516153</v>
+        <v>0.504629</v>
       </c>
       <c r="D109" t="n">
-        <v>0.523319</v>
+        <v>0.524385</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185708</v>
+        <v>0.186292</v>
       </c>
       <c r="F109" t="n">
-        <v>0.447291</v>
+        <v>0.452567</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238563</v>
+        <v>0.238796</v>
       </c>
       <c r="C110" t="n">
-        <v>0.519753</v>
+        <v>0.520471</v>
       </c>
       <c r="D110" t="n">
-        <v>0.523008</v>
+        <v>0.524983</v>
       </c>
       <c r="E110" t="n">
-        <v>0.181483</v>
+        <v>0.181491</v>
       </c>
       <c r="F110" t="n">
-        <v>0.445737</v>
+        <v>0.447067</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233527</v>
+        <v>0.233355</v>
       </c>
       <c r="C111" t="n">
-        <v>0.52006</v>
+        <v>0.515222</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5274219999999999</v>
+        <v>0.526706</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179112</v>
+        <v>0.178106</v>
       </c>
       <c r="F111" t="n">
-        <v>0.443525</v>
+        <v>0.444848</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228073</v>
+        <v>0.228036</v>
       </c>
       <c r="C112" t="n">
-        <v>0.537312</v>
+        <v>0.5522049999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.526564</v>
+        <v>0.53002</v>
       </c>
       <c r="E112" t="n">
-        <v>0.175839</v>
+        <v>0.176043</v>
       </c>
       <c r="F112" t="n">
-        <v>0.439856</v>
+        <v>0.443812</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.221797</v>
+        <v>0.221875</v>
       </c>
       <c r="C113" t="n">
-        <v>0.537103</v>
+        <v>0.55348</v>
       </c>
       <c r="D113" t="n">
-        <v>0.533197</v>
+        <v>0.532073</v>
       </c>
       <c r="E113" t="n">
-        <v>0.173671</v>
+        <v>0.172808</v>
       </c>
       <c r="F113" t="n">
-        <v>0.435843</v>
+        <v>0.441195</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.216048</v>
+        <v>0.216068</v>
       </c>
       <c r="C114" t="n">
-        <v>0.536242</v>
+        <v>0.540598</v>
       </c>
       <c r="D114" t="n">
-        <v>0.536149</v>
+        <v>0.535104</v>
       </c>
       <c r="E114" t="n">
-        <v>0.170825</v>
+        <v>0.170577</v>
       </c>
       <c r="F114" t="n">
-        <v>0.432454</v>
+        <v>0.439673</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21018</v>
+        <v>0.210269</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5647759999999999</v>
+        <v>0.498838</v>
       </c>
       <c r="D115" t="n">
-        <v>0.53859</v>
+        <v>0.538905</v>
       </c>
       <c r="E115" t="n">
-        <v>0.168693</v>
+        <v>0.168308</v>
       </c>
       <c r="F115" t="n">
-        <v>0.430551</v>
+        <v>0.43405</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.204283</v>
+        <v>0.204448</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563499</v>
+        <v>0.528437</v>
       </c>
       <c r="D116" t="n">
-        <v>0.54386</v>
+        <v>0.544232</v>
       </c>
       <c r="E116" t="n">
-        <v>0.16637</v>
+        <v>0.165484</v>
       </c>
       <c r="F116" t="n">
-        <v>0.427372</v>
+        <v>0.432634</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.198519</v>
+        <v>0.198642</v>
       </c>
       <c r="C117" t="n">
-        <v>0.562132</v>
+        <v>0.527535</v>
       </c>
       <c r="D117" t="n">
-        <v>0.54858</v>
+        <v>0.5469850000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.16404</v>
+        <v>0.163192</v>
       </c>
       <c r="F117" t="n">
-        <v>0.423897</v>
+        <v>0.429833</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.192926</v>
+        <v>0.193214</v>
       </c>
       <c r="C118" t="n">
-        <v>0.524578</v>
+        <v>0.485356</v>
       </c>
       <c r="D118" t="n">
-        <v>0.552339</v>
+        <v>0.5536219999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1617</v>
+        <v>0.161058</v>
       </c>
       <c r="F118" t="n">
-        <v>0.422227</v>
+        <v>0.427442</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.187563</v>
+        <v>0.187664</v>
       </c>
       <c r="C119" t="n">
-        <v>0.519015</v>
+        <v>0.480943</v>
       </c>
       <c r="D119" t="n">
-        <v>0.557916</v>
+        <v>0.55637</v>
       </c>
       <c r="E119" t="n">
-        <v>0.159537</v>
+        <v>0.158882</v>
       </c>
       <c r="F119" t="n">
-        <v>0.417927</v>
+        <v>0.42401</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.182143</v>
+        <v>0.182393</v>
       </c>
       <c r="C120" t="n">
-        <v>0.488522</v>
+        <v>0.5607529999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.564241</v>
+        <v>0.562616</v>
       </c>
       <c r="E120" t="n">
-        <v>0.157285</v>
+        <v>0.156311</v>
       </c>
       <c r="F120" t="n">
-        <v>0.416069</v>
+        <v>0.420854</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.176255</v>
+        <v>0.176195</v>
       </c>
       <c r="C121" t="n">
-        <v>0.527726</v>
+        <v>0.551477</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5360009999999999</v>
+        <v>0.536917</v>
       </c>
       <c r="E121" t="n">
-        <v>0.154614</v>
+        <v>0.153481</v>
       </c>
       <c r="F121" t="n">
-        <v>0.412705</v>
+        <v>0.417041</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169812</v>
+        <v>0.170325</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5210090000000001</v>
+        <v>0.540731</v>
       </c>
       <c r="D122" t="n">
-        <v>0.533368</v>
+        <v>0.535214</v>
       </c>
       <c r="E122" t="n">
-        <v>0.151828</v>
+        <v>0.150864</v>
       </c>
       <c r="F122" t="n">
-        <v>0.409281</v>
+        <v>0.413967</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162701</v>
+        <v>0.162801</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5130670000000001</v>
+        <v>0.5294140000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.536328</v>
+        <v>0.538178</v>
       </c>
       <c r="E123" t="n">
-        <v>0.187809</v>
+        <v>0.187092</v>
       </c>
       <c r="F123" t="n">
-        <v>0.447147</v>
+        <v>0.453826</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239127</v>
+        <v>0.239418</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5100749999999999</v>
+        <v>0.543759</v>
       </c>
       <c r="D124" t="n">
-        <v>0.534924</v>
+        <v>0.538614</v>
       </c>
       <c r="E124" t="n">
-        <v>0.182807</v>
+        <v>0.182963</v>
       </c>
       <c r="F124" t="n">
-        <v>0.443253</v>
+        <v>0.449399</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.233907</v>
+        <v>0.23428</v>
       </c>
       <c r="C125" t="n">
-        <v>0.506537</v>
+        <v>0.522889</v>
       </c>
       <c r="D125" t="n">
-        <v>0.538676</v>
+        <v>0.542109</v>
       </c>
       <c r="E125" t="n">
-        <v>0.180128</v>
+        <v>0.179547</v>
       </c>
       <c r="F125" t="n">
-        <v>0.441343</v>
+        <v>0.446875</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.228743</v>
+        <v>0.228977</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5191249999999999</v>
+        <v>0.52037</v>
       </c>
       <c r="D126" t="n">
-        <v>0.539918</v>
+        <v>0.543099</v>
       </c>
       <c r="E126" t="n">
-        <v>0.175724</v>
+        <v>0.176131</v>
       </c>
       <c r="F126" t="n">
-        <v>0.437906</v>
+        <v>0.442269</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.223021</v>
+        <v>0.222913</v>
       </c>
       <c r="C127" t="n">
-        <v>0.500607</v>
+        <v>0.499033</v>
       </c>
       <c r="D127" t="n">
-        <v>0.543072</v>
+        <v>0.545838</v>
       </c>
       <c r="E127" t="n">
-        <v>0.173659</v>
+        <v>0.174027</v>
       </c>
       <c r="F127" t="n">
-        <v>0.436952</v>
+        <v>0.440023</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216982</v>
+        <v>0.217035</v>
       </c>
       <c r="C128" t="n">
-        <v>0.57481</v>
+        <v>0.572809</v>
       </c>
       <c r="D128" t="n">
-        <v>0.545972</v>
+        <v>0.544646</v>
       </c>
       <c r="E128" t="n">
-        <v>0.171462</v>
+        <v>0.170925</v>
       </c>
       <c r="F128" t="n">
-        <v>0.432313</v>
+        <v>0.439887</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.210844</v>
+        <v>0.211365</v>
       </c>
       <c r="C129" t="n">
-        <v>0.491535</v>
+        <v>0.490496</v>
       </c>
       <c r="D129" t="n">
-        <v>0.549364</v>
+        <v>0.550665</v>
       </c>
       <c r="E129" t="n">
-        <v>0.168991</v>
+        <v>0.168861</v>
       </c>
       <c r="F129" t="n">
-        <v>0.429222</v>
+        <v>0.434739</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.205241</v>
+        <v>0.205321</v>
       </c>
       <c r="C130" t="n">
-        <v>0.521451</v>
+        <v>0.5232059999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.551934</v>
+        <v>0.552754</v>
       </c>
       <c r="E130" t="n">
-        <v>0.166901</v>
+        <v>0.166243</v>
       </c>
       <c r="F130" t="n">
-        <v>0.426897</v>
+        <v>0.432116</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.199389</v>
+        <v>0.199713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.538573</v>
+        <v>0.4831</v>
       </c>
       <c r="D131" t="n">
-        <v>0.556173</v>
+        <v>0.557934</v>
       </c>
       <c r="E131" t="n">
-        <v>0.164368</v>
+        <v>0.163786</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424648</v>
+        <v>0.428565</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.193961</v>
+        <v>0.194002</v>
       </c>
       <c r="C132" t="n">
-        <v>0.572449</v>
+        <v>0.575995</v>
       </c>
       <c r="D132" t="n">
-        <v>0.56049</v>
+        <v>0.559787</v>
       </c>
       <c r="E132" t="n">
-        <v>0.16217</v>
+        <v>0.161792</v>
       </c>
       <c r="F132" t="n">
-        <v>0.418984</v>
+        <v>0.427367</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.188651</v>
+        <v>0.18883</v>
       </c>
       <c r="C133" t="n">
-        <v>0.518807</v>
+        <v>0.523089</v>
       </c>
       <c r="D133" t="n">
-        <v>0.563639</v>
+        <v>0.565021</v>
       </c>
       <c r="E133" t="n">
-        <v>0.159946</v>
+        <v>0.159293</v>
       </c>
       <c r="F133" t="n">
-        <v>0.418881</v>
+        <v>0.424107</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.182958</v>
+        <v>0.183327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.468493</v>
+        <v>0.470191</v>
       </c>
       <c r="D134" t="n">
-        <v>0.56692</v>
+        <v>0.570825</v>
       </c>
       <c r="E134" t="n">
-        <v>0.157686</v>
+        <v>0.157007</v>
       </c>
       <c r="F134" t="n">
-        <v>0.414957</v>
+        <v>0.42394</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.177164</v>
+        <v>0.177551</v>
       </c>
       <c r="C135" t="n">
-        <v>0.473786</v>
+        <v>0.473809</v>
       </c>
       <c r="D135" t="n">
-        <v>0.535618</v>
+        <v>0.540996</v>
       </c>
       <c r="E135" t="n">
-        <v>0.155055</v>
+        <v>0.154119</v>
       </c>
       <c r="F135" t="n">
-        <v>0.412604</v>
+        <v>0.41867</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.171168</v>
+        <v>0.17108</v>
       </c>
       <c r="C136" t="n">
-        <v>0.464033</v>
+        <v>0.45679</v>
       </c>
       <c r="D136" t="n">
-        <v>0.537644</v>
+        <v>0.5392439999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.152175</v>
+        <v>0.151457</v>
       </c>
       <c r="F136" t="n">
-        <v>0.410951</v>
+        <v>0.415473</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164786</v>
+        <v>0.164712</v>
       </c>
       <c r="C137" t="n">
-        <v>0.480129</v>
+        <v>0.5042720000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.539771</v>
+        <v>0.540817</v>
       </c>
       <c r="E137" t="n">
-        <v>0.191034</v>
+        <v>0.186969</v>
       </c>
       <c r="F137" t="n">
-        <v>0.447286</v>
+        <v>0.451531</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240146</v>
+        <v>0.240328</v>
       </c>
       <c r="C138" t="n">
-        <v>0.528142</v>
+        <v>0.551576</v>
       </c>
       <c r="D138" t="n">
-        <v>0.54076</v>
+        <v>0.542286</v>
       </c>
       <c r="E138" t="n">
-        <v>0.183488</v>
+        <v>0.184005</v>
       </c>
       <c r="F138" t="n">
-        <v>0.444908</v>
+        <v>0.449044</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.235398</v>
+        <v>0.235337</v>
       </c>
       <c r="C139" t="n">
-        <v>0.501544</v>
+        <v>0.578875</v>
       </c>
       <c r="D139" t="n">
-        <v>0.540707</v>
+        <v>0.544811</v>
       </c>
       <c r="E139" t="n">
-        <v>0.182976</v>
+        <v>0.181737</v>
       </c>
       <c r="F139" t="n">
-        <v>0.441869</v>
+        <v>0.445912</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.229762</v>
+        <v>0.229833</v>
       </c>
       <c r="C140" t="n">
-        <v>0.498787</v>
+        <v>0.514562</v>
       </c>
       <c r="D140" t="n">
-        <v>0.541905</v>
+        <v>0.542649</v>
       </c>
       <c r="E140" t="n">
-        <v>0.177652</v>
+        <v>0.177802</v>
       </c>
       <c r="F140" t="n">
-        <v>0.437899</v>
+        <v>0.443745</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2242</v>
+        <v>0.224205</v>
       </c>
       <c r="C141" t="n">
-        <v>0.587835</v>
+        <v>0.584768</v>
       </c>
       <c r="D141" t="n">
-        <v>0.545709</v>
+        <v>0.546827</v>
       </c>
       <c r="E141" t="n">
-        <v>0.175507</v>
+        <v>0.174127</v>
       </c>
       <c r="F141" t="n">
-        <v>0.435989</v>
+        <v>0.442036</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.218138</v>
+        <v>0.218163</v>
       </c>
       <c r="C142" t="n">
-        <v>0.514715</v>
+        <v>0.516348</v>
       </c>
       <c r="D142" t="n">
-        <v>0.54682</v>
+        <v>0.548661</v>
       </c>
       <c r="E142" t="n">
-        <v>0.172198</v>
+        <v>0.171227</v>
       </c>
       <c r="F142" t="n">
-        <v>0.433736</v>
+        <v>0.439075</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.212072</v>
+        <v>0.212249</v>
       </c>
       <c r="C143" t="n">
-        <v>0.48803</v>
+        <v>0.487445</v>
       </c>
       <c r="D143" t="n">
-        <v>0.548486</v>
+        <v>0.551644</v>
       </c>
       <c r="E143" t="n">
-        <v>0.169464</v>
+        <v>0.170287</v>
       </c>
       <c r="F143" t="n">
-        <v>0.429019</v>
+        <v>0.434112</v>
       </c>
     </row>
   </sheetData>
